--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -193,6 +193,39 @@
   </si>
   <si>
     <t xml:space="preserve">Combination/Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
   </si>
 </sst>
 </file>
@@ -4468,10 +4501,10 @@
   <sheetData>
     <row r="1">
       <c r="N1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -4578,10 +4611,10 @@
     </row>
     <row r="2">
       <c r="N2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -4594,84 +4627,84 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>15345881642.2731</v>
+        <v>10966677089.5315</v>
       </c>
       <c r="AA2" t="n">
-        <v>17531995255.4796</v>
+        <v>12061548563.331</v>
       </c>
       <c r="AB2" t="n">
-        <v>18942203546.542</v>
+        <v>13452725846.8993</v>
       </c>
       <c r="AC2" t="n">
-        <v>25477712376.5921</v>
+        <v>14199015742.5826</v>
       </c>
       <c r="AD2" t="n">
-        <v>25079532787.958</v>
+        <v>13366569783.8199</v>
       </c>
       <c r="AE2" t="n">
-        <v>29582007545.4317</v>
+        <v>15010044823.6704</v>
       </c>
       <c r="AF2" t="n">
-        <v>35507608673.8446</v>
+        <v>18206626257.09</v>
       </c>
       <c r="AG2" t="n">
-        <v>36973961528.5113</v>
+        <v>18851904547.4501</v>
       </c>
       <c r="AH2" t="n">
-        <v>47092584629.4484</v>
+        <v>24329653622.9823</v>
       </c>
       <c r="AI2" t="n">
-        <v>54370208122.6629</v>
+        <v>30884997953.1355</v>
       </c>
       <c r="AJ2" t="n">
-        <v>50766298896.5493</v>
+        <v>28773497301.9621</v>
       </c>
       <c r="AK2" t="n">
-        <v>46380689957.2157</v>
+        <v>23662630195.1326</v>
       </c>
       <c r="AL2" t="n">
-        <v>42394453594.0767</v>
+        <v>21701919789.72</v>
       </c>
       <c r="AM2" t="n">
-        <v>33432752697.7434</v>
+        <v>18358176142.4908</v>
       </c>
       <c r="AN2" t="n">
-        <v>36789456126.9644</v>
+        <v>19031614500.5112</v>
       </c>
       <c r="AO2" t="n">
-        <v>33811327787.04</v>
+        <v>17361153512.7824</v>
       </c>
       <c r="AP2" t="n">
-        <v>33233952149.2717</v>
+        <v>17626563017.4138</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34064622738.1685</v>
+        <v>17873120162.7833</v>
       </c>
       <c r="AR2" t="n">
-        <v>40511204861.7681</v>
+        <v>20750076586.9344</v>
       </c>
       <c r="AS2" t="n">
-        <v>44218797177.9926</v>
+        <v>26144863780.7804</v>
       </c>
       <c r="AT2" t="n">
-        <v>52194173237.7706</v>
+        <v>27983353952.088</v>
       </c>
       <c r="AU2" t="n">
-        <v>45153796097.1098</v>
+        <v>23085389037.8351</v>
       </c>
       <c r="AV2" t="n">
-        <v>49582250214.1208</v>
+        <v>25865414898.1152</v>
       </c>
       <c r="AW2" t="n">
-        <v>19068088230.5457</v>
+        <v>10490936795.6604</v>
       </c>
     </row>
     <row r="3">
       <c r="N3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P3"/>
       <c r="Q3"/>
@@ -4684,84 +4717,84 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3" t="n">
-        <v>615402061</v>
+        <v>602980370</v>
       </c>
       <c r="AA3" t="n">
-        <v>745958682</v>
+        <v>672942744.8999</v>
       </c>
       <c r="AB3" t="n">
-        <v>763204571</v>
+        <v>845521603.2863</v>
       </c>
       <c r="AC3" t="n">
-        <v>1089949613.0938</v>
+        <v>1151094189.8162</v>
       </c>
       <c r="AD3" t="n">
-        <v>954326487.6836</v>
+        <v>1463430562.5173</v>
       </c>
       <c r="AE3" t="n">
-        <v>1464531875.0912</v>
+        <v>1822118252.4474</v>
       </c>
       <c r="AF3" t="n">
-        <v>1750353030.0943</v>
+        <v>1672208289.9372</v>
       </c>
       <c r="AG3" t="n">
-        <v>1239671324.471</v>
+        <v>1868527801.1419</v>
       </c>
       <c r="AH3" t="n">
-        <v>703917895.5659</v>
+        <v>1986275284.6477</v>
       </c>
       <c r="AI3" t="n">
-        <v>683150567.841</v>
+        <v>2396335439.075</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1463047951.211</v>
+        <v>2470819918.4381</v>
       </c>
       <c r="AK3" t="n">
-        <v>1594126904.5965</v>
+        <v>2321855552.8583</v>
       </c>
       <c r="AL3" t="n">
-        <v>1197342150.4164</v>
+        <v>1685361751.6543</v>
       </c>
       <c r="AM3" t="n">
-        <v>1053810335.8304</v>
+        <v>1228592375.3834</v>
       </c>
       <c r="AN3" t="n">
-        <v>907606716.7881</v>
+        <v>1497597670.018</v>
       </c>
       <c r="AO3" t="n">
-        <v>829698723.3953</v>
+        <v>1507290340.2014</v>
       </c>
       <c r="AP3" t="n">
-        <v>882225257.9374</v>
+        <v>1462912512.9587</v>
       </c>
       <c r="AQ3" t="n">
-        <v>845807936.0675</v>
+        <v>1534730331.3873</v>
       </c>
       <c r="AR3" t="n">
-        <v>923868079.3332</v>
+        <v>1837620411.0502</v>
       </c>
       <c r="AS3" t="n">
-        <v>1162698262.7235</v>
+        <v>1837799678.2614</v>
       </c>
       <c r="AT3" t="n">
-        <v>1511992735.6195</v>
+        <v>1918932126.3953</v>
       </c>
       <c r="AU3" t="n">
-        <v>1631433880.1231</v>
+        <v>1844053450.5248</v>
       </c>
       <c r="AV3" t="n">
-        <v>2555479023.9104</v>
+        <v>1851110286.1071</v>
       </c>
       <c r="AW3" t="n">
-        <v>1409095087.061</v>
+        <v>761155973.1043</v>
       </c>
     </row>
     <row r="4">
       <c r="N4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4774,84 +4807,84 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4" t="n">
-        <v>353605860</v>
+        <v>3510982</v>
       </c>
       <c r="AA4" t="n">
-        <v>501638178</v>
+        <v>6131674</v>
       </c>
       <c r="AB4" t="n">
-        <v>526446374</v>
+        <v>6584364</v>
       </c>
       <c r="AC4" t="n">
-        <v>798199438</v>
+        <v>5445288</v>
       </c>
       <c r="AD4" t="n">
-        <v>911358315.6309</v>
+        <v>20229111</v>
       </c>
       <c r="AE4" t="n">
-        <v>676042982.87</v>
+        <v>13291376</v>
       </c>
       <c r="AF4" t="n">
-        <v>694448016.3879</v>
+        <v>24449540</v>
       </c>
       <c r="AG4" t="n">
-        <v>679765460.986</v>
+        <v>10380157.49</v>
       </c>
       <c r="AH4" t="n">
-        <v>559492990.1658</v>
+        <v>15626510.2913</v>
       </c>
       <c r="AI4" t="n">
-        <v>1139154818.529</v>
+        <v>14166289.9767</v>
       </c>
       <c r="AJ4" t="n">
-        <v>969845816.7892</v>
+        <v>297354740.3824</v>
       </c>
       <c r="AK4" t="n">
-        <v>652173104.5862</v>
+        <v>383034085.2473</v>
       </c>
       <c r="AL4" t="n">
-        <v>543768425.9068</v>
+        <v>464193176.6352</v>
       </c>
       <c r="AM4" t="n">
-        <v>82567155.4116</v>
+        <v>430857659.4737</v>
       </c>
       <c r="AN4" t="n">
-        <v>168378109.9497</v>
+        <v>503606748.7638</v>
       </c>
       <c r="AO4" t="n">
-        <v>165358697.6416</v>
+        <v>466217309.5442</v>
       </c>
       <c r="AP4" t="n">
-        <v>64672606.1158</v>
+        <v>660143988.2953</v>
       </c>
       <c r="AQ4" t="n">
-        <v>49394479.9619</v>
+        <v>539689238.4964</v>
       </c>
       <c r="AR4" t="n">
-        <v>839778098.7859</v>
+        <v>1348089633.2975</v>
       </c>
       <c r="AS4" t="n">
-        <v>165662653.1185</v>
+        <v>484607105.6192</v>
       </c>
       <c r="AT4" t="n">
-        <v>68549290.0911</v>
+        <v>520442003.1788</v>
       </c>
       <c r="AU4" t="n">
-        <v>147002854.1986</v>
+        <v>426142656.4945</v>
       </c>
       <c r="AV4" t="n">
-        <v>104834400.2884</v>
+        <v>420820733.1242</v>
       </c>
       <c r="AW4" t="n">
-        <v>40999851.8151</v>
+        <v>238230576.5323</v>
       </c>
     </row>
     <row r="5">
       <c r="N5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -4864,84 +4897,84 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5" t="n">
-        <v>320538683</v>
+        <v>633457112</v>
       </c>
       <c r="AA5" t="n">
-        <v>432788436</v>
+        <v>795746043.3198</v>
       </c>
       <c r="AB5" t="n">
-        <v>780298062</v>
+        <v>1142328565.4518</v>
       </c>
       <c r="AC5" t="n">
-        <v>665235549</v>
+        <v>1531895322.1538</v>
       </c>
       <c r="AD5" t="n">
-        <v>757233360.4707</v>
+        <v>1609786453.2631</v>
       </c>
       <c r="AE5" t="n">
-        <v>802219500.7905</v>
+        <v>1411533252.6507</v>
       </c>
       <c r="AF5" t="n">
-        <v>688398227.5293</v>
+        <v>1481958053.3479</v>
       </c>
       <c r="AG5" t="n">
-        <v>702293992.33</v>
+        <v>1701889265.3883</v>
       </c>
       <c r="AH5" t="n">
-        <v>471628803.2863</v>
+        <v>1600883085.5348</v>
       </c>
       <c r="AI5" t="n">
-        <v>480834625.5086</v>
+        <v>1639072550.6092</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2468354862.7565</v>
+        <v>1402709591.8521</v>
       </c>
       <c r="AK5" t="n">
-        <v>948391412.6218</v>
+        <v>1250959365.5299</v>
       </c>
       <c r="AL5" t="n">
-        <v>887966577.4075</v>
+        <v>995699583.1607</v>
       </c>
       <c r="AM5" t="n">
-        <v>1037386819.1783</v>
+        <v>668298834.2567</v>
       </c>
       <c r="AN5" t="n">
-        <v>1226866124.7718</v>
+        <v>703953753.6157</v>
       </c>
       <c r="AO5" t="n">
-        <v>923891605.5908</v>
+        <v>570143558.4634</v>
       </c>
       <c r="AP5" t="n">
-        <v>1557509402.7261</v>
+        <v>655435082.8421</v>
       </c>
       <c r="AQ5" t="n">
-        <v>710078085.7718</v>
+        <v>585817254.2933</v>
       </c>
       <c r="AR5" t="n">
-        <v>390672907.4872</v>
+        <v>666178412.0091</v>
       </c>
       <c r="AS5" t="n">
-        <v>242144992.6276</v>
+        <v>624725637.2762</v>
       </c>
       <c r="AT5" t="n">
-        <v>314714626.643</v>
+        <v>717409178.2336</v>
       </c>
       <c r="AU5" t="n">
-        <v>379215965.0218</v>
+        <v>763478854.0827</v>
       </c>
       <c r="AV5" t="n">
-        <v>452727501.7329</v>
+        <v>862494349.7389</v>
       </c>
       <c r="AW5" t="n">
-        <v>276654946.0857</v>
+        <v>299254699.858</v>
       </c>
     </row>
     <row r="6">
       <c r="N6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -4954,84 +4987,84 @@
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>2536302693.9317</v>
+        <v>1620717770.2197</v>
       </c>
       <c r="AA6" t="n">
-        <v>2772643462.3202</v>
+        <v>1934976877.5201</v>
       </c>
       <c r="AB6" t="n">
-        <v>3559746178.3984</v>
+        <v>2703129828.0601</v>
       </c>
       <c r="AC6" t="n">
-        <v>4688023770</v>
+        <v>4409479243.3213</v>
       </c>
       <c r="AD6" t="n">
-        <v>6361660629.1563</v>
+        <v>6107063729.3398</v>
       </c>
       <c r="AE6" t="n">
-        <v>5739866388.2315</v>
+        <v>6534986870.2105</v>
       </c>
       <c r="AF6" t="n">
-        <v>5547565111.6042</v>
+        <v>8705816574.4972</v>
       </c>
       <c r="AG6" t="n">
-        <v>4890509605.6403</v>
+        <v>7889330717.6912</v>
       </c>
       <c r="AH6" t="n">
-        <v>5462891053.5184</v>
+        <v>11339736858.5353</v>
       </c>
       <c r="AI6" t="n">
-        <v>4977599450.2267</v>
+        <v>12744949982.4487</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4051556712.8982</v>
+        <v>12274000884.0607</v>
       </c>
       <c r="AK6" t="n">
-        <v>4514586074.6799</v>
+        <v>11396284293.0827</v>
       </c>
       <c r="AL6" t="n">
-        <v>3586333400.2535</v>
+        <v>9556798547.6482</v>
       </c>
       <c r="AM6" t="n">
-        <v>3162025638.9323</v>
+        <v>7738820448.3672</v>
       </c>
       <c r="AN6" t="n">
-        <v>2744176831.3742</v>
+        <v>9215743831.5393</v>
       </c>
       <c r="AO6" t="n">
-        <v>2314384501.9851</v>
+        <v>7609472845.9706</v>
       </c>
       <c r="AP6" t="n">
-        <v>2201886726.7506</v>
+        <v>7397521676.1775</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2156847649.5284</v>
+        <v>7417080195.6146</v>
       </c>
       <c r="AR6" t="n">
-        <v>3127047347.3417</v>
+        <v>9511682492.6948</v>
       </c>
       <c r="AS6" t="n">
-        <v>2776422770.195</v>
+        <v>10609155572.4638</v>
       </c>
       <c r="AT6" t="n">
-        <v>3228255729.4859</v>
+        <v>15727040787.7851</v>
       </c>
       <c r="AU6" t="n">
-        <v>2948914311.1604</v>
+        <v>10886501744.6268</v>
       </c>
       <c r="AV6" t="n">
-        <v>3028984282.4682</v>
+        <v>13261980631.5118</v>
       </c>
       <c r="AW6" t="n">
-        <v>1875047497.4538</v>
+        <v>4674838848.1313</v>
       </c>
     </row>
     <row r="7">
       <c r="N7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -5044,84 +5077,84 @@
       <c r="X7"/>
       <c r="Y7"/>
       <c r="Z7" t="n">
-        <v>95357103</v>
+        <v>6447252669.3232</v>
       </c>
       <c r="AA7" t="n">
-        <v>96374621</v>
+        <v>7447188714.1885</v>
       </c>
       <c r="AB7" t="n">
-        <v>176283335</v>
+        <v>7782566418.503</v>
       </c>
       <c r="AC7" t="n">
-        <v>176782492</v>
+        <v>12994967218.4131</v>
       </c>
       <c r="AD7" t="n">
-        <v>66516179.1191</v>
+        <v>13040981867.4791</v>
       </c>
       <c r="AE7" t="n">
-        <v>6858606</v>
+        <v>14648396207.3329</v>
       </c>
       <c r="AF7" t="n">
-        <v>226945814.8457</v>
+        <v>15435041433.4634</v>
       </c>
       <c r="AG7" t="n">
-        <v>514086994.8814</v>
+        <v>15853628021.3391</v>
       </c>
       <c r="AH7" t="n">
-        <v>481931251.2321</v>
+        <v>18012635084.2801</v>
       </c>
       <c r="AI7" t="n">
-        <v>1545351004.0919</v>
+        <v>18684080005.32</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1433685005.1451</v>
+        <v>15917144969.7951</v>
       </c>
       <c r="AK7" t="n">
-        <v>480452140.8592</v>
+        <v>15451023857.8801</v>
       </c>
       <c r="AL7" t="n">
-        <v>330762474.9628</v>
+        <v>14512694451.8204</v>
       </c>
       <c r="AM7" t="n">
-        <v>420887238.0928</v>
+        <v>10742189582.1904</v>
       </c>
       <c r="AN7" t="n">
-        <v>338475994.2019</v>
+        <v>11182820951.8621</v>
       </c>
       <c r="AO7" t="n">
-        <v>59393159.3235</v>
+        <v>10552108836.2426</v>
       </c>
       <c r="AP7" t="n">
-        <v>589184629.6477</v>
+        <v>10744246020.0686</v>
       </c>
       <c r="AQ7" t="n">
-        <v>584071145.2147</v>
+        <v>10466258717.7406</v>
       </c>
       <c r="AR7" t="n">
-        <v>1159019548.9054</v>
+        <v>12835739955.7488</v>
       </c>
       <c r="AS7" t="n">
-        <v>3491501168.6209</v>
+        <v>12354923335.3771</v>
       </c>
       <c r="AT7" t="n">
-        <v>2856190148.1508</v>
+        <v>13305216180.9551</v>
       </c>
       <c r="AU7" t="n">
-        <v>895023469.7219</v>
+        <v>14147890264.6467</v>
       </c>
       <c r="AV7" t="n">
-        <v>1563100248.711</v>
+        <v>15024247924.5095</v>
       </c>
       <c r="AW7" t="n">
-        <v>392447421.6659</v>
+        <v>6597916141.3409</v>
       </c>
     </row>
     <row r="8">
       <c r="N8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P8"/>
       <c r="Q8"/>
@@ -5134,66 +5167,78 @@
       <c r="X8"/>
       <c r="Y8"/>
       <c r="Z8" t="n">
-        <v>2894007</v>
+        <v>525333816</v>
       </c>
       <c r="AA8" t="n">
-        <v>9715337.0996</v>
+        <v>147747100</v>
       </c>
       <c r="AB8" t="n">
-        <v>22434545.75</v>
+        <v>129908335</v>
       </c>
       <c r="AC8" t="n">
-        <v>36882262.9102</v>
+        <v>154976941</v>
       </c>
       <c r="AD8" t="n">
-        <v>60732928.4004</v>
+        <v>94299199</v>
       </c>
       <c r="AE8" t="n">
-        <v>109271193.02</v>
+        <v>117644694.2969</v>
       </c>
       <c r="AF8" t="n">
-        <v>414833532.4043</v>
+        <v>23601592.4902</v>
       </c>
       <c r="AG8" t="n">
-        <v>1166186782.8383</v>
+        <v>21417495.32</v>
       </c>
       <c r="AH8" t="n">
-        <v>2311835416.7464</v>
+        <v>6253954.6238</v>
       </c>
       <c r="AI8" t="n">
-        <v>3259704390.5858</v>
+        <v>551200.8341</v>
       </c>
       <c r="AJ8" t="n">
-        <v>56338921.6228</v>
+        <v>104637804.8696</v>
       </c>
       <c r="AK8" t="n">
-        <v>7968213.2844</v>
+        <v>114839868.3885</v>
       </c>
       <c r="AL8" t="n">
-        <v>-3760244.3907</v>
+        <v>94994345.7622</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1923733.15</v>
+        <v>73809638.1071</v>
       </c>
       <c r="AN8" t="n">
-        <v>-453257.22</v>
+        <v>78017704.9592</v>
       </c>
       <c r="AO8" t="n">
-        <v>-627.73</v>
-      </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
+        <v>61402656.764</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>14651829.5162</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>23741816.5799</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>2203351.8867</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1151915.5</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>1481539.125</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1930569.125</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>1306848.125</v>
+      </c>
       <c r="AW8"/>
     </row>
     <row r="9">
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" t="n">
         <v>12183236305</v>
@@ -5226,84 +5271,76 @@
         <v>20604829391</v>
       </c>
       <c r="Z9" t="n">
-        <v>1529947758.8696</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>975167745.3599</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1292148348.5101</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1514088443.6909</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1511147160.551</v>
+        <v>147142.5508</v>
       </c>
       <c r="AE9" t="n">
-        <v>1178212388.2754</v>
+        <v>995003.1015</v>
       </c>
       <c r="AF9" t="n">
-        <v>719308484.1156</v>
+        <v>-240850</v>
       </c>
       <c r="AG9" t="n">
-        <v>30602316.1623</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>206782360.932</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-91849558.0467</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>31037044.388</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>2239410.2757</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>74795267.768</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>53238528.2305</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>38848514.4392</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>23735212.7223</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>32043354.8229</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29615682.1826</v>
-      </c>
-      <c r="AR9" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9"/>
+      <c r="AS9"/>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU9"/>
+      <c r="AV9"/>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="N13" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O13" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -5410,10 +5447,10 @@
     </row>
     <row r="14">
       <c r="N14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
@@ -5426,84 +5463,84 @@
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14" t="n">
-        <v>24794802109.6217</v>
+        <v>17719189719.6712</v>
       </c>
       <c r="AA14" t="n">
-        <v>27656321730.6139</v>
+        <v>19026817129.251</v>
       </c>
       <c r="AB14" t="n">
-        <v>29416595050.0298</v>
+        <v>20891623700.7467</v>
       </c>
       <c r="AC14" t="n">
-        <v>38823914824.7272</v>
+        <v>21637004517.3861</v>
       </c>
       <c r="AD14" t="n">
-        <v>37305286595.1829</v>
+        <v>19882496248.867</v>
       </c>
       <c r="AE14" t="n">
-        <v>42706204409.7459</v>
+        <v>21669321848.9192</v>
       </c>
       <c r="AF14" t="n">
-        <v>49644422760.0888</v>
+        <v>25455317457.2892</v>
       </c>
       <c r="AG14" t="n">
-        <v>50314793331.7391</v>
+        <v>25653991133.2789</v>
       </c>
       <c r="AH14" t="n">
-        <v>62775158038.9152</v>
+        <v>32431811998.2677</v>
       </c>
       <c r="AI14" t="n">
-        <v>71747252573.606</v>
+        <v>40756028446.3077</v>
       </c>
       <c r="AJ14" t="n">
-        <v>66413879259.6234</v>
+        <v>37642286659.1817</v>
       </c>
       <c r="AK14" t="n">
-        <v>59477803295.7213</v>
+        <v>30344552129.4263</v>
       </c>
       <c r="AL14" t="n">
-        <v>53387335400.8345</v>
+        <v>27329227585.98</v>
       </c>
       <c r="AM14" t="n">
-        <v>41345247425.6617</v>
+        <v>22702986552.0584</v>
       </c>
       <c r="AN14" t="n">
-        <v>44632911474.2604</v>
+        <v>23089125380.9807</v>
       </c>
       <c r="AO14" t="n">
-        <v>40554914853.76</v>
+        <v>20823793342.5325</v>
       </c>
       <c r="AP14" t="n">
-        <v>39534777975.1933</v>
+        <v>20968383544.311</v>
       </c>
       <c r="AQ14" t="n">
-        <v>39812138687.3045</v>
+        <v>20888742674.9129</v>
       </c>
       <c r="AR14" t="n">
-        <v>46260210624.9227</v>
+        <v>23694751036.6634</v>
       </c>
       <c r="AS14" t="n">
-        <v>49523951703.9999</v>
+        <v>29281596375.7476</v>
       </c>
       <c r="AT14" t="n">
-        <v>57686609087.4092</v>
+        <v>30928065342.3692</v>
       </c>
       <c r="AU14" t="n">
-        <v>48282394030.3806</v>
+        <v>24684920122.1584</v>
       </c>
       <c r="AV14" t="n">
-        <v>49582250214.1208</v>
+        <v>25865414898.1152</v>
       </c>
       <c r="AW14" t="n">
-        <v>18187111653.2242</v>
+        <v>10006238514.4593</v>
       </c>
     </row>
     <row r="15">
       <c r="N15" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
@@ -5516,84 +5553,84 @@
       <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15" t="n">
-        <v>994323602.647581</v>
+        <v>974253503.229933</v>
       </c>
       <c r="AA15" t="n">
-        <v>1176732768.09088</v>
+        <v>1061551796.47435</v>
       </c>
       <c r="AB15" t="n">
-        <v>1185230628.01409</v>
+        <v>1313066167.23932</v>
       </c>
       <c r="AC15" t="n">
-        <v>1660907004.38539</v>
+        <v>1754081454.41354</v>
       </c>
       <c r="AD15" t="n">
-        <v>1419540923.24659</v>
+        <v>2176822710.71138</v>
       </c>
       <c r="AE15" t="n">
-        <v>2114278333.75331</v>
+        <v>2630509590.27169</v>
       </c>
       <c r="AF15" t="n">
-        <v>2447229454.49751</v>
+        <v>2337972575.14889</v>
       </c>
       <c r="AG15" t="n">
-        <v>1686965743.22835</v>
+        <v>2542724291.97416</v>
       </c>
       <c r="AH15" t="n">
-        <v>938333656.737489</v>
+        <v>2647736281.27812</v>
       </c>
       <c r="AI15" t="n">
-        <v>901489584.62898</v>
+        <v>3162218610.79711</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1913999879.73855</v>
+        <v>3232395098.76058</v>
       </c>
       <c r="AK15" t="n">
-        <v>2044281069.28704</v>
+        <v>2977507837.45078</v>
       </c>
       <c r="AL15" t="n">
-        <v>1507812969.73168</v>
+        <v>2122376053.45331</v>
       </c>
       <c r="AM15" t="n">
-        <v>1303214529.43264</v>
+        <v>1519362052.07945</v>
       </c>
       <c r="AN15" t="n">
-        <v>1101107070.02697</v>
+        <v>1816883185.20645</v>
       </c>
       <c r="AO15" t="n">
-        <v>995180115.182206</v>
+        <v>1807915731.43109</v>
       </c>
       <c r="AP15" t="n">
-        <v>1049486366.83366</v>
+        <v>1740266133.17555</v>
       </c>
       <c r="AQ15" t="n">
-        <v>988515948.41859</v>
+        <v>1793676016.03708</v>
       </c>
       <c r="AR15" t="n">
-        <v>1054975582.32168</v>
+        <v>2098399876.13069</v>
       </c>
       <c r="AS15" t="n">
-        <v>1302193100.76804</v>
+        <v>2058289874.81238</v>
       </c>
       <c r="AT15" t="n">
-        <v>1671100976.83406</v>
+        <v>2120862934.95555</v>
       </c>
       <c r="AU15" t="n">
-        <v>1744472009.95484</v>
+        <v>1971823479.02351</v>
       </c>
       <c r="AV15" t="n">
-        <v>2555479023.9104</v>
+        <v>1851110286.1071</v>
       </c>
       <c r="AW15" t="n">
-        <v>1343992610.50905</v>
+        <v>725989333.644395</v>
       </c>
     </row>
     <row r="16">
       <c r="N16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
@@ -5606,84 +5643,84 @@
       <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16" t="n">
-        <v>571331613.776471</v>
+        <v>5672799.12159866</v>
       </c>
       <c r="AA16" t="n">
-        <v>791322758.24629</v>
+        <v>9672575.56371051</v>
       </c>
       <c r="AB16" t="n">
-        <v>817553235.634068</v>
+        <v>10225292.3728799</v>
       </c>
       <c r="AC16" t="n">
-        <v>1216326903.13785</v>
+        <v>8297738.60318566</v>
       </c>
       <c r="AD16" t="n">
-        <v>1355626655.52679</v>
+        <v>30090384.4501886</v>
       </c>
       <c r="AE16" t="n">
-        <v>975972633.766674</v>
+        <v>19188157.513348</v>
       </c>
       <c r="AF16" t="n">
-        <v>970931926.932637</v>
+        <v>34183752.3106362</v>
       </c>
       <c r="AG16" t="n">
-        <v>925036357.199403</v>
+        <v>14125494.1929205</v>
       </c>
       <c r="AH16" t="n">
-        <v>745812980.019796</v>
+        <v>20830384.6741865</v>
       </c>
       <c r="AI16" t="n">
-        <v>1503235527.46109</v>
+        <v>18693921.1763948</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1268779177.85468</v>
+        <v>389007712.878114</v>
       </c>
       <c r="AK16" t="n">
-        <v>836335631.598407</v>
+        <v>491196357.77111</v>
       </c>
       <c r="AL16" t="n">
-        <v>684767578.61378</v>
+        <v>584558467.225174</v>
       </c>
       <c r="AM16" t="n">
-        <v>102108238.008056</v>
+        <v>532828292.579809</v>
       </c>
       <c r="AN16" t="n">
-        <v>204276063.490922</v>
+        <v>610974931.454348</v>
       </c>
       <c r="AO16" t="n">
-        <v>198339087.581003</v>
+        <v>559203217.661313</v>
       </c>
       <c r="AP16" t="n">
-        <v>76933887.1399113</v>
+        <v>785300703.680686</v>
       </c>
       <c r="AQ16" t="n">
-        <v>57728509.1851916</v>
+        <v>630747710.791165</v>
       </c>
       <c r="AR16" t="n">
-        <v>958952266.677594</v>
+        <v>1539399052.44515</v>
       </c>
       <c r="AS16" t="n">
-        <v>185538046.165586</v>
+        <v>542747890.619805</v>
       </c>
       <c r="AT16" t="n">
-        <v>75762788.3612704</v>
+        <v>575208543.936043</v>
       </c>
       <c r="AU16" t="n">
-        <v>157188328.413028</v>
+        <v>455669056.257654</v>
       </c>
       <c r="AV16" t="n">
-        <v>104834400.2884</v>
+        <v>420820733.1242</v>
       </c>
       <c r="AW16" t="n">
-        <v>39105592.2183306</v>
+        <v>227223937.82845</v>
       </c>
     </row>
     <row r="17">
       <c r="N17" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -5696,84 +5733,84 @@
       <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17" t="n">
-        <v>517903982.236535</v>
+        <v>1023495691.0984</v>
       </c>
       <c r="AA17" t="n">
-        <v>682713864.160112</v>
+        <v>1255271192.42387</v>
       </c>
       <c r="AB17" t="n">
-        <v>1211776235.63059</v>
+        <v>1773997240.68067</v>
       </c>
       <c r="AC17" t="n">
-        <v>1013711431.81935</v>
+        <v>2334360818.13765</v>
       </c>
       <c r="AD17" t="n">
-        <v>1126368970.69138</v>
+        <v>2394524072.82714</v>
       </c>
       <c r="AE17" t="n">
-        <v>1158127957.66574</v>
+        <v>2037766623.04866</v>
       </c>
       <c r="AF17" t="n">
-        <v>962473506.697572</v>
+        <v>2071977101.83493</v>
       </c>
       <c r="AG17" t="n">
-        <v>955693564.373886</v>
+        <v>2315959749.01111</v>
       </c>
       <c r="AH17" t="n">
-        <v>628688633.146036</v>
+        <v>2134002401.58894</v>
       </c>
       <c r="AI17" t="n">
-        <v>634512254.296869</v>
+        <v>2162929963.58799</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3229170244.59621</v>
+        <v>1835063565.68202</v>
       </c>
       <c r="AK17" t="n">
-        <v>1216200921.96354</v>
+        <v>1604208888.28007</v>
       </c>
       <c r="AL17" t="n">
-        <v>1118216310.71591</v>
+        <v>1253884484.83503</v>
       </c>
       <c r="AM17" t="n">
-        <v>1282904076.21571</v>
+        <v>826464422.670453</v>
       </c>
       <c r="AN17" t="n">
-        <v>1488432091.75832</v>
+        <v>854035608.970972</v>
       </c>
       <c r="AO17" t="n">
-        <v>1108159538.56744</v>
+        <v>683857304.082738</v>
       </c>
       <c r="AP17" t="n">
-        <v>1852797649.65906</v>
+        <v>779699036.723886</v>
       </c>
       <c r="AQ17" t="n">
-        <v>829885228.638894</v>
+        <v>684658625.243145</v>
       </c>
       <c r="AR17" t="n">
-        <v>446113884.972713</v>
+        <v>760716788.317525</v>
       </c>
       <c r="AS17" t="n">
-        <v>271196361.854524</v>
+        <v>699677156.847568</v>
       </c>
       <c r="AT17" t="n">
-        <v>347832306.080228</v>
+        <v>792902737.091978</v>
       </c>
       <c r="AU17" t="n">
-        <v>405490927.195056</v>
+        <v>816378467.657647</v>
       </c>
       <c r="AV17" t="n">
-        <v>452727501.7329</v>
+        <v>862494349.7389</v>
       </c>
       <c r="AW17" t="n">
-        <v>263873039.239306</v>
+        <v>285428647.762963</v>
       </c>
     </row>
     <row r="18">
       <c r="N18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
@@ -5786,84 +5823,84 @@
       <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18" t="n">
-        <v>4097980477.89595</v>
+        <v>2618642403.53886</v>
       </c>
       <c r="AA18" t="n">
-        <v>4373781678.62807</v>
+        <v>3052381790.33096</v>
       </c>
       <c r="AB18" t="n">
-        <v>5528164215.61224</v>
+        <v>4197868285.19308</v>
       </c>
       <c r="AC18" t="n">
-        <v>7143790339.277</v>
+        <v>6719333511.33182</v>
       </c>
       <c r="AD18" t="n">
-        <v>9462838681.98369</v>
+        <v>9084131056.35918</v>
       </c>
       <c r="AE18" t="n">
-        <v>8286385123.92981</v>
+        <v>9434264549.67942</v>
       </c>
       <c r="AF18" t="n">
-        <v>7756243745.37127</v>
+        <v>12171904970.173</v>
       </c>
       <c r="AG18" t="n">
-        <v>6655088335.74491</v>
+        <v>10735934916.8003</v>
       </c>
       <c r="AH18" t="n">
-        <v>7282119933.1571</v>
+        <v>15116048078.812</v>
       </c>
       <c r="AI18" t="n">
-        <v>6568470073.90426</v>
+        <v>16818312399.4254</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5300358785.11182</v>
+        <v>16057188143.8047</v>
       </c>
       <c r="AK18" t="n">
-        <v>5789427944.23952</v>
+        <v>14614400003.7808</v>
       </c>
       <c r="AL18" t="n">
-        <v>4516269650.07753</v>
+        <v>12034876408.7571</v>
       </c>
       <c r="AM18" t="n">
-        <v>3910378950.54229</v>
+        <v>9570359016.29806</v>
       </c>
       <c r="AN18" t="n">
-        <v>3329231102.56774</v>
+        <v>11180526213.3538</v>
       </c>
       <c r="AO18" t="n">
-        <v>2775982860.18345</v>
+        <v>9127163691.82712</v>
       </c>
       <c r="AP18" t="n">
-        <v>2619342486.79232</v>
+        <v>8800017997.28073</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2520759393.41603</v>
+        <v>8668518881.66675</v>
       </c>
       <c r="AR18" t="n">
-        <v>3570811320.36761</v>
+        <v>10861499602.662</v>
       </c>
       <c r="AS18" t="n">
-        <v>3109524364.20988</v>
+        <v>11881990052.2398</v>
       </c>
       <c r="AT18" t="n">
-        <v>3567967739.47705</v>
+        <v>17382010246.5033</v>
       </c>
       <c r="AU18" t="n">
-        <v>3153237491.41854</v>
+        <v>11640801267.6511</v>
       </c>
       <c r="AV18" t="n">
-        <v>3028984282.4682</v>
+        <v>13261980631.5118</v>
       </c>
       <c r="AW18" t="n">
-        <v>1788417264.43569</v>
+        <v>4458853717.46891</v>
       </c>
     </row>
     <row r="19">
       <c r="N19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
@@ -5876,84 +5913,84 @@
       <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19" t="n">
-        <v>154071336.776034</v>
+        <v>10417019876.28</v>
       </c>
       <c r="AA19" t="n">
-        <v>152028761.484459</v>
+        <v>11747769952.4144</v>
       </c>
       <c r="AB19" t="n">
-        <v>273761997.490013</v>
+        <v>12086059798.7216</v>
       </c>
       <c r="AC19" t="n">
-        <v>269387938.385584</v>
+        <v>19802229218.2449</v>
       </c>
       <c r="AD19" t="n">
-        <v>98941441.4628169</v>
+        <v>19398190953.6403</v>
       </c>
       <c r="AE19" t="n">
-        <v>9901458.82939385</v>
+        <v>21147226121.9781</v>
       </c>
       <c r="AF19" t="n">
-        <v>317300837.668967</v>
+        <v>21580268310.4026</v>
       </c>
       <c r="AG19" t="n">
-        <v>699578293.282059</v>
+        <v>21573885633.998</v>
       </c>
       <c r="AH19" t="n">
-        <v>642421958.744412</v>
+        <v>24011126656.359</v>
       </c>
       <c r="AI19" t="n">
-        <v>2039254448.96801</v>
+        <v>24655623981.1116</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1875586459.86917</v>
+        <v>20823250210.4609</v>
       </c>
       <c r="AK19" t="n">
-        <v>616123605.608112</v>
+        <v>19814128651.0447</v>
       </c>
       <c r="AL19" t="n">
-        <v>416529184.64118</v>
+        <v>18275836119.6904</v>
       </c>
       <c r="AM19" t="n">
-        <v>520498181.96468</v>
+        <v>13284532392.0637</v>
       </c>
       <c r="AN19" t="n">
-        <v>410638554.515164</v>
+        <v>13566981144.1203</v>
       </c>
       <c r="AO19" t="n">
-        <v>71238980.4515043</v>
+        <v>12656701271.1479</v>
       </c>
       <c r="AP19" t="n">
-        <v>700888158.43796</v>
+        <v>12781247893.9125</v>
       </c>
       <c r="AQ19" t="n">
-        <v>682617905.833606</v>
+        <v>12232166691.2523</v>
       </c>
       <c r="AR19" t="n">
-        <v>1323497749.17128</v>
+        <v>14657279039.3616</v>
       </c>
       <c r="AS19" t="n">
-        <v>3910394363.58297</v>
+        <v>13837206473.6387</v>
       </c>
       <c r="AT19" t="n">
-        <v>3156749390.49427</v>
+        <v>14705335041.0923</v>
       </c>
       <c r="AU19" t="n">
-        <v>957037493.339728</v>
+        <v>15128163554.3369</v>
       </c>
       <c r="AV19" t="n">
-        <v>1563100248.711</v>
+        <v>15024247924.5095</v>
       </c>
       <c r="AW19" t="n">
-        <v>374315714.798505</v>
+        <v>6293081723.26109</v>
       </c>
     </row>
     <row r="20">
       <c r="N20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
@@ -5966,66 +6003,78 @@
       <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20" t="n">
-        <v>4675934.07414233</v>
+        <v>848797632.671109</v>
       </c>
       <c r="AA20" t="n">
-        <v>15325722.1800769</v>
+        <v>233067672.721853</v>
       </c>
       <c r="AB20" t="n">
-        <v>34840083.1950512</v>
+        <v>201743206.640615</v>
       </c>
       <c r="AC20" t="n">
-        <v>56202606.1289704</v>
+        <v>236159803.841289</v>
       </c>
       <c r="AD20" t="n">
-        <v>90338975.5661439</v>
+        <v>140268109.22412</v>
       </c>
       <c r="AE20" t="n">
-        <v>157749872.047801</v>
+        <v>169838316.572986</v>
       </c>
       <c r="AF20" t="n">
-        <v>579993190.949804</v>
+        <v>32998207.4027392</v>
       </c>
       <c r="AG20" t="n">
-        <v>1586966733.85859</v>
+        <v>29145290.5277223</v>
       </c>
       <c r="AH20" t="n">
-        <v>3081713071.98682</v>
+        <v>8336620.14872188</v>
       </c>
       <c r="AI20" t="n">
-        <v>4301525454.87805</v>
+        <v>727367.92498079</v>
       </c>
       <c r="AJ20" t="n">
-        <v>73704138.7614009</v>
+        <v>136890076.480915</v>
       </c>
       <c r="AK20" t="n">
-        <v>10218300.3915009</v>
+        <v>147268682.480112</v>
       </c>
       <c r="AL20" t="n">
-        <v>-4735275.76030502</v>
+        <v>119626379.595514</v>
       </c>
       <c r="AM20" t="n">
-        <v>-2379021.06915253</v>
+        <v>91278088.2126578</v>
       </c>
       <c r="AN20" t="n">
-        <v>-549890.960755517</v>
+        <v>94650959.4176016</v>
       </c>
       <c r="AO20" t="n">
-        <v>-752.929221280353</v>
-      </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
+        <v>73649267.2675566</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17429670.2435989</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>27747628.4306076</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2516032.85331451</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1290116.6750298</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1637442.70768006</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>2064333.61650635</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1306848.125</v>
+      </c>
       <c r="AW20"/>
     </row>
     <row r="21">
-      <c r="N21" t="s">
-        <v>57</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="n">
         <v>24214566738.8981</v>
@@ -6058,74 +6107,66 @@
         <v>33985149527.8471</v>
       </c>
       <c r="Z21" t="n">
-        <v>2471982568.58261</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1538304825.77626</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>2006662245.98908</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>2307226014.09719</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2247800163.92171</v>
+        <v>218871.502685086</v>
       </c>
       <c r="AE21" t="n">
-        <v>1700931859.15486</v>
+        <v>1436440.91009477</v>
       </c>
       <c r="AF21" t="n">
-        <v>1005690211.59281</v>
+        <v>-336740.762567178</v>
       </c>
       <c r="AG21" t="n">
-        <v>41644150.3567676</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>275644148.42181</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>-121205227.412102</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40603521.6938045</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>2871781.42454045</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>94189680.682271</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>65838435.2065831</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>47130957.8452964</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>28469143.1537841</v>
+        <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>38118455.2716958</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34612555.5370292</v>
-      </c>
-      <c r="AR21" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21"/>
+      <c r="AS21"/>
       <c r="AT21" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU21"/>
+      <c r="AV21"/>
       <c r="AW21" t="n">
         <v>0</v>
       </c>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Cust" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -232,14 +233,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -262,8 +272,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2887,88 +2900,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="n">
         <v>15345881642.2731</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="1" t="n">
         <v>17531995255.4796</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="1" t="n">
         <v>18942203546.542</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="1" t="n">
         <v>25477712376.5921</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="1" t="n">
         <v>25079532787.958</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="1" t="n">
         <v>29582007545.4317</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="1" t="n">
         <v>35507608673.8446</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="1" t="n">
         <v>36973961528.5113</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="1" t="n">
         <v>47092584629.4484</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="1" t="n">
         <v>54370208122.6629</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>50766298896.5493</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="1" t="n">
         <v>46380689957.2157</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="1" t="n">
         <v>42394453594.0767</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="1" t="n">
         <v>33432752697.7434</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="1" t="n">
         <v>36789456126.9644</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="1" t="n">
         <v>33811327787.04</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="1" t="n">
         <v>33233952149.2717</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>34064622738.1685</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="1" t="n">
         <v>40511204861.7681</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="1" t="n">
         <v>44218797177.9926</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="1" t="n">
         <v>52194173237.7706</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="1" t="n">
         <v>45153796097.1098</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="1" t="n">
         <v>49582250214.1208</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="1" t="n">
         <v>19068088230.5457</v>
       </c>
+      <c r="AX2" s="1"/>
     </row>
     <row r="3">
       <c r="M3" t="s">
@@ -2980,88 +2994,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="n">
         <v>615402061</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="1" t="n">
         <v>745958682</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="1" t="n">
         <v>763204571</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="1" t="n">
         <v>1089949613.0938</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="1" t="n">
         <v>954326487.6836</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="1" t="n">
         <v>1464531875.0912</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="1" t="n">
         <v>1750353030.0943</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="1" t="n">
         <v>1239671324.471</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="1" t="n">
         <v>703917895.5659</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="1" t="n">
         <v>683150567.841</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>1463047951.211</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="1" t="n">
         <v>1594126904.5965</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="1" t="n">
         <v>1197342150.4164</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="1" t="n">
         <v>1053810335.8304</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="1" t="n">
         <v>907606716.7881</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="1" t="n">
         <v>829698723.3953</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="1" t="n">
         <v>882225257.9374</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>845807936.0675</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="1" t="n">
         <v>923868079.3332</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="1" t="n">
         <v>1162698262.7235</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="1" t="n">
         <v>1511992735.6195</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="1" t="n">
         <v>1631433880.1231</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="1" t="n">
         <v>2555479023.9104</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="1" t="n">
         <v>1409095087.061</v>
       </c>
+      <c r="AX3" s="1"/>
     </row>
     <row r="4">
       <c r="M4" t="s">
@@ -3073,88 +3088,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="n">
         <v>353605860</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="1" t="n">
         <v>501638178</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="1" t="n">
         <v>526446374</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="1" t="n">
         <v>798199438</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="1" t="n">
         <v>911358315.6309</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="1" t="n">
         <v>676042982.87</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="1" t="n">
         <v>694448016.3879</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="1" t="n">
         <v>679765460.986</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="1" t="n">
         <v>559492990.1658</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="1" t="n">
         <v>1139154818.529</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>969845816.7892</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="1" t="n">
         <v>652173104.5862</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="1" t="n">
         <v>543768425.9068</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="1" t="n">
         <v>82567155.4116</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="1" t="n">
         <v>168378109.9497</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="1" t="n">
         <v>165358697.6416</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="1" t="n">
         <v>64672606.1158</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>49394479.9619</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="1" t="n">
         <v>839778098.7859</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="1" t="n">
         <v>165662653.1185</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="1" t="n">
         <v>68549290.0911</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="1" t="n">
         <v>147002854.1986</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="1" t="n">
         <v>104834400.2884</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="1" t="n">
         <v>40999851.8151</v>
       </c>
+      <c r="AX4" s="1"/>
     </row>
     <row r="5">
       <c r="M5" t="s">
@@ -3166,88 +3182,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="n">
         <v>320538683</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="1" t="n">
         <v>432788436</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="1" t="n">
         <v>780298062</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="1" t="n">
         <v>665235549</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="1" t="n">
         <v>757233360.4707</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="1" t="n">
         <v>802219500.7905</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="1" t="n">
         <v>688398227.5293</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="1" t="n">
         <v>702293992.33</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="1" t="n">
         <v>471628803.2863</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="1" t="n">
         <v>480834625.5086</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>2468354862.7565</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="1" t="n">
         <v>948391412.6218</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="1" t="n">
         <v>887966577.4075</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="1" t="n">
         <v>1037386819.1783</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="1" t="n">
         <v>1226866124.7718</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="1" t="n">
         <v>923891605.5908</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="1" t="n">
         <v>1557509402.7261</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="1" t="n">
         <v>710078085.7718</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="1" t="n">
         <v>390672907.4872</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="1" t="n">
         <v>242144992.6276</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="1" t="n">
         <v>314714626.643</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="1" t="n">
         <v>379215965.0218</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="1" t="n">
         <v>452727501.7329</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="1" t="n">
         <v>276654946.0857</v>
       </c>
+      <c r="AX5" s="1"/>
     </row>
     <row r="6">
       <c r="M6" t="s">
@@ -3259,88 +3276,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="n">
         <v>2536302693.9317</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="1" t="n">
         <v>2772643462.3202</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="1" t="n">
         <v>3559746178.3984</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="1" t="n">
         <v>4688023770</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="1" t="n">
         <v>6361660629.1563</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="1" t="n">
         <v>5739866388.2315</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="1" t="n">
         <v>5547565111.6042</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="1" t="n">
         <v>4890509605.6403</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="1" t="n">
         <v>5462891053.5184</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="1" t="n">
         <v>4977599450.2267</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>4051556712.8982</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="1" t="n">
         <v>4514586074.6799</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="1" t="n">
         <v>3586333400.2535</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="1" t="n">
         <v>3162025638.9323</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="1" t="n">
         <v>2744176831.3742</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="1" t="n">
         <v>2314384501.9851</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="1" t="n">
         <v>2201886726.7506</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="1" t="n">
         <v>2156847649.5284</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="1" t="n">
         <v>3127047347.3417</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="1" t="n">
         <v>2776422770.195</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="1" t="n">
         <v>3228255729.4859</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="1" t="n">
         <v>2948914311.1604</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="1" t="n">
         <v>3028984282.4682</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="1" t="n">
         <v>1875047497.4538</v>
       </c>
+      <c r="AX6" s="1"/>
     </row>
     <row r="7">
       <c r="M7" t="s">
@@ -3352,88 +3370,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="n">
         <v>95357103</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="1" t="n">
         <v>96374621</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="1" t="n">
         <v>176283335</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="1" t="n">
         <v>176782492</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="1" t="n">
         <v>66516179.1191</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="1" t="n">
         <v>6858606</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="1" t="n">
         <v>226945814.8457</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="1" t="n">
         <v>514086994.8814</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="1" t="n">
         <v>481931251.2321</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="1" t="n">
         <v>1545351004.0919</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>1433685005.1451</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="1" t="n">
         <v>480452140.8592</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="1" t="n">
         <v>330762474.9628</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="1" t="n">
         <v>420887238.0928</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="1" t="n">
         <v>338475994.2019</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="1" t="n">
         <v>59393159.3235</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="1" t="n">
         <v>589184629.6477</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="1" t="n">
         <v>584071145.2147</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="1" t="n">
         <v>1159019548.9054</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="1" t="n">
         <v>3491501168.6209</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="1" t="n">
         <v>2856190148.1508</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="1" t="n">
         <v>895023469.7219</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="1" t="n">
         <v>1563100248.711</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="1" t="n">
         <v>392447421.6659</v>
       </c>
+      <c r="AX7" s="1"/>
     </row>
     <row r="8">
       <c r="M8" t="s">
@@ -3445,72 +3464,73 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1" t="n">
         <v>2894007</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="1" t="n">
         <v>9715337.0996</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="1" t="n">
         <v>22434545.75</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="1" t="n">
         <v>36882262.9102</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="1" t="n">
         <v>60732928.4004</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="1" t="n">
         <v>109271193.02</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="1" t="n">
         <v>414833532.4043</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="1" t="n">
         <v>1166186782.8383</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="1" t="n">
         <v>2311835416.7464</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="1" t="n">
         <v>3259704390.5858</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="1" t="n">
         <v>56338921.6228</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="1" t="n">
         <v>7968213.2844</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="1" t="n">
         <v>-3760244.3907</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="1" t="n">
         <v>-1923733.15</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="1" t="n">
         <v>-453257.22</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="1" t="n">
         <v>-627.73</v>
       </c>
-      <c r="AP8"/>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
     </row>
     <row r="9">
       <c r="M9" t="s">
@@ -3520,108 +3540,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="1" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="1" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="1" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="1" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="1" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="1" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="1" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="1" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="1" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="1" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="1" t="n">
         <v>1529947758.8696</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="1" t="n">
         <v>975167745.3599</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9" s="1" t="n">
         <v>1292148348.5101</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9" s="1" t="n">
         <v>1514088443.6909</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9" s="1" t="n">
         <v>1511147160.551</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="1" t="n">
         <v>1178212388.2754</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="1" t="n">
         <v>719308484.1156</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9" s="1" t="n">
         <v>30602316.1623</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9" s="1" t="n">
         <v>206782360.932</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9" s="1" t="n">
         <v>-91849558.0467</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>31037044.388</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9" s="1" t="n">
         <v>2239410.2757</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9" s="1" t="n">
         <v>74795267.768</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9" s="1" t="n">
         <v>53238528.2305</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9" s="1" t="n">
         <v>38848514.4392</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9" s="1" t="n">
         <v>23735212.7223</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9" s="1" t="n">
         <v>32043354.8229</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>29615682.1826</v>
       </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1"/>
     </row>
     <row r="13">
       <c r="M13" t="s">
@@ -3746,88 +3767,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="n">
         <v>24794802109.6217</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="1" t="n">
         <v>27656321730.6139</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="1" t="n">
         <v>29416595050.0298</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="1" t="n">
         <v>38823914824.7272</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="1" t="n">
         <v>37305286595.1829</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="1" t="n">
         <v>42706204409.7459</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="1" t="n">
         <v>49644422760.0888</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="1" t="n">
         <v>50314793331.7391</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="1" t="n">
         <v>62775158038.9152</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="1" t="n">
         <v>71747252573.606</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="1" t="n">
         <v>66413879259.6234</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="1" t="n">
         <v>59477803295.7213</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="1" t="n">
         <v>53387335400.8345</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="1" t="n">
         <v>41345247425.6617</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="1" t="n">
         <v>44632911474.2604</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="1" t="n">
         <v>40554914853.76</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="1" t="n">
         <v>39534777975.1933</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="1" t="n">
         <v>39812138687.3045</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="1" t="n">
         <v>46260210624.9227</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="1" t="n">
         <v>49523951703.9999</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="1" t="n">
         <v>57686609087.4092</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="1" t="n">
         <v>48282394030.3806</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="1" t="n">
         <v>49582250214.1208</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="1" t="n">
         <v>18187111653.2242</v>
       </c>
+      <c r="AX14" s="1"/>
     </row>
     <row r="15">
       <c r="M15" t="s">
@@ -3839,88 +3861,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="n">
         <v>994323602.647581</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="1" t="n">
         <v>1176732768.09088</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="1" t="n">
         <v>1185230628.01409</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="1" t="n">
         <v>1660907004.38539</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="1" t="n">
         <v>1419540923.24659</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="1" t="n">
         <v>2114278333.75331</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="1" t="n">
         <v>2447229454.49751</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="1" t="n">
         <v>1686965743.22835</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="1" t="n">
         <v>938333656.737489</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="1" t="n">
         <v>901489584.62898</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="1" t="n">
         <v>1913999879.73855</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="1" t="n">
         <v>2044281069.28704</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="1" t="n">
         <v>1507812969.73168</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="1" t="n">
         <v>1303214529.43264</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="1" t="n">
         <v>1101107070.02697</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="1" t="n">
         <v>995180115.182206</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="1" t="n">
         <v>1049486366.83366</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="1" t="n">
         <v>988515948.41859</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="1" t="n">
         <v>1054975582.32168</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="1" t="n">
         <v>1302193100.76804</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="1" t="n">
         <v>1671100976.83406</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="1" t="n">
         <v>1744472009.95484</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="1" t="n">
         <v>2555479023.9104</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="1" t="n">
         <v>1343992610.50905</v>
       </c>
+      <c r="AX15" s="1"/>
     </row>
     <row r="16">
       <c r="M16" t="s">
@@ -3932,88 +3955,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="n">
         <v>571331613.776471</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="1" t="n">
         <v>791322758.24629</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="1" t="n">
         <v>817553235.634068</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="1" t="n">
         <v>1216326903.13785</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="1" t="n">
         <v>1355626655.52679</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="1" t="n">
         <v>975972633.766674</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="1" t="n">
         <v>970931926.932637</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="1" t="n">
         <v>925036357.199403</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="1" t="n">
         <v>745812980.019796</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="1" t="n">
         <v>1503235527.46109</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="1" t="n">
         <v>1268779177.85468</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="1" t="n">
         <v>836335631.598407</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="1" t="n">
         <v>684767578.61378</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="1" t="n">
         <v>102108238.008056</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="1" t="n">
         <v>204276063.490922</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="1" t="n">
         <v>198339087.581003</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="1" t="n">
         <v>76933887.1399113</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="1" t="n">
         <v>57728509.1851916</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="1" t="n">
         <v>958952266.677594</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="1" t="n">
         <v>185538046.165586</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="1" t="n">
         <v>75762788.3612704</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="1" t="n">
         <v>157188328.413028</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="1" t="n">
         <v>104834400.2884</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="1" t="n">
         <v>39105592.2183306</v>
       </c>
+      <c r="AX16" s="1"/>
     </row>
     <row r="17">
       <c r="M17" t="s">
@@ -4025,88 +4049,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="n">
         <v>517903982.236535</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="1" t="n">
         <v>682713864.160112</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="1" t="n">
         <v>1211776235.63059</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="1" t="n">
         <v>1013711431.81935</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="1" t="n">
         <v>1126368970.69138</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="1" t="n">
         <v>1158127957.66574</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="1" t="n">
         <v>962473506.697572</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="1" t="n">
         <v>955693564.373886</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="1" t="n">
         <v>628688633.146036</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="1" t="n">
         <v>634512254.296869</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="1" t="n">
         <v>3229170244.59621</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="1" t="n">
         <v>1216200921.96354</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="1" t="n">
         <v>1118216310.71591</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="1" t="n">
         <v>1282904076.21571</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="1" t="n">
         <v>1488432091.75832</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="1" t="n">
         <v>1108159538.56744</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="1" t="n">
         <v>1852797649.65906</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="1" t="n">
         <v>829885228.638894</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="1" t="n">
         <v>446113884.972713</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="1" t="n">
         <v>271196361.854524</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="1" t="n">
         <v>347832306.080228</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="1" t="n">
         <v>405490927.195056</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="1" t="n">
         <v>452727501.7329</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="1" t="n">
         <v>263873039.239306</v>
       </c>
+      <c r="AX17" s="1"/>
     </row>
     <row r="18">
       <c r="M18" t="s">
@@ -4118,88 +4143,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1" t="n">
         <v>4097980477.89595</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="1" t="n">
         <v>4373781678.62807</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="1" t="n">
         <v>5528164215.61224</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="1" t="n">
         <v>7143790339.277</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="1" t="n">
         <v>9462838681.98369</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="1" t="n">
         <v>8286385123.92981</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="1" t="n">
         <v>7756243745.37127</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="1" t="n">
         <v>6655088335.74491</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="1" t="n">
         <v>7282119933.1571</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="1" t="n">
         <v>6568470073.90426</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="1" t="n">
         <v>5300358785.11182</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="1" t="n">
         <v>5789427944.23952</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="1" t="n">
         <v>4516269650.07753</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="1" t="n">
         <v>3910378950.54229</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="1" t="n">
         <v>3329231102.56774</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="1" t="n">
         <v>2775982860.18345</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="1" t="n">
         <v>2619342486.79232</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="1" t="n">
         <v>2520759393.41603</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="1" t="n">
         <v>3570811320.36761</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="1" t="n">
         <v>3109524364.20988</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="1" t="n">
         <v>3567967739.47705</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="1" t="n">
         <v>3153237491.41854</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="1" t="n">
         <v>3028984282.4682</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="1" t="n">
         <v>1788417264.43569</v>
       </c>
+      <c r="AX18" s="1"/>
     </row>
     <row r="19">
       <c r="M19" t="s">
@@ -4211,88 +4237,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1" t="n">
         <v>154071336.776034</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="1" t="n">
         <v>152028761.484459</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="1" t="n">
         <v>273761997.490013</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="1" t="n">
         <v>269387938.385584</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="1" t="n">
         <v>98941441.4628169</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="1" t="n">
         <v>9901458.82939385</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="1" t="n">
         <v>317300837.668967</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="1" t="n">
         <v>699578293.282059</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="1" t="n">
         <v>642421958.744412</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="1" t="n">
         <v>2039254448.96801</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="1" t="n">
         <v>1875586459.86917</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="1" t="n">
         <v>616123605.608112</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="1" t="n">
         <v>416529184.64118</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="1" t="n">
         <v>520498181.96468</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="1" t="n">
         <v>410638554.515164</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="1" t="n">
         <v>71238980.4515043</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="1" t="n">
         <v>700888158.43796</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="1" t="n">
         <v>682617905.833606</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="1" t="n">
         <v>1323497749.17128</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="1" t="n">
         <v>3910394363.58297</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="1" t="n">
         <v>3156749390.49427</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="1" t="n">
         <v>957037493.339728</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="1" t="n">
         <v>1563100248.711</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="1" t="n">
         <v>374315714.798505</v>
       </c>
+      <c r="AX19" s="1"/>
     </row>
     <row r="20">
       <c r="M20" t="s">
@@ -4304,72 +4331,73 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="n">
         <v>4675934.07414233</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="1" t="n">
         <v>15325722.1800769</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="1" t="n">
         <v>34840083.1950512</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="1" t="n">
         <v>56202606.1289704</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="1" t="n">
         <v>90338975.5661439</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="1" t="n">
         <v>157749872.047801</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="1" t="n">
         <v>579993190.949804</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="1" t="n">
         <v>1586966733.85859</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="1" t="n">
         <v>3081713071.98682</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="1" t="n">
         <v>4301525454.87805</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="1" t="n">
         <v>73704138.7614009</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="1" t="n">
         <v>10218300.3915009</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="1" t="n">
         <v>-4735275.76030502</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="1" t="n">
         <v>-2379021.06915253</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="1" t="n">
         <v>-549890.960755517</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="1" t="n">
         <v>-752.929221280353</v>
       </c>
-      <c r="AP20"/>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
     </row>
     <row r="21">
       <c r="M21" t="s">
@@ -4379,108 +4407,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="1" t="n">
         <v>24214566738.8981</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="1" t="n">
         <v>35489211630.4335</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="1" t="n">
         <v>33060305718.1975</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="1" t="n">
         <v>31423990993.4659</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="1" t="n">
         <v>36401261590.1566</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="1" t="n">
         <v>35305115235.9255</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="1" t="n">
         <v>34903150795.6185</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="1" t="n">
         <v>34202156353.7648</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="1" t="n">
         <v>32671693107.2574</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="1" t="n">
         <v>33985149527.8471</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z21" s="1" t="n">
         <v>2471982568.58261</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA21" s="1" t="n">
         <v>1538304825.77626</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB21" s="1" t="n">
         <v>2006662245.98908</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC21" s="1" t="n">
         <v>2307226014.09719</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD21" s="1" t="n">
         <v>2247800163.92171</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="1" t="n">
         <v>1700931859.15486</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="1" t="n">
         <v>1005690211.59281</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AG21" s="1" t="n">
         <v>41644150.3567676</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH21" s="1" t="n">
         <v>275644148.42181</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI21" s="1" t="n">
         <v>-121205227.412102</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ21" s="1" t="n">
         <v>40603521.6938045</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK21" s="1" t="n">
         <v>2871781.42454045</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL21" s="1" t="n">
         <v>94189680.682271</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM21" s="1" t="n">
         <v>65838435.2065831</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN21" s="1" t="n">
         <v>47130957.8452964</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO21" s="1" t="n">
         <v>28469143.1537841</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AP21" s="1" t="n">
         <v>38118455.2716958</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AQ21" s="1" t="n">
         <v>34612555.5370292</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4616,88 +4645,89 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>10966677089.5315</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="2" t="n">
         <v>12061548563.331</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="2" t="n">
         <v>13452725846.8993</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="2" t="n">
         <v>14199015742.5826</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="2" t="n">
         <v>13366569783.8199</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="2" t="n">
         <v>15010044823.6704</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="2" t="n">
         <v>18206626257.09</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="2" t="n">
         <v>18851904547.4501</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>24329653622.9823</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="2" t="n">
         <v>30884997953.1355</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>28773497301.9621</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="2" t="n">
         <v>23662630195.1326</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="2" t="n">
         <v>21701919789.72</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="2" t="n">
         <v>18358176142.4908</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="2" t="n">
         <v>19031614500.5112</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="2" t="n">
         <v>17361153512.7824</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="2" t="n">
         <v>17626563017.4138</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>17873120162.7833</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="2" t="n">
         <v>20750076586.9344</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="2" t="n">
         <v>26144863780.7804</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="2" t="n">
         <v>27983353952.088</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="2" t="n">
         <v>23085389037.8351</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="2" t="n">
         <v>25865414898.1152</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2" s="2" t="n">
         <v>10490936795.6604</v>
       </c>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="N3" t="s">
@@ -4706,88 +4736,89 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>602980370</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="2" t="n">
         <v>672942744.8999</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="2" t="n">
         <v>845521603.2863</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="2" t="n">
         <v>1151094189.8162</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="2" t="n">
         <v>1463430562.5173</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1822118252.4474</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="2" t="n">
         <v>1672208289.9372</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="2" t="n">
         <v>1868527801.1419</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="2" t="n">
         <v>1986275284.6477</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="2" t="n">
         <v>2396335439.075</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>2470819918.4381</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="2" t="n">
         <v>2321855552.8583</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="2" t="n">
         <v>1685361751.6543</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="2" t="n">
         <v>1228592375.3834</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="2" t="n">
         <v>1497597670.018</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="2" t="n">
         <v>1507290340.2014</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="2" t="n">
         <v>1462912512.9587</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>1534730331.3873</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="2" t="n">
         <v>1837620411.0502</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="2" t="n">
         <v>1837799678.2614</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="2" t="n">
         <v>1918932126.3953</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="2" t="n">
         <v>1844053450.5248</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="2" t="n">
         <v>1851110286.1071</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3" s="2" t="n">
         <v>761155973.1043</v>
       </c>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="N4" t="s">
@@ -4796,88 +4827,89 @@
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>3510982</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="2" t="n">
         <v>6131674</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="2" t="n">
         <v>6584364</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="2" t="n">
         <v>5445288</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="2" t="n">
         <v>20229111</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="2" t="n">
         <v>13291376</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="2" t="n">
         <v>24449540</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="2" t="n">
         <v>10380157.49</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="2" t="n">
         <v>15626510.2913</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="2" t="n">
         <v>14166289.9767</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>297354740.3824</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="2" t="n">
         <v>383034085.2473</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="2" t="n">
         <v>464193176.6352</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="2" t="n">
         <v>430857659.4737</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="2" t="n">
         <v>503606748.7638</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="2" t="n">
         <v>466217309.5442</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="2" t="n">
         <v>660143988.2953</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>539689238.4964</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="2" t="n">
         <v>1348089633.2975</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="2" t="n">
         <v>484607105.6192</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="2" t="n">
         <v>520442003.1788</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="2" t="n">
         <v>426142656.4945</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="2" t="n">
         <v>420820733.1242</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4" s="2" t="n">
         <v>238230576.5323</v>
       </c>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="N5" t="s">
@@ -4886,88 +4918,89 @@
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>633457112</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="2" t="n">
         <v>795746043.3198</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="2" t="n">
         <v>1142328565.4518</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="2" t="n">
         <v>1531895322.1538</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="2" t="n">
         <v>1609786453.2631</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="2" t="n">
         <v>1411533252.6507</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="2" t="n">
         <v>1481958053.3479</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="2" t="n">
         <v>1701889265.3883</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="2" t="n">
         <v>1600883085.5348</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="2" t="n">
         <v>1639072550.6092</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>1402709591.8521</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="2" t="n">
         <v>1250959365.5299</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="2" t="n">
         <v>995699583.1607</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="2" t="n">
         <v>668298834.2567</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="2" t="n">
         <v>703953753.6157</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="2" t="n">
         <v>570143558.4634</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="2" t="n">
         <v>655435082.8421</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>585817254.2933</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="2" t="n">
         <v>666178412.0091</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="2" t="n">
         <v>624725637.2762</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="2" t="n">
         <v>717409178.2336</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="2" t="n">
         <v>763478854.0827</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="2" t="n">
         <v>862494349.7389</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5" s="2" t="n">
         <v>299254699.858</v>
       </c>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="N6" t="s">
@@ -4976,88 +5009,89 @@
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>1620717770.2197</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="2" t="n">
         <v>1934976877.5201</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="2" t="n">
         <v>2703129828.0601</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="2" t="n">
         <v>4409479243.3213</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="2" t="n">
         <v>6107063729.3398</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="2" t="n">
         <v>6534986870.2105</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="2" t="n">
         <v>8705816574.4972</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="2" t="n">
         <v>7889330717.6912</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="2" t="n">
         <v>11339736858.5353</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="2" t="n">
         <v>12744949982.4487</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>12274000884.0607</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="2" t="n">
         <v>11396284293.0827</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="2" t="n">
         <v>9556798547.6482</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="2" t="n">
         <v>7738820448.3672</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="2" t="n">
         <v>9215743831.5393</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="2" t="n">
         <v>7609472845.9706</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="2" t="n">
         <v>7397521676.1775</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>7417080195.6146</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="2" t="n">
         <v>9511682492.6948</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="2" t="n">
         <v>10609155572.4638</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="2" t="n">
         <v>15727040787.7851</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="2" t="n">
         <v>10886501744.6268</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="2" t="n">
         <v>13261980631.5118</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6" s="2" t="n">
         <v>4674838848.1313</v>
       </c>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="N7" t="s">
@@ -5066,88 +5100,89 @@
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>6447252669.3232</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="2" t="n">
         <v>7447188714.1885</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7" s="2" t="n">
         <v>7782566418.503</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7" s="2" t="n">
         <v>12994967218.4131</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7" s="2" t="n">
         <v>13040981867.4791</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7" s="2" t="n">
         <v>14648396207.3329</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7" s="2" t="n">
         <v>15435041433.4634</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7" s="2" t="n">
         <v>15853628021.3391</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7" s="2" t="n">
         <v>18012635084.2801</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7" s="2" t="n">
         <v>18684080005.32</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>15917144969.7951</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7" s="2" t="n">
         <v>15451023857.8801</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7" s="2" t="n">
         <v>14512694451.8204</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7" s="2" t="n">
         <v>10742189582.1904</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7" s="2" t="n">
         <v>11182820951.8621</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7" s="2" t="n">
         <v>10552108836.2426</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7" s="2" t="n">
         <v>10744246020.0686</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>10466258717.7406</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7" s="2" t="n">
         <v>12835739955.7488</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7" s="2" t="n">
         <v>12354923335.3771</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7" s="2" t="n">
         <v>13305216180.9551</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7" s="2" t="n">
         <v>14147890264.6467</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7" s="2" t="n">
         <v>15024247924.5095</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7" s="2" t="n">
         <v>6597916141.3409</v>
       </c>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="N8" t="s">
@@ -5156,184 +5191,186 @@
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>525333816</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="2" t="n">
         <v>147747100</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8" s="2" t="n">
         <v>129908335</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8" s="2" t="n">
         <v>154976941</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8" s="2" t="n">
         <v>94299199</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8" s="2" t="n">
         <v>117644694.2969</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8" s="2" t="n">
         <v>23601592.4902</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8" s="2" t="n">
         <v>21417495.32</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8" s="2" t="n">
         <v>6253954.6238</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8" s="2" t="n">
         <v>551200.8341</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>104637804.8696</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8" s="2" t="n">
         <v>114839868.3885</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8" s="2" t="n">
         <v>94994345.7622</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8" s="2" t="n">
         <v>73809638.1071</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8" s="2" t="n">
         <v>78017704.9592</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8" s="2" t="n">
         <v>61402656.764</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8" s="2" t="n">
         <v>14651829.5162</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8" s="2" t="n">
         <v>23741816.5799</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8" s="2" t="n">
         <v>2203351.8867</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8" s="2" t="n">
         <v>1151915.5</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8" s="2" t="n">
         <v>1481539.125</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8" s="2" t="n">
         <v>1930569.125</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8" s="2" t="n">
         <v>1306848.125</v>
       </c>
-      <c r="AW8"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
+      <c r="P9" s="2" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="2" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="2" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="2" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="2" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="2" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="2" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="2" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="2" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="2" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
         <v>147142.5508</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9" s="2" t="n">
         <v>995003.1015</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9" s="2" t="n">
         <v>-240850</v>
       </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
     </row>
     <row r="13">
       <c r="N13" t="s">
@@ -5452,88 +5489,89 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>17719189719.6712</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="2" t="n">
         <v>19026817129.251</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="2" t="n">
         <v>20891623700.7467</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="2" t="n">
         <v>21637004517.3861</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="2" t="n">
         <v>19882496248.867</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="2" t="n">
         <v>21669321848.9192</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="2" t="n">
         <v>25455317457.2892</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="2" t="n">
         <v>25653991133.2789</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="2" t="n">
         <v>32431811998.2677</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="2" t="n">
         <v>40756028446.3077</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>37642286659.1817</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="2" t="n">
         <v>30344552129.4263</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="2" t="n">
         <v>27329227585.98</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="2" t="n">
         <v>22702986552.0584</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="2" t="n">
         <v>23089125380.9807</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="2" t="n">
         <v>20823793342.5325</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="2" t="n">
         <v>20968383544.311</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>20888742674.9129</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="2" t="n">
         <v>23694751036.6634</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="2" t="n">
         <v>29281596375.7476</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="2" t="n">
         <v>30928065342.3692</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="2" t="n">
         <v>24684920122.1584</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="2" t="n">
         <v>25865414898.1152</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AW14" s="2" t="n">
         <v>10006238514.4593</v>
       </c>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="N15" t="s">
@@ -5542,88 +5580,89 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>974253503.229933</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="2" t="n">
         <v>1061551796.47435</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="2" t="n">
         <v>1313066167.23932</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1754081454.41354</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="2" t="n">
         <v>2176822710.71138</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="2" t="n">
         <v>2630509590.27169</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="2" t="n">
         <v>2337972575.14889</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="2" t="n">
         <v>2542724291.97416</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="2" t="n">
         <v>2647736281.27812</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="2" t="n">
         <v>3162218610.79711</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>3232395098.76058</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="2" t="n">
         <v>2977507837.45078</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="2" t="n">
         <v>2122376053.45331</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="2" t="n">
         <v>1519362052.07945</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="2" t="n">
         <v>1816883185.20645</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="2" t="n">
         <v>1807915731.43109</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="2" t="n">
         <v>1740266133.17555</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>1793676016.03708</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="2" t="n">
         <v>2098399876.13069</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="2" t="n">
         <v>2058289874.81238</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="2" t="n">
         <v>2120862934.95555</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="2" t="n">
         <v>1971823479.02351</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="2" t="n">
         <v>1851110286.1071</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW15" s="2" t="n">
         <v>725989333.644395</v>
       </c>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="N16" t="s">
@@ -5632,88 +5671,89 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>5672799.12159866</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA16" s="2" t="n">
         <v>9672575.56371051</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB16" s="2" t="n">
         <v>10225292.3728799</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC16" s="2" t="n">
         <v>8297738.60318566</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD16" s="2" t="n">
         <v>30090384.4501886</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE16" s="2" t="n">
         <v>19188157.513348</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF16" s="2" t="n">
         <v>34183752.3106362</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG16" s="2" t="n">
         <v>14125494.1929205</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH16" s="2" t="n">
         <v>20830384.6741865</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI16" s="2" t="n">
         <v>18693921.1763948</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>389007712.878114</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK16" s="2" t="n">
         <v>491196357.77111</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL16" s="2" t="n">
         <v>584558467.225174</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM16" s="2" t="n">
         <v>532828292.579809</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN16" s="2" t="n">
         <v>610974931.454348</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO16" s="2" t="n">
         <v>559203217.661313</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP16" s="2" t="n">
         <v>785300703.680686</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>630747710.791165</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR16" s="2" t="n">
         <v>1539399052.44515</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS16" s="2" t="n">
         <v>542747890.619805</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT16" s="2" t="n">
         <v>575208543.936043</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU16" s="2" t="n">
         <v>455669056.257654</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV16" s="2" t="n">
         <v>420820733.1242</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW16" s="2" t="n">
         <v>227223937.82845</v>
       </c>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="N17" t="s">
@@ -5722,88 +5762,89 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>1023495691.0984</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA17" s="2" t="n">
         <v>1255271192.42387</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB17" s="2" t="n">
         <v>1773997240.68067</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC17" s="2" t="n">
         <v>2334360818.13765</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD17" s="2" t="n">
         <v>2394524072.82714</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE17" s="2" t="n">
         <v>2037766623.04866</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF17" s="2" t="n">
         <v>2071977101.83493</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG17" s="2" t="n">
         <v>2315959749.01111</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH17" s="2" t="n">
         <v>2134002401.58894</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI17" s="2" t="n">
         <v>2162929963.58799</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>1835063565.68202</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK17" s="2" t="n">
         <v>1604208888.28007</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL17" s="2" t="n">
         <v>1253884484.83503</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM17" s="2" t="n">
         <v>826464422.670453</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN17" s="2" t="n">
         <v>854035608.970972</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO17" s="2" t="n">
         <v>683857304.082738</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP17" s="2" t="n">
         <v>779699036.723886</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>684658625.243145</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR17" s="2" t="n">
         <v>760716788.317525</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS17" s="2" t="n">
         <v>699677156.847568</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT17" s="2" t="n">
         <v>792902737.091978</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU17" s="2" t="n">
         <v>816378467.657647</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV17" s="2" t="n">
         <v>862494349.7389</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW17" s="2" t="n">
         <v>285428647.762963</v>
       </c>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="N18" t="s">
@@ -5812,88 +5853,89 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>2618642403.53886</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA18" s="2" t="n">
         <v>3052381790.33096</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB18" s="2" t="n">
         <v>4197868285.19308</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC18" s="2" t="n">
         <v>6719333511.33182</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD18" s="2" t="n">
         <v>9084131056.35918</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE18" s="2" t="n">
         <v>9434264549.67942</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF18" s="2" t="n">
         <v>12171904970.173</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG18" s="2" t="n">
         <v>10735934916.8003</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH18" s="2" t="n">
         <v>15116048078.812</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI18" s="2" t="n">
         <v>16818312399.4254</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>16057188143.8047</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AK18" s="2" t="n">
         <v>14614400003.7808</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL18" s="2" t="n">
         <v>12034876408.7571</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM18" s="2" t="n">
         <v>9570359016.29806</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AN18" s="2" t="n">
         <v>11180526213.3538</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AO18" s="2" t="n">
         <v>9127163691.82712</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AP18" s="2" t="n">
         <v>8800017997.28073</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>8668518881.66675</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AR18" s="2" t="n">
         <v>10861499602.662</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AS18" s="2" t="n">
         <v>11881990052.2398</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AT18" s="2" t="n">
         <v>17382010246.5033</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AU18" s="2" t="n">
         <v>11640801267.6511</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AV18" s="2" t="n">
         <v>13261980631.5118</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AW18" s="2" t="n">
         <v>4458853717.46891</v>
       </c>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="N19" t="s">
@@ -5902,88 +5944,89 @@
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>10417019876.28</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA19" s="2" t="n">
         <v>11747769952.4144</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB19" s="2" t="n">
         <v>12086059798.7216</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC19" s="2" t="n">
         <v>19802229218.2449</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD19" s="2" t="n">
         <v>19398190953.6403</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE19" s="2" t="n">
         <v>21147226121.9781</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF19" s="2" t="n">
         <v>21580268310.4026</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG19" s="2" t="n">
         <v>21573885633.998</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH19" s="2" t="n">
         <v>24011126656.359</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI19" s="2" t="n">
         <v>24655623981.1116</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>20823250210.4609</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AK19" s="2" t="n">
         <v>19814128651.0447</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AL19" s="2" t="n">
         <v>18275836119.6904</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM19" s="2" t="n">
         <v>13284532392.0637</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN19" s="2" t="n">
         <v>13566981144.1203</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO19" s="2" t="n">
         <v>12656701271.1479</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AP19" s="2" t="n">
         <v>12781247893.9125</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>12232166691.2523</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AR19" s="2" t="n">
         <v>14657279039.3616</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AS19" s="2" t="n">
         <v>13837206473.6387</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AT19" s="2" t="n">
         <v>14705335041.0923</v>
       </c>
-      <c r="AU19" t="n">
+      <c r="AU19" s="2" t="n">
         <v>15128163554.3369</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" s="2" t="n">
         <v>15024247924.5095</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AW19" s="2" t="n">
         <v>6293081723.26109</v>
       </c>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="N20" t="s">
@@ -5992,184 +6035,1891 @@
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>848797632.671109</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA20" s="2" t="n">
         <v>233067672.721853</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB20" s="2" t="n">
         <v>201743206.640615</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC20" s="2" t="n">
         <v>236159803.841289</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD20" s="2" t="n">
         <v>140268109.22412</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE20" s="2" t="n">
         <v>169838316.572986</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF20" s="2" t="n">
         <v>32998207.4027392</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AG20" s="2" t="n">
         <v>29145290.5277223</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AH20" s="2" t="n">
         <v>8336620.14872188</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AI20" s="2" t="n">
         <v>727367.92498079</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>136890076.480915</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AK20" s="2" t="n">
         <v>147268682.480112</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL20" s="2" t="n">
         <v>119626379.595514</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM20" s="2" t="n">
         <v>91278088.2126578</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN20" s="2" t="n">
         <v>94650959.4176016</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO20" s="2" t="n">
         <v>73649267.2675566</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP20" s="2" t="n">
         <v>17429670.2435989</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ20" s="2" t="n">
         <v>27747628.4306076</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AR20" s="2" t="n">
         <v>2516032.85331451</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS20" s="2" t="n">
         <v>1290116.6750298</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT20" s="2" t="n">
         <v>1637442.70768006</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20" s="2" t="n">
         <v>2064333.61650635</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AV20" s="2" t="n">
         <v>1306848.125</v>
       </c>
-      <c r="AW20"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
+      <c r="P21" s="2" t="n">
         <v>24214566738.8981</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="2" t="n">
         <v>35489211630.4335</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="2" t="n">
         <v>33060305718.1975</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="2" t="n">
         <v>31423990993.4659</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" s="2" t="n">
         <v>36401261590.1566</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U21" s="2" t="n">
         <v>35305115235.9255</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V21" s="2" t="n">
         <v>34903150795.6185</v>
       </c>
-      <c r="W21" t="n">
+      <c r="W21" s="2" t="n">
         <v>34202156353.7648</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X21" s="2" t="n">
         <v>32671693107.2574</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y21" s="2" t="n">
         <v>33985149527.8471</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
         <v>218871.502685086</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE21" s="2" t="n">
         <v>1436440.91009477</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AF21" s="2" t="n">
         <v>-336740.762567178</v>
       </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3" t="n">
+        <v>10966677089.5315</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>12061548563.331</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>13452725846.8993</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>14199015742.5826</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>13366569783.8199</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>15010044823.6704</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>18206626257.09</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>18851904547.4501</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>24329653622.9823</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>30884997953.1355</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>28773497301.9621</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>23662630195.1326</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>21701919789.72</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>18358176142.4908</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>19031614500.5112</v>
+      </c>
+      <c r="AN2" s="3" t="n">
+        <v>17361153512.7824</v>
+      </c>
+      <c r="AO2" s="3" t="n">
+        <v>17626563017.4138</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>17873120162.7833</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
+        <v>20750076586.9344</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>26144863780.7804</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>27983353952.088</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>23085389037.8351</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>25865414898.1152</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>10490936795.6604</v>
+      </c>
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="n">
+        <v>602980370</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>672942744.8999</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>845521603.2863</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>1151094189.8162</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>1463430562.5173</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>1822118252.4474</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>1672208289.9372</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>1868527801.1419</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>1986275284.6477</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>2396335439.075</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>2470819918.4381</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>2321855552.8583</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>1685361751.6543</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>1228592375.3834</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>1497597670.018</v>
+      </c>
+      <c r="AN3" s="3" t="n">
+        <v>1507290340.2014</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>1462912512.9587</v>
+      </c>
+      <c r="AP3" s="3" t="n">
+        <v>1534730331.3873</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
+        <v>1837620411.0502</v>
+      </c>
+      <c r="AR3" s="3" t="n">
+        <v>1837799678.2614</v>
+      </c>
+      <c r="AS3" s="3" t="n">
+        <v>1918932126.3953</v>
+      </c>
+      <c r="AT3" s="3" t="n">
+        <v>1844053450.5248</v>
+      </c>
+      <c r="AU3" s="3" t="n">
+        <v>1851110286.1071</v>
+      </c>
+      <c r="AV3" s="3" t="n">
+        <v>761155973.1043</v>
+      </c>
+      <c r="AW3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3" t="n">
+        <v>3510982</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>6131674</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>6584364</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>5445288</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>20229111</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>13291376</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>24449540</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>10380157.49</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>15626510.2913</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>14166289.9767</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>297354740.3824</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>383034085.2473</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>464193176.6352</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>430857659.4737</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>503606748.7638</v>
+      </c>
+      <c r="AN4" s="3" t="n">
+        <v>466217309.5442</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>660143988.2953</v>
+      </c>
+      <c r="AP4" s="3" t="n">
+        <v>539689238.4964</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
+        <v>1348089633.2975</v>
+      </c>
+      <c r="AR4" s="3" t="n">
+        <v>484607105.6192</v>
+      </c>
+      <c r="AS4" s="3" t="n">
+        <v>520442003.1788</v>
+      </c>
+      <c r="AT4" s="3" t="n">
+        <v>426142656.4945</v>
+      </c>
+      <c r="AU4" s="3" t="n">
+        <v>420820733.1242</v>
+      </c>
+      <c r="AV4" s="3" t="n">
+        <v>238230576.5323</v>
+      </c>
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3" t="n">
+        <v>633457112</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>795746043.3198</v>
+      </c>
+      <c r="AA5" s="3" t="n">
+        <v>1142328565.4518</v>
+      </c>
+      <c r="AB5" s="3" t="n">
+        <v>1531895322.1538</v>
+      </c>
+      <c r="AC5" s="3" t="n">
+        <v>1609786453.2631</v>
+      </c>
+      <c r="AD5" s="3" t="n">
+        <v>1411533252.6507</v>
+      </c>
+      <c r="AE5" s="3" t="n">
+        <v>1481958053.3479</v>
+      </c>
+      <c r="AF5" s="3" t="n">
+        <v>1701889265.3883</v>
+      </c>
+      <c r="AG5" s="3" t="n">
+        <v>1600883085.5348</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>1639072550.6092</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>1402709591.8521</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>1250959365.5299</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>995699583.1607</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>668298834.2567</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>703953753.6157</v>
+      </c>
+      <c r="AN5" s="3" t="n">
+        <v>570143558.4634</v>
+      </c>
+      <c r="AO5" s="3" t="n">
+        <v>655435082.8421</v>
+      </c>
+      <c r="AP5" s="3" t="n">
+        <v>585817254.2933</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
+        <v>666178412.0091</v>
+      </c>
+      <c r="AR5" s="3" t="n">
+        <v>624725637.2762</v>
+      </c>
+      <c r="AS5" s="3" t="n">
+        <v>717409178.2336</v>
+      </c>
+      <c r="AT5" s="3" t="n">
+        <v>763478854.0827</v>
+      </c>
+      <c r="AU5" s="3" t="n">
+        <v>862494349.7389</v>
+      </c>
+      <c r="AV5" s="3" t="n">
+        <v>299254699.858</v>
+      </c>
+      <c r="AW5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3" t="n">
+        <v>1620717770.2197</v>
+      </c>
+      <c r="Z6" s="3" t="n">
+        <v>1934976877.5201</v>
+      </c>
+      <c r="AA6" s="3" t="n">
+        <v>2703129828.0601</v>
+      </c>
+      <c r="AB6" s="3" t="n">
+        <v>4409479243.3213</v>
+      </c>
+      <c r="AC6" s="3" t="n">
+        <v>6107063729.3398</v>
+      </c>
+      <c r="AD6" s="3" t="n">
+        <v>6534986870.2105</v>
+      </c>
+      <c r="AE6" s="3" t="n">
+        <v>8705816574.4972</v>
+      </c>
+      <c r="AF6" s="3" t="n">
+        <v>7889330717.6912</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>11339736858.5353</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>12744949982.4487</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>12274000884.0607</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>11396284293.0827</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>9556798547.6482</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>7738820448.3672</v>
+      </c>
+      <c r="AM6" s="3" t="n">
+        <v>9215743831.5393</v>
+      </c>
+      <c r="AN6" s="3" t="n">
+        <v>7609472845.9706</v>
+      </c>
+      <c r="AO6" s="3" t="n">
+        <v>7397521676.1775</v>
+      </c>
+      <c r="AP6" s="3" t="n">
+        <v>7417080195.6146</v>
+      </c>
+      <c r="AQ6" s="3" t="n">
+        <v>9511682492.6948</v>
+      </c>
+      <c r="AR6" s="3" t="n">
+        <v>10609155572.4638</v>
+      </c>
+      <c r="AS6" s="3" t="n">
+        <v>15727040787.7851</v>
+      </c>
+      <c r="AT6" s="3" t="n">
+        <v>10886501744.6268</v>
+      </c>
+      <c r="AU6" s="3" t="n">
+        <v>13261980631.5118</v>
+      </c>
+      <c r="AV6" s="3" t="n">
+        <v>4674838848.1313</v>
+      </c>
+      <c r="AW6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3" t="n">
+        <v>6447252669.3232</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>7447188714.1885</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>7782566418.503</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>12994967218.4131</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>13040981867.4791</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>14648396207.3329</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>15435041433.4634</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>15853628021.3391</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>18012635084.2801</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>18684080005.32</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>15917144969.7951</v>
+      </c>
+      <c r="AJ7" s="3" t="n">
+        <v>15451023857.8801</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>14512694451.8204</v>
+      </c>
+      <c r="AL7" s="3" t="n">
+        <v>10742189582.1904</v>
+      </c>
+      <c r="AM7" s="3" t="n">
+        <v>11182820951.8621</v>
+      </c>
+      <c r="AN7" s="3" t="n">
+        <v>10552108836.2426</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>10744246020.0686</v>
+      </c>
+      <c r="AP7" s="3" t="n">
+        <v>10466258717.7406</v>
+      </c>
+      <c r="AQ7" s="3" t="n">
+        <v>12835739955.7488</v>
+      </c>
+      <c r="AR7" s="3" t="n">
+        <v>12354923335.3771</v>
+      </c>
+      <c r="AS7" s="3" t="n">
+        <v>13305216180.9551</v>
+      </c>
+      <c r="AT7" s="3" t="n">
+        <v>14147890264.6467</v>
+      </c>
+      <c r="AU7" s="3" t="n">
+        <v>15024247924.5095</v>
+      </c>
+      <c r="AV7" s="3" t="n">
+        <v>6597916141.3409</v>
+      </c>
+      <c r="AW7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3" t="n">
+        <v>525333816</v>
+      </c>
+      <c r="Z8" s="3" t="n">
+        <v>147747100</v>
+      </c>
+      <c r="AA8" s="3" t="n">
+        <v>129908335</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>154976941</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>94299199</v>
+      </c>
+      <c r="AD8" s="3" t="n">
+        <v>117644694.2969</v>
+      </c>
+      <c r="AE8" s="3" t="n">
+        <v>23601592.4902</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>21417495.32</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>6253954.6238</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>551200.8341</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>104637804.8696</v>
+      </c>
+      <c r="AJ8" s="3" t="n">
+        <v>114839868.3885</v>
+      </c>
+      <c r="AK8" s="3" t="n">
+        <v>94994345.7622</v>
+      </c>
+      <c r="AL8" s="3" t="n">
+        <v>73809638.1071</v>
+      </c>
+      <c r="AM8" s="3" t="n">
+        <v>78017704.9592</v>
+      </c>
+      <c r="AN8" s="3" t="n">
+        <v>61402656.764</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>14651829.5162</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>23741816.5799</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>2203351.8867</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>1151915.5</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>1481539.125</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>1930569.125</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>1306848.125</v>
+      </c>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="3" t="n">
+        <v>12183236305</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>18492829868</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>17657715911</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>17178015869</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>20332444544</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>20137905407</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>20282796585</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>20228512717</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>19564618261</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>20604829391</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>147142.5508</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>995003.1015</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>-240850</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="3"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3" t="n">
+        <v>17719189719.6712</v>
+      </c>
+      <c r="Z14" s="3" t="n">
+        <v>19026817129.251</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>20891623700.7467</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>21637004517.3861</v>
+      </c>
+      <c r="AC14" s="3" t="n">
+        <v>19882496248.867</v>
+      </c>
+      <c r="AD14" s="3" t="n">
+        <v>21669321848.9192</v>
+      </c>
+      <c r="AE14" s="3" t="n">
+        <v>25455317457.2892</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>25653991133.2789</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>32431811998.2677</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>40756028446.3077</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>37642286659.1817</v>
+      </c>
+      <c r="AJ14" s="3" t="n">
+        <v>30344552129.4263</v>
+      </c>
+      <c r="AK14" s="3" t="n">
+        <v>27329227585.98</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>22702986552.0584</v>
+      </c>
+      <c r="AM14" s="3" t="n">
+        <v>23089125380.9807</v>
+      </c>
+      <c r="AN14" s="3" t="n">
+        <v>20823793342.5325</v>
+      </c>
+      <c r="AO14" s="3" t="n">
+        <v>20968383544.311</v>
+      </c>
+      <c r="AP14" s="3" t="n">
+        <v>20888742674.9129</v>
+      </c>
+      <c r="AQ14" s="3" t="n">
+        <v>23694751036.6634</v>
+      </c>
+      <c r="AR14" s="3" t="n">
+        <v>29281596375.7476</v>
+      </c>
+      <c r="AS14" s="3" t="n">
+        <v>30928065342.3692</v>
+      </c>
+      <c r="AT14" s="3" t="n">
+        <v>24684920122.1584</v>
+      </c>
+      <c r="AU14" s="3" t="n">
+        <v>25865414898.1152</v>
+      </c>
+      <c r="AV14" s="3" t="n">
+        <v>10006238514.4593</v>
+      </c>
+      <c r="AW14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="n">
+        <v>974253503.229933</v>
+      </c>
+      <c r="Z15" s="3" t="n">
+        <v>1061551796.47435</v>
+      </c>
+      <c r="AA15" s="3" t="n">
+        <v>1313066167.23932</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>1754081454.41354</v>
+      </c>
+      <c r="AC15" s="3" t="n">
+        <v>2176822710.71138</v>
+      </c>
+      <c r="AD15" s="3" t="n">
+        <v>2630509590.27169</v>
+      </c>
+      <c r="AE15" s="3" t="n">
+        <v>2337972575.14889</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>2542724291.97416</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>2647736281.27812</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>3162218610.79711</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>3232395098.76058</v>
+      </c>
+      <c r="AJ15" s="3" t="n">
+        <v>2977507837.45078</v>
+      </c>
+      <c r="AK15" s="3" t="n">
+        <v>2122376053.45331</v>
+      </c>
+      <c r="AL15" s="3" t="n">
+        <v>1519362052.07945</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>1816883185.20645</v>
+      </c>
+      <c r="AN15" s="3" t="n">
+        <v>1807915731.43109</v>
+      </c>
+      <c r="AO15" s="3" t="n">
+        <v>1740266133.17555</v>
+      </c>
+      <c r="AP15" s="3" t="n">
+        <v>1793676016.03708</v>
+      </c>
+      <c r="AQ15" s="3" t="n">
+        <v>2098399876.13069</v>
+      </c>
+      <c r="AR15" s="3" t="n">
+        <v>2058289874.81238</v>
+      </c>
+      <c r="AS15" s="3" t="n">
+        <v>2120862934.95555</v>
+      </c>
+      <c r="AT15" s="3" t="n">
+        <v>1971823479.02351</v>
+      </c>
+      <c r="AU15" s="3" t="n">
+        <v>1851110286.1071</v>
+      </c>
+      <c r="AV15" s="3" t="n">
+        <v>725989333.644395</v>
+      </c>
+      <c r="AW15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3" t="n">
+        <v>5672799.12159866</v>
+      </c>
+      <c r="Z16" s="3" t="n">
+        <v>9672575.56371051</v>
+      </c>
+      <c r="AA16" s="3" t="n">
+        <v>10225292.3728799</v>
+      </c>
+      <c r="AB16" s="3" t="n">
+        <v>8297738.60318566</v>
+      </c>
+      <c r="AC16" s="3" t="n">
+        <v>30090384.4501886</v>
+      </c>
+      <c r="AD16" s="3" t="n">
+        <v>19188157.513348</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>34183752.3106362</v>
+      </c>
+      <c r="AF16" s="3" t="n">
+        <v>14125494.1929205</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>20830384.6741865</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>18693921.1763948</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>389007712.878114</v>
+      </c>
+      <c r="AJ16" s="3" t="n">
+        <v>491196357.77111</v>
+      </c>
+      <c r="AK16" s="3" t="n">
+        <v>584558467.225174</v>
+      </c>
+      <c r="AL16" s="3" t="n">
+        <v>532828292.579809</v>
+      </c>
+      <c r="AM16" s="3" t="n">
+        <v>610974931.454348</v>
+      </c>
+      <c r="AN16" s="3" t="n">
+        <v>559203217.661313</v>
+      </c>
+      <c r="AO16" s="3" t="n">
+        <v>785300703.680686</v>
+      </c>
+      <c r="AP16" s="3" t="n">
+        <v>630747710.791165</v>
+      </c>
+      <c r="AQ16" s="3" t="n">
+        <v>1539399052.44515</v>
+      </c>
+      <c r="AR16" s="3" t="n">
+        <v>542747890.619805</v>
+      </c>
+      <c r="AS16" s="3" t="n">
+        <v>575208543.936043</v>
+      </c>
+      <c r="AT16" s="3" t="n">
+        <v>455669056.257654</v>
+      </c>
+      <c r="AU16" s="3" t="n">
+        <v>420820733.1242</v>
+      </c>
+      <c r="AV16" s="3" t="n">
+        <v>227223937.82845</v>
+      </c>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3" t="n">
+        <v>1023495691.0984</v>
+      </c>
+      <c r="Z17" s="3" t="n">
+        <v>1255271192.42387</v>
+      </c>
+      <c r="AA17" s="3" t="n">
+        <v>1773997240.68067</v>
+      </c>
+      <c r="AB17" s="3" t="n">
+        <v>2334360818.13765</v>
+      </c>
+      <c r="AC17" s="3" t="n">
+        <v>2394524072.82714</v>
+      </c>
+      <c r="AD17" s="3" t="n">
+        <v>2037766623.04866</v>
+      </c>
+      <c r="AE17" s="3" t="n">
+        <v>2071977101.83493</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>2315959749.01111</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>2134002401.58894</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>2162929963.58799</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>1835063565.68202</v>
+      </c>
+      <c r="AJ17" s="3" t="n">
+        <v>1604208888.28007</v>
+      </c>
+      <c r="AK17" s="3" t="n">
+        <v>1253884484.83503</v>
+      </c>
+      <c r="AL17" s="3" t="n">
+        <v>826464422.670453</v>
+      </c>
+      <c r="AM17" s="3" t="n">
+        <v>854035608.970972</v>
+      </c>
+      <c r="AN17" s="3" t="n">
+        <v>683857304.082738</v>
+      </c>
+      <c r="AO17" s="3" t="n">
+        <v>779699036.723886</v>
+      </c>
+      <c r="AP17" s="3" t="n">
+        <v>684658625.243145</v>
+      </c>
+      <c r="AQ17" s="3" t="n">
+        <v>760716788.317525</v>
+      </c>
+      <c r="AR17" s="3" t="n">
+        <v>699677156.847568</v>
+      </c>
+      <c r="AS17" s="3" t="n">
+        <v>792902737.091978</v>
+      </c>
+      <c r="AT17" s="3" t="n">
+        <v>816378467.657647</v>
+      </c>
+      <c r="AU17" s="3" t="n">
+        <v>862494349.7389</v>
+      </c>
+      <c r="AV17" s="3" t="n">
+        <v>285428647.762963</v>
+      </c>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="n">
+        <v>2618642403.53886</v>
+      </c>
+      <c r="Z18" s="3" t="n">
+        <v>3052381790.33096</v>
+      </c>
+      <c r="AA18" s="3" t="n">
+        <v>4197868285.19308</v>
+      </c>
+      <c r="AB18" s="3" t="n">
+        <v>6719333511.33182</v>
+      </c>
+      <c r="AC18" s="3" t="n">
+        <v>9084131056.35918</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>9434264549.67942</v>
+      </c>
+      <c r="AE18" s="3" t="n">
+        <v>12171904970.173</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>10735934916.8003</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>15116048078.812</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>16818312399.4254</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>16057188143.8047</v>
+      </c>
+      <c r="AJ18" s="3" t="n">
+        <v>14614400003.7808</v>
+      </c>
+      <c r="AK18" s="3" t="n">
+        <v>12034876408.7571</v>
+      </c>
+      <c r="AL18" s="3" t="n">
+        <v>9570359016.29806</v>
+      </c>
+      <c r="AM18" s="3" t="n">
+        <v>11180526213.3538</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>9127163691.82712</v>
+      </c>
+      <c r="AO18" s="3" t="n">
+        <v>8800017997.28073</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>8668518881.66675</v>
+      </c>
+      <c r="AQ18" s="3" t="n">
+        <v>10861499602.662</v>
+      </c>
+      <c r="AR18" s="3" t="n">
+        <v>11881990052.2398</v>
+      </c>
+      <c r="AS18" s="3" t="n">
+        <v>17382010246.5033</v>
+      </c>
+      <c r="AT18" s="3" t="n">
+        <v>11640801267.6511</v>
+      </c>
+      <c r="AU18" s="3" t="n">
+        <v>13261980631.5118</v>
+      </c>
+      <c r="AV18" s="3" t="n">
+        <v>4458853717.46891</v>
+      </c>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3" t="n">
+        <v>10417019876.28</v>
+      </c>
+      <c r="Z19" s="3" t="n">
+        <v>11747769952.4144</v>
+      </c>
+      <c r="AA19" s="3" t="n">
+        <v>12086059798.7216</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>19802229218.2449</v>
+      </c>
+      <c r="AC19" s="3" t="n">
+        <v>19398190953.6403</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>21147226121.9781</v>
+      </c>
+      <c r="AE19" s="3" t="n">
+        <v>21580268310.4026</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>21573885633.998</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>24011126656.359</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>24655623981.1116</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>20823250210.4609</v>
+      </c>
+      <c r="AJ19" s="3" t="n">
+        <v>19814128651.0447</v>
+      </c>
+      <c r="AK19" s="3" t="n">
+        <v>18275836119.6904</v>
+      </c>
+      <c r="AL19" s="3" t="n">
+        <v>13284532392.0637</v>
+      </c>
+      <c r="AM19" s="3" t="n">
+        <v>13566981144.1203</v>
+      </c>
+      <c r="AN19" s="3" t="n">
+        <v>12656701271.1479</v>
+      </c>
+      <c r="AO19" s="3" t="n">
+        <v>12781247893.9125</v>
+      </c>
+      <c r="AP19" s="3" t="n">
+        <v>12232166691.2523</v>
+      </c>
+      <c r="AQ19" s="3" t="n">
+        <v>14657279039.3616</v>
+      </c>
+      <c r="AR19" s="3" t="n">
+        <v>13837206473.6387</v>
+      </c>
+      <c r="AS19" s="3" t="n">
+        <v>14705335041.0923</v>
+      </c>
+      <c r="AT19" s="3" t="n">
+        <v>15128163554.3369</v>
+      </c>
+      <c r="AU19" s="3" t="n">
+        <v>15024247924.5095</v>
+      </c>
+      <c r="AV19" s="3" t="n">
+        <v>6293081723.26109</v>
+      </c>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="n">
+        <v>848797632.671109</v>
+      </c>
+      <c r="Z20" s="3" t="n">
+        <v>233067672.721853</v>
+      </c>
+      <c r="AA20" s="3" t="n">
+        <v>201743206.640615</v>
+      </c>
+      <c r="AB20" s="3" t="n">
+        <v>236159803.841289</v>
+      </c>
+      <c r="AC20" s="3" t="n">
+        <v>140268109.22412</v>
+      </c>
+      <c r="AD20" s="3" t="n">
+        <v>169838316.572986</v>
+      </c>
+      <c r="AE20" s="3" t="n">
+        <v>32998207.4027392</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>29145290.5277223</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>8336620.14872188</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>727367.92498079</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>136890076.480915</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>147268682.480112</v>
+      </c>
+      <c r="AK20" s="3" t="n">
+        <v>119626379.595514</v>
+      </c>
+      <c r="AL20" s="3" t="n">
+        <v>91278088.2126578</v>
+      </c>
+      <c r="AM20" s="3" t="n">
+        <v>94650959.4176016</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>73649267.2675566</v>
+      </c>
+      <c r="AO20" s="3" t="n">
+        <v>17429670.2435989</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>27747628.4306076</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>2516032.85331451</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>1290116.6750298</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>1637442.70768006</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>2064333.61650635</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>1306848.125</v>
+      </c>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="3" t="n">
+        <v>24214566738.8981</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <v>35489211630.4335</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <v>33060305718.1975</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <v>31423990993.4659</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <v>36401261590.1566</v>
+      </c>
+      <c r="T21" s="3" t="n">
+        <v>35305115235.9255</v>
+      </c>
+      <c r="U21" s="3" t="n">
+        <v>34903150795.6185</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>34202156353.7648</v>
+      </c>
+      <c r="W21" s="3" t="n">
+        <v>32671693107.2574</v>
+      </c>
+      <c r="X21" s="3" t="n">
+        <v>33985149527.8471</v>
+      </c>
+      <c r="Y21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3" t="n">
+        <v>218871.502685086</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>1436440.91009477</v>
+      </c>
+      <c r="AE21" s="3" t="n">
+        <v>-336740.762567178</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -11,12 +11,14 @@
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Veh" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -228,15 +230,101 @@
   <si>
     <t xml:space="preserve">Unlbd. IDV</t>
   </si>
+  <si>
+    <t xml:space="preserve">TopProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAC ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM DEMIL-ACWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEF ENVIR &amp; RESTORA PRG (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPA SUPERFUND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HURRICANE KATRINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER ENVIRONMENTAL PROGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS OF FORCES AGREEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TopPStext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/E SVCS. (INCL
+LANDSCAPING INTERIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHITECT AND
+ENGINEERING-
+GENERAL: OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCT/MISC
+BLDGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTRUCTION OF
+MISCELLANEOUS
+BUILDINGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTRUCT/ALL OTHER
+NON-BLDG FACS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTODIAL
+JANITORIAL SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRIC SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACILITIES
+OPERATIONS SUPPORT
+SVCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINT-REP-ALT/MISC
+BLDGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER ENVIR
+SVC/STUD/SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Labeled PSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REPAIR OR
+ALTERATION OF
+MISCELLANEOUS
+BUILDINGS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -272,11 +360,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7925,4 +8015,3542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>27039649</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>50914611</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>73512779</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>49965641.5</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>215862178.125</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>281560954</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>517390039.9531</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>278108775.207</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>271626626.9946</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>289971538.0054</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>230046388.4386</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>164643456.0032</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>146538272.9643</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>183794593.4596</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>126746848.81</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>84715995.148</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>131907417.1338</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>51028348.7409</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>26464744.8253</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>19164123.0599</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>16127355.0386</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>36291857.0845</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>14399176.3782</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>12746687.1572</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="n">
+        <v>9675574</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>37525240</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>197969503</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>314895977</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>314139477.875</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>387470667.5</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>629930036.13</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>641856841</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>465336051.2705</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>482207532</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>443353641.0756</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>706829320.4912</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>484450149.5625</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>689596109.7501</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>727918562.2033</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>787757338.9206</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>664643587.5147</v>
+      </c>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>440528842</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>420153030</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>481833508</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>384021405</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1502708.9297</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="n">
+        <v>1202268.0898</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>-2964</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>36041.0903</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>-810752.233</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>6053.1204</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>-191424.3938</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>-25039.2207</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="n">
+        <v>-27284.9297</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>69456817.2695</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>77021952</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>39382285</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>116783532</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>436314155</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>245682253</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>200630823.0191</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>213595424.9641</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>168138537.7832</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>227643996.0586</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>275257630.3702</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>257361662.7502</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>343596575.0978</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>249262058.379</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>258272568.1907</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>179116388.074</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>207873259.1737</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>163765731.2778</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>142808034.6928</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>203981514.4887</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>135936578.5017</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>169675266.5653</v>
+      </c>
+      <c r="AJ5" s="4" t="n">
+        <v>146554377.2825</v>
+      </c>
+      <c r="AK5" s="4" t="n">
+        <v>21456837.8815</v>
+      </c>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>35846294</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>70648338</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>107818930</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>116012016</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>228560767</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>221739797</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181408615.4057</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>190443188.8125</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>149173877.372</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>226423628.842</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>216047931.1599</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>170801124.0067</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>102617709.1523</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>94149737.4186</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>106477184.3799</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>95274043.4356</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>204359912.1891</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>77770005.3768</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>106539510.3941</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>111917656.1595</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>101656733.8184</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>103404331.533</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>137789400.3621</v>
+      </c>
+      <c r="AK6" s="4" t="n">
+        <v>135845674.2983</v>
+      </c>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="n">
+        <v>1254801170</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>3218989825.6321</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>311498986.7026</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>-111717928.9464</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>-30781166.912</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>-50670841.2193</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>-647014.4611</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>164525.6716</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>1050014.64</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>-190259.56</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>-48582.3604</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>-16950</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>-22865.8008</v>
+      </c>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4" t="n">
+        <v>-66.67</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>520811835</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>560202036</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>542002239</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>833837129</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>1597213105</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>1424496295.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1024369786.0016</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1314567377.9406</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>1287756257.1068</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1105601000.4953</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1068587794.8827</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>1114919683.8954</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>927751677.2288</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>741273537.7365</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>809519835.9999</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>1022588148.4741</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>804604107.1085</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>975532298.8011</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>604349099.6188</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>736038219.4786</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>601590871.3298</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>550695923.8834</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>483497856.7914</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>189109022.1631</v>
+      </c>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="4" t="n">
+        <v>390722334</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>345863462</v>
+      </c>
+      <c r="P9" s="4" t="n">
+        <v>312161502</v>
+      </c>
+      <c r="Q9" s="4" t="n">
+        <v>397160441</v>
+      </c>
+      <c r="R9" s="4" t="n">
+        <v>9191797</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>65773214.2833</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>430919752.3398</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>18618629.0343</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>16279872.4122</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>129118081.9483</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>242982399.7039</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>266667421.1339</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>141847103.5347</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>148548792.23</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>59682543.78</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>166934152.5257</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>91732086.4373</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>133588643.1801</v>
+      </c>
+      <c r="AF9" s="4" t="n">
+        <v>81440392.7096</v>
+      </c>
+      <c r="AG9" s="4" t="n">
+        <v>133310065.9018</v>
+      </c>
+      <c r="AH9" s="4" t="n">
+        <v>127653033.4739</v>
+      </c>
+      <c r="AI9" s="4" t="n">
+        <v>86027815.1195</v>
+      </c>
+      <c r="AJ9" s="4" t="n">
+        <v>178140066.4938</v>
+      </c>
+      <c r="AK9" s="4" t="n">
+        <v>75023457.4494</v>
+      </c>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4" t="n">
+        <v>408920083.5682</v>
+      </c>
+      <c r="AG10" s="4" t="n">
+        <v>779185017.6446</v>
+      </c>
+      <c r="AH10" s="4" t="n">
+        <v>897811297.674</v>
+      </c>
+      <c r="AI10" s="4" t="n">
+        <v>673380834.1057</v>
+      </c>
+      <c r="AJ10" s="4" t="n">
+        <v>1124769179.5592</v>
+      </c>
+      <c r="AK10" s="4" t="n">
+        <v>619492925.2493</v>
+      </c>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="M11"/>
+      <c r="N11" s="4" t="n">
+        <v>19315524037.8049</v>
+      </c>
+      <c r="O11" s="4" t="n">
+        <v>21541478288.2593</v>
+      </c>
+      <c r="P11" s="4" t="n">
+        <v>24506053718.2005</v>
+      </c>
+      <c r="Q11" s="4" t="n">
+        <v>32549093780.787</v>
+      </c>
+      <c r="R11" s="4" t="n">
+        <v>33213863137.9153</v>
+      </c>
+      <c r="S11" s="4" t="n">
+        <v>36064956796.397</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>39974549780.3847</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>43860573013.1595</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>55472245877.0826</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>64219017592.1946</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>58943011877.9037</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>52292932831.3099</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>46961700154.4722</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>37192735910.2756</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>40210989598.6688</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>36113872863.4011</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>36638806763.2298</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>36595449199.1736</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>44874239657.3215</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>49589180278.9825</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>57603503788.1744</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>48807992053.5109</v>
+      </c>
+      <c r="AJ11" s="4" t="n">
+        <v>54414468275.4439</v>
+      </c>
+      <c r="AK11" s="4" t="n">
+        <v>28136449963.8028</v>
+      </c>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="4" t="n">
+        <v>43688773.4245109</v>
+      </c>
+      <c r="O16" s="4" t="n">
+        <v>80316634.9343469</v>
+      </c>
+      <c r="P16" s="4" t="n">
+        <v>114162834.621219</v>
+      </c>
+      <c r="Q16" s="4" t="n">
+        <v>76139559.9842442</v>
+      </c>
+      <c r="R16" s="4" t="n">
+        <v>321090527.806009</v>
+      </c>
+      <c r="S16" s="4" t="n">
+        <v>406476796.30465</v>
+      </c>
+      <c r="T16" s="4" t="n">
+        <v>723381011.411541</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <v>378455133.553732</v>
+      </c>
+      <c r="V16" s="4" t="n">
+        <v>362082577.78446</v>
+      </c>
+      <c r="W16" s="4" t="n">
+        <v>382648179.854189</v>
+      </c>
+      <c r="X16" s="4" t="n">
+        <v>300953061.341096</v>
+      </c>
+      <c r="Y16" s="4" t="n">
+        <v>211135951.171045</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>184535647.108734</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>227293068.291052</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>153769081.637277</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>101612394.272655</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>156915747.674033</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>59638050.6742133</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>30220396.4046647</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>21463340.6025877</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>17824449.8957278</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>38806432.5772213</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>14399176.3782</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>12157769.5537064</v>
+      </c>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
+        <v>13166685.0413243</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>50021736.7550297</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>261241742.933328</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>411955644.795699</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>402847091.96231</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>487941811.489651</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>779014921.089904</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>778699730.287785</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>558146194.568958</v>
+      </c>
+      <c r="AD17" s="4" t="n">
+        <v>573629270.149975</v>
+      </c>
+      <c r="AE17" s="4" t="n">
+        <v>518157995.809709</v>
+      </c>
+      <c r="AF17" s="4" t="n">
+        <v>807136528.112801</v>
+      </c>
+      <c r="AG17" s="4" t="n">
+        <v>542572103.744817</v>
+      </c>
+      <c r="AH17" s="4" t="n">
+        <v>762162876.498345</v>
+      </c>
+      <c r="AI17" s="4" t="n">
+        <v>778354288.679118</v>
+      </c>
+      <c r="AJ17" s="4" t="n">
+        <v>787757338.9206</v>
+      </c>
+      <c r="AK17" s="4" t="n">
+        <v>633935976.673598</v>
+      </c>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="4" t="n">
+        <v>711775687.809415</v>
+      </c>
+      <c r="O18" s="4" t="n">
+        <v>662781800.043011</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>748270978.692909</v>
+      </c>
+      <c r="Q18" s="4" t="n">
+        <v>585186538.658395</v>
+      </c>
+      <c r="R18" s="4" t="n">
+        <v>2235248.46996017</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4" t="n">
+        <v>1680932.83524782</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <v>-4033.46142177044</v>
+      </c>
+      <c r="V18" s="4" t="n">
+        <v>48043.341797437</v>
+      </c>
+      <c r="W18" s="4" t="n">
+        <v>-1069873.50691085</v>
+      </c>
+      <c r="X18" s="4" t="n">
+        <v>7918.85987609171</v>
+      </c>
+      <c r="Y18" s="4" t="n">
+        <v>-245479.367619192</v>
+      </c>
+      <c r="Z18" s="4" t="n">
+        <v>-31531.8906214937</v>
+      </c>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4" t="n">
+        <v>-31888.5494091387</v>
+      </c>
+      <c r="AF18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="4" t="n">
+        <v>112223466.823657</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>121500368.542829</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>61159343.3226173</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>177959223.037012</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>649008286.37547</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>354680340.756157</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>280508932.272918</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>290664273.434332</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>224131322.687525</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>300400381.864152</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>360099661.11473</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>330036193.231203</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>432691166.938102</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>308254649.884246</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>313335881.685853</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>214840715.898725</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>247283955.621635</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>191396923.898831</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>163074136.806403</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>228454216.684909</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>150241296.647894</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>181431657.703748</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>146554377.2825</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>20465497.1991811</v>
+      </c>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="4" t="n">
+        <v>57917934.3886603</v>
+      </c>
+      <c r="O20" s="4" t="n">
+        <v>111446138.159915</v>
+      </c>
+      <c r="P20" s="4" t="n">
+        <v>167439115.24045</v>
+      </c>
+      <c r="Q20" s="4" t="n">
+        <v>176783557.379627</v>
+      </c>
+      <c r="R20" s="4" t="n">
+        <v>339979416.26105</v>
+      </c>
+      <c r="S20" s="4" t="n">
+        <v>320115701.475438</v>
+      </c>
+      <c r="T20" s="4" t="n">
+        <v>253633695.196061</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <v>259158318.189663</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>198851131.25537</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>298789977.96935</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>282639891.54664</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>219032439.270088</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>129226481.110835</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>116432057.624015</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>129177955.98977</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>114276219.604283</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>243104513.093641</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>90891663.8699299</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>121658691.898311</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>125344987.92804</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>112354155.667345</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>110568968.969676</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>137789400.3621</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>129569383.999017</v>
+      </c>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4" t="n">
+        <v>1811499614.32837</v>
+      </c>
+      <c r="T21" s="4" t="n">
+        <v>4500581642.43032</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <v>423893099.117922</v>
+      </c>
+      <c r="V21" s="4" t="n">
+        <v>-148921761.261858</v>
+      </c>
+      <c r="W21" s="4" t="n">
+        <v>-40619012.3819858</v>
+      </c>
+      <c r="X21" s="4" t="n">
+        <v>-66288998.8805325</v>
+      </c>
+      <c r="Y21" s="4" t="n">
+        <v>-829720.27544851</v>
+      </c>
+      <c r="Z21" s="4" t="n">
+        <v>207187.178206349</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>1298520.51022701</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>-230822.604968812</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>-58271.993984569</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>-20163.5509273673</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>-26723.8078531799</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4" t="n">
+        <v>-71.2894039536028</v>
+      </c>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="4" t="n">
+        <v>841491332.084923</v>
+      </c>
+      <c r="O22" s="4" t="n">
+        <v>883705905.459826</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v>841710962.597226</v>
+      </c>
+      <c r="Q22" s="4" t="n">
+        <v>1270632982.87855</v>
+      </c>
+      <c r="R22" s="4" t="n">
+        <v>2375821477.19341</v>
+      </c>
+      <c r="S22" s="4" t="n">
+        <v>2056480780.1853</v>
+      </c>
+      <c r="T22" s="4" t="n">
+        <v>1432207028.81028</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <v>1788885561.82231</v>
+      </c>
+      <c r="V22" s="4" t="n">
+        <v>1716599400.76702</v>
+      </c>
+      <c r="W22" s="4" t="n">
+        <v>1458957708.0376</v>
+      </c>
+      <c r="X22" s="4" t="n">
+        <v>1397956170.33785</v>
+      </c>
+      <c r="Y22" s="4" t="n">
+        <v>1429753927.99093</v>
+      </c>
+      <c r="Z22" s="4" t="n">
+        <v>1168317686.91131</v>
+      </c>
+      <c r="AA22" s="4" t="n">
+        <v>916709973.147972</v>
+      </c>
+      <c r="AB22" s="4" t="n">
+        <v>982108217.423726</v>
+      </c>
+      <c r="AC22" s="4" t="n">
+        <v>1226540866.80758</v>
+      </c>
+      <c r="AD22" s="4" t="n">
+        <v>957149020.062012</v>
+      </c>
+      <c r="AE22" s="4" t="n">
+        <v>1140127911.36235</v>
+      </c>
+      <c r="AF22" s="4" t="n">
+        <v>690113185.592572</v>
+      </c>
+      <c r="AG22" s="4" t="n">
+        <v>824344477.011192</v>
+      </c>
+      <c r="AH22" s="4" t="n">
+        <v>664896774.336537</v>
+      </c>
+      <c r="AI22" s="4" t="n">
+        <v>588852319.983894</v>
+      </c>
+      <c r="AJ22" s="4" t="n">
+        <v>483497856.7914</v>
+      </c>
+      <c r="AK22" s="4" t="n">
+        <v>180371878.875763</v>
+      </c>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" s="4" t="n">
+        <v>631301816.159747</v>
+      </c>
+      <c r="O23" s="4" t="n">
+        <v>545591704.797339</v>
+      </c>
+      <c r="P23" s="4" t="n">
+        <v>484776149.299664</v>
+      </c>
+      <c r="Q23" s="4" t="n">
+        <v>605208305.408996</v>
+      </c>
+      <c r="R23" s="4" t="n">
+        <v>13672608.0309753</v>
+      </c>
+      <c r="S23" s="4" t="n">
+        <v>94953810.3374059</v>
+      </c>
+      <c r="T23" s="4" t="n">
+        <v>602483894.574066</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <v>25336545.8623833</v>
+      </c>
+      <c r="V23" s="4" t="n">
+        <v>21701326.6859463</v>
+      </c>
+      <c r="W23" s="4" t="n">
+        <v>170384994.967544</v>
+      </c>
+      <c r="X23" s="4" t="n">
+        <v>317876309.813975</v>
+      </c>
+      <c r="Y23" s="4" t="n">
+        <v>341969738.574616</v>
+      </c>
+      <c r="Z23" s="4" t="n">
+        <v>178628057.447165</v>
+      </c>
+      <c r="AA23" s="4" t="n">
+        <v>183705680.027571</v>
+      </c>
+      <c r="AB23" s="4" t="n">
+        <v>72406770.1326796</v>
+      </c>
+      <c r="AC23" s="4" t="n">
+        <v>200228763.108774</v>
+      </c>
+      <c r="AD23" s="4" t="n">
+        <v>109123575.017826</v>
+      </c>
+      <c r="AE23" s="4" t="n">
+        <v>156128239.852068</v>
+      </c>
+      <c r="AF23" s="4" t="n">
+        <v>92997720.827553</v>
+      </c>
+      <c r="AG23" s="4" t="n">
+        <v>149303954.126178</v>
+      </c>
+      <c r="AH23" s="4" t="n">
+        <v>141086067.352475</v>
+      </c>
+      <c r="AI23" s="4" t="n">
+        <v>91988475.5257221</v>
+      </c>
+      <c r="AJ23" s="4" t="n">
+        <v>178140066.4938</v>
+      </c>
+      <c r="AK23" s="4" t="n">
+        <v>71557252.1348724</v>
+      </c>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>79</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="n">
+        <v>466950545.143582</v>
+      </c>
+      <c r="AG24" s="4" t="n">
+        <v>872667816.516652</v>
+      </c>
+      <c r="AH24" s="4" t="n">
+        <v>992288720.184196</v>
+      </c>
+      <c r="AI24" s="4" t="n">
+        <v>720037772.569</v>
+      </c>
+      <c r="AJ24" s="4" t="n">
+        <v>1124769179.5592</v>
+      </c>
+      <c r="AK24" s="4" t="n">
+        <v>590871348.174428</v>
+      </c>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="M25"/>
+      <c r="N25" s="4" t="n">
+        <v>31208672614.9201</v>
+      </c>
+      <c r="O25" s="4" t="n">
+        <v>33981189557.2428</v>
+      </c>
+      <c r="P25" s="4" t="n">
+        <v>38057064307.8208</v>
+      </c>
+      <c r="Q25" s="4" t="n">
+        <v>49599556894.6117</v>
+      </c>
+      <c r="R25" s="4" t="n">
+        <v>49404934843.4451</v>
+      </c>
+      <c r="S25" s="4" t="n">
+        <v>52065344605.5062</v>
+      </c>
+      <c r="T25" s="4" t="n">
+        <v>55889808496.2689</v>
+      </c>
+      <c r="U25" s="4" t="n">
+        <v>59686210926.2228</v>
+      </c>
+      <c r="V25" s="4" t="n">
+        <v>73945378643.1134</v>
+      </c>
+      <c r="W25" s="4" t="n">
+        <v>84743800590.5939</v>
+      </c>
+      <c r="X25" s="4" t="n">
+        <v>77110881808.3197</v>
+      </c>
+      <c r="Y25" s="4" t="n">
+        <v>67059562407.6769</v>
+      </c>
+      <c r="Z25" s="4" t="n">
+        <v>59138868993.2431</v>
+      </c>
+      <c r="AA25" s="4" t="n">
+        <v>45995101945.3875</v>
+      </c>
+      <c r="AB25" s="4" t="n">
+        <v>48783910608.952</v>
+      </c>
+      <c r="AC25" s="4" t="n">
+        <v>43316696943.6832</v>
+      </c>
+      <c r="AD25" s="4" t="n">
+        <v>43585159061.2597</v>
+      </c>
+      <c r="AE25" s="4" t="n">
+        <v>42769976055.224</v>
+      </c>
+      <c r="AF25" s="4" t="n">
+        <v>51242410223.6477</v>
+      </c>
+      <c r="AG25" s="4" t="n">
+        <v>55538647043.9666</v>
+      </c>
+      <c r="AH25" s="4" t="n">
+        <v>63665167948.0736</v>
+      </c>
+      <c r="AI25" s="4" t="n">
+        <v>52189780435.9828</v>
+      </c>
+      <c r="AJ25" s="4" t="n">
+        <v>54414468275.4439</v>
+      </c>
+      <c r="AK25" s="4" t="n">
+        <v>26836500378.5381</v>
+      </c>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>726016526</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>710557068.8799</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>838961864.2188</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>1204981590.5</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>1267066265.9805</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>1437619419.2755</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>1610807246.8583</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>1765356402.3411</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>1588494215.6092</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>1825528982.3183</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>1725487063.6533</v>
+      </c>
+      <c r="Y2" s="5" t="n">
+        <v>1418025204.6027</v>
+      </c>
+      <c r="Z2" s="5" t="n">
+        <v>1202144691.6506</v>
+      </c>
+      <c r="AA2" s="5" t="n">
+        <v>822207191.85</v>
+      </c>
+      <c r="AB2" s="5" t="n">
+        <v>845803485.8977</v>
+      </c>
+      <c r="AC2" s="5" t="n">
+        <v>805231240.962</v>
+      </c>
+      <c r="AD2" s="5" t="n">
+        <v>956159992.9013</v>
+      </c>
+      <c r="AE2" s="5" t="n">
+        <v>839575098.9306</v>
+      </c>
+      <c r="AF2" s="5" t="n">
+        <v>928618406.2184</v>
+      </c>
+      <c r="AG2" s="5" t="n">
+        <v>1070160683.4435</v>
+      </c>
+      <c r="AH2" s="5" t="n">
+        <v>1268347794.1707</v>
+      </c>
+      <c r="AI2" s="5" t="n">
+        <v>822674714.6374</v>
+      </c>
+      <c r="AJ2" s="5" t="n">
+        <v>1075736546.4786</v>
+      </c>
+      <c r="AK2" s="5" t="n">
+        <v>434341564.6877</v>
+      </c>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="5" t="n">
+        <v>857260816</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>775680843</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>680375227</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>558144449</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>1147470990</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>954015860.9688</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>647973247.7772</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>653208616.7675</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>816766075.9413</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>982488108.015</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>1054695251.7488</v>
+      </c>
+      <c r="Y3" s="5" t="n">
+        <v>890714603.8261</v>
+      </c>
+      <c r="Z3" s="5" t="n">
+        <v>877922297.5729</v>
+      </c>
+      <c r="AA3" s="5" t="n">
+        <v>705432499.7929</v>
+      </c>
+      <c r="AB3" s="5" t="n">
+        <v>751824972.2314</v>
+      </c>
+      <c r="AC3" s="5" t="n">
+        <v>711971850.9994</v>
+      </c>
+      <c r="AD3" s="5" t="n">
+        <v>702696764.7085</v>
+      </c>
+      <c r="AE3" s="5" t="n">
+        <v>853048220.1842</v>
+      </c>
+      <c r="AF3" s="5" t="n">
+        <v>1094000797.9355</v>
+      </c>
+      <c r="AG3" s="5" t="n">
+        <v>1324892826.3044</v>
+      </c>
+      <c r="AH3" s="5" t="n">
+        <v>1360389665.3869</v>
+      </c>
+      <c r="AI3" s="5" t="n">
+        <v>1371991500.6677</v>
+      </c>
+      <c r="AJ3" s="5" t="n">
+        <v>1867114632.8341</v>
+      </c>
+      <c r="AK3" s="5" t="n">
+        <v>623640169.4285</v>
+      </c>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>963833358</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>1051092996</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>1061411441.2109</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>2155275761.1484</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>3020044002.7226</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>3782358391.125</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>3537545040.3659</v>
+      </c>
+      <c r="U4" s="5" t="n">
+        <v>4417110283.0664</v>
+      </c>
+      <c r="V4" s="5" t="n">
+        <v>7397070671.5605</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>9379058423.5263</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>6499667378.6929</v>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>6090082794.8151</v>
+      </c>
+      <c r="Z4" s="5" t="n">
+        <v>335543742.2786</v>
+      </c>
+      <c r="AA4" s="5" t="n">
+        <v>177334508.0262</v>
+      </c>
+      <c r="AB4" s="5" t="n">
+        <v>71692708.8496</v>
+      </c>
+      <c r="AC4" s="5" t="n">
+        <v>887430.9898</v>
+      </c>
+      <c r="AD4" s="5" t="n">
+        <v>-31223265.2679</v>
+      </c>
+      <c r="AE4" s="5" t="n">
+        <v>28014657.6719</v>
+      </c>
+      <c r="AF4" s="5" t="n">
+        <v>16614301.3014</v>
+      </c>
+      <c r="AG4" s="5" t="n">
+        <v>20751487.1838</v>
+      </c>
+      <c r="AH4" s="5" t="n">
+        <v>5866140.8855</v>
+      </c>
+      <c r="AI4" s="5" t="n">
+        <v>32590.3403</v>
+      </c>
+      <c r="AJ4" s="5" t="n">
+        <v>1824554.25</v>
+      </c>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="n">
+        <v>3789329648.7082</v>
+      </c>
+      <c r="AA5" s="5" t="n">
+        <v>2291333507.5775</v>
+      </c>
+      <c r="AB5" s="5" t="n">
+        <v>2380062810.4847</v>
+      </c>
+      <c r="AC5" s="5" t="n">
+        <v>2114988531.754</v>
+      </c>
+      <c r="AD5" s="5" t="n">
+        <v>1991975338.4518</v>
+      </c>
+      <c r="AE5" s="5" t="n">
+        <v>1720935423.0946</v>
+      </c>
+      <c r="AF5" s="5" t="n">
+        <v>2953767578.9715</v>
+      </c>
+      <c r="AG5" s="5" t="n">
+        <v>3014435649.7992</v>
+      </c>
+      <c r="AH5" s="5" t="n">
+        <v>5356927510.1818</v>
+      </c>
+      <c r="AI5" s="5" t="n">
+        <v>3425624783.0485</v>
+      </c>
+      <c r="AJ5" s="5" t="n">
+        <v>4987370323.2887</v>
+      </c>
+      <c r="AK5" s="5" t="n">
+        <v>1915987416.2772</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>786324862</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>893058979</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1066893133</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>968200177</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>997406769.2813</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>1219695175.5488</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>1954703331.2385</v>
+      </c>
+      <c r="U6" s="5" t="n">
+        <v>2043522393.6772</v>
+      </c>
+      <c r="V6" s="5" t="n">
+        <v>3396975126.5201</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>3960563727.0964</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>4807495315.767</v>
+      </c>
+      <c r="Y6" s="5" t="n">
+        <v>2504133293.9578</v>
+      </c>
+      <c r="Z6" s="5" t="n">
+        <v>737626299.4967</v>
+      </c>
+      <c r="AA6" s="5" t="n">
+        <v>349763002.6251</v>
+      </c>
+      <c r="AB6" s="5" t="n">
+        <v>26456278.0325</v>
+      </c>
+      <c r="AC6" s="5" t="n">
+        <v>78340089.286</v>
+      </c>
+      <c r="AD6" s="5" t="n">
+        <v>78976445.9417</v>
+      </c>
+      <c r="AE6" s="5" t="n">
+        <v>21673017.5132</v>
+      </c>
+      <c r="AF6" s="5" t="n">
+        <v>5581426.4032</v>
+      </c>
+      <c r="AG6" s="5" t="n">
+        <v>3261383.1428</v>
+      </c>
+      <c r="AH6" s="5" t="n">
+        <v>1604547.4999</v>
+      </c>
+      <c r="AI6" s="5" t="n">
+        <v>2527505.2607</v>
+      </c>
+      <c r="AJ6" s="5" t="n">
+        <v>560738.3819</v>
+      </c>
+      <c r="AK6" s="5" t="n">
+        <v>-32199</v>
+      </c>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>318349530</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>394018879</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>432270090.6201</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>495314085.3291</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>537058455.6796</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>539054984.1265</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>627758849.8973</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>567889713.2707</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>481359905.5392</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>569565045.6276</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>554180564.7937</v>
+      </c>
+      <c r="Y7" s="5" t="n">
+        <v>620281946.053</v>
+      </c>
+      <c r="Z7" s="5" t="n">
+        <v>681387742.6127</v>
+      </c>
+      <c r="AA7" s="5" t="n">
+        <v>679256443.7987</v>
+      </c>
+      <c r="AB7" s="5" t="n">
+        <v>648384558.0644</v>
+      </c>
+      <c r="AC7" s="5" t="n">
+        <v>726873448.0158</v>
+      </c>
+      <c r="AD7" s="5" t="n">
+        <v>762237964.1552</v>
+      </c>
+      <c r="AE7" s="5" t="n">
+        <v>781520877.5998</v>
+      </c>
+      <c r="AF7" s="5" t="n">
+        <v>755183055.6478</v>
+      </c>
+      <c r="AG7" s="5" t="n">
+        <v>837919107.2166</v>
+      </c>
+      <c r="AH7" s="5" t="n">
+        <v>872019512.7416</v>
+      </c>
+      <c r="AI7" s="5" t="n">
+        <v>888426493.2969</v>
+      </c>
+      <c r="AJ7" s="5" t="n">
+        <v>903604959.2708</v>
+      </c>
+      <c r="AK7" s="5" t="n">
+        <v>611379507.768</v>
+      </c>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>664763706</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>505315643.5</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>475342668</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>542368562.2188</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>629949649.7813</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>979118602.4639</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>1098620566.6673</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>1175052010.6145</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>886659485.2082</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>915442939.5568</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>928141892.6668</v>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>1509432681.6688</v>
+      </c>
+      <c r="Z8" s="5" t="n">
+        <v>1026399125.6789</v>
+      </c>
+      <c r="AA8" s="5" t="n">
+        <v>1122410197.9271</v>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>856473799.1963</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>701295920.9495</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>698947710.9232</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>766744852.7142</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>796415891.3748</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>1021011950.2387</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>1148526791.9422</v>
+      </c>
+      <c r="AI8" s="5" t="n">
+        <v>798360969.1654</v>
+      </c>
+      <c r="AJ8" s="5" t="n">
+        <v>1152741479.0553</v>
+      </c>
+      <c r="AK8" s="5" t="n">
+        <v>623489507.8067</v>
+      </c>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>496304981</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>733494765</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>993680244.4375</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1533421395.8296</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>1553245692.6063</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>1621391065.9832</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>1676915878.9654</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>2220636981.1248</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>2152790467.5145</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>2463541925.9985</v>
+      </c>
+      <c r="X9" s="5" t="n">
+        <v>2402320986.2672</v>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>2685072338.4349</v>
+      </c>
+      <c r="Z9" s="5" t="n">
+        <v>2260307475.5412</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>1998369569.6292</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>2186698306.1882</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>2230313411.6902</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>2028903112.0474</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>1748522661.5025</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>1903718762.6852</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>2260525814.1492</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>2182071938.4054</v>
+      </c>
+      <c r="AI9" s="5" t="n">
+        <v>2443620240.9723</v>
+      </c>
+      <c r="AJ9" s="5" t="n">
+        <v>3281535291.7689</v>
+      </c>
+      <c r="AK9" s="5" t="n">
+        <v>1285106208.3133</v>
+      </c>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>773635570</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>878124296.6309</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>1102050119.8398</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>1606477569.6503</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>1316838374</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>1732857848.9181</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>1915354724.8162</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>1682603283.0138</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>2203844544.6936</v>
+      </c>
+      <c r="W10" s="5" t="n">
+        <v>2477163451.1312</v>
+      </c>
+      <c r="X10" s="5" t="n">
+        <v>2316412156.5667</v>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>2559207145.5726</v>
+      </c>
+      <c r="Z10" s="5" t="n">
+        <v>246847003.1415</v>
+      </c>
+      <c r="AA10" s="5" t="n">
+        <v>99939767.49</v>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>40593473.2187</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>28067445.7508</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>30343829.1333</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>33231991.3079</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>37596960.5154</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>36468002.255</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>10397188.5703</v>
+      </c>
+      <c r="AI10" s="5" t="n">
+        <v>194182</v>
+      </c>
+      <c r="AJ10" s="5" t="n">
+        <v>211981.3281</v>
+      </c>
+      <c r="AK10" s="5" t="n">
+        <v>220460.5781</v>
+      </c>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>479194207</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>655873327</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>704002715</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>885152879.5</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>789938604.0547</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>716829037.6745</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>606668004.2623</v>
+      </c>
+      <c r="U11" s="5" t="n">
+        <v>757738936.0407</v>
+      </c>
+      <c r="V11" s="5" t="n">
+        <v>1053145953.2948</v>
+      </c>
+      <c r="W11" s="5" t="n">
+        <v>1064634254.587</v>
+      </c>
+      <c r="X11" s="5" t="n">
+        <v>1074141462.5449</v>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>866734206.5753</v>
+      </c>
+      <c r="Z11" s="5" t="n">
+        <v>916313052.771</v>
+      </c>
+      <c r="AA11" s="5" t="n">
+        <v>968931965.9816</v>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>1046086588.3887</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>950295915.5105</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>909227178.9542</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>676587821.8485</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>749874669.3016</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>737151888.497</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>804230630.1692</v>
+      </c>
+      <c r="AI11" s="5" t="n">
+        <v>872358366.4347</v>
+      </c>
+      <c r="AJ11" s="5" t="n">
+        <v>1007282464.4486</v>
+      </c>
+      <c r="AK11" s="5" t="n">
+        <v>357281855.5702</v>
+      </c>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>14734246253.0744</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>16469064919.2485</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>18707777457.8734</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>24497537475.1108</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>24443489044.8637</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>26576070093.626</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>31873113999.9775</v>
+      </c>
+      <c r="U12" s="5" t="n">
+        <v>30913959385.9039</v>
+      </c>
+      <c r="V12" s="5" t="n">
+        <v>37313957955.0139</v>
+      </c>
+      <c r="W12" s="5" t="n">
+        <v>42726166563.5421</v>
+      </c>
+      <c r="X12" s="5" t="n">
+        <v>39877623138.6588</v>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>35436943002.6131</v>
+      </c>
+      <c r="Z12" s="5" t="n">
+        <v>35938820191.0008</v>
+      </c>
+      <c r="AA12" s="5" t="n">
+        <v>29068668868.1002</v>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>32045669360.7388</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>28802335865.2764</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>29075932425.2561</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>29670086651.1601</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>35471720185.162</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>40516541795.7594</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>45045946235.2506</v>
+      </c>
+      <c r="AI12" s="5" t="n">
+        <v>38883594475.28</v>
+      </c>
+      <c r="AJ12" s="5" t="n">
+        <v>40319290933.4654</v>
+      </c>
+      <c r="AK12" s="5" t="n">
+        <v>22405699331.8574</v>
+      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5" t="n">
+        <v>999020375.9479</v>
+      </c>
+      <c r="AA13" s="5" t="n">
+        <v>957097157.4708</v>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>1313608819.9783</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>977187908.7842</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>1357296630.0674</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>1300496443.3679</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>2238498808.1047</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>1214106437.2885</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>2117547812.5568</v>
+      </c>
+      <c r="AI13" s="5" t="n">
+        <v>1645980756.2317</v>
+      </c>
+      <c r="AJ13" s="5" t="n">
+        <v>2690101766.6613</v>
+      </c>
+      <c r="AK13" s="5" t="n">
+        <v>1597654332.2292</v>
+      </c>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1173046717.68722</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>1120887532.68186</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>1302879116.54544</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>1836197141.38534</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>1884734878.72098</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>2075426040.26145</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>2252125641.08699</v>
+      </c>
+      <c r="U18" s="5" t="n">
+        <v>2402326904.35839</v>
+      </c>
+      <c r="V18" s="5" t="n">
+        <v>2117487842.58517</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>2408978988.62805</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>2257330000.42084</v>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>1818451262.05616</v>
+      </c>
+      <c r="Z18" s="5" t="n">
+        <v>1513860809.90676</v>
+      </c>
+      <c r="AA18" s="5" t="n">
+        <v>1016798110.8086</v>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>1026127485.5603</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>965832652.90512</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>1137438390.06351</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>981231482.70127</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>1060400035.21061</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>1198553316.34286</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>1401817077.47131</v>
+      </c>
+      <c r="AI18" s="5" t="n">
+        <v>879675867.019656</v>
+      </c>
+      <c r="AJ18" s="5" t="n">
+        <v>1075736546.4786</v>
+      </c>
+      <c r="AK18" s="5" t="n">
+        <v>414274280.520529</v>
+      </c>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>1385102060.90084</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>1223618797.61386</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>1056599486.19784</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>850521908.229847</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>1706839377.89152</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>1377269487.4106</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>905953936.39039</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>888897353.6099</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>1088762060.98014</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>1296497197.09155</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>1379781560.36315</v>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>1142237169.12933</v>
+      </c>
+      <c r="Z19" s="5" t="n">
+        <v>1105567549.12261</v>
+      </c>
+      <c r="AA19" s="5" t="n">
+        <v>872386474.117912</v>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>912112897.617636</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>853972904.507527</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>835921062.046965</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>996977841.49767</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>1249252089.86048</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>1483846973.01379</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>1503544590.62369</v>
+      </c>
+      <c r="AI19" s="5" t="n">
+        <v>1467053492.00554</v>
+      </c>
+      <c r="AJ19" s="5" t="n">
+        <v>1867114632.8341</v>
+      </c>
+      <c r="AK19" s="5" t="n">
+        <v>594826982.951671</v>
+      </c>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>1557294519.49053</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>1658075172.99466</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>1648335710.82967</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>3284291828.78691</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>4492253025.7711</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>5460419491.61922</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>4945964768.56364</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>6010878516.34744</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>9860411869.21522</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>12376661720.6466</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>8503045010.15268</v>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>7809817983.70846</v>
+      </c>
+      <c r="Z20" s="5" t="n">
+        <v>422550234.570818</v>
+      </c>
+      <c r="AA20" s="5" t="n">
+        <v>219304081.172655</v>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>86977483.8853578</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>1064426.94166308</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>-37142884.9172861</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>32741399.9292983</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>18972061.6854333</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>23241148.8928551</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>6483439.72366294</v>
+      </c>
+      <c r="AI20" s="5" t="n">
+        <v>34848.4465971513</v>
+      </c>
+      <c r="AJ20" s="5" t="n">
+        <v>1824554.25</v>
+      </c>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5" t="n">
+        <v>4771902825.70776</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>2833621020.14099</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>2887488533.58785</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>2536817848.80509</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>2369633993.09336</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>2011298356.7368</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>3372941160.51442</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>3376092862.37597</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>5920641405.3479</v>
+      </c>
+      <c r="AI21" s="5" t="n">
+        <v>3662978085.37899</v>
+      </c>
+      <c r="AJ21" s="5" t="n">
+        <v>4987370323.2887</v>
+      </c>
+      <c r="AK21" s="5" t="n">
+        <v>1827465692.66366</v>
+      </c>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>1270488708.414</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>1408780123.86628</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>1656848590.92584</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>1475380546.31896</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>1483621951.59713</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>1760818680.22551</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>2732938718.513</v>
+      </c>
+      <c r="U22" s="5" t="n">
+        <v>2780859898.59007</v>
+      </c>
+      <c r="V22" s="5" t="n">
+        <v>4528221419.56113</v>
+      </c>
+      <c r="W22" s="5" t="n">
+        <v>5226383636.80279</v>
+      </c>
+      <c r="X22" s="5" t="n">
+        <v>6289298617.04488</v>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>3211257694.13263</v>
+      </c>
+      <c r="Z22" s="5" t="n">
+        <v>928892798.778962</v>
+      </c>
+      <c r="AA22" s="5" t="n">
+        <v>432541047.834604</v>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>32096715.7352871</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>93964829.4985763</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>93949592.3190523</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>25329773.5201717</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>6373494.98442609</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>3652667.90505673</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>1773395.35521043</v>
+      </c>
+      <c r="AI22" s="5" t="n">
+        <v>2702630.02137241</v>
+      </c>
+      <c r="AJ22" s="5" t="n">
+        <v>560738.3819</v>
+      </c>
+      <c r="AK22" s="5" t="n">
+        <v>-30711.3540194378</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>514366901.950892</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>621555774.27241</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>671300684.567531</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>754778591.42379</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>798863351.119272</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>778209264.697242</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>877691483.590249</v>
+      </c>
+      <c r="U23" s="5" t="n">
+        <v>772793944.095022</v>
+      </c>
+      <c r="V23" s="5" t="n">
+        <v>641660345.924711</v>
+      </c>
+      <c r="W23" s="5" t="n">
+        <v>751601448.601176</v>
+      </c>
+      <c r="X23" s="5" t="n">
+        <v>724994374.579873</v>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>795438955.506265</v>
+      </c>
+      <c r="Z23" s="5" t="n">
+        <v>858071584.108453</v>
+      </c>
+      <c r="AA23" s="5" t="n">
+        <v>840015358.239643</v>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>786619146.569963</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>871846588.794389</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>906750678.998001</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>913382126.823461</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>862352214.253922</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>938448534.242502</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>963782844.474967</v>
+      </c>
+      <c r="AI23" s="5" t="n">
+        <v>949983428.284468</v>
+      </c>
+      <c r="AJ23" s="5" t="n">
+        <v>903604959.2708</v>
+      </c>
+      <c r="AK23" s="5" t="n">
+        <v>583132783.729082</v>
+      </c>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>1074078695.78012</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>797123876.004946</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>738190925.897289</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>826482007.173402</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>937037082.162483</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>1413509178.30678</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>1536019627.94906</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>1599030686.02813</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>1181931077.86745</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>1208023990.87615</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>1214220948.44817</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>1935670646.79819</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>1292544418.72082</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>1388049849.37762</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>1039072693.20935</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>841167686.182905</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>831461225.059983</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>896113033.414908</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>909436463.461083</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>1143507959.05398</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>1269387212.46456</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>853677480.6003</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>1152741479.0553</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>594683282.140955</v>
+      </c>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>801894871.651818</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>1157071223.95101</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>1543151475.90993</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>2336686307.70789</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>2310420860.12198</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>2340728842.88435</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>2344554419.11488</v>
+      </c>
+      <c r="U25" s="5" t="n">
+        <v>3021880430.20366</v>
+      </c>
+      <c r="V25" s="5" t="n">
+        <v>2869703646.25909</v>
+      </c>
+      <c r="W25" s="5" t="n">
+        <v>3250904693.82638</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>3142782897.17224</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>3443290829.16904</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>2846405203.40594</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>2471321612.40821</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>2652899014.98379</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>2675143995.46784</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>2413562904.21603</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>2043540221.55758</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>2173878343.8541</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>2531732620.29133</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>2411693166.16948</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>2612932810.3776</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>3281535291.7689</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>1225732218.89149</v>
+      </c>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="5" t="n">
+        <v>1249986238.0193</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>1385221003.83884</v>
+      </c>
+      <c r="P26" s="5" t="n">
+        <v>1711446190.54008</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>2448012106.03354</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>1958769860.54509</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>2501648388.64553</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>2677924063.19807</v>
+      </c>
+      <c r="U26" s="5" t="n">
+        <v>2289715057.41581</v>
+      </c>
+      <c r="V26" s="5" t="n">
+        <v>2937759536.34598</v>
+      </c>
+      <c r="W26" s="5" t="n">
+        <v>3268879740.04891</v>
+      </c>
+      <c r="X26" s="5" t="n">
+        <v>3030394585.10145</v>
+      </c>
+      <c r="Y26" s="5" t="n">
+        <v>3281883459.21082</v>
+      </c>
+      <c r="Z26" s="5" t="n">
+        <v>310854430.99678</v>
+      </c>
+      <c r="AA26" s="5" t="n">
+        <v>123592408.076408</v>
+      </c>
+      <c r="AB26" s="5" t="n">
+        <v>49247939.1472998</v>
+      </c>
+      <c r="AC26" s="5" t="n">
+        <v>33665429.5198229</v>
+      </c>
+      <c r="AD26" s="5" t="n">
+        <v>36096716.4637537</v>
+      </c>
+      <c r="AE26" s="5" t="n">
+        <v>38839022.4361119</v>
+      </c>
+      <c r="AF26" s="5" t="n">
+        <v>42932401.4981518</v>
+      </c>
+      <c r="AG26" s="5" t="n">
+        <v>40843254.4003444</v>
+      </c>
+      <c r="AH26" s="5" t="n">
+        <v>11491293.2892084</v>
+      </c>
+      <c r="AI26" s="5" t="n">
+        <v>207636.40375759</v>
+      </c>
+      <c r="AJ26" s="5" t="n">
+        <v>211981.3281</v>
+      </c>
+      <c r="AK26" s="5" t="n">
+        <v>210274.942121154</v>
+      </c>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="5" t="n">
+        <v>774248479.925208</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>1034625179.94755</v>
+      </c>
+      <c r="P27" s="5" t="n">
+        <v>1093292167.95673</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>1348829890.71434</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>1175017344.46221</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>1034853613.72968</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>848203638.697924</v>
+      </c>
+      <c r="U27" s="5" t="n">
+        <v>1031143983.22994</v>
+      </c>
+      <c r="V27" s="5" t="n">
+        <v>1403860165.59354</v>
+      </c>
+      <c r="W27" s="5" t="n">
+        <v>1404897744.55226</v>
+      </c>
+      <c r="X27" s="5" t="n">
+        <v>1405221632.29948</v>
+      </c>
+      <c r="Y27" s="5" t="n">
+        <v>1111485117.96424</v>
+      </c>
+      <c r="Z27" s="5" t="n">
+        <v>1153913027.13435</v>
+      </c>
+      <c r="AA27" s="5" t="n">
+        <v>1198248084.27593</v>
+      </c>
+      <c r="AB27" s="5" t="n">
+        <v>1269110636.83116</v>
+      </c>
+      <c r="AC27" s="5" t="n">
+        <v>1139830123.86093</v>
+      </c>
+      <c r="AD27" s="5" t="n">
+        <v>1081607582.73684</v>
+      </c>
+      <c r="AE27" s="5" t="n">
+        <v>790744356.824837</v>
+      </c>
+      <c r="AF27" s="5" t="n">
+        <v>856290506.849968</v>
+      </c>
+      <c r="AG27" s="5" t="n">
+        <v>825591758.579243</v>
+      </c>
+      <c r="AH27" s="5" t="n">
+        <v>888860481.942046</v>
+      </c>
+      <c r="AI27" s="5" t="n">
+        <v>932801979.557047</v>
+      </c>
+      <c r="AJ27" s="5" t="n">
+        <v>1007282464.4486</v>
+      </c>
+      <c r="AK27" s="5" t="n">
+        <v>340774854.844501</v>
+      </c>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>23806564431.7911</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>25979573424.0087</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>29052539342.2246</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>37330286734.1845</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>36359184675.1902</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <v>38366668661.1132</v>
+      </c>
+      <c r="T28" s="5" t="n">
+        <v>44562909336.6951</v>
+      </c>
+      <c r="U28" s="5" t="n">
+        <v>42068239735.9047</v>
+      </c>
+      <c r="V28" s="5" t="n">
+        <v>49740094456.7963</v>
+      </c>
+      <c r="W28" s="5" t="n">
+        <v>56381705529.2573</v>
+      </c>
+      <c r="X28" s="5" t="n">
+        <v>52169011841.6662</v>
+      </c>
+      <c r="Y28" s="5" t="n">
+        <v>45443729432.5589</v>
+      </c>
+      <c r="Z28" s="5" t="n">
+        <v>45257756257.8921</v>
+      </c>
+      <c r="AA28" s="5" t="n">
+        <v>35948320425.5374</v>
+      </c>
+      <c r="AB28" s="5" t="n">
+        <v>38877756680.4789</v>
+      </c>
+      <c r="AC28" s="5" t="n">
+        <v>34546891679.6995</v>
+      </c>
+      <c r="AD28" s="5" t="n">
+        <v>34588439186.8638</v>
+      </c>
+      <c r="AE28" s="5" t="n">
+        <v>34676139339.6203</v>
+      </c>
+      <c r="AF28" s="5" t="n">
+        <v>40505565129.2791</v>
+      </c>
+      <c r="AG28" s="5" t="n">
+        <v>45377517869.3672</v>
+      </c>
+      <c r="AH28" s="5" t="n">
+        <v>49786168268.394</v>
+      </c>
+      <c r="AI28" s="5" t="n">
+        <v>41577745218.4838</v>
+      </c>
+      <c r="AJ28" s="5" t="n">
+        <v>40319290933.4654</v>
+      </c>
+      <c r="AK28" s="5" t="n">
+        <v>21370519712.8406</v>
+      </c>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5" t="n">
+        <v>1258066359.19115</v>
+      </c>
+      <c r="AA29" s="5" t="n">
+        <v>1183612343.97246</v>
+      </c>
+      <c r="AB29" s="5" t="n">
+        <v>1593668195.89722</v>
+      </c>
+      <c r="AC29" s="5" t="n">
+        <v>1172085659.76688</v>
+      </c>
+      <c r="AD29" s="5" t="n">
+        <v>1614626532.38395</v>
+      </c>
+      <c r="AE29" s="5" t="n">
+        <v>1519921273.27146</v>
+      </c>
+      <c r="AF29" s="5" t="n">
+        <v>2556167526.98188</v>
+      </c>
+      <c r="AG29" s="5" t="n">
+        <v>1359768976.1158</v>
+      </c>
+      <c r="AH29" s="5" t="n">
+        <v>2340379113.40006</v>
+      </c>
+      <c r="AI29" s="5" t="n">
+        <v>1760026804.12267</v>
+      </c>
+      <c r="AJ29" s="5" t="n">
+        <v>2690101766.6613</v>
+      </c>
+      <c r="AK29" s="5" t="n">
+        <v>1523840112.97803</v>
+      </c>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -13,12 +13,14 @@
     <sheet name="FYQ" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Proj" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -314,17 +316,319 @@
 MISCELLANEOUS
 BUILDINGS</t>
   </si>
+  <si>
+    <t xml:space="preserve">Project.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF INT COM CTRL SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH-64E New Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR CONDITIONERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR TRAFFIC CNTL COMM CON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/FRT-84 TRANSMITTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN/TVQ-2 LASER DESIGNATOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO CHEM AGENT ALARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO TEST SUPPORT SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force Integrated Personnel and Pay System Increment 1 (AFIPPS Inc 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRACKS SHIP SELF-PROP-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE REALIGN &amp; CLOS (BRAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIOMETRICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSM ENERGY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGO SHIP-AK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCS II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM AGENT DETECTOR NETWO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEM DEMIL-CMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLL PROT EQUIP, TEMPER T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONTAINERIZED KITCHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAMS Inc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMOLITION MUNITIONS ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIMHRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMLSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAGON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defense Enterprise Office Solution (DEOS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Defense Healthcare Management System Modernization (DHMSM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EASTERN TEST RANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIR PROTECT AGENCY SUPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORK LIFT FRONT/SIDE LOAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORKLIFT 6000 LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FWD AREA REFUELING SYS AD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFEBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANGER AIRCRAFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEATER H-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HURRICANE RITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUSH HOUSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRVD CHEMICAL AGENT MON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INLAND PETROLEUM DIST SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTGR FAMILY OF TEST EQUI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JADC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joint Operational Medicine Information Systems (OMIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAB PETROLEUM MODULAR BAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAND COMBAT SUPT SYS (LCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOADER A/C 25K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASK, PROTECTIVE NBC ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSION DISTRIBUTION SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ-1C Gray Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MQ-9 Reaper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTI SYS TEST EQUIP (MTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVY EPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTCSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other UAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKI INC 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP, ASSY LIQ GAS WHL 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QM-107 GD MSL TGT SYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIL GARRISON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOTE SENSING CHEM AGENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESCH SHP OCEANOGRAPHIC-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSA DINING FACILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELTER SYSTEM M51 CB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMP COLL PROT EQMT, M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOOL OUTFIT HYD REPAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOW FLIGHTLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACTOR 32,000 GVW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE 15 PERISCOPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAREHOUSING SYSTEM AUTOMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZBL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -360,13 +664,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8805,6 +9111,47 @@
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
     </row>
+    <row r="12">
+      <c r="M12" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="str">
+        <f>Sum(A2:A11)</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="str">
+        <f>Sum(B2:B11)</f>
+      </c>
+    </row>
     <row r="15">
       <c r="M15" t="s">
         <v>70</v>
@@ -9582,6 +9929,87 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
     </row>
+    <row r="26">
+      <c r="M26" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="str">
+        <f>Sum(A16:A25)</f>
+      </c>
+    </row>
+    <row r="28">
+      <c r="M28" t="str">
+        <f>Sum(B16:B25)</f>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" t="str">
+        <f>Sum(C16:C25)</f>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="str">
+        <f>Sum(D16:D25)</f>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="str">
+        <f>Sum(E16:E25)</f>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="str">
+        <f>Sum(F16:F25)</f>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="str">
+        <f>Sum(G16:G25)</f>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="str">
+        <f>Sum(H16:H25)</f>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="str">
+        <f>Sum(I16:I25)</f>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="str">
+        <f>Sum(J16:J25)</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11553,4 +11981,9264 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6" t="n">
+        <v>19421.8537451854</v>
+      </c>
+      <c r="AG2" s="6" t="n">
+        <v>247754.828139128</v>
+      </c>
+      <c r="AH2" s="6" t="n">
+        <v>20054.2741052478</v>
+      </c>
+      <c r="AI2" s="6" t="n">
+        <v>22479.289726152</v>
+      </c>
+      <c r="AJ2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="6" t="n">
+        <v>-913.05</v>
+      </c>
+      <c r="AL2" s="6" t="n">
+        <v>-20980.1314364498</v>
+      </c>
+      <c r="AM2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2044</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6" t="n">
+        <v>198024.364457797</v>
+      </c>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1852</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1874</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="n">
+        <v>46292.945724126</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1875</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6" t="n">
+        <v>-1339.68085051034</v>
+      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2190</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6" t="n">
+        <v>281953.3985</v>
+      </c>
+      <c r="AL7" s="6" t="n">
+        <v>3549.32221947368</v>
+      </c>
+      <c r="AM7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1728</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6" t="n">
+        <v>4567600.26633768</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="M9" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2040</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6" t="n">
+        <v>710500</v>
+      </c>
+      <c r="AL9" s="6" t="n">
+        <v>934303.470787701</v>
+      </c>
+      <c r="AM9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" t="n">
+        <v>586</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6" t="n">
+        <v>987619.49697489</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="M11" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" t="n">
+        <v>487</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>545045.527798983</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="M12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1069</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="n">
+        <v>405763.402330964</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>208872.352570419</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>1010048.81171148</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="n">
+        <v>428</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="n">
+        <v>5818975.58861698</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>1064023.86335763</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1851</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6" t="n">
+        <v>5488.25101161946</v>
+      </c>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2058</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6" t="n">
+        <v>-1020.61270793786</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>262017.580075934</v>
+      </c>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6" t="n">
+        <v>386474.414047978</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <v>1613333.85618649</v>
+      </c>
+      <c r="AA15" s="6" t="n">
+        <v>79864.8059847618</v>
+      </c>
+      <c r="AB15" s="6" t="n">
+        <v>35673.2000823439</v>
+      </c>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" t="n">
+        <v>584</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6" t="n">
+        <v>632382.190757597</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>3871109.00972746</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>14651312.447215</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" t="n">
+        <v>425</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6" t="n">
+        <v>1645.74540252793</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>111</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2253</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6" t="n">
+        <v>75866.7911442461</v>
+      </c>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1253</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>492039.887786255</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>476704.126784942</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>2260708.28066715</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>1197391.02053757</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20" t="n">
+        <v>610</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>238256821.487051</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>227443160.627645</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>129565595.527683</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>165612905.028458</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>194351.074127417</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>152262.261855568</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6" t="n">
+        <v>-400865.971301389</v>
+      </c>
+      <c r="X20" s="6" t="n">
+        <v>-419759.735034623</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>59164.5601289631</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>-763251.053813209</v>
+      </c>
+      <c r="AA20" s="6" t="n">
+        <v>-17077.5812518116</v>
+      </c>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6" t="n">
+        <v>-15061.5494465338</v>
+      </c>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1992</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6" t="n">
+        <v>16576.0511204937</v>
+      </c>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6" t="n">
+        <v>-15377.9784867312</v>
+      </c>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="M22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>43688773.4245109</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>80316634.9343469</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>114162834.621219</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>76139559.9842442</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>321090527.806009</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>406476796.30465</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>723381011.411541</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>378455133.553732</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>362082577.78446</v>
+      </c>
+      <c r="X22" s="6" t="n">
+        <v>382648179.854189</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>300953061.341096</v>
+      </c>
+      <c r="Z22" s="6" t="n">
+        <v>211135951.171045</v>
+      </c>
+      <c r="AA22" s="6" t="n">
+        <v>184535647.108734</v>
+      </c>
+      <c r="AB22" s="6" t="n">
+        <v>227293068.291052</v>
+      </c>
+      <c r="AC22" s="6" t="n">
+        <v>153769081.637277</v>
+      </c>
+      <c r="AD22" s="6" t="n">
+        <v>101612394.272655</v>
+      </c>
+      <c r="AE22" s="6" t="n">
+        <v>156915747.674033</v>
+      </c>
+      <c r="AF22" s="6" t="n">
+        <v>59638050.6742133</v>
+      </c>
+      <c r="AG22" s="6" t="n">
+        <v>30220396.4046647</v>
+      </c>
+      <c r="AH22" s="6" t="n">
+        <v>21463340.6025877</v>
+      </c>
+      <c r="AI22" s="6" t="n">
+        <v>17824449.8957278</v>
+      </c>
+      <c r="AJ22" s="6" t="n">
+        <v>38806432.5772213</v>
+      </c>
+      <c r="AK22" s="6" t="n">
+        <v>14399176.3782</v>
+      </c>
+      <c r="AL22" s="6" t="n">
+        <v>12157769.5537064</v>
+      </c>
+      <c r="AM22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="M23" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1972</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6" t="n">
+        <v>301868.199051856</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>124897.056838898</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>134247.313151315</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="M24" t="s">
+        <v>116</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1962</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="n">
+        <v>155908.658356863</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6" t="n">
+        <v>12316.081719701</v>
+      </c>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="M25" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1255</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>144987162.782395</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>95568949.0586064</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>60539329.4756595</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>96593.0644217041</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="M26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1344</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="n">
+        <v>837810.832047593</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>1327244.16524682</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>14997565.3230417</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6" t="n">
+        <v>14144389.5170326</v>
+      </c>
+      <c r="Y26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="M27" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1958</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="n">
+        <v>4892789.55551515</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="M28" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" t="n">
+        <v>605</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>5007740.39716293</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>131474.832216692</v>
+      </c>
+      <c r="Q28" s="6" t="n">
+        <v>57459.7360954765</v>
+      </c>
+      <c r="R28" s="6" t="n">
+        <v>66280.8722484767</v>
+      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="M29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" t="n">
+        <v>654</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6" t="n">
+        <v>13166685.0413243</v>
+      </c>
+      <c r="W29" s="6" t="n">
+        <v>50021736.7550297</v>
+      </c>
+      <c r="X29" s="6" t="n">
+        <v>261241742.933328</v>
+      </c>
+      <c r="Y29" s="6" t="n">
+        <v>411955644.795699</v>
+      </c>
+      <c r="Z29" s="6" t="n">
+        <v>402847091.96231</v>
+      </c>
+      <c r="AA29" s="6" t="n">
+        <v>487941811.489651</v>
+      </c>
+      <c r="AB29" s="6" t="n">
+        <v>779014921.089904</v>
+      </c>
+      <c r="AC29" s="6" t="n">
+        <v>778699730.287785</v>
+      </c>
+      <c r="AD29" s="6" t="n">
+        <v>558146194.568958</v>
+      </c>
+      <c r="AE29" s="6" t="n">
+        <v>573629270.149975</v>
+      </c>
+      <c r="AF29" s="6" t="n">
+        <v>518157995.809709</v>
+      </c>
+      <c r="AG29" s="6" t="n">
+        <v>807136528.112801</v>
+      </c>
+      <c r="AH29" s="6" t="n">
+        <v>542572103.744817</v>
+      </c>
+      <c r="AI29" s="6" t="n">
+        <v>762162876.498345</v>
+      </c>
+      <c r="AJ29" s="6" t="n">
+        <v>778354288.679118</v>
+      </c>
+      <c r="AK29" s="6" t="n">
+        <v>787757338.9206</v>
+      </c>
+      <c r="AL29" s="6" t="n">
+        <v>633935976.673598</v>
+      </c>
+      <c r="AM29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="M30" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" t="n">
+        <v>690</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6" t="n">
+        <v>208097.42261605</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="n">
+        <v>2165518.51855984</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>15077308.8716553</v>
+      </c>
+      <c r="U30" s="6" t="n">
+        <v>11861728.2383205</v>
+      </c>
+      <c r="V30" s="6" t="n">
+        <v>19881121.0528647</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>14712986.2940345</v>
+      </c>
+      <c r="X30" s="6" t="n">
+        <v>11195363.9129774</v>
+      </c>
+      <c r="Y30" s="6" t="n">
+        <v>6126026.52439282</v>
+      </c>
+      <c r="Z30" s="6" t="n">
+        <v>31229875.8343922</v>
+      </c>
+      <c r="AA30" s="6" t="n">
+        <v>14228907.2119753</v>
+      </c>
+      <c r="AB30" s="6" t="n">
+        <v>2479228.49081376</v>
+      </c>
+      <c r="AC30" s="6" t="n">
+        <v>-7535.86715088652</v>
+      </c>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6" t="n">
+        <v>-73985.1483777542</v>
+      </c>
+      <c r="AF30" s="6" t="n">
+        <v>-514929.321153432</v>
+      </c>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6" t="n">
+        <v>125092848</v>
+      </c>
+      <c r="AL30" s="6" t="n">
+        <v>544592.168302943</v>
+      </c>
+      <c r="AM30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="M31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" t="n">
+        <v>606</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>490899.182371118</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>8087835.71915813</v>
+      </c>
+      <c r="Q31" s="6" t="n">
+        <v>4237660.19593891</v>
+      </c>
+      <c r="R31" s="6" t="n">
+        <v>14024412.9751104</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6" t="n">
+        <v>-296611.853612976</v>
+      </c>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="M32" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" t="n">
+        <v>592</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>1025794.69399745</v>
+      </c>
+      <c r="P32" s="6" t="n">
+        <v>1369168.12853576</v>
+      </c>
+      <c r="Q32" s="6" t="n">
+        <v>4309658.79823238</v>
+      </c>
+      <c r="R32" s="6" t="n">
+        <v>14058568.2875662</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="M33" t="s">
+        <v>124</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1994</v>
+      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6" t="n">
+        <v>95593.2270167143</v>
+      </c>
+      <c r="X33" s="6" t="n">
+        <v>2639.21198946818</v>
+      </c>
+      <c r="Y33" s="6" t="n">
+        <v>12558.9860744353</v>
+      </c>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="M34" t="s">
+        <v>125</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2101</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6" t="n">
+        <v>688016.102374773</v>
+      </c>
+      <c r="AI34" s="6" t="n">
+        <v>875003.495789834</v>
+      </c>
+      <c r="AJ34" s="6" t="n">
+        <v>54981.8610543405</v>
+      </c>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" t="n">
+        <v>611</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>711775687.809415</v>
+      </c>
+      <c r="P35" s="6" t="n">
+        <v>662781800.043011</v>
+      </c>
+      <c r="Q35" s="6" t="n">
+        <v>748270978.692909</v>
+      </c>
+      <c r="R35" s="6" t="n">
+        <v>585186538.658395</v>
+      </c>
+      <c r="S35" s="6" t="n">
+        <v>2235248.46996017</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6" t="n">
+        <v>1680932.83524782</v>
+      </c>
+      <c r="V35" s="6" t="n">
+        <v>-4033.46142177044</v>
+      </c>
+      <c r="W35" s="6" t="n">
+        <v>48043.341797437</v>
+      </c>
+      <c r="X35" s="6" t="n">
+        <v>-1069873.50691085</v>
+      </c>
+      <c r="Y35" s="6" t="n">
+        <v>7918.85987609171</v>
+      </c>
+      <c r="Z35" s="6" t="n">
+        <v>-245479.367619192</v>
+      </c>
+      <c r="AA35" s="6" t="n">
+        <v>-31531.8906214937</v>
+      </c>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6" t="n">
+        <v>-31888.5494091387</v>
+      </c>
+      <c r="AG35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="M36" t="s">
+        <v>126</v>
+      </c>
+      <c r="N36" t="n">
+        <v>381</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>58651.0008066209</v>
+      </c>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6" t="n">
+        <v>69139.5921812624</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="M37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>112223466.823657</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>121500368.542829</v>
+      </c>
+      <c r="Q37" s="6" t="n">
+        <v>61159343.3226173</v>
+      </c>
+      <c r="R37" s="6" t="n">
+        <v>177959223.037012</v>
+      </c>
+      <c r="S37" s="6" t="n">
+        <v>649008286.37547</v>
+      </c>
+      <c r="T37" s="6" t="n">
+        <v>354680340.756157</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>280508932.272918</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>290664273.434332</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>224131322.687525</v>
+      </c>
+      <c r="X37" s="6" t="n">
+        <v>300400381.864152</v>
+      </c>
+      <c r="Y37" s="6" t="n">
+        <v>360099661.11473</v>
+      </c>
+      <c r="Z37" s="6" t="n">
+        <v>330036193.231203</v>
+      </c>
+      <c r="AA37" s="6" t="n">
+        <v>432691166.938102</v>
+      </c>
+      <c r="AB37" s="6" t="n">
+        <v>308254649.884246</v>
+      </c>
+      <c r="AC37" s="6" t="n">
+        <v>313335881.685853</v>
+      </c>
+      <c r="AD37" s="6" t="n">
+        <v>214840715.898725</v>
+      </c>
+      <c r="AE37" s="6" t="n">
+        <v>247283955.621635</v>
+      </c>
+      <c r="AF37" s="6" t="n">
+        <v>191396923.898831</v>
+      </c>
+      <c r="AG37" s="6" t="n">
+        <v>163074136.806403</v>
+      </c>
+      <c r="AH37" s="6" t="n">
+        <v>228454216.684909</v>
+      </c>
+      <c r="AI37" s="6" t="n">
+        <v>150241296.647894</v>
+      </c>
+      <c r="AJ37" s="6" t="n">
+        <v>181431657.703748</v>
+      </c>
+      <c r="AK37" s="6" t="n">
+        <v>146554377.2825</v>
+      </c>
+      <c r="AL37" s="6" t="n">
+        <v>20465497.1991811</v>
+      </c>
+      <c r="AM37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="M38" t="s">
+        <v>127</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1967</v>
+      </c>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6" t="n">
+        <v>3920092.610463</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="M39" t="s">
+        <v>128</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6" t="n">
+        <v>216155.831908547</v>
+      </c>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="M40" t="s">
+        <v>129</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1950</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6" t="n">
+        <v>280166.731557952</v>
+      </c>
+      <c r="T40" s="6" t="n">
+        <v>136996.887940979</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6" t="n">
+        <v>518948.90237975</v>
+      </c>
+      <c r="W40" s="6" t="n">
+        <v>6882.36042903971</v>
+      </c>
+      <c r="X40" s="6" t="n">
+        <v>785297.527466256</v>
+      </c>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="M41" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1799</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6" t="n">
+        <v>13082.2771608701</v>
+      </c>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AJ41" s="6"/>
+      <c r="AK41" s="6"/>
+      <c r="AL41" s="6"/>
+      <c r="AM41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="M42" t="s">
+        <v>131</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1970</v>
+      </c>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="n">
+        <v>51721.1437377306</v>
+      </c>
+      <c r="T42" s="6" t="n">
+        <v>24149.4559241485</v>
+      </c>
+      <c r="U42" s="6" t="n">
+        <v>17157.9100611352</v>
+      </c>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="6"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="M43" t="s">
+        <v>132</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2251</v>
+      </c>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6" t="n">
+        <v>53725.2054522919</v>
+      </c>
+      <c r="AI43" s="6"/>
+      <c r="AJ43" s="6"/>
+      <c r="AK43" s="6"/>
+      <c r="AL43" s="6"/>
+      <c r="AM43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="M44" t="s">
+        <v>133</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2237</v>
+      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="6"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="6"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="6" t="n">
+        <v>7179</v>
+      </c>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="M45" t="s">
+        <v>134</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1733</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>1583966.41272076</v>
+      </c>
+      <c r="P45" s="6" t="n">
+        <v>767179.189830709</v>
+      </c>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6" t="n">
+        <v>-2397910.48117829</v>
+      </c>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="M46" t="s">
+        <v>135</v>
+      </c>
+      <c r="N46" t="n">
+        <v>613</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>215723699.950076</v>
+      </c>
+      <c r="P46" s="6" t="n">
+        <v>186265359.910685</v>
+      </c>
+      <c r="Q46" s="6" t="n">
+        <v>222708917.920471</v>
+      </c>
+      <c r="R46" s="6" t="n">
+        <v>241052170.629079</v>
+      </c>
+      <c r="S46" s="6" t="n">
+        <v>608313.596341991</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6" t="n">
+        <v>320127.56731656</v>
+      </c>
+      <c r="X46" s="6" t="n">
+        <v>-1525946.37282493</v>
+      </c>
+      <c r="Y46" s="6" t="n">
+        <v>-114529.909491561</v>
+      </c>
+      <c r="Z46" s="6" t="n">
+        <v>-130615.070550147</v>
+      </c>
+      <c r="AA46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="6"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="M47" t="s">
+        <v>75</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>57917934.3886603</v>
+      </c>
+      <c r="P47" s="6" t="n">
+        <v>111446138.159915</v>
+      </c>
+      <c r="Q47" s="6" t="n">
+        <v>167439115.24045</v>
+      </c>
+      <c r="R47" s="6" t="n">
+        <v>176783557.379627</v>
+      </c>
+      <c r="S47" s="6" t="n">
+        <v>339979416.26105</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <v>320115701.475438</v>
+      </c>
+      <c r="U47" s="6" t="n">
+        <v>253633695.196061</v>
+      </c>
+      <c r="V47" s="6" t="n">
+        <v>259158318.189663</v>
+      </c>
+      <c r="W47" s="6" t="n">
+        <v>198851131.25537</v>
+      </c>
+      <c r="X47" s="6" t="n">
+        <v>298789977.96935</v>
+      </c>
+      <c r="Y47" s="6" t="n">
+        <v>282639891.54664</v>
+      </c>
+      <c r="Z47" s="6" t="n">
+        <v>219032439.270088</v>
+      </c>
+      <c r="AA47" s="6" t="n">
+        <v>129226481.110835</v>
+      </c>
+      <c r="AB47" s="6" t="n">
+        <v>116432057.624015</v>
+      </c>
+      <c r="AC47" s="6" t="n">
+        <v>129177955.98977</v>
+      </c>
+      <c r="AD47" s="6" t="n">
+        <v>114276219.604283</v>
+      </c>
+      <c r="AE47" s="6" t="n">
+        <v>243104513.093641</v>
+      </c>
+      <c r="AF47" s="6" t="n">
+        <v>90891663.8699299</v>
+      </c>
+      <c r="AG47" s="6" t="n">
+        <v>121658691.898311</v>
+      </c>
+      <c r="AH47" s="6" t="n">
+        <v>125344987.92804</v>
+      </c>
+      <c r="AI47" s="6" t="n">
+        <v>112354155.667345</v>
+      </c>
+      <c r="AJ47" s="6" t="n">
+        <v>110568968.969676</v>
+      </c>
+      <c r="AK47" s="6" t="n">
+        <v>137789400.3621</v>
+      </c>
+      <c r="AL47" s="6" t="n">
+        <v>129569383.999017</v>
+      </c>
+      <c r="AM47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="M48" t="s">
+        <v>136</v>
+      </c>
+      <c r="N48" t="n">
+        <v>79</v>
+      </c>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="6" t="n">
+        <v>7605.13057592972</v>
+      </c>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="6"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="M49" t="s">
+        <v>137</v>
+      </c>
+      <c r="N49" t="n">
+        <v>287</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6" t="n">
+        <v>5025.61883105289</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="M50" t="s">
+        <v>138</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1577</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6" t="n">
+        <v>206713.241749186</v>
+      </c>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="6"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="M51" t="s">
+        <v>139</v>
+      </c>
+      <c r="N51" t="n">
+        <v>594</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6" t="n">
+        <v>4401773.28117428</v>
+      </c>
+      <c r="Q51" s="6" t="n">
+        <v>2629360.62966068</v>
+      </c>
+      <c r="R51" s="6" t="n">
+        <v>37196837.3917842</v>
+      </c>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="6" t="n">
+        <v>-66317.1488494946</v>
+      </c>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="6"/>
+      <c r="AH51" s="6"/>
+      <c r="AI51" s="6"/>
+      <c r="AJ51" s="6"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="M52" t="s">
+        <v>140</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2187</v>
+      </c>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="6" t="n">
+        <v>4220607.66822644</v>
+      </c>
+      <c r="AH52" s="6" t="n">
+        <v>2105192.90229893</v>
+      </c>
+      <c r="AI52" s="6"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="6"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="M53" t="s">
+        <v>141</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1986</v>
+      </c>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6" t="n">
+        <v>1078801.6659034</v>
+      </c>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="6"/>
+      <c r="AJ53" s="6"/>
+      <c r="AK53" s="6"/>
+      <c r="AL53" s="6"/>
+      <c r="AM53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="M54" t="s">
+        <v>142</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2089</v>
+      </c>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6" t="n">
+        <v>1240139.25736824</v>
+      </c>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="6"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="M55" t="s">
+        <v>143</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1771</v>
+      </c>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6" t="n">
+        <v>648464.570197865</v>
+      </c>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="6"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="6"/>
+      <c r="AH55" s="6"/>
+      <c r="AI55" s="6"/>
+      <c r="AJ55" s="6"/>
+      <c r="AK55" s="6"/>
+      <c r="AL55" s="6"/>
+      <c r="AM55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="M56" t="s">
+        <v>144</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1772</v>
+      </c>
+      <c r="O56" s="6" t="n">
+        <v>765612.068353072</v>
+      </c>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="6"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="6"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="6"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="M57" t="s">
+        <v>76</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2017</v>
+      </c>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6" t="n">
+        <v>1811499614.32837</v>
+      </c>
+      <c r="U57" s="6" t="n">
+        <v>4500581642.43032</v>
+      </c>
+      <c r="V57" s="6" t="n">
+        <v>423893099.117922</v>
+      </c>
+      <c r="W57" s="6" t="n">
+        <v>-148921761.261858</v>
+      </c>
+      <c r="X57" s="6" t="n">
+        <v>-40619012.3819858</v>
+      </c>
+      <c r="Y57" s="6" t="n">
+        <v>-66288998.8805325</v>
+      </c>
+      <c r="Z57" s="6" t="n">
+        <v>-829720.27544851</v>
+      </c>
+      <c r="AA57" s="6" t="n">
+        <v>207187.178206349</v>
+      </c>
+      <c r="AB57" s="6" t="n">
+        <v>1298520.51022701</v>
+      </c>
+      <c r="AC57" s="6" t="n">
+        <v>-230822.604968812</v>
+      </c>
+      <c r="AD57" s="6" t="n">
+        <v>-58271.993984569</v>
+      </c>
+      <c r="AE57" s="6" t="n">
+        <v>-20163.5509273673</v>
+      </c>
+      <c r="AF57" s="6" t="n">
+        <v>-26723.8078531799</v>
+      </c>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6" t="n">
+        <v>-71.2894039536028</v>
+      </c>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="M58" t="s">
+        <v>145</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2018</v>
+      </c>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6" t="n">
+        <v>77718801.7400884</v>
+      </c>
+      <c r="U58" s="6" t="n">
+        <v>575059527.598219</v>
+      </c>
+      <c r="V58" s="6" t="n">
+        <v>3753175.31664877</v>
+      </c>
+      <c r="W58" s="6" t="n">
+        <v>1215069.83847585</v>
+      </c>
+      <c r="X58" s="6" t="n">
+        <v>-3825676.39925309</v>
+      </c>
+      <c r="Y58" s="6" t="n">
+        <v>-347289.120419728</v>
+      </c>
+      <c r="Z58" s="6" t="n">
+        <v>-672133.902225571</v>
+      </c>
+      <c r="AA58" s="6" t="n">
+        <v>33652.2738935791</v>
+      </c>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="M59" t="s">
+        <v>146</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1758</v>
+      </c>
+      <c r="O59" s="6" t="n">
+        <v>6744055.61200647</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6" t="n">
+        <v>595772.026421796</v>
+      </c>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="M60" t="s">
+        <v>147</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1974</v>
+      </c>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6" t="n">
+        <v>9564.3881616037</v>
+      </c>
+      <c r="X60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="6"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="6"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="M61" t="s">
+        <v>148</v>
+      </c>
+      <c r="N61" t="n">
+        <v>577</v>
+      </c>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6" t="n">
+        <v>6188401.80503263</v>
+      </c>
+      <c r="Q61" s="6" t="n">
+        <v>9832567.50039403</v>
+      </c>
+      <c r="R61" s="6" t="n">
+        <v>7202278.65275966</v>
+      </c>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="6"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6"/>
+      <c r="AJ61" s="6"/>
+      <c r="AK61" s="6"/>
+      <c r="AL61" s="6"/>
+      <c r="AM61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="M62" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" t="n">
+        <v>578</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>292770.285018174</v>
+      </c>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6" t="n">
+        <v>12533522.9612297</v>
+      </c>
+      <c r="R62" s="6" t="n">
+        <v>27092561.0125669</v>
+      </c>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6" t="n">
+        <v>43605.1275259778</v>
+      </c>
+      <c r="Y62" s="6" t="n">
+        <v>-12156.0519378805</v>
+      </c>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="6"/>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="M63" t="s">
+        <v>150</v>
+      </c>
+      <c r="N63" t="n">
+        <v>492</v>
+      </c>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6" t="n">
+        <v>455956.98261017</v>
+      </c>
+      <c r="R63" s="6" t="n">
+        <v>47810628.9284324</v>
+      </c>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="6"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="6"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="6"/>
+      <c r="AK63" s="6"/>
+      <c r="AL63" s="6"/>
+      <c r="AM63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="M64" t="s">
+        <v>151</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2254</v>
+      </c>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6" t="n">
+        <v>1536051.45682387</v>
+      </c>
+      <c r="AJ64" s="6" t="n">
+        <v>243253.304256923</v>
+      </c>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="M65" t="s">
+        <v>152</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1954</v>
+      </c>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6" t="n">
+        <v>19146.8339188424</v>
+      </c>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="6"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="6"/>
+      <c r="AK65" s="6"/>
+      <c r="AL65" s="6"/>
+      <c r="AM65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="M66" t="s">
+        <v>153</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1988</v>
+      </c>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6" t="n">
+        <v>1738765.45745125</v>
+      </c>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="6"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="6"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="M67" t="s">
+        <v>154</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2241</v>
+      </c>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+      <c r="AE67" s="6"/>
+      <c r="AF67" s="6"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6" t="n">
+        <v>65518.7663335418</v>
+      </c>
+      <c r="AI67" s="6" t="n">
+        <v>51010.8245489016</v>
+      </c>
+      <c r="AJ67" s="6" t="n">
+        <v>2673.21898731074</v>
+      </c>
+      <c r="AK67" s="6" t="n">
+        <v>-5846.2998</v>
+      </c>
+      <c r="AL67" s="6"/>
+      <c r="AM67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="M68" t="s">
+        <v>155</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2001</v>
+      </c>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6" t="n">
+        <v>379165.672120262</v>
+      </c>
+      <c r="X68" s="6" t="n">
+        <v>14514.3463360802</v>
+      </c>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="6"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="6"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6" t="n">
+        <v>4420.92329537382</v>
+      </c>
+      <c r="AJ68" s="6" t="n">
+        <v>645139.98437403</v>
+      </c>
+      <c r="AK68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="6"/>
+      <c r="AM68" s="6"/>
+    </row>
+    <row r="69">
+      <c r="M69" t="s">
+        <v>156</v>
+      </c>
+      <c r="N69" t="n">
+        <v>595</v>
+      </c>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6" t="n">
+        <v>197184.642475091</v>
+      </c>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6" t="n">
+        <v>676020.400855061</v>
+      </c>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="6"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="6"/>
+      <c r="AK69" s="6"/>
+      <c r="AL69" s="6"/>
+      <c r="AM69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="M70" t="s">
+        <v>157</v>
+      </c>
+      <c r="N70" t="n">
+        <v>412</v>
+      </c>
+      <c r="O70" s="6" t="n">
+        <v>387658.879381018</v>
+      </c>
+      <c r="P70" s="6" t="n">
+        <v>247657.601040156</v>
+      </c>
+      <c r="Q70" s="6" t="n">
+        <v>45439.780490639</v>
+      </c>
+      <c r="R70" s="6" t="n">
+        <v>9884583.08252478</v>
+      </c>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6"/>
+    </row>
+    <row r="71">
+      <c r="M71" t="s">
+        <v>158</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1580</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>4762613.1441223</v>
+      </c>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6" t="n">
+        <v>85868.1402142481</v>
+      </c>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
+      <c r="AD71" s="6"/>
+      <c r="AE71" s="6"/>
+      <c r="AF71" s="6"/>
+      <c r="AG71" s="6"/>
+      <c r="AH71" s="6"/>
+      <c r="AI71" s="6"/>
+      <c r="AJ71" s="6"/>
+      <c r="AK71" s="6"/>
+      <c r="AL71" s="6"/>
+      <c r="AM71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="M72" t="s">
+        <v>159</v>
+      </c>
+      <c r="N72" t="n">
+        <v>579</v>
+      </c>
+      <c r="O72" s="6" t="n">
+        <v>535777.700233507</v>
+      </c>
+      <c r="P72" s="6" t="n">
+        <v>3562836.23373118</v>
+      </c>
+      <c r="Q72" s="6" t="n">
+        <v>9384148.61397325</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>17447219.0249046</v>
+      </c>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="6"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="6"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="6"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="6"/>
+      <c r="AL72" s="6"/>
+      <c r="AM72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="M73" t="s">
+        <v>160</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1028</v>
+      </c>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6"/>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="M74" t="s">
+        <v>161</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1159</v>
+      </c>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6" t="n">
+        <v>8508529.01340933</v>
+      </c>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+    </row>
+    <row r="75">
+      <c r="M75" t="s">
+        <v>162</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2036</v>
+      </c>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6" t="n">
+        <v>114527.815443363</v>
+      </c>
+      <c r="AE75" s="6" t="n">
+        <v>-9873.29981176498</v>
+      </c>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
+    </row>
+    <row r="76">
+      <c r="M76" t="s">
+        <v>163</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1805</v>
+      </c>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6" t="n">
+        <v>15809751.0397115</v>
+      </c>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6" t="n">
+        <v>25500113.9040127</v>
+      </c>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6" t="n">
+        <v>6643854.34286676</v>
+      </c>
+      <c r="AF76" s="6" t="n">
+        <v>6477876.60239556</v>
+      </c>
+      <c r="AG76" s="6" t="n">
+        <v>6526467.27208736</v>
+      </c>
+      <c r="AH76" s="6" t="n">
+        <v>62088106.5482038</v>
+      </c>
+      <c r="AI76" s="6" t="n">
+        <v>2922905.59427546</v>
+      </c>
+      <c r="AJ76" s="6" t="n">
+        <v>1593877.566117</v>
+      </c>
+      <c r="AK76" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+    </row>
+    <row r="77">
+      <c r="M77" t="s">
+        <v>164</v>
+      </c>
+      <c r="N77" t="n">
+        <v>662</v>
+      </c>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6" t="n">
+        <v>533625.069235684</v>
+      </c>
+      <c r="AB77" s="6" t="n">
+        <v>14473.9734787859</v>
+      </c>
+      <c r="AC77" s="6"/>
+      <c r="AD77" s="6"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="6"/>
+      <c r="AJ77" s="6"/>
+      <c r="AK77" s="6"/>
+      <c r="AL77" s="6"/>
+      <c r="AM77" s="6"/>
+    </row>
+    <row r="78">
+      <c r="M78" t="s">
+        <v>165</v>
+      </c>
+      <c r="N78" t="n">
+        <v>411</v>
+      </c>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6" t="n">
+        <v>947456.694409992</v>
+      </c>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="6"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="6"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="M79" t="s">
+        <v>166</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2100</v>
+      </c>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6" t="n">
+        <v>555143.851784997</v>
+      </c>
+      <c r="AG79" s="6" t="n">
+        <v>30412.5289232337</v>
+      </c>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+    </row>
+    <row r="80">
+      <c r="M80" t="s">
+        <v>167</v>
+      </c>
+      <c r="N80" t="n">
+        <v>2194</v>
+      </c>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6" t="n">
+        <v>35342.6180809771</v>
+      </c>
+      <c r="AH80" s="6" t="n">
+        <v>626742.124764901</v>
+      </c>
+      <c r="AI80" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6" t="n">
+        <v>226052.4375</v>
+      </c>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+    </row>
+    <row r="81">
+      <c r="M81" t="s">
+        <v>168</v>
+      </c>
+      <c r="N81" t="n">
+        <v>664</v>
+      </c>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6" t="n">
+        <v>-6839.70392434684</v>
+      </c>
+      <c r="X81" s="6" t="n">
+        <v>226181.694335116</v>
+      </c>
+      <c r="Y81" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="6" t="n">
+        <v>-3462.43380696978</v>
+      </c>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+    </row>
+    <row r="82">
+      <c r="M82" t="s">
+        <v>169</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1965</v>
+      </c>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6" t="n">
+        <v>39708.2606792649</v>
+      </c>
+      <c r="T82" s="6" t="n">
+        <v>4115.85956717762</v>
+      </c>
+      <c r="U82" s="6" t="n">
+        <v>41088.3850127641</v>
+      </c>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6"/>
+    </row>
+    <row r="83">
+      <c r="M83" t="s">
+        <v>170</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1966</v>
+      </c>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6" t="n">
+        <v>171126.308421409</v>
+      </c>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6" t="n">
+        <v>25130.576563716</v>
+      </c>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+    </row>
+    <row r="84">
+      <c r="M84" t="s">
+        <v>77</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2115</v>
+      </c>
+      <c r="O84" s="6" t="n">
+        <v>841491332.084923</v>
+      </c>
+      <c r="P84" s="6" t="n">
+        <v>883705905.459826</v>
+      </c>
+      <c r="Q84" s="6" t="n">
+        <v>841710962.597226</v>
+      </c>
+      <c r="R84" s="6" t="n">
+        <v>1270632982.87855</v>
+      </c>
+      <c r="S84" s="6" t="n">
+        <v>2375821477.19341</v>
+      </c>
+      <c r="T84" s="6" t="n">
+        <v>2056480780.1853</v>
+      </c>
+      <c r="U84" s="6" t="n">
+        <v>1432207028.81028</v>
+      </c>
+      <c r="V84" s="6" t="n">
+        <v>1788885561.82231</v>
+      </c>
+      <c r="W84" s="6" t="n">
+        <v>1716599400.76702</v>
+      </c>
+      <c r="X84" s="6" t="n">
+        <v>1458957708.0376</v>
+      </c>
+      <c r="Y84" s="6" t="n">
+        <v>1397956170.33785</v>
+      </c>
+      <c r="Z84" s="6" t="n">
+        <v>1429753927.99093</v>
+      </c>
+      <c r="AA84" s="6" t="n">
+        <v>1168317686.91131</v>
+      </c>
+      <c r="AB84" s="6" t="n">
+        <v>916709973.147972</v>
+      </c>
+      <c r="AC84" s="6" t="n">
+        <v>982108217.423726</v>
+      </c>
+      <c r="AD84" s="6" t="n">
+        <v>1226540866.80758</v>
+      </c>
+      <c r="AE84" s="6" t="n">
+        <v>957149020.062012</v>
+      </c>
+      <c r="AF84" s="6" t="n">
+        <v>1140127911.36235</v>
+      </c>
+      <c r="AG84" s="6" t="n">
+        <v>690113185.592572</v>
+      </c>
+      <c r="AH84" s="6" t="n">
+        <v>824344477.011192</v>
+      </c>
+      <c r="AI84" s="6" t="n">
+        <v>664896774.336537</v>
+      </c>
+      <c r="AJ84" s="6" t="n">
+        <v>588852319.983894</v>
+      </c>
+      <c r="AK84" s="6" t="n">
+        <v>483497856.7914</v>
+      </c>
+      <c r="AL84" s="6" t="n">
+        <v>180371878.875763</v>
+      </c>
+      <c r="AM84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="M85" t="s">
+        <v>171</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2258</v>
+      </c>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6" t="n">
+        <v>54861544.4588166</v>
+      </c>
+      <c r="Z85" s="6" t="n">
+        <v>110292153.025478</v>
+      </c>
+      <c r="AA85" s="6" t="n">
+        <v>82175976.6069208</v>
+      </c>
+      <c r="AB85" s="6" t="n">
+        <v>60844446.6104839</v>
+      </c>
+      <c r="AC85" s="6" t="n">
+        <v>24438763.1708616</v>
+      </c>
+      <c r="AD85" s="6" t="n">
+        <v>75902834.0192078</v>
+      </c>
+      <c r="AE85" s="6" t="n">
+        <v>13687199.1871807</v>
+      </c>
+      <c r="AF85" s="6" t="n">
+        <v>38711057.3278917</v>
+      </c>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+    </row>
+    <row r="86">
+      <c r="M86" t="s">
+        <v>172</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2193</v>
+      </c>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6" t="n">
+        <v>105761.55911133</v>
+      </c>
+      <c r="AH86" s="6" t="n">
+        <v>39454.8196417582</v>
+      </c>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+    </row>
+    <row r="87">
+      <c r="M87" t="s">
+        <v>173</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1979</v>
+      </c>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6" t="n">
+        <v>423083.745458075</v>
+      </c>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6" t="n">
+        <v>849853.315364308</v>
+      </c>
+      <c r="W87" s="6" t="n">
+        <v>27349.4845869858</v>
+      </c>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6" t="n">
+        <v>62214.4571881295</v>
+      </c>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+    </row>
+    <row r="88">
+      <c r="M88" t="s">
+        <v>174</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2201</v>
+      </c>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6" t="n">
+        <v>18407.7289946008</v>
+      </c>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6" t="n">
+        <v>1978182.05060995</v>
+      </c>
+      <c r="AK88" s="6" t="n">
+        <v>623117</v>
+      </c>
+      <c r="AL88" s="6"/>
+      <c r="AM88" s="6"/>
+    </row>
+    <row r="89">
+      <c r="M89" t="s">
+        <v>175</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1328</v>
+      </c>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6" t="n">
+        <v>13675.4088013787</v>
+      </c>
+      <c r="X89" s="6" t="n">
+        <v>18290.2137492908</v>
+      </c>
+      <c r="Y89" s="6" t="n">
+        <v>18889.6042583294</v>
+      </c>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="6"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="6"/>
+      <c r="AL89" s="6"/>
+      <c r="AM89" s="6"/>
+    </row>
+    <row r="90">
+      <c r="M90" t="s">
+        <v>176</v>
+      </c>
+      <c r="N90" t="n">
+        <v>597</v>
+      </c>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6" t="n">
+        <v>286532.947673405</v>
+      </c>
+      <c r="Q90" s="6" t="n">
+        <v>7027109.86222496</v>
+      </c>
+      <c r="R90" s="6" t="n">
+        <v>59550.0783198046</v>
+      </c>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+    </row>
+    <row r="91">
+      <c r="M91" t="s">
+        <v>177</v>
+      </c>
+      <c r="N91" t="n">
+        <v>154</v>
+      </c>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6" t="n">
+        <v>16404.1196835307</v>
+      </c>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6"/>
+    </row>
+    <row r="92">
+      <c r="M92" t="s">
+        <v>178</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1870</v>
+      </c>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6" t="n">
+        <v>3947.05969986182</v>
+      </c>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
+      <c r="AD92" s="6"/>
+      <c r="AE92" s="6"/>
+      <c r="AF92" s="6"/>
+      <c r="AG92" s="6"/>
+      <c r="AH92" s="6"/>
+      <c r="AI92" s="6"/>
+      <c r="AJ92" s="6"/>
+      <c r="AK92" s="6"/>
+      <c r="AL92" s="6"/>
+      <c r="AM92" s="6"/>
+    </row>
+    <row r="93">
+      <c r="M93" t="s">
+        <v>179</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1956</v>
+      </c>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6" t="n">
+        <v>3995.90508982143</v>
+      </c>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
+      <c r="AD93" s="6"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AI93" s="6"/>
+      <c r="AJ93" s="6"/>
+      <c r="AK93" s="6"/>
+      <c r="AL93" s="6"/>
+      <c r="AM93" s="6"/>
+    </row>
+    <row r="94">
+      <c r="M94" t="s">
+        <v>180</v>
+      </c>
+      <c r="N94" t="n">
+        <v>583</v>
+      </c>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6" t="n">
+        <v>20579.9033172231</v>
+      </c>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
+      <c r="AD94" s="6"/>
+      <c r="AE94" s="6"/>
+      <c r="AF94" s="6"/>
+      <c r="AG94" s="6"/>
+      <c r="AH94" s="6"/>
+      <c r="AI94" s="6"/>
+      <c r="AJ94" s="6"/>
+      <c r="AK94" s="6"/>
+      <c r="AL94" s="6"/>
+      <c r="AM94" s="6"/>
+    </row>
+    <row r="95">
+      <c r="M95" t="s">
+        <v>181</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1276</v>
+      </c>
+      <c r="O95" s="6" t="n">
+        <v>3061118.52758133</v>
+      </c>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6" t="n">
+        <v>2627478.4350621</v>
+      </c>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6"/>
+    </row>
+    <row r="96">
+      <c r="M96" t="s">
+        <v>182</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6" t="n">
+        <v>29478155.5927186</v>
+      </c>
+      <c r="Y96" s="6" t="n">
+        <v>89317460.4497284</v>
+      </c>
+      <c r="Z96" s="6" t="n">
+        <v>119049109.569937</v>
+      </c>
+      <c r="AA96" s="6" t="n">
+        <v>77318829.7599378</v>
+      </c>
+      <c r="AB96" s="6" t="n">
+        <v>94382493.8235589</v>
+      </c>
+      <c r="AC96" s="6" t="n">
+        <v>47869496.0112764</v>
+      </c>
+      <c r="AD96" s="6" t="n">
+        <v>124179205.007088</v>
+      </c>
+      <c r="AE96" s="6" t="n">
+        <v>88876379.9359683</v>
+      </c>
+      <c r="AF96" s="6" t="n">
+        <v>110726413.057141</v>
+      </c>
+      <c r="AG96" s="6" t="n">
+        <v>81838830.7718551</v>
+      </c>
+      <c r="AH96" s="6" t="n">
+        <v>83492207.4177754</v>
+      </c>
+      <c r="AI96" s="6" t="n">
+        <v>135520062.332388</v>
+      </c>
+      <c r="AJ96" s="6" t="n">
+        <v>87272343.1758647</v>
+      </c>
+      <c r="AK96" s="6" t="n">
+        <v>51205166.0076</v>
+      </c>
+      <c r="AL96" s="6" t="n">
+        <v>70084992.8063906</v>
+      </c>
+      <c r="AM96" s="6"/>
+    </row>
+    <row r="97">
+      <c r="M97" t="s">
+        <v>183</v>
+      </c>
+      <c r="N97" t="n">
+        <v>575</v>
+      </c>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6" t="n">
+        <v>77296.3798502358</v>
+      </c>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6" t="n">
+        <v>15168.2867932991</v>
+      </c>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="6"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="6"/>
+      <c r="AJ97" s="6"/>
+      <c r="AK97" s="6"/>
+      <c r="AL97" s="6"/>
+      <c r="AM97" s="6"/>
+    </row>
+    <row r="98">
+      <c r="M98" t="s">
+        <v>184</v>
+      </c>
+      <c r="N98" t="n">
+        <v>581</v>
+      </c>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6" t="n">
+        <v>886912.007320666</v>
+      </c>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
+      <c r="AD98" s="6"/>
+      <c r="AE98" s="6"/>
+      <c r="AF98" s="6"/>
+      <c r="AG98" s="6"/>
+      <c r="AH98" s="6"/>
+      <c r="AI98" s="6"/>
+      <c r="AJ98" s="6"/>
+      <c r="AK98" s="6"/>
+      <c r="AL98" s="6"/>
+      <c r="AM98" s="6"/>
+    </row>
+    <row r="99">
+      <c r="M99" t="s">
+        <v>185</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1961</v>
+      </c>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6" t="n">
+        <v>83996.470211553</v>
+      </c>
+      <c r="T99" s="6" t="n">
+        <v>211062.896075601</v>
+      </c>
+      <c r="U99" s="6" t="n">
+        <v>165774.230663228</v>
+      </c>
+      <c r="V99" s="6" t="n">
+        <v>22290.1815413629</v>
+      </c>
+      <c r="W99" s="6" t="n">
+        <v>3896755.25605553</v>
+      </c>
+      <c r="X99" s="6" t="n">
+        <v>110920578.515189</v>
+      </c>
+      <c r="Y99" s="6" t="n">
+        <v>163674152.612667</v>
+      </c>
+      <c r="Z99" s="6" t="n">
+        <v>65594982.8713464</v>
+      </c>
+      <c r="AA99" s="6" t="n">
+        <v>4212064.8432812</v>
+      </c>
+      <c r="AB99" s="6" t="n">
+        <v>464628.003627284</v>
+      </c>
+      <c r="AC99" s="6" t="n">
+        <v>5229.41916485965</v>
+      </c>
+      <c r="AD99" s="6" t="n">
+        <v>39898.1837417991</v>
+      </c>
+      <c r="AE99" s="6"/>
+      <c r="AF99" s="6"/>
+      <c r="AG99" s="6"/>
+      <c r="AH99" s="6" t="n">
+        <v>-17628.4080429242</v>
+      </c>
+      <c r="AI99" s="6"/>
+      <c r="AJ99" s="6"/>
+      <c r="AK99" s="6"/>
+      <c r="AL99" s="6" t="n">
+        <v>10794.4986080739</v>
+      </c>
+      <c r="AM99" s="6"/>
+    </row>
+    <row r="100">
+      <c r="M100" t="s">
+        <v>79</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2202</v>
+      </c>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
+      <c r="AD100" s="6"/>
+      <c r="AE100" s="6"/>
+      <c r="AF100" s="6"/>
+      <c r="AG100" s="6" t="n">
+        <v>466950545.143582</v>
+      </c>
+      <c r="AH100" s="6" t="n">
+        <v>872667816.516652</v>
+      </c>
+      <c r="AI100" s="6" t="n">
+        <v>992288720.184196</v>
+      </c>
+      <c r="AJ100" s="6" t="n">
+        <v>720037772.569</v>
+      </c>
+      <c r="AK100" s="6" t="n">
+        <v>1124769179.5592</v>
+      </c>
+      <c r="AL100" s="6" t="n">
+        <v>590871348.174428</v>
+      </c>
+      <c r="AM100" s="6"/>
+    </row>
+    <row r="101">
+      <c r="M101" t="s">
+        <v>186</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1952</v>
+      </c>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6" t="n">
+        <v>25567.242500287</v>
+      </c>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="6"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="6"/>
+      <c r="AI101" s="6"/>
+      <c r="AJ101" s="6"/>
+      <c r="AK101" s="6"/>
+      <c r="AL101" s="6"/>
+      <c r="AM101" s="6"/>
+    </row>
+    <row r="102">
+      <c r="M102" t="s">
+        <v>187</v>
+      </c>
+      <c r="N102" t="n">
+        <v>603</v>
+      </c>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6" t="n">
+        <v>64944.4660280906</v>
+      </c>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
+      <c r="AD102" s="6"/>
+      <c r="AE102" s="6"/>
+      <c r="AF102" s="6"/>
+      <c r="AG102" s="6"/>
+      <c r="AH102" s="6"/>
+      <c r="AI102" s="6"/>
+      <c r="AJ102" s="6"/>
+      <c r="AK102" s="6"/>
+      <c r="AL102" s="6"/>
+      <c r="AM102" s="6"/>
+    </row>
+    <row r="103">
+      <c r="M103" t="s">
+        <v>188</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1565</v>
+      </c>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6" t="n">
+        <v>2971293.34864588</v>
+      </c>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
+      <c r="AD103" s="6"/>
+      <c r="AE103" s="6"/>
+      <c r="AF103" s="6"/>
+      <c r="AG103" s="6"/>
+      <c r="AH103" s="6"/>
+      <c r="AI103" s="6"/>
+      <c r="AJ103" s="6"/>
+      <c r="AK103" s="6"/>
+      <c r="AL103" s="6"/>
+      <c r="AM103" s="6"/>
+    </row>
+    <row r="104">
+      <c r="M104" t="s">
+        <v>189</v>
+      </c>
+      <c r="N104" t="n">
+        <v>296</v>
+      </c>
+      <c r="O104" s="6" t="n">
+        <v>6580388.62088505</v>
+      </c>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6" t="n">
+        <v>540710.093350997</v>
+      </c>
+      <c r="R104" s="6" t="n">
+        <v>39007.2137165833</v>
+      </c>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
+      <c r="AD104" s="6"/>
+      <c r="AE104" s="6"/>
+      <c r="AF104" s="6"/>
+      <c r="AG104" s="6"/>
+      <c r="AH104" s="6"/>
+      <c r="AI104" s="6"/>
+      <c r="AJ104" s="6"/>
+      <c r="AK104" s="6"/>
+      <c r="AL104" s="6"/>
+      <c r="AM104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="M105" t="s">
+        <v>190</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1151</v>
+      </c>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6" t="n">
+        <v>43311.2123503689</v>
+      </c>
+      <c r="Q105" s="6" t="n">
+        <v>49229.0171412596</v>
+      </c>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
+      <c r="AD105" s="6"/>
+      <c r="AE105" s="6"/>
+      <c r="AF105" s="6"/>
+      <c r="AG105" s="6"/>
+      <c r="AH105" s="6"/>
+      <c r="AI105" s="6"/>
+      <c r="AJ105" s="6"/>
+      <c r="AK105" s="6"/>
+      <c r="AL105" s="6"/>
+      <c r="AM105" s="6"/>
+    </row>
+    <row r="106">
+      <c r="M106" t="s">
+        <v>191</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1790</v>
+      </c>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6" t="n">
+        <v>827521.932026107</v>
+      </c>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
+      <c r="AD106" s="6"/>
+      <c r="AE106" s="6"/>
+      <c r="AF106" s="6"/>
+      <c r="AG106" s="6"/>
+      <c r="AH106" s="6"/>
+      <c r="AI106" s="6"/>
+      <c r="AJ106" s="6"/>
+      <c r="AK106" s="6"/>
+      <c r="AL106" s="6"/>
+      <c r="AM106" s="6"/>
+    </row>
+    <row r="107">
+      <c r="M107" t="s">
+        <v>192</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2015</v>
+      </c>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6" t="n">
+        <v>6804.08471958576</v>
+      </c>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6" t="n">
+        <v>9302231.23877328</v>
+      </c>
+      <c r="Y107" s="6" t="n">
+        <v>2433289.15369842</v>
+      </c>
+      <c r="Z107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="6" t="n">
+        <v>100817.398527626</v>
+      </c>
+      <c r="AD107" s="6" t="n">
+        <v>-7701.91670665705</v>
+      </c>
+      <c r="AE107" s="6"/>
+      <c r="AF107" s="6" t="n">
+        <v>134848.751267951</v>
+      </c>
+      <c r="AG107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="6" t="n">
+        <v>142564.373270699</v>
+      </c>
+      <c r="AI107" s="6" t="n">
+        <v>78266.6444827683</v>
+      </c>
+      <c r="AJ107" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK107" s="6"/>
+      <c r="AL107" s="6"/>
+      <c r="AM107" s="6"/>
+    </row>
+    <row r="108">
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108" s="6" t="n">
+        <v>31208672614.9201</v>
+      </c>
+      <c r="P108" s="6" t="n">
+        <v>33981189557.2428</v>
+      </c>
+      <c r="Q108" s="6" t="n">
+        <v>38057064307.8208</v>
+      </c>
+      <c r="R108" s="6" t="n">
+        <v>49599556894.6117</v>
+      </c>
+      <c r="S108" s="6" t="n">
+        <v>49404934843.4451</v>
+      </c>
+      <c r="T108" s="6" t="n">
+        <v>52065344605.5062</v>
+      </c>
+      <c r="U108" s="6" t="n">
+        <v>55889808496.2689</v>
+      </c>
+      <c r="V108" s="6" t="n">
+        <v>59686210926.2228</v>
+      </c>
+      <c r="W108" s="6" t="n">
+        <v>73945378643.1134</v>
+      </c>
+      <c r="X108" s="6" t="n">
+        <v>84743800590.5939</v>
+      </c>
+      <c r="Y108" s="6" t="n">
+        <v>77110881808.3197</v>
+      </c>
+      <c r="Z108" s="6" t="n">
+        <v>67059562407.6769</v>
+      </c>
+      <c r="AA108" s="6" t="n">
+        <v>59138868993.2431</v>
+      </c>
+      <c r="AB108" s="6" t="n">
+        <v>45995101945.3875</v>
+      </c>
+      <c r="AC108" s="6" t="n">
+        <v>48783910608.952</v>
+      </c>
+      <c r="AD108" s="6" t="n">
+        <v>43316696943.6832</v>
+      </c>
+      <c r="AE108" s="6" t="n">
+        <v>43585159061.2597</v>
+      </c>
+      <c r="AF108" s="6" t="n">
+        <v>42769976055.224</v>
+      </c>
+      <c r="AG108" s="6" t="n">
+        <v>51242410223.6477</v>
+      </c>
+      <c r="AH108" s="6" t="n">
+        <v>55538647043.9666</v>
+      </c>
+      <c r="AI108" s="6" t="n">
+        <v>63665167948.0736</v>
+      </c>
+      <c r="AJ108" s="6" t="n">
+        <v>52189780435.9828</v>
+      </c>
+      <c r="AK108" s="6" t="n">
+        <v>54414468275.4439</v>
+      </c>
+      <c r="AL108" s="6" t="n">
+        <v>26836500378.5381</v>
+      </c>
+      <c r="AM108" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7" t="n">
+        <v>19421.8537451854</v>
+      </c>
+      <c r="AI2" s="7" t="n">
+        <v>247754.828139128</v>
+      </c>
+      <c r="AJ2" s="7" t="n">
+        <v>20054.2741052478</v>
+      </c>
+      <c r="AK2" s="7" t="n">
+        <v>22479.289726152</v>
+      </c>
+      <c r="AL2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7" t="n">
+        <v>-913.05</v>
+      </c>
+      <c r="AN2" s="7" t="n">
+        <v>-20980.1314364498</v>
+      </c>
+      <c r="AO2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2044</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7" t="n">
+        <v>198024.364457797</v>
+      </c>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="O4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1852</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="O5" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1874</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7" t="n">
+        <v>46292.945724126</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1875</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7" t="n">
+        <v>-1339.68085051034</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="O7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2190</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7" t="n">
+        <v>281953.3985</v>
+      </c>
+      <c r="AN7" s="7" t="n">
+        <v>3549.32221947368</v>
+      </c>
+      <c r="AO7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1728</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7" t="n">
+        <v>4567600.26633768</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2040</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7" t="n">
+        <v>710500</v>
+      </c>
+      <c r="AN9" s="7" t="n">
+        <v>934303.470787701</v>
+      </c>
+      <c r="AO9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>586</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7" t="n">
+        <v>987619.49697489</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="n">
+        <v>487</v>
+      </c>
+      <c r="Q11" s="7" t="n">
+        <v>545045.527798983</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1069</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7" t="n">
+        <v>405763.402330964</v>
+      </c>
+      <c r="S12" s="7" t="n">
+        <v>208872.352570419</v>
+      </c>
+      <c r="T12" s="7" t="n">
+        <v>1010048.81171148</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" t="n">
+        <v>428</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7" t="n">
+        <v>5818975.58861698</v>
+      </c>
+      <c r="S13" s="7" t="n">
+        <v>1064023.86335763</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1851</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7" t="n">
+        <v>5488.25101161946</v>
+      </c>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2058</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7" t="n">
+        <v>-1020.61270793786</v>
+      </c>
+      <c r="Y15" s="7" t="n">
+        <v>262017.580075934</v>
+      </c>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7" t="n">
+        <v>386474.414047978</v>
+      </c>
+      <c r="AB15" s="7" t="n">
+        <v>1613333.85618649</v>
+      </c>
+      <c r="AC15" s="7" t="n">
+        <v>79864.8059847618</v>
+      </c>
+      <c r="AD15" s="7" t="n">
+        <v>35673.2000823439</v>
+      </c>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="n">
+        <v>584</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7" t="n">
+        <v>632382.190757597</v>
+      </c>
+      <c r="S16" s="7" t="n">
+        <v>3871109.00972746</v>
+      </c>
+      <c r="T16" s="7" t="n">
+        <v>14651312.447215</v>
+      </c>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="O17" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" t="n">
+        <v>425</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7" t="n">
+        <v>1645.74540252793</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="O18" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2253</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7" t="n">
+        <v>75866.7911442461</v>
+      </c>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1253</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>492039.887786255</v>
+      </c>
+      <c r="R19" s="7" t="n">
+        <v>476704.126784942</v>
+      </c>
+      <c r="S19" s="7" t="n">
+        <v>2260708.28066715</v>
+      </c>
+      <c r="T19" s="7" t="n">
+        <v>1197391.02053757</v>
+      </c>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="O20" t="s">
+        <v>113</v>
+      </c>
+      <c r="P20" t="n">
+        <v>610</v>
+      </c>
+      <c r="Q20" s="7" t="n">
+        <v>238256821.487051</v>
+      </c>
+      <c r="R20" s="7" t="n">
+        <v>227443160.627645</v>
+      </c>
+      <c r="S20" s="7" t="n">
+        <v>129565595.527683</v>
+      </c>
+      <c r="T20" s="7" t="n">
+        <v>165612905.028458</v>
+      </c>
+      <c r="U20" s="7" t="n">
+        <v>194351.074127417</v>
+      </c>
+      <c r="V20" s="7" t="n">
+        <v>152262.261855568</v>
+      </c>
+      <c r="W20" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7" t="n">
+        <v>-400865.971301389</v>
+      </c>
+      <c r="Z20" s="7" t="n">
+        <v>-419759.735034623</v>
+      </c>
+      <c r="AA20" s="7" t="n">
+        <v>59164.5601289631</v>
+      </c>
+      <c r="AB20" s="7" t="n">
+        <v>-763251.053813209</v>
+      </c>
+      <c r="AC20" s="7" t="n">
+        <v>-17077.5812518116</v>
+      </c>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7" t="n">
+        <v>-15061.5494465338</v>
+      </c>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="O21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1992</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7" t="n">
+        <v>16576.0511204937</v>
+      </c>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7" t="n">
+        <v>-15377.9784867312</v>
+      </c>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+    </row>
+    <row r="22">
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2014</v>
+      </c>
+      <c r="Q22" s="7" t="n">
+        <v>43688773.4245109</v>
+      </c>
+      <c r="R22" s="7" t="n">
+        <v>80316634.9343469</v>
+      </c>
+      <c r="S22" s="7" t="n">
+        <v>114162834.621219</v>
+      </c>
+      <c r="T22" s="7" t="n">
+        <v>76139559.9842442</v>
+      </c>
+      <c r="U22" s="7" t="n">
+        <v>321090527.806009</v>
+      </c>
+      <c r="V22" s="7" t="n">
+        <v>406476796.30465</v>
+      </c>
+      <c r="W22" s="7" t="n">
+        <v>723381011.411541</v>
+      </c>
+      <c r="X22" s="7" t="n">
+        <v>378455133.553732</v>
+      </c>
+      <c r="Y22" s="7" t="n">
+        <v>362082577.78446</v>
+      </c>
+      <c r="Z22" s="7" t="n">
+        <v>382648179.854189</v>
+      </c>
+      <c r="AA22" s="7" t="n">
+        <v>300953061.341096</v>
+      </c>
+      <c r="AB22" s="7" t="n">
+        <v>211135951.171045</v>
+      </c>
+      <c r="AC22" s="7" t="n">
+        <v>184535647.108734</v>
+      </c>
+      <c r="AD22" s="7" t="n">
+        <v>227293068.291052</v>
+      </c>
+      <c r="AE22" s="7" t="n">
+        <v>153769081.637277</v>
+      </c>
+      <c r="AF22" s="7" t="n">
+        <v>101612394.272655</v>
+      </c>
+      <c r="AG22" s="7" t="n">
+        <v>156915747.674033</v>
+      </c>
+      <c r="AH22" s="7" t="n">
+        <v>59638050.6742133</v>
+      </c>
+      <c r="AI22" s="7" t="n">
+        <v>30220396.4046647</v>
+      </c>
+      <c r="AJ22" s="7" t="n">
+        <v>21463340.6025877</v>
+      </c>
+      <c r="AK22" s="7" t="n">
+        <v>17824449.8957278</v>
+      </c>
+      <c r="AL22" s="7" t="n">
+        <v>38806432.5772213</v>
+      </c>
+      <c r="AM22" s="7" t="n">
+        <v>14399176.3782</v>
+      </c>
+      <c r="AN22" s="7" t="n">
+        <v>12157769.5537064</v>
+      </c>
+      <c r="AO22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1972</v>
+      </c>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7" t="n">
+        <v>301868.199051856</v>
+      </c>
+      <c r="W23" s="7" t="n">
+        <v>124897.056838898</v>
+      </c>
+      <c r="X23" s="7" t="n">
+        <v>134247.313151315</v>
+      </c>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1962</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7" t="n">
+        <v>155908.658356863</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7" t="n">
+        <v>12316.081719701</v>
+      </c>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+    </row>
+    <row r="25">
+      <c r="O25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1255</v>
+      </c>
+      <c r="Q25" s="7" t="n">
+        <v>144987162.782395</v>
+      </c>
+      <c r="R25" s="7" t="n">
+        <v>95568949.0586064</v>
+      </c>
+      <c r="S25" s="7" t="n">
+        <v>60539329.4756595</v>
+      </c>
+      <c r="T25" s="7" t="n">
+        <v>96593.0644217041</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+    </row>
+    <row r="26">
+      <c r="O26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1344</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7" t="n">
+        <v>837810.832047593</v>
+      </c>
+      <c r="V26" s="7" t="n">
+        <v>1327244.16524682</v>
+      </c>
+      <c r="W26" s="7" t="n">
+        <v>14997565.3230417</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7" t="n">
+        <v>14144389.5170326</v>
+      </c>
+      <c r="AA26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+    </row>
+    <row r="27">
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1958</v>
+      </c>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7" t="n">
+        <v>4892789.55551515</v>
+      </c>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+    </row>
+    <row r="28">
+      <c r="O28" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" t="n">
+        <v>605</v>
+      </c>
+      <c r="Q28" s="7" t="n">
+        <v>5007740.39716293</v>
+      </c>
+      <c r="R28" s="7" t="n">
+        <v>131474.832216692</v>
+      </c>
+      <c r="S28" s="7" t="n">
+        <v>57459.7360954765</v>
+      </c>
+      <c r="T28" s="7" t="n">
+        <v>66280.8722484767</v>
+      </c>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+    </row>
+    <row r="29">
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>654</v>
+      </c>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7" t="n">
+        <v>13166685.0413243</v>
+      </c>
+      <c r="Y29" s="7" t="n">
+        <v>50021736.7550297</v>
+      </c>
+      <c r="Z29" s="7" t="n">
+        <v>261241742.933328</v>
+      </c>
+      <c r="AA29" s="7" t="n">
+        <v>411955644.795699</v>
+      </c>
+      <c r="AB29" s="7" t="n">
+        <v>402847091.96231</v>
+      </c>
+      <c r="AC29" s="7" t="n">
+        <v>487941811.489651</v>
+      </c>
+      <c r="AD29" s="7" t="n">
+        <v>779014921.089904</v>
+      </c>
+      <c r="AE29" s="7" t="n">
+        <v>778699730.287785</v>
+      </c>
+      <c r="AF29" s="7" t="n">
+        <v>558146194.568958</v>
+      </c>
+      <c r="AG29" s="7" t="n">
+        <v>573629270.149975</v>
+      </c>
+      <c r="AH29" s="7" t="n">
+        <v>518157995.809709</v>
+      </c>
+      <c r="AI29" s="7" t="n">
+        <v>807136528.112801</v>
+      </c>
+      <c r="AJ29" s="7" t="n">
+        <v>542572103.744817</v>
+      </c>
+      <c r="AK29" s="7" t="n">
+        <v>762162876.498345</v>
+      </c>
+      <c r="AL29" s="7" t="n">
+        <v>778354288.679118</v>
+      </c>
+      <c r="AM29" s="7" t="n">
+        <v>787757338.9206</v>
+      </c>
+      <c r="AN29" s="7" t="n">
+        <v>633935976.673598</v>
+      </c>
+      <c r="AO29" s="7"/>
+    </row>
+    <row r="30">
+      <c r="O30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P30" t="n">
+        <v>690</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7" t="n">
+        <v>208097.42261605</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="n">
+        <v>2165518.51855984</v>
+      </c>
+      <c r="V30" s="7" t="n">
+        <v>15077308.8716553</v>
+      </c>
+      <c r="W30" s="7" t="n">
+        <v>11861728.2383205</v>
+      </c>
+      <c r="X30" s="7" t="n">
+        <v>19881121.0528647</v>
+      </c>
+      <c r="Y30" s="7" t="n">
+        <v>14712986.2940345</v>
+      </c>
+      <c r="Z30" s="7" t="n">
+        <v>11195363.9129774</v>
+      </c>
+      <c r="AA30" s="7" t="n">
+        <v>6126026.52439282</v>
+      </c>
+      <c r="AB30" s="7" t="n">
+        <v>31229875.8343922</v>
+      </c>
+      <c r="AC30" s="7" t="n">
+        <v>14228907.2119753</v>
+      </c>
+      <c r="AD30" s="7" t="n">
+        <v>2479228.49081376</v>
+      </c>
+      <c r="AE30" s="7" t="n">
+        <v>-7535.86715088652</v>
+      </c>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7" t="n">
+        <v>-73985.1483777542</v>
+      </c>
+      <c r="AH30" s="7" t="n">
+        <v>-514929.321153432</v>
+      </c>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7" t="n">
+        <v>125092848</v>
+      </c>
+      <c r="AN30" s="7" t="n">
+        <v>544592.168302943</v>
+      </c>
+      <c r="AO30" s="7"/>
+    </row>
+    <row r="31">
+      <c r="O31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" t="n">
+        <v>606</v>
+      </c>
+      <c r="Q31" s="7" t="n">
+        <v>490899.182371118</v>
+      </c>
+      <c r="R31" s="7" t="n">
+        <v>8087835.71915813</v>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v>4237660.19593891</v>
+      </c>
+      <c r="T31" s="7" t="n">
+        <v>14024412.9751104</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7" t="n">
+        <v>-296611.853612976</v>
+      </c>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+    </row>
+    <row r="32">
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" t="n">
+        <v>592</v>
+      </c>
+      <c r="Q32" s="7" t="n">
+        <v>1025794.69399745</v>
+      </c>
+      <c r="R32" s="7" t="n">
+        <v>1369168.12853576</v>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v>4309658.79823238</v>
+      </c>
+      <c r="T32" s="7" t="n">
+        <v>14058568.2875662</v>
+      </c>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+    </row>
+    <row r="33">
+      <c r="O33" t="s">
+        <v>124</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1994</v>
+      </c>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7" t="n">
+        <v>95593.2270167143</v>
+      </c>
+      <c r="Z33" s="7" t="n">
+        <v>2639.21198946818</v>
+      </c>
+      <c r="AA33" s="7" t="n">
+        <v>12558.9860744353</v>
+      </c>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+    </row>
+    <row r="34">
+      <c r="O34" t="s">
+        <v>125</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2101</v>
+      </c>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7" t="n">
+        <v>688016.102374773</v>
+      </c>
+      <c r="AK34" s="7" t="n">
+        <v>875003.495789834</v>
+      </c>
+      <c r="AL34" s="7" t="n">
+        <v>54981.8610543405</v>
+      </c>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+    </row>
+    <row r="35">
+      <c r="O35" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" t="n">
+        <v>611</v>
+      </c>
+      <c r="Q35" s="7" t="n">
+        <v>711775687.809415</v>
+      </c>
+      <c r="R35" s="7" t="n">
+        <v>662781800.043011</v>
+      </c>
+      <c r="S35" s="7" t="n">
+        <v>748270978.692909</v>
+      </c>
+      <c r="T35" s="7" t="n">
+        <v>585186538.658395</v>
+      </c>
+      <c r="U35" s="7" t="n">
+        <v>2235248.46996017</v>
+      </c>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7" t="n">
+        <v>1680932.83524782</v>
+      </c>
+      <c r="X35" s="7" t="n">
+        <v>-4033.46142177044</v>
+      </c>
+      <c r="Y35" s="7" t="n">
+        <v>48043.341797437</v>
+      </c>
+      <c r="Z35" s="7" t="n">
+        <v>-1069873.50691085</v>
+      </c>
+      <c r="AA35" s="7" t="n">
+        <v>7918.85987609171</v>
+      </c>
+      <c r="AB35" s="7" t="n">
+        <v>-245479.367619192</v>
+      </c>
+      <c r="AC35" s="7" t="n">
+        <v>-31531.8906214937</v>
+      </c>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7" t="n">
+        <v>-31888.5494091387</v>
+      </c>
+      <c r="AI35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+    </row>
+    <row r="36">
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36" t="n">
+        <v>381</v>
+      </c>
+      <c r="Q36" s="7" t="n">
+        <v>58651.0008066209</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7" t="n">
+        <v>69139.5921812624</v>
+      </c>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+    </row>
+    <row r="37">
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Q37" s="7" t="n">
+        <v>112223466.823657</v>
+      </c>
+      <c r="R37" s="7" t="n">
+        <v>121500368.542829</v>
+      </c>
+      <c r="S37" s="7" t="n">
+        <v>61159343.3226173</v>
+      </c>
+      <c r="T37" s="7" t="n">
+        <v>177959223.037012</v>
+      </c>
+      <c r="U37" s="7" t="n">
+        <v>649008286.37547</v>
+      </c>
+      <c r="V37" s="7" t="n">
+        <v>354680340.756157</v>
+      </c>
+      <c r="W37" s="7" t="n">
+        <v>280508932.272918</v>
+      </c>
+      <c r="X37" s="7" t="n">
+        <v>290664273.434332</v>
+      </c>
+      <c r="Y37" s="7" t="n">
+        <v>224131322.687525</v>
+      </c>
+      <c r="Z37" s="7" t="n">
+        <v>300400381.864152</v>
+      </c>
+      <c r="AA37" s="7" t="n">
+        <v>360099661.11473</v>
+      </c>
+      <c r="AB37" s="7" t="n">
+        <v>330036193.231203</v>
+      </c>
+      <c r="AC37" s="7" t="n">
+        <v>432691166.938102</v>
+      </c>
+      <c r="AD37" s="7" t="n">
+        <v>308254649.884246</v>
+      </c>
+      <c r="AE37" s="7" t="n">
+        <v>313335881.685853</v>
+      </c>
+      <c r="AF37" s="7" t="n">
+        <v>214840715.898725</v>
+      </c>
+      <c r="AG37" s="7" t="n">
+        <v>247283955.621635</v>
+      </c>
+      <c r="AH37" s="7" t="n">
+        <v>191396923.898831</v>
+      </c>
+      <c r="AI37" s="7" t="n">
+        <v>163074136.806403</v>
+      </c>
+      <c r="AJ37" s="7" t="n">
+        <v>228454216.684909</v>
+      </c>
+      <c r="AK37" s="7" t="n">
+        <v>150241296.647894</v>
+      </c>
+      <c r="AL37" s="7" t="n">
+        <v>181431657.703748</v>
+      </c>
+      <c r="AM37" s="7" t="n">
+        <v>146554377.2825</v>
+      </c>
+      <c r="AN37" s="7" t="n">
+        <v>20465497.1991811</v>
+      </c>
+      <c r="AO37" s="7"/>
+    </row>
+    <row r="38">
+      <c r="O38" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1967</v>
+      </c>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7" t="n">
+        <v>3920092.610463</v>
+      </c>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+    </row>
+    <row r="39">
+      <c r="O39" t="s">
+        <v>128</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1959</v>
+      </c>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7" t="n">
+        <v>216155.831908547</v>
+      </c>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+    </row>
+    <row r="40">
+      <c r="O40" t="s">
+        <v>129</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1950</v>
+      </c>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7" t="n">
+        <v>280166.731557952</v>
+      </c>
+      <c r="V40" s="7" t="n">
+        <v>136996.887940979</v>
+      </c>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7" t="n">
+        <v>518948.90237975</v>
+      </c>
+      <c r="Y40" s="7" t="n">
+        <v>6882.36042903971</v>
+      </c>
+      <c r="Z40" s="7" t="n">
+        <v>785297.527466256</v>
+      </c>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+    </row>
+    <row r="41">
+      <c r="O41" t="s">
+        <v>130</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1799</v>
+      </c>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7" t="n">
+        <v>13082.2771608701</v>
+      </c>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+    </row>
+    <row r="42">
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1970</v>
+      </c>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7" t="n">
+        <v>51721.1437377306</v>
+      </c>
+      <c r="V42" s="7" t="n">
+        <v>24149.4559241485</v>
+      </c>
+      <c r="W42" s="7" t="n">
+        <v>17157.9100611352</v>
+      </c>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+    </row>
+    <row r="43">
+      <c r="O43" t="s">
+        <v>132</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2251</v>
+      </c>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7" t="n">
+        <v>53725.2054522919</v>
+      </c>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+    </row>
+    <row r="44">
+      <c r="O44" t="s">
+        <v>133</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2237</v>
+      </c>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7" t="n">
+        <v>7179</v>
+      </c>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+    </row>
+    <row r="45">
+      <c r="O45" t="s">
+        <v>134</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1733</v>
+      </c>
+      <c r="Q45" s="7" t="n">
+        <v>1583966.41272076</v>
+      </c>
+      <c r="R45" s="7" t="n">
+        <v>767179.189830709</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7" t="n">
+        <v>-2397910.48117829</v>
+      </c>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+    </row>
+    <row r="46">
+      <c r="O46" t="s">
+        <v>135</v>
+      </c>
+      <c r="P46" t="n">
+        <v>613</v>
+      </c>
+      <c r="Q46" s="7" t="n">
+        <v>215723699.950076</v>
+      </c>
+      <c r="R46" s="7" t="n">
+        <v>186265359.910685</v>
+      </c>
+      <c r="S46" s="7" t="n">
+        <v>222708917.920471</v>
+      </c>
+      <c r="T46" s="7" t="n">
+        <v>241052170.629079</v>
+      </c>
+      <c r="U46" s="7" t="n">
+        <v>608313.596341991</v>
+      </c>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7" t="n">
+        <v>320127.56731656</v>
+      </c>
+      <c r="Z46" s="7" t="n">
+        <v>-1525946.37282493</v>
+      </c>
+      <c r="AA46" s="7" t="n">
+        <v>-114529.909491561</v>
+      </c>
+      <c r="AB46" s="7" t="n">
+        <v>-130615.070550147</v>
+      </c>
+      <c r="AC46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+    </row>
+    <row r="47">
+      <c r="O47" t="s">
+        <v>75</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="Q47" s="7" t="n">
+        <v>57917934.3886603</v>
+      </c>
+      <c r="R47" s="7" t="n">
+        <v>111446138.159915</v>
+      </c>
+      <c r="S47" s="7" t="n">
+        <v>167439115.24045</v>
+      </c>
+      <c r="T47" s="7" t="n">
+        <v>176783557.379627</v>
+      </c>
+      <c r="U47" s="7" t="n">
+        <v>339979416.26105</v>
+      </c>
+      <c r="V47" s="7" t="n">
+        <v>320115701.475438</v>
+      </c>
+      <c r="W47" s="7" t="n">
+        <v>253633695.196061</v>
+      </c>
+      <c r="X47" s="7" t="n">
+        <v>259158318.189663</v>
+      </c>
+      <c r="Y47" s="7" t="n">
+        <v>198851131.25537</v>
+      </c>
+      <c r="Z47" s="7" t="n">
+        <v>298789977.96935</v>
+      </c>
+      <c r="AA47" s="7" t="n">
+        <v>282639891.54664</v>
+      </c>
+      <c r="AB47" s="7" t="n">
+        <v>219032439.270088</v>
+      </c>
+      <c r="AC47" s="7" t="n">
+        <v>129226481.110835</v>
+      </c>
+      <c r="AD47" s="7" t="n">
+        <v>116432057.624015</v>
+      </c>
+      <c r="AE47" s="7" t="n">
+        <v>129177955.98977</v>
+      </c>
+      <c r="AF47" s="7" t="n">
+        <v>114276219.604283</v>
+      </c>
+      <c r="AG47" s="7" t="n">
+        <v>243104513.093641</v>
+      </c>
+      <c r="AH47" s="7" t="n">
+        <v>90891663.8699299</v>
+      </c>
+      <c r="AI47" s="7" t="n">
+        <v>121658691.898311</v>
+      </c>
+      <c r="AJ47" s="7" t="n">
+        <v>125344987.92804</v>
+      </c>
+      <c r="AK47" s="7" t="n">
+        <v>112354155.667345</v>
+      </c>
+      <c r="AL47" s="7" t="n">
+        <v>110568968.969676</v>
+      </c>
+      <c r="AM47" s="7" t="n">
+        <v>137789400.3621</v>
+      </c>
+      <c r="AN47" s="7" t="n">
+        <v>129569383.999017</v>
+      </c>
+      <c r="AO47" s="7"/>
+    </row>
+    <row r="48">
+      <c r="O48" t="s">
+        <v>136</v>
+      </c>
+      <c r="P48" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7" t="n">
+        <v>7605.13057592972</v>
+      </c>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="O49" t="s">
+        <v>137</v>
+      </c>
+      <c r="P49" t="n">
+        <v>287</v>
+      </c>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7" t="n">
+        <v>5025.61883105289</v>
+      </c>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="O50" t="s">
+        <v>138</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1577</v>
+      </c>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7" t="n">
+        <v>206713.241749186</v>
+      </c>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+    </row>
+    <row r="51">
+      <c r="O51" t="s">
+        <v>139</v>
+      </c>
+      <c r="P51" t="n">
+        <v>594</v>
+      </c>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7" t="n">
+        <v>4401773.28117428</v>
+      </c>
+      <c r="S51" s="7" t="n">
+        <v>2629360.62966068</v>
+      </c>
+      <c r="T51" s="7" t="n">
+        <v>37196837.3917842</v>
+      </c>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="7" t="n">
+        <v>-66317.1488494946</v>
+      </c>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="O52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2187</v>
+      </c>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7" t="n">
+        <v>4220607.66822644</v>
+      </c>
+      <c r="AJ52" s="7" t="n">
+        <v>2105192.90229893</v>
+      </c>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="O53" t="s">
+        <v>141</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1986</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7" t="n">
+        <v>1078801.6659034</v>
+      </c>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="O54" t="s">
+        <v>142</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2089</v>
+      </c>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7" t="n">
+        <v>1240139.25736824</v>
+      </c>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+    </row>
+    <row r="55">
+      <c r="O55" t="s">
+        <v>143</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1771</v>
+      </c>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7" t="n">
+        <v>648464.570197865</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+    </row>
+    <row r="56">
+      <c r="O56" t="s">
+        <v>144</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1772</v>
+      </c>
+      <c r="Q56" s="7" t="n">
+        <v>765612.068353072</v>
+      </c>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+    </row>
+    <row r="57">
+      <c r="O57" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2017</v>
+      </c>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7" t="n">
+        <v>1811499614.32837</v>
+      </c>
+      <c r="W57" s="7" t="n">
+        <v>4500581642.43032</v>
+      </c>
+      <c r="X57" s="7" t="n">
+        <v>423893099.117922</v>
+      </c>
+      <c r="Y57" s="7" t="n">
+        <v>-148921761.261858</v>
+      </c>
+      <c r="Z57" s="7" t="n">
+        <v>-40619012.3819858</v>
+      </c>
+      <c r="AA57" s="7" t="n">
+        <v>-66288998.8805325</v>
+      </c>
+      <c r="AB57" s="7" t="n">
+        <v>-829720.27544851</v>
+      </c>
+      <c r="AC57" s="7" t="n">
+        <v>207187.178206349</v>
+      </c>
+      <c r="AD57" s="7" t="n">
+        <v>1298520.51022701</v>
+      </c>
+      <c r="AE57" s="7" t="n">
+        <v>-230822.604968812</v>
+      </c>
+      <c r="AF57" s="7" t="n">
+        <v>-58271.993984569</v>
+      </c>
+      <c r="AG57" s="7" t="n">
+        <v>-20163.5509273673</v>
+      </c>
+      <c r="AH57" s="7" t="n">
+        <v>-26723.8078531799</v>
+      </c>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7" t="n">
+        <v>-71.2894039536028</v>
+      </c>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+    </row>
+    <row r="58">
+      <c r="O58" t="s">
+        <v>145</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2018</v>
+      </c>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7" t="n">
+        <v>77718801.7400884</v>
+      </c>
+      <c r="W58" s="7" t="n">
+        <v>575059527.598219</v>
+      </c>
+      <c r="X58" s="7" t="n">
+        <v>3753175.31664877</v>
+      </c>
+      <c r="Y58" s="7" t="n">
+        <v>1215069.83847585</v>
+      </c>
+      <c r="Z58" s="7" t="n">
+        <v>-3825676.39925309</v>
+      </c>
+      <c r="AA58" s="7" t="n">
+        <v>-347289.120419728</v>
+      </c>
+      <c r="AB58" s="7" t="n">
+        <v>-672133.902225571</v>
+      </c>
+      <c r="AC58" s="7" t="n">
+        <v>33652.2738935791</v>
+      </c>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+    </row>
+    <row r="59">
+      <c r="O59" t="s">
+        <v>146</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1758</v>
+      </c>
+      <c r="Q59" s="7" t="n">
+        <v>6744055.61200647</v>
+      </c>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7" t="n">
+        <v>595772.026421796</v>
+      </c>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+    </row>
+    <row r="60">
+      <c r="O60" t="s">
+        <v>147</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1974</v>
+      </c>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7" t="n">
+        <v>9564.3881616037</v>
+      </c>
+      <c r="Z60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+    </row>
+    <row r="61">
+      <c r="O61" t="s">
+        <v>148</v>
+      </c>
+      <c r="P61" t="n">
+        <v>577</v>
+      </c>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7" t="n">
+        <v>6188401.80503263</v>
+      </c>
+      <c r="S61" s="7" t="n">
+        <v>9832567.50039403</v>
+      </c>
+      <c r="T61" s="7" t="n">
+        <v>7202278.65275966</v>
+      </c>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+    </row>
+    <row r="62">
+      <c r="O62" t="s">
+        <v>149</v>
+      </c>
+      <c r="P62" t="n">
+        <v>578</v>
+      </c>
+      <c r="Q62" s="7" t="n">
+        <v>292770.285018174</v>
+      </c>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7" t="n">
+        <v>12533522.9612297</v>
+      </c>
+      <c r="T62" s="7" t="n">
+        <v>27092561.0125669</v>
+      </c>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7" t="n">
+        <v>43605.1275259778</v>
+      </c>
+      <c r="AA62" s="7" t="n">
+        <v>-12156.0519378805</v>
+      </c>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+    </row>
+    <row r="63">
+      <c r="O63" t="s">
+        <v>150</v>
+      </c>
+      <c r="P63" t="n">
+        <v>492</v>
+      </c>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7" t="n">
+        <v>455956.98261017</v>
+      </c>
+      <c r="T63" s="7" t="n">
+        <v>47810628.9284324</v>
+      </c>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+    </row>
+    <row r="64">
+      <c r="O64" t="s">
+        <v>151</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2254</v>
+      </c>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7" t="n">
+        <v>1536051.45682387</v>
+      </c>
+      <c r="AL64" s="7" t="n">
+        <v>243253.304256923</v>
+      </c>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+    </row>
+    <row r="65">
+      <c r="O65" t="s">
+        <v>152</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1954</v>
+      </c>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7" t="n">
+        <v>19146.8339188424</v>
+      </c>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+    </row>
+    <row r="66">
+      <c r="O66" t="s">
+        <v>153</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1988</v>
+      </c>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7" t="n">
+        <v>1738765.45745125</v>
+      </c>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+    </row>
+    <row r="67">
+      <c r="O67" t="s">
+        <v>154</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2241</v>
+      </c>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7" t="n">
+        <v>65518.7663335418</v>
+      </c>
+      <c r="AK67" s="7" t="n">
+        <v>51010.8245489016</v>
+      </c>
+      <c r="AL67" s="7" t="n">
+        <v>2673.21898731074</v>
+      </c>
+      <c r="AM67" s="7" t="n">
+        <v>-5846.2998</v>
+      </c>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+    </row>
+    <row r="68">
+      <c r="O68" t="s">
+        <v>155</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2001</v>
+      </c>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7" t="n">
+        <v>379165.672120262</v>
+      </c>
+      <c r="Z68" s="7" t="n">
+        <v>14514.3463360802</v>
+      </c>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7" t="n">
+        <v>4420.92329537382</v>
+      </c>
+      <c r="AL68" s="7" t="n">
+        <v>645139.98437403</v>
+      </c>
+      <c r="AM68" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+    </row>
+    <row r="69">
+      <c r="O69" t="s">
+        <v>156</v>
+      </c>
+      <c r="P69" t="n">
+        <v>595</v>
+      </c>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7" t="n">
+        <v>197184.642475091</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7" t="n">
+        <v>676020.400855061</v>
+      </c>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+      <c r="AO69" s="7"/>
+    </row>
+    <row r="70">
+      <c r="O70" t="s">
+        <v>157</v>
+      </c>
+      <c r="P70" t="n">
+        <v>412</v>
+      </c>
+      <c r="Q70" s="7" t="n">
+        <v>387658.879381018</v>
+      </c>
+      <c r="R70" s="7" t="n">
+        <v>247657.601040156</v>
+      </c>
+      <c r="S70" s="7" t="n">
+        <v>45439.780490639</v>
+      </c>
+      <c r="T70" s="7" t="n">
+        <v>9884583.08252478</v>
+      </c>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+      <c r="AO70" s="7"/>
+    </row>
+    <row r="71">
+      <c r="O71" t="s">
+        <v>158</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1580</v>
+      </c>
+      <c r="Q71" s="7" t="n">
+        <v>4762613.1441223</v>
+      </c>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7" t="n">
+        <v>85868.1402142481</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="7"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+      <c r="AO71" s="7"/>
+    </row>
+    <row r="72">
+      <c r="O72" t="s">
+        <v>159</v>
+      </c>
+      <c r="P72" t="n">
+        <v>579</v>
+      </c>
+      <c r="Q72" s="7" t="n">
+        <v>535777.700233507</v>
+      </c>
+      <c r="R72" s="7" t="n">
+        <v>3562836.23373118</v>
+      </c>
+      <c r="S72" s="7" t="n">
+        <v>9384148.61397325</v>
+      </c>
+      <c r="T72" s="7" t="n">
+        <v>17447219.0249046</v>
+      </c>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+    </row>
+    <row r="73">
+      <c r="O73" t="s">
+        <v>160</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+    </row>
+    <row r="74">
+      <c r="O74" t="s">
+        <v>161</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1159</v>
+      </c>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7" t="n">
+        <v>8508529.01340933</v>
+      </c>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+      <c r="AO74" s="7"/>
+    </row>
+    <row r="75">
+      <c r="O75" t="s">
+        <v>162</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2036</v>
+      </c>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7" t="n">
+        <v>114527.815443363</v>
+      </c>
+      <c r="AG75" s="7" t="n">
+        <v>-9873.29981176498</v>
+      </c>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+    </row>
+    <row r="76">
+      <c r="O76" t="s">
+        <v>163</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1805</v>
+      </c>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7" t="n">
+        <v>15809751.0397115</v>
+      </c>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7" t="n">
+        <v>25500113.9040127</v>
+      </c>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7" t="n">
+        <v>6643854.34286676</v>
+      </c>
+      <c r="AH76" s="7" t="n">
+        <v>6477876.60239556</v>
+      </c>
+      <c r="AI76" s="7" t="n">
+        <v>6526467.27208736</v>
+      </c>
+      <c r="AJ76" s="7" t="n">
+        <v>62088106.5482038</v>
+      </c>
+      <c r="AK76" s="7" t="n">
+        <v>2922905.59427546</v>
+      </c>
+      <c r="AL76" s="7" t="n">
+        <v>1593877.566117</v>
+      </c>
+      <c r="AM76" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AN76" s="7"/>
+      <c r="AO76" s="7"/>
+    </row>
+    <row r="77">
+      <c r="O77" t="s">
+        <v>164</v>
+      </c>
+      <c r="P77" t="n">
+        <v>662</v>
+      </c>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7" t="n">
+        <v>533625.069235684</v>
+      </c>
+      <c r="AD77" s="7" t="n">
+        <v>14473.9734787859</v>
+      </c>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+    </row>
+    <row r="78">
+      <c r="O78" t="s">
+        <v>165</v>
+      </c>
+      <c r="P78" t="n">
+        <v>411</v>
+      </c>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7" t="n">
+        <v>947456.694409992</v>
+      </c>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+    </row>
+    <row r="79">
+      <c r="O79" t="s">
+        <v>166</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7" t="n">
+        <v>555143.851784997</v>
+      </c>
+      <c r="AI79" s="7" t="n">
+        <v>30412.5289232337</v>
+      </c>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+    </row>
+    <row r="80">
+      <c r="O80" t="s">
+        <v>167</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2194</v>
+      </c>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7" t="n">
+        <v>35342.6180809771</v>
+      </c>
+      <c r="AJ80" s="7" t="n">
+        <v>626742.124764901</v>
+      </c>
+      <c r="AK80" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7" t="n">
+        <v>226052.4375</v>
+      </c>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+    </row>
+    <row r="81">
+      <c r="O81" t="s">
+        <v>168</v>
+      </c>
+      <c r="P81" t="n">
+        <v>664</v>
+      </c>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7" t="n">
+        <v>-6839.70392434684</v>
+      </c>
+      <c r="Z81" s="7" t="n">
+        <v>226181.694335116</v>
+      </c>
+      <c r="AA81" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="7" t="n">
+        <v>-3462.43380696978</v>
+      </c>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7"/>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+    </row>
+    <row r="82">
+      <c r="O82" t="s">
+        <v>169</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1965</v>
+      </c>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7" t="n">
+        <v>39708.2606792649</v>
+      </c>
+      <c r="V82" s="7" t="n">
+        <v>4115.85956717762</v>
+      </c>
+      <c r="W82" s="7" t="n">
+        <v>41088.3850127641</v>
+      </c>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+    </row>
+    <row r="83">
+      <c r="O83" t="s">
+        <v>170</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1966</v>
+      </c>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7" t="n">
+        <v>171126.308421409</v>
+      </c>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7" t="n">
+        <v>25130.576563716</v>
+      </c>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+    </row>
+    <row r="84">
+      <c r="O84" t="s">
+        <v>77</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2115</v>
+      </c>
+      <c r="Q84" s="7" t="n">
+        <v>841491332.084923</v>
+      </c>
+      <c r="R84" s="7" t="n">
+        <v>883705905.459826</v>
+      </c>
+      <c r="S84" s="7" t="n">
+        <v>841710962.597226</v>
+      </c>
+      <c r="T84" s="7" t="n">
+        <v>1270632982.87855</v>
+      </c>
+      <c r="U84" s="7" t="n">
+        <v>2375821477.19341</v>
+      </c>
+      <c r="V84" s="7" t="n">
+        <v>2056480780.1853</v>
+      </c>
+      <c r="W84" s="7" t="n">
+        <v>1432207028.81028</v>
+      </c>
+      <c r="X84" s="7" t="n">
+        <v>1788885561.82231</v>
+      </c>
+      <c r="Y84" s="7" t="n">
+        <v>1716599400.76702</v>
+      </c>
+      <c r="Z84" s="7" t="n">
+        <v>1458957708.0376</v>
+      </c>
+      <c r="AA84" s="7" t="n">
+        <v>1397956170.33785</v>
+      </c>
+      <c r="AB84" s="7" t="n">
+        <v>1429753927.99093</v>
+      </c>
+      <c r="AC84" s="7" t="n">
+        <v>1168317686.91131</v>
+      </c>
+      <c r="AD84" s="7" t="n">
+        <v>916709973.147972</v>
+      </c>
+      <c r="AE84" s="7" t="n">
+        <v>982108217.423726</v>
+      </c>
+      <c r="AF84" s="7" t="n">
+        <v>1226540866.80758</v>
+      </c>
+      <c r="AG84" s="7" t="n">
+        <v>957149020.062012</v>
+      </c>
+      <c r="AH84" s="7" t="n">
+        <v>1140127911.36235</v>
+      </c>
+      <c r="AI84" s="7" t="n">
+        <v>690113185.592572</v>
+      </c>
+      <c r="AJ84" s="7" t="n">
+        <v>824344477.011192</v>
+      </c>
+      <c r="AK84" s="7" t="n">
+        <v>664896774.336537</v>
+      </c>
+      <c r="AL84" s="7" t="n">
+        <v>588852319.983894</v>
+      </c>
+      <c r="AM84" s="7" t="n">
+        <v>483497856.7914</v>
+      </c>
+      <c r="AN84" s="7" t="n">
+        <v>180371878.875763</v>
+      </c>
+      <c r="AO84" s="7"/>
+    </row>
+    <row r="85">
+      <c r="O85" t="s">
+        <v>171</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2258</v>
+      </c>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7" t="n">
+        <v>54861544.4588166</v>
+      </c>
+      <c r="AB85" s="7" t="n">
+        <v>110292153.025478</v>
+      </c>
+      <c r="AC85" s="7" t="n">
+        <v>82175976.6069208</v>
+      </c>
+      <c r="AD85" s="7" t="n">
+        <v>60844446.6104839</v>
+      </c>
+      <c r="AE85" s="7" t="n">
+        <v>24438763.1708616</v>
+      </c>
+      <c r="AF85" s="7" t="n">
+        <v>75902834.0192078</v>
+      </c>
+      <c r="AG85" s="7" t="n">
+        <v>13687199.1871807</v>
+      </c>
+      <c r="AH85" s="7" t="n">
+        <v>38711057.3278917</v>
+      </c>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
+    </row>
+    <row r="86">
+      <c r="O86" t="s">
+        <v>172</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2193</v>
+      </c>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7" t="n">
+        <v>105761.55911133</v>
+      </c>
+      <c r="AJ86" s="7" t="n">
+        <v>39454.8196417582</v>
+      </c>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+    </row>
+    <row r="87">
+      <c r="O87" t="s">
+        <v>173</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1979</v>
+      </c>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7" t="n">
+        <v>423083.745458075</v>
+      </c>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7" t="n">
+        <v>849853.315364308</v>
+      </c>
+      <c r="Y87" s="7" t="n">
+        <v>27349.4845869858</v>
+      </c>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7" t="n">
+        <v>62214.4571881295</v>
+      </c>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+    </row>
+    <row r="88">
+      <c r="O88" t="s">
+        <v>174</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2201</v>
+      </c>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7" t="n">
+        <v>18407.7289946008</v>
+      </c>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7" t="n">
+        <v>1978182.05060995</v>
+      </c>
+      <c r="AM88" s="7" t="n">
+        <v>623117</v>
+      </c>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+    </row>
+    <row r="89">
+      <c r="O89" t="s">
+        <v>175</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1328</v>
+      </c>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7" t="n">
+        <v>13675.4088013787</v>
+      </c>
+      <c r="Z89" s="7" t="n">
+        <v>18290.2137492908</v>
+      </c>
+      <c r="AA89" s="7" t="n">
+        <v>18889.6042583294</v>
+      </c>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+    </row>
+    <row r="90">
+      <c r="O90" t="s">
+        <v>176</v>
+      </c>
+      <c r="P90" t="n">
+        <v>597</v>
+      </c>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7" t="n">
+        <v>286532.947673405</v>
+      </c>
+      <c r="S90" s="7" t="n">
+        <v>7027109.86222496</v>
+      </c>
+      <c r="T90" s="7" t="n">
+        <v>59550.0783198046</v>
+      </c>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+    </row>
+    <row r="91">
+      <c r="O91" t="s">
+        <v>177</v>
+      </c>
+      <c r="P91" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7" t="n">
+        <v>16404.1196835307</v>
+      </c>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+    </row>
+    <row r="92">
+      <c r="O92" t="s">
+        <v>178</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1870</v>
+      </c>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7" t="n">
+        <v>3947.05969986182</v>
+      </c>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+    </row>
+    <row r="93">
+      <c r="O93" t="s">
+        <v>179</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1956</v>
+      </c>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7" t="n">
+        <v>3995.90508982143</v>
+      </c>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+      <c r="AO93" s="7"/>
+    </row>
+    <row r="94">
+      <c r="O94" t="s">
+        <v>180</v>
+      </c>
+      <c r="P94" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7" t="n">
+        <v>20579.9033172231</v>
+      </c>
+      <c r="T94" s="7"/>
+      <c r="U94" s="7"/>
+      <c r="V94" s="7"/>
+      <c r="W94" s="7"/>
+      <c r="X94" s="7"/>
+      <c r="Y94" s="7"/>
+      <c r="Z94" s="7"/>
+      <c r="AA94" s="7"/>
+      <c r="AB94" s="7"/>
+      <c r="AC94" s="7"/>
+      <c r="AD94" s="7"/>
+      <c r="AE94" s="7"/>
+      <c r="AF94" s="7"/>
+      <c r="AG94" s="7"/>
+      <c r="AH94" s="7"/>
+      <c r="AI94" s="7"/>
+      <c r="AJ94" s="7"/>
+      <c r="AK94" s="7"/>
+      <c r="AL94" s="7"/>
+      <c r="AM94" s="7"/>
+      <c r="AN94" s="7"/>
+      <c r="AO94" s="7"/>
+    </row>
+    <row r="95">
+      <c r="O95" t="s">
+        <v>181</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1276</v>
+      </c>
+      <c r="Q95" s="7" t="n">
+        <v>3061118.52758133</v>
+      </c>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7" t="n">
+        <v>2627478.4350621</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="7"/>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
+      <c r="AC95" s="7"/>
+      <c r="AD95" s="7"/>
+      <c r="AE95" s="7"/>
+      <c r="AF95" s="7"/>
+      <c r="AG95" s="7"/>
+      <c r="AH95" s="7"/>
+      <c r="AI95" s="7"/>
+      <c r="AJ95" s="7"/>
+      <c r="AK95" s="7"/>
+      <c r="AL95" s="7"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+      <c r="AO95" s="7"/>
+    </row>
+    <row r="96">
+      <c r="O96" t="s">
+        <v>182</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2020</v>
+      </c>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7" t="n">
+        <v>29478155.5927186</v>
+      </c>
+      <c r="AA96" s="7" t="n">
+        <v>89317460.4497284</v>
+      </c>
+      <c r="AB96" s="7" t="n">
+        <v>119049109.569937</v>
+      </c>
+      <c r="AC96" s="7" t="n">
+        <v>77318829.7599378</v>
+      </c>
+      <c r="AD96" s="7" t="n">
+        <v>94382493.8235589</v>
+      </c>
+      <c r="AE96" s="7" t="n">
+        <v>47869496.0112764</v>
+      </c>
+      <c r="AF96" s="7" t="n">
+        <v>124179205.007088</v>
+      </c>
+      <c r="AG96" s="7" t="n">
+        <v>88876379.9359683</v>
+      </c>
+      <c r="AH96" s="7" t="n">
+        <v>110726413.057141</v>
+      </c>
+      <c r="AI96" s="7" t="n">
+        <v>81838830.7718551</v>
+      </c>
+      <c r="AJ96" s="7" t="n">
+        <v>83492207.4177754</v>
+      </c>
+      <c r="AK96" s="7" t="n">
+        <v>135520062.332388</v>
+      </c>
+      <c r="AL96" s="7" t="n">
+        <v>87272343.1758647</v>
+      </c>
+      <c r="AM96" s="7" t="n">
+        <v>51205166.0076</v>
+      </c>
+      <c r="AN96" s="7" t="n">
+        <v>70084992.8063906</v>
+      </c>
+      <c r="AO96" s="7"/>
+    </row>
+    <row r="97">
+      <c r="O97" t="s">
+        <v>183</v>
+      </c>
+      <c r="P97" t="n">
+        <v>575</v>
+      </c>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7" t="n">
+        <v>77296.3798502358</v>
+      </c>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7" t="n">
+        <v>15168.2867932991</v>
+      </c>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+      <c r="AO97" s="7"/>
+    </row>
+    <row r="98">
+      <c r="O98" t="s">
+        <v>184</v>
+      </c>
+      <c r="P98" t="n">
+        <v>581</v>
+      </c>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="7" t="n">
+        <v>886912.007320666</v>
+      </c>
+      <c r="U98" s="7"/>
+      <c r="V98" s="7"/>
+      <c r="W98" s="7"/>
+      <c r="X98" s="7"/>
+      <c r="Y98" s="7"/>
+      <c r="Z98" s="7"/>
+      <c r="AA98" s="7"/>
+      <c r="AB98" s="7"/>
+      <c r="AC98" s="7"/>
+      <c r="AD98" s="7"/>
+      <c r="AE98" s="7"/>
+      <c r="AF98" s="7"/>
+      <c r="AG98" s="7"/>
+      <c r="AH98" s="7"/>
+      <c r="AI98" s="7"/>
+      <c r="AJ98" s="7"/>
+      <c r="AK98" s="7"/>
+      <c r="AL98" s="7"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="7"/>
+      <c r="AO98" s="7"/>
+    </row>
+    <row r="99">
+      <c r="O99" t="s">
+        <v>185</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1961</v>
+      </c>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7" t="n">
+        <v>83996.470211553</v>
+      </c>
+      <c r="V99" s="7" t="n">
+        <v>211062.896075601</v>
+      </c>
+      <c r="W99" s="7" t="n">
+        <v>165774.230663228</v>
+      </c>
+      <c r="X99" s="7" t="n">
+        <v>22290.1815413629</v>
+      </c>
+      <c r="Y99" s="7" t="n">
+        <v>3896755.25605553</v>
+      </c>
+      <c r="Z99" s="7" t="n">
+        <v>110920578.515189</v>
+      </c>
+      <c r="AA99" s="7" t="n">
+        <v>163674152.612667</v>
+      </c>
+      <c r="AB99" s="7" t="n">
+        <v>65594982.8713464</v>
+      </c>
+      <c r="AC99" s="7" t="n">
+        <v>4212064.8432812</v>
+      </c>
+      <c r="AD99" s="7" t="n">
+        <v>464628.003627284</v>
+      </c>
+      <c r="AE99" s="7" t="n">
+        <v>5229.41916485965</v>
+      </c>
+      <c r="AF99" s="7" t="n">
+        <v>39898.1837417991</v>
+      </c>
+      <c r="AG99" s="7"/>
+      <c r="AH99" s="7"/>
+      <c r="AI99" s="7"/>
+      <c r="AJ99" s="7" t="n">
+        <v>-17628.4080429242</v>
+      </c>
+      <c r="AK99" s="7"/>
+      <c r="AL99" s="7"/>
+      <c r="AM99" s="7"/>
+      <c r="AN99" s="7" t="n">
+        <v>10794.4986080739</v>
+      </c>
+      <c r="AO99" s="7"/>
+    </row>
+    <row r="100">
+      <c r="O100" t="s">
+        <v>79</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2202</v>
+      </c>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7"/>
+      <c r="T100" s="7"/>
+      <c r="U100" s="7"/>
+      <c r="V100" s="7"/>
+      <c r="W100" s="7"/>
+      <c r="X100" s="7"/>
+      <c r="Y100" s="7"/>
+      <c r="Z100" s="7"/>
+      <c r="AA100" s="7"/>
+      <c r="AB100" s="7"/>
+      <c r="AC100" s="7"/>
+      <c r="AD100" s="7"/>
+      <c r="AE100" s="7"/>
+      <c r="AF100" s="7"/>
+      <c r="AG100" s="7"/>
+      <c r="AH100" s="7"/>
+      <c r="AI100" s="7" t="n">
+        <v>466950545.143582</v>
+      </c>
+      <c r="AJ100" s="7" t="n">
+        <v>872667816.516652</v>
+      </c>
+      <c r="AK100" s="7" t="n">
+        <v>992288720.184196</v>
+      </c>
+      <c r="AL100" s="7" t="n">
+        <v>720037772.569</v>
+      </c>
+      <c r="AM100" s="7" t="n">
+        <v>1124769179.5592</v>
+      </c>
+      <c r="AN100" s="7" t="n">
+        <v>590871348.174428</v>
+      </c>
+      <c r="AO100" s="7"/>
+    </row>
+    <row r="101">
+      <c r="O101" t="s">
+        <v>186</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1952</v>
+      </c>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7" t="n">
+        <v>25567.242500287</v>
+      </c>
+      <c r="Z101" s="7"/>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+      <c r="AC101" s="7"/>
+      <c r="AD101" s="7"/>
+      <c r="AE101" s="7"/>
+      <c r="AF101" s="7"/>
+      <c r="AG101" s="7"/>
+      <c r="AH101" s="7"/>
+      <c r="AI101" s="7"/>
+      <c r="AJ101" s="7"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="7"/>
+      <c r="AM101" s="7"/>
+      <c r="AN101" s="7"/>
+      <c r="AO101" s="7"/>
+    </row>
+    <row r="102">
+      <c r="O102" t="s">
+        <v>187</v>
+      </c>
+      <c r="P102" t="n">
+        <v>603</v>
+      </c>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7" t="n">
+        <v>64944.4660280906</v>
+      </c>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7"/>
+      <c r="AE102" s="7"/>
+      <c r="AF102" s="7"/>
+      <c r="AG102" s="7"/>
+      <c r="AH102" s="7"/>
+      <c r="AI102" s="7"/>
+      <c r="AJ102" s="7"/>
+      <c r="AK102" s="7"/>
+      <c r="AL102" s="7"/>
+      <c r="AM102" s="7"/>
+      <c r="AN102" s="7"/>
+      <c r="AO102" s="7"/>
+    </row>
+    <row r="103">
+      <c r="O103" t="s">
+        <v>188</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1565</v>
+      </c>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7" t="n">
+        <v>2971293.34864588</v>
+      </c>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7"/>
+      <c r="AK103" s="7"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+      <c r="AO103" s="7"/>
+    </row>
+    <row r="104">
+      <c r="O104" t="s">
+        <v>189</v>
+      </c>
+      <c r="P104" t="n">
+        <v>296</v>
+      </c>
+      <c r="Q104" s="7" t="n">
+        <v>6580388.62088505</v>
+      </c>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7" t="n">
+        <v>540710.093350997</v>
+      </c>
+      <c r="T104" s="7" t="n">
+        <v>39007.2137165833</v>
+      </c>
+      <c r="U104" s="7"/>
+      <c r="V104" s="7"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="7"/>
+      <c r="Y104" s="7"/>
+      <c r="Z104" s="7"/>
+      <c r="AA104" s="7"/>
+      <c r="AB104" s="7"/>
+      <c r="AC104" s="7"/>
+      <c r="AD104" s="7"/>
+      <c r="AE104" s="7"/>
+      <c r="AF104" s="7"/>
+      <c r="AG104" s="7"/>
+      <c r="AH104" s="7"/>
+      <c r="AI104" s="7"/>
+      <c r="AJ104" s="7"/>
+      <c r="AK104" s="7"/>
+      <c r="AL104" s="7"/>
+      <c r="AM104" s="7"/>
+      <c r="AN104" s="7"/>
+      <c r="AO104" s="7"/>
+    </row>
+    <row r="105">
+      <c r="O105" t="s">
+        <v>190</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1151</v>
+      </c>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7" t="n">
+        <v>43311.2123503689</v>
+      </c>
+      <c r="S105" s="7" t="n">
+        <v>49229.0171412596</v>
+      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="7"/>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+      <c r="AC105" s="7"/>
+      <c r="AD105" s="7"/>
+      <c r="AE105" s="7"/>
+      <c r="AF105" s="7"/>
+      <c r="AG105" s="7"/>
+      <c r="AH105" s="7"/>
+      <c r="AI105" s="7"/>
+      <c r="AJ105" s="7"/>
+      <c r="AK105" s="7"/>
+      <c r="AL105" s="7"/>
+      <c r="AM105" s="7"/>
+      <c r="AN105" s="7"/>
+      <c r="AO105" s="7"/>
+    </row>
+    <row r="106">
+      <c r="O106" t="s">
+        <v>191</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1790</v>
+      </c>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7"/>
+      <c r="T106" s="7" t="n">
+        <v>827521.932026107</v>
+      </c>
+      <c r="U106" s="7"/>
+      <c r="V106" s="7"/>
+      <c r="W106" s="7"/>
+      <c r="X106" s="7"/>
+      <c r="Y106" s="7"/>
+      <c r="Z106" s="7"/>
+      <c r="AA106" s="7"/>
+      <c r="AB106" s="7"/>
+      <c r="AC106" s="7"/>
+      <c r="AD106" s="7"/>
+      <c r="AE106" s="7"/>
+      <c r="AF106" s="7"/>
+      <c r="AG106" s="7"/>
+      <c r="AH106" s="7"/>
+      <c r="AI106" s="7"/>
+      <c r="AJ106" s="7"/>
+      <c r="AK106" s="7"/>
+      <c r="AL106" s="7"/>
+      <c r="AM106" s="7"/>
+      <c r="AN106" s="7"/>
+      <c r="AO106" s="7"/>
+    </row>
+    <row r="107">
+      <c r="O107" t="s">
+        <v>192</v>
+      </c>
+      <c r="P107" t="n">
+        <v>2015</v>
+      </c>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7" t="n">
+        <v>6804.08471958576</v>
+      </c>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7" t="n">
+        <v>9302231.23877328</v>
+      </c>
+      <c r="AA107" s="7" t="n">
+        <v>2433289.15369842</v>
+      </c>
+      <c r="AB107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="7"/>
+      <c r="AD107" s="7"/>
+      <c r="AE107" s="7" t="n">
+        <v>100817.398527626</v>
+      </c>
+      <c r="AF107" s="7" t="n">
+        <v>-7701.91670665705</v>
+      </c>
+      <c r="AG107" s="7"/>
+      <c r="AH107" s="7" t="n">
+        <v>134848.751267951</v>
+      </c>
+      <c r="AI107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="7" t="n">
+        <v>142564.373270699</v>
+      </c>
+      <c r="AK107" s="7" t="n">
+        <v>78266.6444827683</v>
+      </c>
+      <c r="AL107" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" s="7"/>
+      <c r="AN107" s="7"/>
+      <c r="AO107" s="7"/>
+    </row>
+    <row r="108">
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108" s="7" t="n">
+        <v>31208672614.9201</v>
+      </c>
+      <c r="R108" s="7" t="n">
+        <v>33981189557.2428</v>
+      </c>
+      <c r="S108" s="7" t="n">
+        <v>38057064307.8208</v>
+      </c>
+      <c r="T108" s="7" t="n">
+        <v>49599556894.6117</v>
+      </c>
+      <c r="U108" s="7" t="n">
+        <v>49404934843.4451</v>
+      </c>
+      <c r="V108" s="7" t="n">
+        <v>52065344605.5062</v>
+      </c>
+      <c r="W108" s="7" t="n">
+        <v>55889808496.2689</v>
+      </c>
+      <c r="X108" s="7" t="n">
+        <v>59686210926.2228</v>
+      </c>
+      <c r="Y108" s="7" t="n">
+        <v>73945378643.1134</v>
+      </c>
+      <c r="Z108" s="7" t="n">
+        <v>84743800590.5939</v>
+      </c>
+      <c r="AA108" s="7" t="n">
+        <v>77110881808.3197</v>
+      </c>
+      <c r="AB108" s="7" t="n">
+        <v>67059562407.6769</v>
+      </c>
+      <c r="AC108" s="7" t="n">
+        <v>59138868993.2431</v>
+      </c>
+      <c r="AD108" s="7" t="n">
+        <v>45995101945.3875</v>
+      </c>
+      <c r="AE108" s="7" t="n">
+        <v>48783910608.952</v>
+      </c>
+      <c r="AF108" s="7" t="n">
+        <v>43316696943.6832</v>
+      </c>
+      <c r="AG108" s="7" t="n">
+        <v>43585159061.2597</v>
+      </c>
+      <c r="AH108" s="7" t="n">
+        <v>42769976055.224</v>
+      </c>
+      <c r="AI108" s="7" t="n">
+        <v>51242410223.6477</v>
+      </c>
+      <c r="AJ108" s="7" t="n">
+        <v>55538647043.9666</v>
+      </c>
+      <c r="AK108" s="7" t="n">
+        <v>63665167948.0736</v>
+      </c>
+      <c r="AL108" s="7" t="n">
+        <v>52189780435.9828</v>
+      </c>
+      <c r="AM108" s="7" t="n">
+        <v>54414468275.4439</v>
+      </c>
+      <c r="AN108" s="7" t="n">
+        <v>26836500378.5381</v>
+      </c>
+      <c r="AO108" s="7"/>
+    </row>
+    <row r="109">
+      <c r="P109" t="str">
+        <f>Grand Total</f>
+      </c>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+      <c r="AA109" s="7"/>
+      <c r="AB109" s="7"/>
+      <c r="AC109" s="7"/>
+      <c r="AD109" s="7"/>
+      <c r="AE109" s="7"/>
+      <c r="AF109" s="7"/>
+      <c r="AG109" s="7"/>
+      <c r="AH109" s="7"/>
+      <c r="AI109" s="7"/>
+      <c r="AJ109" s="7"/>
+      <c r="AK109" s="7"/>
+      <c r="AL109" s="7"/>
+      <c r="AM109" s="7"/>
+      <c r="AN109" s="7"/>
+      <c r="AO109" s="7"/>
+    </row>
+    <row r="110">
+      <c r="P110" t="str">
+        <f>Sum(A2:A108)</f>
+      </c>
+    </row>
+    <row r="111">
+      <c r="P111" t="str">
+        <f>Sum(B2:B108)</f>
+      </c>
+    </row>
+    <row r="112">
+      <c r="P112" t="str">
+        <f>Sum(C2:C108)</f>
+      </c>
+    </row>
+    <row r="113">
+      <c r="P113" t="str">
+        <f>Sum(D2:D108)</f>
+      </c>
+    </row>
+    <row r="114">
+      <c r="P114" t="str">
+        <f>Sum(E2:E108)</f>
+      </c>
+    </row>
+    <row r="115">
+      <c r="P115" t="str">
+        <f>Sum(F2:F108)</f>
+      </c>
+    </row>
+    <row r="116">
+      <c r="P116" t="str">
+        <f>Sum(G2:G108)</f>
+      </c>
+    </row>
+    <row r="117">
+      <c r="P117" t="str">
+        <f>Sum(H2:H108)</f>
+      </c>
+    </row>
+    <row r="118">
+      <c r="P118" t="str">
+        <f>Sum(I2:I108)</f>
+      </c>
+    </row>
+    <row r="119">
+      <c r="P119" t="str">
+        <f>Sum(J2:J108)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -629,14 +629,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -675,7 +675,7 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -683,7 +683,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2035,11 +2035,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
@@ -2150,556 +2159,712 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>40</v>
       </c>
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="10" t="n">
         <v>3300216000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="10" t="n">
         <v>4350671000</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="10" t="n">
         <v>4128257475</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="10" t="n">
         <v>3841622331</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="10" t="n">
         <v>4603395948</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="10" t="n">
         <v>4666696807</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="10" t="n">
         <v>4542484966</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="10" t="n">
         <v>4035441785</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="10" t="n">
         <v>3947895142</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="10" t="n">
         <v>3913934610</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="10" t="n">
         <v>4105935540.28</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="10" t="n">
         <v>3936262683.5313</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="10" t="n">
         <v>4496416502.6259</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="10" t="n">
         <v>6361775498.2084</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="10" t="n">
         <v>6568857908.0027</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2" s="10" t="n">
         <v>7145918857.3836</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2" s="10" t="n">
         <v>7755593001.4922</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="10" t="n">
         <v>7762482772.303</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="10" t="n">
         <v>7470428615.5145</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="10" t="n">
         <v>8248439755.6196</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="10" t="n">
         <v>7371961603.3731</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>6780055531.5519</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2" s="10" t="n">
         <v>6048593422.0114</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="10" t="n">
         <v>4790908943.2136</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2" s="10" t="n">
         <v>5906564207.3707</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2" s="10" t="n">
         <v>5508981468.9115</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2" s="10" t="n">
         <v>5490750662.4538</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2" s="10" t="n">
         <v>5333767188.8064</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2" s="10" t="n">
         <v>5380749852.8155</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2" s="10" t="n">
         <v>5917678622.067</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2" s="10" t="n">
         <v>6354417423.899</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2" s="10" t="n">
         <v>6466770009.4152</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2" s="10" t="n">
         <v>7636001025.7959</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" s="10" t="n">
         <v>2967525851.1888</v>
       </c>
+      <c r="AW2" s="10"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>41</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="10" t="n">
         <v>4899759000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="10" t="n">
         <v>8686670000</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="10" t="n">
         <v>8632192464</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="10" t="n">
         <v>8591328409</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" s="10" t="n">
         <v>8329434188</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" s="10" t="n">
         <v>9419064213</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3" s="10" t="n">
         <v>9406318721</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3" s="10" t="n">
         <v>9871133976</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3" s="10" t="n">
         <v>10053516487</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3" s="10" t="n">
         <v>10423323387</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3" s="10" t="n">
         <v>10486717040.6205</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3" s="10" t="n">
         <v>11721061588.0012</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3" s="10" t="n">
         <v>13479107981.4791</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3" s="10" t="n">
         <v>18125945415.8732</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3" s="10" t="n">
         <v>20243853801.3444</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3" s="10" t="n">
         <v>22144837170.5804</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3" s="10" t="n">
         <v>25683155102.2934</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3" s="10" t="n">
         <v>26366193111.6454</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3" s="10" t="n">
         <v>35824873810.3963</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3" s="10" t="n">
         <v>43489200077.7425</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" s="10" t="n">
         <v>39069823619.7478</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3" s="10" t="n">
         <v>33242007019.9661</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3" s="10" t="n">
         <v>29866847544.0963</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3" s="10" t="n">
         <v>23281571870.9731</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3" s="10" t="n">
         <v>24157167350.5105</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3" s="10" t="n">
         <v>20948628003.2977</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3" s="10" t="n">
         <v>20745661598.7199</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3" s="10" t="n">
         <v>20622213701.7551</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3" s="10" t="n">
         <v>26590451868.4576</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3" s="10" t="n">
         <v>29909854511.2937</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3" s="10" t="n">
         <v>34106595803.2413</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3" s="10" t="n">
         <v>25552598478.8645</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" s="10" t="n">
         <v>29221332530.9886</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3" s="10" t="n">
         <v>11081976801.5419</v>
       </c>
+      <c r="AW3" s="10"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="10" t="n">
         <v>457849000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="10" t="n">
         <v>624573000</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="10" t="n">
         <v>521939983</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="10" t="n">
         <v>567107653</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="10" t="n">
         <v>402543132</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" s="10" t="n">
         <v>455258682</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4" s="10" t="n">
         <v>378940780</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4" s="10" t="n">
         <v>422986947</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4" s="10" t="n">
         <v>304658164</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4" s="10" t="n">
         <v>574154698</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4" s="10" t="n">
         <v>451251383.9147</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4" s="10" t="n">
         <v>652565387.1182</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4" s="10" t="n">
         <v>794001838.3973</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4" s="10" t="n">
         <v>1124423631.5792</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4" s="10" t="n">
         <v>1767199296.4242</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4" s="10" t="n">
         <v>2345014834.3454</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4" s="10" t="n">
         <v>3426568836.0061</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4" s="10" t="n">
         <v>2857533705.6143</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4" s="10" t="n">
         <v>2565964800.8799</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4" s="10" t="n">
         <v>2184060751.5247</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4" s="10" t="n">
         <v>2558005770.1947</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4" s="10" t="n">
         <v>2654329920.7436</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4" s="10" t="n">
         <v>2206102162.179</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4" s="10" t="n">
         <v>2232659524.8201</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4" s="10" t="n">
         <v>2507390454.7612</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4" s="10" t="n">
         <v>2764044557.2456</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4" s="10" t="n">
         <v>2800217286.9328</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4" s="10" t="n">
         <v>3192135790.2355</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4" s="10" t="n">
         <v>4336636342.2756</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4" s="10" t="n">
         <v>4185865441.1387</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4" s="10" t="n">
         <v>4001320595.6329</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4" s="10" t="n">
         <v>5598065223.926</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4" s="10" t="n">
         <v>6161384328.1597</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4" s="10" t="n">
         <v>2862227478.7772</v>
       </c>
+      <c r="AW4" s="10"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>44</v>
       </c>
       <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="10" t="n">
         <v>3464562305</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="10" t="n">
         <v>4742331868</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="10" t="n">
         <v>4230516785</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="10" t="n">
         <v>4028042362</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="10" t="n">
         <v>6678397216</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="10" t="n">
         <v>5372070408</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="10" t="n">
         <v>5803931223</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="10" t="n">
         <v>5611880240</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="10" t="n">
         <v>5034627246</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="10" t="n">
         <v>5356389885</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="10" t="n">
         <v>5272048928.8593</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="10" t="n">
         <v>6211171863.2888</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="10" t="n">
         <v>6162968258.8984</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5" s="10" t="n">
         <v>7761429187.4941</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5" s="10" t="n">
         <v>6210379230.3181</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5" s="10" t="n">
         <v>7186552299.2721</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5" s="10" t="n">
         <v>7878685441.6893</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" s="10" t="n">
         <v>8706066047.0671</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5" s="10" t="n">
         <v>10981961461.9522</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5" s="10" t="n">
         <v>11881816037.5966</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5" s="10" t="n">
         <v>11728432204.0445</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5" s="10" t="n">
         <v>11553392624.5317</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5" s="10" t="n">
         <v>10517654432.6892</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5" s="10" t="n">
         <v>8587722708.3673</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5" s="10" t="n">
         <v>9338021248.0745</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5" s="10" t="n">
         <v>8542060537.597</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5" s="10" t="n">
         <v>9187080767.489</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5" s="10" t="n">
         <v>8952877787.2607</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5" s="10" t="n">
         <v>10244763680.6925</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5" s="10" t="n">
         <v>11611964039.3015</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5" s="10" t="n">
         <v>15292056325.2531</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5" s="10" t="n">
         <v>13051477981.1949</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5" s="10" t="n">
         <v>13798203698.7861</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5" s="10" t="n">
         <v>5938973826.5214</v>
       </c>
+      <c r="AW5" s="10"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="10" t="n">
         <v>60850000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="10" t="n">
         <v>88584000</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="10" t="n">
         <v>144809204</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="10" t="n">
         <v>149915114</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="10" t="n">
         <v>318674060</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="10" t="n">
         <v>224815297</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="10" t="n">
         <v>151120895</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="10" t="n">
         <v>287069769</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="10" t="n">
         <v>223921222</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="10" t="n">
         <v>337026811</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="10" t="n">
         <v>483976915.3999</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="10" t="n">
         <v>545220195.3198</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="10" t="n">
         <v>1130270379.7998</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6" s="10" t="n">
         <v>1073300212.1321</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6" s="10" t="n">
         <v>912217612.8806</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6" s="10" t="n">
         <v>736687318.1288</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6" s="10" t="n">
         <v>805458509.3449</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6" s="10" t="n">
         <v>504802369.1908</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6" s="10" t="n">
         <v>447835712.1524</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6" s="10" t="n">
         <v>560636798.9158</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6" s="10" t="n">
         <v>511942014</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6" s="10" t="n">
         <v>350842121.3261</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6" s="10" t="n">
         <v>372464085.4251</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6" s="10" t="n">
         <v>347881632.8952</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6" s="10" t="n">
         <v>304211900.5524</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6" s="10" t="n">
         <v>364074492.9168</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6" s="10" t="n">
         <v>337763811.6767</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6" s="10" t="n">
         <v>339443248.8377</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6" s="10" t="n">
         <v>398989099.3803</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6" s="10" t="n">
         <v>431864411.4772</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6" s="10" t="n">
         <v>419485619.7346</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6" s="10" t="n">
         <v>486474883.935</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6" s="10" t="n">
         <v>470454087.5014</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6" s="10" t="n">
         <v>211629076.5979</v>
       </c>
+      <c r="AW6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" t="s">
+        <v>194</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="10" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="10" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="10" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="10" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="10" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="10" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="10" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="10" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="10" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="10" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="10" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="10" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="10" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="10" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="10" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="10" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="10" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="10" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="10" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="10" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="10" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="10" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="10" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="10" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="10" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="10" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="10" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="10" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="10" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="10" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="10" t="str">
+        <f>Sum(AT2:AT6)</f>
+      </c>
+      <c r="AU7" s="10" t="str">
+        <f>Sum(AU2:AU6)</f>
+      </c>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
     </row>
     <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
@@ -2810,554 +2975,632 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
       <c r="M11" t="s">
         <v>40</v>
       </c>
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="10" t="n">
         <v>6559283476.42597</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="10" t="n">
         <v>8349283747.02493</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="10" t="n">
         <v>7729281346.1741</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="10" t="n">
         <v>7027534870.74692</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="10" t="n">
         <v>8241479264.51194</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="10" t="n">
         <v>8181499774.30076</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="10" t="n">
         <v>7816823340.4451</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="10" t="n">
         <v>6823082488.46655</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="10" t="n">
         <v>6592738829.77688</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="10" t="n">
         <v>6455557114.25429</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="10" t="n">
         <v>6634083434.84561</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="10" t="n">
         <v>6209364399.52131</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="10" t="n">
         <v>6982781232.87107</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11" s="10" t="n">
         <v>9694317387.12158</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11" s="10" t="n">
         <v>9771040351.22764</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11" s="10" t="n">
         <v>10316239388.0874</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11" s="10" t="n">
         <v>10843364340.8061</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11" s="10" t="n">
         <v>10563318083.4149</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11" s="10" t="n">
         <v>9958199165.48187</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11" s="10" t="n">
         <v>10884690548.7186</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11" s="10" t="n">
         <v>9644204491.46195</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11" s="10" t="n">
         <v>8694627216.88066</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11" s="10" t="n">
         <v>7616993694.88563</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11" s="10" t="n">
         <v>5924768368.36565</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11" s="10" t="n">
         <v>7165834593.33582</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11" s="10" t="n">
         <v>6607734419.95035</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11" s="10" t="n">
         <v>6531742218.98895</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11" s="10" t="n">
         <v>6233701182.5651</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11" s="10" t="n">
         <v>6144340124.18566</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11" s="10" t="n">
         <v>6627652694.83396</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11" s="10" t="n">
         <v>7023098004.4611</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11" s="10" t="n">
         <v>6914836950.29614</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11" s="10" t="n">
         <v>7636001025.7959</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11" s="10" t="n">
         <v>2830421347.79629</v>
       </c>
+      <c r="AW11" s="10"/>
     </row>
     <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
       <c r="M12" t="s">
         <v>41</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="10" t="n">
         <v>9738425680.97646</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="10" t="n">
         <v>16670410758.885</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="10" t="n">
         <v>16161938685.4207</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="10" t="n">
         <v>15716240374.0427</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="10" t="n">
         <v>14912221308.1287</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="10" t="n">
         <v>16513194432.7713</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="10" t="n">
         <v>16186631827.3641</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="10" t="n">
         <v>16690009411.9318</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="10" t="n">
         <v>16788745935.6556</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="10" t="n">
         <v>17191998883.4767</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="10" t="n">
         <v>16943703845.957</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="10" t="n">
         <v>18489706709.2683</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="10" t="n">
         <v>20932594254.5465</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB12" s="10" t="n">
         <v>27621010495.0422</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC12" s="10" t="n">
         <v>30112314062.4353</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD12" s="10" t="n">
         <v>31969498397.7987</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE12" s="10" t="n">
         <v>35908512494.4048</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF12" s="10" t="n">
         <v>35879562332.9188</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AG12" s="10" t="n">
         <v>47755121806.704</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AH12" s="10" t="n">
         <v>57388609128.7792</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI12" s="10" t="n">
         <v>51112226121.9851</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ12" s="10" t="n">
         <v>42628981080.5398</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AK12" s="10" t="n">
         <v>37611321105.1042</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AL12" s="10" t="n">
         <v>28791597215.0471</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AM12" s="10" t="n">
         <v>29307438199.2283</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AN12" s="10" t="n">
         <v>25126780892.1268</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AO12" s="10" t="n">
         <v>24678832104.29</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AP12" s="10" t="n">
         <v>24101673993.1067</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AQ12" s="10" t="n">
         <v>30363942722.6118</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AR12" s="10" t="n">
         <v>33498292238.22</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AS12" s="10" t="n">
         <v>37695660978.1121</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AT12" s="10" t="n">
         <v>27323076571.5312</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="AU12" s="10" t="n">
         <v>29221332530.9886</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="AV12" s="10" t="n">
         <v>10569971514.2505</v>
       </c>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>42</v>
       </c>
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="10" t="n">
         <v>909989340.212323</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="10" t="n">
         <v>1198605272.09035</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="10" t="n">
         <v>977221260.751021</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="10" t="n">
         <v>1037418169.60116</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="10" t="n">
         <v>720674674.289324</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="10" t="n">
         <v>798144588.79018</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="10" t="n">
         <v>652090905.29117</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="10" t="n">
         <v>715181877.149946</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="10" t="n">
         <v>508760145.689638</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="10" t="n">
         <v>946998050.474948</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="10" t="n">
         <v>729100420.990906</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="10" t="n">
         <v>1029406980.40418</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="10" t="n">
         <v>1233057732.26032</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB13" s="10" t="n">
         <v>1713439835.33817</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC13" s="10" t="n">
         <v>2628672423.09892</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD13" s="10" t="n">
         <v>3385391701.54822</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE13" s="10" t="n">
         <v>4790805077.12527</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF13" s="10" t="n">
         <v>3888580284.41431</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG13" s="10" t="n">
         <v>3420471549.07701</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH13" s="10" t="n">
         <v>2882099660.57543</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI13" s="10" t="n">
         <v>3346454046.47921</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ13" s="10" t="n">
         <v>3403867278.67929</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK13" s="10" t="n">
         <v>2778144452.30194</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL13" s="10" t="n">
         <v>2761060727.05099</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM13" s="10" t="n">
         <v>3041962235.38998</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN13" s="10" t="n">
         <v>3315326519.47673</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO13" s="10" t="n">
         <v>3331110552.96541</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP13" s="10" t="n">
         <v>3730725385.28859</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ13" s="10" t="n">
         <v>4952054901.40063</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR13" s="10" t="n">
         <v>4688065057.76162</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS13" s="10" t="n">
         <v>4422382858.37313</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT13" s="10" t="n">
         <v>5985941699.52117</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" s="10" t="n">
         <v>6161384328.1597</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV13" s="10" t="n">
         <v>2729987930.83293</v>
       </c>
+      <c r="AW13" s="10"/>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="10" t="n">
         <v>6885926945.45895</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="10" t="n">
         <v>9100912109.53225</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="10" t="n">
         <v>7920740086.82729</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="10" t="n">
         <v>7368555709.23138</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="10" t="n">
         <v>11956362823.7869</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="10" t="n">
         <v>9418137635.30831</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="10" t="n">
         <v>9987552053.52604</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="10" t="n">
         <v>9488508032.81144</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="10" t="n">
         <v>8407513711.55765</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="10" t="n">
         <v>8834710917.368</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="10" t="n">
         <v>8518207878.21134</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="10" t="n">
         <v>9797981625.7116</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="10" t="n">
         <v>9570879181.65136</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB14" s="10" t="n">
         <v>11827163335.5227</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC14" s="10" t="n">
         <v>9237810728.39721</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD14" s="10" t="n">
         <v>10374900047.696</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE14" s="10" t="n">
         <v>11015464163.0117</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF14" s="10" t="n">
         <v>11847362191.7107</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG14" s="10" t="n">
         <v>14639127832.4577</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH14" s="10" t="n">
         <v>15679315671.5401</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI14" s="10" t="n">
         <v>15343460075.5785</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ14" s="10" t="n">
         <v>14815873040.1385</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK14" s="10" t="n">
         <v>13244882224.5584</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL14" s="10" t="n">
         <v>10620170089.2067</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM14" s="10" t="n">
         <v>11328872986.6435</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN14" s="10" t="n">
         <v>10245753729.633</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO14" s="10" t="n">
         <v>10928859641.8349</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AP14" s="10" t="n">
         <v>10463442230.2742</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AQ14" s="10" t="n">
         <v>11698613440.1214</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AR14" s="10" t="n">
         <v>13005110563.1874</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AS14" s="10" t="n">
         <v>16901252010.62</v>
       </c>
-      <c r="AT14" t="n">
+      <c r="AT14" s="10" t="n">
         <v>13955783500.7193</v>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" s="10" t="n">
         <v>13798203698.7861</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AV14" s="10" t="n">
         <v>5664583611.24489</v>
       </c>
+      <c r="AW14" s="10"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>43</v>
       </c>
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="10" t="n">
         <v>120941295.824431</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="10" t="n">
         <v>169999742.900913</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="10" t="n">
         <v>271124339.024305</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="10" t="n">
         <v>274241869.843764</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15" s="10" t="n">
         <v>570523519.439791</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" s="10" t="n">
         <v>394138804.754979</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U15" s="10" t="n">
         <v>260052668.992136</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V15" s="10" t="n">
         <v>485374543.40505</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W15" s="10" t="n">
         <v>373934484.577678</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X15" s="10" t="n">
         <v>555884562.273126</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y15" s="10" t="n">
         <v>781976045.60621</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z15" s="10" t="n">
         <v>860072394.274674</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA15" s="10" t="n">
         <v>1755271290.26569</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB15" s="10" t="n">
         <v>1635536008.93394</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC15" s="10" t="n">
         <v>1356904842.42291</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD15" s="10" t="n">
         <v>1063522113.76319</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE15" s="10" t="n">
         <v>1126139558.45142</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF15" s="10" t="n">
         <v>686943617.324362</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG15" s="10" t="n">
         <v>596972067.408192</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH15" s="10" t="n">
         <v>739819680.717819</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI15" s="10" t="n">
         <v>669736731.744206</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ15" s="10" t="n">
         <v>449913933.995735</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK15" s="10" t="n">
         <v>469044022.686335</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL15" s="10" t="n">
         <v>430214416.292023</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM15" s="10" t="n">
         <v>369069408.906539</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN15" s="10" t="n">
         <v>436688264.763331</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO15" s="10" t="n">
         <v>401800461.248662</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP15" s="10" t="n">
         <v>396715437.099314</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ15" s="10" t="n">
         <v>455610240.114081</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR15" s="10" t="n">
         <v>483677386.57798</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS15" s="10" t="n">
         <v>463628437.089754</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT15" s="10" t="n">
         <v>520181558.633932</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU15" s="10" t="n">
         <v>470454087.5014</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" s="10" t="n">
         <v>201851470.30047</v>
       </c>
+      <c r="AW15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,89 +3754,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10" t="n">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
         <v>15345881642.2731</v>
       </c>
-      <c r="AA2" s="10" t="n">
+      <c r="AA2" s="2" t="n">
         <v>17531995255.4796</v>
       </c>
-      <c r="AB2" s="10" t="n">
+      <c r="AB2" s="2" t="n">
         <v>18942203546.542</v>
       </c>
-      <c r="AC2" s="10" t="n">
+      <c r="AC2" s="2" t="n">
         <v>25477712376.5921</v>
       </c>
-      <c r="AD2" s="10" t="n">
+      <c r="AD2" s="2" t="n">
         <v>25079532787.958</v>
       </c>
-      <c r="AE2" s="10" t="n">
+      <c r="AE2" s="2" t="n">
         <v>29582007545.4317</v>
       </c>
-      <c r="AF2" s="10" t="n">
+      <c r="AF2" s="2" t="n">
         <v>35507608673.8446</v>
       </c>
-      <c r="AG2" s="10" t="n">
+      <c r="AG2" s="2" t="n">
         <v>36973961528.5113</v>
       </c>
-      <c r="AH2" s="10" t="n">
+      <c r="AH2" s="2" t="n">
         <v>47092584629.4484</v>
       </c>
-      <c r="AI2" s="10" t="n">
+      <c r="AI2" s="2" t="n">
         <v>54370208122.6629</v>
       </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AJ2" s="2" t="n">
         <v>50766298896.5493</v>
       </c>
-      <c r="AK2" s="10" t="n">
+      <c r="AK2" s="2" t="n">
         <v>46380689957.2157</v>
       </c>
-      <c r="AL2" s="10" t="n">
+      <c r="AL2" s="2" t="n">
         <v>42394453594.0767</v>
       </c>
-      <c r="AM2" s="10" t="n">
+      <c r="AM2" s="2" t="n">
         <v>33432752697.7434</v>
       </c>
-      <c r="AN2" s="10" t="n">
+      <c r="AN2" s="2" t="n">
         <v>36789456126.9644</v>
       </c>
-      <c r="AO2" s="10" t="n">
+      <c r="AO2" s="2" t="n">
         <v>33811327787.04</v>
       </c>
-      <c r="AP2" s="10" t="n">
+      <c r="AP2" s="2" t="n">
         <v>33233952149.2717</v>
       </c>
-      <c r="AQ2" s="10" t="n">
+      <c r="AQ2" s="2" t="n">
         <v>34064622738.1685</v>
       </c>
-      <c r="AR2" s="10" t="n">
+      <c r="AR2" s="2" t="n">
         <v>40511204861.7681</v>
       </c>
-      <c r="AS2" s="10" t="n">
+      <c r="AS2" s="2" t="n">
         <v>44218797177.9926</v>
       </c>
-      <c r="AT2" s="10" t="n">
+      <c r="AT2" s="2" t="n">
         <v>52194173237.7706</v>
       </c>
-      <c r="AU2" s="10" t="n">
+      <c r="AU2" s="2" t="n">
         <v>45153796097.1098</v>
       </c>
-      <c r="AV2" s="10" t="n">
+      <c r="AV2" s="2" t="n">
         <v>49582250214.1208</v>
       </c>
-      <c r="AW2" s="10" t="n">
+      <c r="AW2" s="2" t="n">
         <v>19068088230.5457</v>
       </c>
-      <c r="AX2" s="10"/>
+      <c r="AX2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3611,89 +3854,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10" t="n">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
         <v>615402061</v>
       </c>
-      <c r="AA3" s="10" t="n">
+      <c r="AA3" s="2" t="n">
         <v>745958682</v>
       </c>
-      <c r="AB3" s="10" t="n">
+      <c r="AB3" s="2" t="n">
         <v>763204571</v>
       </c>
-      <c r="AC3" s="10" t="n">
+      <c r="AC3" s="2" t="n">
         <v>1089949613.0938</v>
       </c>
-      <c r="AD3" s="10" t="n">
+      <c r="AD3" s="2" t="n">
         <v>954326487.6836</v>
       </c>
-      <c r="AE3" s="10" t="n">
+      <c r="AE3" s="2" t="n">
         <v>1464531875.0912</v>
       </c>
-      <c r="AF3" s="10" t="n">
+      <c r="AF3" s="2" t="n">
         <v>1750353030.0943</v>
       </c>
-      <c r="AG3" s="10" t="n">
+      <c r="AG3" s="2" t="n">
         <v>1239671324.471</v>
       </c>
-      <c r="AH3" s="10" t="n">
+      <c r="AH3" s="2" t="n">
         <v>703917895.5659</v>
       </c>
-      <c r="AI3" s="10" t="n">
+      <c r="AI3" s="2" t="n">
         <v>683150567.841</v>
       </c>
-      <c r="AJ3" s="10" t="n">
+      <c r="AJ3" s="2" t="n">
         <v>1463047951.211</v>
       </c>
-      <c r="AK3" s="10" t="n">
+      <c r="AK3" s="2" t="n">
         <v>1594126904.5965</v>
       </c>
-      <c r="AL3" s="10" t="n">
+      <c r="AL3" s="2" t="n">
         <v>1197342150.4164</v>
       </c>
-      <c r="AM3" s="10" t="n">
+      <c r="AM3" s="2" t="n">
         <v>1053810335.8304</v>
       </c>
-      <c r="AN3" s="10" t="n">
+      <c r="AN3" s="2" t="n">
         <v>907606716.7881</v>
       </c>
-      <c r="AO3" s="10" t="n">
+      <c r="AO3" s="2" t="n">
         <v>829698723.3953</v>
       </c>
-      <c r="AP3" s="10" t="n">
+      <c r="AP3" s="2" t="n">
         <v>882225257.9374</v>
       </c>
-      <c r="AQ3" s="10" t="n">
+      <c r="AQ3" s="2" t="n">
         <v>845807936.0675</v>
       </c>
-      <c r="AR3" s="10" t="n">
+      <c r="AR3" s="2" t="n">
         <v>923868079.3332</v>
       </c>
-      <c r="AS3" s="10" t="n">
+      <c r="AS3" s="2" t="n">
         <v>1162698262.7235</v>
       </c>
-      <c r="AT3" s="10" t="n">
+      <c r="AT3" s="2" t="n">
         <v>1511992735.6195</v>
       </c>
-      <c r="AU3" s="10" t="n">
+      <c r="AU3" s="2" t="n">
         <v>1631433880.1231</v>
       </c>
-      <c r="AV3" s="10" t="n">
+      <c r="AV3" s="2" t="n">
         <v>2555479023.9104</v>
       </c>
-      <c r="AW3" s="10" t="n">
+      <c r="AW3" s="2" t="n">
         <v>1409095087.061</v>
       </c>
-      <c r="AX3" s="10"/>
+      <c r="AX3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3711,89 +3954,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10" t="n">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
         <v>353605860</v>
       </c>
-      <c r="AA4" s="10" t="n">
+      <c r="AA4" s="2" t="n">
         <v>501638178</v>
       </c>
-      <c r="AB4" s="10" t="n">
+      <c r="AB4" s="2" t="n">
         <v>526446374</v>
       </c>
-      <c r="AC4" s="10" t="n">
+      <c r="AC4" s="2" t="n">
         <v>798199438</v>
       </c>
-      <c r="AD4" s="10" t="n">
+      <c r="AD4" s="2" t="n">
         <v>911358315.6309</v>
       </c>
-      <c r="AE4" s="10" t="n">
+      <c r="AE4" s="2" t="n">
         <v>676042982.87</v>
       </c>
-      <c r="AF4" s="10" t="n">
+      <c r="AF4" s="2" t="n">
         <v>694448016.3879</v>
       </c>
-      <c r="AG4" s="10" t="n">
+      <c r="AG4" s="2" t="n">
         <v>679765460.986</v>
       </c>
-      <c r="AH4" s="10" t="n">
+      <c r="AH4" s="2" t="n">
         <v>559492990.1658</v>
       </c>
-      <c r="AI4" s="10" t="n">
+      <c r="AI4" s="2" t="n">
         <v>1139154818.529</v>
       </c>
-      <c r="AJ4" s="10" t="n">
+      <c r="AJ4" s="2" t="n">
         <v>969845816.7892</v>
       </c>
-      <c r="AK4" s="10" t="n">
+      <c r="AK4" s="2" t="n">
         <v>652173104.5862</v>
       </c>
-      <c r="AL4" s="10" t="n">
+      <c r="AL4" s="2" t="n">
         <v>543768425.9068</v>
       </c>
-      <c r="AM4" s="10" t="n">
+      <c r="AM4" s="2" t="n">
         <v>82567155.4116</v>
       </c>
-      <c r="AN4" s="10" t="n">
+      <c r="AN4" s="2" t="n">
         <v>168378109.9497</v>
       </c>
-      <c r="AO4" s="10" t="n">
+      <c r="AO4" s="2" t="n">
         <v>165358697.6416</v>
       </c>
-      <c r="AP4" s="10" t="n">
+      <c r="AP4" s="2" t="n">
         <v>64672606.1158</v>
       </c>
-      <c r="AQ4" s="10" t="n">
+      <c r="AQ4" s="2" t="n">
         <v>49394479.9619</v>
       </c>
-      <c r="AR4" s="10" t="n">
+      <c r="AR4" s="2" t="n">
         <v>839778098.7859</v>
       </c>
-      <c r="AS4" s="10" t="n">
+      <c r="AS4" s="2" t="n">
         <v>165662653.1185</v>
       </c>
-      <c r="AT4" s="10" t="n">
+      <c r="AT4" s="2" t="n">
         <v>68549290.0911</v>
       </c>
-      <c r="AU4" s="10" t="n">
+      <c r="AU4" s="2" t="n">
         <v>147002854.1986</v>
       </c>
-      <c r="AV4" s="10" t="n">
+      <c r="AV4" s="2" t="n">
         <v>104834400.2884</v>
       </c>
-      <c r="AW4" s="10" t="n">
+      <c r="AW4" s="2" t="n">
         <v>40999851.8151</v>
       </c>
-      <c r="AX4" s="10"/>
+      <c r="AX4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3811,89 +4054,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="n">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
         <v>320538683</v>
       </c>
-      <c r="AA5" s="10" t="n">
+      <c r="AA5" s="2" t="n">
         <v>432788436</v>
       </c>
-      <c r="AB5" s="10" t="n">
+      <c r="AB5" s="2" t="n">
         <v>780298062</v>
       </c>
-      <c r="AC5" s="10" t="n">
+      <c r="AC5" s="2" t="n">
         <v>665235549</v>
       </c>
-      <c r="AD5" s="10" t="n">
+      <c r="AD5" s="2" t="n">
         <v>757233360.4707</v>
       </c>
-      <c r="AE5" s="10" t="n">
+      <c r="AE5" s="2" t="n">
         <v>802219500.7905</v>
       </c>
-      <c r="AF5" s="10" t="n">
+      <c r="AF5" s="2" t="n">
         <v>688398227.5293</v>
       </c>
-      <c r="AG5" s="10" t="n">
+      <c r="AG5" s="2" t="n">
         <v>702293992.33</v>
       </c>
-      <c r="AH5" s="10" t="n">
+      <c r="AH5" s="2" t="n">
         <v>471628803.2863</v>
       </c>
-      <c r="AI5" s="10" t="n">
+      <c r="AI5" s="2" t="n">
         <v>480834625.5086</v>
       </c>
-      <c r="AJ5" s="10" t="n">
+      <c r="AJ5" s="2" t="n">
         <v>2468354862.7565</v>
       </c>
-      <c r="AK5" s="10" t="n">
+      <c r="AK5" s="2" t="n">
         <v>948391412.6218</v>
       </c>
-      <c r="AL5" s="10" t="n">
+      <c r="AL5" s="2" t="n">
         <v>887966577.4075</v>
       </c>
-      <c r="AM5" s="10" t="n">
+      <c r="AM5" s="2" t="n">
         <v>1037386819.1783</v>
       </c>
-      <c r="AN5" s="10" t="n">
+      <c r="AN5" s="2" t="n">
         <v>1226866124.7718</v>
       </c>
-      <c r="AO5" s="10" t="n">
+      <c r="AO5" s="2" t="n">
         <v>923891605.5908</v>
       </c>
-      <c r="AP5" s="10" t="n">
+      <c r="AP5" s="2" t="n">
         <v>1557509402.7261</v>
       </c>
-      <c r="AQ5" s="10" t="n">
+      <c r="AQ5" s="2" t="n">
         <v>710078085.7718</v>
       </c>
-      <c r="AR5" s="10" t="n">
+      <c r="AR5" s="2" t="n">
         <v>390672907.4872</v>
       </c>
-      <c r="AS5" s="10" t="n">
+      <c r="AS5" s="2" t="n">
         <v>242144992.6276</v>
       </c>
-      <c r="AT5" s="10" t="n">
+      <c r="AT5" s="2" t="n">
         <v>314714626.643</v>
       </c>
-      <c r="AU5" s="10" t="n">
+      <c r="AU5" s="2" t="n">
         <v>379215965.0218</v>
       </c>
-      <c r="AV5" s="10" t="n">
+      <c r="AV5" s="2" t="n">
         <v>452727501.7329</v>
       </c>
-      <c r="AW5" s="10" t="n">
+      <c r="AW5" s="2" t="n">
         <v>276654946.0857</v>
       </c>
-      <c r="AX5" s="10"/>
+      <c r="AX5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3911,89 +4154,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10" t="n">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
         <v>2536302693.9317</v>
       </c>
-      <c r="AA6" s="10" t="n">
+      <c r="AA6" s="2" t="n">
         <v>2772643462.3202</v>
       </c>
-      <c r="AB6" s="10" t="n">
+      <c r="AB6" s="2" t="n">
         <v>3559746178.3984</v>
       </c>
-      <c r="AC6" s="10" t="n">
+      <c r="AC6" s="2" t="n">
         <v>4688023770</v>
       </c>
-      <c r="AD6" s="10" t="n">
+      <c r="AD6" s="2" t="n">
         <v>6361660629.1563</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="2" t="n">
         <v>5739866388.2315</v>
       </c>
-      <c r="AF6" s="10" t="n">
+      <c r="AF6" s="2" t="n">
         <v>5547565111.6042</v>
       </c>
-      <c r="AG6" s="10" t="n">
+      <c r="AG6" s="2" t="n">
         <v>4890509605.6403</v>
       </c>
-      <c r="AH6" s="10" t="n">
+      <c r="AH6" s="2" t="n">
         <v>5462891053.5184</v>
       </c>
-      <c r="AI6" s="10" t="n">
+      <c r="AI6" s="2" t="n">
         <v>4977599450.2267</v>
       </c>
-      <c r="AJ6" s="10" t="n">
+      <c r="AJ6" s="2" t="n">
         <v>4051556712.8982</v>
       </c>
-      <c r="AK6" s="10" t="n">
+      <c r="AK6" s="2" t="n">
         <v>4514586074.6799</v>
       </c>
-      <c r="AL6" s="10" t="n">
+      <c r="AL6" s="2" t="n">
         <v>3586333400.2535</v>
       </c>
-      <c r="AM6" s="10" t="n">
+      <c r="AM6" s="2" t="n">
         <v>3162025638.9323</v>
       </c>
-      <c r="AN6" s="10" t="n">
+      <c r="AN6" s="2" t="n">
         <v>2744176831.3742</v>
       </c>
-      <c r="AO6" s="10" t="n">
+      <c r="AO6" s="2" t="n">
         <v>2314384501.9851</v>
       </c>
-      <c r="AP6" s="10" t="n">
+      <c r="AP6" s="2" t="n">
         <v>2201886726.7506</v>
       </c>
-      <c r="AQ6" s="10" t="n">
+      <c r="AQ6" s="2" t="n">
         <v>2156847649.5284</v>
       </c>
-      <c r="AR6" s="10" t="n">
+      <c r="AR6" s="2" t="n">
         <v>3127047347.3417</v>
       </c>
-      <c r="AS6" s="10" t="n">
+      <c r="AS6" s="2" t="n">
         <v>2776422770.195</v>
       </c>
-      <c r="AT6" s="10" t="n">
+      <c r="AT6" s="2" t="n">
         <v>3228255729.4859</v>
       </c>
-      <c r="AU6" s="10" t="n">
+      <c r="AU6" s="2" t="n">
         <v>2948914311.1604</v>
       </c>
-      <c r="AV6" s="10" t="n">
+      <c r="AV6" s="2" t="n">
         <v>3028984282.4682</v>
       </c>
-      <c r="AW6" s="10" t="n">
+      <c r="AW6" s="2" t="n">
         <v>1875047497.4538</v>
       </c>
-      <c r="AX6" s="10"/>
+      <c r="AX6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4011,89 +4254,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10" t="n">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
         <v>95357103</v>
       </c>
-      <c r="AA7" s="10" t="n">
+      <c r="AA7" s="2" t="n">
         <v>96374621</v>
       </c>
-      <c r="AB7" s="10" t="n">
+      <c r="AB7" s="2" t="n">
         <v>176283335</v>
       </c>
-      <c r="AC7" s="10" t="n">
+      <c r="AC7" s="2" t="n">
         <v>176782492</v>
       </c>
-      <c r="AD7" s="10" t="n">
+      <c r="AD7" s="2" t="n">
         <v>66516179.1191</v>
       </c>
-      <c r="AE7" s="10" t="n">
+      <c r="AE7" s="2" t="n">
         <v>6858606</v>
       </c>
-      <c r="AF7" s="10" t="n">
+      <c r="AF7" s="2" t="n">
         <v>226945814.8457</v>
       </c>
-      <c r="AG7" s="10" t="n">
+      <c r="AG7" s="2" t="n">
         <v>514086994.8814</v>
       </c>
-      <c r="AH7" s="10" t="n">
+      <c r="AH7" s="2" t="n">
         <v>481931251.2321</v>
       </c>
-      <c r="AI7" s="10" t="n">
+      <c r="AI7" s="2" t="n">
         <v>1545351004.0919</v>
       </c>
-      <c r="AJ7" s="10" t="n">
+      <c r="AJ7" s="2" t="n">
         <v>1433685005.1451</v>
       </c>
-      <c r="AK7" s="10" t="n">
+      <c r="AK7" s="2" t="n">
         <v>480452140.8592</v>
       </c>
-      <c r="AL7" s="10" t="n">
+      <c r="AL7" s="2" t="n">
         <v>330762474.9628</v>
       </c>
-      <c r="AM7" s="10" t="n">
+      <c r="AM7" s="2" t="n">
         <v>420887238.0928</v>
       </c>
-      <c r="AN7" s="10" t="n">
+      <c r="AN7" s="2" t="n">
         <v>338475994.2019</v>
       </c>
-      <c r="AO7" s="10" t="n">
+      <c r="AO7" s="2" t="n">
         <v>59393159.3235</v>
       </c>
-      <c r="AP7" s="10" t="n">
+      <c r="AP7" s="2" t="n">
         <v>589184629.6477</v>
       </c>
-      <c r="AQ7" s="10" t="n">
+      <c r="AQ7" s="2" t="n">
         <v>584071145.2147</v>
       </c>
-      <c r="AR7" s="10" t="n">
+      <c r="AR7" s="2" t="n">
         <v>1159019548.9054</v>
       </c>
-      <c r="AS7" s="10" t="n">
+      <c r="AS7" s="2" t="n">
         <v>3491501168.6209</v>
       </c>
-      <c r="AT7" s="10" t="n">
+      <c r="AT7" s="2" t="n">
         <v>2856190148.1508</v>
       </c>
-      <c r="AU7" s="10" t="n">
+      <c r="AU7" s="2" t="n">
         <v>895023469.7219</v>
       </c>
-      <c r="AV7" s="10" t="n">
+      <c r="AV7" s="2" t="n">
         <v>1563100248.711</v>
       </c>
-      <c r="AW7" s="10" t="n">
+      <c r="AW7" s="2" t="n">
         <v>392447421.6659</v>
       </c>
-      <c r="AX7" s="10"/>
+      <c r="AX7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4111,73 +4354,73 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10" t="n">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
         <v>2894007</v>
       </c>
-      <c r="AA8" s="10" t="n">
+      <c r="AA8" s="2" t="n">
         <v>9715337.0996</v>
       </c>
-      <c r="AB8" s="10" t="n">
+      <c r="AB8" s="2" t="n">
         <v>22434545.75</v>
       </c>
-      <c r="AC8" s="10" t="n">
+      <c r="AC8" s="2" t="n">
         <v>36882262.9102</v>
       </c>
-      <c r="AD8" s="10" t="n">
+      <c r="AD8" s="2" t="n">
         <v>60732928.4004</v>
       </c>
-      <c r="AE8" s="10" t="n">
+      <c r="AE8" s="2" t="n">
         <v>109271193.02</v>
       </c>
-      <c r="AF8" s="10" t="n">
+      <c r="AF8" s="2" t="n">
         <v>414833532.4043</v>
       </c>
-      <c r="AG8" s="10" t="n">
+      <c r="AG8" s="2" t="n">
         <v>1166186782.8383</v>
       </c>
-      <c r="AH8" s="10" t="n">
+      <c r="AH8" s="2" t="n">
         <v>2311835416.7464</v>
       </c>
-      <c r="AI8" s="10" t="n">
+      <c r="AI8" s="2" t="n">
         <v>3259704390.5858</v>
       </c>
-      <c r="AJ8" s="10" t="n">
+      <c r="AJ8" s="2" t="n">
         <v>56338921.6228</v>
       </c>
-      <c r="AK8" s="10" t="n">
+      <c r="AK8" s="2" t="n">
         <v>7968213.2844</v>
       </c>
-      <c r="AL8" s="10" t="n">
+      <c r="AL8" s="2" t="n">
         <v>-3760244.3907</v>
       </c>
-      <c r="AM8" s="10" t="n">
+      <c r="AM8" s="2" t="n">
         <v>-1923733.15</v>
       </c>
-      <c r="AN8" s="10" t="n">
+      <c r="AN8" s="2" t="n">
         <v>-453257.22</v>
       </c>
-      <c r="AO8" s="10" t="n">
+      <c r="AO8" s="2" t="n">
         <v>-627.73</v>
       </c>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
-      <c r="AV8" s="10"/>
-      <c r="AW8" s="10"/>
-      <c r="AX8" s="10"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4193,109 +4436,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="10" t="n">
+      <c r="P9" s="2" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" s="10" t="n">
+      <c r="Q9" s="2" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="2" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" s="10" t="n">
+      <c r="S9" s="2" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" s="10" t="n">
+      <c r="T9" s="2" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" s="10" t="n">
+      <c r="U9" s="2" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" s="10" t="n">
+      <c r="V9" s="2" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" s="10" t="n">
+      <c r="W9" s="2" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" s="10" t="n">
+      <c r="X9" s="2" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" s="10" t="n">
+      <c r="Y9" s="2" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" s="10" t="n">
+      <c r="Z9" s="2" t="n">
         <v>1529947758.8696</v>
       </c>
-      <c r="AA9" s="10" t="n">
+      <c r="AA9" s="2" t="n">
         <v>975167745.3599</v>
       </c>
-      <c r="AB9" s="10" t="n">
+      <c r="AB9" s="2" t="n">
         <v>1292148348.5101</v>
       </c>
-      <c r="AC9" s="10" t="n">
+      <c r="AC9" s="2" t="n">
         <v>1514088443.6909</v>
       </c>
-      <c r="AD9" s="10" t="n">
+      <c r="AD9" s="2" t="n">
         <v>1511147160.551</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="2" t="n">
         <v>1178212388.2754</v>
       </c>
-      <c r="AF9" s="10" t="n">
+      <c r="AF9" s="2" t="n">
         <v>719308484.1156</v>
       </c>
-      <c r="AG9" s="10" t="n">
+      <c r="AG9" s="2" t="n">
         <v>30602316.1623</v>
       </c>
-      <c r="AH9" s="10" t="n">
+      <c r="AH9" s="2" t="n">
         <v>206782360.932</v>
       </c>
-      <c r="AI9" s="10" t="n">
+      <c r="AI9" s="2" t="n">
         <v>-91849558.0467</v>
       </c>
-      <c r="AJ9" s="10" t="n">
+      <c r="AJ9" s="2" t="n">
         <v>31037044.388</v>
       </c>
-      <c r="AK9" s="10" t="n">
+      <c r="AK9" s="2" t="n">
         <v>2239410.2757</v>
       </c>
-      <c r="AL9" s="10" t="n">
+      <c r="AL9" s="2" t="n">
         <v>74795267.768</v>
       </c>
-      <c r="AM9" s="10" t="n">
+      <c r="AM9" s="2" t="n">
         <v>53238528.2305</v>
       </c>
-      <c r="AN9" s="10" t="n">
+      <c r="AN9" s="2" t="n">
         <v>38848514.4392</v>
       </c>
-      <c r="AO9" s="10" t="n">
+      <c r="AO9" s="2" t="n">
         <v>23735212.7223</v>
       </c>
-      <c r="AP9" s="10" t="n">
+      <c r="AP9" s="2" t="n">
         <v>32043354.8229</v>
       </c>
-      <c r="AQ9" s="10" t="n">
+      <c r="AQ9" s="2" t="n">
         <v>29615682.1826</v>
       </c>
-      <c r="AR9" s="10" t="n">
+      <c r="AR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="10" t="n">
+      <c r="AS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="10" t="n">
+      <c r="AT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="10" t="n">
+      <c r="AU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="10" t="n">
+      <c r="AV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="10" t="n">
+      <c r="AW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="10"/>
+      <c r="AX9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4310,107 +4553,107 @@
       <c r="O10" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="2" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="2" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="2" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="2" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="2" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="2" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="2" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="2" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="2" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="2" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="2" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="2" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="10" t="str">
+      <c r="AB10" s="2" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="10" t="str">
+      <c r="AC10" s="2" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="10" t="str">
+      <c r="AD10" s="2" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="10" t="str">
+      <c r="AE10" s="2" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="10" t="str">
+      <c r="AF10" s="2" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="10" t="str">
+      <c r="AG10" s="2" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="10" t="str">
+      <c r="AH10" s="2" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="10" t="str">
+      <c r="AI10" s="2" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="10" t="str">
+      <c r="AJ10" s="2" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="10" t="str">
+      <c r="AK10" s="2" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="10" t="str">
+      <c r="AL10" s="2" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="10" t="str">
+      <c r="AM10" s="2" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="10" t="str">
+      <c r="AN10" s="2" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="10" t="str">
+      <c r="AO10" s="2" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="10" t="str">
+      <c r="AP10" s="2" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="10" t="str">
+      <c r="AQ10" s="2" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="10" t="str">
+      <c r="AR10" s="2" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="10" t="str">
+      <c r="AS10" s="2" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="10" t="str">
+      <c r="AT10" s="2" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="10" t="str">
+      <c r="AU10" s="2" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="10" t="str">
+      <c r="AV10" s="2" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4547,89 +4790,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10" t="n">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
         <v>24794802109.6217</v>
       </c>
-      <c r="AA14" s="10" t="n">
+      <c r="AA14" s="2" t="n">
         <v>27656321730.6139</v>
       </c>
-      <c r="AB14" s="10" t="n">
+      <c r="AB14" s="2" t="n">
         <v>29416595050.0298</v>
       </c>
-      <c r="AC14" s="10" t="n">
+      <c r="AC14" s="2" t="n">
         <v>38823914824.7272</v>
       </c>
-      <c r="AD14" s="10" t="n">
+      <c r="AD14" s="2" t="n">
         <v>37305286595.1829</v>
       </c>
-      <c r="AE14" s="10" t="n">
+      <c r="AE14" s="2" t="n">
         <v>42706204409.7459</v>
       </c>
-      <c r="AF14" s="10" t="n">
+      <c r="AF14" s="2" t="n">
         <v>49644422760.0888</v>
       </c>
-      <c r="AG14" s="10" t="n">
+      <c r="AG14" s="2" t="n">
         <v>50314793331.7391</v>
       </c>
-      <c r="AH14" s="10" t="n">
+      <c r="AH14" s="2" t="n">
         <v>62775158038.9152</v>
       </c>
-      <c r="AI14" s="10" t="n">
+      <c r="AI14" s="2" t="n">
         <v>71747252573.606</v>
       </c>
-      <c r="AJ14" s="10" t="n">
+      <c r="AJ14" s="2" t="n">
         <v>66413879259.6234</v>
       </c>
-      <c r="AK14" s="10" t="n">
+      <c r="AK14" s="2" t="n">
         <v>59477803295.7213</v>
       </c>
-      <c r="AL14" s="10" t="n">
+      <c r="AL14" s="2" t="n">
         <v>53387335400.8345</v>
       </c>
-      <c r="AM14" s="10" t="n">
+      <c r="AM14" s="2" t="n">
         <v>41345247425.6617</v>
       </c>
-      <c r="AN14" s="10" t="n">
+      <c r="AN14" s="2" t="n">
         <v>44632911474.2604</v>
       </c>
-      <c r="AO14" s="10" t="n">
+      <c r="AO14" s="2" t="n">
         <v>40554914853.76</v>
       </c>
-      <c r="AP14" s="10" t="n">
+      <c r="AP14" s="2" t="n">
         <v>39534777975.1933</v>
       </c>
-      <c r="AQ14" s="10" t="n">
+      <c r="AQ14" s="2" t="n">
         <v>39812138687.3045</v>
       </c>
-      <c r="AR14" s="10" t="n">
+      <c r="AR14" s="2" t="n">
         <v>46260210624.9227</v>
       </c>
-      <c r="AS14" s="10" t="n">
+      <c r="AS14" s="2" t="n">
         <v>49523951703.9999</v>
       </c>
-      <c r="AT14" s="10" t="n">
+      <c r="AT14" s="2" t="n">
         <v>57686609087.4092</v>
       </c>
-      <c r="AU14" s="10" t="n">
+      <c r="AU14" s="2" t="n">
         <v>48282394030.3806</v>
       </c>
-      <c r="AV14" s="10" t="n">
+      <c r="AV14" s="2" t="n">
         <v>49582250214.1208</v>
       </c>
-      <c r="AW14" s="10" t="n">
+      <c r="AW14" s="2" t="n">
         <v>18187111653.2242</v>
       </c>
-      <c r="AX14" s="10"/>
+      <c r="AX14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4647,89 +4890,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10" t="n">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
         <v>994323602.647581</v>
       </c>
-      <c r="AA15" s="10" t="n">
+      <c r="AA15" s="2" t="n">
         <v>1176732768.09088</v>
       </c>
-      <c r="AB15" s="10" t="n">
+      <c r="AB15" s="2" t="n">
         <v>1185230628.01409</v>
       </c>
-      <c r="AC15" s="10" t="n">
+      <c r="AC15" s="2" t="n">
         <v>1660907004.38539</v>
       </c>
-      <c r="AD15" s="10" t="n">
+      <c r="AD15" s="2" t="n">
         <v>1419540923.24659</v>
       </c>
-      <c r="AE15" s="10" t="n">
+      <c r="AE15" s="2" t="n">
         <v>2114278333.75331</v>
       </c>
-      <c r="AF15" s="10" t="n">
+      <c r="AF15" s="2" t="n">
         <v>2447229454.49751</v>
       </c>
-      <c r="AG15" s="10" t="n">
+      <c r="AG15" s="2" t="n">
         <v>1686965743.22835</v>
       </c>
-      <c r="AH15" s="10" t="n">
+      <c r="AH15" s="2" t="n">
         <v>938333656.737489</v>
       </c>
-      <c r="AI15" s="10" t="n">
+      <c r="AI15" s="2" t="n">
         <v>901489584.62898</v>
       </c>
-      <c r="AJ15" s="10" t="n">
+      <c r="AJ15" s="2" t="n">
         <v>1913999879.73855</v>
       </c>
-      <c r="AK15" s="10" t="n">
+      <c r="AK15" s="2" t="n">
         <v>2044281069.28704</v>
       </c>
-      <c r="AL15" s="10" t="n">
+      <c r="AL15" s="2" t="n">
         <v>1507812969.73168</v>
       </c>
-      <c r="AM15" s="10" t="n">
+      <c r="AM15" s="2" t="n">
         <v>1303214529.43264</v>
       </c>
-      <c r="AN15" s="10" t="n">
+      <c r="AN15" s="2" t="n">
         <v>1101107070.02697</v>
       </c>
-      <c r="AO15" s="10" t="n">
+      <c r="AO15" s="2" t="n">
         <v>995180115.182206</v>
       </c>
-      <c r="AP15" s="10" t="n">
+      <c r="AP15" s="2" t="n">
         <v>1049486366.83366</v>
       </c>
-      <c r="AQ15" s="10" t="n">
+      <c r="AQ15" s="2" t="n">
         <v>988515948.41859</v>
       </c>
-      <c r="AR15" s="10" t="n">
+      <c r="AR15" s="2" t="n">
         <v>1054975582.32168</v>
       </c>
-      <c r="AS15" s="10" t="n">
+      <c r="AS15" s="2" t="n">
         <v>1302193100.76804</v>
       </c>
-      <c r="AT15" s="10" t="n">
+      <c r="AT15" s="2" t="n">
         <v>1671100976.83406</v>
       </c>
-      <c r="AU15" s="10" t="n">
+      <c r="AU15" s="2" t="n">
         <v>1744472009.95484</v>
       </c>
-      <c r="AV15" s="10" t="n">
+      <c r="AV15" s="2" t="n">
         <v>2555479023.9104</v>
       </c>
-      <c r="AW15" s="10" t="n">
+      <c r="AW15" s="2" t="n">
         <v>1343992610.50905</v>
       </c>
-      <c r="AX15" s="10"/>
+      <c r="AX15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4747,89 +4990,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10" t="n">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
         <v>571331613.776471</v>
       </c>
-      <c r="AA16" s="10" t="n">
+      <c r="AA16" s="2" t="n">
         <v>791322758.24629</v>
       </c>
-      <c r="AB16" s="10" t="n">
+      <c r="AB16" s="2" t="n">
         <v>817553235.634068</v>
       </c>
-      <c r="AC16" s="10" t="n">
+      <c r="AC16" s="2" t="n">
         <v>1216326903.13785</v>
       </c>
-      <c r="AD16" s="10" t="n">
+      <c r="AD16" s="2" t="n">
         <v>1355626655.52679</v>
       </c>
-      <c r="AE16" s="10" t="n">
+      <c r="AE16" s="2" t="n">
         <v>975972633.766674</v>
       </c>
-      <c r="AF16" s="10" t="n">
+      <c r="AF16" s="2" t="n">
         <v>970931926.932637</v>
       </c>
-      <c r="AG16" s="10" t="n">
+      <c r="AG16" s="2" t="n">
         <v>925036357.199403</v>
       </c>
-      <c r="AH16" s="10" t="n">
+      <c r="AH16" s="2" t="n">
         <v>745812980.019796</v>
       </c>
-      <c r="AI16" s="10" t="n">
+      <c r="AI16" s="2" t="n">
         <v>1503235527.46109</v>
       </c>
-      <c r="AJ16" s="10" t="n">
+      <c r="AJ16" s="2" t="n">
         <v>1268779177.85468</v>
       </c>
-      <c r="AK16" s="10" t="n">
+      <c r="AK16" s="2" t="n">
         <v>836335631.598407</v>
       </c>
-      <c r="AL16" s="10" t="n">
+      <c r="AL16" s="2" t="n">
         <v>684767578.61378</v>
       </c>
-      <c r="AM16" s="10" t="n">
+      <c r="AM16" s="2" t="n">
         <v>102108238.008056</v>
       </c>
-      <c r="AN16" s="10" t="n">
+      <c r="AN16" s="2" t="n">
         <v>204276063.490922</v>
       </c>
-      <c r="AO16" s="10" t="n">
+      <c r="AO16" s="2" t="n">
         <v>198339087.581003</v>
       </c>
-      <c r="AP16" s="10" t="n">
+      <c r="AP16" s="2" t="n">
         <v>76933887.1399113</v>
       </c>
-      <c r="AQ16" s="10" t="n">
+      <c r="AQ16" s="2" t="n">
         <v>57728509.1851916</v>
       </c>
-      <c r="AR16" s="10" t="n">
+      <c r="AR16" s="2" t="n">
         <v>958952266.677594</v>
       </c>
-      <c r="AS16" s="10" t="n">
+      <c r="AS16" s="2" t="n">
         <v>185538046.165586</v>
       </c>
-      <c r="AT16" s="10" t="n">
+      <c r="AT16" s="2" t="n">
         <v>75762788.3612704</v>
       </c>
-      <c r="AU16" s="10" t="n">
+      <c r="AU16" s="2" t="n">
         <v>157188328.413028</v>
       </c>
-      <c r="AV16" s="10" t="n">
+      <c r="AV16" s="2" t="n">
         <v>104834400.2884</v>
       </c>
-      <c r="AW16" s="10" t="n">
+      <c r="AW16" s="2" t="n">
         <v>39105592.2183306</v>
       </c>
-      <c r="AX16" s="10"/>
+      <c r="AX16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -4847,89 +5090,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10" t="n">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
         <v>517903982.236535</v>
       </c>
-      <c r="AA17" s="10" t="n">
+      <c r="AA17" s="2" t="n">
         <v>682713864.160112</v>
       </c>
-      <c r="AB17" s="10" t="n">
+      <c r="AB17" s="2" t="n">
         <v>1211776235.63059</v>
       </c>
-      <c r="AC17" s="10" t="n">
+      <c r="AC17" s="2" t="n">
         <v>1013711431.81935</v>
       </c>
-      <c r="AD17" s="10" t="n">
+      <c r="AD17" s="2" t="n">
         <v>1126368970.69138</v>
       </c>
-      <c r="AE17" s="10" t="n">
+      <c r="AE17" s="2" t="n">
         <v>1158127957.66574</v>
       </c>
-      <c r="AF17" s="10" t="n">
+      <c r="AF17" s="2" t="n">
         <v>962473506.697572</v>
       </c>
-      <c r="AG17" s="10" t="n">
+      <c r="AG17" s="2" t="n">
         <v>955693564.373886</v>
       </c>
-      <c r="AH17" s="10" t="n">
+      <c r="AH17" s="2" t="n">
         <v>628688633.146036</v>
       </c>
-      <c r="AI17" s="10" t="n">
+      <c r="AI17" s="2" t="n">
         <v>634512254.296869</v>
       </c>
-      <c r="AJ17" s="10" t="n">
+      <c r="AJ17" s="2" t="n">
         <v>3229170244.59621</v>
       </c>
-      <c r="AK17" s="10" t="n">
+      <c r="AK17" s="2" t="n">
         <v>1216200921.96354</v>
       </c>
-      <c r="AL17" s="10" t="n">
+      <c r="AL17" s="2" t="n">
         <v>1118216310.71591</v>
       </c>
-      <c r="AM17" s="10" t="n">
+      <c r="AM17" s="2" t="n">
         <v>1282904076.21571</v>
       </c>
-      <c r="AN17" s="10" t="n">
+      <c r="AN17" s="2" t="n">
         <v>1488432091.75832</v>
       </c>
-      <c r="AO17" s="10" t="n">
+      <c r="AO17" s="2" t="n">
         <v>1108159538.56744</v>
       </c>
-      <c r="AP17" s="10" t="n">
+      <c r="AP17" s="2" t="n">
         <v>1852797649.65906</v>
       </c>
-      <c r="AQ17" s="10" t="n">
+      <c r="AQ17" s="2" t="n">
         <v>829885228.638894</v>
       </c>
-      <c r="AR17" s="10" t="n">
+      <c r="AR17" s="2" t="n">
         <v>446113884.972713</v>
       </c>
-      <c r="AS17" s="10" t="n">
+      <c r="AS17" s="2" t="n">
         <v>271196361.854524</v>
       </c>
-      <c r="AT17" s="10" t="n">
+      <c r="AT17" s="2" t="n">
         <v>347832306.080228</v>
       </c>
-      <c r="AU17" s="10" t="n">
+      <c r="AU17" s="2" t="n">
         <v>405490927.195056</v>
       </c>
-      <c r="AV17" s="10" t="n">
+      <c r="AV17" s="2" t="n">
         <v>452727501.7329</v>
       </c>
-      <c r="AW17" s="10" t="n">
+      <c r="AW17" s="2" t="n">
         <v>263873039.239306</v>
       </c>
-      <c r="AX17" s="10"/>
+      <c r="AX17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -4947,89 +5190,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10" t="n">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
         <v>4097980477.89595</v>
       </c>
-      <c r="AA18" s="10" t="n">
+      <c r="AA18" s="2" t="n">
         <v>4373781678.62807</v>
       </c>
-      <c r="AB18" s="10" t="n">
+      <c r="AB18" s="2" t="n">
         <v>5528164215.61224</v>
       </c>
-      <c r="AC18" s="10" t="n">
+      <c r="AC18" s="2" t="n">
         <v>7143790339.277</v>
       </c>
-      <c r="AD18" s="10" t="n">
+      <c r="AD18" s="2" t="n">
         <v>9462838681.98369</v>
       </c>
-      <c r="AE18" s="10" t="n">
+      <c r="AE18" s="2" t="n">
         <v>8286385123.92981</v>
       </c>
-      <c r="AF18" s="10" t="n">
+      <c r="AF18" s="2" t="n">
         <v>7756243745.37127</v>
       </c>
-      <c r="AG18" s="10" t="n">
+      <c r="AG18" s="2" t="n">
         <v>6655088335.74491</v>
       </c>
-      <c r="AH18" s="10" t="n">
+      <c r="AH18" s="2" t="n">
         <v>7282119933.1571</v>
       </c>
-      <c r="AI18" s="10" t="n">
+      <c r="AI18" s="2" t="n">
         <v>6568470073.90426</v>
       </c>
-      <c r="AJ18" s="10" t="n">
+      <c r="AJ18" s="2" t="n">
         <v>5300358785.11182</v>
       </c>
-      <c r="AK18" s="10" t="n">
+      <c r="AK18" s="2" t="n">
         <v>5789427944.23952</v>
       </c>
-      <c r="AL18" s="10" t="n">
+      <c r="AL18" s="2" t="n">
         <v>4516269650.07753</v>
       </c>
-      <c r="AM18" s="10" t="n">
+      <c r="AM18" s="2" t="n">
         <v>3910378950.54229</v>
       </c>
-      <c r="AN18" s="10" t="n">
+      <c r="AN18" s="2" t="n">
         <v>3329231102.56774</v>
       </c>
-      <c r="AO18" s="10" t="n">
+      <c r="AO18" s="2" t="n">
         <v>2775982860.18345</v>
       </c>
-      <c r="AP18" s="10" t="n">
+      <c r="AP18" s="2" t="n">
         <v>2619342486.79232</v>
       </c>
-      <c r="AQ18" s="10" t="n">
+      <c r="AQ18" s="2" t="n">
         <v>2520759393.41603</v>
       </c>
-      <c r="AR18" s="10" t="n">
+      <c r="AR18" s="2" t="n">
         <v>3570811320.36761</v>
       </c>
-      <c r="AS18" s="10" t="n">
+      <c r="AS18" s="2" t="n">
         <v>3109524364.20988</v>
       </c>
-      <c r="AT18" s="10" t="n">
+      <c r="AT18" s="2" t="n">
         <v>3567967739.47705</v>
       </c>
-      <c r="AU18" s="10" t="n">
+      <c r="AU18" s="2" t="n">
         <v>3153237491.41854</v>
       </c>
-      <c r="AV18" s="10" t="n">
+      <c r="AV18" s="2" t="n">
         <v>3028984282.4682</v>
       </c>
-      <c r="AW18" s="10" t="n">
+      <c r="AW18" s="2" t="n">
         <v>1788417264.43569</v>
       </c>
-      <c r="AX18" s="10"/>
+      <c r="AX18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5047,89 +5290,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10" t="n">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
         <v>154071336.776034</v>
       </c>
-      <c r="AA19" s="10" t="n">
+      <c r="AA19" s="2" t="n">
         <v>152028761.484459</v>
       </c>
-      <c r="AB19" s="10" t="n">
+      <c r="AB19" s="2" t="n">
         <v>273761997.490013</v>
       </c>
-      <c r="AC19" s="10" t="n">
+      <c r="AC19" s="2" t="n">
         <v>269387938.385584</v>
       </c>
-      <c r="AD19" s="10" t="n">
+      <c r="AD19" s="2" t="n">
         <v>98941441.4628169</v>
       </c>
-      <c r="AE19" s="10" t="n">
+      <c r="AE19" s="2" t="n">
         <v>9901458.82939385</v>
       </c>
-      <c r="AF19" s="10" t="n">
+      <c r="AF19" s="2" t="n">
         <v>317300837.668967</v>
       </c>
-      <c r="AG19" s="10" t="n">
+      <c r="AG19" s="2" t="n">
         <v>699578293.282059</v>
       </c>
-      <c r="AH19" s="10" t="n">
+      <c r="AH19" s="2" t="n">
         <v>642421958.744412</v>
       </c>
-      <c r="AI19" s="10" t="n">
+      <c r="AI19" s="2" t="n">
         <v>2039254448.96801</v>
       </c>
-      <c r="AJ19" s="10" t="n">
+      <c r="AJ19" s="2" t="n">
         <v>1875586459.86917</v>
       </c>
-      <c r="AK19" s="10" t="n">
+      <c r="AK19" s="2" t="n">
         <v>616123605.608112</v>
       </c>
-      <c r="AL19" s="10" t="n">
+      <c r="AL19" s="2" t="n">
         <v>416529184.64118</v>
       </c>
-      <c r="AM19" s="10" t="n">
+      <c r="AM19" s="2" t="n">
         <v>520498181.96468</v>
       </c>
-      <c r="AN19" s="10" t="n">
+      <c r="AN19" s="2" t="n">
         <v>410638554.515164</v>
       </c>
-      <c r="AO19" s="10" t="n">
+      <c r="AO19" s="2" t="n">
         <v>71238980.4515043</v>
       </c>
-      <c r="AP19" s="10" t="n">
+      <c r="AP19" s="2" t="n">
         <v>700888158.43796</v>
       </c>
-      <c r="AQ19" s="10" t="n">
+      <c r="AQ19" s="2" t="n">
         <v>682617905.833606</v>
       </c>
-      <c r="AR19" s="10" t="n">
+      <c r="AR19" s="2" t="n">
         <v>1323497749.17128</v>
       </c>
-      <c r="AS19" s="10" t="n">
+      <c r="AS19" s="2" t="n">
         <v>3910394363.58297</v>
       </c>
-      <c r="AT19" s="10" t="n">
+      <c r="AT19" s="2" t="n">
         <v>3156749390.49427</v>
       </c>
-      <c r="AU19" s="10" t="n">
+      <c r="AU19" s="2" t="n">
         <v>957037493.339728</v>
       </c>
-      <c r="AV19" s="10" t="n">
+      <c r="AV19" s="2" t="n">
         <v>1563100248.711</v>
       </c>
-      <c r="AW19" s="10" t="n">
+      <c r="AW19" s="2" t="n">
         <v>374315714.798505</v>
       </c>
-      <c r="AX19" s="10"/>
+      <c r="AX19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5147,73 +5390,73 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10" t="n">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
         <v>4675934.07414233</v>
       </c>
-      <c r="AA20" s="10" t="n">
+      <c r="AA20" s="2" t="n">
         <v>15325722.1800769</v>
       </c>
-      <c r="AB20" s="10" t="n">
+      <c r="AB20" s="2" t="n">
         <v>34840083.1950512</v>
       </c>
-      <c r="AC20" s="10" t="n">
+      <c r="AC20" s="2" t="n">
         <v>56202606.1289704</v>
       </c>
-      <c r="AD20" s="10" t="n">
+      <c r="AD20" s="2" t="n">
         <v>90338975.5661439</v>
       </c>
-      <c r="AE20" s="10" t="n">
+      <c r="AE20" s="2" t="n">
         <v>157749872.047801</v>
       </c>
-      <c r="AF20" s="10" t="n">
+      <c r="AF20" s="2" t="n">
         <v>579993190.949804</v>
       </c>
-      <c r="AG20" s="10" t="n">
+      <c r="AG20" s="2" t="n">
         <v>1586966733.85859</v>
       </c>
-      <c r="AH20" s="10" t="n">
+      <c r="AH20" s="2" t="n">
         <v>3081713071.98682</v>
       </c>
-      <c r="AI20" s="10" t="n">
+      <c r="AI20" s="2" t="n">
         <v>4301525454.87805</v>
       </c>
-      <c r="AJ20" s="10" t="n">
+      <c r="AJ20" s="2" t="n">
         <v>73704138.7614009</v>
       </c>
-      <c r="AK20" s="10" t="n">
+      <c r="AK20" s="2" t="n">
         <v>10218300.3915009</v>
       </c>
-      <c r="AL20" s="10" t="n">
+      <c r="AL20" s="2" t="n">
         <v>-4735275.76030502</v>
       </c>
-      <c r="AM20" s="10" t="n">
+      <c r="AM20" s="2" t="n">
         <v>-2379021.06915253</v>
       </c>
-      <c r="AN20" s="10" t="n">
+      <c r="AN20" s="2" t="n">
         <v>-549890.960755517</v>
       </c>
-      <c r="AO20" s="10" t="n">
+      <c r="AO20" s="2" t="n">
         <v>-752.929221280353</v>
       </c>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5229,109 +5472,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="2" t="n">
         <v>24214566738.8981</v>
       </c>
-      <c r="Q21" s="10" t="n">
+      <c r="Q21" s="2" t="n">
         <v>35489211630.4335</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="2" t="n">
         <v>33060305718.1975</v>
       </c>
-      <c r="S21" s="10" t="n">
+      <c r="S21" s="2" t="n">
         <v>31423990993.4659</v>
       </c>
-      <c r="T21" s="10" t="n">
+      <c r="T21" s="2" t="n">
         <v>36401261590.1566</v>
       </c>
-      <c r="U21" s="10" t="n">
+      <c r="U21" s="2" t="n">
         <v>35305115235.9255</v>
       </c>
-      <c r="V21" s="10" t="n">
+      <c r="V21" s="2" t="n">
         <v>34903150795.6185</v>
       </c>
-      <c r="W21" s="10" t="n">
+      <c r="W21" s="2" t="n">
         <v>34202156353.7648</v>
       </c>
-      <c r="X21" s="10" t="n">
+      <c r="X21" s="2" t="n">
         <v>32671693107.2574</v>
       </c>
-      <c r="Y21" s="10" t="n">
+      <c r="Y21" s="2" t="n">
         <v>33985149527.8471</v>
       </c>
-      <c r="Z21" s="10" t="n">
+      <c r="Z21" s="2" t="n">
         <v>2471982568.58261</v>
       </c>
-      <c r="AA21" s="10" t="n">
+      <c r="AA21" s="2" t="n">
         <v>1538304825.77626</v>
       </c>
-      <c r="AB21" s="10" t="n">
+      <c r="AB21" s="2" t="n">
         <v>2006662245.98908</v>
       </c>
-      <c r="AC21" s="10" t="n">
+      <c r="AC21" s="2" t="n">
         <v>2307226014.09719</v>
       </c>
-      <c r="AD21" s="10" t="n">
+      <c r="AD21" s="2" t="n">
         <v>2247800163.92171</v>
       </c>
-      <c r="AE21" s="10" t="n">
+      <c r="AE21" s="2" t="n">
         <v>1700931859.15486</v>
       </c>
-      <c r="AF21" s="10" t="n">
+      <c r="AF21" s="2" t="n">
         <v>1005690211.59281</v>
       </c>
-      <c r="AG21" s="10" t="n">
+      <c r="AG21" s="2" t="n">
         <v>41644150.3567676</v>
       </c>
-      <c r="AH21" s="10" t="n">
+      <c r="AH21" s="2" t="n">
         <v>275644148.42181</v>
       </c>
-      <c r="AI21" s="10" t="n">
+      <c r="AI21" s="2" t="n">
         <v>-121205227.412102</v>
       </c>
-      <c r="AJ21" s="10" t="n">
+      <c r="AJ21" s="2" t="n">
         <v>40603521.6938045</v>
       </c>
-      <c r="AK21" s="10" t="n">
+      <c r="AK21" s="2" t="n">
         <v>2871781.42454045</v>
       </c>
-      <c r="AL21" s="10" t="n">
+      <c r="AL21" s="2" t="n">
         <v>94189680.682271</v>
       </c>
-      <c r="AM21" s="10" t="n">
+      <c r="AM21" s="2" t="n">
         <v>65838435.2065831</v>
       </c>
-      <c r="AN21" s="10" t="n">
+      <c r="AN21" s="2" t="n">
         <v>47130957.8452964</v>
       </c>
-      <c r="AO21" s="10" t="n">
+      <c r="AO21" s="2" t="n">
         <v>28469143.1537841</v>
       </c>
-      <c r="AP21" s="10" t="n">
+      <c r="AP21" s="2" t="n">
         <v>38118455.2716958</v>
       </c>
-      <c r="AQ21" s="10" t="n">
+      <c r="AQ21" s="2" t="n">
         <v>34612555.5370292</v>
       </c>
-      <c r="AR21" s="10" t="n">
+      <c r="AR21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="10" t="n">
+      <c r="AS21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="10" t="n">
+      <c r="AT21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="10" t="n">
+      <c r="AU21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="10" t="n">
+      <c r="AV21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="10" t="n">
+      <c r="AW21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="10"/>
+      <c r="AX21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5340,41 +5583,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="10"/>
-      <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -15,12 +15,13 @@
     <sheet name="PSC" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="AllProj" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="AllPSC" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="vend" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -622,6 +623,24 @@
   <si>
     <t xml:space="preserve"/>
   </si>
+  <si>
+    <t xml:space="preserve">Shiny.VendorSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Five</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlabeled</t>
+  </si>
 </sst>
 </file>
 
@@ -630,14 +649,14 @@
   <numFmts count="10">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="190" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -677,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -685,7 +704,7 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2033,6 +2052,1492 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>K1</f>
+      </c>
+      <c r="K1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>K2</f>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>46727000</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>81349000</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>115467464</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>128536356</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>211247118</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>356021950</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>353586048</v>
+      </c>
+      <c r="S2" s="11" t="n">
+        <v>665351505</v>
+      </c>
+      <c r="T2" s="11" t="n">
+        <v>632548326</v>
+      </c>
+      <c r="U2" s="11" t="n">
+        <v>630822504</v>
+      </c>
+      <c r="V2" s="11" t="n">
+        <v>506179131.9317</v>
+      </c>
+      <c r="W2" s="11" t="n">
+        <v>500262704.3202</v>
+      </c>
+      <c r="X2" s="11" t="n">
+        <v>522250150.3984</v>
+      </c>
+      <c r="Y2" s="11" t="n">
+        <v>623095935.9995</v>
+      </c>
+      <c r="Z2" s="11" t="n">
+        <v>655648078.2852</v>
+      </c>
+      <c r="AA2" s="11" t="n">
+        <v>579374427.3102</v>
+      </c>
+      <c r="AB2" s="11" t="n">
+        <v>616117663.2708</v>
+      </c>
+      <c r="AC2" s="11" t="n">
+        <v>578266956.2312</v>
+      </c>
+      <c r="AD2" s="11" t="n">
+        <v>610906194.6321</v>
+      </c>
+      <c r="AE2" s="11" t="n">
+        <v>883378465.5746</v>
+      </c>
+      <c r="AF2" s="11" t="n">
+        <v>807941093.0421</v>
+      </c>
+      <c r="AG2" s="11" t="n">
+        <v>840495827.5095</v>
+      </c>
+      <c r="AH2" s="11" t="n">
+        <v>705214520.3465</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>739713927.7513</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>454966542.1088</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>259622282.0238</v>
+      </c>
+      <c r="AL2" s="11" t="n">
+        <v>285927376.6513</v>
+      </c>
+      <c r="AM2" s="11" t="n">
+        <v>604204837.44</v>
+      </c>
+      <c r="AN2" s="11" t="n">
+        <v>256043323.4286</v>
+      </c>
+      <c r="AO2" s="11" t="n">
+        <v>182311459.5524</v>
+      </c>
+      <c r="AP2" s="11" t="n">
+        <v>193408513.3304</v>
+      </c>
+      <c r="AQ2" s="11" t="n">
+        <v>351617879.4067</v>
+      </c>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>K3</f>
+      </c>
+      <c r="K3" t="s">
+        <v>197</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>1231829000</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>1832142802</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>1984427794</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>1660100834</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>2506094117</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>2188986725</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>2805379185</v>
+      </c>
+      <c r="S3" s="11" t="n">
+        <v>2521406653</v>
+      </c>
+      <c r="T3" s="11" t="n">
+        <v>2495042033</v>
+      </c>
+      <c r="U3" s="11" t="n">
+        <v>2938866215</v>
+      </c>
+      <c r="V3" s="11" t="n">
+        <v>2931455787.9492</v>
+      </c>
+      <c r="W3" s="11" t="n">
+        <v>3423908728.4207</v>
+      </c>
+      <c r="X3" s="11" t="n">
+        <v>3786225397.0495</v>
+      </c>
+      <c r="Y3" s="11" t="n">
+        <v>7889753293.6993</v>
+      </c>
+      <c r="Z3" s="11" t="n">
+        <v>8198902022.2418</v>
+      </c>
+      <c r="AA3" s="11" t="n">
+        <v>7601266044.8299</v>
+      </c>
+      <c r="AB3" s="11" t="n">
+        <v>8407598614.4567</v>
+      </c>
+      <c r="AC3" s="11" t="n">
+        <v>8578619999.6755</v>
+      </c>
+      <c r="AD3" s="11" t="n">
+        <v>12383044743.1505</v>
+      </c>
+      <c r="AE3" s="11" t="n">
+        <v>14414004247.5419</v>
+      </c>
+      <c r="AF3" s="11" t="n">
+        <v>12836478090.2288</v>
+      </c>
+      <c r="AG3" s="11" t="n">
+        <v>10051679005.249</v>
+      </c>
+      <c r="AH3" s="11" t="n">
+        <v>10080825392.8427</v>
+      </c>
+      <c r="AI3" s="11" t="n">
+        <v>8510137178.7186</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>7396355548.4384</v>
+      </c>
+      <c r="AK3" s="11" t="n">
+        <v>6535944178.6722</v>
+      </c>
+      <c r="AL3" s="11" t="n">
+        <v>5885036086.0759</v>
+      </c>
+      <c r="AM3" s="11" t="n">
+        <v>5355093144.2318</v>
+      </c>
+      <c r="AN3" s="11" t="n">
+        <v>7233758821.4713</v>
+      </c>
+      <c r="AO3" s="11" t="n">
+        <v>10163794536.2239</v>
+      </c>
+      <c r="AP3" s="11" t="n">
+        <v>10495937200.2828</v>
+      </c>
+      <c r="AQ3" s="11" t="n">
+        <v>7990936738.371</v>
+      </c>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>K4</f>
+      </c>
+      <c r="K4" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>4858708086</v>
+      </c>
+      <c r="M4" s="11" t="n">
+        <v>8646896970</v>
+      </c>
+      <c r="N4" s="11" t="n">
+        <v>8493017559</v>
+      </c>
+      <c r="O4" s="11" t="n">
+        <v>8474154796</v>
+      </c>
+      <c r="P4" s="11" t="n">
+        <v>10032329172</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <v>9950474726</v>
+      </c>
+      <c r="R4" s="11" t="n">
+        <v>9478060532</v>
+      </c>
+      <c r="S4" s="11" t="n">
+        <v>9971358009</v>
+      </c>
+      <c r="T4" s="11" t="n">
+        <v>9591547705</v>
+      </c>
+      <c r="U4" s="11" t="n">
+        <v>10427444732</v>
+      </c>
+      <c r="V4" s="11" t="n">
+        <v>10615644292.7524</v>
+      </c>
+      <c r="W4" s="11" t="n">
+        <v>11447502453.7896</v>
+      </c>
+      <c r="X4" s="11" t="n">
+        <v>12936646727.7969</v>
+      </c>
+      <c r="Y4" s="11" t="n">
+        <v>14438364859.77</v>
+      </c>
+      <c r="Z4" s="11" t="n">
+        <v>15682724618.93</v>
+      </c>
+      <c r="AA4" s="11" t="n">
+        <v>17023354691.7014</v>
+      </c>
+      <c r="AB4" s="11" t="n">
+        <v>21028329414.2771</v>
+      </c>
+      <c r="AC4" s="11" t="n">
+        <v>20345384782.0541</v>
+      </c>
+      <c r="AD4" s="11" t="n">
+        <v>24994650176.1541</v>
+      </c>
+      <c r="AE4" s="11" t="n">
+        <v>27309992189.0019</v>
+      </c>
+      <c r="AF4" s="11" t="n">
+        <v>24693393319.916</v>
+      </c>
+      <c r="AG4" s="11" t="n">
+        <v>23429069205.5709</v>
+      </c>
+      <c r="AH4" s="11" t="n">
+        <v>18262238749.0194</v>
+      </c>
+      <c r="AI4" s="11" t="n">
+        <v>15329320328.0604</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>16603152556.986</v>
+      </c>
+      <c r="AK4" s="11" t="n">
+        <v>15729526157.4323</v>
+      </c>
+      <c r="AL4" s="11" t="n">
+        <v>15651726188.8128</v>
+      </c>
+      <c r="AM4" s="11" t="n">
+        <v>16500408009.496</v>
+      </c>
+      <c r="AN4" s="11" t="n">
+        <v>19617604115.3124</v>
+      </c>
+      <c r="AO4" s="11" t="n">
+        <v>22403135622.6163</v>
+      </c>
+      <c r="AP4" s="11" t="n">
+        <v>28408197582.7885</v>
+      </c>
+      <c r="AQ4" s="11" t="n">
+        <v>22472070379.5338</v>
+      </c>
+      <c r="AR4" s="11" t="n">
+        <v>34901197177.7637</v>
+      </c>
+      <c r="AS4" s="11" t="n">
+        <v>15629938833.7564</v>
+      </c>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>K5</f>
+      </c>
+      <c r="K5" t="s">
+        <v>199</v>
+      </c>
+      <c r="L5" s="11" t="n">
+        <v>4830006450</v>
+      </c>
+      <c r="M5" s="11" t="n">
+        <v>6944815008</v>
+      </c>
+      <c r="N5" s="11" t="n">
+        <v>6445249440</v>
+      </c>
+      <c r="O5" s="11" t="n">
+        <v>6375202911</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>7141346256</v>
+      </c>
+      <c r="Q5" s="11" t="n">
+        <v>7157611248</v>
+      </c>
+      <c r="R5" s="11" t="n">
+        <v>7107632340</v>
+      </c>
+      <c r="S5" s="11" t="n">
+        <v>6467804795</v>
+      </c>
+      <c r="T5" s="11" t="n">
+        <v>6435175233</v>
+      </c>
+      <c r="U5" s="11" t="n">
+        <v>6554741021</v>
+      </c>
+      <c r="V5" s="11" t="n">
+        <v>6745194577.4411</v>
+      </c>
+      <c r="W5" s="11" t="n">
+        <v>7693282433.6292</v>
+      </c>
+      <c r="X5" s="11" t="n">
+        <v>8788851686.7448</v>
+      </c>
+      <c r="Y5" s="11" t="n">
+        <v>11418635605.6067</v>
+      </c>
+      <c r="Z5" s="11" t="n">
+        <v>10903072037.7438</v>
+      </c>
+      <c r="AA5" s="11" t="n">
+        <v>13298806926.5422</v>
+      </c>
+      <c r="AB5" s="11" t="n">
+        <v>14388121136.2707</v>
+      </c>
+      <c r="AC5" s="11" t="n">
+        <v>15632247477.274</v>
+      </c>
+      <c r="AD5" s="11" t="n">
+        <v>17550368358.6305</v>
+      </c>
+      <c r="AE5" s="11" t="n">
+        <v>20780472691.5366</v>
+      </c>
+      <c r="AF5" s="11" t="n">
+        <v>20419313390.8335</v>
+      </c>
+      <c r="AG5" s="11" t="n">
+        <v>18357586746.0536</v>
+      </c>
+      <c r="AH5" s="11" t="n">
+        <v>18506646356.6348</v>
+      </c>
+      <c r="AI5" s="11" t="n">
+        <v>14113730802.9186</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>17507568298.9709</v>
+      </c>
+      <c r="AK5" s="11" t="n">
+        <v>15274927347.6989</v>
+      </c>
+      <c r="AL5" s="11" t="n">
+        <v>16344803745.5913</v>
+      </c>
+      <c r="AM5" s="11" t="n">
+        <v>15780680808.8737</v>
+      </c>
+      <c r="AN5" s="11" t="n">
+        <v>19692280457.8281</v>
+      </c>
+      <c r="AO5" s="11" t="n">
+        <v>19004934084.1069</v>
+      </c>
+      <c r="AP5" s="11" t="n">
+        <v>20925656124.7449</v>
+      </c>
+      <c r="AQ5" s="11" t="n">
+        <v>20019978733.1273</v>
+      </c>
+      <c r="AR5" s="11" t="n">
+        <v>22386178493.468</v>
+      </c>
+      <c r="AS5" s="11" t="n">
+        <v>7432394200.8708</v>
+      </c>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>K6</f>
+      </c>
+      <c r="K6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>1215965769</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>987626088</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>619553654</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>540020972</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>441427881</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>484810758</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>538138480</v>
+      </c>
+      <c r="S6" s="11" t="n">
+        <v>602591755</v>
+      </c>
+      <c r="T6" s="11" t="n">
+        <v>410304964</v>
+      </c>
+      <c r="U6" s="11" t="n">
+        <v>52954919</v>
+      </c>
+      <c r="V6" s="11" t="n">
+        <v>1456019</v>
+      </c>
+      <c r="W6" s="11" t="n">
+        <v>1325397.0996</v>
+      </c>
+      <c r="X6" s="11" t="n">
+        <v>28790999.2109</v>
+      </c>
+      <c r="Y6" s="11" t="n">
+        <v>77024250.2115</v>
+      </c>
+      <c r="Z6" s="11" t="n">
+        <v>262161091.7692</v>
+      </c>
+      <c r="AA6" s="11" t="n">
+        <v>1056208389.3266</v>
+      </c>
+      <c r="AB6" s="11" t="n">
+        <v>1109294062.5506</v>
+      </c>
+      <c r="AC6" s="11" t="n">
+        <v>1062558790.5858</v>
+      </c>
+      <c r="AD6" s="11" t="n">
+        <v>1752094928.3281</v>
+      </c>
+      <c r="AE6" s="11" t="n">
+        <v>2976305827.7442</v>
+      </c>
+      <c r="AF6" s="11" t="n">
+        <v>2483039317.3397</v>
+      </c>
+      <c r="AG6" s="11" t="n">
+        <v>1901796433.7364</v>
+      </c>
+      <c r="AH6" s="11" t="n">
+        <v>1456736627.5576</v>
+      </c>
+      <c r="AI6" s="11" t="n">
+        <v>547842442.8204</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>251312214.7652</v>
+      </c>
+      <c r="AK6" s="11" t="n">
+        <v>327769094.1414</v>
+      </c>
+      <c r="AL6" s="11" t="n">
+        <v>393980730.1409</v>
+      </c>
+      <c r="AM6" s="11" t="n">
+        <v>200050916.8539</v>
+      </c>
+      <c r="AN6" s="11" t="n">
+        <v>151904125.5811</v>
+      </c>
+      <c r="AO6" s="11" t="n">
+        <v>303051322.7786</v>
+      </c>
+      <c r="AP6" s="11" t="n">
+        <v>150676346.6143</v>
+      </c>
+      <c r="AQ6" s="11" t="n">
+        <v>320782846.8968</v>
+      </c>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>K7</f>
+      </c>
+      <c r="K7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f>Sum(L2:L6)</f>
+      </c>
+      <c r="M7" s="11" t="str">
+        <f>Sum(M2:M6)</f>
+      </c>
+      <c r="N7" s="11" t="str">
+        <f>Sum(N2:N6)</f>
+      </c>
+      <c r="O7" s="11" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="11" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="11" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="11" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="11" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="11" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="11" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="11" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="11" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="11" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="11" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="11" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="11" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="11" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="11" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="11" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="11" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="11" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="11" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="11" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="11" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="11" t="str">
+        <f>Sum(AK2:AK6)</f>
+      </c>
+      <c r="AL7" s="11" t="str">
+        <f>Sum(AL2:AL6)</f>
+      </c>
+      <c r="AM7" s="11" t="str">
+        <f>Sum(AM2:AM6)</f>
+      </c>
+      <c r="AN7" s="11" t="str">
+        <f>Sum(AN2:AN6)</f>
+      </c>
+      <c r="AO7" s="11" t="str">
+        <f>Sum(AO2:AO6)</f>
+      </c>
+      <c r="AP7" s="11" t="str">
+        <f>Sum(AP2:AP6)</f>
+      </c>
+      <c r="AQ7" s="11" t="str">
+        <f>Sum(AQ2:AQ6)</f>
+      </c>
+      <c r="AR7" s="11" t="str">
+        <f>Sum(AR2:AR6)</f>
+      </c>
+      <c r="AS7" s="11" t="str">
+        <f>Sum(AS2:AS6)</f>
+      </c>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>K10</f>
+      </c>
+      <c r="K10" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" t="s">
+        <v>10</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>K11</f>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="11" t="n">
+        <v>92871387.510077</v>
+      </c>
+      <c r="M11" s="11" t="n">
+        <v>156115202.353092</v>
+      </c>
+      <c r="N11" s="11" t="n">
+        <v>216188191.020045</v>
+      </c>
+      <c r="O11" s="11" t="n">
+        <v>235133400.974793</v>
+      </c>
+      <c r="P11" s="11" t="n">
+        <v>378196610.144148</v>
+      </c>
+      <c r="Q11" s="11" t="n">
+        <v>624166005.214214</v>
+      </c>
+      <c r="R11" s="11" t="n">
+        <v>608459839.394027</v>
+      </c>
+      <c r="S11" s="11" t="n">
+        <v>1124969320.41367</v>
+      </c>
+      <c r="T11" s="11" t="n">
+        <v>1056316280.07676</v>
+      </c>
+      <c r="U11" s="11" t="n">
+        <v>1040464675.3996</v>
+      </c>
+      <c r="V11" s="11" t="n">
+        <v>817848834.028121</v>
+      </c>
+      <c r="W11" s="11" t="n">
+        <v>789152979.960008</v>
+      </c>
+      <c r="X11" s="11" t="n">
+        <v>811036643.722026</v>
+      </c>
+      <c r="Y11" s="11" t="n">
+        <v>949497474.078718</v>
+      </c>
+      <c r="Z11" s="11" t="n">
+        <v>975262963.341741</v>
+      </c>
+      <c r="AA11" s="11" t="n">
+        <v>836416618.597946</v>
+      </c>
+      <c r="AB11" s="11" t="n">
+        <v>861415535.6484</v>
+      </c>
+      <c r="AC11" s="11" t="n">
+        <v>786915472.146815</v>
+      </c>
+      <c r="AD11" s="11" t="n">
+        <v>814347592.444547</v>
+      </c>
+      <c r="AE11" s="11" t="n">
+        <v>1165711518.79124</v>
+      </c>
+      <c r="AF11" s="11" t="n">
+        <v>1056970930.88331</v>
+      </c>
+      <c r="AG11" s="11" t="n">
+        <v>1077837469.55035</v>
+      </c>
+      <c r="AH11" s="11" t="n">
+        <v>888076645.302902</v>
+      </c>
+      <c r="AI11" s="11" t="n">
+        <v>914781251.893441</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>551964707.703549</v>
+      </c>
+      <c r="AK11" s="11" t="n">
+        <v>311403314.532057</v>
+      </c>
+      <c r="AL11" s="11" t="n">
+        <v>340136355.199824</v>
+      </c>
+      <c r="AM11" s="11" t="n">
+        <v>706148633.102252</v>
+      </c>
+      <c r="AN11" s="11" t="n">
+        <v>292378814.980407</v>
+      </c>
+      <c r="AO11" s="11" t="n">
+        <v>204184294.783404</v>
+      </c>
+      <c r="AP11" s="11" t="n">
+        <v>213761050.526496</v>
+      </c>
+      <c r="AQ11" s="11" t="n">
+        <v>375980636.603171</v>
+      </c>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>K12</f>
+      </c>
+      <c r="K12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <v>2448299022.08895</v>
+      </c>
+      <c r="M12" s="11" t="n">
+        <v>3516027784.90199</v>
+      </c>
+      <c r="N12" s="11" t="n">
+        <v>3715417660.81187</v>
+      </c>
+      <c r="O12" s="11" t="n">
+        <v>3036846283.86003</v>
+      </c>
+      <c r="P12" s="11" t="n">
+        <v>4486670912.83864</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <v>3837659727.4696</v>
+      </c>
+      <c r="R12" s="11" t="n">
+        <v>4827567654.32228</v>
+      </c>
+      <c r="S12" s="11" t="n">
+        <v>4263167825.72229</v>
+      </c>
+      <c r="T12" s="11" t="n">
+        <v>4166564688.58274</v>
+      </c>
+      <c r="U12" s="11" t="n">
+        <v>4847300885.81752</v>
+      </c>
+      <c r="V12" s="11" t="n">
+        <v>4736441206.15929</v>
+      </c>
+      <c r="W12" s="11" t="n">
+        <v>5401137747.84784</v>
+      </c>
+      <c r="X12" s="11" t="n">
+        <v>5879878705.74202</v>
+      </c>
+      <c r="Y12" s="11" t="n">
+        <v>12022708527.9493</v>
+      </c>
+      <c r="Z12" s="11" t="n">
+        <v>12195697276.0041</v>
+      </c>
+      <c r="AA12" s="11" t="n">
+        <v>10973603498.1675</v>
+      </c>
+      <c r="AB12" s="11" t="n">
+        <v>11754956067.224</v>
+      </c>
+      <c r="AC12" s="11" t="n">
+        <v>11673931450.985</v>
+      </c>
+      <c r="AD12" s="11" t="n">
+        <v>16506793943.693</v>
+      </c>
+      <c r="AE12" s="11" t="n">
+        <v>19020806413.1789</v>
+      </c>
+      <c r="AF12" s="11" t="n">
+        <v>16793036414.581</v>
+      </c>
+      <c r="AG12" s="11" t="n">
+        <v>12890101186.8824</v>
+      </c>
+      <c r="AH12" s="11" t="n">
+        <v>12694783414.7846</v>
+      </c>
+      <c r="AI12" s="11" t="n">
+        <v>10524222473.1376</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>8973247152.29068</v>
+      </c>
+      <c r="AK12" s="11" t="n">
+        <v>7839522343.65016</v>
+      </c>
+      <c r="AL12" s="11" t="n">
+        <v>7000780226.01685</v>
+      </c>
+      <c r="AM12" s="11" t="n">
+        <v>6258625336.32899</v>
+      </c>
+      <c r="AN12" s="11" t="n">
+        <v>8260312371.18209</v>
+      </c>
+      <c r="AO12" s="11" t="n">
+        <v>11383196782.0202</v>
+      </c>
+      <c r="AP12" s="11" t="n">
+        <v>11600433318.8777</v>
+      </c>
+      <c r="AQ12" s="11" t="n">
+        <v>8544609526.16492</v>
+      </c>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>K13</f>
+      </c>
+      <c r="K13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <v>9656835693.56582</v>
+      </c>
+      <c r="M13" s="11" t="n">
+        <v>16594083150.3509</v>
+      </c>
+      <c r="N13" s="11" t="n">
+        <v>15901363369.1798</v>
+      </c>
+      <c r="O13" s="11" t="n">
+        <v>15501893001.9327</v>
+      </c>
+      <c r="P13" s="11" t="n">
+        <v>17960921411.0114</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <v>17444845913.8894</v>
+      </c>
+      <c r="R13" s="11" t="n">
+        <v>16310086955.319</v>
+      </c>
+      <c r="S13" s="11" t="n">
+        <v>16859467151.857</v>
+      </c>
+      <c r="T13" s="11" t="n">
+        <v>16017286862.4814</v>
+      </c>
+      <c r="U13" s="11" t="n">
+        <v>17198796538.6974</v>
+      </c>
+      <c r="V13" s="11" t="n">
+        <v>17152015481.4607</v>
+      </c>
+      <c r="W13" s="11" t="n">
+        <v>18058173428.6659</v>
+      </c>
+      <c r="X13" s="11" t="n">
+        <v>20090170457.8275</v>
+      </c>
+      <c r="Y13" s="11" t="n">
+        <v>22001733877.766</v>
+      </c>
+      <c r="Z13" s="11" t="n">
+        <v>23327728688.1288</v>
+      </c>
+      <c r="AA13" s="11" t="n">
+        <v>24575846114.8009</v>
+      </c>
+      <c r="AB13" s="11" t="n">
+        <v>29400438789.6097</v>
+      </c>
+      <c r="AC13" s="11" t="n">
+        <v>27686344341.9334</v>
+      </c>
+      <c r="AD13" s="11" t="n">
+        <v>33318262891.74</v>
+      </c>
+      <c r="AE13" s="11" t="n">
+        <v>36038429408.748</v>
+      </c>
+      <c r="AF13" s="11" t="n">
+        <v>32304581545.352</v>
+      </c>
+      <c r="AG13" s="11" t="n">
+        <v>30045037512.2976</v>
+      </c>
+      <c r="AH13" s="11" t="n">
+        <v>22997637252.2522</v>
+      </c>
+      <c r="AI13" s="11" t="n">
+        <v>18957294589.5556</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>20142919093.7796</v>
+      </c>
+      <c r="AK13" s="11" t="n">
+        <v>18866741880.7839</v>
+      </c>
+      <c r="AL13" s="11" t="n">
+        <v>18619137351.5832</v>
+      </c>
+      <c r="AM13" s="11" t="n">
+        <v>19284421175.6118</v>
+      </c>
+      <c r="AN13" s="11" t="n">
+        <v>22401567700.2773</v>
+      </c>
+      <c r="AO13" s="11" t="n">
+        <v>25090954015.0223</v>
+      </c>
+      <c r="AP13" s="11" t="n">
+        <v>31397615618.333</v>
+      </c>
+      <c r="AQ13" s="11" t="n">
+        <v>24029106089.1012</v>
+      </c>
+      <c r="AR13" s="11" t="n">
+        <v>34901197177.7637</v>
+      </c>
+      <c r="AS13" s="11" t="n">
+        <v>14907810330.31</v>
+      </c>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>K14</f>
+      </c>
+      <c r="K14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <v>9599790286.00426</v>
+      </c>
+      <c r="M14" s="11" t="n">
+        <v>13327652463.8129</v>
+      </c>
+      <c r="N14" s="11" t="n">
+        <v>12067354463.6484</v>
+      </c>
+      <c r="O14" s="11" t="n">
+        <v>11662250191.4387</v>
+      </c>
+      <c r="P14" s="11" t="n">
+        <v>12785182451.0326</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <v>12548489270.2275</v>
+      </c>
+      <c r="R14" s="11" t="n">
+        <v>12230994001.4041</v>
+      </c>
+      <c r="S14" s="11" t="n">
+        <v>10935696259.9783</v>
+      </c>
+      <c r="T14" s="11" t="n">
+        <v>10746341558.9921</v>
+      </c>
+      <c r="U14" s="11" t="n">
+        <v>10811244756.6443</v>
+      </c>
+      <c r="V14" s="11" t="n">
+        <v>10898413570.3117</v>
+      </c>
+      <c r="W14" s="11" t="n">
+        <v>12135977169.0806</v>
+      </c>
+      <c r="X14" s="11" t="n">
+        <v>13648786446.0173</v>
+      </c>
+      <c r="Y14" s="11" t="n">
+        <v>17400154676.9157</v>
+      </c>
+      <c r="Z14" s="11" t="n">
+        <v>16218094275.315</v>
+      </c>
+      <c r="AA14" s="11" t="n">
+        <v>19198885205.4215</v>
+      </c>
+      <c r="AB14" s="11" t="n">
+        <v>20116532627.5139</v>
+      </c>
+      <c r="AC14" s="11" t="n">
+        <v>21272627238.5806</v>
+      </c>
+      <c r="AD14" s="11" t="n">
+        <v>23394917820.3582</v>
+      </c>
+      <c r="AE14" s="11" t="n">
+        <v>27422036337.1597</v>
+      </c>
+      <c r="AF14" s="11" t="n">
+        <v>26713111721.3551</v>
+      </c>
+      <c r="AG14" s="11" t="n">
+        <v>23541455171.8209</v>
+      </c>
+      <c r="AH14" s="11" t="n">
+        <v>23305419752.4635</v>
+      </c>
+      <c r="AI14" s="11" t="n">
+        <v>17454012758.7292</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
+        <v>21240154878.0931</v>
+      </c>
+      <c r="AK14" s="11" t="n">
+        <v>18321474444.4537</v>
+      </c>
+      <c r="AL14" s="11" t="n">
+        <v>19443615499.8262</v>
+      </c>
+      <c r="AM14" s="11" t="n">
+        <v>18443258795.8479</v>
+      </c>
+      <c r="AN14" s="11" t="n">
+        <v>22486841474.4162</v>
+      </c>
+      <c r="AO14" s="11" t="n">
+        <v>21285052913.8192</v>
+      </c>
+      <c r="AP14" s="11" t="n">
+        <v>23127680158.2166</v>
+      </c>
+      <c r="AQ14" s="11" t="n">
+        <v>21407114909.9812</v>
+      </c>
+      <c r="AR14" s="11" t="n">
+        <v>22386178493.468</v>
+      </c>
+      <c r="AS14" s="11" t="n">
+        <v>7089005544.11504</v>
+      </c>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>K15</f>
+      </c>
+      <c r="K15" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="11" t="n">
+        <v>2416770349.72902</v>
+      </c>
+      <c r="M15" s="11" t="n">
+        <v>1895333029.01465</v>
+      </c>
+      <c r="N15" s="11" t="n">
+        <v>1159982033.53733</v>
+      </c>
+      <c r="O15" s="11" t="n">
+        <v>987868115.259726</v>
+      </c>
+      <c r="P15" s="11" t="n">
+        <v>790290205.129873</v>
+      </c>
+      <c r="Q15" s="11" t="n">
+        <v>849954319.124804</v>
+      </c>
+      <c r="R15" s="11" t="n">
+        <v>926042345.179145</v>
+      </c>
+      <c r="S15" s="11" t="n">
+        <v>1018855795.79358</v>
+      </c>
+      <c r="T15" s="11" t="n">
+        <v>685183717.124421</v>
+      </c>
+      <c r="U15" s="11" t="n">
+        <v>87342671.2883202</v>
+      </c>
+      <c r="V15" s="11" t="n">
+        <v>2352533.65133486</v>
+      </c>
+      <c r="W15" s="11" t="n">
+        <v>2090783.62577719</v>
+      </c>
+      <c r="X15" s="11" t="n">
+        <v>44711438.2860374</v>
+      </c>
+      <c r="Y15" s="11" t="n">
+        <v>117372505.248831</v>
+      </c>
+      <c r="Z15" s="11" t="n">
+        <v>389959204.792361</v>
+      </c>
+      <c r="AA15" s="11" t="n">
+        <v>1524800211.9057</v>
+      </c>
+      <c r="AB15" s="11" t="n">
+        <v>1550942613.80333</v>
+      </c>
+      <c r="AC15" s="11" t="n">
+        <v>1445948006.13727</v>
+      </c>
+      <c r="AD15" s="11" t="n">
+        <v>2335570172.89299</v>
+      </c>
+      <c r="AE15" s="11" t="n">
+        <v>3927551012.45325</v>
+      </c>
+      <c r="AF15" s="11" t="n">
+        <v>3248380855.07757</v>
+      </c>
+      <c r="AG15" s="11" t="n">
+        <v>2438831209.68277</v>
+      </c>
+      <c r="AH15" s="11" t="n">
+        <v>1834468434.73327</v>
+      </c>
+      <c r="AI15" s="11" t="n">
+        <v>677499742.646593</v>
+      </c>
+      <c r="AJ15" s="11" t="n">
+        <v>304891591.637156</v>
+      </c>
+      <c r="AK15" s="11" t="n">
+        <v>393141842.530469</v>
+      </c>
+      <c r="AL15" s="11" t="n">
+        <v>468675546.70191</v>
+      </c>
+      <c r="AM15" s="11" t="n">
+        <v>233804287.442935</v>
+      </c>
+      <c r="AN15" s="11" t="n">
+        <v>173461067.577581</v>
+      </c>
+      <c r="AO15" s="11" t="n">
+        <v>339409934.935775</v>
+      </c>
+      <c r="AP15" s="11" t="n">
+        <v>166532142.702245</v>
+      </c>
+      <c r="AQ15" s="11" t="n">
+        <v>343009118.851248</v>
+      </c>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>K16</f>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -3756,89 +5261,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>15345881642.2731</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="3" t="n">
         <v>17531995255.4796</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="3" t="n">
         <v>18942203546.542</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="3" t="n">
         <v>25477712376.5921</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="3" t="n">
         <v>25079532787.958</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="3" t="n">
         <v>29582007545.4317</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="3" t="n">
         <v>35507608673.8446</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="3" t="n">
         <v>36973961528.5113</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="3" t="n">
         <v>47092584629.4484</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="3" t="n">
         <v>54370208122.6629</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>50766298896.5493</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="3" t="n">
         <v>46380689957.2157</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="3" t="n">
         <v>42394453594.0767</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="3" t="n">
         <v>33432752697.7434</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="3" t="n">
         <v>36789456126.9644</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="3" t="n">
         <v>33811327787.04</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="3" t="n">
         <v>33233952149.2717</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>34064622738.1685</v>
       </c>
-      <c r="AR2" s="11" t="n">
+      <c r="AR2" s="3" t="n">
         <v>40511204861.7681</v>
       </c>
-      <c r="AS2" s="11" t="n">
+      <c r="AS2" s="3" t="n">
         <v>44218797177.9926</v>
       </c>
-      <c r="AT2" s="11" t="n">
+      <c r="AT2" s="3" t="n">
         <v>52194173237.7706</v>
       </c>
-      <c r="AU2" s="11" t="n">
+      <c r="AU2" s="3" t="n">
         <v>45153796097.1098</v>
       </c>
-      <c r="AV2" s="11" t="n">
+      <c r="AV2" s="3" t="n">
         <v>49582250214.1208</v>
       </c>
-      <c r="AW2" s="11" t="n">
+      <c r="AW2" s="3" t="n">
         <v>19068088230.5457</v>
       </c>
-      <c r="AX2" s="11"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3856,89 +5361,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>615402061</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="3" t="n">
         <v>745958682</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="3" t="n">
         <v>763204571</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="3" t="n">
         <v>1089949613.0938</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="3" t="n">
         <v>954326487.6836</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="3" t="n">
         <v>1464531875.0912</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="3" t="n">
         <v>1750353030.0943</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="3" t="n">
         <v>1239671324.471</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="3" t="n">
         <v>703917895.5659</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="3" t="n">
         <v>683150567.841</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>1463047951.211</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="3" t="n">
         <v>1594126904.5965</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="3" t="n">
         <v>1197342150.4164</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="3" t="n">
         <v>1053810335.8304</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="3" t="n">
         <v>907606716.7881</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="3" t="n">
         <v>829698723.3953</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="3" t="n">
         <v>882225257.9374</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>845807936.0675</v>
       </c>
-      <c r="AR3" s="11" t="n">
+      <c r="AR3" s="3" t="n">
         <v>923868079.3332</v>
       </c>
-      <c r="AS3" s="11" t="n">
+      <c r="AS3" s="3" t="n">
         <v>1162698262.7235</v>
       </c>
-      <c r="AT3" s="11" t="n">
+      <c r="AT3" s="3" t="n">
         <v>1511992735.6195</v>
       </c>
-      <c r="AU3" s="11" t="n">
+      <c r="AU3" s="3" t="n">
         <v>1631433880.1231</v>
       </c>
-      <c r="AV3" s="11" t="n">
+      <c r="AV3" s="3" t="n">
         <v>2555479023.9104</v>
       </c>
-      <c r="AW3" s="11" t="n">
+      <c r="AW3" s="3" t="n">
         <v>1409095087.061</v>
       </c>
-      <c r="AX3" s="11"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3956,89 +5461,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>353605860</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="3" t="n">
         <v>501638178</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="3" t="n">
         <v>526446374</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="3" t="n">
         <v>798199438</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="3" t="n">
         <v>911358315.6309</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="3" t="n">
         <v>676042982.87</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="3" t="n">
         <v>694448016.3879</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="3" t="n">
         <v>679765460.986</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="3" t="n">
         <v>559492990.1658</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="3" t="n">
         <v>1139154818.529</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>969845816.7892</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="3" t="n">
         <v>652173104.5862</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="3" t="n">
         <v>543768425.9068</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="3" t="n">
         <v>82567155.4116</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="3" t="n">
         <v>168378109.9497</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="3" t="n">
         <v>165358697.6416</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="3" t="n">
         <v>64672606.1158</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>49394479.9619</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="3" t="n">
         <v>839778098.7859</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="3" t="n">
         <v>165662653.1185</v>
       </c>
-      <c r="AT4" s="11" t="n">
+      <c r="AT4" s="3" t="n">
         <v>68549290.0911</v>
       </c>
-      <c r="AU4" s="11" t="n">
+      <c r="AU4" s="3" t="n">
         <v>147002854.1986</v>
       </c>
-      <c r="AV4" s="11" t="n">
+      <c r="AV4" s="3" t="n">
         <v>104834400.2884</v>
       </c>
-      <c r="AW4" s="11" t="n">
+      <c r="AW4" s="3" t="n">
         <v>40999851.8151</v>
       </c>
-      <c r="AX4" s="11"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4056,89 +5561,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>320538683</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="3" t="n">
         <v>432788436</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="3" t="n">
         <v>780298062</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="3" t="n">
         <v>665235549</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="3" t="n">
         <v>757233360.4707</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="3" t="n">
         <v>802219500.7905</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="3" t="n">
         <v>688398227.5293</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="3" t="n">
         <v>702293992.33</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="3" t="n">
         <v>471628803.2863</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="3" t="n">
         <v>480834625.5086</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>2468354862.7565</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="3" t="n">
         <v>948391412.6218</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="3" t="n">
         <v>887966577.4075</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="3" t="n">
         <v>1037386819.1783</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="3" t="n">
         <v>1226866124.7718</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="3" t="n">
         <v>923891605.5908</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="3" t="n">
         <v>1557509402.7261</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>710078085.7718</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="3" t="n">
         <v>390672907.4872</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="3" t="n">
         <v>242144992.6276</v>
       </c>
-      <c r="AT5" s="11" t="n">
+      <c r="AT5" s="3" t="n">
         <v>314714626.643</v>
       </c>
-      <c r="AU5" s="11" t="n">
+      <c r="AU5" s="3" t="n">
         <v>379215965.0218</v>
       </c>
-      <c r="AV5" s="11" t="n">
+      <c r="AV5" s="3" t="n">
         <v>452727501.7329</v>
       </c>
-      <c r="AW5" s="11" t="n">
+      <c r="AW5" s="3" t="n">
         <v>276654946.0857</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4156,89 +5661,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>2536302693.9317</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="3" t="n">
         <v>2772643462.3202</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="3" t="n">
         <v>3559746178.3984</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="3" t="n">
         <v>4688023770</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="3" t="n">
         <v>6361660629.1563</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="3" t="n">
         <v>5739866388.2315</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="3" t="n">
         <v>5547565111.6042</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4890509605.6403</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="3" t="n">
         <v>5462891053.5184</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="3" t="n">
         <v>4977599450.2267</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>4051556712.8982</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="3" t="n">
         <v>4514586074.6799</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="3" t="n">
         <v>3586333400.2535</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="3" t="n">
         <v>3162025638.9323</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="3" t="n">
         <v>2744176831.3742</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="3" t="n">
         <v>2314384501.9851</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="3" t="n">
         <v>2201886726.7506</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>2156847649.5284</v>
       </c>
-      <c r="AR6" s="11" t="n">
+      <c r="AR6" s="3" t="n">
         <v>3127047347.3417</v>
       </c>
-      <c r="AS6" s="11" t="n">
+      <c r="AS6" s="3" t="n">
         <v>2776422770.195</v>
       </c>
-      <c r="AT6" s="11" t="n">
+      <c r="AT6" s="3" t="n">
         <v>3228255729.4859</v>
       </c>
-      <c r="AU6" s="11" t="n">
+      <c r="AU6" s="3" t="n">
         <v>2948914311.1604</v>
       </c>
-      <c r="AV6" s="11" t="n">
+      <c r="AV6" s="3" t="n">
         <v>3028984282.4682</v>
       </c>
-      <c r="AW6" s="11" t="n">
+      <c r="AW6" s="3" t="n">
         <v>1875047497.4538</v>
       </c>
-      <c r="AX6" s="11"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4256,89 +5761,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>95357103</v>
       </c>
-      <c r="AA7" s="11" t="n">
+      <c r="AA7" s="3" t="n">
         <v>96374621</v>
       </c>
-      <c r="AB7" s="11" t="n">
+      <c r="AB7" s="3" t="n">
         <v>176283335</v>
       </c>
-      <c r="AC7" s="11" t="n">
+      <c r="AC7" s="3" t="n">
         <v>176782492</v>
       </c>
-      <c r="AD7" s="11" t="n">
+      <c r="AD7" s="3" t="n">
         <v>66516179.1191</v>
       </c>
-      <c r="AE7" s="11" t="n">
+      <c r="AE7" s="3" t="n">
         <v>6858606</v>
       </c>
-      <c r="AF7" s="11" t="n">
+      <c r="AF7" s="3" t="n">
         <v>226945814.8457</v>
       </c>
-      <c r="AG7" s="11" t="n">
+      <c r="AG7" s="3" t="n">
         <v>514086994.8814</v>
       </c>
-      <c r="AH7" s="11" t="n">
+      <c r="AH7" s="3" t="n">
         <v>481931251.2321</v>
       </c>
-      <c r="AI7" s="11" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1545351004.0919</v>
       </c>
-      <c r="AJ7" s="11" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>1433685005.1451</v>
       </c>
-      <c r="AK7" s="11" t="n">
+      <c r="AK7" s="3" t="n">
         <v>480452140.8592</v>
       </c>
-      <c r="AL7" s="11" t="n">
+      <c r="AL7" s="3" t="n">
         <v>330762474.9628</v>
       </c>
-      <c r="AM7" s="11" t="n">
+      <c r="AM7" s="3" t="n">
         <v>420887238.0928</v>
       </c>
-      <c r="AN7" s="11" t="n">
+      <c r="AN7" s="3" t="n">
         <v>338475994.2019</v>
       </c>
-      <c r="AO7" s="11" t="n">
+      <c r="AO7" s="3" t="n">
         <v>59393159.3235</v>
       </c>
-      <c r="AP7" s="11" t="n">
+      <c r="AP7" s="3" t="n">
         <v>589184629.6477</v>
       </c>
-      <c r="AQ7" s="11" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>584071145.2147</v>
       </c>
-      <c r="AR7" s="11" t="n">
+      <c r="AR7" s="3" t="n">
         <v>1159019548.9054</v>
       </c>
-      <c r="AS7" s="11" t="n">
+      <c r="AS7" s="3" t="n">
         <v>3491501168.6209</v>
       </c>
-      <c r="AT7" s="11" t="n">
+      <c r="AT7" s="3" t="n">
         <v>2856190148.1508</v>
       </c>
-      <c r="AU7" s="11" t="n">
+      <c r="AU7" s="3" t="n">
         <v>895023469.7219</v>
       </c>
-      <c r="AV7" s="11" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1563100248.711</v>
       </c>
-      <c r="AW7" s="11" t="n">
+      <c r="AW7" s="3" t="n">
         <v>392447421.6659</v>
       </c>
-      <c r="AX7" s="11"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4356,73 +5861,73 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>2894007</v>
       </c>
-      <c r="AA8" s="11" t="n">
+      <c r="AA8" s="3" t="n">
         <v>9715337.0996</v>
       </c>
-      <c r="AB8" s="11" t="n">
+      <c r="AB8" s="3" t="n">
         <v>22434545.75</v>
       </c>
-      <c r="AC8" s="11" t="n">
+      <c r="AC8" s="3" t="n">
         <v>36882262.9102</v>
       </c>
-      <c r="AD8" s="11" t="n">
+      <c r="AD8" s="3" t="n">
         <v>60732928.4004</v>
       </c>
-      <c r="AE8" s="11" t="n">
+      <c r="AE8" s="3" t="n">
         <v>109271193.02</v>
       </c>
-      <c r="AF8" s="11" t="n">
+      <c r="AF8" s="3" t="n">
         <v>414833532.4043</v>
       </c>
-      <c r="AG8" s="11" t="n">
+      <c r="AG8" s="3" t="n">
         <v>1166186782.8383</v>
       </c>
-      <c r="AH8" s="11" t="n">
+      <c r="AH8" s="3" t="n">
         <v>2311835416.7464</v>
       </c>
-      <c r="AI8" s="11" t="n">
+      <c r="AI8" s="3" t="n">
         <v>3259704390.5858</v>
       </c>
-      <c r="AJ8" s="11" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>56338921.6228</v>
       </c>
-      <c r="AK8" s="11" t="n">
+      <c r="AK8" s="3" t="n">
         <v>7968213.2844</v>
       </c>
-      <c r="AL8" s="11" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-3760244.3907</v>
       </c>
-      <c r="AM8" s="11" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-1923733.15</v>
       </c>
-      <c r="AN8" s="11" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-453257.22</v>
       </c>
-      <c r="AO8" s="11" t="n">
+      <c r="AO8" s="3" t="n">
         <v>-627.73</v>
       </c>
-      <c r="AP8" s="11"/>
-      <c r="AQ8" s="11"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="11"/>
-      <c r="AT8" s="11"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="11"/>
-      <c r="AW8" s="11"/>
-      <c r="AX8" s="11"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4438,109 +5943,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="11" t="n">
+      <c r="P9" s="3" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" s="11" t="n">
+      <c r="Q9" s="3" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" s="11" t="n">
+      <c r="R9" s="3" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" s="11" t="n">
+      <c r="S9" s="3" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" s="11" t="n">
+      <c r="T9" s="3" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" s="11" t="n">
+      <c r="U9" s="3" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" s="11" t="n">
+      <c r="V9" s="3" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" s="11" t="n">
+      <c r="W9" s="3" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" s="11" t="n">
+      <c r="X9" s="3" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" s="11" t="n">
+      <c r="Y9" s="3" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" s="11" t="n">
+      <c r="Z9" s="3" t="n">
         <v>1529947758.8696</v>
       </c>
-      <c r="AA9" s="11" t="n">
+      <c r="AA9" s="3" t="n">
         <v>975167745.3599</v>
       </c>
-      <c r="AB9" s="11" t="n">
+      <c r="AB9" s="3" t="n">
         <v>1292148348.5101</v>
       </c>
-      <c r="AC9" s="11" t="n">
+      <c r="AC9" s="3" t="n">
         <v>1514088443.6909</v>
       </c>
-      <c r="AD9" s="11" t="n">
+      <c r="AD9" s="3" t="n">
         <v>1511147160.551</v>
       </c>
-      <c r="AE9" s="11" t="n">
+      <c r="AE9" s="3" t="n">
         <v>1178212388.2754</v>
       </c>
-      <c r="AF9" s="11" t="n">
+      <c r="AF9" s="3" t="n">
         <v>719308484.1156</v>
       </c>
-      <c r="AG9" s="11" t="n">
+      <c r="AG9" s="3" t="n">
         <v>30602316.1623</v>
       </c>
-      <c r="AH9" s="11" t="n">
+      <c r="AH9" s="3" t="n">
         <v>206782360.932</v>
       </c>
-      <c r="AI9" s="11" t="n">
+      <c r="AI9" s="3" t="n">
         <v>-91849558.0467</v>
       </c>
-      <c r="AJ9" s="11" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>31037044.388</v>
       </c>
-      <c r="AK9" s="11" t="n">
+      <c r="AK9" s="3" t="n">
         <v>2239410.2757</v>
       </c>
-      <c r="AL9" s="11" t="n">
+      <c r="AL9" s="3" t="n">
         <v>74795267.768</v>
       </c>
-      <c r="AM9" s="11" t="n">
+      <c r="AM9" s="3" t="n">
         <v>53238528.2305</v>
       </c>
-      <c r="AN9" s="11" t="n">
+      <c r="AN9" s="3" t="n">
         <v>38848514.4392</v>
       </c>
-      <c r="AO9" s="11" t="n">
+      <c r="AO9" s="3" t="n">
         <v>23735212.7223</v>
       </c>
-      <c r="AP9" s="11" t="n">
+      <c r="AP9" s="3" t="n">
         <v>32043354.8229</v>
       </c>
-      <c r="AQ9" s="11" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>29615682.1826</v>
       </c>
-      <c r="AR9" s="11" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="11" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="11" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="11" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="11" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="11" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="11"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4555,107 +6060,107 @@
       <c r="O10" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="11" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="11" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="11" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="11" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="11" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="11" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="11" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="11" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="11" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="11" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="11" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="11" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="11" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="11" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="11" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="11" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="11" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="11" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="11" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="11" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="11" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="11" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="11" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="11" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="11" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="11" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="11" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="11" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="11" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="11" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="11" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="11" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="11"/>
-      <c r="AX10" s="11"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4792,89 +6297,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>24794802109.6217</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="3" t="n">
         <v>27656321730.6139</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="3" t="n">
         <v>29416595050.0298</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="3" t="n">
         <v>38823914824.7272</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="3" t="n">
         <v>37305286595.1829</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="3" t="n">
         <v>42706204409.7459</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="3" t="n">
         <v>49644422760.0888</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="3" t="n">
         <v>50314793331.7391</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="3" t="n">
         <v>62775158038.9152</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="3" t="n">
         <v>71747252573.606</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>66413879259.6234</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="3" t="n">
         <v>59477803295.7213</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="3" t="n">
         <v>53387335400.8345</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="3" t="n">
         <v>41345247425.6617</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="3" t="n">
         <v>44632911474.2604</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="3" t="n">
         <v>40554914853.76</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="3" t="n">
         <v>39534777975.1933</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>39812138687.3045</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="3" t="n">
         <v>46260210624.9227</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="3" t="n">
         <v>49523951703.9999</v>
       </c>
-      <c r="AT14" s="11" t="n">
+      <c r="AT14" s="3" t="n">
         <v>57686609087.4092</v>
       </c>
-      <c r="AU14" s="11" t="n">
+      <c r="AU14" s="3" t="n">
         <v>48282394030.3806</v>
       </c>
-      <c r="AV14" s="11" t="n">
+      <c r="AV14" s="3" t="n">
         <v>49582250214.1208</v>
       </c>
-      <c r="AW14" s="11" t="n">
+      <c r="AW14" s="3" t="n">
         <v>18187111653.2242</v>
       </c>
-      <c r="AX14" s="11"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4892,89 +6397,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>994323602.647581</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="3" t="n">
         <v>1176732768.09088</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="3" t="n">
         <v>1185230628.01409</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="3" t="n">
         <v>1660907004.38539</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1419540923.24659</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="3" t="n">
         <v>2114278333.75331</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="3" t="n">
         <v>2447229454.49751</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="3" t="n">
         <v>1686965743.22835</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="3" t="n">
         <v>938333656.737489</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="3" t="n">
         <v>901489584.62898</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>1913999879.73855</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="3" t="n">
         <v>2044281069.28704</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="3" t="n">
         <v>1507812969.73168</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="3" t="n">
         <v>1303214529.43264</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="3" t="n">
         <v>1101107070.02697</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="3" t="n">
         <v>995180115.182206</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="3" t="n">
         <v>1049486366.83366</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>988515948.41859</v>
       </c>
-      <c r="AR15" s="11" t="n">
+      <c r="AR15" s="3" t="n">
         <v>1054975582.32168</v>
       </c>
-      <c r="AS15" s="11" t="n">
+      <c r="AS15" s="3" t="n">
         <v>1302193100.76804</v>
       </c>
-      <c r="AT15" s="11" t="n">
+      <c r="AT15" s="3" t="n">
         <v>1671100976.83406</v>
       </c>
-      <c r="AU15" s="11" t="n">
+      <c r="AU15" s="3" t="n">
         <v>1744472009.95484</v>
       </c>
-      <c r="AV15" s="11" t="n">
+      <c r="AV15" s="3" t="n">
         <v>2555479023.9104</v>
       </c>
-      <c r="AW15" s="11" t="n">
+      <c r="AW15" s="3" t="n">
         <v>1343992610.50905</v>
       </c>
-      <c r="AX15" s="11"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -4992,89 +6497,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>571331613.776471</v>
       </c>
-      <c r="AA16" s="11" t="n">
+      <c r="AA16" s="3" t="n">
         <v>791322758.24629</v>
       </c>
-      <c r="AB16" s="11" t="n">
+      <c r="AB16" s="3" t="n">
         <v>817553235.634068</v>
       </c>
-      <c r="AC16" s="11" t="n">
+      <c r="AC16" s="3" t="n">
         <v>1216326903.13785</v>
       </c>
-      <c r="AD16" s="11" t="n">
+      <c r="AD16" s="3" t="n">
         <v>1355626655.52679</v>
       </c>
-      <c r="AE16" s="11" t="n">
+      <c r="AE16" s="3" t="n">
         <v>975972633.766674</v>
       </c>
-      <c r="AF16" s="11" t="n">
+      <c r="AF16" s="3" t="n">
         <v>970931926.932637</v>
       </c>
-      <c r="AG16" s="11" t="n">
+      <c r="AG16" s="3" t="n">
         <v>925036357.199403</v>
       </c>
-      <c r="AH16" s="11" t="n">
+      <c r="AH16" s="3" t="n">
         <v>745812980.019796</v>
       </c>
-      <c r="AI16" s="11" t="n">
+      <c r="AI16" s="3" t="n">
         <v>1503235527.46109</v>
       </c>
-      <c r="AJ16" s="11" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>1268779177.85468</v>
       </c>
-      <c r="AK16" s="11" t="n">
+      <c r="AK16" s="3" t="n">
         <v>836335631.598407</v>
       </c>
-      <c r="AL16" s="11" t="n">
+      <c r="AL16" s="3" t="n">
         <v>684767578.61378</v>
       </c>
-      <c r="AM16" s="11" t="n">
+      <c r="AM16" s="3" t="n">
         <v>102108238.008056</v>
       </c>
-      <c r="AN16" s="11" t="n">
+      <c r="AN16" s="3" t="n">
         <v>204276063.490922</v>
       </c>
-      <c r="AO16" s="11" t="n">
+      <c r="AO16" s="3" t="n">
         <v>198339087.581003</v>
       </c>
-      <c r="AP16" s="11" t="n">
+      <c r="AP16" s="3" t="n">
         <v>76933887.1399113</v>
       </c>
-      <c r="AQ16" s="11" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>57728509.1851916</v>
       </c>
-      <c r="AR16" s="11" t="n">
+      <c r="AR16" s="3" t="n">
         <v>958952266.677594</v>
       </c>
-      <c r="AS16" s="11" t="n">
+      <c r="AS16" s="3" t="n">
         <v>185538046.165586</v>
       </c>
-      <c r="AT16" s="11" t="n">
+      <c r="AT16" s="3" t="n">
         <v>75762788.3612704</v>
       </c>
-      <c r="AU16" s="11" t="n">
+      <c r="AU16" s="3" t="n">
         <v>157188328.413028</v>
       </c>
-      <c r="AV16" s="11" t="n">
+      <c r="AV16" s="3" t="n">
         <v>104834400.2884</v>
       </c>
-      <c r="AW16" s="11" t="n">
+      <c r="AW16" s="3" t="n">
         <v>39105592.2183306</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5092,89 +6597,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>517903982.236535</v>
       </c>
-      <c r="AA17" s="11" t="n">
+      <c r="AA17" s="3" t="n">
         <v>682713864.160112</v>
       </c>
-      <c r="AB17" s="11" t="n">
+      <c r="AB17" s="3" t="n">
         <v>1211776235.63059</v>
       </c>
-      <c r="AC17" s="11" t="n">
+      <c r="AC17" s="3" t="n">
         <v>1013711431.81935</v>
       </c>
-      <c r="AD17" s="11" t="n">
+      <c r="AD17" s="3" t="n">
         <v>1126368970.69138</v>
       </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AE17" s="3" t="n">
         <v>1158127957.66574</v>
       </c>
-      <c r="AF17" s="11" t="n">
+      <c r="AF17" s="3" t="n">
         <v>962473506.697572</v>
       </c>
-      <c r="AG17" s="11" t="n">
+      <c r="AG17" s="3" t="n">
         <v>955693564.373886</v>
       </c>
-      <c r="AH17" s="11" t="n">
+      <c r="AH17" s="3" t="n">
         <v>628688633.146036</v>
       </c>
-      <c r="AI17" s="11" t="n">
+      <c r="AI17" s="3" t="n">
         <v>634512254.296869</v>
       </c>
-      <c r="AJ17" s="11" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>3229170244.59621</v>
       </c>
-      <c r="AK17" s="11" t="n">
+      <c r="AK17" s="3" t="n">
         <v>1216200921.96354</v>
       </c>
-      <c r="AL17" s="11" t="n">
+      <c r="AL17" s="3" t="n">
         <v>1118216310.71591</v>
       </c>
-      <c r="AM17" s="11" t="n">
+      <c r="AM17" s="3" t="n">
         <v>1282904076.21571</v>
       </c>
-      <c r="AN17" s="11" t="n">
+      <c r="AN17" s="3" t="n">
         <v>1488432091.75832</v>
       </c>
-      <c r="AO17" s="11" t="n">
+      <c r="AO17" s="3" t="n">
         <v>1108159538.56744</v>
       </c>
-      <c r="AP17" s="11" t="n">
+      <c r="AP17" s="3" t="n">
         <v>1852797649.65906</v>
       </c>
-      <c r="AQ17" s="11" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>829885228.638894</v>
       </c>
-      <c r="AR17" s="11" t="n">
+      <c r="AR17" s="3" t="n">
         <v>446113884.972713</v>
       </c>
-      <c r="AS17" s="11" t="n">
+      <c r="AS17" s="3" t="n">
         <v>271196361.854524</v>
       </c>
-      <c r="AT17" s="11" t="n">
+      <c r="AT17" s="3" t="n">
         <v>347832306.080228</v>
       </c>
-      <c r="AU17" s="11" t="n">
+      <c r="AU17" s="3" t="n">
         <v>405490927.195056</v>
       </c>
-      <c r="AV17" s="11" t="n">
+      <c r="AV17" s="3" t="n">
         <v>452727501.7329</v>
       </c>
-      <c r="AW17" s="11" t="n">
+      <c r="AW17" s="3" t="n">
         <v>263873039.239306</v>
       </c>
-      <c r="AX17" s="11"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5192,89 +6697,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>4097980477.89595</v>
       </c>
-      <c r="AA18" s="11" t="n">
+      <c r="AA18" s="3" t="n">
         <v>4373781678.62807</v>
       </c>
-      <c r="AB18" s="11" t="n">
+      <c r="AB18" s="3" t="n">
         <v>5528164215.61224</v>
       </c>
-      <c r="AC18" s="11" t="n">
+      <c r="AC18" s="3" t="n">
         <v>7143790339.277</v>
       </c>
-      <c r="AD18" s="11" t="n">
+      <c r="AD18" s="3" t="n">
         <v>9462838681.98369</v>
       </c>
-      <c r="AE18" s="11" t="n">
+      <c r="AE18" s="3" t="n">
         <v>8286385123.92981</v>
       </c>
-      <c r="AF18" s="11" t="n">
+      <c r="AF18" s="3" t="n">
         <v>7756243745.37127</v>
       </c>
-      <c r="AG18" s="11" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6655088335.74491</v>
       </c>
-      <c r="AH18" s="11" t="n">
+      <c r="AH18" s="3" t="n">
         <v>7282119933.1571</v>
       </c>
-      <c r="AI18" s="11" t="n">
+      <c r="AI18" s="3" t="n">
         <v>6568470073.90426</v>
       </c>
-      <c r="AJ18" s="11" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5300358785.11182</v>
       </c>
-      <c r="AK18" s="11" t="n">
+      <c r="AK18" s="3" t="n">
         <v>5789427944.23952</v>
       </c>
-      <c r="AL18" s="11" t="n">
+      <c r="AL18" s="3" t="n">
         <v>4516269650.07753</v>
       </c>
-      <c r="AM18" s="11" t="n">
+      <c r="AM18" s="3" t="n">
         <v>3910378950.54229</v>
       </c>
-      <c r="AN18" s="11" t="n">
+      <c r="AN18" s="3" t="n">
         <v>3329231102.56774</v>
       </c>
-      <c r="AO18" s="11" t="n">
+      <c r="AO18" s="3" t="n">
         <v>2775982860.18345</v>
       </c>
-      <c r="AP18" s="11" t="n">
+      <c r="AP18" s="3" t="n">
         <v>2619342486.79232</v>
       </c>
-      <c r="AQ18" s="11" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>2520759393.41603</v>
       </c>
-      <c r="AR18" s="11" t="n">
+      <c r="AR18" s="3" t="n">
         <v>3570811320.36761</v>
       </c>
-      <c r="AS18" s="11" t="n">
+      <c r="AS18" s="3" t="n">
         <v>3109524364.20988</v>
       </c>
-      <c r="AT18" s="11" t="n">
+      <c r="AT18" s="3" t="n">
         <v>3567967739.47705</v>
       </c>
-      <c r="AU18" s="11" t="n">
+      <c r="AU18" s="3" t="n">
         <v>3153237491.41854</v>
       </c>
-      <c r="AV18" s="11" t="n">
+      <c r="AV18" s="3" t="n">
         <v>3028984282.4682</v>
       </c>
-      <c r="AW18" s="11" t="n">
+      <c r="AW18" s="3" t="n">
         <v>1788417264.43569</v>
       </c>
-      <c r="AX18" s="11"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5292,89 +6797,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>154071336.776034</v>
       </c>
-      <c r="AA19" s="11" t="n">
+      <c r="AA19" s="3" t="n">
         <v>152028761.484459</v>
       </c>
-      <c r="AB19" s="11" t="n">
+      <c r="AB19" s="3" t="n">
         <v>273761997.490013</v>
       </c>
-      <c r="AC19" s="11" t="n">
+      <c r="AC19" s="3" t="n">
         <v>269387938.385584</v>
       </c>
-      <c r="AD19" s="11" t="n">
+      <c r="AD19" s="3" t="n">
         <v>98941441.4628169</v>
       </c>
-      <c r="AE19" s="11" t="n">
+      <c r="AE19" s="3" t="n">
         <v>9901458.82939385</v>
       </c>
-      <c r="AF19" s="11" t="n">
+      <c r="AF19" s="3" t="n">
         <v>317300837.668967</v>
       </c>
-      <c r="AG19" s="11" t="n">
+      <c r="AG19" s="3" t="n">
         <v>699578293.282059</v>
       </c>
-      <c r="AH19" s="11" t="n">
+      <c r="AH19" s="3" t="n">
         <v>642421958.744412</v>
       </c>
-      <c r="AI19" s="11" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2039254448.96801</v>
       </c>
-      <c r="AJ19" s="11" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>1875586459.86917</v>
       </c>
-      <c r="AK19" s="11" t="n">
+      <c r="AK19" s="3" t="n">
         <v>616123605.608112</v>
       </c>
-      <c r="AL19" s="11" t="n">
+      <c r="AL19" s="3" t="n">
         <v>416529184.64118</v>
       </c>
-      <c r="AM19" s="11" t="n">
+      <c r="AM19" s="3" t="n">
         <v>520498181.96468</v>
       </c>
-      <c r="AN19" s="11" t="n">
+      <c r="AN19" s="3" t="n">
         <v>410638554.515164</v>
       </c>
-      <c r="AO19" s="11" t="n">
+      <c r="AO19" s="3" t="n">
         <v>71238980.4515043</v>
       </c>
-      <c r="AP19" s="11" t="n">
+      <c r="AP19" s="3" t="n">
         <v>700888158.43796</v>
       </c>
-      <c r="AQ19" s="11" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>682617905.833606</v>
       </c>
-      <c r="AR19" s="11" t="n">
+      <c r="AR19" s="3" t="n">
         <v>1323497749.17128</v>
       </c>
-      <c r="AS19" s="11" t="n">
+      <c r="AS19" s="3" t="n">
         <v>3910394363.58297</v>
       </c>
-      <c r="AT19" s="11" t="n">
+      <c r="AT19" s="3" t="n">
         <v>3156749390.49427</v>
       </c>
-      <c r="AU19" s="11" t="n">
+      <c r="AU19" s="3" t="n">
         <v>957037493.339728</v>
       </c>
-      <c r="AV19" s="11" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1563100248.711</v>
       </c>
-      <c r="AW19" s="11" t="n">
+      <c r="AW19" s="3" t="n">
         <v>374315714.798505</v>
       </c>
-      <c r="AX19" s="11"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5392,73 +6897,73 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>4675934.07414233</v>
       </c>
-      <c r="AA20" s="11" t="n">
+      <c r="AA20" s="3" t="n">
         <v>15325722.1800769</v>
       </c>
-      <c r="AB20" s="11" t="n">
+      <c r="AB20" s="3" t="n">
         <v>34840083.1950512</v>
       </c>
-      <c r="AC20" s="11" t="n">
+      <c r="AC20" s="3" t="n">
         <v>56202606.1289704</v>
       </c>
-      <c r="AD20" s="11" t="n">
+      <c r="AD20" s="3" t="n">
         <v>90338975.5661439</v>
       </c>
-      <c r="AE20" s="11" t="n">
+      <c r="AE20" s="3" t="n">
         <v>157749872.047801</v>
       </c>
-      <c r="AF20" s="11" t="n">
+      <c r="AF20" s="3" t="n">
         <v>579993190.949804</v>
       </c>
-      <c r="AG20" s="11" t="n">
+      <c r="AG20" s="3" t="n">
         <v>1586966733.85859</v>
       </c>
-      <c r="AH20" s="11" t="n">
+      <c r="AH20" s="3" t="n">
         <v>3081713071.98682</v>
       </c>
-      <c r="AI20" s="11" t="n">
+      <c r="AI20" s="3" t="n">
         <v>4301525454.87805</v>
       </c>
-      <c r="AJ20" s="11" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>73704138.7614009</v>
       </c>
-      <c r="AK20" s="11" t="n">
+      <c r="AK20" s="3" t="n">
         <v>10218300.3915009</v>
       </c>
-      <c r="AL20" s="11" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-4735275.76030502</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-2379021.06915253</v>
       </c>
-      <c r="AN20" s="11" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-549890.960755517</v>
       </c>
-      <c r="AO20" s="11" t="n">
+      <c r="AO20" s="3" t="n">
         <v>-752.929221280353</v>
       </c>
-      <c r="AP20" s="11"/>
-      <c r="AQ20" s="11"/>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="11"/>
-      <c r="AT20" s="11"/>
-      <c r="AU20" s="11"/>
-      <c r="AV20" s="11"/>
-      <c r="AW20" s="11"/>
-      <c r="AX20" s="11"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5474,109 +6979,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="11" t="n">
+      <c r="P21" s="3" t="n">
         <v>24214566738.8981</v>
       </c>
-      <c r="Q21" s="11" t="n">
+      <c r="Q21" s="3" t="n">
         <v>35489211630.4335</v>
       </c>
-      <c r="R21" s="11" t="n">
+      <c r="R21" s="3" t="n">
         <v>33060305718.1975</v>
       </c>
-      <c r="S21" s="11" t="n">
+      <c r="S21" s="3" t="n">
         <v>31423990993.4659</v>
       </c>
-      <c r="T21" s="11" t="n">
+      <c r="T21" s="3" t="n">
         <v>36401261590.1566</v>
       </c>
-      <c r="U21" s="11" t="n">
+      <c r="U21" s="3" t="n">
         <v>35305115235.9255</v>
       </c>
-      <c r="V21" s="11" t="n">
+      <c r="V21" s="3" t="n">
         <v>34903150795.6185</v>
       </c>
-      <c r="W21" s="11" t="n">
+      <c r="W21" s="3" t="n">
         <v>34202156353.7648</v>
       </c>
-      <c r="X21" s="11" t="n">
+      <c r="X21" s="3" t="n">
         <v>32671693107.2574</v>
       </c>
-      <c r="Y21" s="11" t="n">
+      <c r="Y21" s="3" t="n">
         <v>33985149527.8471</v>
       </c>
-      <c r="Z21" s="11" t="n">
+      <c r="Z21" s="3" t="n">
         <v>2471982568.58261</v>
       </c>
-      <c r="AA21" s="11" t="n">
+      <c r="AA21" s="3" t="n">
         <v>1538304825.77626</v>
       </c>
-      <c r="AB21" s="11" t="n">
+      <c r="AB21" s="3" t="n">
         <v>2006662245.98908</v>
       </c>
-      <c r="AC21" s="11" t="n">
+      <c r="AC21" s="3" t="n">
         <v>2307226014.09719</v>
       </c>
-      <c r="AD21" s="11" t="n">
+      <c r="AD21" s="3" t="n">
         <v>2247800163.92171</v>
       </c>
-      <c r="AE21" s="11" t="n">
+      <c r="AE21" s="3" t="n">
         <v>1700931859.15486</v>
       </c>
-      <c r="AF21" s="11" t="n">
+      <c r="AF21" s="3" t="n">
         <v>1005690211.59281</v>
       </c>
-      <c r="AG21" s="11" t="n">
+      <c r="AG21" s="3" t="n">
         <v>41644150.3567676</v>
       </c>
-      <c r="AH21" s="11" t="n">
+      <c r="AH21" s="3" t="n">
         <v>275644148.42181</v>
       </c>
-      <c r="AI21" s="11" t="n">
+      <c r="AI21" s="3" t="n">
         <v>-121205227.412102</v>
       </c>
-      <c r="AJ21" s="11" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>40603521.6938045</v>
       </c>
-      <c r="AK21" s="11" t="n">
+      <c r="AK21" s="3" t="n">
         <v>2871781.42454045</v>
       </c>
-      <c r="AL21" s="11" t="n">
+      <c r="AL21" s="3" t="n">
         <v>94189680.682271</v>
       </c>
-      <c r="AM21" s="11" t="n">
+      <c r="AM21" s="3" t="n">
         <v>65838435.2065831</v>
       </c>
-      <c r="AN21" s="11" t="n">
+      <c r="AN21" s="3" t="n">
         <v>47130957.8452964</v>
       </c>
-      <c r="AO21" s="11" t="n">
+      <c r="AO21" s="3" t="n">
         <v>28469143.1537841</v>
       </c>
-      <c r="AP21" s="11" t="n">
+      <c r="AP21" s="3" t="n">
         <v>38118455.2716958</v>
       </c>
-      <c r="AQ21" s="11" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>34612555.5370292</v>
       </c>
-      <c r="AR21" s="11" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="11" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="11" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="11" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="11" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="11" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="11"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5585,41 +7090,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="11"/>
-      <c r="AN22" s="11"/>
-      <c r="AO22" s="11"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="11"/>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="11"/>
-      <c r="AT22" s="11"/>
-      <c r="AU22" s="11"/>
-      <c r="AV22" s="11"/>
-      <c r="AW22" s="11"/>
-      <c r="AX22" s="11"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -646,7 +646,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
@@ -657,6 +657,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -692,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -705,6 +706,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2180,106 +2182,106 @@
       <c r="K2" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="11" t="n">
+      <c r="L2" s="12" t="n">
         <v>46727000</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="M2" s="12" t="n">
         <v>81349000</v>
       </c>
-      <c r="N2" s="11" t="n">
+      <c r="N2" s="12" t="n">
         <v>115467464</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="O2" s="12" t="n">
         <v>128536356</v>
       </c>
-      <c r="P2" s="11" t="n">
+      <c r="P2" s="12" t="n">
         <v>211247118</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="12" t="n">
         <v>356021950</v>
       </c>
-      <c r="R2" s="11" t="n">
+      <c r="R2" s="12" t="n">
         <v>353586048</v>
       </c>
-      <c r="S2" s="11" t="n">
+      <c r="S2" s="12" t="n">
         <v>665351505</v>
       </c>
-      <c r="T2" s="11" t="n">
+      <c r="T2" s="12" t="n">
         <v>632548326</v>
       </c>
-      <c r="U2" s="11" t="n">
+      <c r="U2" s="12" t="n">
         <v>630822504</v>
       </c>
-      <c r="V2" s="11" t="n">
+      <c r="V2" s="12" t="n">
         <v>506179131.9317</v>
       </c>
-      <c r="W2" s="11" t="n">
+      <c r="W2" s="12" t="n">
         <v>500262704.3202</v>
       </c>
-      <c r="X2" s="11" t="n">
+      <c r="X2" s="12" t="n">
         <v>522250150.3984</v>
       </c>
-      <c r="Y2" s="11" t="n">
+      <c r="Y2" s="12" t="n">
         <v>623095935.9995</v>
       </c>
-      <c r="Z2" s="11" t="n">
+      <c r="Z2" s="12" t="n">
         <v>655648078.2852</v>
       </c>
-      <c r="AA2" s="11" t="n">
+      <c r="AA2" s="12" t="n">
         <v>579374427.3102</v>
       </c>
-      <c r="AB2" s="11" t="n">
+      <c r="AB2" s="12" t="n">
         <v>616117663.2708</v>
       </c>
-      <c r="AC2" s="11" t="n">
+      <c r="AC2" s="12" t="n">
         <v>578266956.2312</v>
       </c>
-      <c r="AD2" s="11" t="n">
+      <c r="AD2" s="12" t="n">
         <v>610906194.6321</v>
       </c>
-      <c r="AE2" s="11" t="n">
+      <c r="AE2" s="12" t="n">
         <v>883378465.5746</v>
       </c>
-      <c r="AF2" s="11" t="n">
+      <c r="AF2" s="12" t="n">
         <v>807941093.0421</v>
       </c>
-      <c r="AG2" s="11" t="n">
+      <c r="AG2" s="12" t="n">
         <v>840495827.5095</v>
       </c>
-      <c r="AH2" s="11" t="n">
+      <c r="AH2" s="12" t="n">
         <v>705214520.3465</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="12" t="n">
         <v>739713927.7513</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>454966542.1088</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="12" t="n">
         <v>259622282.0238</v>
       </c>
-      <c r="AL2" s="11" t="n">
+      <c r="AL2" s="12" t="n">
         <v>285927376.6513</v>
       </c>
-      <c r="AM2" s="11" t="n">
+      <c r="AM2" s="12" t="n">
         <v>604204837.44</v>
       </c>
-      <c r="AN2" s="11" t="n">
+      <c r="AN2" s="12" t="n">
         <v>256043323.4286</v>
       </c>
-      <c r="AO2" s="11" t="n">
+      <c r="AO2" s="12" t="n">
         <v>182311459.5524</v>
       </c>
-      <c r="AP2" s="11" t="n">
+      <c r="AP2" s="12" t="n">
         <v>193408513.3304</v>
       </c>
-      <c r="AQ2" s="11" t="n">
+      <c r="AQ2" s="12" t="n">
         <v>351617879.4067</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="11"/>
-      <c r="AU2" s="11"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2288,106 +2290,106 @@
       <c r="K3" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="11" t="n">
+      <c r="L3" s="12" t="n">
         <v>1231829000</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="M3" s="12" t="n">
         <v>1832142802</v>
       </c>
-      <c r="N3" s="11" t="n">
+      <c r="N3" s="12" t="n">
         <v>1984427794</v>
       </c>
-      <c r="O3" s="11" t="n">
+      <c r="O3" s="12" t="n">
         <v>1660100834</v>
       </c>
-      <c r="P3" s="11" t="n">
+      <c r="P3" s="12" t="n">
         <v>2506094117</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="12" t="n">
         <v>2188986725</v>
       </c>
-      <c r="R3" s="11" t="n">
+      <c r="R3" s="12" t="n">
         <v>2805379185</v>
       </c>
-      <c r="S3" s="11" t="n">
+      <c r="S3" s="12" t="n">
         <v>2521406653</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="12" t="n">
         <v>2495042033</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="12" t="n">
         <v>2938866215</v>
       </c>
-      <c r="V3" s="11" t="n">
+      <c r="V3" s="12" t="n">
         <v>2931455787.9492</v>
       </c>
-      <c r="W3" s="11" t="n">
+      <c r="W3" s="12" t="n">
         <v>3423908728.4207</v>
       </c>
-      <c r="X3" s="11" t="n">
+      <c r="X3" s="12" t="n">
         <v>3786225397.0495</v>
       </c>
-      <c r="Y3" s="11" t="n">
+      <c r="Y3" s="12" t="n">
         <v>7889753293.6993</v>
       </c>
-      <c r="Z3" s="11" t="n">
+      <c r="Z3" s="12" t="n">
         <v>8198902022.2418</v>
       </c>
-      <c r="AA3" s="11" t="n">
+      <c r="AA3" s="12" t="n">
         <v>7601266044.8299</v>
       </c>
-      <c r="AB3" s="11" t="n">
+      <c r="AB3" s="12" t="n">
         <v>8407598614.4567</v>
       </c>
-      <c r="AC3" s="11" t="n">
+      <c r="AC3" s="12" t="n">
         <v>8578619999.6755</v>
       </c>
-      <c r="AD3" s="11" t="n">
+      <c r="AD3" s="12" t="n">
         <v>12383044743.1505</v>
       </c>
-      <c r="AE3" s="11" t="n">
+      <c r="AE3" s="12" t="n">
         <v>14414004247.5419</v>
       </c>
-      <c r="AF3" s="11" t="n">
+      <c r="AF3" s="12" t="n">
         <v>12836478090.2288</v>
       </c>
-      <c r="AG3" s="11" t="n">
+      <c r="AG3" s="12" t="n">
         <v>10051679005.249</v>
       </c>
-      <c r="AH3" s="11" t="n">
+      <c r="AH3" s="12" t="n">
         <v>10080825392.8427</v>
       </c>
-      <c r="AI3" s="11" t="n">
+      <c r="AI3" s="12" t="n">
         <v>8510137178.7186</v>
       </c>
-      <c r="AJ3" s="11" t="n">
+      <c r="AJ3" s="12" t="n">
         <v>7396355548.4384</v>
       </c>
-      <c r="AK3" s="11" t="n">
+      <c r="AK3" s="12" t="n">
         <v>6535944178.6722</v>
       </c>
-      <c r="AL3" s="11" t="n">
+      <c r="AL3" s="12" t="n">
         <v>5885036086.0759</v>
       </c>
-      <c r="AM3" s="11" t="n">
+      <c r="AM3" s="12" t="n">
         <v>5355093144.2318</v>
       </c>
-      <c r="AN3" s="11" t="n">
+      <c r="AN3" s="12" t="n">
         <v>7233758821.4713</v>
       </c>
-      <c r="AO3" s="11" t="n">
+      <c r="AO3" s="12" t="n">
         <v>10163794536.2239</v>
       </c>
-      <c r="AP3" s="11" t="n">
+      <c r="AP3" s="12" t="n">
         <v>10495937200.2828</v>
       </c>
-      <c r="AQ3" s="11" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>7990936738.371</v>
       </c>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2396,110 +2398,110 @@
       <c r="K4" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="11" t="n">
+      <c r="L4" s="12" t="n">
         <v>4858708086</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="12" t="n">
         <v>8646896970</v>
       </c>
-      <c r="N4" s="11" t="n">
+      <c r="N4" s="12" t="n">
         <v>8493017559</v>
       </c>
-      <c r="O4" s="11" t="n">
+      <c r="O4" s="12" t="n">
         <v>8474154796</v>
       </c>
-      <c r="P4" s="11" t="n">
+      <c r="P4" s="12" t="n">
         <v>10032329172</v>
       </c>
-      <c r="Q4" s="11" t="n">
+      <c r="Q4" s="12" t="n">
         <v>9950474726</v>
       </c>
-      <c r="R4" s="11" t="n">
+      <c r="R4" s="12" t="n">
         <v>9478060532</v>
       </c>
-      <c r="S4" s="11" t="n">
+      <c r="S4" s="12" t="n">
         <v>9971358009</v>
       </c>
-      <c r="T4" s="11" t="n">
+      <c r="T4" s="12" t="n">
         <v>9591547705</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="12" t="n">
         <v>10427444732</v>
       </c>
-      <c r="V4" s="11" t="n">
+      <c r="V4" s="12" t="n">
         <v>10615644292.7524</v>
       </c>
-      <c r="W4" s="11" t="n">
+      <c r="W4" s="12" t="n">
         <v>11447502453.7896</v>
       </c>
-      <c r="X4" s="11" t="n">
+      <c r="X4" s="12" t="n">
         <v>12936646727.7969</v>
       </c>
-      <c r="Y4" s="11" t="n">
+      <c r="Y4" s="12" t="n">
         <v>14438364859.77</v>
       </c>
-      <c r="Z4" s="11" t="n">
+      <c r="Z4" s="12" t="n">
         <v>15682724618.93</v>
       </c>
-      <c r="AA4" s="11" t="n">
+      <c r="AA4" s="12" t="n">
         <v>17023354691.7014</v>
       </c>
-      <c r="AB4" s="11" t="n">
+      <c r="AB4" s="12" t="n">
         <v>21028329414.2771</v>
       </c>
-      <c r="AC4" s="11" t="n">
+      <c r="AC4" s="12" t="n">
         <v>20345384782.0541</v>
       </c>
-      <c r="AD4" s="11" t="n">
+      <c r="AD4" s="12" t="n">
         <v>24994650176.1541</v>
       </c>
-      <c r="AE4" s="11" t="n">
+      <c r="AE4" s="12" t="n">
         <v>27309992189.0019</v>
       </c>
-      <c r="AF4" s="11" t="n">
+      <c r="AF4" s="12" t="n">
         <v>24693393319.916</v>
       </c>
-      <c r="AG4" s="11" t="n">
+      <c r="AG4" s="12" t="n">
         <v>23429069205.5709</v>
       </c>
-      <c r="AH4" s="11" t="n">
+      <c r="AH4" s="12" t="n">
         <v>18262238749.0194</v>
       </c>
-      <c r="AI4" s="11" t="n">
+      <c r="AI4" s="12" t="n">
         <v>15329320328.0604</v>
       </c>
-      <c r="AJ4" s="11" t="n">
+      <c r="AJ4" s="12" t="n">
         <v>16603152556.986</v>
       </c>
-      <c r="AK4" s="11" t="n">
+      <c r="AK4" s="12" t="n">
         <v>15729526157.4323</v>
       </c>
-      <c r="AL4" s="11" t="n">
+      <c r="AL4" s="12" t="n">
         <v>15651726188.8128</v>
       </c>
-      <c r="AM4" s="11" t="n">
+      <c r="AM4" s="12" t="n">
         <v>16500408009.496</v>
       </c>
-      <c r="AN4" s="11" t="n">
+      <c r="AN4" s="12" t="n">
         <v>19617604115.3124</v>
       </c>
-      <c r="AO4" s="11" t="n">
+      <c r="AO4" s="12" t="n">
         <v>22403135622.6163</v>
       </c>
-      <c r="AP4" s="11" t="n">
+      <c r="AP4" s="12" t="n">
         <v>28408197582.7885</v>
       </c>
-      <c r="AQ4" s="11" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>22472070379.5338</v>
       </c>
-      <c r="AR4" s="11" t="n">
+      <c r="AR4" s="12" t="n">
         <v>34901197177.7637</v>
       </c>
-      <c r="AS4" s="11" t="n">
+      <c r="AS4" s="12" t="n">
         <v>15629938833.7564</v>
       </c>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2508,110 +2510,110 @@
       <c r="K5" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="12" t="n">
         <v>4830006450</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="12" t="n">
         <v>6944815008</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="12" t="n">
         <v>6445249440</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="12" t="n">
         <v>6375202911</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="12" t="n">
         <v>7141346256</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="12" t="n">
         <v>7157611248</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="12" t="n">
         <v>7107632340</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="12" t="n">
         <v>6467804795</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="12" t="n">
         <v>6435175233</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="12" t="n">
         <v>6554741021</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="12" t="n">
         <v>6745194577.4411</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="12" t="n">
         <v>7693282433.6292</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="12" t="n">
         <v>8788851686.7448</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="12" t="n">
         <v>11418635605.6067</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="12" t="n">
         <v>10903072037.7438</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="12" t="n">
         <v>13298806926.5422</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="12" t="n">
         <v>14388121136.2707</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="12" t="n">
         <v>15632247477.274</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="12" t="n">
         <v>17550368358.6305</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="12" t="n">
         <v>20780472691.5366</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="12" t="n">
         <v>20419313390.8335</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="12" t="n">
         <v>18357586746.0536</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="12" t="n">
         <v>18506646356.6348</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="12" t="n">
         <v>14113730802.9186</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="12" t="n">
         <v>17507568298.9709</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="12" t="n">
         <v>15274927347.6989</v>
       </c>
-      <c r="AL5" s="11" t="n">
+      <c r="AL5" s="12" t="n">
         <v>16344803745.5913</v>
       </c>
-      <c r="AM5" s="11" t="n">
+      <c r="AM5" s="12" t="n">
         <v>15780680808.8737</v>
       </c>
-      <c r="AN5" s="11" t="n">
+      <c r="AN5" s="12" t="n">
         <v>19692280457.8281</v>
       </c>
-      <c r="AO5" s="11" t="n">
+      <c r="AO5" s="12" t="n">
         <v>19004934084.1069</v>
       </c>
-      <c r="AP5" s="11" t="n">
+      <c r="AP5" s="12" t="n">
         <v>20925656124.7449</v>
       </c>
-      <c r="AQ5" s="11" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>20019978733.1273</v>
       </c>
-      <c r="AR5" s="11" t="n">
+      <c r="AR5" s="12" t="n">
         <v>22386178493.468</v>
       </c>
-      <c r="AS5" s="11" t="n">
+      <c r="AS5" s="12" t="n">
         <v>7432394200.8708</v>
       </c>
-      <c r="AT5" s="11"/>
-      <c r="AU5" s="11"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2620,106 +2622,106 @@
       <c r="K6" t="s">
         <v>200</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="12" t="n">
         <v>1215965769</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="12" t="n">
         <v>987626088</v>
       </c>
-      <c r="N6" s="11" t="n">
+      <c r="N6" s="12" t="n">
         <v>619553654</v>
       </c>
-      <c r="O6" s="11" t="n">
+      <c r="O6" s="12" t="n">
         <v>540020972</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="12" t="n">
         <v>441427881</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="12" t="n">
         <v>484810758</v>
       </c>
-      <c r="R6" s="11" t="n">
+      <c r="R6" s="12" t="n">
         <v>538138480</v>
       </c>
-      <c r="S6" s="11" t="n">
+      <c r="S6" s="12" t="n">
         <v>602591755</v>
       </c>
-      <c r="T6" s="11" t="n">
+      <c r="T6" s="12" t="n">
         <v>410304964</v>
       </c>
-      <c r="U6" s="11" t="n">
+      <c r="U6" s="12" t="n">
         <v>52954919</v>
       </c>
-      <c r="V6" s="11" t="n">
+      <c r="V6" s="12" t="n">
         <v>1456019</v>
       </c>
-      <c r="W6" s="11" t="n">
+      <c r="W6" s="12" t="n">
         <v>1325397.0996</v>
       </c>
-      <c r="X6" s="11" t="n">
+      <c r="X6" s="12" t="n">
         <v>28790999.2109</v>
       </c>
-      <c r="Y6" s="11" t="n">
+      <c r="Y6" s="12" t="n">
         <v>77024250.2115</v>
       </c>
-      <c r="Z6" s="11" t="n">
+      <c r="Z6" s="12" t="n">
         <v>262161091.7692</v>
       </c>
-      <c r="AA6" s="11" t="n">
+      <c r="AA6" s="12" t="n">
         <v>1056208389.3266</v>
       </c>
-      <c r="AB6" s="11" t="n">
+      <c r="AB6" s="12" t="n">
         <v>1109294062.5506</v>
       </c>
-      <c r="AC6" s="11" t="n">
+      <c r="AC6" s="12" t="n">
         <v>1062558790.5858</v>
       </c>
-      <c r="AD6" s="11" t="n">
+      <c r="AD6" s="12" t="n">
         <v>1752094928.3281</v>
       </c>
-      <c r="AE6" s="11" t="n">
+      <c r="AE6" s="12" t="n">
         <v>2976305827.7442</v>
       </c>
-      <c r="AF6" s="11" t="n">
+      <c r="AF6" s="12" t="n">
         <v>2483039317.3397</v>
       </c>
-      <c r="AG6" s="11" t="n">
+      <c r="AG6" s="12" t="n">
         <v>1901796433.7364</v>
       </c>
-      <c r="AH6" s="11" t="n">
+      <c r="AH6" s="12" t="n">
         <v>1456736627.5576</v>
       </c>
-      <c r="AI6" s="11" t="n">
+      <c r="AI6" s="12" t="n">
         <v>547842442.8204</v>
       </c>
-      <c r="AJ6" s="11" t="n">
+      <c r="AJ6" s="12" t="n">
         <v>251312214.7652</v>
       </c>
-      <c r="AK6" s="11" t="n">
+      <c r="AK6" s="12" t="n">
         <v>327769094.1414</v>
       </c>
-      <c r="AL6" s="11" t="n">
+      <c r="AL6" s="12" t="n">
         <v>393980730.1409</v>
       </c>
-      <c r="AM6" s="11" t="n">
+      <c r="AM6" s="12" t="n">
         <v>200050916.8539</v>
       </c>
-      <c r="AN6" s="11" t="n">
+      <c r="AN6" s="12" t="n">
         <v>151904125.5811</v>
       </c>
-      <c r="AO6" s="11" t="n">
+      <c r="AO6" s="12" t="n">
         <v>303051322.7786</v>
       </c>
-      <c r="AP6" s="11" t="n">
+      <c r="AP6" s="12" t="n">
         <v>150676346.6143</v>
       </c>
-      <c r="AQ6" s="11" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>320782846.8968</v>
       </c>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="11"/>
-      <c r="AT6" s="11"/>
-      <c r="AU6" s="11"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2728,110 +2730,110 @@
       <c r="K7" t="s">
         <v>193</v>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="12" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="12" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="12" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="11" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="11" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="11" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="11" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="11" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="11" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="11" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="11" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="11" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="11" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="11" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="11" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="11" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="11" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="11" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="11" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="11" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="11" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="11" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="11" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="11" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="11" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="11" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="11" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="11" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="11" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="11" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="11" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="11" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="11" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="11"/>
-      <c r="AU7" s="11"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2950,106 +2952,106 @@
       <c r="K11" t="s">
         <v>196</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>92871387.510077</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="12" t="n">
         <v>156115202.353092</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="12" t="n">
         <v>216188191.020045</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="12" t="n">
         <v>235133400.974793</v>
       </c>
-      <c r="P11" s="11" t="n">
+      <c r="P11" s="12" t="n">
         <v>378196610.144148</v>
       </c>
-      <c r="Q11" s="11" t="n">
+      <c r="Q11" s="12" t="n">
         <v>624166005.214214</v>
       </c>
-      <c r="R11" s="11" t="n">
+      <c r="R11" s="12" t="n">
         <v>608459839.394027</v>
       </c>
-      <c r="S11" s="11" t="n">
+      <c r="S11" s="12" t="n">
         <v>1124969320.41367</v>
       </c>
-      <c r="T11" s="11" t="n">
+      <c r="T11" s="12" t="n">
         <v>1056316280.07676</v>
       </c>
-      <c r="U11" s="11" t="n">
+      <c r="U11" s="12" t="n">
         <v>1040464675.3996</v>
       </c>
-      <c r="V11" s="11" t="n">
+      <c r="V11" s="12" t="n">
         <v>817848834.028121</v>
       </c>
-      <c r="W11" s="11" t="n">
+      <c r="W11" s="12" t="n">
         <v>789152979.960008</v>
       </c>
-      <c r="X11" s="11" t="n">
+      <c r="X11" s="12" t="n">
         <v>811036643.722026</v>
       </c>
-      <c r="Y11" s="11" t="n">
+      <c r="Y11" s="12" t="n">
         <v>949497474.078718</v>
       </c>
-      <c r="Z11" s="11" t="n">
+      <c r="Z11" s="12" t="n">
         <v>975262963.341741</v>
       </c>
-      <c r="AA11" s="11" t="n">
+      <c r="AA11" s="12" t="n">
         <v>836416618.597946</v>
       </c>
-      <c r="AB11" s="11" t="n">
+      <c r="AB11" s="12" t="n">
         <v>861415535.6484</v>
       </c>
-      <c r="AC11" s="11" t="n">
+      <c r="AC11" s="12" t="n">
         <v>786915472.146815</v>
       </c>
-      <c r="AD11" s="11" t="n">
+      <c r="AD11" s="12" t="n">
         <v>814347592.444547</v>
       </c>
-      <c r="AE11" s="11" t="n">
+      <c r="AE11" s="12" t="n">
         <v>1165711518.79124</v>
       </c>
-      <c r="AF11" s="11" t="n">
+      <c r="AF11" s="12" t="n">
         <v>1056970930.88331</v>
       </c>
-      <c r="AG11" s="11" t="n">
+      <c r="AG11" s="12" t="n">
         <v>1077837469.55035</v>
       </c>
-      <c r="AH11" s="11" t="n">
+      <c r="AH11" s="12" t="n">
         <v>888076645.302902</v>
       </c>
-      <c r="AI11" s="11" t="n">
+      <c r="AI11" s="12" t="n">
         <v>914781251.893441</v>
       </c>
-      <c r="AJ11" s="11" t="n">
+      <c r="AJ11" s="12" t="n">
         <v>551964707.703549</v>
       </c>
-      <c r="AK11" s="11" t="n">
+      <c r="AK11" s="12" t="n">
         <v>311403314.532057</v>
       </c>
-      <c r="AL11" s="11" t="n">
+      <c r="AL11" s="12" t="n">
         <v>340136355.199824</v>
       </c>
-      <c r="AM11" s="11" t="n">
+      <c r="AM11" s="12" t="n">
         <v>706148633.102252</v>
       </c>
-      <c r="AN11" s="11" t="n">
+      <c r="AN11" s="12" t="n">
         <v>292378814.980407</v>
       </c>
-      <c r="AO11" s="11" t="n">
+      <c r="AO11" s="12" t="n">
         <v>204184294.783404</v>
       </c>
-      <c r="AP11" s="11" t="n">
+      <c r="AP11" s="12" t="n">
         <v>213761050.526496</v>
       </c>
-      <c r="AQ11" s="11" t="n">
+      <c r="AQ11" s="12" t="n">
         <v>375980636.603171</v>
       </c>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3058,106 +3060,106 @@
       <c r="K12" t="s">
         <v>197</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>2448299022.08895</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="12" t="n">
         <v>3516027784.90199</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="12" t="n">
         <v>3715417660.81187</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="12" t="n">
         <v>3036846283.86003</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="12" t="n">
         <v>4486670912.83864</v>
       </c>
-      <c r="Q12" s="11" t="n">
+      <c r="Q12" s="12" t="n">
         <v>3837659727.4696</v>
       </c>
-      <c r="R12" s="11" t="n">
+      <c r="R12" s="12" t="n">
         <v>4827567654.32228</v>
       </c>
-      <c r="S12" s="11" t="n">
+      <c r="S12" s="12" t="n">
         <v>4263167825.72229</v>
       </c>
-      <c r="T12" s="11" t="n">
+      <c r="T12" s="12" t="n">
         <v>4166564688.58274</v>
       </c>
-      <c r="U12" s="11" t="n">
+      <c r="U12" s="12" t="n">
         <v>4847300885.81752</v>
       </c>
-      <c r="V12" s="11" t="n">
+      <c r="V12" s="12" t="n">
         <v>4736441206.15929</v>
       </c>
-      <c r="W12" s="11" t="n">
+      <c r="W12" s="12" t="n">
         <v>5401137747.84784</v>
       </c>
-      <c r="X12" s="11" t="n">
+      <c r="X12" s="12" t="n">
         <v>5879878705.74202</v>
       </c>
-      <c r="Y12" s="11" t="n">
+      <c r="Y12" s="12" t="n">
         <v>12022708527.9493</v>
       </c>
-      <c r="Z12" s="11" t="n">
+      <c r="Z12" s="12" t="n">
         <v>12195697276.0041</v>
       </c>
-      <c r="AA12" s="11" t="n">
+      <c r="AA12" s="12" t="n">
         <v>10973603498.1675</v>
       </c>
-      <c r="AB12" s="11" t="n">
+      <c r="AB12" s="12" t="n">
         <v>11754956067.224</v>
       </c>
-      <c r="AC12" s="11" t="n">
+      <c r="AC12" s="12" t="n">
         <v>11673931450.985</v>
       </c>
-      <c r="AD12" s="11" t="n">
+      <c r="AD12" s="12" t="n">
         <v>16506793943.693</v>
       </c>
-      <c r="AE12" s="11" t="n">
+      <c r="AE12" s="12" t="n">
         <v>19020806413.1789</v>
       </c>
-      <c r="AF12" s="11" t="n">
+      <c r="AF12" s="12" t="n">
         <v>16793036414.581</v>
       </c>
-      <c r="AG12" s="11" t="n">
+      <c r="AG12" s="12" t="n">
         <v>12890101186.8824</v>
       </c>
-      <c r="AH12" s="11" t="n">
+      <c r="AH12" s="12" t="n">
         <v>12694783414.7846</v>
       </c>
-      <c r="AI12" s="11" t="n">
+      <c r="AI12" s="12" t="n">
         <v>10524222473.1376</v>
       </c>
-      <c r="AJ12" s="11" t="n">
+      <c r="AJ12" s="12" t="n">
         <v>8973247152.29068</v>
       </c>
-      <c r="AK12" s="11" t="n">
+      <c r="AK12" s="12" t="n">
         <v>7839522343.65016</v>
       </c>
-      <c r="AL12" s="11" t="n">
+      <c r="AL12" s="12" t="n">
         <v>7000780226.01685</v>
       </c>
-      <c r="AM12" s="11" t="n">
+      <c r="AM12" s="12" t="n">
         <v>6258625336.32899</v>
       </c>
-      <c r="AN12" s="11" t="n">
+      <c r="AN12" s="12" t="n">
         <v>8260312371.18209</v>
       </c>
-      <c r="AO12" s="11" t="n">
+      <c r="AO12" s="12" t="n">
         <v>11383196782.0202</v>
       </c>
-      <c r="AP12" s="11" t="n">
+      <c r="AP12" s="12" t="n">
         <v>11600433318.8777</v>
       </c>
-      <c r="AQ12" s="11" t="n">
+      <c r="AQ12" s="12" t="n">
         <v>8544609526.16492</v>
       </c>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="11"/>
-      <c r="AT12" s="11"/>
-      <c r="AU12" s="11"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3166,110 +3168,110 @@
       <c r="K13" t="s">
         <v>198</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>9656835693.56582</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="12" t="n">
         <v>16594083150.3509</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="12" t="n">
         <v>15901363369.1798</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="12" t="n">
         <v>15501893001.9327</v>
       </c>
-      <c r="P13" s="11" t="n">
+      <c r="P13" s="12" t="n">
         <v>17960921411.0114</v>
       </c>
-      <c r="Q13" s="11" t="n">
+      <c r="Q13" s="12" t="n">
         <v>17444845913.8894</v>
       </c>
-      <c r="R13" s="11" t="n">
+      <c r="R13" s="12" t="n">
         <v>16310086955.319</v>
       </c>
-      <c r="S13" s="11" t="n">
+      <c r="S13" s="12" t="n">
         <v>16859467151.857</v>
       </c>
-      <c r="T13" s="11" t="n">
+      <c r="T13" s="12" t="n">
         <v>16017286862.4814</v>
       </c>
-      <c r="U13" s="11" t="n">
+      <c r="U13" s="12" t="n">
         <v>17198796538.6974</v>
       </c>
-      <c r="V13" s="11" t="n">
+      <c r="V13" s="12" t="n">
         <v>17152015481.4607</v>
       </c>
-      <c r="W13" s="11" t="n">
+      <c r="W13" s="12" t="n">
         <v>18058173428.6659</v>
       </c>
-      <c r="X13" s="11" t="n">
+      <c r="X13" s="12" t="n">
         <v>20090170457.8275</v>
       </c>
-      <c r="Y13" s="11" t="n">
+      <c r="Y13" s="12" t="n">
         <v>22001733877.766</v>
       </c>
-      <c r="Z13" s="11" t="n">
+      <c r="Z13" s="12" t="n">
         <v>23327728688.1288</v>
       </c>
-      <c r="AA13" s="11" t="n">
+      <c r="AA13" s="12" t="n">
         <v>24575846114.8009</v>
       </c>
-      <c r="AB13" s="11" t="n">
+      <c r="AB13" s="12" t="n">
         <v>29400438789.6097</v>
       </c>
-      <c r="AC13" s="11" t="n">
+      <c r="AC13" s="12" t="n">
         <v>27686344341.9334</v>
       </c>
-      <c r="AD13" s="11" t="n">
+      <c r="AD13" s="12" t="n">
         <v>33318262891.74</v>
       </c>
-      <c r="AE13" s="11" t="n">
+      <c r="AE13" s="12" t="n">
         <v>36038429408.748</v>
       </c>
-      <c r="AF13" s="11" t="n">
+      <c r="AF13" s="12" t="n">
         <v>32304581545.352</v>
       </c>
-      <c r="AG13" s="11" t="n">
+      <c r="AG13" s="12" t="n">
         <v>30045037512.2976</v>
       </c>
-      <c r="AH13" s="11" t="n">
+      <c r="AH13" s="12" t="n">
         <v>22997637252.2522</v>
       </c>
-      <c r="AI13" s="11" t="n">
+      <c r="AI13" s="12" t="n">
         <v>18957294589.5556</v>
       </c>
-      <c r="AJ13" s="11" t="n">
+      <c r="AJ13" s="12" t="n">
         <v>20142919093.7796</v>
       </c>
-      <c r="AK13" s="11" t="n">
+      <c r="AK13" s="12" t="n">
         <v>18866741880.7839</v>
       </c>
-      <c r="AL13" s="11" t="n">
+      <c r="AL13" s="12" t="n">
         <v>18619137351.5832</v>
       </c>
-      <c r="AM13" s="11" t="n">
+      <c r="AM13" s="12" t="n">
         <v>19284421175.6118</v>
       </c>
-      <c r="AN13" s="11" t="n">
+      <c r="AN13" s="12" t="n">
         <v>22401567700.2773</v>
       </c>
-      <c r="AO13" s="11" t="n">
+      <c r="AO13" s="12" t="n">
         <v>25090954015.0223</v>
       </c>
-      <c r="AP13" s="11" t="n">
+      <c r="AP13" s="12" t="n">
         <v>31397615618.333</v>
       </c>
-      <c r="AQ13" s="11" t="n">
+      <c r="AQ13" s="12" t="n">
         <v>24029106089.1012</v>
       </c>
-      <c r="AR13" s="11" t="n">
+      <c r="AR13" s="12" t="n">
         <v>34901197177.7637</v>
       </c>
-      <c r="AS13" s="11" t="n">
+      <c r="AS13" s="12" t="n">
         <v>14907810330.31</v>
       </c>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3278,110 +3280,110 @@
       <c r="K14" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="11" t="n">
+      <c r="L14" s="12" t="n">
         <v>9599790286.00426</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="12" t="n">
         <v>13327652463.8129</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="12" t="n">
         <v>12067354463.6484</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="12" t="n">
         <v>11662250191.4387</v>
       </c>
-      <c r="P14" s="11" t="n">
+      <c r="P14" s="12" t="n">
         <v>12785182451.0326</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="12" t="n">
         <v>12548489270.2275</v>
       </c>
-      <c r="R14" s="11" t="n">
+      <c r="R14" s="12" t="n">
         <v>12230994001.4041</v>
       </c>
-      <c r="S14" s="11" t="n">
+      <c r="S14" s="12" t="n">
         <v>10935696259.9783</v>
       </c>
-      <c r="T14" s="11" t="n">
+      <c r="T14" s="12" t="n">
         <v>10746341558.9921</v>
       </c>
-      <c r="U14" s="11" t="n">
+      <c r="U14" s="12" t="n">
         <v>10811244756.6443</v>
       </c>
-      <c r="V14" s="11" t="n">
+      <c r="V14" s="12" t="n">
         <v>10898413570.3117</v>
       </c>
-      <c r="W14" s="11" t="n">
+      <c r="W14" s="12" t="n">
         <v>12135977169.0806</v>
       </c>
-      <c r="X14" s="11" t="n">
+      <c r="X14" s="12" t="n">
         <v>13648786446.0173</v>
       </c>
-      <c r="Y14" s="11" t="n">
+      <c r="Y14" s="12" t="n">
         <v>17400154676.9157</v>
       </c>
-      <c r="Z14" s="11" t="n">
+      <c r="Z14" s="12" t="n">
         <v>16218094275.315</v>
       </c>
-      <c r="AA14" s="11" t="n">
+      <c r="AA14" s="12" t="n">
         <v>19198885205.4215</v>
       </c>
-      <c r="AB14" s="11" t="n">
+      <c r="AB14" s="12" t="n">
         <v>20116532627.5139</v>
       </c>
-      <c r="AC14" s="11" t="n">
+      <c r="AC14" s="12" t="n">
         <v>21272627238.5806</v>
       </c>
-      <c r="AD14" s="11" t="n">
+      <c r="AD14" s="12" t="n">
         <v>23394917820.3582</v>
       </c>
-      <c r="AE14" s="11" t="n">
+      <c r="AE14" s="12" t="n">
         <v>27422036337.1597</v>
       </c>
-      <c r="AF14" s="11" t="n">
+      <c r="AF14" s="12" t="n">
         <v>26713111721.3551</v>
       </c>
-      <c r="AG14" s="11" t="n">
+      <c r="AG14" s="12" t="n">
         <v>23541455171.8209</v>
       </c>
-      <c r="AH14" s="11" t="n">
+      <c r="AH14" s="12" t="n">
         <v>23305419752.4635</v>
       </c>
-      <c r="AI14" s="11" t="n">
+      <c r="AI14" s="12" t="n">
         <v>17454012758.7292</v>
       </c>
-      <c r="AJ14" s="11" t="n">
+      <c r="AJ14" s="12" t="n">
         <v>21240154878.0931</v>
       </c>
-      <c r="AK14" s="11" t="n">
+      <c r="AK14" s="12" t="n">
         <v>18321474444.4537</v>
       </c>
-      <c r="AL14" s="11" t="n">
+      <c r="AL14" s="12" t="n">
         <v>19443615499.8262</v>
       </c>
-      <c r="AM14" s="11" t="n">
+      <c r="AM14" s="12" t="n">
         <v>18443258795.8479</v>
       </c>
-      <c r="AN14" s="11" t="n">
+      <c r="AN14" s="12" t="n">
         <v>22486841474.4162</v>
       </c>
-      <c r="AO14" s="11" t="n">
+      <c r="AO14" s="12" t="n">
         <v>21285052913.8192</v>
       </c>
-      <c r="AP14" s="11" t="n">
+      <c r="AP14" s="12" t="n">
         <v>23127680158.2166</v>
       </c>
-      <c r="AQ14" s="11" t="n">
+      <c r="AQ14" s="12" t="n">
         <v>21407114909.9812</v>
       </c>
-      <c r="AR14" s="11" t="n">
+      <c r="AR14" s="12" t="n">
         <v>22386178493.468</v>
       </c>
-      <c r="AS14" s="11" t="n">
+      <c r="AS14" s="12" t="n">
         <v>7089005544.11504</v>
       </c>
-      <c r="AT14" s="11"/>
-      <c r="AU14" s="11"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3390,147 +3392,147 @@
       <c r="K15" t="s">
         <v>200</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L15" s="12" t="n">
         <v>2416770349.72902</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="12" t="n">
         <v>1895333029.01465</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="12" t="n">
         <v>1159982033.53733</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="12" t="n">
         <v>987868115.259726</v>
       </c>
-      <c r="P15" s="11" t="n">
+      <c r="P15" s="12" t="n">
         <v>790290205.129873</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="12" t="n">
         <v>849954319.124804</v>
       </c>
-      <c r="R15" s="11" t="n">
+      <c r="R15" s="12" t="n">
         <v>926042345.179145</v>
       </c>
-      <c r="S15" s="11" t="n">
+      <c r="S15" s="12" t="n">
         <v>1018855795.79358</v>
       </c>
-      <c r="T15" s="11" t="n">
+      <c r="T15" s="12" t="n">
         <v>685183717.124421</v>
       </c>
-      <c r="U15" s="11" t="n">
+      <c r="U15" s="12" t="n">
         <v>87342671.2883202</v>
       </c>
-      <c r="V15" s="11" t="n">
+      <c r="V15" s="12" t="n">
         <v>2352533.65133486</v>
       </c>
-      <c r="W15" s="11" t="n">
+      <c r="W15" s="12" t="n">
         <v>2090783.62577719</v>
       </c>
-      <c r="X15" s="11" t="n">
+      <c r="X15" s="12" t="n">
         <v>44711438.2860374</v>
       </c>
-      <c r="Y15" s="11" t="n">
+      <c r="Y15" s="12" t="n">
         <v>117372505.248831</v>
       </c>
-      <c r="Z15" s="11" t="n">
+      <c r="Z15" s="12" t="n">
         <v>389959204.792361</v>
       </c>
-      <c r="AA15" s="11" t="n">
+      <c r="AA15" s="12" t="n">
         <v>1524800211.9057</v>
       </c>
-      <c r="AB15" s="11" t="n">
+      <c r="AB15" s="12" t="n">
         <v>1550942613.80333</v>
       </c>
-      <c r="AC15" s="11" t="n">
+      <c r="AC15" s="12" t="n">
         <v>1445948006.13727</v>
       </c>
-      <c r="AD15" s="11" t="n">
+      <c r="AD15" s="12" t="n">
         <v>2335570172.89299</v>
       </c>
-      <c r="AE15" s="11" t="n">
+      <c r="AE15" s="12" t="n">
         <v>3927551012.45325</v>
       </c>
-      <c r="AF15" s="11" t="n">
+      <c r="AF15" s="12" t="n">
         <v>3248380855.07757</v>
       </c>
-      <c r="AG15" s="11" t="n">
+      <c r="AG15" s="12" t="n">
         <v>2438831209.68277</v>
       </c>
-      <c r="AH15" s="11" t="n">
+      <c r="AH15" s="12" t="n">
         <v>1834468434.73327</v>
       </c>
-      <c r="AI15" s="11" t="n">
+      <c r="AI15" s="12" t="n">
         <v>677499742.646593</v>
       </c>
-      <c r="AJ15" s="11" t="n">
+      <c r="AJ15" s="12" t="n">
         <v>304891591.637156</v>
       </c>
-      <c r="AK15" s="11" t="n">
+      <c r="AK15" s="12" t="n">
         <v>393141842.530469</v>
       </c>
-      <c r="AL15" s="11" t="n">
+      <c r="AL15" s="12" t="n">
         <v>468675546.70191</v>
       </c>
-      <c r="AM15" s="11" t="n">
+      <c r="AM15" s="12" t="n">
         <v>233804287.442935</v>
       </c>
-      <c r="AN15" s="11" t="n">
+      <c r="AN15" s="12" t="n">
         <v>173461067.577581</v>
       </c>
-      <c r="AO15" s="11" t="n">
+      <c r="AO15" s="12" t="n">
         <v>339409934.935775</v>
       </c>
-      <c r="AP15" s="11" t="n">
+      <c r="AP15" s="12" t="n">
         <v>166532142.702245</v>
       </c>
-      <c r="AQ15" s="11" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>343009118.851248</v>
       </c>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="11"/>
-      <c r="AT15" s="11"/>
-      <c r="AU15" s="11"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
-      <c r="AO16" s="11"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="11"/>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="11"/>
-      <c r="AT16" s="11"/>
-      <c r="AU16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -656,8 +656,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="193" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -705,8 +705,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2219,7 +2219,7 @@
         <v>500262704.3202</v>
       </c>
       <c r="X2" s="12" t="n">
-        <v>522250150.3984</v>
+        <v>522300150.3984</v>
       </c>
       <c r="Y2" s="12" t="n">
         <v>623095935.9995</v>
@@ -2278,8 +2278,12 @@
       <c r="AQ2" s="12" t="n">
         <v>351617879.4067</v>
       </c>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
+      <c r="AR2" s="12" t="n">
+        <v>523530784.8793</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>696654306.2607</v>
+      </c>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
     </row>
@@ -2324,31 +2328,31 @@
         <v>2931455787.9492</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>3423908728.4207</v>
+        <v>3407652385.4207</v>
       </c>
       <c r="X3" s="12" t="n">
-        <v>3786225397.0495</v>
+        <v>3769970759.0495</v>
       </c>
       <c r="Y3" s="12" t="n">
-        <v>7889753293.6993</v>
+        <v>7891252971.6993</v>
       </c>
       <c r="Z3" s="12" t="n">
-        <v>8198902022.2418</v>
+        <v>8187879255.2418</v>
       </c>
       <c r="AA3" s="12" t="n">
-        <v>7601266044.8299</v>
+        <v>7582626152.8299</v>
       </c>
       <c r="AB3" s="12" t="n">
-        <v>8407598614.4567</v>
+        <v>8386105370.6974</v>
       </c>
       <c r="AC3" s="12" t="n">
-        <v>8578619999.6755</v>
+        <v>8560265573.0923</v>
       </c>
       <c r="AD3" s="12" t="n">
-        <v>12383044743.1505</v>
+        <v>12364994910.5808</v>
       </c>
       <c r="AE3" s="12" t="n">
-        <v>14414004247.5419</v>
+        <v>14379214123.7889</v>
       </c>
       <c r="AF3" s="12" t="n">
         <v>12836478090.2288</v>
@@ -2360,34 +2364,38 @@
         <v>10080825392.8427</v>
       </c>
       <c r="AI3" s="12" t="n">
-        <v>8510137178.7186</v>
+        <v>8510139000.4686</v>
       </c>
       <c r="AJ3" s="12" t="n">
-        <v>7396355548.4384</v>
+        <v>7396361117.1484</v>
       </c>
       <c r="AK3" s="12" t="n">
-        <v>6535944178.6722</v>
+        <v>6603168902.8519</v>
       </c>
       <c r="AL3" s="12" t="n">
-        <v>5885036086.0759</v>
+        <v>5905315343.5632</v>
       </c>
       <c r="AM3" s="12" t="n">
-        <v>5355093144.2318</v>
+        <v>5381927899.4193</v>
       </c>
       <c r="AN3" s="12" t="n">
-        <v>7233758821.4713</v>
+        <v>7246713540.1239</v>
       </c>
       <c r="AO3" s="12" t="n">
-        <v>10163794536.2239</v>
+        <v>10165339699.2233</v>
       </c>
       <c r="AP3" s="12" t="n">
-        <v>10495937200.2828</v>
+        <v>10553867620.3906</v>
       </c>
       <c r="AQ3" s="12" t="n">
-        <v>7990936738.371</v>
-      </c>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
+        <v>8391849406.9237</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>8681875038.9796</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>4529696903.065</v>
+      </c>
       <c r="AT3" s="12"/>
       <c r="AU3" s="12"/>
     </row>
@@ -2426,37 +2434,37 @@
         <v>9591547705</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>10427444732</v>
+        <v>10428580690</v>
       </c>
       <c r="V4" s="12" t="n">
         <v>10615644292.7524</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>11447502453.7896</v>
+        <v>11463758796.7896</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>12936646727.7969</v>
+        <v>12952851365.7969</v>
       </c>
       <c r="Y4" s="12" t="n">
-        <v>14438364859.77</v>
+        <v>14436900839.77</v>
       </c>
       <c r="Z4" s="12" t="n">
-        <v>15682724618.93</v>
+        <v>15693686076.93</v>
       </c>
       <c r="AA4" s="12" t="n">
-        <v>17023354691.7014</v>
+        <v>17042375037.7014</v>
       </c>
       <c r="AB4" s="12" t="n">
-        <v>21028329414.2771</v>
+        <v>21050437479.0364</v>
       </c>
       <c r="AC4" s="12" t="n">
-        <v>20345384782.0541</v>
+        <v>20364550746.6373</v>
       </c>
       <c r="AD4" s="12" t="n">
-        <v>24994650176.1541</v>
+        <v>25013640771.7238</v>
       </c>
       <c r="AE4" s="12" t="n">
-        <v>27309992189.0019</v>
+        <v>27345384649.9922</v>
       </c>
       <c r="AF4" s="12" t="n">
         <v>24693393319.916</v>
@@ -2468,37 +2476,37 @@
         <v>18262238749.0194</v>
       </c>
       <c r="AI4" s="12" t="n">
-        <v>15329320328.0604</v>
+        <v>15329318506.3104</v>
       </c>
       <c r="AJ4" s="12" t="n">
-        <v>16603152556.986</v>
+        <v>16603146988.276</v>
       </c>
       <c r="AK4" s="12" t="n">
-        <v>15729526157.4323</v>
+        <v>15662301433.2526</v>
       </c>
       <c r="AL4" s="12" t="n">
-        <v>15651726188.8128</v>
+        <v>15631446931.3255</v>
       </c>
       <c r="AM4" s="12" t="n">
-        <v>16500408009.496</v>
+        <v>16473573254.3085</v>
       </c>
       <c r="AN4" s="12" t="n">
-        <v>19617604115.3124</v>
+        <v>19604649396.6598</v>
       </c>
       <c r="AO4" s="12" t="n">
-        <v>22403135622.6163</v>
+        <v>22401590459.6169</v>
       </c>
       <c r="AP4" s="12" t="n">
-        <v>28408197582.7885</v>
+        <v>28350421387.7608</v>
       </c>
       <c r="AQ4" s="12" t="n">
-        <v>22472070379.5338</v>
+        <v>22150836950.1061</v>
       </c>
       <c r="AR4" s="12" t="n">
-        <v>34901197177.7637</v>
+        <v>26075657016.0868</v>
       </c>
       <c r="AS4" s="12" t="n">
-        <v>15629938833.7564</v>
+        <v>10251840750.7572</v>
       </c>
       <c r="AT4" s="12"/>
       <c r="AU4" s="12"/>
@@ -2538,7 +2546,7 @@
         <v>6435175233</v>
       </c>
       <c r="U5" s="12" t="n">
-        <v>6554741021</v>
+        <v>6553605063</v>
       </c>
       <c r="V5" s="12" t="n">
         <v>6745194577.4411</v>
@@ -2550,25 +2558,25 @@
         <v>8788851686.7448</v>
       </c>
       <c r="Y5" s="12" t="n">
-        <v>11418635605.6067</v>
+        <v>11418603901.6067</v>
       </c>
       <c r="Z5" s="12" t="n">
-        <v>10903072037.7438</v>
+        <v>10903133346.7438</v>
       </c>
       <c r="AA5" s="12" t="n">
-        <v>13298806926.5422</v>
+        <v>13298426472.5422</v>
       </c>
       <c r="AB5" s="12" t="n">
-        <v>14388121136.2707</v>
+        <v>14387506315.2707</v>
       </c>
       <c r="AC5" s="12" t="n">
-        <v>15632247477.274</v>
+        <v>15631431985.274</v>
       </c>
       <c r="AD5" s="12" t="n">
-        <v>17550368358.6305</v>
+        <v>17549427595.6305</v>
       </c>
       <c r="AE5" s="12" t="n">
-        <v>20780472691.5366</v>
+        <v>20779870354.2993</v>
       </c>
       <c r="AF5" s="12" t="n">
         <v>20419313390.8335</v>
@@ -2601,16 +2609,16 @@
         <v>19004934084.1069</v>
       </c>
       <c r="AP5" s="12" t="n">
-        <v>20925656124.7449</v>
+        <v>20925501899.6648</v>
       </c>
       <c r="AQ5" s="12" t="n">
-        <v>20019978733.1273</v>
+        <v>19940299494.0023</v>
       </c>
       <c r="AR5" s="12" t="n">
-        <v>22386178493.468</v>
+        <v>21742194765.7339</v>
       </c>
       <c r="AS5" s="12" t="n">
-        <v>7432394200.8708</v>
+        <v>7369748566.9403</v>
       </c>
       <c r="AT5" s="12"/>
       <c r="AU5" s="12"/>
@@ -2662,7 +2670,7 @@
         <v>28790999.2109</v>
       </c>
       <c r="Y6" s="12" t="n">
-        <v>77024250.2115</v>
+        <v>77020296.2115</v>
       </c>
       <c r="Z6" s="12" t="n">
         <v>262161091.7692</v>
@@ -2674,7 +2682,7 @@
         <v>1109294062.5506</v>
       </c>
       <c r="AC6" s="12" t="n">
-        <v>1062558790.5858</v>
+        <v>1062562744.5858</v>
       </c>
       <c r="AD6" s="12" t="n">
         <v>1752094928.3281</v>
@@ -2718,8 +2726,12 @@
       <c r="AQ6" s="12" t="n">
         <v>320782846.8968</v>
       </c>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
+      <c r="AR6" s="12" t="n">
+        <v>264118065.5521</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>214392507.604</v>
+      </c>
       <c r="AT6" s="12"/>
       <c r="AU6" s="12"/>
     </row>
@@ -2989,7 +3001,7 @@
         <v>789152979.960008</v>
       </c>
       <c r="X11" s="12" t="n">
-        <v>811036643.722026</v>
+        <v>811114292.014047</v>
       </c>
       <c r="Y11" s="12" t="n">
         <v>949497474.078718</v>
@@ -3048,8 +3060,12 @@
       <c r="AQ11" s="12" t="n">
         <v>375980636.603171</v>
       </c>
-      <c r="AR11" s="12"/>
-      <c r="AS11" s="12"/>
+      <c r="AR11" s="12" t="n">
+        <v>523530784.8793</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>664467748.338092</v>
+      </c>
       <c r="AT11" s="12"/>
       <c r="AU11" s="12"/>
     </row>
@@ -3094,31 +3110,31 @@
         <v>4736441206.15929</v>
       </c>
       <c r="W12" s="12" t="n">
-        <v>5401137747.84784</v>
+        <v>5375493738.38859</v>
       </c>
       <c r="X12" s="12" t="n">
-        <v>5879878705.74202</v>
+        <v>5854635808.17966</v>
       </c>
       <c r="Y12" s="12" t="n">
-        <v>12022708527.9493</v>
+        <v>12024993794.7768</v>
       </c>
       <c r="Z12" s="12" t="n">
-        <v>12195697276.0041</v>
+        <v>12179301137.9467</v>
       </c>
       <c r="AA12" s="12" t="n">
-        <v>10973603498.1675</v>
+        <v>10946693930.3599</v>
       </c>
       <c r="AB12" s="12" t="n">
-        <v>11754956067.224</v>
+        <v>11724905615.5173</v>
       </c>
       <c r="AC12" s="12" t="n">
-        <v>11673931450.985</v>
+        <v>11648954436.2947</v>
       </c>
       <c r="AD12" s="12" t="n">
-        <v>16506793943.693</v>
+        <v>16482733232.202</v>
       </c>
       <c r="AE12" s="12" t="n">
-        <v>19020806413.1789</v>
+        <v>18974897157.3169</v>
       </c>
       <c r="AF12" s="12" t="n">
         <v>16793036414.581</v>
@@ -3130,34 +3146,38 @@
         <v>12694783414.7846</v>
       </c>
       <c r="AI12" s="12" t="n">
-        <v>10524222473.1376</v>
+        <v>10524224726.0393</v>
       </c>
       <c r="AJ12" s="12" t="n">
-        <v>8973247152.29068</v>
+        <v>8973253908.24107</v>
       </c>
       <c r="AK12" s="12" t="n">
-        <v>7839522343.65016</v>
+        <v>7920154875.51483</v>
       </c>
       <c r="AL12" s="12" t="n">
-        <v>7000780226.01685</v>
+        <v>7024904228.44247</v>
       </c>
       <c r="AM12" s="12" t="n">
-        <v>6258625336.32899</v>
+        <v>6289987756.02688</v>
       </c>
       <c r="AN12" s="12" t="n">
-        <v>8260312371.18209</v>
+        <v>8275105513.36339</v>
       </c>
       <c r="AO12" s="12" t="n">
-        <v>11383196782.0202</v>
+        <v>11384927326.102</v>
       </c>
       <c r="AP12" s="12" t="n">
-        <v>11600433318.8777</v>
+        <v>11664459804.8191</v>
       </c>
       <c r="AQ12" s="12" t="n">
-        <v>8544609526.16492</v>
-      </c>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
+        <v>8973300469.29632</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>8681875038.9796</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>4320417565.47658</v>
+      </c>
       <c r="AT12" s="12"/>
       <c r="AU12" s="12"/>
     </row>
@@ -3196,37 +3216,37 @@
         <v>16017286862.4814</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>17198796538.6974</v>
+        <v>17200670162.6792</v>
       </c>
       <c r="V13" s="12" t="n">
         <v>17152015481.4607</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>18058173428.6659</v>
+        <v>18083817438.1251</v>
       </c>
       <c r="X13" s="12" t="n">
-        <v>20090170457.8275</v>
+        <v>20115335707.0979</v>
       </c>
       <c r="Y13" s="12" t="n">
-        <v>22001733877.766</v>
+        <v>21999502947.9658</v>
       </c>
       <c r="Z13" s="12" t="n">
-        <v>23327728688.1288</v>
+        <v>23344033630.316</v>
       </c>
       <c r="AA13" s="12" t="n">
-        <v>24575846114.8009</v>
+        <v>24603304926.816</v>
       </c>
       <c r="AB13" s="12" t="n">
-        <v>29400438789.6097</v>
+        <v>29431348843.942</v>
       </c>
       <c r="AC13" s="12" t="n">
-        <v>27686344341.9334</v>
+        <v>27712425711.2847</v>
       </c>
       <c r="AD13" s="12" t="n">
-        <v>33318262891.74</v>
+        <v>33343577655.1474</v>
       </c>
       <c r="AE13" s="12" t="n">
-        <v>36038429408.748</v>
+        <v>36085133512.4392</v>
       </c>
       <c r="AF13" s="12" t="n">
         <v>32304581545.352</v>
@@ -3238,37 +3258,37 @@
         <v>22997637252.2522</v>
       </c>
       <c r="AI13" s="12" t="n">
-        <v>18957294589.5556</v>
+        <v>18957292336.654</v>
       </c>
       <c r="AJ13" s="12" t="n">
-        <v>20142919093.7796</v>
+        <v>20142912337.8292</v>
       </c>
       <c r="AK13" s="12" t="n">
-        <v>18866741880.7839</v>
+        <v>18786109348.9192</v>
       </c>
       <c r="AL13" s="12" t="n">
-        <v>18619137351.5832</v>
+        <v>18595013349.1576</v>
       </c>
       <c r="AM13" s="12" t="n">
-        <v>19284421175.6118</v>
+        <v>19253058755.914</v>
       </c>
       <c r="AN13" s="12" t="n">
-        <v>22401567700.2773</v>
+        <v>22386774558.096</v>
       </c>
       <c r="AO13" s="12" t="n">
-        <v>25090954015.0223</v>
+        <v>25089223470.9406</v>
       </c>
       <c r="AP13" s="12" t="n">
-        <v>31397615618.333</v>
+        <v>31333759586.704</v>
       </c>
       <c r="AQ13" s="12" t="n">
-        <v>24029106089.1012</v>
+        <v>23685615167.9392</v>
       </c>
       <c r="AR13" s="12" t="n">
-        <v>34901197177.7637</v>
+        <v>26075657016.0868</v>
       </c>
       <c r="AS13" s="12" t="n">
-        <v>14907810330.31</v>
+        <v>9778189094.30119</v>
       </c>
       <c r="AT13" s="12"/>
       <c r="AU13" s="12"/>
@@ -3308,7 +3328,7 @@
         <v>10746341558.9921</v>
       </c>
       <c r="U14" s="12" t="n">
-        <v>10811244756.6443</v>
+        <v>10809371132.6625</v>
       </c>
       <c r="V14" s="12" t="n">
         <v>10898413570.3117</v>
@@ -3320,25 +3340,25 @@
         <v>13648786446.0173</v>
       </c>
       <c r="Y14" s="12" t="n">
-        <v>17400154676.9157</v>
+        <v>17400106365.1451</v>
       </c>
       <c r="Z14" s="12" t="n">
-        <v>16218094275.315</v>
+        <v>16218185471.1852</v>
       </c>
       <c r="AA14" s="12" t="n">
-        <v>19198885205.4215</v>
+        <v>19198335961.214</v>
       </c>
       <c r="AB14" s="12" t="n">
-        <v>20116532627.5139</v>
+        <v>20115673024.8883</v>
       </c>
       <c r="AC14" s="12" t="n">
-        <v>21272627238.5806</v>
+        <v>21271517503.2494</v>
       </c>
       <c r="AD14" s="12" t="n">
-        <v>23394917820.3582</v>
+        <v>23393663768.4418</v>
       </c>
       <c r="AE14" s="12" t="n">
-        <v>27422036337.1597</v>
+        <v>27421241489.3305</v>
       </c>
       <c r="AF14" s="12" t="n">
         <v>26713111721.3551</v>
@@ -3371,16 +3391,16 @@
         <v>21285052913.8192</v>
       </c>
       <c r="AP14" s="12" t="n">
-        <v>23127680158.2166</v>
+        <v>23127509703.9043</v>
       </c>
       <c r="AQ14" s="12" t="n">
-        <v>21407114909.9812</v>
+        <v>21321914888.0119</v>
       </c>
       <c r="AR14" s="12" t="n">
-        <v>22386178493.468</v>
+        <v>21742194765.7339</v>
       </c>
       <c r="AS14" s="12" t="n">
-        <v>7089005544.11504</v>
+        <v>7029254239.99343</v>
       </c>
       <c r="AT14" s="12"/>
       <c r="AU14" s="12"/>
@@ -3432,7 +3452,7 @@
         <v>44711438.2860374</v>
       </c>
       <c r="Y15" s="12" t="n">
-        <v>117372505.248831</v>
+        <v>117366479.992051</v>
       </c>
       <c r="Z15" s="12" t="n">
         <v>389959204.792361</v>
@@ -3444,7 +3464,7 @@
         <v>1550942613.80333</v>
       </c>
       <c r="AC15" s="12" t="n">
-        <v>1445948006.13727</v>
+        <v>1445953386.80747</v>
       </c>
       <c r="AD15" s="12" t="n">
         <v>2335570172.89299</v>
@@ -3488,8 +3508,12 @@
       <c r="AQ15" s="12" t="n">
         <v>343009118.851248</v>
       </c>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
+      <c r="AR15" s="12" t="n">
+        <v>264118065.5521</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>204487226.31577</v>
+      </c>
       <c r="AT15" s="12"/>
       <c r="AU15" s="12"/>
     </row>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -641,6 +641,9 @@
   <si>
     <t xml:space="preserve">Unlabeled</t>
   </si>
+  <si>
+    <t xml:space="preserve">Firm Fixed-Price</t>
+  </si>
 </sst>
 </file>
 
@@ -656,8 +659,8 @@
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="194" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -705,8 +708,8 @@
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2182,110 +2185,110 @@
       <c r="K2" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="12" t="n">
+      <c r="L2" s="11" t="n">
         <v>46727000</v>
       </c>
-      <c r="M2" s="12" t="n">
+      <c r="M2" s="11" t="n">
         <v>81349000</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="11" t="n">
         <v>115467464</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="11" t="n">
         <v>128536356</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="11" t="n">
         <v>211247118</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="11" t="n">
         <v>356021950</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="11" t="n">
         <v>353586048</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="11" t="n">
         <v>665351505</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="11" t="n">
         <v>632548326</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="11" t="n">
         <v>630822504</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="11" t="n">
         <v>506179131.9317</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="11" t="n">
         <v>500262704.3202</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="11" t="n">
         <v>522300150.3984</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="11" t="n">
         <v>623095935.9995</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="11" t="n">
         <v>655648078.2852</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="11" t="n">
         <v>579374427.3102</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="11" t="n">
         <v>616117663.2708</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="11" t="n">
         <v>578266956.2312</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="11" t="n">
         <v>610906194.6321</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="11" t="n">
         <v>883378465.5746</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="11" t="n">
         <v>807941093.0421</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="11" t="n">
         <v>840495827.5095</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="11" t="n">
         <v>705214520.3465</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="11" t="n">
         <v>739713927.7513</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="11" t="n">
         <v>454966542.1088</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="11" t="n">
         <v>259622282.0238</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="11" t="n">
         <v>285927376.6513</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="11" t="n">
         <v>604204837.44</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="11" t="n">
         <v>256043323.4286</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="11" t="n">
         <v>182311459.5524</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="11" t="n">
         <v>193408513.3304</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="11" t="n">
         <v>351617879.4067</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="11" t="n">
         <v>523530784.8793</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="11" t="n">
         <v>696654306.2607</v>
       </c>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2294,110 +2297,110 @@
       <c r="K3" t="s">
         <v>197</v>
       </c>
-      <c r="L3" s="12" t="n">
+      <c r="L3" s="11" t="n">
         <v>1231829000</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="11" t="n">
         <v>1832142802</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="11" t="n">
         <v>1984427794</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="11" t="n">
         <v>1660100834</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="11" t="n">
         <v>2506094117</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="11" t="n">
         <v>2188986725</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="11" t="n">
         <v>2805379185</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="11" t="n">
         <v>2521406653</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="11" t="n">
         <v>2495042033</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="11" t="n">
         <v>2938866215</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="11" t="n">
         <v>2931455787.9492</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="11" t="n">
         <v>3407652385.4207</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="11" t="n">
         <v>3769970759.0495</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="11" t="n">
         <v>7891252971.6993</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="11" t="n">
         <v>8187879255.2418</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="11" t="n">
         <v>7582626152.8299</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="11" t="n">
         <v>8386105370.6974</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="11" t="n">
         <v>8560265573.0923</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="11" t="n">
         <v>12364994910.5808</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="11" t="n">
         <v>14379214123.7889</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="11" t="n">
         <v>12836478090.2288</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="11" t="n">
         <v>10051679005.249</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="11" t="n">
         <v>10080825392.8427</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="11" t="n">
         <v>8510139000.4686</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="11" t="n">
         <v>7396361117.1484</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="11" t="n">
         <v>6603168902.8519</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="11" t="n">
         <v>5905315343.5632</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="11" t="n">
         <v>5381927899.4193</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="11" t="n">
         <v>7246713540.1239</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="11" t="n">
         <v>10165339699.2233</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="11" t="n">
         <v>10553867620.3906</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="11" t="n">
         <v>8391849406.9237</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="11" t="n">
         <v>8681875038.9796</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="11" t="n">
         <v>4529696903.065</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2406,110 +2409,110 @@
       <c r="K4" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="12" t="n">
+      <c r="L4" s="11" t="n">
         <v>4858708086</v>
       </c>
-      <c r="M4" s="12" t="n">
+      <c r="M4" s="11" t="n">
         <v>8646896970</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="11" t="n">
         <v>8493017559</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="11" t="n">
         <v>8474154796</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="11" t="n">
         <v>10032329172</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="11" t="n">
         <v>9950474726</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="11" t="n">
         <v>9478060532</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="11" t="n">
         <v>9971358009</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="11" t="n">
         <v>9591547705</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="11" t="n">
         <v>10428580690</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="11" t="n">
         <v>10615644292.7524</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="11" t="n">
         <v>11463758796.7896</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="11" t="n">
         <v>12952851365.7969</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="11" t="n">
         <v>14436900839.77</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="11" t="n">
         <v>15693686076.93</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="11" t="n">
         <v>17042375037.7014</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="11" t="n">
         <v>21050437479.0364</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="11" t="n">
         <v>20364550746.6373</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="11" t="n">
         <v>25013640771.7238</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="11" t="n">
         <v>27345384649.9922</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="11" t="n">
         <v>24693393319.916</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="11" t="n">
         <v>23429069205.5709</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="11" t="n">
         <v>18262238749.0194</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="11" t="n">
         <v>15329318506.3104</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="11" t="n">
         <v>16603146988.276</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="11" t="n">
         <v>15662301433.2526</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="11" t="n">
         <v>15631446931.3255</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="11" t="n">
         <v>16473573254.3085</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="11" t="n">
         <v>19604649396.6598</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="11" t="n">
         <v>22401590459.6169</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="11" t="n">
         <v>28350421387.7608</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="11" t="n">
         <v>22150836950.1061</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="11" t="n">
         <v>26075657016.0868</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="11" t="n">
         <v>10251840750.7572</v>
       </c>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2518,110 +2521,110 @@
       <c r="K5" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="11" t="n">
         <v>4830006450</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="11" t="n">
         <v>6944815008</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="11" t="n">
         <v>6445249440</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="11" t="n">
         <v>6375202911</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="11" t="n">
         <v>7141346256</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="11" t="n">
         <v>7157611248</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="11" t="n">
         <v>7107632340</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="11" t="n">
         <v>6467804795</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="11" t="n">
         <v>6435175233</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="11" t="n">
         <v>6553605063</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="11" t="n">
         <v>6745194577.4411</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="11" t="n">
         <v>7693282433.6292</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="11" t="n">
         <v>8788851686.7448</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="11" t="n">
         <v>11418603901.6067</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="11" t="n">
         <v>10903133346.7438</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="11" t="n">
         <v>13298426472.5422</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="11" t="n">
         <v>14387506315.2707</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="11" t="n">
         <v>15631431985.274</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="11" t="n">
         <v>17549427595.6305</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="11" t="n">
         <v>20779870354.2993</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="11" t="n">
         <v>20419313390.8335</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="11" t="n">
         <v>18357586746.0536</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="11" t="n">
         <v>18506646356.6348</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="11" t="n">
         <v>14113730802.9186</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="11" t="n">
         <v>17507568298.9709</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="11" t="n">
         <v>15274927347.6989</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="11" t="n">
         <v>16344803745.5913</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="11" t="n">
         <v>15780680808.8737</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="11" t="n">
         <v>19692280457.8281</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="11" t="n">
         <v>19004934084.1069</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="11" t="n">
         <v>20925501899.6648</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="11" t="n">
         <v>19940299494.0023</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="11" t="n">
         <v>21742194765.7339</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="11" t="n">
         <v>7369748566.9403</v>
       </c>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2630,110 +2633,110 @@
       <c r="K6" t="s">
         <v>200</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="11" t="n">
         <v>1215965769</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="11" t="n">
         <v>987626088</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="11" t="n">
         <v>619553654</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="11" t="n">
         <v>540020972</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="11" t="n">
         <v>441427881</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="11" t="n">
         <v>484810758</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <v>538138480</v>
       </c>
-      <c r="S6" s="12" t="n">
+      <c r="S6" s="11" t="n">
         <v>602591755</v>
       </c>
-      <c r="T6" s="12" t="n">
+      <c r="T6" s="11" t="n">
         <v>410304964</v>
       </c>
-      <c r="U6" s="12" t="n">
+      <c r="U6" s="11" t="n">
         <v>52954919</v>
       </c>
-      <c r="V6" s="12" t="n">
+      <c r="V6" s="11" t="n">
         <v>1456019</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="11" t="n">
         <v>1325397.0996</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="11" t="n">
         <v>28790999.2109</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="11" t="n">
         <v>77020296.2115</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="11" t="n">
         <v>262161091.7692</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="11" t="n">
         <v>1056208389.3266</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="11" t="n">
         <v>1109294062.5506</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="11" t="n">
         <v>1062562744.5858</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="11" t="n">
         <v>1752094928.3281</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="11" t="n">
         <v>2976305827.7442</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="11" t="n">
         <v>2483039317.3397</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="11" t="n">
         <v>1901796433.7364</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="11" t="n">
         <v>1456736627.5576</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="11" t="n">
         <v>547842442.8204</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="11" t="n">
         <v>251312214.7652</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="11" t="n">
         <v>327769094.1414</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="11" t="n">
         <v>393980730.1409</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="11" t="n">
         <v>200050916.8539</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="11" t="n">
         <v>151904125.5811</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="11" t="n">
         <v>303051322.7786</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="11" t="n">
         <v>150676346.6143</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="11" t="n">
         <v>320782846.8968</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="11" t="n">
         <v>264118065.5521</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="11" t="n">
         <v>214392507.604</v>
       </c>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2742,110 +2745,110 @@
       <c r="K7" t="s">
         <v>193</v>
       </c>
-      <c r="L7" s="12" t="str">
+      <c r="L7" s="11" t="str">
         <f>Sum(L2:L6)</f>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>Sum(M2:M6)</f>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>Sum(N2:N6)</f>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="12" t="str">
+      <c r="U7" s="11" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="12" t="str">
+      <c r="V7" s="11" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="12" t="str">
+      <c r="W7" s="11" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="12" t="str">
+      <c r="X7" s="11" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="12" t="str">
+      <c r="Y7" s="11" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="12" t="str">
+      <c r="Z7" s="11" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="12" t="str">
+      <c r="AA7" s="11" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="12" t="str">
+      <c r="AB7" s="11" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="12" t="str">
+      <c r="AC7" s="11" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="12" t="str">
+      <c r="AD7" s="11" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="12" t="str">
+      <c r="AE7" s="11" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="12" t="str">
+      <c r="AF7" s="11" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="12" t="str">
+      <c r="AG7" s="11" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="12" t="str">
+      <c r="AH7" s="11" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="12" t="str">
+      <c r="AI7" s="11" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="12" t="str">
+      <c r="AJ7" s="11" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="12" t="str">
+      <c r="AK7" s="11" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="12" t="str">
+      <c r="AL7" s="11" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="12" t="str">
+      <c r="AM7" s="11" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="12" t="str">
+      <c r="AN7" s="11" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="12" t="str">
+      <c r="AO7" s="11" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="12" t="str">
+      <c r="AP7" s="11" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="12" t="str">
+      <c r="AQ7" s="11" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="12" t="str">
+      <c r="AR7" s="11" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="12" t="str">
+      <c r="AS7" s="11" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="12"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -2964,110 +2967,110 @@
       <c r="K11" t="s">
         <v>196</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="11" t="n">
         <v>92871387.510077</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="11" t="n">
         <v>156115202.353092</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="11" t="n">
         <v>216188191.020045</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="11" t="n">
         <v>235133400.974793</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="11" t="n">
         <v>378196610.144148</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="11" t="n">
         <v>624166005.214214</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="11" t="n">
         <v>608459839.394027</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="11" t="n">
         <v>1124969320.41367</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="11" t="n">
         <v>1056316280.07676</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="11" t="n">
         <v>1040464675.3996</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="11" t="n">
         <v>817848834.028121</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="11" t="n">
         <v>789152979.960008</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="11" t="n">
         <v>811114292.014047</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="11" t="n">
         <v>949497474.078718</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="11" t="n">
         <v>975262963.341741</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="11" t="n">
         <v>836416618.597946</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="11" t="n">
         <v>861415535.6484</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="11" t="n">
         <v>786915472.146815</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="11" t="n">
         <v>814347592.444547</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="11" t="n">
         <v>1165711518.79124</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="11" t="n">
         <v>1056970930.88331</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="11" t="n">
         <v>1077837469.55035</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="11" t="n">
         <v>888076645.302902</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="11" t="n">
         <v>914781251.893441</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="11" t="n">
         <v>551964707.703549</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="11" t="n">
         <v>311403314.532057</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="11" t="n">
         <v>340136355.199824</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="11" t="n">
         <v>706148633.102252</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="11" t="n">
         <v>292378814.980407</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="11" t="n">
         <v>204184294.783404</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="11" t="n">
         <v>213761050.526496</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="11" t="n">
         <v>375980636.603171</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="11" t="n">
         <v>523530784.8793</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="11" t="n">
         <v>664467748.338092</v>
       </c>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="12"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3076,110 +3079,110 @@
       <c r="K12" t="s">
         <v>197</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="11" t="n">
         <v>2448299022.08895</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="11" t="n">
         <v>3516027784.90199</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="11" t="n">
         <v>3715417660.81187</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="11" t="n">
         <v>3036846283.86003</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="11" t="n">
         <v>4486670912.83864</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="11" t="n">
         <v>3837659727.4696</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="11" t="n">
         <v>4827567654.32228</v>
       </c>
-      <c r="S12" s="12" t="n">
+      <c r="S12" s="11" t="n">
         <v>4263167825.72229</v>
       </c>
-      <c r="T12" s="12" t="n">
+      <c r="T12" s="11" t="n">
         <v>4166564688.58274</v>
       </c>
-      <c r="U12" s="12" t="n">
+      <c r="U12" s="11" t="n">
         <v>4847300885.81752</v>
       </c>
-      <c r="V12" s="12" t="n">
+      <c r="V12" s="11" t="n">
         <v>4736441206.15929</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="11" t="n">
         <v>5375493738.38859</v>
       </c>
-      <c r="X12" s="12" t="n">
+      <c r="X12" s="11" t="n">
         <v>5854635808.17966</v>
       </c>
-      <c r="Y12" s="12" t="n">
+      <c r="Y12" s="11" t="n">
         <v>12024993794.7768</v>
       </c>
-      <c r="Z12" s="12" t="n">
+      <c r="Z12" s="11" t="n">
         <v>12179301137.9467</v>
       </c>
-      <c r="AA12" s="12" t="n">
+      <c r="AA12" s="11" t="n">
         <v>10946693930.3599</v>
       </c>
-      <c r="AB12" s="12" t="n">
+      <c r="AB12" s="11" t="n">
         <v>11724905615.5173</v>
       </c>
-      <c r="AC12" s="12" t="n">
+      <c r="AC12" s="11" t="n">
         <v>11648954436.2947</v>
       </c>
-      <c r="AD12" s="12" t="n">
+      <c r="AD12" s="11" t="n">
         <v>16482733232.202</v>
       </c>
-      <c r="AE12" s="12" t="n">
+      <c r="AE12" s="11" t="n">
         <v>18974897157.3169</v>
       </c>
-      <c r="AF12" s="12" t="n">
+      <c r="AF12" s="11" t="n">
         <v>16793036414.581</v>
       </c>
-      <c r="AG12" s="12" t="n">
+      <c r="AG12" s="11" t="n">
         <v>12890101186.8824</v>
       </c>
-      <c r="AH12" s="12" t="n">
+      <c r="AH12" s="11" t="n">
         <v>12694783414.7846</v>
       </c>
-      <c r="AI12" s="12" t="n">
+      <c r="AI12" s="11" t="n">
         <v>10524224726.0393</v>
       </c>
-      <c r="AJ12" s="12" t="n">
+      <c r="AJ12" s="11" t="n">
         <v>8973253908.24107</v>
       </c>
-      <c r="AK12" s="12" t="n">
+      <c r="AK12" s="11" t="n">
         <v>7920154875.51483</v>
       </c>
-      <c r="AL12" s="12" t="n">
+      <c r="AL12" s="11" t="n">
         <v>7024904228.44247</v>
       </c>
-      <c r="AM12" s="12" t="n">
+      <c r="AM12" s="11" t="n">
         <v>6289987756.02688</v>
       </c>
-      <c r="AN12" s="12" t="n">
+      <c r="AN12" s="11" t="n">
         <v>8275105513.36339</v>
       </c>
-      <c r="AO12" s="12" t="n">
+      <c r="AO12" s="11" t="n">
         <v>11384927326.102</v>
       </c>
-      <c r="AP12" s="12" t="n">
+      <c r="AP12" s="11" t="n">
         <v>11664459804.8191</v>
       </c>
-      <c r="AQ12" s="12" t="n">
+      <c r="AQ12" s="11" t="n">
         <v>8973300469.29632</v>
       </c>
-      <c r="AR12" s="12" t="n">
+      <c r="AR12" s="11" t="n">
         <v>8681875038.9796</v>
       </c>
-      <c r="AS12" s="12" t="n">
+      <c r="AS12" s="11" t="n">
         <v>4320417565.47658</v>
       </c>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3188,110 +3191,110 @@
       <c r="K13" t="s">
         <v>198</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="11" t="n">
         <v>9656835693.56582</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="11" t="n">
         <v>16594083150.3509</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="11" t="n">
         <v>15901363369.1798</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="11" t="n">
         <v>15501893001.9327</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="11" t="n">
         <v>17960921411.0114</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="11" t="n">
         <v>17444845913.8894</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="11" t="n">
         <v>16310086955.319</v>
       </c>
-      <c r="S13" s="12" t="n">
+      <c r="S13" s="11" t="n">
         <v>16859467151.857</v>
       </c>
-      <c r="T13" s="12" t="n">
+      <c r="T13" s="11" t="n">
         <v>16017286862.4814</v>
       </c>
-      <c r="U13" s="12" t="n">
+      <c r="U13" s="11" t="n">
         <v>17200670162.6792</v>
       </c>
-      <c r="V13" s="12" t="n">
+      <c r="V13" s="11" t="n">
         <v>17152015481.4607</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="11" t="n">
         <v>18083817438.1251</v>
       </c>
-      <c r="X13" s="12" t="n">
+      <c r="X13" s="11" t="n">
         <v>20115335707.0979</v>
       </c>
-      <c r="Y13" s="12" t="n">
+      <c r="Y13" s="11" t="n">
         <v>21999502947.9658</v>
       </c>
-      <c r="Z13" s="12" t="n">
+      <c r="Z13" s="11" t="n">
         <v>23344033630.316</v>
       </c>
-      <c r="AA13" s="12" t="n">
+      <c r="AA13" s="11" t="n">
         <v>24603304926.816</v>
       </c>
-      <c r="AB13" s="12" t="n">
+      <c r="AB13" s="11" t="n">
         <v>29431348843.942</v>
       </c>
-      <c r="AC13" s="12" t="n">
+      <c r="AC13" s="11" t="n">
         <v>27712425711.2847</v>
       </c>
-      <c r="AD13" s="12" t="n">
+      <c r="AD13" s="11" t="n">
         <v>33343577655.1474</v>
       </c>
-      <c r="AE13" s="12" t="n">
+      <c r="AE13" s="11" t="n">
         <v>36085133512.4392</v>
       </c>
-      <c r="AF13" s="12" t="n">
+      <c r="AF13" s="11" t="n">
         <v>32304581545.352</v>
       </c>
-      <c r="AG13" s="12" t="n">
+      <c r="AG13" s="11" t="n">
         <v>30045037512.2976</v>
       </c>
-      <c r="AH13" s="12" t="n">
+      <c r="AH13" s="11" t="n">
         <v>22997637252.2522</v>
       </c>
-      <c r="AI13" s="12" t="n">
+      <c r="AI13" s="11" t="n">
         <v>18957292336.654</v>
       </c>
-      <c r="AJ13" s="12" t="n">
+      <c r="AJ13" s="11" t="n">
         <v>20142912337.8292</v>
       </c>
-      <c r="AK13" s="12" t="n">
+      <c r="AK13" s="11" t="n">
         <v>18786109348.9192</v>
       </c>
-      <c r="AL13" s="12" t="n">
+      <c r="AL13" s="11" t="n">
         <v>18595013349.1576</v>
       </c>
-      <c r="AM13" s="12" t="n">
+      <c r="AM13" s="11" t="n">
         <v>19253058755.914</v>
       </c>
-      <c r="AN13" s="12" t="n">
+      <c r="AN13" s="11" t="n">
         <v>22386774558.096</v>
       </c>
-      <c r="AO13" s="12" t="n">
+      <c r="AO13" s="11" t="n">
         <v>25089223470.9406</v>
       </c>
-      <c r="AP13" s="12" t="n">
+      <c r="AP13" s="11" t="n">
         <v>31333759586.704</v>
       </c>
-      <c r="AQ13" s="12" t="n">
+      <c r="AQ13" s="11" t="n">
         <v>23685615167.9392</v>
       </c>
-      <c r="AR13" s="12" t="n">
+      <c r="AR13" s="11" t="n">
         <v>26075657016.0868</v>
       </c>
-      <c r="AS13" s="12" t="n">
+      <c r="AS13" s="11" t="n">
         <v>9778189094.30119</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3300,110 +3303,110 @@
       <c r="K14" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="11" t="n">
         <v>9599790286.00426</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="11" t="n">
         <v>13327652463.8129</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="11" t="n">
         <v>12067354463.6484</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="11" t="n">
         <v>11662250191.4387</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="11" t="n">
         <v>12785182451.0326</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="11" t="n">
         <v>12548489270.2275</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11" t="n">
         <v>12230994001.4041</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="11" t="n">
         <v>10935696259.9783</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="11" t="n">
         <v>10746341558.9921</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="11" t="n">
         <v>10809371132.6625</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="11" t="n">
         <v>10898413570.3117</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="11" t="n">
         <v>12135977169.0806</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="11" t="n">
         <v>13648786446.0173</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="11" t="n">
         <v>17400106365.1451</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="11" t="n">
         <v>16218185471.1852</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="11" t="n">
         <v>19198335961.214</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="11" t="n">
         <v>20115673024.8883</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="11" t="n">
         <v>21271517503.2494</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="11" t="n">
         <v>23393663768.4418</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="11" t="n">
         <v>27421241489.3305</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="11" t="n">
         <v>26713111721.3551</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="11" t="n">
         <v>23541455171.8209</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="11" t="n">
         <v>23305419752.4635</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="11" t="n">
         <v>17454012758.7292</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="11" t="n">
         <v>21240154878.0931</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="11" t="n">
         <v>18321474444.4537</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="11" t="n">
         <v>19443615499.8262</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="11" t="n">
         <v>18443258795.8479</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="11" t="n">
         <v>22486841474.4162</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="11" t="n">
         <v>21285052913.8192</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="11" t="n">
         <v>23127509703.9043</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="11" t="n">
         <v>21321914888.0119</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="11" t="n">
         <v>21742194765.7339</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="11" t="n">
         <v>7029254239.99343</v>
       </c>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3412,151 +3415,151 @@
       <c r="K15" t="s">
         <v>200</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="11" t="n">
         <v>2416770349.72902</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="11" t="n">
         <v>1895333029.01465</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="11" t="n">
         <v>1159982033.53733</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="11" t="n">
         <v>987868115.259726</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="11" t="n">
         <v>790290205.129873</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="11" t="n">
         <v>849954319.124804</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="11" t="n">
         <v>926042345.179145</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="11" t="n">
         <v>1018855795.79358</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="11" t="n">
         <v>685183717.124421</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="11" t="n">
         <v>87342671.2883202</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="11" t="n">
         <v>2352533.65133486</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="11" t="n">
         <v>2090783.62577719</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="11" t="n">
         <v>44711438.2860374</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="11" t="n">
         <v>117366479.992051</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="11" t="n">
         <v>389959204.792361</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="11" t="n">
         <v>1524800211.9057</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="11" t="n">
         <v>1550942613.80333</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="11" t="n">
         <v>1445953386.80747</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="11" t="n">
         <v>2335570172.89299</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="11" t="n">
         <v>3927551012.45325</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="11" t="n">
         <v>3248380855.07757</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="11" t="n">
         <v>2438831209.68277</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="11" t="n">
         <v>1834468434.73327</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="11" t="n">
         <v>677499742.646593</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="11" t="n">
         <v>304891591.637156</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="11" t="n">
         <v>393141842.530469</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="11" t="n">
         <v>468675546.70191</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="11" t="n">
         <v>233804287.442935</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="11" t="n">
         <v>173461067.577581</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="11" t="n">
         <v>339409934.935775</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="11" t="n">
         <v>166532142.702245</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="11" t="n">
         <v>343009118.851248</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="11" t="n">
         <v>264118065.5521</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="11" t="n">
         <v>204487226.31577</v>
       </c>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <f>K16</f>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
-      <c r="AN16" s="12"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="12"/>
-      <c r="AQ16" s="12"/>
-      <c r="AR16" s="12"/>
-      <c r="AS16" s="12"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="12"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5282,94 +5285,94 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="n">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12" t="n">
         <v>15345881642.2731</v>
       </c>
-      <c r="AA2" s="3" t="n">
-        <v>17531995255.4796</v>
-      </c>
-      <c r="AB2" s="3" t="n">
-        <v>18942203546.542</v>
-      </c>
-      <c r="AC2" s="3" t="n">
-        <v>25477712376.5921</v>
-      </c>
-      <c r="AD2" s="3" t="n">
-        <v>25079532787.958</v>
-      </c>
-      <c r="AE2" s="3" t="n">
-        <v>29582007545.4317</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>35507608673.8446</v>
-      </c>
-      <c r="AG2" s="3" t="n">
-        <v>36973961528.5113</v>
-      </c>
-      <c r="AH2" s="3" t="n">
-        <v>47092584629.4484</v>
-      </c>
-      <c r="AI2" s="3" t="n">
-        <v>54370208122.6629</v>
-      </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AA2" s="12" t="n">
+        <v>17532963249.4187</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>18942203544.6014</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>25477712380.4269</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>25080066120.9268</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>29581474197.7344</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>35507608435.7436</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>36973729711.8321</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>47092584611.4205</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>40469635475.8336</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
         <v>50766298896.5493</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="12" t="n">
         <v>46380689957.2157</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="12" t="n">
         <v>42394453594.0767</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="12" t="n">
         <v>33432752697.7434</v>
       </c>
-      <c r="AN2" s="3" t="n">
+      <c r="AN2" s="12" t="n">
         <v>36789456126.9644</v>
       </c>
-      <c r="AO2" s="3" t="n">
+      <c r="AO2" s="12" t="n">
         <v>33811327787.04</v>
       </c>
-      <c r="AP2" s="3" t="n">
+      <c r="AP2" s="12" t="n">
         <v>33233952149.2717</v>
       </c>
-      <c r="AQ2" s="3" t="n">
-        <v>34064622738.1685</v>
-      </c>
-      <c r="AR2" s="3" t="n">
-        <v>40511204861.7681</v>
-      </c>
-      <c r="AS2" s="3" t="n">
-        <v>44218797177.9926</v>
-      </c>
-      <c r="AT2" s="3" t="n">
-        <v>52194173237.7706</v>
-      </c>
-      <c r="AU2" s="3" t="n">
-        <v>45153796097.1098</v>
-      </c>
-      <c r="AV2" s="3" t="n">
-        <v>49582250214.1208</v>
-      </c>
-      <c r="AW2" s="3" t="n">
-        <v>19068088230.5457</v>
-      </c>
-      <c r="AX2" s="3"/>
+      <c r="AQ2" s="12" t="n">
+        <v>34065038817.3485</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>40567948513.5673</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>44244786249.23</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>52227215262.2694</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>45171764373.5009</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>49575158994.9686</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>56816472615.1034</v>
+      </c>
+      <c r="AX2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5387,89 +5390,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3" t="n">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12" t="n">
         <v>615402061</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="12" t="n">
         <v>745958682</v>
       </c>
-      <c r="AB3" s="3" t="n">
-        <v>763204571</v>
-      </c>
-      <c r="AC3" s="3" t="n">
-        <v>1089949613.0938</v>
-      </c>
-      <c r="AD3" s="3" t="n">
-        <v>954326487.6836</v>
-      </c>
-      <c r="AE3" s="3" t="n">
-        <v>1464531875.0912</v>
-      </c>
-      <c r="AF3" s="3" t="n">
-        <v>1750353030.0943</v>
-      </c>
-      <c r="AG3" s="3" t="n">
-        <v>1239671324.471</v>
-      </c>
-      <c r="AH3" s="3" t="n">
-        <v>703917895.5659</v>
-      </c>
-      <c r="AI3" s="3" t="n">
-        <v>683150567.841</v>
-      </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AB3" s="12" t="n">
+        <v>763204575</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>1089949612.08</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>954326488.5317</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>1464531874.6877</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>1750353031.1849</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>1239623517.1553</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>703965703.162</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>683150566.7904</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
         <v>1463047951.211</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="12" t="n">
         <v>1594126904.5965</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="12" t="n">
         <v>1197342150.4164</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="12" t="n">
         <v>1053810335.8304</v>
       </c>
-      <c r="AN3" s="3" t="n">
+      <c r="AN3" s="12" t="n">
         <v>907606716.7881</v>
       </c>
-      <c r="AO3" s="3" t="n">
+      <c r="AO3" s="12" t="n">
         <v>829698723.3953</v>
       </c>
-      <c r="AP3" s="3" t="n">
+      <c r="AP3" s="12" t="n">
         <v>882225257.9374</v>
       </c>
-      <c r="AQ3" s="3" t="n">
+      <c r="AQ3" s="12" t="n">
         <v>845807936.0675</v>
       </c>
-      <c r="AR3" s="3" t="n">
-        <v>923868079.3332</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1162698262.7235</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1511992735.6195</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1631433880.1231</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>2555479023.9104</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>1409095087.061</v>
-      </c>
-      <c r="AX3" s="3"/>
+      <c r="AR3" s="12" t="n">
+        <v>923510179.3376</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>1162693786.714</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>1511773793.6195</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>1631016043.4709</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>2554564359.9781</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>2327857105.7091</v>
+      </c>
+      <c r="AX3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5487,89 +5490,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="n">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="n">
         <v>353605860</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="12" t="n">
         <v>501638178</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="12" t="n">
         <v>526446374</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="12" t="n">
         <v>798199438</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="12" t="n">
         <v>911358315.6309</v>
       </c>
-      <c r="AE4" s="3" t="n">
-        <v>676042982.87</v>
-      </c>
-      <c r="AF4" s="3" t="n">
-        <v>694448016.3879</v>
-      </c>
-      <c r="AG4" s="3" t="n">
-        <v>679765460.986</v>
-      </c>
-      <c r="AH4" s="3" t="n">
-        <v>559492990.1658</v>
-      </c>
-      <c r="AI4" s="3" t="n">
-        <v>1139154818.529</v>
-      </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AE4" s="12" t="n">
+        <v>676042983.87</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>694448016.3993</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>679765460.9636</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>559492990.3133</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>1139154818.5304</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
         <v>969845816.7892</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="12" t="n">
         <v>652173104.5862</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="12" t="n">
         <v>543768425.9068</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="12" t="n">
         <v>82567155.4116</v>
       </c>
-      <c r="AN4" s="3" t="n">
+      <c r="AN4" s="12" t="n">
         <v>168378109.9497</v>
       </c>
-      <c r="AO4" s="3" t="n">
+      <c r="AO4" s="12" t="n">
         <v>165358697.6416</v>
       </c>
-      <c r="AP4" s="3" t="n">
+      <c r="AP4" s="12" t="n">
         <v>64672606.1158</v>
       </c>
-      <c r="AQ4" s="3" t="n">
+      <c r="AQ4" s="12" t="n">
         <v>49394479.9619</v>
       </c>
-      <c r="AR4" s="3" t="n">
-        <v>839778098.7859</v>
-      </c>
-      <c r="AS4" s="3" t="n">
-        <v>165662653.1185</v>
-      </c>
-      <c r="AT4" s="3" t="n">
-        <v>68549290.0911</v>
-      </c>
-      <c r="AU4" s="3" t="n">
-        <v>147002854.1986</v>
-      </c>
-      <c r="AV4" s="3" t="n">
-        <v>104834400.2884</v>
-      </c>
-      <c r="AW4" s="3" t="n">
-        <v>40999851.8151</v>
-      </c>
-      <c r="AX4" s="3"/>
+      <c r="AR4" s="12" t="n">
+        <v>839778098.7902</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>165662651.8757</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>68549290.0929</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>145471096.6592</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>103414079.8977</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>120763468.5801</v>
+      </c>
+      <c r="AX4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5587,89 +5590,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="n">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="n">
         <v>320538683</v>
       </c>
-      <c r="AA5" s="3" t="n">
-        <v>432788436</v>
-      </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AA5" s="12" t="n">
+        <v>432788435</v>
+      </c>
+      <c r="AB5" s="12" t="n">
         <v>780298062</v>
       </c>
-      <c r="AC5" s="3" t="n">
-        <v>665235549</v>
-      </c>
-      <c r="AD5" s="3" t="n">
-        <v>757233360.4707</v>
-      </c>
-      <c r="AE5" s="3" t="n">
-        <v>802219500.7905</v>
-      </c>
-      <c r="AF5" s="3" t="n">
-        <v>688398227.5293</v>
-      </c>
-      <c r="AG5" s="3" t="n">
-        <v>702293992.33</v>
-      </c>
-      <c r="AH5" s="3" t="n">
-        <v>471628803.2863</v>
-      </c>
-      <c r="AI5" s="3" t="n">
-        <v>480834625.5086</v>
-      </c>
-      <c r="AJ5" s="3" t="n">
+      <c r="AC5" s="12" t="n">
+        <v>665235544</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>757233364.49</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>802219500.7898</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>688398227.5292</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>702293990.3086</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>471628806.0348</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>480834625.943</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
         <v>2468354862.7565</v>
       </c>
-      <c r="AK5" s="3" t="n">
+      <c r="AK5" s="12" t="n">
         <v>948391412.6218</v>
       </c>
-      <c r="AL5" s="3" t="n">
+      <c r="AL5" s="12" t="n">
         <v>887966577.4075</v>
       </c>
-      <c r="AM5" s="3" t="n">
+      <c r="AM5" s="12" t="n">
         <v>1037386819.1783</v>
       </c>
-      <c r="AN5" s="3" t="n">
+      <c r="AN5" s="12" t="n">
         <v>1226866124.7718</v>
       </c>
-      <c r="AO5" s="3" t="n">
+      <c r="AO5" s="12" t="n">
         <v>923891605.5908</v>
       </c>
-      <c r="AP5" s="3" t="n">
+      <c r="AP5" s="12" t="n">
         <v>1557509402.7261</v>
       </c>
-      <c r="AQ5" s="3" t="n">
+      <c r="AQ5" s="12" t="n">
         <v>710078085.7718</v>
       </c>
-      <c r="AR5" s="3" t="n">
-        <v>390672907.4872</v>
-      </c>
-      <c r="AS5" s="3" t="n">
-        <v>242144992.6276</v>
-      </c>
-      <c r="AT5" s="3" t="n">
-        <v>314714626.643</v>
-      </c>
-      <c r="AU5" s="3" t="n">
-        <v>379215965.0218</v>
-      </c>
-      <c r="AV5" s="3" t="n">
-        <v>452727501.7329</v>
-      </c>
-      <c r="AW5" s="3" t="n">
-        <v>276654946.0857</v>
-      </c>
-      <c r="AX5" s="3"/>
+      <c r="AR5" s="12" t="n">
+        <v>390672908.1279</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>242230551.0865</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>314714626.7076</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>379215964.7467</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>452727503.4116</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>477462208.9214</v>
+      </c>
+      <c r="AX5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5687,89 +5690,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="n">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12" t="n">
         <v>2536302693.9317</v>
       </c>
-      <c r="AA6" s="3" t="n">
-        <v>2772643462.3202</v>
-      </c>
-      <c r="AB6" s="3" t="n">
-        <v>3559746178.3984</v>
-      </c>
-      <c r="AC6" s="3" t="n">
-        <v>4688023770</v>
-      </c>
-      <c r="AD6" s="3" t="n">
-        <v>6361660629.1563</v>
-      </c>
-      <c r="AE6" s="3" t="n">
-        <v>5739866388.2315</v>
-      </c>
-      <c r="AF6" s="3" t="n">
-        <v>5547565111.6042</v>
-      </c>
-      <c r="AG6" s="3" t="n">
-        <v>4890509605.6403</v>
-      </c>
-      <c r="AH6" s="3" t="n">
-        <v>5462891053.5184</v>
-      </c>
-      <c r="AI6" s="3" t="n">
-        <v>4977599450.2267</v>
-      </c>
-      <c r="AJ6" s="3" t="n">
+      <c r="AA6" s="12" t="n">
+        <v>2771675463.32</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>3559746163.4</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>4688023773</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>6361660624.1563</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>5739866389.7286</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>5547565115.7143</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>4890509606.4084</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>5462891047.3795</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>4976099382.5342</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
         <v>4051556712.8982</v>
       </c>
-      <c r="AK6" s="3" t="n">
+      <c r="AK6" s="12" t="n">
         <v>4514586074.6799</v>
       </c>
-      <c r="AL6" s="3" t="n">
+      <c r="AL6" s="12" t="n">
         <v>3586333400.2535</v>
       </c>
-      <c r="AM6" s="3" t="n">
+      <c r="AM6" s="12" t="n">
         <v>3162025638.9323</v>
       </c>
-      <c r="AN6" s="3" t="n">
+      <c r="AN6" s="12" t="n">
         <v>2744176831.3742</v>
       </c>
-      <c r="AO6" s="3" t="n">
+      <c r="AO6" s="12" t="n">
         <v>2314384501.9851</v>
       </c>
-      <c r="AP6" s="3" t="n">
+      <c r="AP6" s="12" t="n">
         <v>2201886726.7506</v>
       </c>
-      <c r="AQ6" s="3" t="n">
+      <c r="AQ6" s="12" t="n">
         <v>2156847649.5284</v>
       </c>
-      <c r="AR6" s="3" t="n">
-        <v>3127047347.3417</v>
-      </c>
-      <c r="AS6" s="3" t="n">
-        <v>2776422770.195</v>
-      </c>
-      <c r="AT6" s="3" t="n">
-        <v>3228255729.4859</v>
-      </c>
-      <c r="AU6" s="3" t="n">
-        <v>2948914311.1604</v>
-      </c>
-      <c r="AV6" s="3" t="n">
-        <v>3028984282.4682</v>
-      </c>
-      <c r="AW6" s="3" t="n">
-        <v>1875047497.4538</v>
-      </c>
-      <c r="AX6" s="3"/>
+      <c r="AR6" s="12" t="n">
+        <v>3110745463.2082</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>2768182665.5426</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>3206193628.8927</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>2939197444.7893</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>3028984285.4342</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>4148060195.958</v>
+      </c>
+      <c r="AX6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5787,89 +5790,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="n">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12" t="n">
         <v>95357103</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="12" t="n">
         <v>96374621</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AB7" s="12" t="n">
         <v>176283335</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AC7" s="12" t="n">
         <v>176782492</v>
       </c>
-      <c r="AD7" s="3" t="n">
+      <c r="AD7" s="12" t="n">
         <v>66516179.1191</v>
       </c>
-      <c r="AE7" s="3" t="n">
+      <c r="AE7" s="12" t="n">
         <v>6858606</v>
       </c>
-      <c r="AF7" s="3" t="n">
-        <v>226945814.8457</v>
-      </c>
-      <c r="AG7" s="3" t="n">
-        <v>514086994.8814</v>
-      </c>
-      <c r="AH7" s="3" t="n">
-        <v>481931251.2321</v>
-      </c>
-      <c r="AI7" s="3" t="n">
-        <v>1545351004.0919</v>
-      </c>
-      <c r="AJ7" s="3" t="n">
+      <c r="AF7" s="12" t="n">
+        <v>226945815.1757</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>514318806.8779</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>481931252.3261</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>1545351004.7246</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
         <v>1433685005.1451</v>
       </c>
-      <c r="AK7" s="3" t="n">
+      <c r="AK7" s="12" t="n">
         <v>480452140.8592</v>
       </c>
-      <c r="AL7" s="3" t="n">
+      <c r="AL7" s="12" t="n">
         <v>330762474.9628</v>
       </c>
-      <c r="AM7" s="3" t="n">
+      <c r="AM7" s="12" t="n">
         <v>420887238.0928</v>
       </c>
-      <c r="AN7" s="3" t="n">
+      <c r="AN7" s="12" t="n">
         <v>338475994.2019</v>
       </c>
-      <c r="AO7" s="3" t="n">
+      <c r="AO7" s="12" t="n">
         <v>59393159.3235</v>
       </c>
-      <c r="AP7" s="3" t="n">
+      <c r="AP7" s="12" t="n">
         <v>589184629.6477</v>
       </c>
-      <c r="AQ7" s="3" t="n">
+      <c r="AQ7" s="12" t="n">
         <v>584071145.2147</v>
       </c>
-      <c r="AR7" s="3" t="n">
-        <v>1159019548.9054</v>
-      </c>
-      <c r="AS7" s="3" t="n">
-        <v>3491501168.6209</v>
-      </c>
-      <c r="AT7" s="3" t="n">
-        <v>2856190148.1508</v>
-      </c>
-      <c r="AU7" s="3" t="n">
-        <v>895023469.7219</v>
-      </c>
-      <c r="AV7" s="3" t="n">
-        <v>1563100248.711</v>
-      </c>
-      <c r="AW7" s="3" t="n">
-        <v>392447421.6659</v>
-      </c>
-      <c r="AX7" s="3"/>
+      <c r="AR7" s="12" t="n">
+        <v>1119694484.6265</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>3459603994.761</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>2838284292.2324</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>891143036.1291</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>1563749032.6892</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>1161239904.6044</v>
+      </c>
+      <c r="AX7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5887,73 +5890,73 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12" t="n">
         <v>2894007</v>
       </c>
-      <c r="AA8" s="3" t="n">
-        <v>9715337.0996</v>
-      </c>
-      <c r="AB8" s="3" t="n">
+      <c r="AA8" s="12" t="n">
+        <v>9715337.1</v>
+      </c>
+      <c r="AB8" s="12" t="n">
         <v>22434545.75</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AC8" s="12" t="n">
         <v>36882262.9102</v>
       </c>
-      <c r="AD8" s="3" t="n">
-        <v>60732928.4004</v>
-      </c>
-      <c r="AE8" s="3" t="n">
-        <v>109271193.02</v>
-      </c>
-      <c r="AF8" s="3" t="n">
-        <v>414833532.4043</v>
-      </c>
-      <c r="AG8" s="3" t="n">
-        <v>1166186782.8383</v>
-      </c>
-      <c r="AH8" s="3" t="n">
-        <v>2311835416.7464</v>
-      </c>
-      <c r="AI8" s="3" t="n">
-        <v>3259704390.5858</v>
-      </c>
-      <c r="AJ8" s="3" t="n">
+      <c r="AD8" s="12" t="n">
+        <v>60732928.4</v>
+      </c>
+      <c r="AE8" s="12" t="n">
+        <v>109271192.02</v>
+      </c>
+      <c r="AF8" s="12" t="n">
+        <v>414833532.4045</v>
+      </c>
+      <c r="AG8" s="12" t="n">
+        <v>1166186783.7385</v>
+      </c>
+      <c r="AH8" s="12" t="n">
+        <v>2311835406.9875</v>
+      </c>
+      <c r="AI8" s="12" t="n">
+        <v>3259704390.1028</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
         <v>56338921.6228</v>
       </c>
-      <c r="AK8" s="3" t="n">
+      <c r="AK8" s="12" t="n">
         <v>7968213.2844</v>
       </c>
-      <c r="AL8" s="3" t="n">
+      <c r="AL8" s="12" t="n">
         <v>-3760244.3907</v>
       </c>
-      <c r="AM8" s="3" t="n">
+      <c r="AM8" s="12" t="n">
         <v>-1923733.15</v>
       </c>
-      <c r="AN8" s="3" t="n">
+      <c r="AN8" s="12" t="n">
         <v>-453257.22</v>
       </c>
-      <c r="AO8" s="3" t="n">
+      <c r="AO8" s="12" t="n">
         <v>-627.73</v>
       </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5969,109 +5972,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="12" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="12" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="12" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="12" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="12" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="12" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="12" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="12" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="12" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="12" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="12" t="n">
         <v>1529947758.8696</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="12" t="n">
         <v>975167745.3599</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="12" t="n">
         <v>1292148348.5101</v>
       </c>
-      <c r="AC9" s="3" t="n">
-        <v>1514088443.6909</v>
-      </c>
-      <c r="AD9" s="3" t="n">
-        <v>1511147160.551</v>
-      </c>
-      <c r="AE9" s="3" t="n">
-        <v>1178212388.2754</v>
-      </c>
-      <c r="AF9" s="3" t="n">
-        <v>719308484.1156</v>
-      </c>
-      <c r="AG9" s="3" t="n">
-        <v>30602316.1623</v>
-      </c>
-      <c r="AH9" s="3" t="n">
-        <v>206782360.932</v>
-      </c>
-      <c r="AI9" s="3" t="n">
-        <v>-91849558.0467</v>
-      </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AC9" s="12" t="n">
+        <v>1514088443.6901</v>
+      </c>
+      <c r="AD9" s="12" t="n">
+        <v>1511147160.391</v>
+      </c>
+      <c r="AE9" s="12" t="n">
+        <v>1178212388.1954</v>
+      </c>
+      <c r="AF9" s="12" t="n">
+        <v>719308484.1149</v>
+      </c>
+      <c r="AG9" s="12" t="n">
+        <v>30602316.1805</v>
+      </c>
+      <c r="AH9" s="12" t="n">
+        <v>206782356.8326</v>
+      </c>
+      <c r="AI9" s="12" t="n">
+        <v>-91849558.0251</v>
+      </c>
+      <c r="AJ9" s="12" t="n">
         <v>31037044.388</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="12" t="n">
         <v>2239410.2757</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="12" t="n">
         <v>74795267.768</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="12" t="n">
         <v>53238528.2305</v>
       </c>
-      <c r="AN9" s="3" t="n">
+      <c r="AN9" s="12" t="n">
         <v>38848514.4392</v>
       </c>
-      <c r="AO9" s="3" t="n">
+      <c r="AO9" s="12" t="n">
         <v>23735212.7223</v>
       </c>
-      <c r="AP9" s="3" t="n">
+      <c r="AP9" s="12" t="n">
         <v>32043354.8229</v>
       </c>
-      <c r="AQ9" s="3" t="n">
+      <c r="AQ9" s="12" t="n">
         <v>29615682.1826</v>
       </c>
-      <c r="AR9" s="3" t="n">
+      <c r="AR9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="3" t="n">
+      <c r="AS9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="3" t="n">
+      <c r="AT9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="3" t="n">
+      <c r="AU9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="3" t="n">
+      <c r="AV9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="3" t="n">
+      <c r="AW9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6086,107 +6089,107 @@
       <c r="O10" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="12" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="3" t="str">
+      <c r="Q10" s="12" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="3" t="str">
+      <c r="R10" s="12" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="3" t="str">
+      <c r="S10" s="12" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="3" t="str">
+      <c r="T10" s="12" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="3" t="str">
+      <c r="U10" s="12" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="3" t="str">
+      <c r="V10" s="12" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="3" t="str">
+      <c r="W10" s="12" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="3" t="str">
+      <c r="X10" s="12" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="3" t="str">
+      <c r="Y10" s="12" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="3" t="str">
+      <c r="Z10" s="12" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="3" t="str">
+      <c r="AA10" s="12" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="3" t="str">
+      <c r="AB10" s="12" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="3" t="str">
+      <c r="AC10" s="12" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AD10" s="12" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="3" t="str">
+      <c r="AE10" s="12" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="3" t="str">
+      <c r="AF10" s="12" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="3" t="str">
+      <c r="AG10" s="12" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="3" t="str">
+      <c r="AH10" s="12" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="3" t="str">
+      <c r="AI10" s="12" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="3" t="str">
+      <c r="AJ10" s="12" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="3" t="str">
+      <c r="AK10" s="12" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="3" t="str">
+      <c r="AL10" s="12" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="3" t="str">
+      <c r="AM10" s="12" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="3" t="str">
+      <c r="AN10" s="12" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="3" t="str">
+      <c r="AO10" s="12" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="3" t="str">
+      <c r="AP10" s="12" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="3" t="str">
+      <c r="AQ10" s="12" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="3" t="str">
+      <c r="AR10" s="12" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="3" t="str">
+      <c r="AS10" s="12" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="3" t="str">
+      <c r="AT10" s="12" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="3" t="str">
+      <c r="AU10" s="12" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="3" t="str">
+      <c r="AV10" s="12" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6318,94 +6321,94 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="n">
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12" t="n">
         <v>24794802109.6217</v>
       </c>
-      <c r="AA14" s="3" t="n">
-        <v>27656321730.6139</v>
-      </c>
-      <c r="AB14" s="3" t="n">
-        <v>29416595050.0298</v>
-      </c>
-      <c r="AC14" s="3" t="n">
-        <v>38823914824.7272</v>
-      </c>
-      <c r="AD14" s="3" t="n">
-        <v>37305286595.1829</v>
-      </c>
-      <c r="AE14" s="3" t="n">
-        <v>42706204409.7459</v>
-      </c>
-      <c r="AF14" s="3" t="n">
-        <v>49644422760.0888</v>
-      </c>
-      <c r="AG14" s="3" t="n">
-        <v>50314793331.7391</v>
-      </c>
-      <c r="AH14" s="3" t="n">
-        <v>62775158038.9152</v>
-      </c>
-      <c r="AI14" s="3" t="n">
-        <v>71747252573.606</v>
-      </c>
-      <c r="AJ14" s="3" t="n">
+      <c r="AA14" s="12" t="n">
+        <v>27657848718.9243</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>29416595047.0161</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>38823914830.5708</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>37306079916.9493</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>42705434439.8327</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>49644422427.1915</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>50314477871.6742</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>62775158014.8838</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>53403973578.6134</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
         <v>66413879259.6234</v>
       </c>
-      <c r="AK14" s="3" t="n">
+      <c r="AK14" s="12" t="n">
         <v>59477803295.7213</v>
       </c>
-      <c r="AL14" s="3" t="n">
+      <c r="AL14" s="12" t="n">
         <v>53387335400.8345</v>
       </c>
-      <c r="AM14" s="3" t="n">
+      <c r="AM14" s="12" t="n">
         <v>41345247425.6617</v>
       </c>
-      <c r="AN14" s="3" t="n">
+      <c r="AN14" s="12" t="n">
         <v>44632911474.2604</v>
       </c>
-      <c r="AO14" s="3" t="n">
+      <c r="AO14" s="12" t="n">
         <v>40554914853.76</v>
       </c>
-      <c r="AP14" s="3" t="n">
+      <c r="AP14" s="12" t="n">
         <v>39534777975.1933</v>
       </c>
-      <c r="AQ14" s="3" t="n">
-        <v>39812138687.3045</v>
-      </c>
-      <c r="AR14" s="3" t="n">
-        <v>46260210624.9227</v>
-      </c>
-      <c r="AS14" s="3" t="n">
-        <v>49523951703.9999</v>
-      </c>
-      <c r="AT14" s="3" t="n">
-        <v>57686609087.4092</v>
-      </c>
-      <c r="AU14" s="3" t="n">
-        <v>48282394030.3806</v>
-      </c>
-      <c r="AV14" s="3" t="n">
-        <v>49582250214.1208</v>
-      </c>
-      <c r="AW14" s="3" t="n">
-        <v>18187111653.2242</v>
-      </c>
-      <c r="AX14" s="3"/>
+      <c r="AQ14" s="12" t="n">
+        <v>39812624968.9859</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>46325006853.3443</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>49553058816.6067</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>57723128151.3675</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>48301607285.4277</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>49575158994.9686</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>54191459505.5168</v>
+      </c>
+      <c r="AX14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6423,89 +6426,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="n">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12" t="n">
         <v>994323602.647581</v>
       </c>
-      <c r="AA15" s="3" t="n">
+      <c r="AA15" s="12" t="n">
         <v>1176732768.09088</v>
       </c>
-      <c r="AB15" s="3" t="n">
-        <v>1185230628.01409</v>
-      </c>
-      <c r="AC15" s="3" t="n">
-        <v>1660907004.38539</v>
-      </c>
-      <c r="AD15" s="3" t="n">
-        <v>1419540923.24659</v>
-      </c>
-      <c r="AE15" s="3" t="n">
-        <v>2114278333.75331</v>
-      </c>
-      <c r="AF15" s="3" t="n">
-        <v>2447229454.49751</v>
-      </c>
-      <c r="AG15" s="3" t="n">
-        <v>1686965743.22835</v>
-      </c>
-      <c r="AH15" s="3" t="n">
-        <v>938333656.737489</v>
-      </c>
-      <c r="AI15" s="3" t="n">
-        <v>901489584.62898</v>
-      </c>
-      <c r="AJ15" s="3" t="n">
+      <c r="AB15" s="12" t="n">
+        <v>1185230634.22595</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>1660907002.84052</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>1419540924.50812</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>2114278333.1708</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>2447229456.02232</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>1686900686.22311</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>938397385.017095</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>901489583.242602</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
         <v>1913999879.73855</v>
       </c>
-      <c r="AK15" s="3" t="n">
+      <c r="AK15" s="12" t="n">
         <v>2044281069.28704</v>
       </c>
-      <c r="AL15" s="3" t="n">
+      <c r="AL15" s="12" t="n">
         <v>1507812969.73168</v>
       </c>
-      <c r="AM15" s="3" t="n">
+      <c r="AM15" s="12" t="n">
         <v>1303214529.43264</v>
       </c>
-      <c r="AN15" s="3" t="n">
+      <c r="AN15" s="12" t="n">
         <v>1101107070.02697</v>
       </c>
-      <c r="AO15" s="3" t="n">
+      <c r="AO15" s="12" t="n">
         <v>995180115.182206</v>
       </c>
-      <c r="AP15" s="3" t="n">
+      <c r="AP15" s="12" t="n">
         <v>1049486366.83366</v>
       </c>
-      <c r="AQ15" s="3" t="n">
+      <c r="AQ15" s="12" t="n">
         <v>988515948.41859</v>
       </c>
-      <c r="AR15" s="3" t="n">
-        <v>1054975582.32168</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>1302193100.76804</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>1671100976.83406</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>1744472009.95484</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>2555479023.9104</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>1343992610.50905</v>
-      </c>
-      <c r="AX15" s="3"/>
+      <c r="AR15" s="12" t="n">
+        <v>1054566892.20161</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>1302188087.74886</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>1670858995.38703</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>1744025222.40594</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>2554564359.9781</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>2220306334.98233</v>
+      </c>
+      <c r="AX15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6523,89 +6526,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="n">
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12" t="n">
         <v>571331613.776471</v>
       </c>
-      <c r="AA16" s="3" t="n">
+      <c r="AA16" s="12" t="n">
         <v>791322758.24629</v>
       </c>
-      <c r="AB16" s="3" t="n">
+      <c r="AB16" s="12" t="n">
         <v>817553235.634068</v>
       </c>
-      <c r="AC16" s="3" t="n">
+      <c r="AC16" s="12" t="n">
         <v>1216326903.13785</v>
       </c>
-      <c r="AD16" s="3" t="n">
+      <c r="AD16" s="12" t="n">
         <v>1355626655.52679</v>
       </c>
-      <c r="AE16" s="3" t="n">
-        <v>975972633.766674</v>
-      </c>
-      <c r="AF16" s="3" t="n">
-        <v>970931926.932637</v>
-      </c>
-      <c r="AG16" s="3" t="n">
-        <v>925036357.199403</v>
-      </c>
-      <c r="AH16" s="3" t="n">
-        <v>745812980.019796</v>
-      </c>
-      <c r="AI16" s="3" t="n">
-        <v>1503235527.46109</v>
-      </c>
-      <c r="AJ16" s="3" t="n">
+      <c r="AE16" s="12" t="n">
+        <v>975972635.210329</v>
+      </c>
+      <c r="AF16" s="12" t="n">
+        <v>970931926.948576</v>
+      </c>
+      <c r="AG16" s="12" t="n">
+        <v>925036357.16892</v>
+      </c>
+      <c r="AH16" s="12" t="n">
+        <v>745812980.216416</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>1503235527.46294</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
         <v>1268779177.85468</v>
       </c>
-      <c r="AK16" s="3" t="n">
+      <c r="AK16" s="12" t="n">
         <v>836335631.598407</v>
       </c>
-      <c r="AL16" s="3" t="n">
+      <c r="AL16" s="12" t="n">
         <v>684767578.61378</v>
       </c>
-      <c r="AM16" s="3" t="n">
+      <c r="AM16" s="12" t="n">
         <v>102108238.008056</v>
       </c>
-      <c r="AN16" s="3" t="n">
+      <c r="AN16" s="12" t="n">
         <v>204276063.490922</v>
       </c>
-      <c r="AO16" s="3" t="n">
+      <c r="AO16" s="12" t="n">
         <v>198339087.581003</v>
       </c>
-      <c r="AP16" s="3" t="n">
+      <c r="AP16" s="12" t="n">
         <v>76933887.1399113</v>
       </c>
-      <c r="AQ16" s="3" t="n">
+      <c r="AQ16" s="12" t="n">
         <v>57728509.1851916</v>
       </c>
-      <c r="AR16" s="3" t="n">
-        <v>958952266.677594</v>
-      </c>
-      <c r="AS16" s="3" t="n">
-        <v>185538046.165586</v>
-      </c>
-      <c r="AT16" s="3" t="n">
-        <v>75762788.3612704</v>
-      </c>
-      <c r="AU16" s="3" t="n">
-        <v>157188328.413028</v>
-      </c>
-      <c r="AV16" s="3" t="n">
-        <v>104834400.2884</v>
-      </c>
-      <c r="AW16" s="3" t="n">
-        <v>39105592.2183306</v>
-      </c>
-      <c r="AX16" s="3"/>
+      <c r="AR16" s="12" t="n">
+        <v>958952266.682504</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>185538044.773681</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>75762788.3632599</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>155550439.077716</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>103414079.8977</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>115184000.626687</v>
+      </c>
+      <c r="AX16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6623,89 +6626,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3" t="n">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12" t="n">
         <v>517903982.236535</v>
       </c>
-      <c r="AA17" s="3" t="n">
-        <v>682713864.160112</v>
-      </c>
-      <c r="AB17" s="3" t="n">
+      <c r="AA17" s="12" t="n">
+        <v>682713862.582635</v>
+      </c>
+      <c r="AB17" s="12" t="n">
         <v>1211776235.63059</v>
       </c>
-      <c r="AC17" s="3" t="n">
-        <v>1013711431.81935</v>
-      </c>
-      <c r="AD17" s="3" t="n">
-        <v>1126368970.69138</v>
-      </c>
-      <c r="AE17" s="3" t="n">
-        <v>1158127957.66574</v>
-      </c>
-      <c r="AF17" s="3" t="n">
-        <v>962473506.697572</v>
-      </c>
-      <c r="AG17" s="3" t="n">
-        <v>955693564.373886</v>
-      </c>
-      <c r="AH17" s="3" t="n">
-        <v>628688633.146036</v>
-      </c>
-      <c r="AI17" s="3" t="n">
-        <v>634512254.296869</v>
-      </c>
-      <c r="AJ17" s="3" t="n">
+      <c r="AC17" s="12" t="n">
+        <v>1013711424.20015</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>1126368976.67</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>1158127957.66473</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>962473506.697433</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>955693561.623131</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>628688636.80983</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>634512254.870106</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
         <v>3229170244.59621</v>
       </c>
-      <c r="AK17" s="3" t="n">
+      <c r="AK17" s="12" t="n">
         <v>1216200921.96354</v>
       </c>
-      <c r="AL17" s="3" t="n">
+      <c r="AL17" s="12" t="n">
         <v>1118216310.71591</v>
       </c>
-      <c r="AM17" s="3" t="n">
+      <c r="AM17" s="12" t="n">
         <v>1282904076.21571</v>
       </c>
-      <c r="AN17" s="3" t="n">
+      <c r="AN17" s="12" t="n">
         <v>1488432091.75832</v>
       </c>
-      <c r="AO17" s="3" t="n">
+      <c r="AO17" s="12" t="n">
         <v>1108159538.56744</v>
       </c>
-      <c r="AP17" s="3" t="n">
+      <c r="AP17" s="12" t="n">
         <v>1852797649.65906</v>
       </c>
-      <c r="AQ17" s="3" t="n">
+      <c r="AQ17" s="12" t="n">
         <v>829885228.638894</v>
       </c>
-      <c r="AR17" s="3" t="n">
-        <v>446113884.972713</v>
-      </c>
-      <c r="AS17" s="3" t="n">
-        <v>271196361.854524</v>
-      </c>
-      <c r="AT17" s="3" t="n">
-        <v>347832306.080228</v>
-      </c>
-      <c r="AU17" s="3" t="n">
-        <v>405490927.195056</v>
-      </c>
-      <c r="AV17" s="3" t="n">
-        <v>452727501.7329</v>
-      </c>
-      <c r="AW17" s="3" t="n">
-        <v>263873039.239306</v>
-      </c>
-      <c r="AX17" s="3"/>
+      <c r="AR17" s="12" t="n">
+        <v>446113885.704336</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>271292185.197917</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>347832306.151626</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>405490926.900895</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>452727503.4116</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>455402681.110839</v>
+      </c>
+      <c r="AX17" s="12"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6723,89 +6726,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="n">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12" t="n">
         <v>4097980477.89595</v>
       </c>
-      <c r="AA18" s="3" t="n">
-        <v>4373781678.62807</v>
-      </c>
-      <c r="AB18" s="3" t="n">
-        <v>5528164215.61224</v>
-      </c>
-      <c r="AC18" s="3" t="n">
-        <v>7143790339.277</v>
-      </c>
-      <c r="AD18" s="3" t="n">
-        <v>9462838681.98369</v>
-      </c>
-      <c r="AE18" s="3" t="n">
-        <v>8286385123.92981</v>
-      </c>
-      <c r="AF18" s="3" t="n">
-        <v>7756243745.37127</v>
-      </c>
-      <c r="AG18" s="3" t="n">
-        <v>6655088335.74491</v>
-      </c>
-      <c r="AH18" s="3" t="n">
-        <v>7282119933.1571</v>
-      </c>
-      <c r="AI18" s="3" t="n">
-        <v>6568470073.90426</v>
-      </c>
-      <c r="AJ18" s="3" t="n">
+      <c r="AA18" s="12" t="n">
+        <v>4372254682.3339</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>5528164192.32024</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>7143790343.84851</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>9462838674.54629</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>8286385126.0911</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>7756243751.11775</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>6655088336.79015</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>7282119924.97385</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>6566490575.58473</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
         <v>5300358785.11182</v>
       </c>
-      <c r="AK18" s="3" t="n">
+      <c r="AK18" s="12" t="n">
         <v>5789427944.23952</v>
       </c>
-      <c r="AL18" s="3" t="n">
+      <c r="AL18" s="12" t="n">
         <v>4516269650.07753</v>
       </c>
-      <c r="AM18" s="3" t="n">
+      <c r="AM18" s="12" t="n">
         <v>3910378950.54229</v>
       </c>
-      <c r="AN18" s="3" t="n">
+      <c r="AN18" s="12" t="n">
         <v>3329231102.56774</v>
       </c>
-      <c r="AO18" s="3" t="n">
+      <c r="AO18" s="12" t="n">
         <v>2775982860.18345</v>
       </c>
-      <c r="AP18" s="3" t="n">
+      <c r="AP18" s="12" t="n">
         <v>2619342486.79232</v>
       </c>
-      <c r="AQ18" s="3" t="n">
+      <c r="AQ18" s="12" t="n">
         <v>2520759393.41603</v>
       </c>
-      <c r="AR18" s="3" t="n">
-        <v>3570811320.36761</v>
-      </c>
-      <c r="AS18" s="3" t="n">
-        <v>3109524364.20988</v>
-      </c>
-      <c r="AT18" s="3" t="n">
-        <v>3567967739.47705</v>
-      </c>
-      <c r="AU18" s="3" t="n">
-        <v>3153237491.41854</v>
-      </c>
-      <c r="AV18" s="3" t="n">
-        <v>3028984282.4682</v>
-      </c>
-      <c r="AW18" s="3" t="n">
-        <v>1788417264.43569</v>
-      </c>
-      <c r="AX18" s="3"/>
+      <c r="AR18" s="12" t="n">
+        <v>3552196011.43834</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>3100295652.19406</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>3543584025.86272</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>3142847366.74639</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>3028984285.4342</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>3956413092.70489</v>
+      </c>
+      <c r="AX18" s="12"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6823,89 +6826,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="n">
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12" t="n">
         <v>154071336.776034</v>
       </c>
-      <c r="AA19" s="3" t="n">
+      <c r="AA19" s="12" t="n">
         <v>152028761.484459</v>
       </c>
-      <c r="AB19" s="3" t="n">
+      <c r="AB19" s="12" t="n">
         <v>273761997.490013</v>
       </c>
-      <c r="AC19" s="3" t="n">
+      <c r="AC19" s="12" t="n">
         <v>269387938.385584</v>
       </c>
-      <c r="AD19" s="3" t="n">
+      <c r="AD19" s="12" t="n">
         <v>98941441.4628169</v>
       </c>
-      <c r="AE19" s="3" t="n">
+      <c r="AE19" s="12" t="n">
         <v>9901458.82939385</v>
       </c>
-      <c r="AF19" s="3" t="n">
-        <v>317300837.668967</v>
-      </c>
-      <c r="AG19" s="3" t="n">
-        <v>699578293.282059</v>
-      </c>
-      <c r="AH19" s="3" t="n">
-        <v>642421958.744412</v>
-      </c>
-      <c r="AI19" s="3" t="n">
-        <v>2039254448.96801</v>
-      </c>
-      <c r="AJ19" s="3" t="n">
+      <c r="AF19" s="12" t="n">
+        <v>317300838.130351</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>699893746.9747</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>642421960.202731</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>2039254449.80293</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
         <v>1875586459.86917</v>
       </c>
-      <c r="AK19" s="3" t="n">
+      <c r="AK19" s="12" t="n">
         <v>616123605.608112</v>
       </c>
-      <c r="AL19" s="3" t="n">
+      <c r="AL19" s="12" t="n">
         <v>416529184.64118</v>
       </c>
-      <c r="AM19" s="3" t="n">
+      <c r="AM19" s="12" t="n">
         <v>520498181.96468</v>
       </c>
-      <c r="AN19" s="3" t="n">
+      <c r="AN19" s="12" t="n">
         <v>410638554.515164</v>
       </c>
-      <c r="AO19" s="3" t="n">
+      <c r="AO19" s="12" t="n">
         <v>71238980.4515043</v>
       </c>
-      <c r="AP19" s="3" t="n">
+      <c r="AP19" s="12" t="n">
         <v>700888158.43796</v>
       </c>
-      <c r="AQ19" s="3" t="n">
+      <c r="AQ19" s="12" t="n">
         <v>682617905.833606</v>
       </c>
-      <c r="AR19" s="3" t="n">
-        <v>1323497749.17128</v>
-      </c>
-      <c r="AS19" s="3" t="n">
-        <v>3910394363.58297</v>
-      </c>
-      <c r="AT19" s="3" t="n">
-        <v>3156749390.49427</v>
-      </c>
-      <c r="AU19" s="3" t="n">
-        <v>957037493.339728</v>
-      </c>
-      <c r="AV19" s="3" t="n">
-        <v>1563100248.711</v>
-      </c>
-      <c r="AW19" s="3" t="n">
-        <v>374315714.798505</v>
-      </c>
-      <c r="AX19" s="3"/>
+      <c r="AR19" s="12" t="n">
+        <v>1278592006.11605</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>3874670323.16249</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>3136959286.60595</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>952888193.83602</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>1563749032.6892</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>1107588739.1473</v>
+      </c>
+      <c r="AX19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6923,73 +6926,73 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="n">
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12" t="n">
         <v>4675934.07414233</v>
       </c>
-      <c r="AA20" s="3" t="n">
-        <v>15325722.1800769</v>
-      </c>
-      <c r="AB20" s="3" t="n">
+      <c r="AA20" s="12" t="n">
+        <v>15325722.1807079</v>
+      </c>
+      <c r="AB20" s="12" t="n">
         <v>34840083.1950512</v>
       </c>
-      <c r="AC20" s="3" t="n">
+      <c r="AC20" s="12" t="n">
         <v>56202606.1289704</v>
       </c>
-      <c r="AD20" s="3" t="n">
-        <v>90338975.5661439</v>
-      </c>
-      <c r="AE20" s="3" t="n">
-        <v>157749872.047801</v>
-      </c>
-      <c r="AF20" s="3" t="n">
-        <v>579993190.949804</v>
-      </c>
-      <c r="AG20" s="3" t="n">
-        <v>1586966733.85859</v>
-      </c>
-      <c r="AH20" s="3" t="n">
-        <v>3081713071.98682</v>
-      </c>
-      <c r="AI20" s="3" t="n">
-        <v>4301525454.87805</v>
-      </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AD20" s="12" t="n">
+        <v>90338975.5655489</v>
+      </c>
+      <c r="AE20" s="12" t="n">
+        <v>157749870.604146</v>
+      </c>
+      <c r="AF20" s="12" t="n">
+        <v>579993190.950083</v>
+      </c>
+      <c r="AG20" s="12" t="n">
+        <v>1586966735.0836</v>
+      </c>
+      <c r="AH20" s="12" t="n">
+        <v>3081713058.97805</v>
+      </c>
+      <c r="AI20" s="12" t="n">
+        <v>4301525454.24068</v>
+      </c>
+      <c r="AJ20" s="12" t="n">
         <v>73704138.7614009</v>
       </c>
-      <c r="AK20" s="3" t="n">
+      <c r="AK20" s="12" t="n">
         <v>10218300.3915009</v>
       </c>
-      <c r="AL20" s="3" t="n">
+      <c r="AL20" s="12" t="n">
         <v>-4735275.76030502</v>
       </c>
-      <c r="AM20" s="3" t="n">
+      <c r="AM20" s="12" t="n">
         <v>-2379021.06915253</v>
       </c>
-      <c r="AN20" s="3" t="n">
+      <c r="AN20" s="12" t="n">
         <v>-549890.960755517</v>
       </c>
-      <c r="AO20" s="3" t="n">
+      <c r="AO20" s="12" t="n">
         <v>-752.929221280353</v>
       </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7005,109 +7008,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="3" t="n">
+      <c r="P21" s="12" t="n">
         <v>24214566738.8981</v>
       </c>
-      <c r="Q21" s="3" t="n">
+      <c r="Q21" s="12" t="n">
         <v>35489211630.4335</v>
       </c>
-      <c r="R21" s="3" t="n">
+      <c r="R21" s="12" t="n">
         <v>33060305718.1975</v>
       </c>
-      <c r="S21" s="3" t="n">
+      <c r="S21" s="12" t="n">
         <v>31423990993.4659</v>
       </c>
-      <c r="T21" s="3" t="n">
+      <c r="T21" s="12" t="n">
         <v>36401261590.1566</v>
       </c>
-      <c r="U21" s="3" t="n">
+      <c r="U21" s="12" t="n">
         <v>35305115235.9255</v>
       </c>
-      <c r="V21" s="3" t="n">
+      <c r="V21" s="12" t="n">
         <v>34903150795.6185</v>
       </c>
-      <c r="W21" s="3" t="n">
+      <c r="W21" s="12" t="n">
         <v>34202156353.7648</v>
       </c>
-      <c r="X21" s="3" t="n">
+      <c r="X21" s="12" t="n">
         <v>32671693107.2574</v>
       </c>
-      <c r="Y21" s="3" t="n">
+      <c r="Y21" s="12" t="n">
         <v>33985149527.8471</v>
       </c>
-      <c r="Z21" s="3" t="n">
+      <c r="Z21" s="12" t="n">
         <v>2471982568.58261</v>
       </c>
-      <c r="AA21" s="3" t="n">
+      <c r="AA21" s="12" t="n">
         <v>1538304825.77626</v>
       </c>
-      <c r="AB21" s="3" t="n">
+      <c r="AB21" s="12" t="n">
         <v>2006662245.98908</v>
       </c>
-      <c r="AC21" s="3" t="n">
-        <v>2307226014.09719</v>
-      </c>
-      <c r="AD21" s="3" t="n">
-        <v>2247800163.92171</v>
-      </c>
-      <c r="AE21" s="3" t="n">
-        <v>1700931859.15486</v>
-      </c>
-      <c r="AF21" s="3" t="n">
-        <v>1005690211.59281</v>
-      </c>
-      <c r="AG21" s="3" t="n">
-        <v>41644150.3567676</v>
-      </c>
-      <c r="AH21" s="3" t="n">
-        <v>275644148.42181</v>
-      </c>
-      <c r="AI21" s="3" t="n">
-        <v>-121205227.412102</v>
-      </c>
-      <c r="AJ21" s="3" t="n">
+      <c r="AC21" s="12" t="n">
+        <v>2307226014.09597</v>
+      </c>
+      <c r="AD21" s="12" t="n">
+        <v>2247800163.68371</v>
+      </c>
+      <c r="AE21" s="12" t="n">
+        <v>1700931859.03937</v>
+      </c>
+      <c r="AF21" s="12" t="n">
+        <v>1005690211.59183</v>
+      </c>
+      <c r="AG21" s="12" t="n">
+        <v>41644150.3815344</v>
+      </c>
+      <c r="AH21" s="12" t="n">
+        <v>275644142.957245</v>
+      </c>
+      <c r="AI21" s="12" t="n">
+        <v>-121205227.383598</v>
+      </c>
+      <c r="AJ21" s="12" t="n">
         <v>40603521.6938045</v>
       </c>
-      <c r="AK21" s="3" t="n">
+      <c r="AK21" s="12" t="n">
         <v>2871781.42454045</v>
       </c>
-      <c r="AL21" s="3" t="n">
+      <c r="AL21" s="12" t="n">
         <v>94189680.682271</v>
       </c>
-      <c r="AM21" s="3" t="n">
+      <c r="AM21" s="12" t="n">
         <v>65838435.2065831</v>
       </c>
-      <c r="AN21" s="3" t="n">
+      <c r="AN21" s="12" t="n">
         <v>47130957.8452964</v>
       </c>
-      <c r="AO21" s="3" t="n">
+      <c r="AO21" s="12" t="n">
         <v>28469143.1537841</v>
       </c>
-      <c r="AP21" s="3" t="n">
+      <c r="AP21" s="12" t="n">
         <v>38118455.2716958</v>
       </c>
-      <c r="AQ21" s="3" t="n">
+      <c r="AQ21" s="12" t="n">
         <v>34612555.5370292</v>
       </c>
-      <c r="AR21" s="3" t="n">
+      <c r="AR21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="3" t="n">
+      <c r="AS21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="3" t="n">
+      <c r="AT21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="3" t="n">
+      <c r="AU21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="3" t="n">
+      <c r="AV21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="3" t="n">
+      <c r="AW21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="12"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7116,41 +7119,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -650,9 +650,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="188" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="192" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
@@ -660,7 +660,7 @@
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -698,9 +698,9 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -709,7 +709,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,110 +1123,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="12" t="n">
         <v>1679429769</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="12" t="n">
         <v>2118728788</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="12" t="n">
         <v>1828667742</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="12" t="n">
         <v>1632119796</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="12" t="n">
         <v>1576878967</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="12" t="n">
         <v>1669450272</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="12" t="n">
         <v>1462639723</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="12" t="n">
         <v>1404515054</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="12" t="n">
         <v>1290369360</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="12" t="n">
         <v>1574420344</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="12" t="n">
         <v>1665379208</v>
       </c>
-      <c r="Y2" s="1" t="n">
-        <v>1982549262.2202</v>
-      </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Y2" s="12" t="n">
+        <v>1982549260.2202</v>
+      </c>
+      <c r="Z2" s="12" t="n">
         <v>2694954548.4118</v>
       </c>
-      <c r="AA2" s="1" t="n">
-        <v>3961331928.4782</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>4585604093.6176</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>5266883423.9159</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>6202627183.9415</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>6411446430.5021</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>7431090645.9145</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>7904057809.6491</v>
-      </c>
-      <c r="AH2" s="1" t="n">
+      <c r="AA2" s="12" t="n">
+        <v>3961331927.4844</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>4585604093.6102</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>5266883423.6814</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>6202627182.0073</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>6411446430.189</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>7431090643.3443</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>7904057807.8159</v>
+      </c>
+      <c r="AH2" s="12" t="n">
         <v>8010346376.7066</v>
       </c>
-      <c r="AI2" s="1" t="n">
+      <c r="AI2" s="12" t="n">
         <v>7973429664.4802</v>
       </c>
-      <c r="AJ2" s="1" t="n">
+      <c r="AJ2" s="12" t="n">
         <v>6009656982.0923</v>
       </c>
-      <c r="AK2" s="1" t="n">
+      <c r="AK2" s="12" t="n">
         <v>4369580201.6394</v>
       </c>
-      <c r="AL2" s="1" t="n">
+      <c r="AL2" s="12" t="n">
         <v>4631218688.5049</v>
       </c>
-      <c r="AM2" s="1" t="n">
+      <c r="AM2" s="12" t="n">
         <v>4637172944.7989</v>
       </c>
-      <c r="AN2" s="1" t="n">
+      <c r="AN2" s="12" t="n">
         <v>4570564050.7567</v>
       </c>
-      <c r="AO2" s="1" t="n">
+      <c r="AO2" s="12" t="n">
         <v>5427755283.6966</v>
       </c>
-      <c r="AP2" s="1" t="n">
-        <v>6191271067.4222</v>
-      </c>
-      <c r="AQ2" s="1" t="n">
-        <v>6043483240.3619</v>
-      </c>
-      <c r="AR2" s="1" t="n">
-        <v>6151694646.0487</v>
-      </c>
-      <c r="AS2" s="1" t="n">
-        <v>7712025597.7157</v>
-      </c>
-      <c r="AT2" s="1" t="n">
-        <v>7541310040.3648</v>
-      </c>
-      <c r="AU2" s="1" t="n">
-        <v>2940518628.436</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+      <c r="AP2" s="12" t="n">
+        <v>6190020147.9945</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>6041786944.2626</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>6147095891.1613</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>7709886189.6086</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>7533551585.9943</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>7236151002.0956</v>
+      </c>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1235,110 +1235,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>276173000</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>201738621</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>167707496</v>
-      </c>
-      <c r="Q3" s="1" t="n">
-        <v>146524316</v>
-      </c>
-      <c r="R3" s="1" t="n">
-        <v>173647137</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>231445042</v>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>152936176</v>
-      </c>
-      <c r="U3" s="1" t="n">
-        <v>228199515</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>107844630</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>113703743</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>114285273</v>
-      </c>
-      <c r="Y3" s="1" t="n">
-        <v>136915071</v>
-      </c>
-      <c r="Z3" s="1" t="n">
-        <v>146584484</v>
-      </c>
-      <c r="AA3" s="1" t="n">
-        <v>84373102</v>
-      </c>
-      <c r="AB3" s="1" t="n">
-        <v>122131417</v>
-      </c>
-      <c r="AC3" s="1" t="n">
-        <v>242648293</v>
-      </c>
-      <c r="AD3" s="1" t="n">
-        <v>148948062.8509</v>
-      </c>
-      <c r="AE3" s="1" t="n">
-        <v>134203652.305</v>
-      </c>
-      <c r="AF3" s="1" t="n">
-        <v>145382166.3333</v>
-      </c>
-      <c r="AG3" s="1" t="n">
-        <v>178349381.584</v>
-      </c>
-      <c r="AH3" s="1" t="n">
-        <v>137842363.3765</v>
-      </c>
-      <c r="AI3" s="1" t="n">
-        <v>138753388.1831</v>
-      </c>
-      <c r="AJ3" s="1" t="n">
-        <v>85658284.554</v>
-      </c>
-      <c r="AK3" s="1" t="n">
-        <v>103047120.59</v>
-      </c>
-      <c r="AL3" s="1" t="n">
-        <v>84903843.7038</v>
-      </c>
-      <c r="AM3" s="1" t="n">
-        <v>92064020.9926</v>
-      </c>
-      <c r="AN3" s="1" t="n">
-        <v>123999780.1975</v>
-      </c>
-      <c r="AO3" s="1" t="n">
-        <v>176863813.7146</v>
-      </c>
-      <c r="AP3" s="1" t="n">
-        <v>205972658.8932</v>
-      </c>
-      <c r="AQ3" s="1" t="n">
-        <v>147342759.5504</v>
-      </c>
-      <c r="AR3" s="1" t="n">
-        <v>255605858.9786</v>
-      </c>
-      <c r="AS3" s="1" t="n">
-        <v>176259805.8991</v>
-      </c>
-      <c r="AT3" s="1" t="n">
-        <v>156286283.5996</v>
-      </c>
-      <c r="AU3" s="1" t="n">
-        <v>67354473.449</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+      <c r="N3" s="12" t="n">
+        <v>258265000</v>
+      </c>
+      <c r="O3" s="12" t="n">
+        <v>164572171</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>164531351</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>137242101</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>157160798</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>225685359</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>145450442</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>207291211</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>101158482</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>110390824</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>108233267</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>130641086</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>132868860</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>79054936</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>114975332</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>238174964</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>127752082.679</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>130744352.305</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>125498604.8215</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>166814714.8101</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>134687138.9057</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>134905925.7363</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>78081512.3668</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>55716104.37</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>75581169.8288</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>86143089.7131</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>111377844.0195</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>128062592.8581</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>159541059.0146</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>114983650.5834</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>210889648.927</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>151472287.7099</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>152603678.4381</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>143146073.3443</v>
+      </c>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1347,110 +1347,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="n">
-        <v>10227633536</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>16172362459</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>15661340673</v>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v>15399371757</v>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v>18581918440</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>18237010093</v>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>18667220686</v>
-      </c>
-      <c r="U4" s="1" t="n">
-        <v>18595798148</v>
-      </c>
-      <c r="V4" s="1" t="n">
-        <v>18166404271</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>18916705304</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>19020265328.0744</v>
-      </c>
-      <c r="Y4" s="1" t="n">
-        <v>20946817384.0391</v>
-      </c>
-      <c r="Z4" s="1" t="n">
-        <v>23221225928.7887</v>
-      </c>
-      <c r="AA4" s="1" t="n">
-        <v>30401168914.8088</v>
-      </c>
-      <c r="AB4" s="1" t="n">
-        <v>30994772338.3524</v>
-      </c>
-      <c r="AC4" s="1" t="n">
-        <v>34049478762.7944</v>
-      </c>
-      <c r="AD4" s="1" t="n">
-        <v>39197885644.0335</v>
-      </c>
-      <c r="AE4" s="1" t="n">
-        <v>39651427923.0135</v>
-      </c>
-      <c r="AF4" s="1" t="n">
-        <v>49714591588.6475</v>
-      </c>
-      <c r="AG4" s="1" t="n">
-        <v>58281746230.1661</v>
-      </c>
-      <c r="AH4" s="1" t="n">
-        <v>53091976471.277</v>
-      </c>
-      <c r="AI4" s="1" t="n">
-        <v>46468444165.4561</v>
-      </c>
-      <c r="AJ4" s="1" t="n">
-        <v>42916346379.7547</v>
-      </c>
-      <c r="AK4" s="1" t="n">
-        <v>34768117358.0399</v>
-      </c>
-      <c r="AL4" s="1" t="n">
-        <v>37497232629.0606</v>
-      </c>
-      <c r="AM4" s="1" t="n">
-        <v>33398552094.1771</v>
-      </c>
-      <c r="AN4" s="1" t="n">
-        <v>33866910296.318</v>
-      </c>
-      <c r="AO4" s="1" t="n">
-        <v>32835818619.4842</v>
-      </c>
-      <c r="AP4" s="1" t="n">
-        <v>40554347117.3061</v>
-      </c>
-      <c r="AQ4" s="1" t="n">
-        <v>45866401025.3658</v>
-      </c>
-      <c r="AR4" s="1" t="n">
-        <v>53766575262.7336</v>
-      </c>
-      <c r="AS4" s="1" t="n">
-        <v>43267101173.7208</v>
-      </c>
-      <c r="AT4" s="1" t="n">
-        <v>49589779347.2673</v>
-      </c>
-      <c r="AU4" s="1" t="n">
-        <v>20054459932.7422</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+      <c r="N4" s="12" t="n">
+        <v>10245541536</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>16209528909</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>15664516818</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>15408653972</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>18598404779</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>18242769776</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>18674706420</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>18616706452</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>18173090419</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>18920018223</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>19026317334.0744</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>20953091364.9784</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>23234941539.8497</v>
+      </c>
+      <c r="AA4" s="12" t="n">
+        <v>30406487082.6228</v>
+      </c>
+      <c r="AB4" s="12" t="n">
+        <v>31002461756.0356</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>34053418745.3445</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>39219081393.5801</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>39654839410.9709</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>49734522926.2905</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>44391208183.8079</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>53095131695.7478</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>46472291627.9029</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>42923923151.9419</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>34815448374.2599</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>37506555302.9356</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>33404473025.4566</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>33879532232.496</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>32885035919.5207</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>40602788440.6486</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>45886389304.3638</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>53808745353.7262</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>43296449481.9776</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>49592442991.947</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>57672558423.4365</v>
+      </c>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1459,110 +1459,110 @@
       <c r="M5" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="1" t="str">
+      <c r="N5" s="12" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="1" t="str">
+      <c r="O5" s="12" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="1" t="str">
+      <c r="P5" s="12" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="12" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="12" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="12" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="T5" s="12" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="12" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="V5" s="12" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="1" t="str">
+      <c r="W5" s="12" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="1" t="str">
+      <c r="X5" s="12" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="1" t="str">
+      <c r="Y5" s="12" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="1" t="str">
+      <c r="Z5" s="12" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="1" t="str">
+      <c r="AA5" s="12" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AB5" s="12" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="1" t="str">
+      <c r="AC5" s="12" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="1" t="str">
+      <c r="AD5" s="12" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="1" t="str">
+      <c r="AE5" s="12" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="1" t="str">
+      <c r="AF5" s="12" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="1" t="str">
+      <c r="AG5" s="12" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="1" t="str">
+      <c r="AH5" s="12" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="1" t="str">
+      <c r="AI5" s="12" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="1" t="str">
+      <c r="AJ5" s="12" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="1" t="str">
+      <c r="AK5" s="12" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="1" t="str">
+      <c r="AL5" s="12" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="1" t="str">
+      <c r="AM5" s="12" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="1" t="str">
+      <c r="AN5" s="12" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="1" t="str">
+      <c r="AO5" s="12" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="1" t="str">
+      <c r="AP5" s="12" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="1" t="str">
+      <c r="AQ5" s="12" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="1" t="str">
+      <c r="AR5" s="12" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="1" t="str">
+      <c r="AS5" s="12" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="1" t="str">
+      <c r="AT5" s="12" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="1" t="str">
+      <c r="AU5" s="12" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1681,110 +1681,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="12" t="n">
         <v>3337919679.6875</v>
       </c>
-      <c r="O9" s="1" t="n">
+      <c r="O9" s="12" t="n">
         <v>4066009090.09259</v>
       </c>
-      <c r="P9" s="1" t="n">
+      <c r="P9" s="12" t="n">
         <v>3423790195.3029</v>
       </c>
-      <c r="Q9" s="1" t="n">
+      <c r="Q9" s="12" t="n">
         <v>2985660169.42136</v>
       </c>
-      <c r="R9" s="1" t="n">
+      <c r="R9" s="12" t="n">
         <v>2823093093.87599</v>
       </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="12" t="n">
         <v>2926825458.87416</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="12" t="n">
         <v>2516947532.23946</v>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="U9" s="12" t="n">
         <v>2374739267.79371</v>
       </c>
-      <c r="V9" s="1" t="n">
+      <c r="V9" s="12" t="n">
         <v>2154836407.36128</v>
       </c>
-      <c r="W9" s="1" t="n">
+      <c r="W9" s="12" t="n">
         <v>2596814066.99227</v>
       </c>
-      <c r="X9" s="1" t="n">
+      <c r="X9" s="12" t="n">
         <v>2690803230.62638</v>
       </c>
-      <c r="Y9" s="1" t="n">
-        <v>3127426139.68117</v>
-      </c>
-      <c r="Z9" s="1" t="n">
+      <c r="Y9" s="12" t="n">
+        <v>3127426136.52622</v>
+      </c>
+      <c r="Z9" s="12" t="n">
         <v>4185172355.16341</v>
       </c>
-      <c r="AA9" s="1" t="n">
-        <v>6036429452.94454</v>
-      </c>
-      <c r="AB9" s="1" t="n">
-        <v>6820991298.79272</v>
-      </c>
-      <c r="AC9" s="1" t="n">
-        <v>7603561041.57611</v>
-      </c>
-      <c r="AD9" s="1" t="n">
-        <v>8672108813.95213</v>
-      </c>
-      <c r="AE9" s="1" t="n">
-        <v>8724804937.6444</v>
-      </c>
-      <c r="AF9" s="1" t="n">
-        <v>9905761031.5803</v>
-      </c>
-      <c r="AG9" s="1" t="n">
-        <v>10430242068.3377</v>
-      </c>
-      <c r="AH9" s="1" t="n">
+      <c r="AA9" s="12" t="n">
+        <v>6036429451.43015</v>
+      </c>
+      <c r="AB9" s="12" t="n">
+        <v>6820991298.78172</v>
+      </c>
+      <c r="AC9" s="12" t="n">
+        <v>7603561041.23757</v>
+      </c>
+      <c r="AD9" s="12" t="n">
+        <v>8672108811.24785</v>
+      </c>
+      <c r="AE9" s="12" t="n">
+        <v>8724804937.21833</v>
+      </c>
+      <c r="AF9" s="12" t="n">
+        <v>9905761028.15418</v>
+      </c>
+      <c r="AG9" s="12" t="n">
+        <v>10430242065.9186</v>
+      </c>
+      <c r="AH9" s="12" t="n">
         <v>10479357145.4648</v>
       </c>
-      <c r="AI9" s="1" t="n">
+      <c r="AI9" s="12" t="n">
         <v>10224989788.0711</v>
       </c>
-      <c r="AJ9" s="1" t="n">
+      <c r="AJ9" s="12" t="n">
         <v>7567961036.10487</v>
       </c>
-      <c r="AK9" s="1" t="n">
+      <c r="AK9" s="12" t="n">
         <v>5403724192.75089</v>
       </c>
-      <c r="AL9" s="1" t="n">
+      <c r="AL9" s="12" t="n">
         <v>5618587375.37786</v>
       </c>
-      <c r="AM9" s="1" t="n">
+      <c r="AM9" s="12" t="n">
         <v>5562045806.74774</v>
       </c>
-      <c r="AN9" s="1" t="n">
+      <c r="AN9" s="12" t="n">
         <v>5437097404.37916</v>
       </c>
-      <c r="AO9" s="1" t="n">
+      <c r="AO9" s="12" t="n">
         <v>6343547315.23726</v>
       </c>
-      <c r="AP9" s="1" t="n">
-        <v>7069883618.42667</v>
-      </c>
-      <c r="AQ9" s="1" t="n">
-        <v>6768550734.54088</v>
-      </c>
-      <c r="AR9" s="1" t="n">
-        <v>6799042541.68578</v>
-      </c>
-      <c r="AS9" s="1" t="n">
-        <v>8246373303.37602</v>
-      </c>
-      <c r="AT9" s="1" t="n">
-        <v>7541310040.3648</v>
-      </c>
-      <c r="AU9" s="1" t="n">
-        <v>2804661902.50163</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+      <c r="AP9" s="12" t="n">
+        <v>7068455179.14925</v>
+      </c>
+      <c r="AQ9" s="12" t="n">
+        <v>6766650925.15078</v>
+      </c>
+      <c r="AR9" s="12" t="n">
+        <v>6793959856.03292</v>
+      </c>
+      <c r="AS9" s="12" t="n">
+        <v>8244085660.82662</v>
+      </c>
+      <c r="AT9" s="12" t="n">
+        <v>7533551585.9943</v>
+      </c>
+      <c r="AU9" s="12" t="n">
+        <v>6901829099.14805</v>
+      </c>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1793,110 +1793,110 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="1" t="n">
-        <v>548902555.328193</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>387152462.10585</v>
-      </c>
-      <c r="P10" s="1" t="n">
-        <v>313996505.376973</v>
-      </c>
-      <c r="Q10" s="1" t="n">
-        <v>268039034.392614</v>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>310881204.895948</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>405761856.233235</v>
-      </c>
-      <c r="T10" s="1" t="n">
-        <v>263176450.577871</v>
-      </c>
-      <c r="U10" s="1" t="n">
-        <v>385837337.676539</v>
-      </c>
-      <c r="V10" s="1" t="n">
-        <v>180093810.552358</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>187540436.972449</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>184654149.832173</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>215980394.596694</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>227640696.38734</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>128570967.327333</v>
-      </c>
-      <c r="AB10" s="1" t="n">
-        <v>181667958.170594</v>
-      </c>
-      <c r="AC10" s="1" t="n">
-        <v>350300350.123946</v>
-      </c>
-      <c r="AD10" s="1" t="n">
-        <v>208249467.582794</v>
-      </c>
-      <c r="AE10" s="1" t="n">
-        <v>182626603.99221</v>
-      </c>
-      <c r="AF10" s="1" t="n">
-        <v>193796720.639236</v>
-      </c>
-      <c r="AG10" s="1" t="n">
-        <v>235350913.095364</v>
-      </c>
-      <c r="AH10" s="1" t="n">
-        <v>180329200.220075</v>
-      </c>
-      <c r="AI10" s="1" t="n">
-        <v>177934971.139543</v>
-      </c>
-      <c r="AJ10" s="1" t="n">
-        <v>107869477.718271</v>
-      </c>
-      <c r="AK10" s="1" t="n">
-        <v>127435175.195224</v>
-      </c>
-      <c r="AL10" s="1" t="n">
-        <v>103005212.329809</v>
-      </c>
-      <c r="AM10" s="1" t="n">
-        <v>110425965.994769</v>
-      </c>
-      <c r="AN10" s="1" t="n">
-        <v>147508901.651601</v>
-      </c>
-      <c r="AO10" s="1" t="n">
-        <v>206704965.867173</v>
-      </c>
-      <c r="AP10" s="1" t="n">
-        <v>235202547.440573</v>
-      </c>
-      <c r="AQ10" s="1" t="n">
-        <v>165020221.570834</v>
-      </c>
-      <c r="AR10" s="1" t="n">
-        <v>282503474.098132</v>
-      </c>
-      <c r="AS10" s="1" t="n">
-        <v>188472423.931672</v>
-      </c>
-      <c r="AT10" s="1" t="n">
-        <v>156286283.5996</v>
-      </c>
-      <c r="AU10" s="1" t="n">
-        <v>64242587.6233754</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+      <c r="N10" s="12" t="n">
+        <v>513309840.034456</v>
+      </c>
+      <c r="O10" s="12" t="n">
+        <v>315827087.946413</v>
+      </c>
+      <c r="P10" s="12" t="n">
+        <v>308049851.504265</v>
+      </c>
+      <c r="Q10" s="12" t="n">
+        <v>251058945.261028</v>
+      </c>
+      <c r="R10" s="12" t="n">
+        <v>281365642.352334</v>
+      </c>
+      <c r="S10" s="12" t="n">
+        <v>395664168.915332</v>
+      </c>
+      <c r="T10" s="12" t="n">
+        <v>250294809.650154</v>
+      </c>
+      <c r="U10" s="12" t="n">
+        <v>350485797.377727</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>168928360.114658</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <v>182076181.70238</v>
+      </c>
+      <c r="X10" s="12" t="n">
+        <v>174875741.87659</v>
+      </c>
+      <c r="Y10" s="12" t="n">
+        <v>206083326.683741</v>
+      </c>
+      <c r="Z10" s="12" t="n">
+        <v>206340800.835319</v>
+      </c>
+      <c r="AA10" s="12" t="n">
+        <v>120466942.101055</v>
+      </c>
+      <c r="AB10" s="12" t="n">
+        <v>171023429.658776</v>
+      </c>
+      <c r="AC10" s="12" t="n">
+        <v>343842407.661026</v>
+      </c>
+      <c r="AD10" s="12" t="n">
+        <v>178614630.437499</v>
+      </c>
+      <c r="AE10" s="12" t="n">
+        <v>177919129.938118</v>
+      </c>
+      <c r="AF10" s="12" t="n">
+        <v>167291619.547392</v>
+      </c>
+      <c r="AG10" s="12" t="n">
+        <v>220129697.673265</v>
+      </c>
+      <c r="AH10" s="12" t="n">
+        <v>176201448.116898</v>
+      </c>
+      <c r="AI10" s="12" t="n">
+        <v>173001051.122193</v>
+      </c>
+      <c r="AJ10" s="12" t="n">
+        <v>98328048.5047503</v>
+      </c>
+      <c r="AK10" s="12" t="n">
+        <v>68902376.708189</v>
+      </c>
+      <c r="AL10" s="12" t="n">
+        <v>91694958.7525263</v>
+      </c>
+      <c r="AM10" s="12" t="n">
+        <v>103324119.376751</v>
+      </c>
+      <c r="AN10" s="12" t="n">
+        <v>132493972.275372</v>
+      </c>
+      <c r="AO10" s="12" t="n">
+        <v>149669812.776462</v>
+      </c>
+      <c r="AP10" s="12" t="n">
+        <v>182181769.673895</v>
+      </c>
+      <c r="AQ10" s="12" t="n">
+        <v>128778825.333494</v>
+      </c>
+      <c r="AR10" s="12" t="n">
+        <v>233081740.423645</v>
+      </c>
+      <c r="AS10" s="12" t="n">
+        <v>161967438.223</v>
+      </c>
+      <c r="AT10" s="12" t="n">
+        <v>152603678.4381</v>
+      </c>
+      <c r="AU10" s="12" t="n">
+        <v>136532492.778323</v>
+      </c>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1905,151 +1905,151 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="1" t="n">
-        <v>20327744503.8824</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>31036050078.235</v>
-      </c>
-      <c r="P11" s="1" t="n">
-        <v>29322519017.5176</v>
-      </c>
-      <c r="Q11" s="1" t="n">
-        <v>28170291789.6519</v>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>33267287291.3847</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>31972527920.8181</v>
-      </c>
-      <c r="T11" s="1" t="n">
-        <v>32123026812.8012</v>
-      </c>
-      <c r="U11" s="1" t="n">
-        <v>31441579748.2945</v>
-      </c>
-      <c r="V11" s="1" t="n">
-        <v>30336762889.3438</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <v>31200795023.8824</v>
-      </c>
-      <c r="X11" s="1" t="n">
-        <v>30731614245.1525</v>
-      </c>
-      <c r="Y11" s="1" t="n">
-        <v>33043125574.9022</v>
-      </c>
-      <c r="Z11" s="1" t="n">
-        <v>36061770640.0442</v>
-      </c>
-      <c r="AA11" s="1" t="n">
-        <v>46326466641.6867</v>
-      </c>
-      <c r="AB11" s="1" t="n">
-        <v>46104083150.6187</v>
-      </c>
-      <c r="AC11" s="1" t="n">
-        <v>49155690257.1935</v>
-      </c>
-      <c r="AD11" s="1" t="n">
-        <v>54803927352.2644</v>
-      </c>
-      <c r="AE11" s="1" t="n">
-        <v>53958334968.1465</v>
-      </c>
-      <c r="AF11" s="1" t="n">
-        <v>66270334668.9092</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>76908941708.8981</v>
-      </c>
-      <c r="AH11" s="1" t="n">
-        <v>69456395121.5642</v>
-      </c>
-      <c r="AI11" s="1" t="n">
-        <v>59590337791.0233</v>
-      </c>
-      <c r="AJ11" s="1" t="n">
-        <v>54044554985.7134</v>
-      </c>
-      <c r="AK11" s="1" t="n">
-        <v>42996651448.0164</v>
-      </c>
-      <c r="AL11" s="1" t="n">
-        <v>45491584835.7964</v>
-      </c>
-      <c r="AM11" s="1" t="n">
-        <v>40059812053.2077</v>
-      </c>
-      <c r="AN11" s="1" t="n">
-        <v>40287738673.2972</v>
-      </c>
-      <c r="AO11" s="1" t="n">
-        <v>38376005947.2294</v>
-      </c>
-      <c r="AP11" s="1" t="n">
-        <v>46309475262.5664</v>
-      </c>
-      <c r="AQ11" s="1" t="n">
-        <v>51369226984.4692</v>
-      </c>
-      <c r="AR11" s="1" t="n">
-        <v>59424476272.8722</v>
-      </c>
-      <c r="AS11" s="1" t="n">
-        <v>46264974553.3941</v>
-      </c>
-      <c r="AT11" s="1" t="n">
-        <v>49589779347.2673</v>
-      </c>
-      <c r="AU11" s="1" t="n">
-        <v>19127911384.3001</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+      <c r="N11" s="12" t="n">
+        <v>20363337219.1762</v>
+      </c>
+      <c r="O11" s="12" t="n">
+        <v>31107375452.3945</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>29328465671.3903</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>28187271878.7835</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>33296802853.9283</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>31982625608.136</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>32135908453.7289</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>31476931288.5933</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>30347928339.7815</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>31206259279.1525</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>30741392653.1081</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>33053022636.4095</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>36083070515.5024</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>46334570669.6772</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>46115521000.4721</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>49161378231.544</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>54833561866.9645</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>53962977378.7629</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>66296903456.3374</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>58578904432.8418</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>69460522873.6673</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>59595271711.0407</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>54054096414.9269</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>43055184246.5034</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>45502895089.3737</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>40066913899.8257</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>40302753602.6734</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>38433527382.0015</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>46364790966.664</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>51391613359.1994</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>59471083957.2815</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>46296356335.3451</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>49592442991.947</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>55007992762.1625</v>
+      </c>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5290,89 +5290,89 @@
       <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="n">
         <v>15345881642.2731</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="3" t="n">
         <v>17532963249.4187</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="3" t="n">
         <v>18942203544.6014</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="3" t="n">
         <v>25477712380.4269</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="3" t="n">
         <v>25080066120.9268</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="3" t="n">
         <v>29581474197.7344</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="3" t="n">
         <v>35507608435.7436</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="3" t="n">
         <v>36973729711.8321</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="3" t="n">
         <v>47092584611.4205</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="3" t="n">
         <v>40469635475.8336</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="3" t="n">
         <v>50766298896.5493</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="3" t="n">
         <v>46380689957.2157</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="3" t="n">
         <v>42394453594.0767</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="3" t="n">
         <v>33432752697.7434</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="3" t="n">
         <v>36789456126.9644</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="3" t="n">
         <v>33811327787.04</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="3" t="n">
         <v>33233952149.2717</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="3" t="n">
         <v>34065038817.3485</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="3" t="n">
         <v>40567948513.5673</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="3" t="n">
         <v>44244786249.23</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="3" t="n">
         <v>52227215262.2694</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="3" t="n">
         <v>45171764373.5009</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="3" t="n">
         <v>49575158994.9686</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="3" t="n">
         <v>56816472615.1034</v>
       </c>
-      <c r="AX2" s="12"/>
+      <c r="AX2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5390,89 +5390,89 @@
       <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12" t="n">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="n">
         <v>615402061</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="3" t="n">
         <v>745958682</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="3" t="n">
         <v>763204575</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="3" t="n">
         <v>1089949612.08</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="3" t="n">
         <v>954326488.5317</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="3" t="n">
         <v>1464531874.6877</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="3" t="n">
         <v>1750353031.1849</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="3" t="n">
         <v>1239623517.1553</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="3" t="n">
         <v>703965703.162</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="3" t="n">
         <v>683150566.7904</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="3" t="n">
         <v>1463047951.211</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="3" t="n">
         <v>1594126904.5965</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="3" t="n">
         <v>1197342150.4164</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="3" t="n">
         <v>1053810335.8304</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="3" t="n">
         <v>907606716.7881</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="3" t="n">
         <v>829698723.3953</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="3" t="n">
         <v>882225257.9374</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="3" t="n">
         <v>845807936.0675</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="3" t="n">
         <v>923510179.3376</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="3" t="n">
         <v>1162693786.714</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="3" t="n">
         <v>1511773793.6195</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="3" t="n">
         <v>1631016043.4709</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="3" t="n">
         <v>2554564359.9781</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="3" t="n">
         <v>2327857105.7091</v>
       </c>
-      <c r="AX3" s="12"/>
+      <c r="AX3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5490,89 +5490,89 @@
       <c r="O4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="n">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3" t="n">
         <v>353605860</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="3" t="n">
         <v>501638178</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="3" t="n">
         <v>526446374</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="3" t="n">
         <v>798199438</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="3" t="n">
         <v>911358315.6309</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="3" t="n">
         <v>676042983.87</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="3" t="n">
         <v>694448016.3993</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="3" t="n">
         <v>679765460.9636</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="3" t="n">
         <v>559492990.3133</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="3" t="n">
         <v>1139154818.5304</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="3" t="n">
         <v>969845816.7892</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="3" t="n">
         <v>652173104.5862</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="3" t="n">
         <v>543768425.9068</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="3" t="n">
         <v>82567155.4116</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="3" t="n">
         <v>168378109.9497</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="3" t="n">
         <v>165358697.6416</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="3" t="n">
         <v>64672606.1158</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="3" t="n">
         <v>49394479.9619</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="3" t="n">
         <v>839778098.7902</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="3" t="n">
         <v>165662651.8757</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="3" t="n">
         <v>68549290.0929</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="3" t="n">
         <v>145471096.6592</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="3" t="n">
         <v>103414079.8977</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="3" t="n">
         <v>120763468.5801</v>
       </c>
-      <c r="AX4" s="12"/>
+      <c r="AX4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5590,89 +5590,89 @@
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="n">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3" t="n">
         <v>320538683</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="3" t="n">
         <v>432788435</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="3" t="n">
         <v>780298062</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="3" t="n">
         <v>665235544</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="3" t="n">
         <v>757233364.49</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="3" t="n">
         <v>802219500.7898</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="3" t="n">
         <v>688398227.5292</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="3" t="n">
         <v>702293990.3086</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="3" t="n">
         <v>471628806.0348</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="3" t="n">
         <v>480834625.943</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="3" t="n">
         <v>2468354862.7565</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="3" t="n">
         <v>948391412.6218</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="3" t="n">
         <v>887966577.4075</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="3" t="n">
         <v>1037386819.1783</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="3" t="n">
         <v>1226866124.7718</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="3" t="n">
         <v>923891605.5908</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="3" t="n">
         <v>1557509402.7261</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="3" t="n">
         <v>710078085.7718</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="3" t="n">
         <v>390672908.1279</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="3" t="n">
         <v>242230551.0865</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="3" t="n">
         <v>314714626.7076</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="3" t="n">
         <v>379215964.7467</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="3" t="n">
         <v>452727503.4116</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="3" t="n">
         <v>477462208.9214</v>
       </c>
-      <c r="AX5" s="12"/>
+      <c r="AX5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5690,89 +5690,89 @@
       <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12" t="n">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3" t="n">
         <v>2536302693.9317</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="3" t="n">
         <v>2771675463.32</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="3" t="n">
         <v>3559746163.4</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="3" t="n">
         <v>4688023773</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="3" t="n">
         <v>6361660624.1563</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="3" t="n">
         <v>5739866389.7286</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="3" t="n">
         <v>5547565115.7143</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="3" t="n">
         <v>4890509606.4084</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="3" t="n">
         <v>5462891047.3795</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="3" t="n">
         <v>4976099382.5342</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="3" t="n">
         <v>4051556712.8982</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="3" t="n">
         <v>4514586074.6799</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="3" t="n">
         <v>3586333400.2535</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="3" t="n">
         <v>3162025638.9323</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="3" t="n">
         <v>2744176831.3742</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="3" t="n">
         <v>2314384501.9851</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="3" t="n">
         <v>2201886726.7506</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="3" t="n">
         <v>2156847649.5284</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="3" t="n">
         <v>3110745463.2082</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="3" t="n">
         <v>2768182665.5426</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="3" t="n">
         <v>3206193628.8927</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="3" t="n">
         <v>2939197444.7893</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="3" t="n">
         <v>3028984285.4342</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="3" t="n">
         <v>4148060195.958</v>
       </c>
-      <c r="AX6" s="12"/>
+      <c r="AX6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5790,89 +5790,89 @@
       <c r="O7" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12" t="n">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3" t="n">
         <v>95357103</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="3" t="n">
         <v>96374621</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="3" t="n">
         <v>176283335</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="3" t="n">
         <v>176782492</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="3" t="n">
         <v>66516179.1191</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="3" t="n">
         <v>6858606</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="3" t="n">
         <v>226945815.1757</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="3" t="n">
         <v>514318806.8779</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="3" t="n">
         <v>481931252.3261</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="3" t="n">
         <v>1545351004.7246</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="3" t="n">
         <v>1433685005.1451</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="3" t="n">
         <v>480452140.8592</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="3" t="n">
         <v>330762474.9628</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="3" t="n">
         <v>420887238.0928</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="3" t="n">
         <v>338475994.2019</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="3" t="n">
         <v>59393159.3235</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="3" t="n">
         <v>589184629.6477</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="3" t="n">
         <v>584071145.2147</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="3" t="n">
         <v>1119694484.6265</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="3" t="n">
         <v>3459603994.761</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="3" t="n">
         <v>2838284292.2324</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="3" t="n">
         <v>891143036.1291</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="3" t="n">
         <v>1563749032.6892</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="3" t="n">
         <v>1161239904.6044</v>
       </c>
-      <c r="AX7" s="12"/>
+      <c r="AX7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5890,73 +5890,73 @@
       <c r="O8" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12" t="n">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3" t="n">
         <v>2894007</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="3" t="n">
         <v>9715337.1</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="3" t="n">
         <v>22434545.75</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="3" t="n">
         <v>36882262.9102</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="3" t="n">
         <v>60732928.4</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="3" t="n">
         <v>109271192.02</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="3" t="n">
         <v>414833532.4045</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="3" t="n">
         <v>1166186783.7385</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="3" t="n">
         <v>2311835406.9875</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="3" t="n">
         <v>3259704390.1028</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="3" t="n">
         <v>56338921.6228</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="3" t="n">
         <v>7968213.2844</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="3" t="n">
         <v>-3760244.3907</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="3" t="n">
         <v>-1923733.15</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="3" t="n">
         <v>-453257.22</v>
       </c>
-      <c r="AO8" s="12" t="n">
+      <c r="AO8" s="3" t="n">
         <v>-627.73</v>
       </c>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="12"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5972,109 +5972,109 @@
         <v>57</v>
       </c>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="3" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="3" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="3" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="3" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="3" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="3" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="3" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="3" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="3" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="3" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="3" t="n">
         <v>1529947758.8696</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="3" t="n">
         <v>975167745.3599</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="3" t="n">
         <v>1292148348.5101</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="3" t="n">
         <v>1514088443.6901</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="3" t="n">
         <v>1511147160.391</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="3" t="n">
         <v>1178212388.1954</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="3" t="n">
         <v>719308484.1149</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="3" t="n">
         <v>30602316.1805</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="3" t="n">
         <v>206782356.8326</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="3" t="n">
         <v>-91849558.0251</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="3" t="n">
         <v>31037044.388</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="3" t="n">
         <v>2239410.2757</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="3" t="n">
         <v>74795267.768</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="3" t="n">
         <v>53238528.2305</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="3" t="n">
         <v>38848514.4392</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="3" t="n">
         <v>23735212.7223</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="3" t="n">
         <v>32043354.8229</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="3" t="n">
         <v>29615682.1826</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV9" s="12" t="n">
+      <c r="AV9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12"/>
+      <c r="AX9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6089,107 +6089,107 @@
       <c r="O10" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="3" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="3" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="3" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="3" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="3" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="3" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="3" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="3" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="3" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="3" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="3" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="3" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="3" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="3" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="3" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="3" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="3" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="3" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="3" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="3" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="3" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="3" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="3" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="3" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="3" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="3" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="3" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="3" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="3" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="3" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="3" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="3" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6326,89 +6326,89 @@
       <c r="O14" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12" t="n">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3" t="n">
         <v>24794802109.6217</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="3" t="n">
         <v>27657848718.9243</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="3" t="n">
         <v>29416595047.0161</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="3" t="n">
         <v>38823914830.5708</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="3" t="n">
         <v>37306079916.9493</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="3" t="n">
         <v>42705434439.8327</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="3" t="n">
         <v>49644422427.1915</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="3" t="n">
         <v>50314477871.6742</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="3" t="n">
         <v>62775158014.8838</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="3" t="n">
         <v>53403973578.6134</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="3" t="n">
         <v>66413879259.6234</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="3" t="n">
         <v>59477803295.7213</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="3" t="n">
         <v>53387335400.8345</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="3" t="n">
         <v>41345247425.6617</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="3" t="n">
         <v>44632911474.2604</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="3" t="n">
         <v>40554914853.76</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="3" t="n">
         <v>39534777975.1933</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="3" t="n">
         <v>39812624968.9859</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="3" t="n">
         <v>46325006853.3443</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="3" t="n">
         <v>49553058816.6067</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="3" t="n">
         <v>57723128151.3675</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="3" t="n">
         <v>48301607285.4277</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="3" t="n">
         <v>49575158994.9686</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="3" t="n">
         <v>54191459505.5168</v>
       </c>
-      <c r="AX14" s="12"/>
+      <c r="AX14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6426,89 +6426,89 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12" t="n">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3" t="n">
         <v>994323602.647581</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="3" t="n">
         <v>1176732768.09088</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="3" t="n">
         <v>1185230634.22595</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="3" t="n">
         <v>1660907002.84052</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="3" t="n">
         <v>1419540924.50812</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="3" t="n">
         <v>2114278333.1708</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="3" t="n">
         <v>2447229456.02232</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="3" t="n">
         <v>1686900686.22311</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="3" t="n">
         <v>938397385.017095</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="3" t="n">
         <v>901489583.242602</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="3" t="n">
         <v>1913999879.73855</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="3" t="n">
         <v>2044281069.28704</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="3" t="n">
         <v>1507812969.73168</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="3" t="n">
         <v>1303214529.43264</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="3" t="n">
         <v>1101107070.02697</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="3" t="n">
         <v>995180115.182206</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="3" t="n">
         <v>1049486366.83366</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="3" t="n">
         <v>988515948.41859</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="3" t="n">
         <v>1054566892.20161</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="3" t="n">
         <v>1302188087.74886</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="3" t="n">
         <v>1670858995.38703</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="3" t="n">
         <v>1744025222.40594</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="3" t="n">
         <v>2554564359.9781</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="3" t="n">
         <v>2220306334.98233</v>
       </c>
-      <c r="AX15" s="12"/>
+      <c r="AX15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6526,89 +6526,89 @@
       <c r="O16" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12" t="n">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3" t="n">
         <v>571331613.776471</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="3" t="n">
         <v>791322758.24629</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="3" t="n">
         <v>817553235.634068</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="3" t="n">
         <v>1216326903.13785</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="3" t="n">
         <v>1355626655.52679</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="3" t="n">
         <v>975972635.210329</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="3" t="n">
         <v>970931926.948576</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="3" t="n">
         <v>925036357.16892</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="3" t="n">
         <v>745812980.216416</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="3" t="n">
         <v>1503235527.46294</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="3" t="n">
         <v>1268779177.85468</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="3" t="n">
         <v>836335631.598407</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="3" t="n">
         <v>684767578.61378</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="3" t="n">
         <v>102108238.008056</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="3" t="n">
         <v>204276063.490922</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="3" t="n">
         <v>198339087.581003</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="3" t="n">
         <v>76933887.1399113</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="3" t="n">
         <v>57728509.1851916</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="3" t="n">
         <v>958952266.682504</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="3" t="n">
         <v>185538044.773681</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="3" t="n">
         <v>75762788.3632599</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="3" t="n">
         <v>155550439.077716</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="3" t="n">
         <v>103414079.8977</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="3" t="n">
         <v>115184000.626687</v>
       </c>
-      <c r="AX16" s="12"/>
+      <c r="AX16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6626,89 +6626,89 @@
       <c r="O17" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12" t="n">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3" t="n">
         <v>517903982.236535</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="3" t="n">
         <v>682713862.582635</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="3" t="n">
         <v>1211776235.63059</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="3" t="n">
         <v>1013711424.20015</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="3" t="n">
         <v>1126368976.67</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="3" t="n">
         <v>1158127957.66473</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="3" t="n">
         <v>962473506.697433</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="3" t="n">
         <v>955693561.623131</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="3" t="n">
         <v>628688636.80983</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="3" t="n">
         <v>634512254.870106</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="3" t="n">
         <v>3229170244.59621</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="3" t="n">
         <v>1216200921.96354</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="3" t="n">
         <v>1118216310.71591</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="3" t="n">
         <v>1282904076.21571</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="3" t="n">
         <v>1488432091.75832</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="3" t="n">
         <v>1108159538.56744</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="3" t="n">
         <v>1852797649.65906</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="3" t="n">
         <v>829885228.638894</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="3" t="n">
         <v>446113885.704336</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="3" t="n">
         <v>271292185.197917</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="3" t="n">
         <v>347832306.151626</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="3" t="n">
         <v>405490926.900895</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="3" t="n">
         <v>452727503.4116</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="3" t="n">
         <v>455402681.110839</v>
       </c>
-      <c r="AX17" s="12"/>
+      <c r="AX17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6726,89 +6726,89 @@
       <c r="O18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12" t="n">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3" t="n">
         <v>4097980477.89595</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="3" t="n">
         <v>4372254682.3339</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="3" t="n">
         <v>5528164192.32024</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="3" t="n">
         <v>7143790343.84851</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="3" t="n">
         <v>9462838674.54629</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="3" t="n">
         <v>8286385126.0911</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="3" t="n">
         <v>7756243751.11775</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="3" t="n">
         <v>6655088336.79015</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="3" t="n">
         <v>7282119924.97385</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="3" t="n">
         <v>6566490575.58473</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="3" t="n">
         <v>5300358785.11182</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="3" t="n">
         <v>5789427944.23952</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="3" t="n">
         <v>4516269650.07753</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="3" t="n">
         <v>3910378950.54229</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="3" t="n">
         <v>3329231102.56774</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="3" t="n">
         <v>2775982860.18345</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="3" t="n">
         <v>2619342486.79232</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="3" t="n">
         <v>2520759393.41603</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="3" t="n">
         <v>3552196011.43834</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="3" t="n">
         <v>3100295652.19406</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="3" t="n">
         <v>3543584025.86272</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="3" t="n">
         <v>3142847366.74639</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="3" t="n">
         <v>3028984285.4342</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="3" t="n">
         <v>3956413092.70489</v>
       </c>
-      <c r="AX18" s="12"/>
+      <c r="AX18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6826,89 +6826,89 @@
       <c r="O19" t="s">
         <v>56</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12" t="n">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="n">
         <v>154071336.776034</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="3" t="n">
         <v>152028761.484459</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="3" t="n">
         <v>273761997.490013</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="3" t="n">
         <v>269387938.385584</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="3" t="n">
         <v>98941441.4628169</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="3" t="n">
         <v>9901458.82939385</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="3" t="n">
         <v>317300838.130351</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="3" t="n">
         <v>699893746.9747</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="3" t="n">
         <v>642421960.202731</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="3" t="n">
         <v>2039254449.80293</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="3" t="n">
         <v>1875586459.86917</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="3" t="n">
         <v>616123605.608112</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="3" t="n">
         <v>416529184.64118</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="3" t="n">
         <v>520498181.96468</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="3" t="n">
         <v>410638554.515164</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="3" t="n">
         <v>71238980.4515043</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="3" t="n">
         <v>700888158.43796</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="3" t="n">
         <v>682617905.833606</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="3" t="n">
         <v>1278592006.11605</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="3" t="n">
         <v>3874670323.16249</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="3" t="n">
         <v>3136959286.60595</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="3" t="n">
         <v>952888193.83602</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="3" t="n">
         <v>1563749032.6892</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="3" t="n">
         <v>1107588739.1473</v>
       </c>
-      <c r="AX19" s="12"/>
+      <c r="AX19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6926,73 +6926,73 @@
       <c r="O20" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12" t="n">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3" t="n">
         <v>4675934.07414233</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="3" t="n">
         <v>15325722.1807079</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="3" t="n">
         <v>34840083.1950512</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="3" t="n">
         <v>56202606.1289704</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="3" t="n">
         <v>90338975.5655489</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="3" t="n">
         <v>157749870.604146</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="3" t="n">
         <v>579993190.950083</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="3" t="n">
         <v>1586966735.0836</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="3" t="n">
         <v>3081713058.97805</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="3" t="n">
         <v>4301525454.24068</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="3" t="n">
         <v>73704138.7614009</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="3" t="n">
         <v>10218300.3915009</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="3" t="n">
         <v>-4735275.76030502</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="3" t="n">
         <v>-2379021.06915253</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="3" t="n">
         <v>-549890.960755517</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="3" t="n">
         <v>-752.929221280353</v>
       </c>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7008,109 +7008,109 @@
         <v>57</v>
       </c>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="3" t="n">
         <v>24214566738.8981</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="3" t="n">
         <v>35489211630.4335</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="3" t="n">
         <v>33060305718.1975</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="3" t="n">
         <v>31423990993.4659</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="3" t="n">
         <v>36401261590.1566</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="3" t="n">
         <v>35305115235.9255</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="3" t="n">
         <v>34903150795.6185</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="3" t="n">
         <v>34202156353.7648</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="3" t="n">
         <v>32671693107.2574</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="3" t="n">
         <v>33985149527.8471</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="3" t="n">
         <v>2471982568.58261</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="3" t="n">
         <v>1538304825.77626</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="3" t="n">
         <v>2006662245.98908</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="3" t="n">
         <v>2307226014.09597</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="3" t="n">
         <v>2247800163.68371</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="3" t="n">
         <v>1700931859.03937</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="3" t="n">
         <v>1005690211.59183</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="3" t="n">
         <v>41644150.3815344</v>
       </c>
-      <c r="AH21" s="12" t="n">
+      <c r="AH21" s="3" t="n">
         <v>275644142.957245</v>
       </c>
-      <c r="AI21" s="12" t="n">
+      <c r="AI21" s="3" t="n">
         <v>-121205227.383598</v>
       </c>
-      <c r="AJ21" s="12" t="n">
+      <c r="AJ21" s="3" t="n">
         <v>40603521.6938045</v>
       </c>
-      <c r="AK21" s="12" t="n">
+      <c r="AK21" s="3" t="n">
         <v>2871781.42454045</v>
       </c>
-      <c r="AL21" s="12" t="n">
+      <c r="AL21" s="3" t="n">
         <v>94189680.682271</v>
       </c>
-      <c r="AM21" s="12" t="n">
+      <c r="AM21" s="3" t="n">
         <v>65838435.2065831</v>
       </c>
-      <c r="AN21" s="12" t="n">
+      <c r="AN21" s="3" t="n">
         <v>47130957.8452964</v>
       </c>
-      <c r="AO21" s="12" t="n">
+      <c r="AO21" s="3" t="n">
         <v>28469143.1537841</v>
       </c>
-      <c r="AP21" s="12" t="n">
+      <c r="AP21" s="3" t="n">
         <v>38118455.2716958</v>
       </c>
-      <c r="AQ21" s="12" t="n">
+      <c r="AQ21" s="3" t="n">
         <v>34612555.5370292</v>
       </c>
-      <c r="AR21" s="12" t="n">
+      <c r="AR21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AS21" s="12" t="n">
+      <c r="AS21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AT21" s="12" t="n">
+      <c r="AT21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12" t="n">
+      <c r="AU21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AV21" s="12" t="n">
+      <c r="AV21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12"/>
+      <c r="AX21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7119,41 +7119,41 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -644,23 +644,29 @@
   <si>
     <t xml:space="preserve">Firm Fixed-Price</t>
   </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="197" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -698,18 +704,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="197" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,110 +1129,110 @@
       <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="1" t="n">
         <v>1679429769</v>
       </c>
-      <c r="O2" s="12" t="n">
+      <c r="O2" s="1" t="n">
         <v>2118728788</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="1" t="n">
         <v>1828667742</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="1" t="n">
         <v>1632119796</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="1" t="n">
         <v>1576878967</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="1" t="n">
         <v>1669450272</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="1" t="n">
         <v>1462639723</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="1" t="n">
         <v>1404515054</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="1" t="n">
         <v>1290369360</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="1" t="n">
         <v>1574420344</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="1" t="n">
         <v>1665379208</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="1" t="n">
         <v>1982549260.2202</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="1" t="n">
         <v>2694954548.4118</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="1" t="n">
         <v>3961331927.4844</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="1" t="n">
         <v>4585604093.6102</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="1" t="n">
         <v>5266883423.6814</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="1" t="n">
         <v>6202627182.0073</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="1" t="n">
         <v>6411446430.189</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="1" t="n">
         <v>7431090643.3443</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="1" t="n">
         <v>7904057807.8159</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="1" t="n">
         <v>8010346376.7066</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="1" t="n">
         <v>7973429664.4802</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="1" t="n">
         <v>6009656982.0923</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="1" t="n">
         <v>4369580201.6394</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="1" t="n">
         <v>4631218688.5049</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="1" t="n">
         <v>4637172944.7989</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="1" t="n">
         <v>4570564050.7567</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="1" t="n">
         <v>5427755283.6966</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="1" t="n">
         <v>6190020147.9945</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="1" t="n">
         <v>6041786944.2626</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="1" t="n">
         <v>6147095891.1613</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="1" t="n">
         <v>7709886189.6086</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="1" t="n">
         <v>7533551585.9943</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="1" t="n">
         <v>7236151002.0956</v>
       </c>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1235,110 +1241,110 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="12" t="n">
+      <c r="N3" s="1" t="n">
         <v>258265000</v>
       </c>
-      <c r="O3" s="12" t="n">
+      <c r="O3" s="1" t="n">
         <v>164572171</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="1" t="n">
         <v>164531351</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="1" t="n">
         <v>137242101</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="1" t="n">
         <v>157160798</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="1" t="n">
         <v>225685359</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="1" t="n">
         <v>145450442</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="1" t="n">
         <v>207291211</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="1" t="n">
         <v>101158482</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="1" t="n">
         <v>110390824</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="1" t="n">
         <v>108233267</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="1" t="n">
         <v>130641086</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="1" t="n">
         <v>132868860</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="1" t="n">
         <v>79054936</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="1" t="n">
         <v>114975332</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="1" t="n">
         <v>238174964</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="1" t="n">
         <v>127752082.679</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="1" t="n">
         <v>130744352.305</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="1" t="n">
         <v>125498604.8215</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="1" t="n">
         <v>166814714.8101</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="1" t="n">
         <v>134687138.9057</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="1" t="n">
         <v>134905925.7363</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="1" t="n">
         <v>78081512.3668</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="1" t="n">
         <v>55716104.37</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="1" t="n">
         <v>75581169.8288</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="1" t="n">
         <v>86143089.7131</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="1" t="n">
         <v>111377844.0195</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="1" t="n">
         <v>128062592.8581</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="1" t="n">
         <v>159541059.0146</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="1" t="n">
         <v>114983650.5834</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="1" t="n">
         <v>210889648.927</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="1" t="n">
         <v>151472287.7099</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="1" t="n">
         <v>152603678.4381</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="1" t="n">
         <v>143146073.3443</v>
       </c>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1347,110 +1353,110 @@
       <c r="M4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="12" t="n">
+      <c r="N4" s="1" t="n">
         <v>10245541536</v>
       </c>
-      <c r="O4" s="12" t="n">
+      <c r="O4" s="1" t="n">
         <v>16209528909</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="1" t="n">
         <v>15664516818</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="1" t="n">
         <v>15408653972</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="1" t="n">
         <v>18598404779</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="1" t="n">
         <v>18242769776</v>
       </c>
-      <c r="T4" s="12" t="n">
+      <c r="T4" s="1" t="n">
         <v>18674706420</v>
       </c>
-      <c r="U4" s="12" t="n">
+      <c r="U4" s="1" t="n">
         <v>18616706452</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="1" t="n">
         <v>18173090419</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="1" t="n">
         <v>18920018223</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="1" t="n">
         <v>19026317334.0744</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="1" t="n">
         <v>20953091364.9784</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="1" t="n">
         <v>23234941539.8497</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="1" t="n">
         <v>30406487082.6228</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="1" t="n">
         <v>31002461756.0356</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="1" t="n">
         <v>34053418745.3445</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="1" t="n">
         <v>39219081393.5801</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="1" t="n">
         <v>39654839410.9709</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="1" t="n">
         <v>49734522926.2905</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="1" t="n">
         <v>44391208183.8079</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="1" t="n">
         <v>53095131695.7478</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="1" t="n">
         <v>46472291627.9029</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>42923923151.9419</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="1" t="n">
         <v>34815448374.2599</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="1" t="n">
         <v>37506555302.9356</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="1" t="n">
         <v>33404473025.4566</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="1" t="n">
         <v>33879532232.496</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="1" t="n">
         <v>32885035919.5207</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="1" t="n">
         <v>40602788440.6486</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="1" t="n">
         <v>45886389304.3638</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="1" t="n">
         <v>53808745353.7262</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="1" t="n">
         <v>43296449481.9776</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="1" t="n">
         <v>49592442991.947</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="1" t="n">
         <v>57672558423.4365</v>
       </c>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1459,110 +1465,110 @@
       <c r="M5" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="12" t="str">
+      <c r="N5" s="1" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="12" t="str">
+      <c r="O5" s="1" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="12" t="str">
+      <c r="P5" s="1" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="12" t="str">
+      <c r="Q5" s="1" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="12" t="str">
+      <c r="R5" s="1" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="12" t="str">
+      <c r="S5" s="1" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="12" t="str">
+      <c r="T5" s="1" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="12" t="str">
+      <c r="U5" s="1" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="12" t="str">
+      <c r="V5" s="1" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="12" t="str">
+      <c r="W5" s="1" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="12" t="str">
+      <c r="X5" s="1" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="12" t="str">
+      <c r="Y5" s="1" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="12" t="str">
+      <c r="Z5" s="1" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="12" t="str">
+      <c r="AA5" s="1" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="12" t="str">
+      <c r="AB5" s="1" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="12" t="str">
+      <c r="AC5" s="1" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="12" t="str">
+      <c r="AD5" s="1" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="12" t="str">
+      <c r="AE5" s="1" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="12" t="str">
+      <c r="AF5" s="1" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="12" t="str">
+      <c r="AG5" s="1" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="12" t="str">
+      <c r="AH5" s="1" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="12" t="str">
+      <c r="AI5" s="1" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="12" t="str">
+      <c r="AJ5" s="1" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="12" t="str">
+      <c r="AK5" s="1" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="12" t="str">
+      <c r="AL5" s="1" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="12" t="str">
+      <c r="AM5" s="1" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="12" t="str">
+      <c r="AN5" s="1" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="12" t="str">
+      <c r="AO5" s="1" t="str">
         <f>Sum(AO2:AO4)</f>
       </c>
-      <c r="AP5" s="12" t="str">
+      <c r="AP5" s="1" t="str">
         <f>Sum(AP2:AP4)</f>
       </c>
-      <c r="AQ5" s="12" t="str">
+      <c r="AQ5" s="1" t="str">
         <f>Sum(AQ2:AQ4)</f>
       </c>
-      <c r="AR5" s="12" t="str">
+      <c r="AR5" s="1" t="str">
         <f>Sum(AR2:AR4)</f>
       </c>
-      <c r="AS5" s="12" t="str">
+      <c r="AS5" s="1" t="str">
         <f>Sum(AS2:AS4)</f>
       </c>
-      <c r="AT5" s="12" t="str">
+      <c r="AT5" s="1" t="str">
         <f>Sum(AT2:AT4)</f>
       </c>
-      <c r="AU5" s="12" t="str">
+      <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1681,110 +1687,110 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="1" t="n">
         <v>3337919679.6875</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="1" t="n">
         <v>4066009090.09259</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="1" t="n">
         <v>3423790195.3029</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="1" t="n">
         <v>2985660169.42136</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="1" t="n">
         <v>2823093093.87599</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="1" t="n">
         <v>2926825458.87416</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="1" t="n">
         <v>2516947532.23946</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="1" t="n">
         <v>2374739267.79371</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="1" t="n">
         <v>2154836407.36128</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="1" t="n">
         <v>2596814066.99227</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="1" t="n">
         <v>2690803230.62638</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="1" t="n">
         <v>3127426136.52622</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="1" t="n">
         <v>4185172355.16341</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="1" t="n">
         <v>6036429451.43015</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="1" t="n">
         <v>6820991298.78172</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="1" t="n">
         <v>7603561041.23757</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="1" t="n">
         <v>8672108811.24785</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="1" t="n">
         <v>8724804937.21833</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="1" t="n">
         <v>9905761028.15418</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="1" t="n">
         <v>10430242065.9186</v>
       </c>
-      <c r="AH9" s="12" t="n">
+      <c r="AH9" s="1" t="n">
         <v>10479357145.4648</v>
       </c>
-      <c r="AI9" s="12" t="n">
+      <c r="AI9" s="1" t="n">
         <v>10224989788.0711</v>
       </c>
-      <c r="AJ9" s="12" t="n">
+      <c r="AJ9" s="1" t="n">
         <v>7567961036.10487</v>
       </c>
-      <c r="AK9" s="12" t="n">
+      <c r="AK9" s="1" t="n">
         <v>5403724192.75089</v>
       </c>
-      <c r="AL9" s="12" t="n">
+      <c r="AL9" s="1" t="n">
         <v>5618587375.37786</v>
       </c>
-      <c r="AM9" s="12" t="n">
+      <c r="AM9" s="1" t="n">
         <v>5562045806.74774</v>
       </c>
-      <c r="AN9" s="12" t="n">
+      <c r="AN9" s="1" t="n">
         <v>5437097404.37916</v>
       </c>
-      <c r="AO9" s="12" t="n">
+      <c r="AO9" s="1" t="n">
         <v>6343547315.23726</v>
       </c>
-      <c r="AP9" s="12" t="n">
+      <c r="AP9" s="1" t="n">
         <v>7068455179.14925</v>
       </c>
-      <c r="AQ9" s="12" t="n">
+      <c r="AQ9" s="1" t="n">
         <v>6766650925.15078</v>
       </c>
-      <c r="AR9" s="12" t="n">
+      <c r="AR9" s="1" t="n">
         <v>6793959856.03292</v>
       </c>
-      <c r="AS9" s="12" t="n">
+      <c r="AS9" s="1" t="n">
         <v>8244085660.82662</v>
       </c>
-      <c r="AT9" s="12" t="n">
+      <c r="AT9" s="1" t="n">
         <v>7533551585.9943</v>
       </c>
-      <c r="AU9" s="12" t="n">
+      <c r="AU9" s="1" t="n">
         <v>6901829099.14805</v>
       </c>
-      <c r="AV9" s="12"/>
-      <c r="AW9" s="12"/>
+      <c r="AV9" s="1"/>
+      <c r="AW9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1793,110 +1799,110 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="1" t="n">
         <v>513309840.034456</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="1" t="n">
         <v>315827087.946413</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="1" t="n">
         <v>308049851.504265</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="1" t="n">
         <v>251058945.261028</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="1" t="n">
         <v>281365642.352334</v>
       </c>
-      <c r="S10" s="12" t="n">
+      <c r="S10" s="1" t="n">
         <v>395664168.915332</v>
       </c>
-      <c r="T10" s="12" t="n">
+      <c r="T10" s="1" t="n">
         <v>250294809.650154</v>
       </c>
-      <c r="U10" s="12" t="n">
+      <c r="U10" s="1" t="n">
         <v>350485797.377727</v>
       </c>
-      <c r="V10" s="12" t="n">
+      <c r="V10" s="1" t="n">
         <v>168928360.114658</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="1" t="n">
         <v>182076181.70238</v>
       </c>
-      <c r="X10" s="12" t="n">
+      <c r="X10" s="1" t="n">
         <v>174875741.87659</v>
       </c>
-      <c r="Y10" s="12" t="n">
+      <c r="Y10" s="1" t="n">
         <v>206083326.683741</v>
       </c>
-      <c r="Z10" s="12" t="n">
+      <c r="Z10" s="1" t="n">
         <v>206340800.835319</v>
       </c>
-      <c r="AA10" s="12" t="n">
+      <c r="AA10" s="1" t="n">
         <v>120466942.101055</v>
       </c>
-      <c r="AB10" s="12" t="n">
+      <c r="AB10" s="1" t="n">
         <v>171023429.658776</v>
       </c>
-      <c r="AC10" s="12" t="n">
+      <c r="AC10" s="1" t="n">
         <v>343842407.661026</v>
       </c>
-      <c r="AD10" s="12" t="n">
+      <c r="AD10" s="1" t="n">
         <v>178614630.437499</v>
       </c>
-      <c r="AE10" s="12" t="n">
+      <c r="AE10" s="1" t="n">
         <v>177919129.938118</v>
       </c>
-      <c r="AF10" s="12" t="n">
+      <c r="AF10" s="1" t="n">
         <v>167291619.547392</v>
       </c>
-      <c r="AG10" s="12" t="n">
+      <c r="AG10" s="1" t="n">
         <v>220129697.673265</v>
       </c>
-      <c r="AH10" s="12" t="n">
+      <c r="AH10" s="1" t="n">
         <v>176201448.116898</v>
       </c>
-      <c r="AI10" s="12" t="n">
+      <c r="AI10" s="1" t="n">
         <v>173001051.122193</v>
       </c>
-      <c r="AJ10" s="12" t="n">
+      <c r="AJ10" s="1" t="n">
         <v>98328048.5047503</v>
       </c>
-      <c r="AK10" s="12" t="n">
+      <c r="AK10" s="1" t="n">
         <v>68902376.708189</v>
       </c>
-      <c r="AL10" s="12" t="n">
+      <c r="AL10" s="1" t="n">
         <v>91694958.7525263</v>
       </c>
-      <c r="AM10" s="12" t="n">
+      <c r="AM10" s="1" t="n">
         <v>103324119.376751</v>
       </c>
-      <c r="AN10" s="12" t="n">
+      <c r="AN10" s="1" t="n">
         <v>132493972.275372</v>
       </c>
-      <c r="AO10" s="12" t="n">
+      <c r="AO10" s="1" t="n">
         <v>149669812.776462</v>
       </c>
-      <c r="AP10" s="12" t="n">
+      <c r="AP10" s="1" t="n">
         <v>182181769.673895</v>
       </c>
-      <c r="AQ10" s="12" t="n">
+      <c r="AQ10" s="1" t="n">
         <v>128778825.333494</v>
       </c>
-      <c r="AR10" s="12" t="n">
+      <c r="AR10" s="1" t="n">
         <v>233081740.423645</v>
       </c>
-      <c r="AS10" s="12" t="n">
+      <c r="AS10" s="1" t="n">
         <v>161967438.223</v>
       </c>
-      <c r="AT10" s="12" t="n">
+      <c r="AT10" s="1" t="n">
         <v>152603678.4381</v>
       </c>
-      <c r="AU10" s="12" t="n">
+      <c r="AU10" s="1" t="n">
         <v>136532492.778323</v>
       </c>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1905,151 +1911,151 @@
       <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="1" t="n">
         <v>20363337219.1762</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="1" t="n">
         <v>31107375452.3945</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="1" t="n">
         <v>29328465671.3903</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="1" t="n">
         <v>28187271878.7835</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="1" t="n">
         <v>33296802853.9283</v>
       </c>
-      <c r="S11" s="12" t="n">
+      <c r="S11" s="1" t="n">
         <v>31982625608.136</v>
       </c>
-      <c r="T11" s="12" t="n">
+      <c r="T11" s="1" t="n">
         <v>32135908453.7289</v>
       </c>
-      <c r="U11" s="12" t="n">
+      <c r="U11" s="1" t="n">
         <v>31476931288.5933</v>
       </c>
-      <c r="V11" s="12" t="n">
+      <c r="V11" s="1" t="n">
         <v>30347928339.7815</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="1" t="n">
         <v>31206259279.1525</v>
       </c>
-      <c r="X11" s="12" t="n">
+      <c r="X11" s="1" t="n">
         <v>30741392653.1081</v>
       </c>
-      <c r="Y11" s="12" t="n">
+      <c r="Y11" s="1" t="n">
         <v>33053022636.4095</v>
       </c>
-      <c r="Z11" s="12" t="n">
+      <c r="Z11" s="1" t="n">
         <v>36083070515.5024</v>
       </c>
-      <c r="AA11" s="12" t="n">
+      <c r="AA11" s="1" t="n">
         <v>46334570669.6772</v>
       </c>
-      <c r="AB11" s="12" t="n">
+      <c r="AB11" s="1" t="n">
         <v>46115521000.4721</v>
       </c>
-      <c r="AC11" s="12" t="n">
+      <c r="AC11" s="1" t="n">
         <v>49161378231.544</v>
       </c>
-      <c r="AD11" s="12" t="n">
+      <c r="AD11" s="1" t="n">
         <v>54833561866.9645</v>
       </c>
-      <c r="AE11" s="12" t="n">
+      <c r="AE11" s="1" t="n">
         <v>53962977378.7629</v>
       </c>
-      <c r="AF11" s="12" t="n">
+      <c r="AF11" s="1" t="n">
         <v>66296903456.3374</v>
       </c>
-      <c r="AG11" s="12" t="n">
+      <c r="AG11" s="1" t="n">
         <v>58578904432.8418</v>
       </c>
-      <c r="AH11" s="12" t="n">
+      <c r="AH11" s="1" t="n">
         <v>69460522873.6673</v>
       </c>
-      <c r="AI11" s="12" t="n">
+      <c r="AI11" s="1" t="n">
         <v>59595271711.0407</v>
       </c>
-      <c r="AJ11" s="12" t="n">
+      <c r="AJ11" s="1" t="n">
         <v>54054096414.9269</v>
       </c>
-      <c r="AK11" s="12" t="n">
+      <c r="AK11" s="1" t="n">
         <v>43055184246.5034</v>
       </c>
-      <c r="AL11" s="12" t="n">
+      <c r="AL11" s="1" t="n">
         <v>45502895089.3737</v>
       </c>
-      <c r="AM11" s="12" t="n">
+      <c r="AM11" s="1" t="n">
         <v>40066913899.8257</v>
       </c>
-      <c r="AN11" s="12" t="n">
+      <c r="AN11" s="1" t="n">
         <v>40302753602.6734</v>
       </c>
-      <c r="AO11" s="12" t="n">
+      <c r="AO11" s="1" t="n">
         <v>38433527382.0015</v>
       </c>
-      <c r="AP11" s="12" t="n">
+      <c r="AP11" s="1" t="n">
         <v>46364790966.664</v>
       </c>
-      <c r="AQ11" s="12" t="n">
+      <c r="AQ11" s="1" t="n">
         <v>51391613359.1994</v>
       </c>
-      <c r="AR11" s="12" t="n">
+      <c r="AR11" s="1" t="n">
         <v>59471083957.2815</v>
       </c>
-      <c r="AS11" s="12" t="n">
+      <c r="AS11" s="1" t="n">
         <v>46296356335.3451</v>
       </c>
-      <c r="AT11" s="12" t="n">
+      <c r="AT11" s="1" t="n">
         <v>49592442991.947</v>
       </c>
-      <c r="AU11" s="12" t="n">
+      <c r="AU11" s="1" t="n">
         <v>55007992762.1625</v>
       </c>
-      <c r="AV11" s="12"/>
-      <c r="AW11" s="12"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7173,6 +7179,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
       <c r="N1" t="s">
         <v>59</v>
       </c>
@@ -7281,742 +7293,1067 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
       <c r="N2" t="s">
         <v>61</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="n">
+      <c r="P2" s="12" t="n">
+        <v>51292082.56</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>15799000</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>26625019</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>21914000</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>8941413.16</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>29288193</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>71392000</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>993226594</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>1152837931.02</v>
+      </c>
+      <c r="Y2" s="12" t="n">
+        <v>1678560718</v>
+      </c>
+      <c r="Z2" s="12" t="n">
         <v>10966677089.5315</v>
       </c>
-      <c r="AA2" s="4" t="n">
-        <v>12061548563.331</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>13452725846.8993</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>14199015742.5826</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>13366569783.8199</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>15010044823.6704</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>18206626257.09</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>18851904547.4501</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>24329653622.9823</v>
-      </c>
-      <c r="AI2" s="4" t="n">
-        <v>30884997953.1355</v>
-      </c>
-      <c r="AJ2" s="4" t="n">
-        <v>28773497301.9621</v>
-      </c>
-      <c r="AK2" s="4" t="n">
-        <v>23662630195.1326</v>
-      </c>
-      <c r="AL2" s="4" t="n">
-        <v>21701919789.72</v>
-      </c>
-      <c r="AM2" s="4" t="n">
-        <v>18358176142.4908</v>
-      </c>
-      <c r="AN2" s="4" t="n">
-        <v>19031614500.5112</v>
-      </c>
-      <c r="AO2" s="4" t="n">
-        <v>17361153512.7824</v>
-      </c>
-      <c r="AP2" s="4" t="n">
-        <v>17626563017.4138</v>
-      </c>
-      <c r="AQ2" s="4" t="n">
-        <v>17873120162.7833</v>
-      </c>
-      <c r="AR2" s="4" t="n">
-        <v>20750076586.9344</v>
-      </c>
-      <c r="AS2" s="4" t="n">
-        <v>26144863780.7804</v>
-      </c>
-      <c r="AT2" s="4" t="n">
-        <v>27983353952.088</v>
-      </c>
-      <c r="AU2" s="4" t="n">
-        <v>23085389037.8351</v>
-      </c>
-      <c r="AV2" s="4" t="n">
-        <v>25865414898.1152</v>
-      </c>
-      <c r="AW2" s="4" t="n">
-        <v>10490936795.6604</v>
-      </c>
-      <c r="AX2" s="4"/>
+      <c r="AA2" s="12" t="n">
+        <v>12061548554.27</v>
+      </c>
+      <c r="AB2" s="12" t="n">
+        <v>13452725841.96</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>14199015747.39</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>13367195159.5</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>15011090117.94</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>18206533999.4</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>18851856729.58</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>24329050043.86</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>30884988487.93</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>28775128170.0151</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>23663111182.9942</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>21703668101.1561</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>18509880873.3216</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>19018646371.9148</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>17305489468.3361</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>17593731047.1012</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>17900279968.55</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>20751718237.84</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>26167824755.09</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>28005714288.53</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>23154038451.13</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>25906020010.7</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>28481125060.9</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>27879118784.34</v>
+      </c>
+      <c r="AY2" s="12" t="n">
+        <v>8018023970.57</v>
+      </c>
+      <c r="AZ2" s="12"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="n">
+      <c r="P3" s="12" t="n">
+        <v>2736000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>7226000</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>5439000</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>7364000</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>13727000</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>5184000</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>4562000</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>8470406</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>77590839</v>
+      </c>
+      <c r="Y3" s="12" t="n">
+        <v>192428587</v>
+      </c>
+      <c r="Z3" s="12" t="n">
         <v>602980370</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>672942744.8999</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>845521603.2863</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1151094189.8162</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1463430562.5173</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>1822118252.4474</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>1672208289.9372</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>1868527801.1419</v>
-      </c>
-      <c r="AH3" s="4" t="n">
-        <v>1986275284.6477</v>
-      </c>
-      <c r="AI3" s="4" t="n">
-        <v>2396335439.075</v>
-      </c>
-      <c r="AJ3" s="4" t="n">
-        <v>2470819918.4381</v>
-      </c>
-      <c r="AK3" s="4" t="n">
-        <v>2321855552.8583</v>
-      </c>
-      <c r="AL3" s="4" t="n">
-        <v>1685361751.6543</v>
-      </c>
-      <c r="AM3" s="4" t="n">
-        <v>1228592375.3834</v>
-      </c>
-      <c r="AN3" s="4" t="n">
-        <v>1497597670.018</v>
-      </c>
-      <c r="AO3" s="4" t="n">
-        <v>1507290340.2014</v>
-      </c>
-      <c r="AP3" s="4" t="n">
-        <v>1462912512.9587</v>
-      </c>
-      <c r="AQ3" s="4" t="n">
-        <v>1534730331.3873</v>
-      </c>
-      <c r="AR3" s="4" t="n">
-        <v>1837620411.0502</v>
-      </c>
-      <c r="AS3" s="4" t="n">
-        <v>1837799678.2614</v>
-      </c>
-      <c r="AT3" s="4" t="n">
-        <v>1918932126.3953</v>
-      </c>
-      <c r="AU3" s="4" t="n">
-        <v>1844053450.5248</v>
-      </c>
-      <c r="AV3" s="4" t="n">
-        <v>1851110286.1071</v>
-      </c>
-      <c r="AW3" s="4" t="n">
-        <v>761155973.1043</v>
-      </c>
-      <c r="AX3" s="4"/>
+      <c r="AA3" s="12" t="n">
+        <v>672942744.9</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>845521603.29</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>1151094189.82</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>1463430559.51</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>1822118252.2</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>1672208289.96</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>1868527801.25</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>1986204178.25</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>2396353315.17</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>2469656603.9355</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>2321475390.2972</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>1683029323.8831</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>1235414929.3634</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>1496583256.0877</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>1510783955.8129</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>1463057069.172</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>1536342327.1533</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>1838561335.12</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>1839358514.88</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>1926635473.28</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>1850917537.75</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>1853834730.85</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>2312237183.93</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>2339640217.02</v>
+      </c>
+      <c r="AY3" s="12" t="n">
+        <v>885696287.36</v>
+      </c>
+      <c r="AZ3" s="12"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>O4</f>
+      </c>
       <c r="N4" t="s">
         <v>64</v>
       </c>
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="n">
-        <v>3510982</v>
-      </c>
-      <c r="AA4" s="4" t="n">
+      <c r="P4" s="12" t="n">
+        <v>682000</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>661000</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>479000</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>26000</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12" t="n">
+        <v>134638</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>457852</v>
+      </c>
+      <c r="Y4" s="12" t="n">
+        <v>634697</v>
+      </c>
+      <c r="Z4" s="12" t="n">
+        <v>3899658</v>
+      </c>
+      <c r="AA4" s="12" t="n">
         <v>6131674</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="12" t="n">
         <v>6584364</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="12" t="n">
         <v>5445288</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="12" t="n">
         <v>20229111</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="12" t="n">
         <v>13291376</v>
       </c>
-      <c r="AF4" s="4" t="n">
-        <v>24449540</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>10380157.49</v>
-      </c>
-      <c r="AH4" s="4" t="n">
-        <v>15626510.2913</v>
-      </c>
-      <c r="AI4" s="4" t="n">
-        <v>14166289.9767</v>
-      </c>
-      <c r="AJ4" s="4" t="n">
-        <v>297354740.3824</v>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>383034085.2473</v>
-      </c>
-      <c r="AL4" s="4" t="n">
-        <v>464193176.6352</v>
-      </c>
-      <c r="AM4" s="4" t="n">
-        <v>430857659.4737</v>
-      </c>
-      <c r="AN4" s="4" t="n">
-        <v>503606748.7638</v>
-      </c>
-      <c r="AO4" s="4" t="n">
-        <v>466217309.5442</v>
-      </c>
-      <c r="AP4" s="4" t="n">
-        <v>660143988.2953</v>
-      </c>
-      <c r="AQ4" s="4" t="n">
-        <v>539689238.4964</v>
-      </c>
-      <c r="AR4" s="4" t="n">
-        <v>1348089633.2975</v>
-      </c>
-      <c r="AS4" s="4" t="n">
-        <v>484607105.6192</v>
-      </c>
-      <c r="AT4" s="4" t="n">
-        <v>520442003.1788</v>
-      </c>
-      <c r="AU4" s="4" t="n">
-        <v>426142656.4945</v>
-      </c>
-      <c r="AV4" s="4" t="n">
-        <v>420820733.1242</v>
-      </c>
-      <c r="AW4" s="4" t="n">
-        <v>238230576.5323</v>
-      </c>
-      <c r="AX4" s="4"/>
+      <c r="AF4" s="12" t="n">
+        <v>24467017</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>10613082.49</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>15800318.0413</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>14181477.1564</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>297354740.3828</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>383027360.5023</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>464904529.6339</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>432212675.8587</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>503614293.8332</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>470878509.5135</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>660329919.6383</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>536962597.6498</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>1348144447.5701</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>484656126.2158</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>520847682.4598</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>426574743.5733</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>420918462.3498</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>674679825.3825</v>
+      </c>
+      <c r="AX4" s="12" t="n">
+        <v>669082813.42</v>
+      </c>
+      <c r="AY4" s="12" t="n">
+        <v>226296495.09</v>
+      </c>
+      <c r="AZ4" s="12"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>O5</f>
+      </c>
       <c r="N5" t="s">
         <v>64</v>
       </c>
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="n">
-        <v>633457112</v>
-      </c>
-      <c r="AA5" s="4" t="n">
+      <c r="P5" s="12" t="n">
+        <v>647000</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>120000</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>2064000</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>6311000</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>36567000</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>49846000</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>84522659</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>118434244</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>192687057</v>
+      </c>
+      <c r="Z5" s="12" t="n">
+        <v>648831254</v>
+      </c>
+      <c r="AA5" s="12" t="n">
         <v>795746043.3198</v>
       </c>
-      <c r="AB5" s="4" t="n">
-        <v>1142328565.4518</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1531895322.1538</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1609786453.2631</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>1411533252.6507</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>1481958053.3479</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1701889265.3883</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>1600883085.5348</v>
-      </c>
-      <c r="AI5" s="4" t="n">
-        <v>1639072550.6092</v>
-      </c>
-      <c r="AJ5" s="4" t="n">
-        <v>1402709591.8521</v>
-      </c>
-      <c r="AK5" s="4" t="n">
-        <v>1250959365.5299</v>
-      </c>
-      <c r="AL5" s="4" t="n">
-        <v>995699583.1607</v>
-      </c>
-      <c r="AM5" s="4" t="n">
-        <v>668298834.2567</v>
-      </c>
-      <c r="AN5" s="4" t="n">
-        <v>703953753.6157</v>
-      </c>
-      <c r="AO5" s="4" t="n">
-        <v>570143558.4634</v>
-      </c>
-      <c r="AP5" s="4" t="n">
-        <v>655435082.8421</v>
-      </c>
-      <c r="AQ5" s="4" t="n">
-        <v>585817254.2933</v>
-      </c>
-      <c r="AR5" s="4" t="n">
-        <v>666178412.0091</v>
-      </c>
-      <c r="AS5" s="4" t="n">
-        <v>624725637.2762</v>
-      </c>
-      <c r="AT5" s="4" t="n">
-        <v>717409178.2336</v>
-      </c>
-      <c r="AU5" s="4" t="n">
-        <v>763478854.0827</v>
-      </c>
-      <c r="AV5" s="4" t="n">
-        <v>862494349.7389</v>
-      </c>
-      <c r="AW5" s="4" t="n">
-        <v>299254699.858</v>
-      </c>
-      <c r="AX5" s="4"/>
+      <c r="AB5" s="12" t="n">
+        <v>1143346589.4518</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>1532457513.1538</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>1610665203.2631</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>1412387296.6507</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>1482230302.3479</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>1701912545.3883</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>1600896075.6622</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>1639091332.395</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>1506554445.842</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>1365108458.9599</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>1089169263.6071</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>741573455.9405</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>779186163.7465</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>626853620.1244</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>667230064.0101</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>608154107.7818</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>666310812.4929</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>624460035.228</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>719169143.0866</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>774405169.3669</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>866114362.8638</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>991730587.7387</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>1192050869.64</v>
+      </c>
+      <c r="AY5" s="12" t="n">
+        <v>250027397.8</v>
+      </c>
+      <c r="AZ5" s="12"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
       <c r="N6" t="s">
         <v>64</v>
       </c>
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4" t="n">
-        <v>1620717770.2197</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1934976877.5201</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2703129828.0601</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4409479243.3213</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6107063729.3398</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>6534986870.2105</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8705816574.4972</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7889330717.6912</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11339736858.5353</v>
-      </c>
-      <c r="AI6" s="4" t="n">
-        <v>12744949982.4487</v>
-      </c>
-      <c r="AJ6" s="4" t="n">
-        <v>12274000884.0607</v>
-      </c>
-      <c r="AK6" s="4" t="n">
-        <v>11396284293.0827</v>
-      </c>
-      <c r="AL6" s="4" t="n">
-        <v>9556798547.6482</v>
-      </c>
-      <c r="AM6" s="4" t="n">
-        <v>7738820448.3672</v>
-      </c>
-      <c r="AN6" s="4" t="n">
-        <v>9215743831.5393</v>
-      </c>
-      <c r="AO6" s="4" t="n">
-        <v>7609472845.9706</v>
-      </c>
-      <c r="AP6" s="4" t="n">
-        <v>7397521676.1775</v>
-      </c>
-      <c r="AQ6" s="4" t="n">
-        <v>7417080195.6146</v>
-      </c>
-      <c r="AR6" s="4" t="n">
-        <v>9511682492.6948</v>
-      </c>
-      <c r="AS6" s="4" t="n">
-        <v>10609155572.4638</v>
-      </c>
-      <c r="AT6" s="4" t="n">
-        <v>15727040787.7851</v>
-      </c>
-      <c r="AU6" s="4" t="n">
-        <v>10886501744.6268</v>
-      </c>
-      <c r="AV6" s="4" t="n">
-        <v>13261980631.5118</v>
-      </c>
-      <c r="AW6" s="4" t="n">
-        <v>4674838848.1313</v>
-      </c>
-      <c r="AX6" s="4"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12" t="n">
+        <v>117882</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12" t="n">
+        <v>240963211</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>343007515</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>547076377</v>
+      </c>
+      <c r="Z6" s="12" t="n">
+        <v>1632534420.2197</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>1938592579.5201</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>2709926492.0601</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>4409544026.3213</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>6107044321.3398</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>6535074757.8474</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>8705817872.4977</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>7889330717.6959</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>11339736858.8419</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>12744949983.055</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>12273843080.9538</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>11396839554.0924</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>9555758340.9579</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>7777441494.8956</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>9215751394.5244</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>7640894717.4768</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>7413004000.0862</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>7468652269.3829</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>9554577873.649</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>10690427360.011</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>15927642830.5231</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>11180203450.3117</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>13299140416.6856</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>16104449494.7756</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>17612292924.2717</v>
+      </c>
+      <c r="AY6" s="12" t="n">
+        <v>4567490183.28</v>
+      </c>
+      <c r="AZ6" s="12"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
       <c r="N7" t="s">
         <v>64</v>
       </c>
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4" t="n">
-        <v>6447252669.3232</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7447188714.1885</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>7782566418.503</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>12994967218.4131</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>13040981867.4791</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>14648396207.3329</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>15435041433.4634</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>15853628021.3391</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>18012635084.2801</v>
-      </c>
-      <c r="AI7" s="4" t="n">
-        <v>18684080005.32</v>
-      </c>
-      <c r="AJ7" s="4" t="n">
-        <v>15917144969.7951</v>
-      </c>
-      <c r="AK7" s="4" t="n">
-        <v>15451023857.8801</v>
-      </c>
-      <c r="AL7" s="4" t="n">
-        <v>14512694451.8204</v>
-      </c>
-      <c r="AM7" s="4" t="n">
-        <v>10742189582.1904</v>
-      </c>
-      <c r="AN7" s="4" t="n">
-        <v>11182820951.8621</v>
-      </c>
-      <c r="AO7" s="4" t="n">
-        <v>10552108836.2426</v>
-      </c>
-      <c r="AP7" s="4" t="n">
-        <v>10744246020.0686</v>
-      </c>
-      <c r="AQ7" s="4" t="n">
-        <v>10466258717.7406</v>
-      </c>
-      <c r="AR7" s="4" t="n">
-        <v>12835739955.7488</v>
-      </c>
-      <c r="AS7" s="4" t="n">
-        <v>12354923335.3771</v>
-      </c>
-      <c r="AT7" s="4" t="n">
-        <v>13305216180.9551</v>
-      </c>
-      <c r="AU7" s="4" t="n">
-        <v>14147890264.6467</v>
-      </c>
-      <c r="AV7" s="4" t="n">
-        <v>15024247924.5095</v>
-      </c>
-      <c r="AW7" s="4" t="n">
-        <v>6597916141.3409</v>
-      </c>
-      <c r="AX7" s="4"/>
+      <c r="P7" s="12" t="n">
+        <v>31553000</v>
+      </c>
+      <c r="Q7" s="12" t="n">
+        <v>30220000</v>
+      </c>
+      <c r="R7" s="12" t="n">
+        <v>343691000</v>
+      </c>
+      <c r="S7" s="12" t="n">
+        <v>60267000</v>
+      </c>
+      <c r="T7" s="12" t="n">
+        <v>51996000</v>
+      </c>
+      <c r="U7" s="12" t="n">
+        <v>43925000</v>
+      </c>
+      <c r="V7" s="12" t="n">
+        <v>86759000</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <v>530392950</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>981749826</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>2385996445.99</v>
+      </c>
+      <c r="Z7" s="12" t="n">
+        <v>6817417160.3232</v>
+      </c>
+      <c r="AA7" s="12" t="n">
+        <v>7508782351.1885</v>
+      </c>
+      <c r="AB7" s="12" t="n">
+        <v>7861920791.503</v>
+      </c>
+      <c r="AC7" s="12" t="n">
+        <v>13107462376.4131</v>
+      </c>
+      <c r="AD7" s="12" t="n">
+        <v>13069958915.0291</v>
+      </c>
+      <c r="AE7" s="12" t="n">
+        <v>14688207053.6773</v>
+      </c>
+      <c r="AF7" s="12" t="n">
+        <v>15435306684.591</v>
+      </c>
+      <c r="AG7" s="12" t="n">
+        <v>15858656918.138</v>
+      </c>
+      <c r="AH7" s="12" t="n">
+        <v>18014754542.0148</v>
+      </c>
+      <c r="AI7" s="12" t="n">
+        <v>18684525908.2708</v>
+      </c>
+      <c r="AJ7" s="12" t="n">
+        <v>15913240755.2894</v>
+      </c>
+      <c r="AK7" s="12" t="n">
+        <v>15451587261.2432</v>
+      </c>
+      <c r="AL7" s="12" t="n">
+        <v>14511229333.9844</v>
+      </c>
+      <c r="AM7" s="12" t="n">
+        <v>10822775050.9626</v>
+      </c>
+      <c r="AN7" s="12" t="n">
+        <v>11183772858.6994</v>
+      </c>
+      <c r="AO7" s="12" t="n">
+        <v>10540231636.6298</v>
+      </c>
+      <c r="AP7" s="12" t="n">
+        <v>10748108320.9994</v>
+      </c>
+      <c r="AQ7" s="12" t="n">
+        <v>10429648511.1803</v>
+      </c>
+      <c r="AR7" s="12" t="n">
+        <v>12796350351.1652</v>
+      </c>
+      <c r="AS7" s="12" t="n">
+        <v>12270124351.9907</v>
+      </c>
+      <c r="AT7" s="12" t="n">
+        <v>13098514464.9583</v>
+      </c>
+      <c r="AU7" s="12" t="n">
+        <v>13926445640.0295</v>
+      </c>
+      <c r="AV7" s="12" t="n">
+        <v>15021781810.765</v>
+      </c>
+      <c r="AW7" s="12" t="n">
+        <v>16467671477.4858</v>
+      </c>
+      <c r="AX7" s="12" t="n">
+        <v>16576128536.9465</v>
+      </c>
+      <c r="AY7" s="12" t="n">
+        <v>8101698976.42</v>
+      </c>
+      <c r="AZ7" s="12"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
       <c r="N8" t="s">
         <v>64</v>
       </c>
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4" t="n">
-        <v>525333816</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>147747100</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>129908335</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>154976941</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>94299199</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>117644694.2969</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>23601592.4902</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>21417495.32</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>6253954.6238</v>
-      </c>
-      <c r="AI8" s="4" t="n">
-        <v>551200.8341</v>
-      </c>
-      <c r="AJ8" s="4" t="n">
-        <v>104637804.8696</v>
-      </c>
-      <c r="AK8" s="4" t="n">
-        <v>114839868.3885</v>
-      </c>
-      <c r="AL8" s="4" t="n">
-        <v>94994345.7622</v>
-      </c>
-      <c r="AM8" s="4" t="n">
-        <v>73809638.1071</v>
-      </c>
-      <c r="AN8" s="4" t="n">
-        <v>78017704.9592</v>
-      </c>
-      <c r="AO8" s="4" t="n">
-        <v>61402656.764</v>
-      </c>
-      <c r="AP8" s="4" t="n">
-        <v>14651829.5162</v>
-      </c>
-      <c r="AQ8" s="4" t="n">
-        <v>23741816.5799</v>
-      </c>
-      <c r="AR8" s="4" t="n">
-        <v>2203351.8867</v>
-      </c>
-      <c r="AS8" s="4" t="n">
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12" t="n">
+        <v>466000</v>
+      </c>
+      <c r="V8" s="12" t="n">
+        <v>1539000</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>11144883</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>17736646</v>
+      </c>
+      <c r="Y8" s="12" t="n">
+        <v>40506313</v>
+      </c>
+      <c r="Z8" s="12" t="n">
+        <v>127589857</v>
+      </c>
+      <c r="AA8" s="12" t="n">
+        <v>82537761</v>
+      </c>
+      <c r="AB8" s="12" t="n">
+        <v>42739274</v>
+      </c>
+      <c r="AC8" s="12" t="n">
+        <v>41854809</v>
+      </c>
+      <c r="AD8" s="12" t="n">
+        <v>64609952</v>
+      </c>
+      <c r="AE8" s="12" t="n">
+        <v>77999428</v>
+      </c>
+      <c r="AF8" s="12" t="n">
+        <v>22804467.4902</v>
+      </c>
+      <c r="AG8" s="12" t="n">
+        <v>16132393.32</v>
+      </c>
+      <c r="AH8" s="12" t="n">
+        <v>3369075.5989</v>
+      </c>
+      <c r="AI8" s="12" t="n">
+        <v>76110.8399</v>
+      </c>
+      <c r="AJ8" s="12" t="n">
+        <v>247544.7852</v>
+      </c>
+      <c r="AK8" s="12" t="n">
+        <v>48821.5107</v>
+      </c>
+      <c r="AL8" s="12" t="n">
+        <v>225766.78</v>
+      </c>
+      <c r="AM8" s="12" t="n">
+        <v>56566.51</v>
+      </c>
+      <c r="AN8" s="12" t="n">
+        <v>60316.69</v>
+      </c>
+      <c r="AO8" s="12" t="n">
+        <v>6976.7998</v>
+      </c>
+      <c r="AP8" s="12" t="n">
+        <v>78653.04</v>
+      </c>
+      <c r="AQ8" s="12" t="n">
+        <v>160375.8401</v>
+      </c>
+      <c r="AR8" s="12" t="n">
+        <v>2203351.9017</v>
+      </c>
+      <c r="AS8" s="12" t="n">
         <v>1151915.5</v>
       </c>
-      <c r="AT8" s="4" t="n">
+      <c r="AT8" s="12" t="n">
         <v>1481539.125</v>
       </c>
-      <c r="AU8" s="4" t="n">
+      <c r="AU8" s="12" t="n">
         <v>1930569.125</v>
       </c>
-      <c r="AV8" s="4" t="n">
+      <c r="AV8" s="12" t="n">
         <v>1306848.125</v>
       </c>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12" t="n">
+        <v>21183.26</v>
+      </c>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>O9</f>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="12" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="Q9" s="12" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" s="4" t="n">
+      <c r="R9" s="12" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" s="4" t="n">
+      <c r="S9" s="12" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" s="4" t="n">
+      <c r="T9" s="12" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" s="4" t="n">
+      <c r="U9" s="12" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" s="4" t="n">
+      <c r="V9" s="12" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" s="4" t="n">
+      <c r="W9" s="12" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" s="4" t="n">
+      <c r="X9" s="12" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" s="4" t="n">
+      <c r="Y9" s="12" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" s="4" t="n">
+      <c r="Z9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="4" t="n">
+      <c r="AA9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="4" t="n">
+      <c r="AB9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="4" t="n">
+      <c r="AC9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="4" t="n">
-        <v>147142.5508</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>995003.1015</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>-240850</v>
-      </c>
-      <c r="AG9" s="4" t="n">
+      <c r="AD9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="4" t="n">
+      <c r="AE9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AI9" s="4" t="n">
+      <c r="AF9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ9" s="4" t="n">
+      <c r="AG9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AK9" s="4" t="n">
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AL9" s="4" t="n">
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AM9" s="4" t="n">
+      <c r="AW9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AN9" s="4" t="n">
+      <c r="AX9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AO9" s="4" t="n">
+      <c r="AY9" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4"/>
+      <c r="AZ9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>O10</f>
+      </c>
+      <c r="N10" t="s">
+        <v>193</v>
+      </c>
+      <c r="O10" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="12" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="12" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="12" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="12" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="12" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="12" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="12" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="12" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="12" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="12" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="12" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="12" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="12" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="12" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="12" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="12" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="12" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="12" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="12" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="12" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="12" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="12" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="12" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="12" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="12" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="12" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="12" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="12" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="12" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="12" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="12" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="12" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="12"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>O13</f>
+      </c>
       <c r="N13" t="s">
         <v>59</v>
       </c>
@@ -8125,740 +8462,981 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>O14</f>
+      </c>
       <c r="N14" t="s">
         <v>61</v>
       </c>
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="n">
-        <v>17719189719.6712</v>
-      </c>
-      <c r="AA14" s="4" t="n">
-        <v>19026817129.251</v>
-      </c>
-      <c r="AB14" s="4" t="n">
-        <v>20891623700.7467</v>
-      </c>
-      <c r="AC14" s="4" t="n">
-        <v>21637004517.3861</v>
-      </c>
-      <c r="AD14" s="4" t="n">
-        <v>19882496248.867</v>
-      </c>
-      <c r="AE14" s="4" t="n">
-        <v>21669321848.9192</v>
-      </c>
-      <c r="AF14" s="4" t="n">
-        <v>25455317457.2892</v>
-      </c>
-      <c r="AG14" s="4" t="n">
-        <v>25653991133.2789</v>
-      </c>
-      <c r="AH14" s="4" t="n">
-        <v>32431811998.2677</v>
-      </c>
-      <c r="AI14" s="4" t="n">
-        <v>40756028446.3077</v>
-      </c>
-      <c r="AJ14" s="4" t="n">
-        <v>37642286659.1817</v>
-      </c>
-      <c r="AK14" s="4" t="n">
-        <v>30344552129.4263</v>
-      </c>
-      <c r="AL14" s="4" t="n">
-        <v>27329227585.98</v>
-      </c>
-      <c r="AM14" s="4" t="n">
-        <v>22702986552.0584</v>
-      </c>
-      <c r="AN14" s="4" t="n">
-        <v>23089125380.9807</v>
-      </c>
-      <c r="AO14" s="4" t="n">
-        <v>20823793342.5325</v>
-      </c>
-      <c r="AP14" s="4" t="n">
-        <v>20968383544.311</v>
-      </c>
-      <c r="AQ14" s="4" t="n">
-        <v>20888742674.9129</v>
-      </c>
-      <c r="AR14" s="4" t="n">
-        <v>23694751036.6634</v>
-      </c>
-      <c r="AS14" s="4" t="n">
-        <v>29281596375.7476</v>
-      </c>
-      <c r="AT14" s="4" t="n">
-        <v>30928065342.3692</v>
-      </c>
-      <c r="AU14" s="4" t="n">
-        <v>24684920122.1584</v>
-      </c>
-      <c r="AV14" s="4" t="n">
-        <v>25865414898.1152</v>
-      </c>
-      <c r="AW14" s="4" t="n">
-        <v>10006238514.4593</v>
-      </c>
-      <c r="AX14" s="4"/>
+      <c r="P14" s="12" t="n">
+        <v>106086487.881425</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>31548894.6502592</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>51869072.2921957</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>41712801.8014433</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>16656162.1392419</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>53425130.338227</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>127820789.638209</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>1747271514.28117</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>2002945151.6191</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>2880667886.17451</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>18436885714.7415</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>19797676901.8184</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>21739134816.5126</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>22512973778.2652</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>20688899622.0479</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>22547111747.1048</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>26486373548.0493</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>26690398417.1969</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>33744428333.735</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>42403897678.1142</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>39167929242.0416</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>31575819675.957</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>28444994268.0194</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>23826860249.2214</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>24043145843.6632</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>21653147799.9663</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>21839198188.3079</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>21850871761.8065</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>24781473727.5362</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>30682032169.5007</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>32413554021.939</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>25906631289.8744</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>27091132208.9023</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>28481125060.9</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>27153945832.7772</v>
+      </c>
+      <c r="AY14" s="12" t="n">
+        <v>7641787836.69587</v>
+      </c>
+      <c r="AZ14" s="12"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>O15</f>
+      </c>
       <c r="N15" t="s">
         <v>61</v>
       </c>
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="n">
-        <v>974253503.229933</v>
-      </c>
-      <c r="AA15" s="4" t="n">
-        <v>1061551796.47435</v>
-      </c>
-      <c r="AB15" s="4" t="n">
-        <v>1313066167.23932</v>
-      </c>
-      <c r="AC15" s="4" t="n">
-        <v>1754081454.41354</v>
-      </c>
-      <c r="AD15" s="4" t="n">
-        <v>2176822710.71138</v>
-      </c>
-      <c r="AE15" s="4" t="n">
-        <v>2630509590.27169</v>
-      </c>
-      <c r="AF15" s="4" t="n">
-        <v>2337972575.14889</v>
-      </c>
-      <c r="AG15" s="4" t="n">
-        <v>2542724291.97416</v>
-      </c>
-      <c r="AH15" s="4" t="n">
-        <v>2647736281.27812</v>
-      </c>
-      <c r="AI15" s="4" t="n">
-        <v>3162218610.79711</v>
-      </c>
-      <c r="AJ15" s="4" t="n">
-        <v>3232395098.76058</v>
-      </c>
-      <c r="AK15" s="4" t="n">
-        <v>2977507837.45078</v>
-      </c>
-      <c r="AL15" s="4" t="n">
-        <v>2122376053.45331</v>
-      </c>
-      <c r="AM15" s="4" t="n">
-        <v>1519362052.07945</v>
-      </c>
-      <c r="AN15" s="4" t="n">
-        <v>1816883185.20645</v>
-      </c>
-      <c r="AO15" s="4" t="n">
-        <v>1807915731.43109</v>
-      </c>
-      <c r="AP15" s="4" t="n">
-        <v>1740266133.17555</v>
-      </c>
-      <c r="AQ15" s="4" t="n">
-        <v>1793676016.03708</v>
-      </c>
-      <c r="AR15" s="4" t="n">
-        <v>2098399876.13069</v>
-      </c>
-      <c r="AS15" s="4" t="n">
-        <v>2058289874.81238</v>
-      </c>
-      <c r="AT15" s="4" t="n">
-        <v>2120862934.95555</v>
-      </c>
-      <c r="AU15" s="4" t="n">
-        <v>1971823479.02351</v>
-      </c>
-      <c r="AV15" s="4" t="n">
-        <v>1851110286.1071</v>
-      </c>
-      <c r="AW15" s="4" t="n">
-        <v>725989333.644395</v>
-      </c>
-      <c r="AX15" s="4"/>
+      <c r="P15" s="12" t="n">
+        <v>5658819.38024354</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>14429540.6508496</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>10595894.1924981</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>14017206.9209559</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>25570805.597957</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>9456229.5349996</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>8167840.126758</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>14901029.843142</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>134806628.584475</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>330236997.094339</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>1013714553.56652</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>1104559914.26047</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>1366333361.73877</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>1825095046.92215</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>2265005305.02259</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>2736876770.84112</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>2432683421.20938</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>2645455680.2736</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>2754868127.94965</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>3290100652.5157</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>3361630034.92317</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>3097753619.09621</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>2205791170.76589</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>1590288942.06282</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>1891962697.53651</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>1890338227.58321</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>1816101042.40605</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>1875413079.1163</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>2195589729.03068</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>2156665968.72236</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>2229870031.17867</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>2070957871.9781</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>1938641356.95752</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>2312237183.93</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>2278783063.8619</v>
+      </c>
+      <c r="AY15" s="12" t="n">
+        <v>844136054.044895</v>
+      </c>
+      <c r="AZ15" s="12"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>O16</f>
+      </c>
       <c r="N16" t="s">
         <v>64</v>
       </c>
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="n">
-        <v>5672799.12159866</v>
-      </c>
-      <c r="AA16" s="4" t="n">
-        <v>9672575.56371051</v>
-      </c>
-      <c r="AB16" s="4" t="n">
-        <v>10225292.3728799</v>
-      </c>
-      <c r="AC16" s="4" t="n">
-        <v>8297738.60318566</v>
-      </c>
-      <c r="AD16" s="4" t="n">
-        <v>30090384.4501886</v>
-      </c>
-      <c r="AE16" s="4" t="n">
-        <v>19188157.513348</v>
-      </c>
-      <c r="AF16" s="4" t="n">
-        <v>34183752.3106362</v>
-      </c>
-      <c r="AG16" s="4" t="n">
-        <v>14125494.1929205</v>
-      </c>
-      <c r="AH16" s="4" t="n">
-        <v>20830384.6741865</v>
-      </c>
-      <c r="AI16" s="4" t="n">
-        <v>18693921.1763948</v>
-      </c>
-      <c r="AJ16" s="4" t="n">
-        <v>389007712.878114</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>491196357.77111</v>
-      </c>
-      <c r="AL16" s="4" t="n">
-        <v>584558467.225174</v>
-      </c>
-      <c r="AM16" s="4" t="n">
-        <v>532828292.579809</v>
-      </c>
-      <c r="AN16" s="4" t="n">
-        <v>610974931.454348</v>
-      </c>
-      <c r="AO16" s="4" t="n">
-        <v>559203217.661313</v>
-      </c>
-      <c r="AP16" s="4" t="n">
-        <v>785300703.680686</v>
-      </c>
-      <c r="AQ16" s="4" t="n">
-        <v>630747710.791165</v>
-      </c>
-      <c r="AR16" s="4" t="n">
-        <v>1539399052.44515</v>
-      </c>
-      <c r="AS16" s="4" t="n">
-        <v>542747890.619805</v>
-      </c>
-      <c r="AT16" s="4" t="n">
-        <v>575208543.936043</v>
-      </c>
-      <c r="AU16" s="4" t="n">
-        <v>455669056.257654</v>
-      </c>
-      <c r="AV16" s="4" t="n">
-        <v>420820733.1242</v>
-      </c>
-      <c r="AW16" s="4" t="n">
-        <v>227223937.82845</v>
-      </c>
-      <c r="AX16" s="4"/>
+      <c r="P16" s="12" t="n">
+        <v>1410568.28118644</v>
+      </c>
+      <c r="Q16" s="12" t="n">
+        <v>1319945.52590805</v>
+      </c>
+      <c r="R16" s="12" t="n">
+        <v>933155.601803016</v>
+      </c>
+      <c r="S16" s="12" t="n">
+        <v>49490.4100957163</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12" t="n">
+        <v>236853.446696764</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <v>795473.864004217</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <v>1089237.49122985</v>
+      </c>
+      <c r="Z16" s="12" t="n">
+        <v>6556001.26506953</v>
+      </c>
+      <c r="AA16" s="12" t="n">
+        <v>10064454.0104517</v>
+      </c>
+      <c r="AB16" s="12" t="n">
+        <v>10640102.1145122</v>
+      </c>
+      <c r="AC16" s="12" t="n">
+        <v>8633670.68112705</v>
+      </c>
+      <c r="AD16" s="12" t="n">
+        <v>31309339.1641572</v>
+      </c>
+      <c r="AE16" s="12" t="n">
+        <v>19964049.0857244</v>
+      </c>
+      <c r="AF16" s="12" t="n">
+        <v>35593954.9993331</v>
+      </c>
+      <c r="AG16" s="12" t="n">
+        <v>15025968.2192581</v>
+      </c>
+      <c r="AH16" s="12" t="n">
+        <v>21915064.4531403</v>
+      </c>
+      <c r="AI16" s="12" t="n">
+        <v>19470621.0267655</v>
+      </c>
+      <c r="AJ16" s="12" t="n">
+        <v>404751261.655043</v>
+      </c>
+      <c r="AK16" s="12" t="n">
+        <v>511107891.631351</v>
+      </c>
+      <c r="AL16" s="12" t="n">
+        <v>609307450.656607</v>
+      </c>
+      <c r="AM16" s="12" t="n">
+        <v>556366142.824302</v>
+      </c>
+      <c r="AN16" s="12" t="n">
+        <v>636663181.953154</v>
+      </c>
+      <c r="AO16" s="12" t="n">
+        <v>589177323.240657</v>
+      </c>
+      <c r="AP16" s="12" t="n">
+        <v>819671276.436065</v>
+      </c>
+      <c r="AQ16" s="12" t="n">
+        <v>655470243.077027</v>
+      </c>
+      <c r="AR16" s="12" t="n">
+        <v>1609939274.68917</v>
+      </c>
+      <c r="AS16" s="12" t="n">
+        <v>568264079.833625</v>
+      </c>
+      <c r="AT16" s="12" t="n">
+        <v>602824277.884134</v>
+      </c>
+      <c r="AU16" s="12" t="n">
+        <v>477286699.797584</v>
+      </c>
+      <c r="AV16" s="12" t="n">
+        <v>440174048.656506</v>
+      </c>
+      <c r="AW16" s="12" t="n">
+        <v>674679825.3825</v>
+      </c>
+      <c r="AX16" s="12" t="n">
+        <v>651679079.736701</v>
+      </c>
+      <c r="AY16" s="12" t="n">
+        <v>215677804.158864</v>
+      </c>
+      <c r="AZ16" s="12"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>O17</f>
+      </c>
       <c r="N17" t="s">
         <v>64</v>
       </c>
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="n">
-        <v>1023495691.0984</v>
-      </c>
-      <c r="AA17" s="4" t="n">
-        <v>1255271192.42387</v>
-      </c>
-      <c r="AB17" s="4" t="n">
-        <v>1773997240.68067</v>
-      </c>
-      <c r="AC17" s="4" t="n">
-        <v>2334360818.13765</v>
-      </c>
-      <c r="AD17" s="4" t="n">
-        <v>2394524072.82714</v>
-      </c>
-      <c r="AE17" s="4" t="n">
-        <v>2037766623.04866</v>
-      </c>
-      <c r="AF17" s="4" t="n">
-        <v>2071977101.83493</v>
-      </c>
-      <c r="AG17" s="4" t="n">
-        <v>2315959749.01111</v>
-      </c>
-      <c r="AH17" s="4" t="n">
-        <v>2134002401.58894</v>
-      </c>
-      <c r="AI17" s="4" t="n">
-        <v>2162929963.58799</v>
-      </c>
-      <c r="AJ17" s="4" t="n">
-        <v>1835063565.68202</v>
-      </c>
-      <c r="AK17" s="4" t="n">
-        <v>1604208888.28007</v>
-      </c>
-      <c r="AL17" s="4" t="n">
-        <v>1253884484.83503</v>
-      </c>
-      <c r="AM17" s="4" t="n">
-        <v>826464422.670453</v>
-      </c>
-      <c r="AN17" s="4" t="n">
-        <v>854035608.970972</v>
-      </c>
-      <c r="AO17" s="4" t="n">
-        <v>683857304.082738</v>
-      </c>
-      <c r="AP17" s="4" t="n">
-        <v>779699036.723886</v>
-      </c>
-      <c r="AQ17" s="4" t="n">
-        <v>684658625.243145</v>
-      </c>
-      <c r="AR17" s="4" t="n">
-        <v>760716788.317525</v>
-      </c>
-      <c r="AS17" s="4" t="n">
-        <v>699677156.847568</v>
-      </c>
-      <c r="AT17" s="4" t="n">
-        <v>792902737.091978</v>
-      </c>
-      <c r="AU17" s="4" t="n">
-        <v>816378467.657647</v>
-      </c>
-      <c r="AV17" s="4" t="n">
-        <v>862494349.7389</v>
-      </c>
-      <c r="AW17" s="4" t="n">
-        <v>285428647.762963</v>
-      </c>
-      <c r="AX17" s="4"/>
+      <c r="P17" s="12" t="n">
+        <v>1338178.41338361</v>
+      </c>
+      <c r="Q17" s="12" t="n">
+        <v>239627.0243706</v>
+      </c>
+      <c r="R17" s="12" t="n">
+        <v>2043591.2866208</v>
+      </c>
+      <c r="S17" s="12" t="n">
+        <v>3928777.17067532</v>
+      </c>
+      <c r="T17" s="12" t="n">
+        <v>11756199.7616891</v>
+      </c>
+      <c r="U17" s="12" t="n">
+        <v>66702535.76511</v>
+      </c>
+      <c r="V17" s="12" t="n">
+        <v>89244664.392455</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>148691180.113529</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <v>205768120.932306</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <v>330680571.294876</v>
+      </c>
+      <c r="Z17" s="12" t="n">
+        <v>1090797839.71842</v>
+      </c>
+      <c r="AA17" s="12" t="n">
+        <v>1306127732.32743</v>
+      </c>
+      <c r="AB17" s="12" t="n">
+        <v>1847608131.02776</v>
+      </c>
+      <c r="AC17" s="12" t="n">
+        <v>2429758260.97515</v>
+      </c>
+      <c r="AD17" s="12" t="n">
+        <v>2492885778.76065</v>
+      </c>
+      <c r="AE17" s="12" t="n">
+        <v>2121448472.93374</v>
+      </c>
+      <c r="AF17" s="12" t="n">
+        <v>2156308579.84932</v>
+      </c>
+      <c r="AG17" s="12" t="n">
+        <v>2409562334.32247</v>
+      </c>
+      <c r="AH17" s="12" t="n">
+        <v>2220445220.73619</v>
+      </c>
+      <c r="AI17" s="12" t="n">
+        <v>2250409164.66988</v>
+      </c>
+      <c r="AJ17" s="12" t="n">
+        <v>2050681324.00231</v>
+      </c>
+      <c r="AK17" s="12" t="n">
+        <v>1821587119.50012</v>
+      </c>
+      <c r="AL17" s="12" t="n">
+        <v>1427473610.25838</v>
+      </c>
+      <c r="AM17" s="12" t="n">
+        <v>954591075.985442</v>
+      </c>
+      <c r="AN17" s="12" t="n">
+        <v>985037852.219942</v>
+      </c>
+      <c r="AO17" s="12" t="n">
+        <v>784338062.805606</v>
+      </c>
+      <c r="AP17" s="12" t="n">
+        <v>828236464.801185</v>
+      </c>
+      <c r="AQ17" s="12" t="n">
+        <v>742373719.511853</v>
+      </c>
+      <c r="AR17" s="12" t="n">
+        <v>795701045.326299</v>
+      </c>
+      <c r="AS17" s="12" t="n">
+        <v>732185539.637039</v>
+      </c>
+      <c r="AT17" s="12" t="n">
+        <v>832359697.388482</v>
+      </c>
+      <c r="AU17" s="12" t="n">
+        <v>866467818.739494</v>
+      </c>
+      <c r="AV17" s="12" t="n">
+        <v>905736145.601716</v>
+      </c>
+      <c r="AW17" s="12" t="n">
+        <v>991730587.7387</v>
+      </c>
+      <c r="AX17" s="12" t="n">
+        <v>1161044041.40282</v>
+      </c>
+      <c r="AY17" s="12" t="n">
+        <v>238295162.79345</v>
+      </c>
+      <c r="AZ17" s="12"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>O18</f>
+      </c>
       <c r="N18" t="s">
         <v>64</v>
       </c>
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="n">
-        <v>2618642403.53886</v>
-      </c>
-      <c r="AA18" s="4" t="n">
-        <v>3052381790.33096</v>
-      </c>
-      <c r="AB18" s="4" t="n">
-        <v>4197868285.19308</v>
-      </c>
-      <c r="AC18" s="4" t="n">
-        <v>6719333511.33182</v>
-      </c>
-      <c r="AD18" s="4" t="n">
-        <v>9084131056.35918</v>
-      </c>
-      <c r="AE18" s="4" t="n">
-        <v>9434264549.67942</v>
-      </c>
-      <c r="AF18" s="4" t="n">
-        <v>12171904970.173</v>
-      </c>
-      <c r="AG18" s="4" t="n">
-        <v>10735934916.8003</v>
-      </c>
-      <c r="AH18" s="4" t="n">
-        <v>15116048078.812</v>
-      </c>
-      <c r="AI18" s="4" t="n">
-        <v>16818312399.4254</v>
-      </c>
-      <c r="AJ18" s="4" t="n">
-        <v>16057188143.8047</v>
-      </c>
-      <c r="AK18" s="4" t="n">
-        <v>14614400003.7808</v>
-      </c>
-      <c r="AL18" s="4" t="n">
-        <v>12034876408.7571</v>
-      </c>
-      <c r="AM18" s="4" t="n">
-        <v>9570359016.29806</v>
-      </c>
-      <c r="AN18" s="4" t="n">
-        <v>11180526213.3538</v>
-      </c>
-      <c r="AO18" s="4" t="n">
-        <v>9127163691.82712</v>
-      </c>
-      <c r="AP18" s="4" t="n">
-        <v>8800017997.28073</v>
-      </c>
-      <c r="AQ18" s="4" t="n">
-        <v>8668518881.66675</v>
-      </c>
-      <c r="AR18" s="4" t="n">
-        <v>10861499602.662</v>
-      </c>
-      <c r="AS18" s="4" t="n">
-        <v>11881990052.2398</v>
-      </c>
-      <c r="AT18" s="4" t="n">
-        <v>17382010246.5033</v>
-      </c>
-      <c r="AU18" s="4" t="n">
-        <v>11640801267.6511</v>
-      </c>
-      <c r="AV18" s="4" t="n">
-        <v>13261980631.5118</v>
-      </c>
-      <c r="AW18" s="4" t="n">
-        <v>4458853717.46891</v>
-      </c>
-      <c r="AX18" s="4"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12" t="n">
+        <v>215030.719530251</v>
+      </c>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12" t="n">
+        <v>423899397.291029</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>595942604.465055</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>938867050.568379</v>
+      </c>
+      <c r="Z18" s="12" t="n">
+        <v>2744573427.78005</v>
+      </c>
+      <c r="AA18" s="12" t="n">
+        <v>3181981928.84732</v>
+      </c>
+      <c r="AB18" s="12" t="n">
+        <v>4379146505.01422</v>
+      </c>
+      <c r="AC18" s="12" t="n">
+        <v>6991466930.15854</v>
+      </c>
+      <c r="AD18" s="12" t="n">
+        <v>9452097126.1351</v>
+      </c>
+      <c r="AE18" s="12" t="n">
+        <v>9815880104.85475</v>
+      </c>
+      <c r="AF18" s="12" t="n">
+        <v>12664988526.6387</v>
+      </c>
+      <c r="AG18" s="12" t="n">
+        <v>11169689178.1452</v>
+      </c>
+      <c r="AH18" s="12" t="n">
+        <v>15728231766.8287</v>
+      </c>
+      <c r="AI18" s="12" t="n">
+        <v>17498324637.7234</v>
+      </c>
+      <c r="AJ18" s="12" t="n">
+        <v>16706824535.4915</v>
+      </c>
+      <c r="AK18" s="12" t="n">
+        <v>15207829091.1492</v>
+      </c>
+      <c r="AL18" s="12" t="n">
+        <v>12523850344.94</v>
+      </c>
+      <c r="AM18" s="12" t="n">
+        <v>10011518327.0825</v>
+      </c>
+      <c r="AN18" s="12" t="n">
+        <v>11650442965.5255</v>
+      </c>
+      <c r="AO18" s="12" t="n">
+        <v>9560516791.17369</v>
+      </c>
+      <c r="AP18" s="12" t="n">
+        <v>9201803932.04749</v>
+      </c>
+      <c r="AQ18" s="12" t="n">
+        <v>9116983826.98708</v>
+      </c>
+      <c r="AR18" s="12" t="n">
+        <v>11409971831.7194</v>
+      </c>
+      <c r="AS18" s="12" t="n">
+        <v>12534631335.8265</v>
+      </c>
+      <c r="AT18" s="12" t="n">
+        <v>18434506115.802</v>
+      </c>
+      <c r="AU18" s="12" t="n">
+        <v>12509325711.9849</v>
+      </c>
+      <c r="AV18" s="12" t="n">
+        <v>13907530803.4339</v>
+      </c>
+      <c r="AW18" s="12" t="n">
+        <v>16104449494.7756</v>
+      </c>
+      <c r="AX18" s="12" t="n">
+        <v>17154173765.5393</v>
+      </c>
+      <c r="AY18" s="12" t="n">
+        <v>4353166198.42128</v>
+      </c>
+      <c r="AZ18" s="12"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>O19</f>
+      </c>
       <c r="N19" t="s">
         <v>64</v>
       </c>
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="n">
-        <v>10417019876.28</v>
-      </c>
-      <c r="AA19" s="4" t="n">
-        <v>11747769952.4144</v>
-      </c>
-      <c r="AB19" s="4" t="n">
-        <v>12086059798.7216</v>
-      </c>
-      <c r="AC19" s="4" t="n">
-        <v>19802229218.2449</v>
-      </c>
-      <c r="AD19" s="4" t="n">
-        <v>19398190953.6403</v>
-      </c>
-      <c r="AE19" s="4" t="n">
-        <v>21147226121.9781</v>
-      </c>
-      <c r="AF19" s="4" t="n">
-        <v>21580268310.4026</v>
-      </c>
-      <c r="AG19" s="4" t="n">
-        <v>21573885633.998</v>
-      </c>
-      <c r="AH19" s="4" t="n">
-        <v>24011126656.359</v>
-      </c>
-      <c r="AI19" s="4" t="n">
-        <v>24655623981.1116</v>
-      </c>
-      <c r="AJ19" s="4" t="n">
-        <v>20823250210.4609</v>
-      </c>
-      <c r="AK19" s="4" t="n">
-        <v>19814128651.0447</v>
-      </c>
-      <c r="AL19" s="4" t="n">
-        <v>18275836119.6904</v>
-      </c>
-      <c r="AM19" s="4" t="n">
-        <v>13284532392.0637</v>
-      </c>
-      <c r="AN19" s="4" t="n">
-        <v>13566981144.1203</v>
-      </c>
-      <c r="AO19" s="4" t="n">
-        <v>12656701271.1479</v>
-      </c>
-      <c r="AP19" s="4" t="n">
-        <v>12781247893.9125</v>
-      </c>
-      <c r="AQ19" s="4" t="n">
-        <v>12232166691.2523</v>
-      </c>
-      <c r="AR19" s="4" t="n">
-        <v>14657279039.3616</v>
-      </c>
-      <c r="AS19" s="4" t="n">
-        <v>13837206473.6387</v>
-      </c>
-      <c r="AT19" s="4" t="n">
-        <v>14705335041.0923</v>
-      </c>
-      <c r="AU19" s="4" t="n">
-        <v>15128163554.3369</v>
-      </c>
-      <c r="AV19" s="4" t="n">
-        <v>15024247924.5095</v>
-      </c>
-      <c r="AW19" s="4" t="n">
-        <v>6293081723.26109</v>
-      </c>
-      <c r="AX19" s="4"/>
+      <c r="P19" s="12" t="n">
+        <v>65260499.9652136</v>
+      </c>
+      <c r="Q19" s="12" t="n">
+        <v>60346072.303996</v>
+      </c>
+      <c r="R19" s="12" t="n">
+        <v>669555703.422297</v>
+      </c>
+      <c r="S19" s="12" t="n">
+        <v>114716867.124559</v>
+      </c>
+      <c r="T19" s="12" t="n">
+        <v>96858716.9717615</v>
+      </c>
+      <c r="U19" s="12" t="n">
+        <v>80124398.596616</v>
+      </c>
+      <c r="V19" s="12" t="n">
+        <v>155333985.435642</v>
+      </c>
+      <c r="W19" s="12" t="n">
+        <v>933060490.434829</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <v>1705696005.6387</v>
+      </c>
+      <c r="Y19" s="12" t="n">
+        <v>4094736201.54735</v>
+      </c>
+      <c r="Z19" s="12" t="n">
+        <v>11461260327.8507</v>
+      </c>
+      <c r="AA19" s="12" t="n">
+        <v>12324822658.2216</v>
+      </c>
+      <c r="AB19" s="12" t="n">
+        <v>12704589241.6942</v>
+      </c>
+      <c r="AC19" s="12" t="n">
+        <v>20782282520.8168</v>
+      </c>
+      <c r="AD19" s="12" t="n">
+        <v>20228856153.503</v>
+      </c>
+      <c r="AE19" s="12" t="n">
+        <v>22062131610.8202</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>22454866955.4706</v>
+      </c>
+      <c r="AG19" s="12" t="n">
+        <v>22452635704.715</v>
+      </c>
+      <c r="AH19" s="12" t="n">
+        <v>24986491149.3436</v>
+      </c>
+      <c r="AI19" s="12" t="n">
+        <v>25653133239.406</v>
+      </c>
+      <c r="AJ19" s="12" t="n">
+        <v>21660674601.7639</v>
+      </c>
+      <c r="AK19" s="12" t="n">
+        <v>20618444011.6633</v>
+      </c>
+      <c r="AL19" s="12" t="n">
+        <v>19018528725.3409</v>
+      </c>
+      <c r="AM19" s="12" t="n">
+        <v>13931626595.1619</v>
+      </c>
+      <c r="AN19" s="12" t="n">
+        <v>14138392221.2882</v>
+      </c>
+      <c r="AO19" s="12" t="n">
+        <v>13188254160.1275</v>
+      </c>
+      <c r="AP19" s="12" t="n">
+        <v>13341687851.3885</v>
+      </c>
+      <c r="AQ19" s="12" t="n">
+        <v>12731471940.0435</v>
+      </c>
+      <c r="AR19" s="12" t="n">
+        <v>15281260876.8707</v>
+      </c>
+      <c r="AS19" s="12" t="n">
+        <v>14386841612.3631</v>
+      </c>
+      <c r="AT19" s="12" t="n">
+        <v>15160099179.8649</v>
+      </c>
+      <c r="AU19" s="12" t="n">
+        <v>15582046006.1953</v>
+      </c>
+      <c r="AV19" s="12" t="n">
+        <v>15708977175.2138</v>
+      </c>
+      <c r="AW19" s="12" t="n">
+        <v>16467671477.4858</v>
+      </c>
+      <c r="AX19" s="12" t="n">
+        <v>16144961391.7578</v>
+      </c>
+      <c r="AY19" s="12" t="n">
+        <v>7721536493.50795</v>
+      </c>
+      <c r="AZ19" s="12"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>O20</f>
+      </c>
       <c r="N20" t="s">
         <v>64</v>
       </c>
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4" t="n">
-        <v>848797632.671109</v>
-      </c>
-      <c r="AA20" s="4" t="n">
-        <v>233067672.721853</v>
-      </c>
-      <c r="AB20" s="4" t="n">
-        <v>201743206.640615</v>
-      </c>
-      <c r="AC20" s="4" t="n">
-        <v>236159803.841289</v>
-      </c>
-      <c r="AD20" s="4" t="n">
-        <v>140268109.22412</v>
-      </c>
-      <c r="AE20" s="4" t="n">
-        <v>169838316.572986</v>
-      </c>
-      <c r="AF20" s="4" t="n">
-        <v>32998207.4027392</v>
-      </c>
-      <c r="AG20" s="4" t="n">
-        <v>29145290.5277223</v>
-      </c>
-      <c r="AH20" s="4" t="n">
-        <v>8336620.14872188</v>
-      </c>
-      <c r="AI20" s="4" t="n">
-        <v>727367.92498079</v>
-      </c>
-      <c r="AJ20" s="4" t="n">
-        <v>136890076.480915</v>
-      </c>
-      <c r="AK20" s="4" t="n">
-        <v>147268682.480112</v>
-      </c>
-      <c r="AL20" s="4" t="n">
-        <v>119626379.595514</v>
-      </c>
-      <c r="AM20" s="4" t="n">
-        <v>91278088.2126578</v>
-      </c>
-      <c r="AN20" s="4" t="n">
-        <v>94650959.4176016</v>
-      </c>
-      <c r="AO20" s="4" t="n">
-        <v>73649267.2675566</v>
-      </c>
-      <c r="AP20" s="4" t="n">
-        <v>17429670.2435989</v>
-      </c>
-      <c r="AQ20" s="4" t="n">
-        <v>27747628.4306076</v>
-      </c>
-      <c r="AR20" s="4" t="n">
-        <v>2516032.85331451</v>
-      </c>
-      <c r="AS20" s="4" t="n">
-        <v>1290116.6750298</v>
-      </c>
-      <c r="AT20" s="4" t="n">
-        <v>1637442.70768006</v>
-      </c>
-      <c r="AU20" s="4" t="n">
-        <v>2064333.61650635</v>
-      </c>
-      <c r="AV20" s="4" t="n">
-        <v>1306848.125</v>
-      </c>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12" t="n">
+        <v>7987.56747901999</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12" t="n">
+        <v>850039.151873035</v>
+      </c>
+      <c r="V20" s="12" t="n">
+        <v>2755437.51755383</v>
+      </c>
+      <c r="W20" s="12" t="n">
+        <v>19605935.5574368</v>
+      </c>
+      <c r="X20" s="12" t="n">
+        <v>30815718.4594475</v>
+      </c>
+      <c r="Y20" s="12" t="n">
+        <v>69515051.6720439</v>
+      </c>
+      <c r="Z20" s="12" t="n">
+        <v>214500672.597966</v>
+      </c>
+      <c r="AA20" s="12" t="n">
+        <v>135476462.008605</v>
+      </c>
+      <c r="AB20" s="12" t="n">
+        <v>69065173.1374691</v>
+      </c>
+      <c r="AC20" s="12" t="n">
+        <v>66362079.8987074</v>
+      </c>
+      <c r="AD20" s="12" t="n">
+        <v>99999199.2009889</v>
+      </c>
+      <c r="AE20" s="12" t="n">
+        <v>117157501.920826</v>
+      </c>
+      <c r="AF20" s="12" t="n">
+        <v>33175322.9104281</v>
+      </c>
+      <c r="AG20" s="12" t="n">
+        <v>22840190.8263027</v>
+      </c>
+      <c r="AH20" s="12" t="n">
+        <v>4672912.83026104</v>
+      </c>
+      <c r="AI20" s="12" t="n">
+        <v>104497.246893138</v>
+      </c>
+      <c r="AJ20" s="12" t="n">
+        <v>336951.292576811</v>
+      </c>
+      <c r="AK20" s="12" t="n">
+        <v>65146.9371989801</v>
+      </c>
+      <c r="AL20" s="12" t="n">
+        <v>295891.677530174</v>
+      </c>
+      <c r="AM20" s="12" t="n">
+        <v>72815.2891842096</v>
+      </c>
+      <c r="AN20" s="12" t="n">
+        <v>76251.6398968627</v>
+      </c>
+      <c r="AO20" s="12" t="n">
+        <v>8729.58129942454</v>
+      </c>
+      <c r="AP20" s="12" t="n">
+        <v>97632.4648861747</v>
+      </c>
+      <c r="AQ20" s="12" t="n">
+        <v>195770.788047678</v>
+      </c>
+      <c r="AR20" s="12" t="n">
+        <v>2631218.61229448</v>
+      </c>
+      <c r="AS20" s="12" t="n">
+        <v>1350632.26532315</v>
+      </c>
+      <c r="AT20" s="12" t="n">
+        <v>1714719.64503586</v>
+      </c>
+      <c r="AU20" s="12" t="n">
+        <v>2160078.58009537</v>
+      </c>
+      <c r="AV20" s="12" t="n">
+        <v>1366631.97653318</v>
+      </c>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12" t="n">
+        <v>20632.2552391698</v>
+      </c>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>O21</f>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="4" t="n">
-        <v>24214566738.8981</v>
-      </c>
-      <c r="Q21" s="4" t="n">
-        <v>35489211630.4335</v>
-      </c>
-      <c r="R21" s="4" t="n">
-        <v>33060305718.1975</v>
-      </c>
-      <c r="S21" s="4" t="n">
-        <v>31423990993.4659</v>
-      </c>
-      <c r="T21" s="4" t="n">
-        <v>36401261590.1566</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <v>35305115235.9255</v>
-      </c>
-      <c r="V21" s="4" t="n">
-        <v>34903150795.6185</v>
-      </c>
-      <c r="W21" s="4" t="n">
-        <v>34202156353.7648</v>
-      </c>
-      <c r="X21" s="4" t="n">
-        <v>32671693107.2574</v>
-      </c>
-      <c r="Y21" s="4" t="n">
-        <v>33985149527.8471</v>
-      </c>
-      <c r="Z21" s="4" t="n">
+      <c r="P21" s="12" t="n">
+        <v>25198367586.5573</v>
+      </c>
+      <c r="Q21" s="12" t="n">
+        <v>36928181612.1716</v>
+      </c>
+      <c r="R21" s="12" t="n">
+        <v>34399575192.8933</v>
+      </c>
+      <c r="S21" s="12" t="n">
+        <v>32697963461.0589</v>
+      </c>
+      <c r="T21" s="12" t="n">
+        <v>37875499873.6697</v>
+      </c>
+      <c r="U21" s="12" t="n">
+        <v>36733922816.8792</v>
+      </c>
+      <c r="V21" s="12" t="n">
+        <v>36314476069.6697</v>
+      </c>
+      <c r="W21" s="12" t="n">
+        <v>35585740716.3711</v>
+      </c>
+      <c r="X21" s="12" t="n">
+        <v>33991644649.0244</v>
+      </c>
+      <c r="Y21" s="12" t="n">
+        <v>35361050506.1029</v>
+      </c>
+      <c r="Z21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="4" t="n">
+      <c r="AA21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" s="4" t="n">
+      <c r="AB21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" s="4" t="n">
+      <c r="AC21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="4" t="n">
-        <v>218871.502685086</v>
-      </c>
-      <c r="AE21" s="4" t="n">
-        <v>1436440.91009477</v>
-      </c>
-      <c r="AF21" s="4" t="n">
-        <v>-336740.762567178</v>
-      </c>
-      <c r="AG21" s="4" t="n">
+      <c r="AD21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="4" t="n">
+      <c r="AE21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AI21" s="4" t="n">
+      <c r="AF21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" s="4" t="n">
+      <c r="AG21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AK21" s="4" t="n">
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AL21" s="4" t="n">
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AM21" s="4" t="n">
+      <c r="AW21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AN21" s="4" t="n">
+      <c r="AX21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AO21" s="4" t="n">
+      <c r="AY21" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="AP21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="4"/>
+      <c r="AZ21" s="12"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>O22</f>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8878,6 +9456,12 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
       <c r="M1" t="s">
         <v>59</v>
       </c>
@@ -8986,208 +9570,298 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
       <c r="M2" t="s">
         <v>61</v>
       </c>
       <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="O2" s="5" t="n">
+        <v>51292082.56</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>15799000</v>
+      </c>
+      <c r="Q2" s="5" t="n">
+        <v>26625019</v>
+      </c>
+      <c r="R2" s="5" t="n">
+        <v>21914000</v>
+      </c>
+      <c r="S2" s="5" t="n">
+        <v>8941413.16</v>
+      </c>
+      <c r="T2" s="5" t="n">
+        <v>29288193</v>
+      </c>
+      <c r="U2" s="5" t="n">
+        <v>71392000</v>
+      </c>
+      <c r="V2" s="5" t="n">
+        <v>993226594</v>
+      </c>
+      <c r="W2" s="5" t="n">
+        <v>1152837931.02</v>
+      </c>
+      <c r="X2" s="5" t="n">
+        <v>1678560718</v>
+      </c>
       <c r="Y2" s="5" t="n">
         <v>10966677089.5315</v>
       </c>
       <c r="Z2" s="5" t="n">
-        <v>12061548563.331</v>
+        <v>12061548554.27</v>
       </c>
       <c r="AA2" s="5" t="n">
-        <v>13452725846.8993</v>
+        <v>13452725841.96</v>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>14199015742.5826</v>
+        <v>14199015747.39</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>13366569783.8199</v>
+        <v>13367195159.5</v>
       </c>
       <c r="AD2" s="5" t="n">
-        <v>15010044823.6704</v>
+        <v>15011090117.94</v>
       </c>
       <c r="AE2" s="5" t="n">
-        <v>18206626257.09</v>
+        <v>18206533999.4</v>
       </c>
       <c r="AF2" s="5" t="n">
-        <v>18851904547.4501</v>
+        <v>18851856729.58</v>
       </c>
       <c r="AG2" s="5" t="n">
-        <v>24329653622.9823</v>
+        <v>24329050043.86</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>30884997953.1355</v>
+        <v>30884988487.93</v>
       </c>
       <c r="AI2" s="5" t="n">
-        <v>28773497301.9621</v>
+        <v>28775128170.0151</v>
       </c>
       <c r="AJ2" s="5" t="n">
-        <v>23662630195.1326</v>
+        <v>23663111182.9942</v>
       </c>
       <c r="AK2" s="5" t="n">
-        <v>21701919789.72</v>
+        <v>21703668101.1561</v>
       </c>
       <c r="AL2" s="5" t="n">
-        <v>18358176142.4908</v>
+        <v>18509880873.3216</v>
       </c>
       <c r="AM2" s="5" t="n">
-        <v>19031614500.5112</v>
+        <v>19018646371.9148</v>
       </c>
       <c r="AN2" s="5" t="n">
-        <v>17361153512.7824</v>
+        <v>17305489468.3361</v>
       </c>
       <c r="AO2" s="5" t="n">
-        <v>17626563017.4138</v>
+        <v>17593731047.1012</v>
       </c>
       <c r="AP2" s="5" t="n">
-        <v>17873120162.7833</v>
+        <v>17900279968.55</v>
       </c>
       <c r="AQ2" s="5" t="n">
-        <v>20750076586.9344</v>
+        <v>20751718237.84</v>
       </c>
       <c r="AR2" s="5" t="n">
-        <v>26144863780.7804</v>
+        <v>26167824755.09</v>
       </c>
       <c r="AS2" s="5" t="n">
-        <v>27983353952.088</v>
+        <v>28005714288.53</v>
       </c>
       <c r="AT2" s="5" t="n">
-        <v>23085389037.8351</v>
+        <v>23154038451.13</v>
       </c>
       <c r="AU2" s="5" t="n">
-        <v>25865414898.1152</v>
+        <v>25906020010.7</v>
       </c>
       <c r="AV2" s="5" t="n">
-        <v>10490936795.6604</v>
-      </c>
-      <c r="AW2" s="5"/>
+        <v>28481125060.9</v>
+      </c>
+      <c r="AW2" s="5" t="n">
+        <v>27879118784.34</v>
+      </c>
+      <c r="AX2" s="5" t="n">
+        <v>8018023970.57</v>
+      </c>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
       <c r="M3" t="s">
         <v>61</v>
       </c>
       <c r="N3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="O3" s="5" t="n">
+        <v>2736000</v>
+      </c>
+      <c r="P3" s="5" t="n">
+        <v>7226000</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>5439000</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>7364000</v>
+      </c>
+      <c r="S3" s="5" t="n">
+        <v>13727000</v>
+      </c>
+      <c r="T3" s="5" t="n">
+        <v>5184000</v>
+      </c>
+      <c r="U3" s="5" t="n">
+        <v>4562000</v>
+      </c>
+      <c r="V3" s="5" t="n">
+        <v>8470406</v>
+      </c>
+      <c r="W3" s="5" t="n">
+        <v>77590839</v>
+      </c>
+      <c r="X3" s="5" t="n">
+        <v>192428587</v>
+      </c>
       <c r="Y3" s="5" t="n">
         <v>602980370</v>
       </c>
       <c r="Z3" s="5" t="n">
-        <v>672942744.8999</v>
+        <v>672942744.9</v>
       </c>
       <c r="AA3" s="5" t="n">
-        <v>845521603.2863</v>
+        <v>845521603.29</v>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>1151094189.8162</v>
+        <v>1151094189.82</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>1463430562.5173</v>
+        <v>1463430559.51</v>
       </c>
       <c r="AD3" s="5" t="n">
-        <v>1822118252.4474</v>
+        <v>1822118252.2</v>
       </c>
       <c r="AE3" s="5" t="n">
-        <v>1672208289.9372</v>
+        <v>1672208289.96</v>
       </c>
       <c r="AF3" s="5" t="n">
-        <v>1868527801.1419</v>
+        <v>1868527801.25</v>
       </c>
       <c r="AG3" s="5" t="n">
-        <v>1986275284.6477</v>
+        <v>1986204178.25</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>2396335439.075</v>
+        <v>2396353315.17</v>
       </c>
       <c r="AI3" s="5" t="n">
-        <v>2470819918.4381</v>
+        <v>2469656603.9355</v>
       </c>
       <c r="AJ3" s="5" t="n">
-        <v>2321855552.8583</v>
+        <v>2321475390.2972</v>
       </c>
       <c r="AK3" s="5" t="n">
-        <v>1685361751.6543</v>
+        <v>1683029323.8831</v>
       </c>
       <c r="AL3" s="5" t="n">
-        <v>1228592375.3834</v>
+        <v>1235414929.3634</v>
       </c>
       <c r="AM3" s="5" t="n">
-        <v>1497597670.018</v>
+        <v>1496583256.0877</v>
       </c>
       <c r="AN3" s="5" t="n">
-        <v>1507290340.2014</v>
+        <v>1510783955.8129</v>
       </c>
       <c r="AO3" s="5" t="n">
-        <v>1462912512.9587</v>
+        <v>1463057069.172</v>
       </c>
       <c r="AP3" s="5" t="n">
-        <v>1534730331.3873</v>
+        <v>1536342327.1533</v>
       </c>
       <c r="AQ3" s="5" t="n">
-        <v>1837620411.0502</v>
+        <v>1838561335.12</v>
       </c>
       <c r="AR3" s="5" t="n">
-        <v>1837799678.2614</v>
+        <v>1839358514.88</v>
       </c>
       <c r="AS3" s="5" t="n">
-        <v>1918932126.3953</v>
+        <v>1926635473.28</v>
       </c>
       <c r="AT3" s="5" t="n">
-        <v>1844053450.5248</v>
+        <v>1850917537.75</v>
       </c>
       <c r="AU3" s="5" t="n">
-        <v>1851110286.1071</v>
+        <v>1853834730.85</v>
       </c>
       <c r="AV3" s="5" t="n">
-        <v>761155973.1043</v>
-      </c>
-      <c r="AW3" s="5"/>
+        <v>2312237183.93</v>
+      </c>
+      <c r="AW3" s="5" t="n">
+        <v>2339640217.02</v>
+      </c>
+      <c r="AX3" s="5" t="n">
+        <v>885696287.36</v>
+      </c>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
       <c r="M4" t="s">
         <v>64</v>
       </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="O4" s="5" t="n">
+        <v>682000</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>661000</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>479000</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>26000</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="V4" s="5" t="n">
+        <v>134638</v>
+      </c>
+      <c r="W4" s="5" t="n">
+        <v>457852</v>
+      </c>
+      <c r="X4" s="5" t="n">
+        <v>634697</v>
+      </c>
       <c r="Y4" s="5" t="n">
-        <v>3510982</v>
+        <v>3899658</v>
       </c>
       <c r="Z4" s="5" t="n">
         <v>6131674</v>
@@ -9205,153 +9879,197 @@
         <v>13291376</v>
       </c>
       <c r="AE4" s="5" t="n">
-        <v>24449540</v>
+        <v>24467017</v>
       </c>
       <c r="AF4" s="5" t="n">
-        <v>10380157.49</v>
+        <v>10613082.49</v>
       </c>
       <c r="AG4" s="5" t="n">
-        <v>15626510.2913</v>
+        <v>15800318.0413</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>14166289.9767</v>
+        <v>14181477.1564</v>
       </c>
       <c r="AI4" s="5" t="n">
-        <v>297354740.3824</v>
+        <v>297354740.3828</v>
       </c>
       <c r="AJ4" s="5" t="n">
-        <v>383034085.2473</v>
+        <v>383027360.5023</v>
       </c>
       <c r="AK4" s="5" t="n">
-        <v>464193176.6352</v>
+        <v>464904529.6339</v>
       </c>
       <c r="AL4" s="5" t="n">
-        <v>430857659.4737</v>
+        <v>432212675.8587</v>
       </c>
       <c r="AM4" s="5" t="n">
-        <v>503606748.7638</v>
+        <v>503614293.8332</v>
       </c>
       <c r="AN4" s="5" t="n">
-        <v>466217309.5442</v>
+        <v>470878509.5135</v>
       </c>
       <c r="AO4" s="5" t="n">
-        <v>660143988.2953</v>
+        <v>660329919.6383</v>
       </c>
       <c r="AP4" s="5" t="n">
-        <v>539689238.4964</v>
+        <v>536962597.6498</v>
       </c>
       <c r="AQ4" s="5" t="n">
-        <v>1348089633.2975</v>
+        <v>1348144447.5701</v>
       </c>
       <c r="AR4" s="5" t="n">
-        <v>484607105.6192</v>
+        <v>484656126.2158</v>
       </c>
       <c r="AS4" s="5" t="n">
-        <v>520442003.1788</v>
+        <v>520847682.4598</v>
       </c>
       <c r="AT4" s="5" t="n">
-        <v>426142656.4945</v>
+        <v>426574743.5733</v>
       </c>
       <c r="AU4" s="5" t="n">
-        <v>420820733.1242</v>
+        <v>420918462.3498</v>
       </c>
       <c r="AV4" s="5" t="n">
-        <v>238230576.5323</v>
-      </c>
-      <c r="AW4" s="5"/>
+        <v>674679825.3825</v>
+      </c>
+      <c r="AW4" s="5" t="n">
+        <v>669082813.42</v>
+      </c>
+      <c r="AX4" s="5" t="n">
+        <v>226296495.09</v>
+      </c>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
       <c r="M5" t="s">
         <v>64</v>
       </c>
       <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>647000</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>120000</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>1049000</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>2064000</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>6311000</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>36567000</v>
+      </c>
+      <c r="U5" s="5" t="n">
+        <v>49846000</v>
+      </c>
+      <c r="V5" s="5" t="n">
+        <v>84522659</v>
+      </c>
+      <c r="W5" s="5" t="n">
+        <v>118434244</v>
+      </c>
+      <c r="X5" s="5" t="n">
+        <v>192687057</v>
+      </c>
       <c r="Y5" s="5" t="n">
-        <v>633457112</v>
+        <v>648831254</v>
       </c>
       <c r="Z5" s="5" t="n">
         <v>795746043.3198</v>
       </c>
       <c r="AA5" s="5" t="n">
-        <v>1142328565.4518</v>
+        <v>1143346589.4518</v>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>1531895322.1538</v>
+        <v>1532457513.1538</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>1609786453.2631</v>
+        <v>1610665203.2631</v>
       </c>
       <c r="AD5" s="5" t="n">
-        <v>1411533252.6507</v>
+        <v>1412387296.6507</v>
       </c>
       <c r="AE5" s="5" t="n">
-        <v>1481958053.3479</v>
+        <v>1482230302.3479</v>
       </c>
       <c r="AF5" s="5" t="n">
-        <v>1701889265.3883</v>
+        <v>1701912545.3883</v>
       </c>
       <c r="AG5" s="5" t="n">
-        <v>1600883085.5348</v>
+        <v>1600896075.6622</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>1639072550.6092</v>
+        <v>1639091332.395</v>
       </c>
       <c r="AI5" s="5" t="n">
-        <v>1402709591.8521</v>
+        <v>1506554445.842</v>
       </c>
       <c r="AJ5" s="5" t="n">
-        <v>1250959365.5299</v>
+        <v>1365108458.9599</v>
       </c>
       <c r="AK5" s="5" t="n">
-        <v>995699583.1607</v>
+        <v>1089169263.6071</v>
       </c>
       <c r="AL5" s="5" t="n">
-        <v>668298834.2567</v>
+        <v>741573455.9405</v>
       </c>
       <c r="AM5" s="5" t="n">
-        <v>703953753.6157</v>
+        <v>779186163.7465</v>
       </c>
       <c r="AN5" s="5" t="n">
-        <v>570143558.4634</v>
+        <v>626853620.1244</v>
       </c>
       <c r="AO5" s="5" t="n">
-        <v>655435082.8421</v>
+        <v>667230064.0101</v>
       </c>
       <c r="AP5" s="5" t="n">
-        <v>585817254.2933</v>
+        <v>608154107.7818</v>
       </c>
       <c r="AQ5" s="5" t="n">
-        <v>666178412.0091</v>
+        <v>666310812.4929</v>
       </c>
       <c r="AR5" s="5" t="n">
-        <v>624725637.2762</v>
+        <v>624460035.228</v>
       </c>
       <c r="AS5" s="5" t="n">
-        <v>717409178.2336</v>
+        <v>719169143.0866</v>
       </c>
       <c r="AT5" s="5" t="n">
-        <v>763478854.0827</v>
+        <v>774405169.3669</v>
       </c>
       <c r="AU5" s="5" t="n">
-        <v>862494349.7389</v>
+        <v>866114362.8638</v>
       </c>
       <c r="AV5" s="5" t="n">
-        <v>299254699.858</v>
-      </c>
-      <c r="AW5" s="5"/>
+        <v>991730587.7387</v>
+      </c>
+      <c r="AW5" s="5" t="n">
+        <v>1192050869.64</v>
+      </c>
+      <c r="AX5" s="5" t="n">
+        <v>250027397.8</v>
+      </c>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
       <c r="M6" t="s">
         <v>64</v>
       </c>
@@ -9363,177 +10081,229 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+      <c r="T6" s="5" t="n">
+        <v>117882</v>
+      </c>
       <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="V6" s="5" t="n">
+        <v>240963211</v>
+      </c>
+      <c r="W6" s="5" t="n">
+        <v>343007515</v>
+      </c>
+      <c r="X6" s="5" t="n">
+        <v>547076377</v>
+      </c>
       <c r="Y6" s="5" t="n">
-        <v>1620717770.2197</v>
+        <v>1632534420.2197</v>
       </c>
       <c r="Z6" s="5" t="n">
-        <v>1934976877.5201</v>
+        <v>1938592579.5201</v>
       </c>
       <c r="AA6" s="5" t="n">
-        <v>2703129828.0601</v>
+        <v>2709926492.0601</v>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>4409479243.3213</v>
+        <v>4409544026.3213</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>6107063729.3398</v>
+        <v>6107044321.3398</v>
       </c>
       <c r="AD6" s="5" t="n">
-        <v>6534986870.2105</v>
+        <v>6535074757.8474</v>
       </c>
       <c r="AE6" s="5" t="n">
-        <v>8705816574.4972</v>
+        <v>8705817872.4977</v>
       </c>
       <c r="AF6" s="5" t="n">
-        <v>7889330717.6912</v>
+        <v>7889330717.6959</v>
       </c>
       <c r="AG6" s="5" t="n">
-        <v>11339736858.5353</v>
+        <v>11339736858.8419</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>12744949982.4487</v>
+        <v>12744949983.055</v>
       </c>
       <c r="AI6" s="5" t="n">
-        <v>12274000884.0607</v>
+        <v>12273843080.9538</v>
       </c>
       <c r="AJ6" s="5" t="n">
-        <v>11396284293.0827</v>
+        <v>11396839554.0924</v>
       </c>
       <c r="AK6" s="5" t="n">
-        <v>9556798547.6482</v>
+        <v>9555758340.9579</v>
       </c>
       <c r="AL6" s="5" t="n">
-        <v>7738820448.3672</v>
+        <v>7777441494.8956</v>
       </c>
       <c r="AM6" s="5" t="n">
-        <v>9215743831.5393</v>
+        <v>9215751394.5244</v>
       </c>
       <c r="AN6" s="5" t="n">
-        <v>7609472845.9706</v>
+        <v>7640894717.4768</v>
       </c>
       <c r="AO6" s="5" t="n">
-        <v>7397521676.1775</v>
+        <v>7413004000.0862</v>
       </c>
       <c r="AP6" s="5" t="n">
-        <v>7417080195.6146</v>
+        <v>7468652269.3829</v>
       </c>
       <c r="AQ6" s="5" t="n">
-        <v>9511682492.6948</v>
+        <v>9554577873.649</v>
       </c>
       <c r="AR6" s="5" t="n">
-        <v>10609155572.4638</v>
+        <v>10690427360.011</v>
       </c>
       <c r="AS6" s="5" t="n">
-        <v>15727040787.7851</v>
+        <v>15927642830.5231</v>
       </c>
       <c r="AT6" s="5" t="n">
-        <v>10886501744.6268</v>
+        <v>11180203450.3117</v>
       </c>
       <c r="AU6" s="5" t="n">
-        <v>13261980631.5118</v>
+        <v>13299140416.6856</v>
       </c>
       <c r="AV6" s="5" t="n">
-        <v>4674838848.1313</v>
-      </c>
-      <c r="AW6" s="5"/>
+        <v>16104449494.7756</v>
+      </c>
+      <c r="AW6" s="5" t="n">
+        <v>17612292924.2717</v>
+      </c>
+      <c r="AX6" s="5" t="n">
+        <v>4567490183.28</v>
+      </c>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
       <c r="M7" t="s">
         <v>64</v>
       </c>
       <c r="N7" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="O7" s="5" t="n">
+        <v>31553000</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>30220000</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>343691000</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>60267000</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>51996000</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>43925000</v>
+      </c>
+      <c r="U7" s="5" t="n">
+        <v>86759000</v>
+      </c>
+      <c r="V7" s="5" t="n">
+        <v>530392950</v>
+      </c>
+      <c r="W7" s="5" t="n">
+        <v>981749826</v>
+      </c>
+      <c r="X7" s="5" t="n">
+        <v>2385996445.99</v>
+      </c>
       <c r="Y7" s="5" t="n">
-        <v>6447252669.3232</v>
+        <v>6817417160.3232</v>
       </c>
       <c r="Z7" s="5" t="n">
-        <v>7447188714.1885</v>
+        <v>7508782351.1885</v>
       </c>
       <c r="AA7" s="5" t="n">
-        <v>7782566418.503</v>
+        <v>7861920791.503</v>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>12994967218.4131</v>
+        <v>13107462376.4131</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>13040981867.4791</v>
+        <v>13069958915.0291</v>
       </c>
       <c r="AD7" s="5" t="n">
-        <v>14648396207.3329</v>
+        <v>14688207053.6773</v>
       </c>
       <c r="AE7" s="5" t="n">
-        <v>15435041433.4634</v>
+        <v>15435306684.591</v>
       </c>
       <c r="AF7" s="5" t="n">
-        <v>15853628021.3391</v>
+        <v>15858656918.138</v>
       </c>
       <c r="AG7" s="5" t="n">
-        <v>18012635084.2801</v>
+        <v>18014754542.0148</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>18684080005.32</v>
+        <v>18684525908.2708</v>
       </c>
       <c r="AI7" s="5" t="n">
-        <v>15917144969.7951</v>
+        <v>15913240755.2894</v>
       </c>
       <c r="AJ7" s="5" t="n">
-        <v>15451023857.8801</v>
+        <v>15451587261.2432</v>
       </c>
       <c r="AK7" s="5" t="n">
-        <v>14512694451.8204</v>
+        <v>14511229333.9844</v>
       </c>
       <c r="AL7" s="5" t="n">
-        <v>10742189582.1904</v>
+        <v>10822775050.9626</v>
       </c>
       <c r="AM7" s="5" t="n">
-        <v>11182820951.8621</v>
+        <v>11183772858.6994</v>
       </c>
       <c r="AN7" s="5" t="n">
-        <v>10552108836.2426</v>
+        <v>10540231636.6298</v>
       </c>
       <c r="AO7" s="5" t="n">
-        <v>10744246020.0686</v>
+        <v>10748108320.9994</v>
       </c>
       <c r="AP7" s="5" t="n">
-        <v>10466258717.7406</v>
+        <v>10429648511.1803</v>
       </c>
       <c r="AQ7" s="5" t="n">
-        <v>12835739955.7488</v>
+        <v>12796350351.1652</v>
       </c>
       <c r="AR7" s="5" t="n">
-        <v>12354923335.3771</v>
+        <v>12270124351.9907</v>
       </c>
       <c r="AS7" s="5" t="n">
-        <v>13305216180.9551</v>
+        <v>13098514464.9583</v>
       </c>
       <c r="AT7" s="5" t="n">
-        <v>14147890264.6467</v>
+        <v>13926445640.0295</v>
       </c>
       <c r="AU7" s="5" t="n">
-        <v>15024247924.5095</v>
+        <v>15021781810.765</v>
       </c>
       <c r="AV7" s="5" t="n">
-        <v>6597916141.3409</v>
-      </c>
-      <c r="AW7" s="5"/>
+        <v>16467671477.4858</v>
+      </c>
+      <c r="AW7" s="5" t="n">
+        <v>16576128536.9465</v>
+      </c>
+      <c r="AX7" s="5" t="n">
+        <v>8101698976.42</v>
+      </c>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
       <c r="M8" t="s">
         <v>64</v>
       </c>
@@ -9541,71 +10311,83 @@
         <v>69</v>
       </c>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="5" t="n">
+        <v>4000</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="T8" s="5" t="n">
+        <v>466000</v>
+      </c>
+      <c r="U8" s="5" t="n">
+        <v>1539000</v>
+      </c>
+      <c r="V8" s="5" t="n">
+        <v>11144883</v>
+      </c>
+      <c r="W8" s="5" t="n">
+        <v>17736646</v>
+      </c>
+      <c r="X8" s="5" t="n">
+        <v>40506313</v>
+      </c>
       <c r="Y8" s="5" t="n">
-        <v>525333816</v>
+        <v>127589857</v>
       </c>
       <c r="Z8" s="5" t="n">
-        <v>147747100</v>
+        <v>82537761</v>
       </c>
       <c r="AA8" s="5" t="n">
-        <v>129908335</v>
+        <v>42739274</v>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>154976941</v>
+        <v>41854809</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>94299199</v>
+        <v>64609952</v>
       </c>
       <c r="AD8" s="5" t="n">
-        <v>117644694.2969</v>
+        <v>77999428</v>
       </c>
       <c r="AE8" s="5" t="n">
-        <v>23601592.4902</v>
+        <v>22804467.4902</v>
       </c>
       <c r="AF8" s="5" t="n">
-        <v>21417495.32</v>
+        <v>16132393.32</v>
       </c>
       <c r="AG8" s="5" t="n">
-        <v>6253954.6238</v>
+        <v>3369075.5989</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>551200.8341</v>
+        <v>76110.8399</v>
       </c>
       <c r="AI8" s="5" t="n">
-        <v>104637804.8696</v>
+        <v>247544.7852</v>
       </c>
       <c r="AJ8" s="5" t="n">
-        <v>114839868.3885</v>
+        <v>48821.5107</v>
       </c>
       <c r="AK8" s="5" t="n">
-        <v>94994345.7622</v>
+        <v>225766.78</v>
       </c>
       <c r="AL8" s="5" t="n">
-        <v>73809638.1071</v>
+        <v>56566.51</v>
       </c>
       <c r="AM8" s="5" t="n">
-        <v>78017704.9592</v>
+        <v>60316.69</v>
       </c>
       <c r="AN8" s="5" t="n">
-        <v>61402656.764</v>
+        <v>6976.7998</v>
       </c>
       <c r="AO8" s="5" t="n">
-        <v>14651829.5162</v>
+        <v>78653.04</v>
       </c>
       <c r="AP8" s="5" t="n">
-        <v>23741816.5799</v>
+        <v>160375.8401</v>
       </c>
       <c r="AQ8" s="5" t="n">
-        <v>2203351.8867</v>
+        <v>2203351.9017</v>
       </c>
       <c r="AR8" s="5" t="n">
         <v>1151915.5</v>
@@ -9620,9 +10402,19 @@
         <v>1306848.125</v>
       </c>
       <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
+      <c r="AW8" s="5" t="n">
+        <v>21183.26</v>
+      </c>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" s="5" t="n">
@@ -9668,60 +10460,177 @@
         <v>0</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>147142.5508</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="5" t="n">
-        <v>995003.1015</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="5" t="n">
-        <v>-240850</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
+      <c r="AU9" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AV9" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="5"/>
+      <c r="AW9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="5" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="5" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="5" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="5" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="5" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="5" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="5" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="5" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="5" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="5" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="5" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="5" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="5" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="5" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="5" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="5" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="5" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="5" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="5" t="str">
+        <f>Sum(AN2:AN9)</f>
+      </c>
+      <c r="AO10" s="5" t="str">
+        <f>Sum(AO2:AO9)</f>
+      </c>
+      <c r="AP10" s="5" t="str">
+        <f>Sum(AP2:AP9)</f>
+      </c>
+      <c r="AQ10" s="5" t="str">
+        <f>Sum(AQ2:AQ9)</f>
+      </c>
+      <c r="AR10" s="5" t="str">
+        <f>Sum(AR2:AR9)</f>
+      </c>
+      <c r="AS10" s="5" t="str">
+        <f>Sum(AS2:AS9)</f>
+      </c>
+      <c r="AT10" s="5" t="str">
+        <f>Sum(AT2:AT9)</f>
+      </c>
+      <c r="AU10" s="5" t="str">
+        <f>Sum(AU2:AU9)</f>
+      </c>
+      <c r="AV10" s="5" t="str">
+        <f>Sum(AV2:AV9)</f>
+      </c>
+      <c r="AW10" s="5" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="5" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
       <c r="M13" t="s">
         <v>59</v>
       </c>
@@ -9830,372 +10739,506 @@
       <c r="AV13" t="s">
         <v>34</v>
       </c>
+      <c r="AW13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
       <c r="M14" t="s">
         <v>61</v>
       </c>
       <c r="N14" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="O14" s="5" t="n">
+        <v>106086487.881425</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>31548894.6502592</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>51869072.2921957</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>41712801.8014433</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>16656162.1392419</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>53425130.338227</v>
+      </c>
+      <c r="U14" s="5" t="n">
+        <v>127820789.638209</v>
+      </c>
+      <c r="V14" s="5" t="n">
+        <v>1747271514.28117</v>
+      </c>
+      <c r="W14" s="5" t="n">
+        <v>2002945151.6191</v>
+      </c>
+      <c r="X14" s="5" t="n">
+        <v>2880667886.17451</v>
+      </c>
       <c r="Y14" s="5" t="n">
-        <v>17719189719.6712</v>
+        <v>18436885714.7415</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>19026817129.251</v>
+        <v>19797676901.8184</v>
       </c>
       <c r="AA14" s="5" t="n">
-        <v>20891623700.7467</v>
+        <v>21739134816.5126</v>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>21637004517.3861</v>
+        <v>22512973778.2652</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>19882496248.867</v>
+        <v>20688899622.0479</v>
       </c>
       <c r="AD14" s="5" t="n">
-        <v>21669321848.9192</v>
+        <v>22547111747.1048</v>
       </c>
       <c r="AE14" s="5" t="n">
-        <v>25455317457.2892</v>
+        <v>26486373548.0493</v>
       </c>
       <c r="AF14" s="5" t="n">
-        <v>25653991133.2789</v>
+        <v>26690398417.1969</v>
       </c>
       <c r="AG14" s="5" t="n">
-        <v>32431811998.2677</v>
+        <v>33744428333.735</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>40756028446.3077</v>
+        <v>42403897678.1142</v>
       </c>
       <c r="AI14" s="5" t="n">
-        <v>37642286659.1817</v>
+        <v>39167929242.0416</v>
       </c>
       <c r="AJ14" s="5" t="n">
-        <v>30344552129.4263</v>
+        <v>31575819675.957</v>
       </c>
       <c r="AK14" s="5" t="n">
-        <v>27329227585.98</v>
+        <v>28444994268.0194</v>
       </c>
       <c r="AL14" s="5" t="n">
-        <v>22702986552.0584</v>
+        <v>23826860249.2214</v>
       </c>
       <c r="AM14" s="5" t="n">
-        <v>23089125380.9807</v>
+        <v>24043145843.6632</v>
       </c>
       <c r="AN14" s="5" t="n">
-        <v>20823793342.5325</v>
+        <v>21653147799.9663</v>
       </c>
       <c r="AO14" s="5" t="n">
-        <v>20968383544.311</v>
+        <v>21839198188.3079</v>
       </c>
       <c r="AP14" s="5" t="n">
-        <v>20888742674.9129</v>
+        <v>21850871761.8065</v>
       </c>
       <c r="AQ14" s="5" t="n">
-        <v>23694751036.6634</v>
+        <v>24781473727.5362</v>
       </c>
       <c r="AR14" s="5" t="n">
-        <v>29281596375.7476</v>
+        <v>30682032169.5007</v>
       </c>
       <c r="AS14" s="5" t="n">
-        <v>30928065342.3692</v>
+        <v>32413554021.939</v>
       </c>
       <c r="AT14" s="5" t="n">
-        <v>24684920122.1584</v>
+        <v>25906631289.8744</v>
       </c>
       <c r="AU14" s="5" t="n">
-        <v>25865414898.1152</v>
+        <v>27091132208.9023</v>
       </c>
       <c r="AV14" s="5" t="n">
-        <v>10006238514.4593</v>
-      </c>
-      <c r="AW14" s="5"/>
+        <v>28481125060.9</v>
+      </c>
+      <c r="AW14" s="5" t="n">
+        <v>27153945832.7772</v>
+      </c>
+      <c r="AX14" s="5" t="n">
+        <v>7641787836.69587</v>
+      </c>
+      <c r="AY14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
       <c r="M15" t="s">
         <v>61</v>
       </c>
       <c r="N15" t="s">
         <v>63</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="O15" s="5" t="n">
+        <v>5658819.38024354</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>14429540.6508496</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>10595894.1924981</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>14017206.9209559</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>25570805.597957</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>9456229.5349996</v>
+      </c>
+      <c r="U15" s="5" t="n">
+        <v>8167840.126758</v>
+      </c>
+      <c r="V15" s="5" t="n">
+        <v>14901029.843142</v>
+      </c>
+      <c r="W15" s="5" t="n">
+        <v>134806628.584475</v>
+      </c>
+      <c r="X15" s="5" t="n">
+        <v>330236997.094339</v>
+      </c>
       <c r="Y15" s="5" t="n">
-        <v>974253503.229933</v>
+        <v>1013714553.56652</v>
       </c>
       <c r="Z15" s="5" t="n">
-        <v>1061551796.47435</v>
+        <v>1104559914.26047</v>
       </c>
       <c r="AA15" s="5" t="n">
-        <v>1313066167.23932</v>
+        <v>1366333361.73877</v>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>1754081454.41354</v>
+        <v>1825095046.92215</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>2176822710.71138</v>
+        <v>2265005305.02259</v>
       </c>
       <c r="AD15" s="5" t="n">
-        <v>2630509590.27169</v>
+        <v>2736876770.84112</v>
       </c>
       <c r="AE15" s="5" t="n">
-        <v>2337972575.14889</v>
+        <v>2432683421.20938</v>
       </c>
       <c r="AF15" s="5" t="n">
-        <v>2542724291.97416</v>
+        <v>2645455680.2736</v>
       </c>
       <c r="AG15" s="5" t="n">
-        <v>2647736281.27812</v>
+        <v>2754868127.94965</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>3162218610.79711</v>
+        <v>3290100652.5157</v>
       </c>
       <c r="AI15" s="5" t="n">
-        <v>3232395098.76058</v>
+        <v>3361630034.92317</v>
       </c>
       <c r="AJ15" s="5" t="n">
-        <v>2977507837.45078</v>
+        <v>3097753619.09621</v>
       </c>
       <c r="AK15" s="5" t="n">
-        <v>2122376053.45331</v>
+        <v>2205791170.76589</v>
       </c>
       <c r="AL15" s="5" t="n">
-        <v>1519362052.07945</v>
+        <v>1590288942.06282</v>
       </c>
       <c r="AM15" s="5" t="n">
-        <v>1816883185.20645</v>
+        <v>1891962697.53651</v>
       </c>
       <c r="AN15" s="5" t="n">
-        <v>1807915731.43109</v>
+        <v>1890338227.58321</v>
       </c>
       <c r="AO15" s="5" t="n">
-        <v>1740266133.17555</v>
+        <v>1816101042.40605</v>
       </c>
       <c r="AP15" s="5" t="n">
-        <v>1793676016.03708</v>
+        <v>1875413079.1163</v>
       </c>
       <c r="AQ15" s="5" t="n">
-        <v>2098399876.13069</v>
+        <v>2195589729.03068</v>
       </c>
       <c r="AR15" s="5" t="n">
-        <v>2058289874.81238</v>
+        <v>2156665968.72236</v>
       </c>
       <c r="AS15" s="5" t="n">
-        <v>2120862934.95555</v>
+        <v>2229870031.17867</v>
       </c>
       <c r="AT15" s="5" t="n">
-        <v>1971823479.02351</v>
+        <v>2070957871.9781</v>
       </c>
       <c r="AU15" s="5" t="n">
-        <v>1851110286.1071</v>
+        <v>1938641356.95752</v>
       </c>
       <c r="AV15" s="5" t="n">
-        <v>725989333.644395</v>
-      </c>
-      <c r="AW15" s="5"/>
+        <v>2312237183.93</v>
+      </c>
+      <c r="AW15" s="5" t="n">
+        <v>2278783063.8619</v>
+      </c>
+      <c r="AX15" s="5" t="n">
+        <v>844136054.044895</v>
+      </c>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
       <c r="M16" t="s">
         <v>64</v>
       </c>
       <c r="N16" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="O16" s="5" t="n">
+        <v>1410568.28118644</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>1319945.52590805</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>933155.601803016</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>49490.4100957163</v>
+      </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="V16" s="5" t="n">
+        <v>236853.446696764</v>
+      </c>
+      <c r="W16" s="5" t="n">
+        <v>795473.864004217</v>
+      </c>
+      <c r="X16" s="5" t="n">
+        <v>1089237.49122985</v>
+      </c>
       <c r="Y16" s="5" t="n">
-        <v>5672799.12159866</v>
+        <v>6556001.26506953</v>
       </c>
       <c r="Z16" s="5" t="n">
-        <v>9672575.56371051</v>
+        <v>10064454.0104517</v>
       </c>
       <c r="AA16" s="5" t="n">
-        <v>10225292.3728799</v>
+        <v>10640102.1145122</v>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>8297738.60318566</v>
+        <v>8633670.68112705</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>30090384.4501886</v>
+        <v>31309339.1641572</v>
       </c>
       <c r="AD16" s="5" t="n">
-        <v>19188157.513348</v>
+        <v>19964049.0857244</v>
       </c>
       <c r="AE16" s="5" t="n">
-        <v>34183752.3106362</v>
+        <v>35593954.9993331</v>
       </c>
       <c r="AF16" s="5" t="n">
-        <v>14125494.1929205</v>
+        <v>15025968.2192581</v>
       </c>
       <c r="AG16" s="5" t="n">
-        <v>20830384.6741865</v>
+        <v>21915064.4531403</v>
       </c>
       <c r="AH16" s="5" t="n">
-        <v>18693921.1763948</v>
+        <v>19470621.0267655</v>
       </c>
       <c r="AI16" s="5" t="n">
-        <v>389007712.878114</v>
+        <v>404751261.655043</v>
       </c>
       <c r="AJ16" s="5" t="n">
-        <v>491196357.77111</v>
+        <v>511107891.631351</v>
       </c>
       <c r="AK16" s="5" t="n">
-        <v>584558467.225174</v>
+        <v>609307450.656607</v>
       </c>
       <c r="AL16" s="5" t="n">
-        <v>532828292.579809</v>
+        <v>556366142.824302</v>
       </c>
       <c r="AM16" s="5" t="n">
-        <v>610974931.454348</v>
+        <v>636663181.953154</v>
       </c>
       <c r="AN16" s="5" t="n">
-        <v>559203217.661313</v>
+        <v>589177323.240657</v>
       </c>
       <c r="AO16" s="5" t="n">
-        <v>785300703.680686</v>
+        <v>819671276.436065</v>
       </c>
       <c r="AP16" s="5" t="n">
-        <v>630747710.791165</v>
+        <v>655470243.077027</v>
       </c>
       <c r="AQ16" s="5" t="n">
-        <v>1539399052.44515</v>
+        <v>1609939274.68917</v>
       </c>
       <c r="AR16" s="5" t="n">
-        <v>542747890.619805</v>
+        <v>568264079.833625</v>
       </c>
       <c r="AS16" s="5" t="n">
-        <v>575208543.936043</v>
+        <v>602824277.884134</v>
       </c>
       <c r="AT16" s="5" t="n">
-        <v>455669056.257654</v>
+        <v>477286699.797584</v>
       </c>
       <c r="AU16" s="5" t="n">
-        <v>420820733.1242</v>
+        <v>440174048.656506</v>
       </c>
       <c r="AV16" s="5" t="n">
-        <v>227223937.82845</v>
-      </c>
-      <c r="AW16" s="5"/>
+        <v>674679825.3825</v>
+      </c>
+      <c r="AW16" s="5" t="n">
+        <v>651679079.736701</v>
+      </c>
+      <c r="AX16" s="5" t="n">
+        <v>215677804.158864</v>
+      </c>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
       <c r="M17" t="s">
         <v>64</v>
       </c>
       <c r="N17" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="O17" s="5" t="n">
+        <v>1338178.41338361</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>239627.0243706</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>2043591.2866208</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>3928777.17067532</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>11756199.7616891</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>66702535.76511</v>
+      </c>
+      <c r="U17" s="5" t="n">
+        <v>89244664.392455</v>
+      </c>
+      <c r="V17" s="5" t="n">
+        <v>148691180.113529</v>
+      </c>
+      <c r="W17" s="5" t="n">
+        <v>205768120.932306</v>
+      </c>
+      <c r="X17" s="5" t="n">
+        <v>330680571.294876</v>
+      </c>
       <c r="Y17" s="5" t="n">
-        <v>1023495691.0984</v>
+        <v>1090797839.71842</v>
       </c>
       <c r="Z17" s="5" t="n">
-        <v>1255271192.42387</v>
+        <v>1306127732.32743</v>
       </c>
       <c r="AA17" s="5" t="n">
-        <v>1773997240.68067</v>
+        <v>1847608131.02776</v>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>2334360818.13765</v>
+        <v>2429758260.97515</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>2394524072.82714</v>
+        <v>2492885778.76065</v>
       </c>
       <c r="AD17" s="5" t="n">
-        <v>2037766623.04866</v>
+        <v>2121448472.93374</v>
       </c>
       <c r="AE17" s="5" t="n">
-        <v>2071977101.83493</v>
+        <v>2156308579.84932</v>
       </c>
       <c r="AF17" s="5" t="n">
-        <v>2315959749.01111</v>
+        <v>2409562334.32247</v>
       </c>
       <c r="AG17" s="5" t="n">
-        <v>2134002401.58894</v>
+        <v>2220445220.73619</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>2162929963.58799</v>
+        <v>2250409164.66988</v>
       </c>
       <c r="AI17" s="5" t="n">
-        <v>1835063565.68202</v>
+        <v>2050681324.00231</v>
       </c>
       <c r="AJ17" s="5" t="n">
-        <v>1604208888.28007</v>
+        <v>1821587119.50012</v>
       </c>
       <c r="AK17" s="5" t="n">
-        <v>1253884484.83503</v>
+        <v>1427473610.25838</v>
       </c>
       <c r="AL17" s="5" t="n">
-        <v>826464422.670453</v>
+        <v>954591075.985442</v>
       </c>
       <c r="AM17" s="5" t="n">
-        <v>854035608.970972</v>
+        <v>985037852.219942</v>
       </c>
       <c r="AN17" s="5" t="n">
-        <v>683857304.082738</v>
+        <v>784338062.805606</v>
       </c>
       <c r="AO17" s="5" t="n">
-        <v>779699036.723886</v>
+        <v>828236464.801185</v>
       </c>
       <c r="AP17" s="5" t="n">
-        <v>684658625.243145</v>
+        <v>742373719.511853</v>
       </c>
       <c r="AQ17" s="5" t="n">
-        <v>760716788.317525</v>
+        <v>795701045.326299</v>
       </c>
       <c r="AR17" s="5" t="n">
-        <v>699677156.847568</v>
+        <v>732185539.637039</v>
       </c>
       <c r="AS17" s="5" t="n">
-        <v>792902737.091978</v>
+        <v>832359697.388482</v>
       </c>
       <c r="AT17" s="5" t="n">
-        <v>816378467.657647</v>
+        <v>866467818.739494</v>
       </c>
       <c r="AU17" s="5" t="n">
-        <v>862494349.7389</v>
+        <v>905736145.601716</v>
       </c>
       <c r="AV17" s="5" t="n">
-        <v>285428647.762963</v>
-      </c>
-      <c r="AW17" s="5"/>
+        <v>991730587.7387</v>
+      </c>
+      <c r="AW17" s="5" t="n">
+        <v>1161044041.40282</v>
+      </c>
+      <c r="AX17" s="5" t="n">
+        <v>238295162.79345</v>
+      </c>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
       <c r="M18" t="s">
         <v>64</v>
       </c>
@@ -10207,177 +11250,229 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="T18" s="5" t="n">
+        <v>215030.719530251</v>
+      </c>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="V18" s="5" t="n">
+        <v>423899397.291029</v>
+      </c>
+      <c r="W18" s="5" t="n">
+        <v>595942604.465055</v>
+      </c>
+      <c r="X18" s="5" t="n">
+        <v>938867050.568379</v>
+      </c>
       <c r="Y18" s="5" t="n">
-        <v>2618642403.53886</v>
+        <v>2744573427.78005</v>
       </c>
       <c r="Z18" s="5" t="n">
-        <v>3052381790.33096</v>
+        <v>3181981928.84732</v>
       </c>
       <c r="AA18" s="5" t="n">
-        <v>4197868285.19308</v>
+        <v>4379146505.01422</v>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>6719333511.33182</v>
+        <v>6991466930.15854</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>9084131056.35918</v>
+        <v>9452097126.1351</v>
       </c>
       <c r="AD18" s="5" t="n">
-        <v>9434264549.67942</v>
+        <v>9815880104.85475</v>
       </c>
       <c r="AE18" s="5" t="n">
-        <v>12171904970.173</v>
+        <v>12664988526.6387</v>
       </c>
       <c r="AF18" s="5" t="n">
-        <v>10735934916.8003</v>
+        <v>11169689178.1452</v>
       </c>
       <c r="AG18" s="5" t="n">
-        <v>15116048078.812</v>
+        <v>15728231766.8287</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>16818312399.4254</v>
+        <v>17498324637.7234</v>
       </c>
       <c r="AI18" s="5" t="n">
-        <v>16057188143.8047</v>
+        <v>16706824535.4915</v>
       </c>
       <c r="AJ18" s="5" t="n">
-        <v>14614400003.7808</v>
+        <v>15207829091.1492</v>
       </c>
       <c r="AK18" s="5" t="n">
-        <v>12034876408.7571</v>
+        <v>12523850344.94</v>
       </c>
       <c r="AL18" s="5" t="n">
-        <v>9570359016.29806</v>
+        <v>10011518327.0825</v>
       </c>
       <c r="AM18" s="5" t="n">
-        <v>11180526213.3538</v>
+        <v>11650442965.5255</v>
       </c>
       <c r="AN18" s="5" t="n">
-        <v>9127163691.82712</v>
+        <v>9560516791.17369</v>
       </c>
       <c r="AO18" s="5" t="n">
-        <v>8800017997.28073</v>
+        <v>9201803932.04749</v>
       </c>
       <c r="AP18" s="5" t="n">
-        <v>8668518881.66675</v>
+        <v>9116983826.98708</v>
       </c>
       <c r="AQ18" s="5" t="n">
-        <v>10861499602.662</v>
+        <v>11409971831.7194</v>
       </c>
       <c r="AR18" s="5" t="n">
-        <v>11881990052.2398</v>
+        <v>12534631335.8265</v>
       </c>
       <c r="AS18" s="5" t="n">
-        <v>17382010246.5033</v>
+        <v>18434506115.802</v>
       </c>
       <c r="AT18" s="5" t="n">
-        <v>11640801267.6511</v>
+        <v>12509325711.9849</v>
       </c>
       <c r="AU18" s="5" t="n">
-        <v>13261980631.5118</v>
+        <v>13907530803.4339</v>
       </c>
       <c r="AV18" s="5" t="n">
-        <v>4458853717.46891</v>
-      </c>
-      <c r="AW18" s="5"/>
+        <v>16104449494.7756</v>
+      </c>
+      <c r="AW18" s="5" t="n">
+        <v>17154173765.5393</v>
+      </c>
+      <c r="AX18" s="5" t="n">
+        <v>4353166198.42128</v>
+      </c>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
       <c r="M19" t="s">
         <v>64</v>
       </c>
       <c r="N19" t="s">
         <v>68</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="O19" s="5" t="n">
+        <v>65260499.9652136</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>60346072.303996</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>669555703.422297</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>114716867.124559</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>96858716.9717615</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>80124398.596616</v>
+      </c>
+      <c r="U19" s="5" t="n">
+        <v>155333985.435642</v>
+      </c>
+      <c r="V19" s="5" t="n">
+        <v>933060490.434829</v>
+      </c>
+      <c r="W19" s="5" t="n">
+        <v>1705696005.6387</v>
+      </c>
+      <c r="X19" s="5" t="n">
+        <v>4094736201.54735</v>
+      </c>
       <c r="Y19" s="5" t="n">
-        <v>10417019876.28</v>
+        <v>11461260327.8507</v>
       </c>
       <c r="Z19" s="5" t="n">
-        <v>11747769952.4144</v>
+        <v>12324822658.2216</v>
       </c>
       <c r="AA19" s="5" t="n">
-        <v>12086059798.7216</v>
+        <v>12704589241.6942</v>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>19802229218.2449</v>
+        <v>20782282520.8168</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>19398190953.6403</v>
+        <v>20228856153.503</v>
       </c>
       <c r="AD19" s="5" t="n">
-        <v>21147226121.9781</v>
+        <v>22062131610.8202</v>
       </c>
       <c r="AE19" s="5" t="n">
-        <v>21580268310.4026</v>
+        <v>22454866955.4706</v>
       </c>
       <c r="AF19" s="5" t="n">
-        <v>21573885633.998</v>
+        <v>22452635704.715</v>
       </c>
       <c r="AG19" s="5" t="n">
-        <v>24011126656.359</v>
+        <v>24986491149.3436</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>24655623981.1116</v>
+        <v>25653133239.406</v>
       </c>
       <c r="AI19" s="5" t="n">
-        <v>20823250210.4609</v>
+        <v>21660674601.7639</v>
       </c>
       <c r="AJ19" s="5" t="n">
-        <v>19814128651.0447</v>
+        <v>20618444011.6633</v>
       </c>
       <c r="AK19" s="5" t="n">
-        <v>18275836119.6904</v>
+        <v>19018528725.3409</v>
       </c>
       <c r="AL19" s="5" t="n">
-        <v>13284532392.0637</v>
+        <v>13931626595.1619</v>
       </c>
       <c r="AM19" s="5" t="n">
-        <v>13566981144.1203</v>
+        <v>14138392221.2882</v>
       </c>
       <c r="AN19" s="5" t="n">
-        <v>12656701271.1479</v>
+        <v>13188254160.1275</v>
       </c>
       <c r="AO19" s="5" t="n">
-        <v>12781247893.9125</v>
+        <v>13341687851.3885</v>
       </c>
       <c r="AP19" s="5" t="n">
-        <v>12232166691.2523</v>
+        <v>12731471940.0435</v>
       </c>
       <c r="AQ19" s="5" t="n">
-        <v>14657279039.3616</v>
+        <v>15281260876.8707</v>
       </c>
       <c r="AR19" s="5" t="n">
-        <v>13837206473.6387</v>
+        <v>14386841612.3631</v>
       </c>
       <c r="AS19" s="5" t="n">
-        <v>14705335041.0923</v>
+        <v>15160099179.8649</v>
       </c>
       <c r="AT19" s="5" t="n">
-        <v>15128163554.3369</v>
+        <v>15582046006.1953</v>
       </c>
       <c r="AU19" s="5" t="n">
-        <v>15024247924.5095</v>
+        <v>15708977175.2138</v>
       </c>
       <c r="AV19" s="5" t="n">
-        <v>6293081723.26109</v>
-      </c>
-      <c r="AW19" s="5"/>
+        <v>16467671477.4858</v>
+      </c>
+      <c r="AW19" s="5" t="n">
+        <v>16144961391.7578</v>
+      </c>
+      <c r="AX19" s="5" t="n">
+        <v>7721536493.50795</v>
+      </c>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
       <c r="M20" t="s">
         <v>64</v>
       </c>
@@ -10385,119 +11480,141 @@
         <v>69</v>
       </c>
       <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
+      <c r="P20" s="5" t="n">
+        <v>7987.56747901999</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="T20" s="5" t="n">
+        <v>850039.151873035</v>
+      </c>
+      <c r="U20" s="5" t="n">
+        <v>2755437.51755383</v>
+      </c>
+      <c r="V20" s="5" t="n">
+        <v>19605935.5574368</v>
+      </c>
+      <c r="W20" s="5" t="n">
+        <v>30815718.4594475</v>
+      </c>
+      <c r="X20" s="5" t="n">
+        <v>69515051.6720439</v>
+      </c>
       <c r="Y20" s="5" t="n">
-        <v>848797632.671109</v>
+        <v>214500672.597966</v>
       </c>
       <c r="Z20" s="5" t="n">
-        <v>233067672.721853</v>
+        <v>135476462.008605</v>
       </c>
       <c r="AA20" s="5" t="n">
-        <v>201743206.640615</v>
+        <v>69065173.1374691</v>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>236159803.841289</v>
+        <v>66362079.8987074</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>140268109.22412</v>
+        <v>99999199.2009889</v>
       </c>
       <c r="AD20" s="5" t="n">
-        <v>169838316.572986</v>
+        <v>117157501.920826</v>
       </c>
       <c r="AE20" s="5" t="n">
-        <v>32998207.4027392</v>
+        <v>33175322.9104281</v>
       </c>
       <c r="AF20" s="5" t="n">
-        <v>29145290.5277223</v>
+        <v>22840190.8263027</v>
       </c>
       <c r="AG20" s="5" t="n">
-        <v>8336620.14872188</v>
+        <v>4672912.83026104</v>
       </c>
       <c r="AH20" s="5" t="n">
-        <v>727367.92498079</v>
+        <v>104497.246893138</v>
       </c>
       <c r="AI20" s="5" t="n">
-        <v>136890076.480915</v>
+        <v>336951.292576811</v>
       </c>
       <c r="AJ20" s="5" t="n">
-        <v>147268682.480112</v>
+        <v>65146.9371989801</v>
       </c>
       <c r="AK20" s="5" t="n">
-        <v>119626379.595514</v>
+        <v>295891.677530174</v>
       </c>
       <c r="AL20" s="5" t="n">
-        <v>91278088.2126578</v>
+        <v>72815.2891842096</v>
       </c>
       <c r="AM20" s="5" t="n">
-        <v>94650959.4176016</v>
+        <v>76251.6398968627</v>
       </c>
       <c r="AN20" s="5" t="n">
-        <v>73649267.2675566</v>
+        <v>8729.58129942454</v>
       </c>
       <c r="AO20" s="5" t="n">
-        <v>17429670.2435989</v>
+        <v>97632.4648861747</v>
       </c>
       <c r="AP20" s="5" t="n">
-        <v>27747628.4306076</v>
+        <v>195770.788047678</v>
       </c>
       <c r="AQ20" s="5" t="n">
-        <v>2516032.85331451</v>
+        <v>2631218.61229448</v>
       </c>
       <c r="AR20" s="5" t="n">
-        <v>1290116.6750298</v>
+        <v>1350632.26532315</v>
       </c>
       <c r="AS20" s="5" t="n">
-        <v>1637442.70768006</v>
+        <v>1714719.64503586</v>
       </c>
       <c r="AT20" s="5" t="n">
-        <v>2064333.61650635</v>
+        <v>2160078.58009537</v>
       </c>
       <c r="AU20" s="5" t="n">
-        <v>1306848.125</v>
+        <v>1366631.97653318</v>
       </c>
       <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
+      <c r="AW20" s="5" t="n">
+        <v>20632.2552391698</v>
+      </c>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21" s="5" t="n">
-        <v>24214566738.8981</v>
+        <v>25198367586.5573</v>
       </c>
       <c r="P21" s="5" t="n">
-        <v>35489211630.4335</v>
+        <v>36928181612.1716</v>
       </c>
       <c r="Q21" s="5" t="n">
-        <v>33060305718.1975</v>
+        <v>34399575192.8933</v>
       </c>
       <c r="R21" s="5" t="n">
-        <v>31423990993.4659</v>
+        <v>32697963461.0589</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36401261590.1566</v>
+        <v>37875499873.6697</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35305115235.9255</v>
+        <v>36733922816.8792</v>
       </c>
       <c r="U21" s="5" t="n">
-        <v>34903150795.6185</v>
+        <v>36314476069.6697</v>
       </c>
       <c r="V21" s="5" t="n">
-        <v>34202156353.7648</v>
+        <v>35585740716.3711</v>
       </c>
       <c r="W21" s="5" t="n">
-        <v>32671693107.2574</v>
+        <v>33991644649.0244</v>
       </c>
       <c r="X21" s="5" t="n">
-        <v>33985149527.8471</v>
+        <v>35361050506.1029</v>
       </c>
       <c r="Y21" s="5" t="n">
         <v>0</v>
@@ -10512,58 +11629,91 @@
         <v>0</v>
       </c>
       <c r="AC21" s="5" t="n">
-        <v>218871.502685086</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="5" t="n">
-        <v>1436440.91009477</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="5" t="n">
-        <v>-336740.762567178</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5"/>
       <c r="AS21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
+      <c r="AU21" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="AV21" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="5"/>
+      <c r="AW21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -659,14 +659,14 @@
     <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="199" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -707,15 +707,15 @@
     <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="199" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -656,17 +656,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="198" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="196" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="200" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="201" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="202" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -704,18 +704,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="198" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="201" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="202" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,6 +1121,12 @@
       <c r="AU1" t="s">
         <v>34</v>
       </c>
+      <c r="AV1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1130,109 +1136,115 @@
         <v>35</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1679429769</v>
+        <v>1681863769</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2118728788</v>
+        <v>2125063788</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>1828667742</v>
+        <v>1831233742</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1632119796</v>
+        <v>1636938796</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1576878967</v>
+        <v>1584011967</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>1669450272</v>
+        <v>1706925272</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1462639723</v>
+        <v>1518877723</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>1404515054</v>
+        <v>1644299326</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1290369360</v>
+        <v>1618658410</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>1574420344</v>
+        <v>2121817744</v>
       </c>
       <c r="X2" s="1" t="n">
         <v>1665379208</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>1982549260.2202</v>
+        <v>1982549260.22</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>2694954548.4118</v>
+        <v>2694954548.4116</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>3961331927.4844</v>
+        <v>3961331927.4866</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>4585604093.6102</v>
+        <v>4585604093.6099</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>5266883423.6814</v>
+        <v>5266883423.6697</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>6202627182.0073</v>
+        <v>6202627182.1701</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>6411446430.189</v>
+        <v>6411446429.8079</v>
       </c>
       <c r="AF2" s="1" t="n">
-        <v>7431090643.3443</v>
+        <v>7430362574.2195</v>
       </c>
       <c r="AG2" s="1" t="n">
-        <v>7904057807.8159</v>
+        <v>7904084457.9937</v>
       </c>
       <c r="AH2" s="1" t="n">
-        <v>8010346376.7066</v>
+        <v>8006672818.1334</v>
       </c>
       <c r="AI2" s="1" t="n">
-        <v>7973429664.4802</v>
+        <v>7971316702.7309</v>
       </c>
       <c r="AJ2" s="1" t="n">
-        <v>6009656982.0923</v>
+        <v>6005706366.7175</v>
       </c>
       <c r="AK2" s="1" t="n">
-        <v>4369580201.6394</v>
+        <v>4410878676.8274</v>
       </c>
       <c r="AL2" s="1" t="n">
-        <v>4631218688.5049</v>
+        <v>4628152101.768</v>
       </c>
       <c r="AM2" s="1" t="n">
-        <v>4637172944.7989</v>
+        <v>4668778991.1913</v>
       </c>
       <c r="AN2" s="1" t="n">
-        <v>4570564050.7567</v>
+        <v>4566358477.3699</v>
       </c>
       <c r="AO2" s="1" t="n">
-        <v>5427755283.6966</v>
+        <v>5425946630.0602</v>
       </c>
       <c r="AP2" s="1" t="n">
-        <v>6190020147.9945</v>
+        <v>6191706127.0193</v>
       </c>
       <c r="AQ2" s="1" t="n">
-        <v>6041786944.2626</v>
+        <v>6041165121.4569</v>
       </c>
       <c r="AR2" s="1" t="n">
-        <v>6147095891.1613</v>
+        <v>6150257891.9175</v>
       </c>
       <c r="AS2" s="1" t="n">
-        <v>7709886189.6086</v>
+        <v>7716113562.2849</v>
       </c>
       <c r="AT2" s="1" t="n">
-        <v>7533551585.9943</v>
+        <v>7546005535.2749</v>
       </c>
       <c r="AU2" s="1" t="n">
-        <v>7236151002.0956</v>
-      </c>
-      <c r="AV2" s="1"/>
-      <c r="AW2" s="1"/>
+        <v>7235776346.2998</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>7500191247.34</v>
+      </c>
+      <c r="AW2" s="1" t="n">
+        <v>2768880415.46</v>
+      </c>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -1242,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>258265000</v>
+        <v>258292000</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>164572171</v>
@@ -1263,13 +1275,13 @@
         <v>145450442</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>207291211</v>
+        <v>216436955</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>101158482</v>
+        <v>102172835</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>110390824</v>
+        <v>112728220</v>
       </c>
       <c r="X3" s="1" t="n">
         <v>108233267</v>
@@ -1287,25 +1299,25 @@
         <v>114975332</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>238174964</v>
+        <v>239753604.03</v>
       </c>
       <c r="AD3" s="1" t="n">
         <v>127752082.679</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>130744352.305</v>
+        <v>130744352.3058</v>
       </c>
       <c r="AF3" s="1" t="n">
-        <v>125498604.8215</v>
+        <v>125498604.8314</v>
       </c>
       <c r="AG3" s="1" t="n">
-        <v>166814714.8101</v>
+        <v>166814714.8208</v>
       </c>
       <c r="AH3" s="1" t="n">
-        <v>134687138.9057</v>
+        <v>134687139.1557</v>
       </c>
       <c r="AI3" s="1" t="n">
-        <v>134905925.7363</v>
+        <v>134905925.9147</v>
       </c>
       <c r="AJ3" s="1" t="n">
         <v>78081512.3668</v>
@@ -1317,34 +1329,40 @@
         <v>75581169.8288</v>
       </c>
       <c r="AM3" s="1" t="n">
-        <v>86143089.7131</v>
+        <v>86143089.6424</v>
       </c>
       <c r="AN3" s="1" t="n">
-        <v>111377844.0195</v>
+        <v>111377844.3126</v>
       </c>
       <c r="AO3" s="1" t="n">
-        <v>128062592.8581</v>
+        <v>128062592.5942</v>
       </c>
       <c r="AP3" s="1" t="n">
-        <v>159541059.0146</v>
+        <v>159541059.1137</v>
       </c>
       <c r="AQ3" s="1" t="n">
-        <v>114983650.5834</v>
+        <v>114983650.221</v>
       </c>
       <c r="AR3" s="1" t="n">
-        <v>210889648.927</v>
+        <v>210889647.7701</v>
       </c>
       <c r="AS3" s="1" t="n">
-        <v>151472287.7099</v>
+        <v>156526414.3933</v>
       </c>
       <c r="AT3" s="1" t="n">
-        <v>152603678.4381</v>
+        <v>152603678.4511</v>
       </c>
       <c r="AU3" s="1" t="n">
-        <v>143146073.3443</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
+        <v>143169818.2631</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>123354920.78</v>
+      </c>
+      <c r="AW3" s="1" t="n">
+        <v>64220893.44</v>
+      </c>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -1354,109 +1372,115 @@
         <v>37</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>10245541536</v>
+        <v>10329990618.56</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>16209528909</v>
+        <v>16257223909</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>15664516818</v>
+        <v>16039233837</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>15408653972</v>
+        <v>15495469972</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>18598404779</v>
+        <v>18672247192.16</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>18242769776</v>
+        <v>18320842851</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>18674706420</v>
+        <v>18832566420</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>18616706452</v>
+        <v>20236631777</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>18173090419</v>
+        <v>20535601869.02</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>18920018223</v>
+        <v>23408173621.99</v>
       </c>
       <c r="X4" s="1" t="n">
         <v>19026317334.0744</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>20953091364.9784</v>
+        <v>20953091361.9784</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>23234941539.8497</v>
+        <v>23234941547.8533</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>30406487082.6228</v>
+        <v>30406487086.6116</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>31002461756.0356</v>
+        <v>31002553796.0321</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>34053418745.3445</v>
+        <v>34053531254.6157</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>39219081393.5801</v>
+        <v>39218989368.4377</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>39654839410.9709</v>
+        <v>39654839405.7485</v>
       </c>
       <c r="AF4" s="1" t="n">
-        <v>49734522926.2905</v>
+        <v>49733949913.2182</v>
       </c>
       <c r="AG4" s="1" t="n">
-        <v>44391208183.8079</v>
+        <v>58293267442.0026</v>
       </c>
       <c r="AH4" s="1" t="n">
-        <v>53095131695.7478</v>
+        <v>53094665383.9147</v>
       </c>
       <c r="AI4" s="1" t="n">
-        <v>46472291627.9029</v>
+        <v>46474975400.9543</v>
       </c>
       <c r="AJ4" s="1" t="n">
-        <v>42923923151.9419</v>
+        <v>42924196780.9182</v>
       </c>
       <c r="AK4" s="1" t="n">
-        <v>34815448374.2599</v>
+        <v>35052760265.655</v>
       </c>
       <c r="AL4" s="1" t="n">
-        <v>37506555302.9356</v>
+        <v>37493881383.8992</v>
       </c>
       <c r="AM4" s="1" t="n">
-        <v>33404473025.4566</v>
+        <v>33340216803.8596</v>
       </c>
       <c r="AN4" s="1" t="n">
-        <v>33879532232.496</v>
+        <v>33867802752.3647</v>
       </c>
       <c r="AO4" s="1" t="n">
-        <v>32885035919.5207</v>
+        <v>32926190934.8838</v>
       </c>
       <c r="AP4" s="1" t="n">
-        <v>40602788440.6486</v>
+        <v>40606619223.6059</v>
       </c>
       <c r="AQ4" s="1" t="n">
-        <v>45886389304.3638</v>
+        <v>45921854287.2376</v>
       </c>
       <c r="AR4" s="1" t="n">
-        <v>53808745353.7262</v>
+        <v>53838857882.2752</v>
       </c>
       <c r="AS4" s="1" t="n">
-        <v>43296449481.9776</v>
+        <v>43441875584.6082</v>
       </c>
       <c r="AT4" s="1" t="n">
-        <v>49592442991.947</v>
+        <v>49670507428.6132</v>
       </c>
       <c r="AU4" s="1" t="n">
-        <v>57672558423.4365</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
+        <v>57652947465.6497</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>58644789160.7782</v>
+      </c>
+      <c r="AW4" s="1" t="n">
+        <v>19216132001.62</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -1567,8 +1591,16 @@
       <c r="AU5" s="1" t="str">
         <f>Sum(AU2:AU4)</f>
       </c>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
+      <c r="AV5" s="1" t="str">
+        <f>Sum(AV2:AV4)</f>
+      </c>
+      <c r="AW5" s="1" t="str">
+        <f>Sum(AW2:AW4)</f>
+      </c>
+      <c r="AX5" s="1" t="str">
+        <f>Sum(AX2:AX4)</f>
+      </c>
+      <c r="AY5" s="1"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -1679,6 +1711,12 @@
       <c r="AU8" t="s">
         <v>34</v>
       </c>
+      <c r="AV8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -1688,109 +1726,115 @@
         <v>35</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>3337919679.6875</v>
+        <v>3478568454.29336</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>4066009090.09259</v>
+        <v>4243522600.96796</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>3423790195.3029</v>
+        <v>3567486481.33194</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>2985660169.42136</v>
+        <v>3115875858.29339</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>2823093093.87599</v>
+        <v>2950714800.97577</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>2926825458.87416</v>
+        <v>3113633713.56551</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>2516947532.23946</v>
+        <v>2719410436.99216</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>2374739267.79371</v>
+        <v>2892630332.92433</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>2154836407.36128</v>
+        <v>2812263482.31661</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>2596814066.99227</v>
+        <v>3641364991.99075</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>2690803230.62638</v>
+        <v>2799791211.04171</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>3127426136.52622</v>
+        <v>3254131881.91989</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>4185172355.16341</v>
+        <v>4354952367.31576</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>6036429451.43015</v>
+        <v>6280812937.81956</v>
       </c>
       <c r="AB9" s="1" t="n">
-        <v>6820991298.78172</v>
+        <v>7097308123.89037</v>
       </c>
       <c r="AC9" s="1" t="n">
-        <v>7603561041.23757</v>
+        <v>7911018332.40817</v>
       </c>
       <c r="AD9" s="1" t="n">
-        <v>8672108811.24785</v>
+        <v>9023414370.44831</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>8724804937.21833</v>
+        <v>9077305333.72774</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>9905761028.15418</v>
+        <v>10305923861.6961</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>10430242065.9186</v>
+        <v>10852003028.1676</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>10479357145.4648</v>
+        <v>10898467334.4259</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>10224989788.0711</v>
+        <v>10636845545.7482</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>7567961036.10487</v>
+        <v>7871124935.21715</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>5403724192.75089</v>
+        <v>5677907412.17111</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>5618587375.37786</v>
+        <v>5850854671.43376</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>5562045806.74774</v>
+        <v>5841716394.47784</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>5437097404.37916</v>
+        <v>5668246690.77639</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>6343547315.23726</v>
+        <v>6623453052.58685</v>
       </c>
       <c r="AP9" s="1" t="n">
-        <v>7068455179.14925</v>
+        <v>7394067371.0364</v>
       </c>
       <c r="AQ9" s="1" t="n">
-        <v>6766650925.15078</v>
+        <v>7083325585.24003</v>
       </c>
       <c r="AR9" s="1" t="n">
-        <v>6793959856.03292</v>
+        <v>7118251453.0676</v>
       </c>
       <c r="AS9" s="1" t="n">
-        <v>8244085660.82662</v>
+        <v>8633418721.78493</v>
       </c>
       <c r="AT9" s="1" t="n">
-        <v>7533551585.9943</v>
+        <v>7891209592.24167</v>
       </c>
       <c r="AU9" s="1" t="n">
-        <v>6901829099.14805</v>
-      </c>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
+        <v>7235776346.2998</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>7305101299.69165</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>2638954031.29151</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -1800,109 +1844,115 @@
         <v>36</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>513309840.034456</v>
+        <v>534220678.129336</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>315827087.946413</v>
+        <v>328632830.257829</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>308049851.504265</v>
+        <v>320528918.28365</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>251058945.261028</v>
+        <v>261237225.418758</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>281365642.352334</v>
+        <v>292760851.845107</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>395664168.915332</v>
+        <v>411676805.052621</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>250294809.650154</v>
+        <v>260415597.681343</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>350485797.377727</v>
+        <v>380753121.587534</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>168928360.114658</v>
+        <v>177515485.033844</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>182076181.70238</v>
+        <v>193458931.653383</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>174875741.87659</v>
+        <v>181958888.542177</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>206083326.683741</v>
+        <v>214432665.846629</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>206340800.835319</v>
+        <v>214711434.276542</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>120466942.101055</v>
+        <v>125344019.111859</v>
       </c>
       <c r="AB10" s="1" t="n">
-        <v>171023429.658776</v>
+        <v>177951550.372114</v>
       </c>
       <c r="AC10" s="1" t="n">
-        <v>343842407.661026</v>
+        <v>360117170.66271</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>178614630.437499</v>
+        <v>185850276.801108</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>177919129.938118</v>
+        <v>185107435.511362</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>167291619.547392</v>
+        <v>174066750.205303</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>220129697.673265</v>
+        <v>229030167.88332</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>176201448.116898</v>
+        <v>183332505.248775</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>173001051.122193</v>
+        <v>180017122.725685</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>98328048.5047503</v>
+        <v>102334230.387241</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>68902376.708189</v>
+        <v>71720603.7975324</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>91694958.7525263</v>
+        <v>95548813.1853602</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>103324119.376751</v>
+        <v>107784819.111041</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>132493972.275372</v>
+        <v>138253950.183588</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>149669812.776462</v>
+        <v>156326006.80977</v>
       </c>
       <c r="AP10" s="1" t="n">
-        <v>182181769.673895</v>
+        <v>190522178.432439</v>
       </c>
       <c r="AQ10" s="1" t="n">
-        <v>128778825.333494</v>
+        <v>134819461.99449</v>
       </c>
       <c r="AR10" s="1" t="n">
-        <v>233081740.423645</v>
+        <v>244081722.759824</v>
       </c>
       <c r="AS10" s="1" t="n">
-        <v>161967438.223</v>
+        <v>175134549.999653</v>
       </c>
       <c r="AT10" s="1" t="n">
-        <v>152603678.4381</v>
+        <v>159584777.081775</v>
       </c>
       <c r="AU10" s="1" t="n">
-        <v>136532492.778323</v>
-      </c>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
+        <v>143169818.2631</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>120146295.260528</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>61207405.2351138</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -1912,109 +1962,115 @@
         <v>37</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>20363337219.1762</v>
+        <v>21365333008.056</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>31107375452.3945</v>
+        <v>32463918248.6686</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>29328465671.3903</v>
+        <v>31246557210.0731</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>28187271878.7835</v>
+        <v>29495275520.7745</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>33296802853.9283</v>
+        <v>34782866105.3195</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>31982625608.136</v>
+        <v>33419385662.3674</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>32135908453.7289</v>
+        <v>33717972752.1068</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>31476931288.5933</v>
+        <v>35600023662.8271</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>30347928339.7815</v>
+        <v>35678635385.2371</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>31206259279.1525</v>
+        <v>40172019578.3015</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>30741392653.1081</v>
+        <v>31986538437.9364</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>33053022636.4095</v>
+        <v>34392145503.7278</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>36083070515.5024</v>
+        <v>37546853529.6473</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>46334570669.6772</v>
+        <v>48210415330.7864</v>
       </c>
       <c r="AB11" s="1" t="n">
-        <v>46115521000.4721</v>
+        <v>47983792849.572</v>
       </c>
       <c r="AC11" s="1" t="n">
-        <v>49161378231.544</v>
+        <v>51149434754.4902</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>54833561866.9645</v>
+        <v>57054725661.8776</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>53962977378.7629</v>
+        <v>56143194704.4597</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>66296903456.3374</v>
+        <v>68981061963.975</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>58578904432.8418</v>
+        <v>80034407294.6519</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>69460522873.6673</v>
+        <v>72271028111.4955</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>59595271711.0407</v>
+        <v>62015743887.4606</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>54054096414.9269</v>
+        <v>56256782296.0542</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>43055184246.5034</v>
+        <v>45121696131.6589</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>45502895089.3737</v>
+        <v>47399317529.2074</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>40066913899.8257</v>
+        <v>41716279880.8893</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>40302753602.6734</v>
+        <v>42040295746.8922</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>38433527382.0015</v>
+        <v>40193001281.9337</v>
       </c>
       <c r="AP11" s="1" t="n">
-        <v>46364790966.664</v>
+        <v>48491978154.3159</v>
       </c>
       <c r="AQ11" s="1" t="n">
-        <v>51391613359.1994</v>
+        <v>53843826290.9141</v>
       </c>
       <c r="AR11" s="1" t="n">
-        <v>59471083957.2815</v>
+        <v>62312594867.8749</v>
       </c>
       <c r="AS11" s="1" t="n">
-        <v>46296356335.3451</v>
+        <v>48606322205.3652</v>
       </c>
       <c r="AT11" s="1" t="n">
-        <v>49592442991.947</v>
+        <v>51942764001.4188</v>
       </c>
       <c r="AU11" s="1" t="n">
-        <v>55007992762.1625</v>
-      </c>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
+        <v>57652947465.6497</v>
+      </c>
+      <c r="AV11" s="1" t="n">
+        <v>57119360212.3787</v>
+      </c>
+      <c r="AW11" s="1" t="n">
+        <v>18314438113.0957</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -2056,6 +2112,8 @@
       <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3699,6 +3757,12 @@
       <c r="AV1" t="s">
         <v>34</v>
       </c>
+      <c r="AW1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -3713,109 +3777,115 @@
       <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>3300216000</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>4350671000</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>4128257475</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>3841622331</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>4603395948</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>4666696807</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>4542484966</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>4035441785</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>3947895142</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>3913934610</v>
-      </c>
-      <c r="Y2" s="2" t="n">
+      <c r="O2" s="12" t="n">
+        <v>3316082000</v>
+      </c>
+      <c r="P2" s="12" t="n">
+        <v>4363274000</v>
+      </c>
+      <c r="Q2" s="12" t="n">
+        <v>4452553494</v>
+      </c>
+      <c r="R2" s="12" t="n">
+        <v>3866317331</v>
+      </c>
+      <c r="S2" s="12" t="n">
+        <v>4615162948</v>
+      </c>
+      <c r="T2" s="12" t="n">
+        <v>4685524807</v>
+      </c>
+      <c r="U2" s="12" t="n">
+        <v>4566837966</v>
+      </c>
+      <c r="V2" s="12" t="n">
+        <v>4509646594</v>
+      </c>
+      <c r="W2" s="12" t="n">
+        <v>4710846623</v>
+      </c>
+      <c r="X2" s="12" t="n">
+        <v>5418018722</v>
+      </c>
+      <c r="Y2" s="12" t="n">
         <v>4105935540.28</v>
       </c>
-      <c r="Z2" s="2" t="n">
-        <v>3936262683.5313</v>
-      </c>
-      <c r="AA2" s="2" t="n">
+      <c r="Z2" s="12" t="n">
+        <v>3936262679.5313</v>
+      </c>
+      <c r="AA2" s="12" t="n">
         <v>4496416502.6259</v>
       </c>
-      <c r="AB2" s="2" t="n">
-        <v>6361775498.2084</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>6568857908.0027</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>7145918857.3836</v>
-      </c>
-      <c r="AE2" s="2" t="n">
-        <v>7755593001.4922</v>
-      </c>
-      <c r="AF2" s="2" t="n">
-        <v>7762482772.303</v>
-      </c>
-      <c r="AG2" s="2" t="n">
-        <v>7470428615.5145</v>
-      </c>
-      <c r="AH2" s="2" t="n">
-        <v>8248439755.6196</v>
-      </c>
-      <c r="AI2" s="2" t="n">
-        <v>7371961603.3731</v>
-      </c>
-      <c r="AJ2" s="2" t="n">
-        <v>6780055531.5519</v>
-      </c>
-      <c r="AK2" s="2" t="n">
-        <v>6048593422.0114</v>
-      </c>
-      <c r="AL2" s="2" t="n">
-        <v>4790908943.2136</v>
-      </c>
-      <c r="AM2" s="2" t="n">
-        <v>5906564207.3707</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>5508981468.9115</v>
-      </c>
-      <c r="AO2" s="2" t="n">
-        <v>5490750662.4538</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>5333767188.8064</v>
-      </c>
-      <c r="AQ2" s="2" t="n">
-        <v>5380749852.8155</v>
-      </c>
-      <c r="AR2" s="2" t="n">
-        <v>5917678622.067</v>
-      </c>
-      <c r="AS2" s="2" t="n">
-        <v>6354417423.899</v>
-      </c>
-      <c r="AT2" s="2" t="n">
-        <v>6466770009.4152</v>
-      </c>
-      <c r="AU2" s="2" t="n">
-        <v>7636001025.7959</v>
-      </c>
-      <c r="AV2" s="2" t="n">
-        <v>2967525851.1888</v>
-      </c>
-      <c r="AW2" s="2"/>
+      <c r="AB2" s="12" t="n">
+        <v>6361775495.3044</v>
+      </c>
+      <c r="AC2" s="12" t="n">
+        <v>6568857900.9579</v>
+      </c>
+      <c r="AD2" s="12" t="n">
+        <v>7146031366.0226</v>
+      </c>
+      <c r="AE2" s="12" t="n">
+        <v>7755593010.3825</v>
+      </c>
+      <c r="AF2" s="12" t="n">
+        <v>7762482771.9264</v>
+      </c>
+      <c r="AG2" s="12" t="n">
+        <v>7470428609.8583</v>
+      </c>
+      <c r="AH2" s="12" t="n">
+        <v>8248430328.9917</v>
+      </c>
+      <c r="AI2" s="12" t="n">
+        <v>7372846183.7068</v>
+      </c>
+      <c r="AJ2" s="12" t="n">
+        <v>6780768863.6914</v>
+      </c>
+      <c r="AK2" s="12" t="n">
+        <v>6049658104.1339</v>
+      </c>
+      <c r="AL2" s="12" t="n">
+        <v>4799210106.3539</v>
+      </c>
+      <c r="AM2" s="12" t="n">
+        <v>5899630453.3596</v>
+      </c>
+      <c r="AN2" s="12" t="n">
+        <v>5450747529.045</v>
+      </c>
+      <c r="AO2" s="12" t="n">
+        <v>5506613943.8793</v>
+      </c>
+      <c r="AP2" s="12" t="n">
+        <v>5338345265.0776</v>
+      </c>
+      <c r="AQ2" s="12" t="n">
+        <v>5387276146.8303</v>
+      </c>
+      <c r="AR2" s="12" t="n">
+        <v>5925322052.269</v>
+      </c>
+      <c r="AS2" s="12" t="n">
+        <v>6378944763.0077</v>
+      </c>
+      <c r="AT2" s="12" t="n">
+        <v>6520806251.1334</v>
+      </c>
+      <c r="AU2" s="12" t="n">
+        <v>7654003502.7021</v>
+      </c>
+      <c r="AV2" s="12" t="n">
+        <v>7379601101.0017</v>
+      </c>
+      <c r="AW2" s="12" t="n">
+        <v>8016250936.4418</v>
+      </c>
+      <c r="AX2" s="12" t="n">
+        <v>2940425145.22</v>
+      </c>
+      <c r="AY2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3830,109 +3900,115 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>4899759000</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>8686670000</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>8632192464</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>8591328409</v>
-      </c>
-      <c r="S3" s="2" t="n">
-        <v>8329434188</v>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>9419064213</v>
-      </c>
-      <c r="U3" s="2" t="n">
-        <v>9406318721</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>9871133976</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>10053516487</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>10423323387</v>
-      </c>
-      <c r="Y3" s="2" t="n">
+      <c r="O3" s="12" t="n">
+        <v>4945058000</v>
+      </c>
+      <c r="P3" s="12" t="n">
+        <v>8722018000</v>
+      </c>
+      <c r="Q3" s="12" t="n">
+        <v>8669804464</v>
+      </c>
+      <c r="R3" s="12" t="n">
+        <v>8638763409</v>
+      </c>
+      <c r="S3" s="12" t="n">
+        <v>8389731188</v>
+      </c>
+      <c r="T3" s="12" t="n">
+        <v>9498373095</v>
+      </c>
+      <c r="U3" s="12" t="n">
+        <v>9534790721</v>
+      </c>
+      <c r="V3" s="12" t="n">
+        <v>10275166566</v>
+      </c>
+      <c r="W3" s="12" t="n">
+        <v>10693576261</v>
+      </c>
+      <c r="X3" s="12" t="n">
+        <v>11764336797.14</v>
+      </c>
+      <c r="Y3" s="12" t="n">
         <v>10486717040.6205</v>
       </c>
-      <c r="Z3" s="2" t="n">
-        <v>11721061588.0012</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>13479107981.4791</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>18125945415.8732</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>20243853801.3444</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>22144837170.5804</v>
-      </c>
-      <c r="AE3" s="2" t="n">
-        <v>25683155102.2934</v>
-      </c>
-      <c r="AF3" s="2" t="n">
-        <v>26366193111.6454</v>
-      </c>
-      <c r="AG3" s="2" t="n">
-        <v>35824873810.3963</v>
-      </c>
-      <c r="AH3" s="2" t="n">
-        <v>43489200077.7425</v>
-      </c>
-      <c r="AI3" s="2" t="n">
-        <v>39069823619.7478</v>
-      </c>
-      <c r="AJ3" s="2" t="n">
-        <v>33242007019.9661</v>
-      </c>
-      <c r="AK3" s="2" t="n">
-        <v>29866847544.0963</v>
-      </c>
-      <c r="AL3" s="2" t="n">
-        <v>23281571870.9731</v>
-      </c>
-      <c r="AM3" s="2" t="n">
-        <v>24157167350.5105</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>20948628003.2977</v>
-      </c>
-      <c r="AO3" s="2" t="n">
-        <v>20745661598.7199</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>20622213701.7551</v>
-      </c>
-      <c r="AQ3" s="2" t="n">
-        <v>26590451868.4576</v>
-      </c>
-      <c r="AR3" s="2" t="n">
-        <v>29909854511.2937</v>
-      </c>
-      <c r="AS3" s="2" t="n">
-        <v>34106595803.2413</v>
-      </c>
-      <c r="AT3" s="2" t="n">
-        <v>25552598478.8645</v>
-      </c>
-      <c r="AU3" s="2" t="n">
-        <v>29221332530.9886</v>
-      </c>
-      <c r="AV3" s="2" t="n">
-        <v>11081976801.5419</v>
-      </c>
-      <c r="AW3" s="2"/>
+      <c r="Z3" s="12" t="n">
+        <v>11721061581.0003</v>
+      </c>
+      <c r="AA3" s="12" t="n">
+        <v>13479107970.5395</v>
+      </c>
+      <c r="AB3" s="12" t="n">
+        <v>18125945424.6083</v>
+      </c>
+      <c r="AC3" s="12" t="n">
+        <v>20244387139.1126</v>
+      </c>
+      <c r="AD3" s="12" t="n">
+        <v>22144303830.5388</v>
+      </c>
+      <c r="AE3" s="12" t="n">
+        <v>25683154872.2044</v>
+      </c>
+      <c r="AF3" s="12" t="n">
+        <v>26366193100.1999</v>
+      </c>
+      <c r="AG3" s="12" t="n">
+        <v>35824151340.5435</v>
+      </c>
+      <c r="AH3" s="12" t="n">
+        <v>43489222718.1489</v>
+      </c>
+      <c r="AI3" s="12" t="n">
+        <v>39069817838.9679</v>
+      </c>
+      <c r="AJ3" s="12" t="n">
+        <v>33243526816.2061</v>
+      </c>
+      <c r="AK3" s="12" t="n">
+        <v>29867124512.629</v>
+      </c>
+      <c r="AL3" s="12" t="n">
+        <v>23384798280.8141</v>
+      </c>
+      <c r="AM3" s="12" t="n">
+        <v>24156494035.3892</v>
+      </c>
+      <c r="AN3" s="12" t="n">
+        <v>20946799774.3094</v>
+      </c>
+      <c r="AO3" s="12" t="n">
+        <v>20700340335.5077</v>
+      </c>
+      <c r="AP3" s="12" t="n">
+        <v>20630190562.0529</v>
+      </c>
+      <c r="AQ3" s="12" t="n">
+        <v>26589283680.1986</v>
+      </c>
+      <c r="AR3" s="12" t="n">
+        <v>29900704148.6086</v>
+      </c>
+      <c r="AS3" s="12" t="n">
+        <v>34080384113.2849</v>
+      </c>
+      <c r="AT3" s="12" t="n">
+        <v>25618507824.6236</v>
+      </c>
+      <c r="AU3" s="12" t="n">
+        <v>29253651853.5212</v>
+      </c>
+      <c r="AV3" s="12" t="n">
+        <v>34750408866.6942</v>
+      </c>
+      <c r="AW3" s="12" t="n">
+        <v>33389206990.3719</v>
+      </c>
+      <c r="AX3" s="12" t="n">
+        <v>10072158217.22</v>
+      </c>
+      <c r="AY3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3947,109 +4023,115 @@
       <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>457849000</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>624573000</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>521939983</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>567107653</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>402543132</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>455258682</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>378940780</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>422986947</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>304658164</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>574154698</v>
-      </c>
-      <c r="Y4" s="2" t="n">
+      <c r="O4" s="12" t="n">
+        <v>457904000</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>624999000</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>526296983</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>571309653</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>406694132</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>459448682</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>387755780</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>437735241</v>
+      </c>
+      <c r="W4" s="12" t="n">
+        <v>338719975</v>
+      </c>
+      <c r="X4" s="12" t="n">
+        <v>842341719</v>
+      </c>
+      <c r="Y4" s="12" t="n">
         <v>451251383.9147</v>
       </c>
-      <c r="Z4" s="2" t="n">
+      <c r="Z4" s="12" t="n">
         <v>652565387.1182</v>
       </c>
-      <c r="AA4" s="2" t="n">
+      <c r="AA4" s="12" t="n">
         <v>794001838.3973</v>
       </c>
-      <c r="AB4" s="2" t="n">
-        <v>1124423631.5792</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>1767199296.4242</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>2345014834.3454</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>3426568836.0061</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>2857533705.6143</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>2565964800.8799</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>2184060751.5247</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>2558005770.1947</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>2654329920.7436</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>2206102162.179</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>2232659524.8201</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>2507390454.7612</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>2764044557.2456</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>2800217286.9328</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>3192135790.2355</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>4336636342.2756</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>4185865441.1387</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>4001320595.6329</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>5598065223.926</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>6161384328.1597</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>2862227478.7772</v>
-      </c>
-      <c r="AW4" s="2"/>
+      <c r="AB4" s="12" t="n">
+        <v>1124423631.5606</v>
+      </c>
+      <c r="AC4" s="12" t="n">
+        <v>1767291335.37</v>
+      </c>
+      <c r="AD4" s="12" t="n">
+        <v>2345014834.2459</v>
+      </c>
+      <c r="AE4" s="12" t="n">
+        <v>3426476795.9895</v>
+      </c>
+      <c r="AF4" s="12" t="n">
+        <v>2857485897.3668</v>
+      </c>
+      <c r="AG4" s="12" t="n">
+        <v>2565512608.1199</v>
+      </c>
+      <c r="AH4" s="12" t="n">
+        <v>2184060752.9425</v>
+      </c>
+      <c r="AI4" s="12" t="n">
+        <v>2552987098.8469</v>
+      </c>
+      <c r="AJ4" s="12" t="n">
+        <v>2652108555.2654</v>
+      </c>
+      <c r="AK4" s="12" t="n">
+        <v>2201027751.7365</v>
+      </c>
+      <c r="AL4" s="12" t="n">
+        <v>2322363537.0654</v>
+      </c>
+      <c r="AM4" s="12" t="n">
+        <v>2499183532.6523</v>
+      </c>
+      <c r="AN4" s="12" t="n">
+        <v>2787411732.0528</v>
+      </c>
+      <c r="AO4" s="12" t="n">
+        <v>2803285707.5699</v>
+      </c>
+      <c r="AP4" s="12" t="n">
+        <v>3199500865.3156</v>
+      </c>
+      <c r="AQ4" s="12" t="n">
+        <v>4336579778.6884</v>
+      </c>
+      <c r="AR4" s="12" t="n">
+        <v>4198193182.7024</v>
+      </c>
+      <c r="AS4" s="12" t="n">
+        <v>4032389503.0703</v>
+      </c>
+      <c r="AT4" s="12" t="n">
+        <v>5627529373.1309</v>
+      </c>
+      <c r="AU4" s="12" t="n">
+        <v>6190941170.0766</v>
+      </c>
+      <c r="AV4" s="12" t="n">
+        <v>5494024838.1589</v>
+      </c>
+      <c r="AW4" s="12" t="n">
+        <v>5662555498.09</v>
+      </c>
+      <c r="AX4" s="12" t="n">
+        <v>2891845487.88</v>
+      </c>
+      <c r="AY4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4064,109 +4146,115 @@
       <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>3464562305</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>4742331868</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>4230516785</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>4028042362</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>6678397216</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>5372070408</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>5803931223</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>5611880240</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>5034627246</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>5356389885</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="O5" s="12" t="n">
+        <v>3490219387.56</v>
+      </c>
+      <c r="P5" s="12" t="n">
+        <v>4747984868</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>4241534785</v>
+      </c>
+      <c r="R5" s="12" t="n">
+        <v>4043345362</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>6683153629.16</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>5385169601</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>5854810223</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>6437180234</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>6240578537.02</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>7248814660.85</v>
+      </c>
+      <c r="Y5" s="12" t="n">
         <v>5272048928.8593</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>6211171863.2888</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>6162968258.8984</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>7761429187.4941</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>6210379230.3181</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>7186552299.2721</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>7878685441.6893</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>8706066047.0671</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>10981961461.9522</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>11881816037.5966</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>11728432204.0445</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>11553392624.5317</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>10517654432.6892</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>8587722708.3673</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>9338021248.0745</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>8542060537.597</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>9187080767.489</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>8952877787.2607</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>10244763680.6925</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>11611964039.3015</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>15292056325.2531</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>13051477981.1949</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>13798203698.7861</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>5938973826.5214</v>
-      </c>
-      <c r="AW5" s="2"/>
+      <c r="Z5" s="12" t="n">
+        <v>6211171864.2288</v>
+      </c>
+      <c r="AA5" s="12" t="n">
+        <v>6162968262.9022</v>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>7761429186.4927</v>
+      </c>
+      <c r="AC5" s="12" t="n">
+        <v>6210379233.3369</v>
+      </c>
+      <c r="AD5" s="12" t="n">
+        <v>7188130934.3992</v>
+      </c>
+      <c r="AE5" s="12" t="n">
+        <v>7878685445.3705</v>
+      </c>
+      <c r="AF5" s="12" t="n">
+        <v>8706066044.144</v>
+      </c>
+      <c r="AG5" s="12" t="n">
+        <v>10981882824.5635</v>
+      </c>
+      <c r="AH5" s="12" t="n">
+        <v>11881816019.2997</v>
+      </c>
+      <c r="AI5" s="12" t="n">
+        <v>11728432205.8337</v>
+      </c>
+      <c r="AJ5" s="12" t="n">
+        <v>11553951673.0486</v>
+      </c>
+      <c r="AK5" s="12" t="n">
+        <v>10517710706.0635</v>
+      </c>
+      <c r="AL5" s="12" t="n">
+        <v>8664210188.4388</v>
+      </c>
+      <c r="AM5" s="12" t="n">
+        <v>9338056029.21</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>8546013575.3695</v>
+      </c>
+      <c r="AO5" s="12" t="n">
+        <v>9198011878.7597</v>
+      </c>
+      <c r="AP5" s="12" t="n">
+        <v>8972838519.8775</v>
+      </c>
+      <c r="AQ5" s="12" t="n">
+        <v>10244817106.264</v>
+      </c>
+      <c r="AR5" s="12" t="n">
+        <v>11621919263.333</v>
+      </c>
+      <c r="AS5" s="12" t="n">
+        <v>15292548733.5267</v>
+      </c>
+      <c r="AT5" s="12" t="n">
+        <v>13063516753.7457</v>
+      </c>
+      <c r="AU5" s="12" t="n">
+        <v>13799942654.5837</v>
+      </c>
+      <c r="AV5" s="12" t="n">
+        <v>16762448718.1882</v>
+      </c>
+      <c r="AW5" s="12" t="n">
+        <v>18474473083.0045</v>
+      </c>
+      <c r="AX5" s="12" t="n">
+        <v>5914123556.68</v>
+      </c>
+      <c r="AY5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4181,109 +4269,115 @@
       <c r="N6" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>60850000</v>
-      </c>
-      <c r="P6" s="2" t="n">
+      <c r="O6" s="12" t="n">
+        <v>60883000</v>
+      </c>
+      <c r="P6" s="12" t="n">
         <v>88584000</v>
       </c>
-      <c r="Q6" s="2" t="n">
+      <c r="Q6" s="12" t="n">
         <v>144809204</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="12" t="n">
         <v>149915114</v>
       </c>
-      <c r="S6" s="2" t="n">
-        <v>318674060</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>224815297</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>151120895</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>287069769</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>223921222</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>337026811</v>
-      </c>
-      <c r="Y6" s="2" t="n">
+      <c r="S6" s="12" t="n">
+        <v>318678060</v>
+      </c>
+      <c r="T6" s="12" t="n">
+        <v>224937297</v>
+      </c>
+      <c r="U6" s="12" t="n">
+        <v>152699895</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>437639423</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>272711718</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>369207687</v>
+      </c>
+      <c r="Y6" s="12" t="n">
         <v>483976915.3999</v>
       </c>
-      <c r="Z6" s="2" t="n">
-        <v>545220195.3198</v>
-      </c>
-      <c r="AA6" s="2" t="n">
-        <v>1130270379.7998</v>
-      </c>
-      <c r="AB6" s="2" t="n">
-        <v>1073300212.1321</v>
-      </c>
-      <c r="AC6" s="2" t="n">
-        <v>912217612.8806</v>
-      </c>
-      <c r="AD6" s="2" t="n">
-        <v>736687318.1288</v>
-      </c>
-      <c r="AE6" s="2" t="n">
-        <v>805458509.3449</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>504802369.1908</v>
-      </c>
-      <c r="AG6" s="2" t="n">
-        <v>447835712.1524</v>
-      </c>
-      <c r="AH6" s="2" t="n">
-        <v>560636798.9158</v>
-      </c>
-      <c r="AI6" s="2" t="n">
-        <v>511942014</v>
-      </c>
-      <c r="AJ6" s="2" t="n">
-        <v>350842121.3261</v>
-      </c>
-      <c r="AK6" s="2" t="n">
-        <v>372464085.4251</v>
-      </c>
-      <c r="AL6" s="2" t="n">
-        <v>347881632.8952</v>
-      </c>
-      <c r="AM6" s="2" t="n">
-        <v>304211900.5524</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>364074492.9168</v>
-      </c>
-      <c r="AO6" s="2" t="n">
-        <v>337763811.6767</v>
-      </c>
-      <c r="AP6" s="2" t="n">
-        <v>339443248.8377</v>
-      </c>
-      <c r="AQ6" s="2" t="n">
-        <v>398989099.3803</v>
-      </c>
-      <c r="AR6" s="2" t="n">
-        <v>431864411.4772</v>
-      </c>
-      <c r="AS6" s="2" t="n">
-        <v>419485619.7346</v>
-      </c>
-      <c r="AT6" s="2" t="n">
-        <v>486474883.935</v>
-      </c>
-      <c r="AU6" s="2" t="n">
-        <v>470454087.5014</v>
-      </c>
-      <c r="AV6" s="2" t="n">
-        <v>211629076.5979</v>
-      </c>
-      <c r="AW6" s="2"/>
+      <c r="Z6" s="12" t="n">
+        <v>545220196.3198</v>
+      </c>
+      <c r="AA6" s="12" t="n">
+        <v>1130270381.8</v>
+      </c>
+      <c r="AB6" s="12" t="n">
+        <v>1073300212.1322</v>
+      </c>
+      <c r="AC6" s="12" t="n">
+        <v>912217612.8646</v>
+      </c>
+      <c r="AD6" s="12" t="n">
+        <v>736687317.1089</v>
+      </c>
+      <c r="AE6" s="12" t="n">
+        <v>805458509.3399</v>
+      </c>
+      <c r="AF6" s="12" t="n">
+        <v>504802374.2251</v>
+      </c>
+      <c r="AG6" s="12" t="n">
+        <v>447835709.1839</v>
+      </c>
+      <c r="AH6" s="12" t="n">
+        <v>560636795.4343</v>
+      </c>
+      <c r="AI6" s="12" t="n">
+        <v>511942013.8485</v>
+      </c>
+      <c r="AJ6" s="12" t="n">
+        <v>350842121.3884</v>
+      </c>
+      <c r="AK6" s="12" t="n">
+        <v>372463585.4396</v>
+      </c>
+      <c r="AL6" s="12" t="n">
+        <v>348772934.1802</v>
+      </c>
+      <c r="AM6" s="12" t="n">
+        <v>304250604.8849</v>
+      </c>
+      <c r="AN6" s="12" t="n">
+        <v>364166273.9166</v>
+      </c>
+      <c r="AO6" s="12" t="n">
+        <v>337287208.3306</v>
+      </c>
+      <c r="AP6" s="12" t="n">
+        <v>339324945.2146</v>
+      </c>
+      <c r="AQ6" s="12" t="n">
+        <v>399909697.7576</v>
+      </c>
+      <c r="AR6" s="12" t="n">
+        <v>431864412.0025</v>
+      </c>
+      <c r="AS6" s="12" t="n">
+        <v>415738309.0732</v>
+      </c>
+      <c r="AT6" s="12" t="n">
+        <v>484155358.6528</v>
+      </c>
+      <c r="AU6" s="12" t="n">
+        <v>470577461.4556</v>
+      </c>
+      <c r="AV6" s="12" t="n">
+        <v>645410106.1696</v>
+      </c>
+      <c r="AW6" s="12" t="n">
+        <v>725848820.99</v>
+      </c>
+      <c r="AX6" s="12" t="n">
+        <v>230680903.52</v>
+      </c>
+      <c r="AY6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4298,107 +4392,115 @@
       <c r="N7" t="s">
         <v>194</v>
       </c>
-      <c r="O7" s="2" t="str">
+      <c r="O7" s="12" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="2" t="str">
+      <c r="P7" s="12" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="2" t="str">
+      <c r="Q7" s="12" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="2" t="str">
+      <c r="R7" s="12" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="2" t="str">
+      <c r="S7" s="12" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="2" t="str">
+      <c r="T7" s="12" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="2" t="str">
+      <c r="U7" s="12" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="2" t="str">
+      <c r="V7" s="12" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="2" t="str">
+      <c r="W7" s="12" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="2" t="str">
+      <c r="X7" s="12" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="2" t="str">
+      <c r="Y7" s="12" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="2" t="str">
+      <c r="Z7" s="12" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="2" t="str">
+      <c r="AA7" s="12" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="2" t="str">
+      <c r="AB7" s="12" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="2" t="str">
+      <c r="AC7" s="12" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="2" t="str">
+      <c r="AD7" s="12" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="2" t="str">
+      <c r="AE7" s="12" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="2" t="str">
+      <c r="AF7" s="12" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="2" t="str">
+      <c r="AG7" s="12" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="12" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="2" t="str">
+      <c r="AI7" s="12" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="2" t="str">
+      <c r="AJ7" s="12" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="2" t="str">
+      <c r="AK7" s="12" t="str">
         <f>Sum(AK2:AK6)</f>
       </c>
-      <c r="AL7" s="2" t="str">
+      <c r="AL7" s="12" t="str">
         <f>Sum(AL2:AL6)</f>
       </c>
-      <c r="AM7" s="2" t="str">
+      <c r="AM7" s="12" t="str">
         <f>Sum(AM2:AM6)</f>
       </c>
-      <c r="AN7" s="2" t="str">
+      <c r="AN7" s="12" t="str">
         <f>Sum(AN2:AN6)</f>
       </c>
-      <c r="AO7" s="2" t="str">
+      <c r="AO7" s="12" t="str">
         <f>Sum(AO2:AO6)</f>
       </c>
-      <c r="AP7" s="2" t="str">
+      <c r="AP7" s="12" t="str">
         <f>Sum(AP2:AP6)</f>
       </c>
-      <c r="AQ7" s="2" t="str">
+      <c r="AQ7" s="12" t="str">
         <f>Sum(AQ2:AQ6)</f>
       </c>
-      <c r="AR7" s="2" t="str">
+      <c r="AR7" s="12" t="str">
         <f>Sum(AR2:AR6)</f>
       </c>
-      <c r="AS7" s="2" t="str">
+      <c r="AS7" s="12" t="str">
         <f>Sum(AS2:AS6)</f>
       </c>
-      <c r="AT7" s="2" t="str">
+      <c r="AT7" s="12" t="str">
         <f>Sum(AT2:AT6)</f>
       </c>
-      <c r="AU7" s="2" t="str">
+      <c r="AU7" s="12" t="str">
         <f>Sum(AU2:AU6)</f>
       </c>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
+      <c r="AV7" s="12" t="str">
+        <f>Sum(AV2:AV6)</f>
+      </c>
+      <c r="AW7" s="12" t="str">
+        <f>Sum(AW2:AW6)</f>
+      </c>
+      <c r="AX7" s="12" t="str">
+        <f>Sum(AX2:AX6)</f>
+      </c>
+      <c r="AY7" s="12"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4515,6 +4617,12 @@
       <c r="AV10" t="s">
         <v>34</v>
       </c>
+      <c r="AW10" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4529,109 +4637,115 @@
       <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>6559283476.42597</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>8349283747.02493</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>7729281346.1741</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>7027534870.74692</v>
-      </c>
-      <c r="S11" s="2" t="n">
-        <v>8241479264.51194</v>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>8181499774.30076</v>
-      </c>
-      <c r="U11" s="2" t="n">
-        <v>7816823340.4451</v>
-      </c>
-      <c r="V11" s="2" t="n">
-        <v>6823082488.46655</v>
-      </c>
-      <c r="W11" s="2" t="n">
-        <v>6592738829.77688</v>
-      </c>
-      <c r="X11" s="2" t="n">
-        <v>6455557114.25429</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>6634083434.84561</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>6209364399.52131</v>
-      </c>
-      <c r="AA11" s="2" t="n">
-        <v>6982781232.87107</v>
-      </c>
-      <c r="AB11" s="2" t="n">
-        <v>9694317387.12158</v>
-      </c>
-      <c r="AC11" s="2" t="n">
-        <v>9771040351.22764</v>
-      </c>
-      <c r="AD11" s="2" t="n">
-        <v>10316239388.0874</v>
-      </c>
-      <c r="AE11" s="2" t="n">
-        <v>10843364340.8061</v>
-      </c>
-      <c r="AF11" s="2" t="n">
-        <v>10563318083.4149</v>
-      </c>
-      <c r="AG11" s="2" t="n">
-        <v>9958199165.48187</v>
-      </c>
-      <c r="AH11" s="2" t="n">
-        <v>10884690548.7186</v>
-      </c>
-      <c r="AI11" s="2" t="n">
-        <v>9644204491.46195</v>
-      </c>
-      <c r="AJ11" s="2" t="n">
-        <v>8694627216.88066</v>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>7616993694.88563</v>
-      </c>
-      <c r="AL11" s="2" t="n">
-        <v>5924768368.36565</v>
-      </c>
-      <c r="AM11" s="2" t="n">
-        <v>7165834593.33582</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>6607734419.95035</v>
-      </c>
-      <c r="AO11" s="2" t="n">
-        <v>6531742218.98895</v>
-      </c>
-      <c r="AP11" s="2" t="n">
-        <v>6233701182.5651</v>
-      </c>
-      <c r="AQ11" s="2" t="n">
-        <v>6144340124.18566</v>
-      </c>
-      <c r="AR11" s="2" t="n">
-        <v>6627652694.83396</v>
-      </c>
-      <c r="AS11" s="2" t="n">
-        <v>7023098004.4611</v>
-      </c>
-      <c r="AT11" s="2" t="n">
-        <v>6914836950.29614</v>
-      </c>
-      <c r="AU11" s="2" t="n">
-        <v>7636001025.7959</v>
-      </c>
-      <c r="AV11" s="2" t="n">
-        <v>2830421347.79629</v>
-      </c>
-      <c r="AW11" s="2"/>
+      <c r="O11" s="12" t="n">
+        <v>6858592502.95203</v>
+      </c>
+      <c r="P11" s="12" t="n">
+        <v>8712986376.11336</v>
+      </c>
+      <c r="Q11" s="12" t="n">
+        <v>8674165418.06616</v>
+      </c>
+      <c r="R11" s="12" t="n">
+        <v>7359447318.12943</v>
+      </c>
+      <c r="S11" s="12" t="n">
+        <v>8597175970.43797</v>
+      </c>
+      <c r="T11" s="12" t="n">
+        <v>8546951787.6016</v>
+      </c>
+      <c r="U11" s="12" t="n">
+        <v>8176502058.54816</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>7933312580.20189</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>8184643434.84145</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>9298151905.85061</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>6902789577.02691</v>
+      </c>
+      <c r="Z11" s="12" t="n">
+        <v>6460932970.53955</v>
+      </c>
+      <c r="AA11" s="12" t="n">
+        <v>7266051928.07044</v>
+      </c>
+      <c r="AB11" s="12" t="n">
+        <v>10086789637.8892</v>
+      </c>
+      <c r="AC11" s="12" t="n">
+        <v>10166862989.7895</v>
+      </c>
+      <c r="AD11" s="12" t="n">
+        <v>10733555424.1639</v>
+      </c>
+      <c r="AE11" s="12" t="n">
+        <v>11282627081.3764</v>
+      </c>
+      <c r="AF11" s="12" t="n">
+        <v>10990098262.5364</v>
+      </c>
+      <c r="AG11" s="12" t="n">
+        <v>10361495512.2864</v>
+      </c>
+      <c r="AH11" s="12" t="n">
+        <v>11324776624.4857</v>
+      </c>
+      <c r="AI11" s="12" t="n">
+        <v>10035719595.3971</v>
+      </c>
+      <c r="AJ11" s="12" t="n">
+        <v>9048190377.3556</v>
+      </c>
+      <c r="AK11" s="12" t="n">
+        <v>7928728420.16965</v>
+      </c>
+      <c r="AL11" s="12" t="n">
+        <v>6177787382.49789</v>
+      </c>
+      <c r="AM11" s="12" t="n">
+        <v>7458242434.29375</v>
+      </c>
+      <c r="AN11" s="12" t="n">
+        <v>6820138897.69859</v>
+      </c>
+      <c r="AO11" s="12" t="n">
+        <v>6835391137.04335</v>
+      </c>
+      <c r="AP11" s="12" t="n">
+        <v>6516518066.33205</v>
+      </c>
+      <c r="AQ11" s="12" t="n">
+        <v>6433425934.44704</v>
+      </c>
+      <c r="AR11" s="12" t="n">
+        <v>6947498446.04515</v>
+      </c>
+      <c r="AS11" s="12" t="n">
+        <v>7382931517.06534</v>
+      </c>
+      <c r="AT11" s="12" t="n">
+        <v>7296011173.92014</v>
+      </c>
+      <c r="AU11" s="12" t="n">
+        <v>8004148098.9152</v>
+      </c>
+      <c r="AV11" s="12" t="n">
+        <v>7379601101.0017</v>
+      </c>
+      <c r="AW11" s="12" t="n">
+        <v>7807737590.05465</v>
+      </c>
+      <c r="AX11" s="12" t="n">
+        <v>2802449230.87446</v>
+      </c>
+      <c r="AY11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -4646,109 +4760,115 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="2" t="n">
-        <v>9738425680.97646</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>16670410758.885</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>16161938685.4207</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>15716240374.0427</v>
-      </c>
-      <c r="S12" s="2" t="n">
-        <v>14912221308.1287</v>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>16513194432.7713</v>
-      </c>
-      <c r="U12" s="2" t="n">
-        <v>16186631827.3641</v>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>16690009411.9318</v>
-      </c>
-      <c r="W12" s="2" t="n">
-        <v>16788745935.6556</v>
-      </c>
-      <c r="X12" s="2" t="n">
-        <v>17191998883.4767</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>16943703845.957</v>
-      </c>
-      <c r="Z12" s="2" t="n">
-        <v>18489706709.2683</v>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>20932594254.5465</v>
-      </c>
-      <c r="AB12" s="2" t="n">
-        <v>27621010495.0422</v>
-      </c>
-      <c r="AC12" s="2" t="n">
-        <v>30112314062.4353</v>
-      </c>
-      <c r="AD12" s="2" t="n">
-        <v>31969498397.7987</v>
-      </c>
-      <c r="AE12" s="2" t="n">
-        <v>35908512494.4048</v>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>35879562332.9188</v>
-      </c>
-      <c r="AG12" s="2" t="n">
-        <v>47755121806.704</v>
-      </c>
-      <c r="AH12" s="2" t="n">
-        <v>57388609128.7792</v>
-      </c>
-      <c r="AI12" s="2" t="n">
-        <v>51112226121.9851</v>
-      </c>
-      <c r="AJ12" s="2" t="n">
-        <v>42628981080.5398</v>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>37611321105.1042</v>
-      </c>
-      <c r="AL12" s="2" t="n">
-        <v>28791597215.0471</v>
-      </c>
-      <c r="AM12" s="2" t="n">
-        <v>29307438199.2283</v>
-      </c>
-      <c r="AN12" s="2" t="n">
-        <v>25126780892.1268</v>
-      </c>
-      <c r="AO12" s="2" t="n">
-        <v>24678832104.29</v>
-      </c>
-      <c r="AP12" s="2" t="n">
-        <v>24101673993.1067</v>
-      </c>
-      <c r="AQ12" s="2" t="n">
-        <v>30363942722.6118</v>
-      </c>
-      <c r="AR12" s="2" t="n">
-        <v>33498292238.22</v>
-      </c>
-      <c r="AS12" s="2" t="n">
-        <v>37695660978.1121</v>
-      </c>
-      <c r="AT12" s="2" t="n">
-        <v>27323076571.5312</v>
-      </c>
-      <c r="AU12" s="2" t="n">
-        <v>29221332530.9886</v>
-      </c>
-      <c r="AV12" s="2" t="n">
-        <v>10569971514.2505</v>
-      </c>
-      <c r="AW12" s="2"/>
+      <c r="O12" s="12" t="n">
+        <v>10227774139.9226</v>
+      </c>
+      <c r="P12" s="12" t="n">
+        <v>17416926832.0567</v>
+      </c>
+      <c r="Q12" s="12" t="n">
+        <v>16889930275.8213</v>
+      </c>
+      <c r="R12" s="12" t="n">
+        <v>16443690147.3568</v>
+      </c>
+      <c r="S12" s="12" t="n">
+        <v>15628482933.4497</v>
+      </c>
+      <c r="T12" s="12" t="n">
+        <v>17326156673.4924</v>
+      </c>
+      <c r="U12" s="12" t="n">
+        <v>17071163141.4344</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>18075941536.1224</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>18579061418.016</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>20189408015.0053</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>17629989651.5885</v>
+      </c>
+      <c r="Z12" s="12" t="n">
+        <v>19238805787.0738</v>
+      </c>
+      <c r="AA12" s="12" t="n">
+        <v>21781767414.2979</v>
+      </c>
+      <c r="AB12" s="12" t="n">
+        <v>28739240896.0095</v>
+      </c>
+      <c r="AC12" s="12" t="n">
+        <v>31332982606.5504</v>
+      </c>
+      <c r="AD12" s="12" t="n">
+        <v>33261414667.8321</v>
+      </c>
+      <c r="AE12" s="12" t="n">
+        <v>37363159504.1662</v>
+      </c>
+      <c r="AF12" s="12" t="n">
+        <v>37329171799.0243</v>
+      </c>
+      <c r="AG12" s="12" t="n">
+        <v>49688150805.2523</v>
+      </c>
+      <c r="AH12" s="12" t="n">
+        <v>59709025015.8842</v>
+      </c>
+      <c r="AI12" s="12" t="n">
+        <v>53180783472.9567</v>
+      </c>
+      <c r="AJ12" s="12" t="n">
+        <v>44359830794.1747</v>
+      </c>
+      <c r="AK12" s="12" t="n">
+        <v>39144083000.3615</v>
+      </c>
+      <c r="AL12" s="12" t="n">
+        <v>30102101920.9403</v>
+      </c>
+      <c r="AM12" s="12" t="n">
+        <v>30538351563.3436</v>
+      </c>
+      <c r="AN12" s="12" t="n">
+        <v>26209264538.8222</v>
+      </c>
+      <c r="AO12" s="12" t="n">
+        <v>25695449927.1525</v>
+      </c>
+      <c r="AP12" s="12" t="n">
+        <v>25183273623.9357</v>
+      </c>
+      <c r="AQ12" s="12" t="n">
+        <v>31752630187.1875</v>
+      </c>
+      <c r="AR12" s="12" t="n">
+        <v>35058870011.7263</v>
+      </c>
+      <c r="AS12" s="12" t="n">
+        <v>39444320546.997</v>
+      </c>
+      <c r="AT12" s="12" t="n">
+        <v>28664081119.5895</v>
+      </c>
+      <c r="AU12" s="12" t="n">
+        <v>30591906808.9042</v>
+      </c>
+      <c r="AV12" s="12" t="n">
+        <v>34750408866.6942</v>
+      </c>
+      <c r="AW12" s="12" t="n">
+        <v>32520709317.585</v>
+      </c>
+      <c r="AX12" s="12" t="n">
+        <v>9599534303.7315</v>
+      </c>
+      <c r="AY12" s="12"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4763,109 +4883,115 @@
       <c r="N13" t="s">
         <v>43</v>
       </c>
-      <c r="O13" s="2" t="n">
-        <v>909989340.212323</v>
-      </c>
-      <c r="P13" s="2" t="n">
-        <v>1198605272.09035</v>
-      </c>
-      <c r="Q13" s="2" t="n">
-        <v>977221260.751021</v>
-      </c>
-      <c r="R13" s="2" t="n">
-        <v>1037418169.60116</v>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>720674674.289324</v>
-      </c>
-      <c r="T13" s="2" t="n">
-        <v>798144588.79018</v>
-      </c>
-      <c r="U13" s="2" t="n">
-        <v>652090905.29117</v>
-      </c>
-      <c r="V13" s="2" t="n">
-        <v>715181877.149946</v>
-      </c>
-      <c r="W13" s="2" t="n">
-        <v>508760145.689638</v>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>946998050.474948</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>729100420.990906</v>
-      </c>
-      <c r="Z13" s="2" t="n">
-        <v>1029406980.40418</v>
-      </c>
-      <c r="AA13" s="2" t="n">
-        <v>1233057732.26032</v>
-      </c>
-      <c r="AB13" s="2" t="n">
-        <v>1713439835.33817</v>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>2628672423.09892</v>
-      </c>
-      <c r="AD13" s="2" t="n">
-        <v>3385391701.54822</v>
-      </c>
-      <c r="AE13" s="2" t="n">
-        <v>4790805077.12527</v>
-      </c>
-      <c r="AF13" s="2" t="n">
-        <v>3888580284.41431</v>
-      </c>
-      <c r="AG13" s="2" t="n">
-        <v>3420471549.07701</v>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>2882099660.57543</v>
-      </c>
-      <c r="AI13" s="2" t="n">
-        <v>3346454046.47921</v>
-      </c>
-      <c r="AJ13" s="2" t="n">
-        <v>3403867278.67929</v>
-      </c>
-      <c r="AK13" s="2" t="n">
-        <v>2778144452.30194</v>
-      </c>
-      <c r="AL13" s="2" t="n">
-        <v>2761060727.05099</v>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>3041962235.38998</v>
-      </c>
-      <c r="AN13" s="2" t="n">
-        <v>3315326519.47673</v>
-      </c>
-      <c r="AO13" s="2" t="n">
-        <v>3331110552.96541</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>3730725385.28859</v>
-      </c>
-      <c r="AQ13" s="2" t="n">
-        <v>4952054901.40063</v>
-      </c>
-      <c r="AR13" s="2" t="n">
-        <v>4688065057.76162</v>
-      </c>
-      <c r="AS13" s="2" t="n">
-        <v>4422382858.37313</v>
-      </c>
-      <c r="AT13" s="2" t="n">
-        <v>5985941699.52117</v>
-      </c>
-      <c r="AU13" s="2" t="n">
-        <v>6161384328.1597</v>
-      </c>
-      <c r="AV13" s="2" t="n">
-        <v>2729987930.83293</v>
-      </c>
-      <c r="AW13" s="2"/>
+      <c r="O13" s="12" t="n">
+        <v>947074572.182396</v>
+      </c>
+      <c r="P13" s="12" t="n">
+        <v>1248055421.705</v>
+      </c>
+      <c r="Q13" s="12" t="n">
+        <v>1025296404.79849</v>
+      </c>
+      <c r="R13" s="12" t="n">
+        <v>1087474962.25428</v>
+      </c>
+      <c r="S13" s="12" t="n">
+        <v>757594273.126091</v>
+      </c>
+      <c r="T13" s="12" t="n">
+        <v>838088772.481682</v>
+      </c>
+      <c r="U13" s="12" t="n">
+        <v>694240951.176315</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>770058234.461955</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>588493415.620467</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>1445587706.82988</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>758631819.459334</v>
+      </c>
+      <c r="Z13" s="12" t="n">
+        <v>1071112770.74804</v>
+      </c>
+      <c r="AA13" s="12" t="n">
+        <v>1283079222.17814</v>
+      </c>
+      <c r="AB13" s="12" t="n">
+        <v>1782808061.01921</v>
+      </c>
+      <c r="AC13" s="12" t="n">
+        <v>2735301804.46267</v>
+      </c>
+      <c r="AD13" s="12" t="n">
+        <v>3522283265.30203</v>
+      </c>
+      <c r="AE13" s="12" t="n">
+        <v>4984745826.7066</v>
+      </c>
+      <c r="AF13" s="12" t="n">
+        <v>4045619387.3239</v>
+      </c>
+      <c r="AG13" s="12" t="n">
+        <v>3558369775.55331</v>
+      </c>
+      <c r="AH13" s="12" t="n">
+        <v>2998631154.63852</v>
+      </c>
+      <c r="AI13" s="12" t="n">
+        <v>3475057259.61213</v>
+      </c>
+      <c r="AJ13" s="12" t="n">
+        <v>3538947218.50041</v>
+      </c>
+      <c r="AK13" s="12" t="n">
+        <v>2884683892.60714</v>
+      </c>
+      <c r="AL13" s="12" t="n">
+        <v>2989464482.46995</v>
+      </c>
+      <c r="AM13" s="12" t="n">
+        <v>3159438005.76544</v>
+      </c>
+      <c r="AN13" s="12" t="n">
+        <v>3487693215.72402</v>
+      </c>
+      <c r="AO13" s="12" t="n">
+        <v>3479734456.67496</v>
+      </c>
+      <c r="AP13" s="12" t="n">
+        <v>3905630707.04102</v>
+      </c>
+      <c r="AQ13" s="12" t="n">
+        <v>5178695885.3831</v>
+      </c>
+      <c r="AR13" s="12" t="n">
+        <v>4922422841.44763</v>
+      </c>
+      <c r="AS13" s="12" t="n">
+        <v>4667050218.70483</v>
+      </c>
+      <c r="AT13" s="12" t="n">
+        <v>6296539968.62586</v>
+      </c>
+      <c r="AU13" s="12" t="n">
+        <v>6474155646.71099</v>
+      </c>
+      <c r="AV13" s="12" t="n">
+        <v>5494024838.1589</v>
+      </c>
+      <c r="AW13" s="12" t="n">
+        <v>5515264899.85758</v>
+      </c>
+      <c r="AX13" s="12" t="n">
+        <v>2756149115.54252</v>
+      </c>
+      <c r="AY13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -4880,109 +5006,115 @@
       <c r="N14" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>6885926945.45895</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>9100912109.53225</v>
-      </c>
-      <c r="Q14" s="2" t="n">
-        <v>7920740086.82729</v>
-      </c>
-      <c r="R14" s="2" t="n">
-        <v>7368555709.23138</v>
-      </c>
-      <c r="S14" s="2" t="n">
-        <v>11956362823.7869</v>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>9418137635.30831</v>
-      </c>
-      <c r="U14" s="2" t="n">
-        <v>9987552053.52604</v>
-      </c>
-      <c r="V14" s="2" t="n">
-        <v>9488508032.81144</v>
-      </c>
-      <c r="W14" s="2" t="n">
-        <v>8407513711.55765</v>
-      </c>
-      <c r="X14" s="2" t="n">
-        <v>8834710917.368</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8518207878.21134</v>
-      </c>
-      <c r="Z14" s="2" t="n">
-        <v>9797981625.7116</v>
-      </c>
-      <c r="AA14" s="2" t="n">
-        <v>9570879181.65136</v>
-      </c>
-      <c r="AB14" s="2" t="n">
-        <v>11827163335.5227</v>
-      </c>
-      <c r="AC14" s="2" t="n">
-        <v>9237810728.39721</v>
-      </c>
-      <c r="AD14" s="2" t="n">
-        <v>10374900047.696</v>
-      </c>
-      <c r="AE14" s="2" t="n">
-        <v>11015464163.0117</v>
-      </c>
-      <c r="AF14" s="2" t="n">
-        <v>11847362191.7107</v>
-      </c>
-      <c r="AG14" s="2" t="n">
-        <v>14639127832.4577</v>
-      </c>
-      <c r="AH14" s="2" t="n">
-        <v>15679315671.5401</v>
-      </c>
-      <c r="AI14" s="2" t="n">
-        <v>15343460075.5785</v>
-      </c>
-      <c r="AJ14" s="2" t="n">
-        <v>14815873040.1385</v>
-      </c>
-      <c r="AK14" s="2" t="n">
-        <v>13244882224.5584</v>
-      </c>
-      <c r="AL14" s="2" t="n">
-        <v>10620170089.2067</v>
-      </c>
-      <c r="AM14" s="2" t="n">
-        <v>11328872986.6435</v>
-      </c>
-      <c r="AN14" s="2" t="n">
-        <v>10245753729.633</v>
-      </c>
-      <c r="AO14" s="2" t="n">
-        <v>10928859641.8349</v>
-      </c>
-      <c r="AP14" s="2" t="n">
-        <v>10463442230.2742</v>
-      </c>
-      <c r="AQ14" s="2" t="n">
-        <v>11698613440.1214</v>
-      </c>
-      <c r="AR14" s="2" t="n">
-        <v>13005110563.1874</v>
-      </c>
-      <c r="AS14" s="2" t="n">
-        <v>16901252010.62</v>
-      </c>
-      <c r="AT14" s="2" t="n">
-        <v>13955783500.7193</v>
-      </c>
-      <c r="AU14" s="2" t="n">
-        <v>13798203698.7861</v>
-      </c>
-      <c r="AV14" s="2" t="n">
-        <v>5664583611.24489</v>
-      </c>
-      <c r="AW14" s="2"/>
+      <c r="O14" s="12" t="n">
+        <v>7218757716.23767</v>
+      </c>
+      <c r="P14" s="12" t="n">
+        <v>9481212380.62895</v>
+      </c>
+      <c r="Q14" s="12" t="n">
+        <v>8263072953.78935</v>
+      </c>
+      <c r="R14" s="12" t="n">
+        <v>7696416158.61509</v>
+      </c>
+      <c r="S14" s="12" t="n">
+        <v>12449451608.6932</v>
+      </c>
+      <c r="T14" s="12" t="n">
+        <v>9823186695.97959</v>
+      </c>
+      <c r="U14" s="12" t="n">
+        <v>10482497561.1513</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>11324205093.8902</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>10842405673.5912</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>12440078802.2859</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>8863228377.23462</v>
+      </c>
+      <c r="Z14" s="12" t="n">
+        <v>10194940823.4264</v>
+      </c>
+      <c r="AA14" s="12" t="n">
+        <v>9959141330.24504</v>
+      </c>
+      <c r="AB14" s="12" t="n">
+        <v>12305983377.0162</v>
+      </c>
+      <c r="AC14" s="12" t="n">
+        <v>9612032370.30948</v>
+      </c>
+      <c r="AD14" s="12" t="n">
+        <v>10796790250.2314</v>
+      </c>
+      <c r="AE14" s="12" t="n">
+        <v>11461698628.6648</v>
+      </c>
+      <c r="AF14" s="12" t="n">
+        <v>12326020439.1448</v>
+      </c>
+      <c r="AG14" s="12" t="n">
+        <v>15231887692.8975</v>
+      </c>
+      <c r="AH14" s="12" t="n">
+        <v>16313275004.4399</v>
+      </c>
+      <c r="AI14" s="12" t="n">
+        <v>15964425946.0456</v>
+      </c>
+      <c r="AJ14" s="12" t="n">
+        <v>15417477936.5061</v>
+      </c>
+      <c r="AK14" s="12" t="n">
+        <v>13784592509.9972</v>
+      </c>
+      <c r="AL14" s="12" t="n">
+        <v>11153012098.9247</v>
+      </c>
+      <c r="AM14" s="12" t="n">
+        <v>11805059025.5541</v>
+      </c>
+      <c r="AN14" s="12" t="n">
+        <v>10693028670.849</v>
+      </c>
+      <c r="AO14" s="12" t="n">
+        <v>11417544341.2693</v>
+      </c>
+      <c r="AP14" s="12" t="n">
+        <v>10953143983.3186</v>
+      </c>
+      <c r="AQ14" s="12" t="n">
+        <v>12234247933.2314</v>
+      </c>
+      <c r="AR14" s="12" t="n">
+        <v>13626814763.7897</v>
+      </c>
+      <c r="AS14" s="12" t="n">
+        <v>17699454097.1346</v>
+      </c>
+      <c r="AT14" s="12" t="n">
+        <v>14616530615.2832</v>
+      </c>
+      <c r="AU14" s="12" t="n">
+        <v>14431243038.3433</v>
+      </c>
+      <c r="AV14" s="12" t="n">
+        <v>16762448718.1882</v>
+      </c>
+      <c r="AW14" s="12" t="n">
+        <v>17993927471.8679</v>
+      </c>
+      <c r="AX14" s="12" t="n">
+        <v>5636610419.97869</v>
+      </c>
+      <c r="AY14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -4997,109 +5129,115 @@
       <c r="N15" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>120941295.824431</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>169999742.900913</v>
-      </c>
-      <c r="Q15" s="2" t="n">
-        <v>271124339.024305</v>
-      </c>
-      <c r="R15" s="2" t="n">
-        <v>274241869.843764</v>
-      </c>
-      <c r="S15" s="2" t="n">
-        <v>570523519.439791</v>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>394138804.754979</v>
-      </c>
-      <c r="U15" s="2" t="n">
-        <v>260052668.992136</v>
-      </c>
-      <c r="V15" s="2" t="n">
-        <v>485374543.40505</v>
-      </c>
-      <c r="W15" s="2" t="n">
-        <v>373934484.577678</v>
-      </c>
-      <c r="X15" s="2" t="n">
-        <v>555884562.273126</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>781976045.60621</v>
-      </c>
-      <c r="Z15" s="2" t="n">
-        <v>860072394.274674</v>
-      </c>
-      <c r="AA15" s="2" t="n">
-        <v>1755271290.26569</v>
-      </c>
-      <c r="AB15" s="2" t="n">
-        <v>1635536008.93394</v>
-      </c>
-      <c r="AC15" s="2" t="n">
-        <v>1356904842.42291</v>
-      </c>
-      <c r="AD15" s="2" t="n">
-        <v>1063522113.76319</v>
-      </c>
-      <c r="AE15" s="2" t="n">
-        <v>1126139558.45142</v>
-      </c>
-      <c r="AF15" s="2" t="n">
-        <v>686943617.324362</v>
-      </c>
-      <c r="AG15" s="2" t="n">
-        <v>596972067.408192</v>
-      </c>
-      <c r="AH15" s="2" t="n">
-        <v>739819680.717819</v>
-      </c>
-      <c r="AI15" s="2" t="n">
-        <v>669736731.744206</v>
-      </c>
-      <c r="AJ15" s="2" t="n">
-        <v>449913933.995735</v>
-      </c>
-      <c r="AK15" s="2" t="n">
-        <v>469044022.686335</v>
-      </c>
-      <c r="AL15" s="2" t="n">
-        <v>430214416.292023</v>
-      </c>
-      <c r="AM15" s="2" t="n">
-        <v>369069408.906539</v>
-      </c>
-      <c r="AN15" s="2" t="n">
-        <v>436688264.763331</v>
-      </c>
-      <c r="AO15" s="2" t="n">
-        <v>401800461.248662</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>396715437.099314</v>
-      </c>
-      <c r="AQ15" s="2" t="n">
-        <v>455610240.114081</v>
-      </c>
-      <c r="AR15" s="2" t="n">
-        <v>483677386.57798</v>
-      </c>
-      <c r="AS15" s="2" t="n">
-        <v>463628437.089754</v>
-      </c>
-      <c r="AT15" s="2" t="n">
-        <v>520181558.633932</v>
-      </c>
-      <c r="AU15" s="2" t="n">
-        <v>470454087.5014</v>
-      </c>
-      <c r="AV15" s="2" t="n">
-        <v>201851470.30047</v>
-      </c>
-      <c r="AW15" s="2"/>
+      <c r="O15" s="12" t="n">
+        <v>125923209.183979</v>
+      </c>
+      <c r="P15" s="12" t="n">
+        <v>176892669.390377</v>
+      </c>
+      <c r="Q15" s="12" t="n">
+        <v>282107557.213436</v>
+      </c>
+      <c r="R15" s="12" t="n">
+        <v>285360018.131002</v>
+      </c>
+      <c r="S15" s="12" t="n">
+        <v>593636972.433457</v>
+      </c>
+      <c r="T15" s="12" t="n">
+        <v>410312251.430242</v>
+      </c>
+      <c r="U15" s="12" t="n">
+        <v>273395074.47013</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>769889672.662496</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>473810410.518439</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>633617071.973962</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>813649112.210915</v>
+      </c>
+      <c r="Z15" s="12" t="n">
+        <v>894917699.706487</v>
+      </c>
+      <c r="AA15" s="12" t="n">
+        <v>1826477436.44804</v>
+      </c>
+      <c r="AB15" s="12" t="n">
+        <v>1701750315.78371</v>
+      </c>
+      <c r="AC15" s="12" t="n">
+        <v>1411872752.72233</v>
+      </c>
+      <c r="AD15" s="12" t="n">
+        <v>1106526650.03177</v>
+      </c>
+      <c r="AE15" s="12" t="n">
+        <v>1171759268.21297</v>
+      </c>
+      <c r="AF15" s="12" t="n">
+        <v>714697585.669326</v>
+      </c>
+      <c r="AG15" s="12" t="n">
+        <v>621148789.886983</v>
+      </c>
+      <c r="AH15" s="12" t="n">
+        <v>769732691.254607</v>
+      </c>
+      <c r="AI15" s="12" t="n">
+        <v>696841677.158577</v>
+      </c>
+      <c r="AJ15" s="12" t="n">
+        <v>468160229.397552</v>
+      </c>
+      <c r="AK15" s="12" t="n">
+        <v>488153638.523021</v>
+      </c>
+      <c r="AL15" s="12" t="n">
+        <v>448958262.794657</v>
+      </c>
+      <c r="AM15" s="12" t="n">
+        <v>384629984.869628</v>
+      </c>
+      <c r="AN15" s="12" t="n">
+        <v>455655771.384391</v>
+      </c>
+      <c r="AO15" s="12" t="n">
+        <v>418676525.712079</v>
+      </c>
+      <c r="AP15" s="12" t="n">
+        <v>414213960.703033</v>
+      </c>
+      <c r="AQ15" s="12" t="n">
+        <v>477567763.535636</v>
+      </c>
+      <c r="AR15" s="12" t="n">
+        <v>506365275.139876</v>
+      </c>
+      <c r="AS15" s="12" t="n">
+        <v>481171663.800512</v>
+      </c>
+      <c r="AT15" s="12" t="n">
+        <v>541712599.731078</v>
+      </c>
+      <c r="AU15" s="12" t="n">
+        <v>492104777.868532</v>
+      </c>
+      <c r="AV15" s="12" t="n">
+        <v>645410106.1696</v>
+      </c>
+      <c r="AW15" s="12" t="n">
+        <v>706968527.965769</v>
+      </c>
+      <c r="AX15" s="12" t="n">
+        <v>219856479.495138</v>
+      </c>
+      <c r="AY15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5108,41 +5246,43 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2"/>
-      <c r="AM16" s="2"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
-      <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="2"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5279,6 +5419,12 @@
       <c r="AW1" t="s">
         <v>34</v>
       </c>
+      <c r="AX1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -5291,94 +5437,108 @@
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3" t="n">
+        <v>229000</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="W2" s="3" t="n">
+        <v>28563387</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>13951376</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>24770561</v>
+      </c>
       <c r="Z2" s="3" t="n">
-        <v>15345881642.2731</v>
+        <v>320538683</v>
       </c>
       <c r="AA2" s="3" t="n">
-        <v>17532963249.4187</v>
+        <v>432788435</v>
       </c>
       <c r="AB2" s="3" t="n">
-        <v>18942203544.6014</v>
+        <v>780298065</v>
       </c>
       <c r="AC2" s="3" t="n">
-        <v>25477712380.4269</v>
+        <v>665235544</v>
       </c>
       <c r="AD2" s="3" t="n">
-        <v>25080066120.9268</v>
+        <v>757233366.49</v>
       </c>
       <c r="AE2" s="3" t="n">
-        <v>29581474197.7344</v>
+        <v>803798139.8198</v>
       </c>
       <c r="AF2" s="3" t="n">
-        <v>35507608435.7436</v>
+        <v>688398227.5294</v>
       </c>
       <c r="AG2" s="3" t="n">
-        <v>36973729711.8321</v>
+        <v>702293995.3092</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>47092584611.4205</v>
+        <v>471628806.0348</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>40469635475.8336</v>
+        <v>480834626.5032</v>
       </c>
       <c r="AJ2" s="3" t="n">
-        <v>50766298896.5493</v>
+        <v>2207101804.554</v>
       </c>
       <c r="AK2" s="3" t="n">
-        <v>46380689957.2157</v>
+        <v>713710110.1468</v>
       </c>
       <c r="AL2" s="3" t="n">
-        <v>42394453594.0767</v>
+        <v>559266700.9425</v>
       </c>
       <c r="AM2" s="3" t="n">
-        <v>33432752697.7434</v>
+        <v>448624934.0483</v>
       </c>
       <c r="AN2" s="3" t="n">
-        <v>36789456126.9644</v>
+        <v>633829987.4618</v>
       </c>
       <c r="AO2" s="3" t="n">
-        <v>33811327787.04</v>
+        <v>506989326.035</v>
       </c>
       <c r="AP2" s="3" t="n">
-        <v>33233952149.2717</v>
+        <v>1129069715.038</v>
       </c>
       <c r="AQ2" s="3" t="n">
-        <v>34065038817.3485</v>
+        <v>319862672.9312</v>
       </c>
       <c r="AR2" s="3" t="n">
-        <v>40567948513.5673</v>
+        <v>390634038.1385</v>
       </c>
       <c r="AS2" s="3" t="n">
-        <v>44244786249.23</v>
+        <v>242226745.0399</v>
       </c>
       <c r="AT2" s="3" t="n">
-        <v>52227215262.2694</v>
+        <v>314714626.2189</v>
       </c>
       <c r="AU2" s="3" t="n">
-        <v>45171764373.5009</v>
+        <v>379215964.8456</v>
       </c>
       <c r="AV2" s="3" t="n">
-        <v>49575158994.9686</v>
+        <v>452727503.9615</v>
       </c>
       <c r="AW2" s="3" t="n">
-        <v>56816472615.1034</v>
-      </c>
-      <c r="AX2" s="3"/>
+        <v>477462206.6811</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>411746576.4</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>79224684.7</v>
+      </c>
+      <c r="AZ2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5390,95 +5550,81 @@
       <c r="M3" t="s">
         <v>49</v>
       </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
+      <c r="N3"/>
       <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3" t="n">
+        <v>9193</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3" t="n">
-        <v>615402061</v>
+        <v>2894007</v>
       </c>
       <c r="AA3" s="3" t="n">
-        <v>745958682</v>
+        <v>9715337.1</v>
       </c>
       <c r="AB3" s="3" t="n">
-        <v>763204575</v>
+        <v>22434545.75</v>
       </c>
       <c r="AC3" s="3" t="n">
-        <v>1089949612.08</v>
+        <v>36882262.91</v>
       </c>
       <c r="AD3" s="3" t="n">
-        <v>954326488.5317</v>
+        <v>60732928.4</v>
       </c>
       <c r="AE3" s="3" t="n">
-        <v>1464531874.6877</v>
+        <v>109271192.02</v>
       </c>
       <c r="AF3" s="3" t="n">
-        <v>1750353031.1849</v>
+        <v>414833532.4045</v>
       </c>
       <c r="AG3" s="3" t="n">
-        <v>1239623517.1553</v>
+        <v>1166186783.7625</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>703965703.162</v>
+        <v>2311835404.0266</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>683150566.7904</v>
+        <v>3259704386.0485</v>
       </c>
       <c r="AJ3" s="3" t="n">
-        <v>1463047951.211</v>
+        <v>56540240.8928</v>
       </c>
       <c r="AK3" s="3" t="n">
-        <v>1594126904.5965</v>
+        <v>7968213.2844</v>
       </c>
       <c r="AL3" s="3" t="n">
-        <v>1197342150.4164</v>
+        <v>-3798944.3907</v>
       </c>
       <c r="AM3" s="3" t="n">
-        <v>1053810335.8304</v>
+        <v>-1927663.39</v>
       </c>
       <c r="AN3" s="3" t="n">
-        <v>907606716.7881</v>
-      </c>
-      <c r="AO3" s="3" t="n">
-        <v>829698723.3953</v>
-      </c>
-      <c r="AP3" s="3" t="n">
-        <v>882225257.9374</v>
-      </c>
-      <c r="AQ3" s="3" t="n">
-        <v>845807936.0675</v>
-      </c>
-      <c r="AR3" s="3" t="n">
-        <v>923510179.3376</v>
-      </c>
-      <c r="AS3" s="3" t="n">
-        <v>1162693786.714</v>
-      </c>
-      <c r="AT3" s="3" t="n">
-        <v>1511773793.6195</v>
-      </c>
-      <c r="AU3" s="3" t="n">
-        <v>1631016043.4709</v>
-      </c>
-      <c r="AV3" s="3" t="n">
-        <v>2554564359.9781</v>
-      </c>
-      <c r="AW3" s="3" t="n">
-        <v>2327857105.7091</v>
-      </c>
+        <v>-453257.22</v>
+      </c>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5490,95 +5636,119 @@
       <c r="M4" t="s">
         <v>49</v>
       </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
+      <c r="N4"/>
       <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>77272082.56</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>47200000</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>55289019</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>71684000</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>57005000</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>71862000</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>152856000</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>1139279713</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>1921812582.02</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>3934216661.99</v>
+      </c>
       <c r="Z4" s="3" t="n">
-        <v>353605860</v>
+        <v>15347896871.2731</v>
       </c>
       <c r="AA4" s="3" t="n">
-        <v>501638178</v>
+        <v>17532963248.4185</v>
       </c>
       <c r="AB4" s="3" t="n">
-        <v>526446374</v>
+        <v>18942203550.6048</v>
       </c>
       <c r="AC4" s="3" t="n">
-        <v>798199438</v>
+        <v>25477712382.4181</v>
       </c>
       <c r="AD4" s="3" t="n">
-        <v>911358315.6309</v>
+        <v>25080066117.923</v>
       </c>
       <c r="AE4" s="3" t="n">
-        <v>676042983.87</v>
+        <v>29581586706.9939</v>
       </c>
       <c r="AF4" s="3" t="n">
-        <v>694448016.3993</v>
+        <v>35507608452.4823</v>
       </c>
       <c r="AG4" s="3" t="n">
-        <v>679765460.9636</v>
+        <v>36973729698.0832</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>559492990.3133</v>
+        <v>47091283556.3663</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>1139154818.5304</v>
+        <v>54371696781.0611</v>
       </c>
       <c r="AJ4" s="3" t="n">
-        <v>969845816.7892</v>
+        <v>50766982375.9</v>
       </c>
       <c r="AK4" s="3" t="n">
-        <v>652173104.5862</v>
+        <v>46387679940.1174</v>
       </c>
       <c r="AL4" s="3" t="n">
-        <v>543768425.9068</v>
+        <v>42396463016.434</v>
       </c>
       <c r="AM4" s="3" t="n">
-        <v>82567155.4116</v>
+        <v>33666500110.3529</v>
       </c>
       <c r="AN4" s="3" t="n">
-        <v>168378109.9497</v>
+        <v>36788211417.6882</v>
       </c>
       <c r="AO4" s="3" t="n">
-        <v>165358697.6416</v>
+        <v>33652911280.9919</v>
       </c>
       <c r="AP4" s="3" t="n">
-        <v>64672606.1158</v>
+        <v>33257871037.4075</v>
       </c>
       <c r="AQ4" s="3" t="n">
-        <v>49394479.9619</v>
+        <v>34226729850.8762</v>
       </c>
       <c r="AR4" s="3" t="n">
-        <v>839778098.7902</v>
+        <v>40749054408.6131</v>
       </c>
       <c r="AS4" s="3" t="n">
-        <v>165662651.8757</v>
+        <v>44514955949.7553</v>
       </c>
       <c r="AT4" s="3" t="n">
-        <v>68549290.0929</v>
+        <v>52074580234.1158</v>
       </c>
       <c r="AU4" s="3" t="n">
-        <v>145471096.6592</v>
+        <v>45256773786.0252</v>
       </c>
       <c r="AV4" s="3" t="n">
-        <v>103414079.8977</v>
+        <v>49670581573.2146</v>
       </c>
       <c r="AW4" s="3" t="n">
-        <v>120763468.5801</v>
-      </c>
-      <c r="AX4" s="3"/>
+        <v>56718871419.3924</v>
+      </c>
+      <c r="AX4" s="3" t="n">
+        <v>57100353673.8838</v>
+      </c>
+      <c r="AY4" s="3" t="n">
+        <v>19210521224.55</v>
+      </c>
+      <c r="AZ4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5590,95 +5760,119 @@
       <c r="M5" t="s">
         <v>52</v>
       </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
+      <c r="N5"/>
       <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>9638000</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>6827000</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>320675000</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>13687000</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>4103000</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>-3387118</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>13952000</v>
+      </c>
+      <c r="W5" s="3" t="n">
+        <v>483315587</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>477796309</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>550972127</v>
+      </c>
       <c r="Z5" s="3" t="n">
-        <v>320538683</v>
+        <v>2537273698.9317</v>
       </c>
       <c r="AA5" s="3" t="n">
-        <v>432788435</v>
+        <v>2771675463.32</v>
       </c>
       <c r="AB5" s="3" t="n">
-        <v>780298062</v>
+        <v>3559746163.4</v>
       </c>
       <c r="AC5" s="3" t="n">
-        <v>665235544</v>
+        <v>4688023773</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>757233364.49</v>
+        <v>6361660625.1563</v>
       </c>
       <c r="AE5" s="3" t="n">
-        <v>802219500.7898</v>
+        <v>5739866388.7286</v>
       </c>
       <c r="AF5" s="3" t="n">
-        <v>688398227.5292</v>
+        <v>5547565114.9927</v>
       </c>
       <c r="AG5" s="3" t="n">
-        <v>702293990.3086</v>
+        <v>4890509606.4107</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>471628806.0348</v>
+        <v>5462891022.968</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>480834625.943</v>
+        <v>4962849384.2297</v>
       </c>
       <c r="AJ5" s="3" t="n">
-        <v>2468354862.7565</v>
+        <v>4285755751.4415</v>
       </c>
       <c r="AK5" s="3" t="n">
-        <v>948391412.6218</v>
+        <v>4744246703.8897</v>
       </c>
       <c r="AL5" s="3" t="n">
-        <v>887966577.4075</v>
+        <v>3909466953.7726</v>
       </c>
       <c r="AM5" s="3" t="n">
-        <v>1037386819.1783</v>
+        <v>3787132001.5735</v>
       </c>
       <c r="AN5" s="3" t="n">
-        <v>1226866124.7718</v>
+        <v>3319198156.0548</v>
       </c>
       <c r="AO5" s="3" t="n">
-        <v>923891605.5908</v>
+        <v>2705748974.6892</v>
       </c>
       <c r="AP5" s="3" t="n">
-        <v>1557509402.7261</v>
+        <v>2622456546.8725</v>
       </c>
       <c r="AQ5" s="3" t="n">
-        <v>710078085.7718</v>
+        <v>2533426072.8956</v>
       </c>
       <c r="AR5" s="3" t="n">
-        <v>390672908.1279</v>
+        <v>3125670389.555</v>
       </c>
       <c r="AS5" s="3" t="n">
-        <v>242230551.0865</v>
+        <v>2775854420.245</v>
       </c>
       <c r="AT5" s="3" t="n">
-        <v>314714626.7076</v>
+        <v>3378485051.7343</v>
       </c>
       <c r="AU5" s="3" t="n">
-        <v>379215964.7467</v>
+        <v>3006613205.2751</v>
       </c>
       <c r="AV5" s="3" t="n">
-        <v>452727503.4116</v>
+        <v>3040724673.4144</v>
       </c>
       <c r="AW5" s="3" t="n">
-        <v>477462208.9214</v>
-      </c>
-      <c r="AX5" s="3"/>
+        <v>4239566885.4717</v>
+      </c>
+      <c r="AX5" s="3" t="n">
+        <v>4375089289.12</v>
+      </c>
+      <c r="AY5" s="3" t="n">
+        <v>1100812721.12</v>
+      </c>
+      <c r="AZ5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5690,95 +5884,117 @@
       <c r="M6" t="s">
         <v>53</v>
       </c>
-      <c r="N6" t="s">
-        <v>53</v>
-      </c>
+      <c r="N6"/>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="Q6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>1424000</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>6309413.16</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>36178000</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>46566000</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>43320843</v>
+      </c>
+      <c r="X6" s="3" t="n">
+        <v>59547836</v>
+      </c>
+      <c r="Y6" s="3" t="n">
+        <v>139570138</v>
+      </c>
       <c r="Z6" s="3" t="n">
-        <v>2536302693.9317</v>
+        <v>615402061</v>
       </c>
       <c r="AA6" s="3" t="n">
-        <v>2771675463.32</v>
+        <v>745958680</v>
       </c>
       <c r="AB6" s="3" t="n">
-        <v>3559746163.4</v>
+        <v>763204574</v>
       </c>
       <c r="AC6" s="3" t="n">
-        <v>4688023773</v>
+        <v>1089949614.08</v>
       </c>
       <c r="AD6" s="3" t="n">
-        <v>6361660624.1563</v>
+        <v>954418528.5317</v>
       </c>
       <c r="AE6" s="3" t="n">
-        <v>5739866389.7286</v>
+        <v>1464531876.6877</v>
       </c>
       <c r="AF6" s="3" t="n">
-        <v>5547565115.7143</v>
+        <v>1750260990.1871</v>
       </c>
       <c r="AG6" s="3" t="n">
-        <v>4890509606.4084</v>
+        <v>1239623520.2719</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>5462891047.3795</v>
+        <v>703965703.374</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>4976099382.5342</v>
+        <v>683141130.9328</v>
       </c>
       <c r="AJ6" s="3" t="n">
-        <v>4051556712.8982</v>
+        <v>1461555443.4388</v>
       </c>
       <c r="AK6" s="3" t="n">
-        <v>4514586074.6799</v>
+        <v>1594126904.4358</v>
       </c>
       <c r="AL6" s="3" t="n">
-        <v>3586333400.2535</v>
+        <v>1197342149.3044</v>
       </c>
       <c r="AM6" s="3" t="n">
-        <v>3162025638.9323</v>
+        <v>1055062689.9626</v>
       </c>
       <c r="AN6" s="3" t="n">
-        <v>2744176831.3742</v>
+        <v>907606716.2504</v>
       </c>
       <c r="AO6" s="3" t="n">
-        <v>2314384501.9851</v>
+        <v>831127222.9489</v>
       </c>
       <c r="AP6" s="3" t="n">
-        <v>2201886726.7506</v>
+        <v>883072002.6422</v>
       </c>
       <c r="AQ6" s="3" t="n">
-        <v>2156847649.5284</v>
+        <v>842521209.7383</v>
       </c>
       <c r="AR6" s="3" t="n">
-        <v>3110745463.2082</v>
+        <v>923462534.2812</v>
       </c>
       <c r="AS6" s="3" t="n">
-        <v>2768182665.5426</v>
+        <v>1162966478.5382</v>
       </c>
       <c r="AT6" s="3" t="n">
-        <v>3206193628.8927</v>
+        <v>1525451369.4627</v>
       </c>
       <c r="AU6" s="3" t="n">
-        <v>2939197444.7893</v>
+        <v>1637069248.8302</v>
       </c>
       <c r="AV6" s="3" t="n">
-        <v>3028984285.4342</v>
+        <v>2551534130.9993</v>
       </c>
       <c r="AW6" s="3" t="n">
-        <v>4148060195.958</v>
-      </c>
-      <c r="AX6" s="3"/>
+        <v>2327551742.2086</v>
+      </c>
+      <c r="AX6" s="3" t="n">
+        <v>3226814882.63</v>
+      </c>
+      <c r="AY6" s="3" t="n">
+        <v>1235843922.89</v>
+      </c>
+      <c r="AZ6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5790,95 +6006,111 @@
       <c r="M7" t="s">
         <v>55</v>
       </c>
-      <c r="N7" t="s">
-        <v>55</v>
-      </c>
+      <c r="N7"/>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="S7" s="3" t="n">
+        <v>4649000</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>13276000</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>10759000</v>
+      </c>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="3" t="n">
+        <v>67153495</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>88563854</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>150005828</v>
+      </c>
       <c r="Z7" s="3" t="n">
-        <v>95357103</v>
+        <v>353605860</v>
       </c>
       <c r="AA7" s="3" t="n">
-        <v>96374621</v>
+        <v>501638178</v>
       </c>
       <c r="AB7" s="3" t="n">
-        <v>176283335</v>
+        <v>526446374</v>
       </c>
       <c r="AC7" s="3" t="n">
-        <v>176782492</v>
+        <v>798199438</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>66516179.1191</v>
+        <v>911358315.6309</v>
       </c>
       <c r="AE7" s="3" t="n">
-        <v>6858606</v>
+        <v>676042983.87</v>
       </c>
       <c r="AF7" s="3" t="n">
-        <v>226945815.1757</v>
+        <v>694448016.4002</v>
       </c>
       <c r="AG7" s="3" t="n">
-        <v>514318806.8779</v>
+        <v>679765460.9664</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>481931252.3261</v>
+        <v>559492990.3227</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>1545351004.7246</v>
+        <v>1139154818.4791</v>
       </c>
       <c r="AJ7" s="3" t="n">
-        <v>1433685005.1451</v>
+        <v>969845816.7901</v>
       </c>
       <c r="AK7" s="3" t="n">
-        <v>480452140.8592</v>
+        <v>643487748.8766</v>
       </c>
       <c r="AL7" s="3" t="n">
-        <v>330762474.9628</v>
+        <v>543768425.8874</v>
       </c>
       <c r="AM7" s="3" t="n">
-        <v>420887238.0928</v>
+        <v>82434551.1216</v>
       </c>
       <c r="AN7" s="3" t="n">
-        <v>338475994.2019</v>
+        <v>168378109.9497</v>
       </c>
       <c r="AO7" s="3" t="n">
-        <v>59393159.3235</v>
+        <v>165370581.1536</v>
       </c>
       <c r="AP7" s="3" t="n">
-        <v>589184629.6477</v>
+        <v>64668392.6153</v>
       </c>
       <c r="AQ7" s="3" t="n">
-        <v>584071145.2147</v>
+        <v>49852652.8775</v>
       </c>
       <c r="AR7" s="3" t="n">
-        <v>1119694484.6265</v>
+        <v>839778098.8481</v>
       </c>
       <c r="AS7" s="3" t="n">
-        <v>3459603994.761</v>
+        <v>165662651.9614</v>
       </c>
       <c r="AT7" s="3" t="n">
-        <v>2838284292.2324</v>
+        <v>68572497.4845</v>
       </c>
       <c r="AU7" s="3" t="n">
-        <v>891143036.1291</v>
+        <v>145467602.8879</v>
       </c>
       <c r="AV7" s="3" t="n">
-        <v>1563749032.6892</v>
+        <v>103136588.3404</v>
       </c>
       <c r="AW7" s="3" t="n">
-        <v>1161239904.6044</v>
-      </c>
-      <c r="AX7" s="3"/>
+        <v>120913469.8797</v>
+      </c>
+      <c r="AX7" s="3" t="n">
+        <v>154572207.33</v>
+      </c>
+      <c r="AY7" s="3" t="n">
+        <v>38866270.7</v>
+      </c>
+      <c r="AZ7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5890,79 +6122,109 @@
       <c r="M8" t="s">
         <v>57</v>
       </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3" t="n">
+        <v>3000</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3" t="n">
+        <v>208000</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="W8" s="3" t="n">
+        <v>12174807</v>
+      </c>
+      <c r="X8" s="3" t="n">
+        <v>1167560</v>
+      </c>
+      <c r="Y8" s="3" t="n">
+        <v>11218529</v>
+      </c>
       <c r="Z8" s="3" t="n">
-        <v>2894007</v>
+        <v>95357103</v>
       </c>
       <c r="AA8" s="3" t="n">
-        <v>9715337.1</v>
+        <v>96374621</v>
       </c>
       <c r="AB8" s="3" t="n">
-        <v>22434545.75</v>
+        <v>176283335</v>
       </c>
       <c r="AC8" s="3" t="n">
-        <v>36882262.9102</v>
+        <v>176782492</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>60732928.4</v>
+        <v>66516179.1191</v>
       </c>
       <c r="AE8" s="3" t="n">
-        <v>109271192.02</v>
+        <v>6858606</v>
       </c>
       <c r="AF8" s="3" t="n">
-        <v>414833532.4045</v>
+        <v>226945815.1757</v>
       </c>
       <c r="AG8" s="3" t="n">
-        <v>1166186783.7385</v>
+        <v>514318806.8778</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>2311835406.9875</v>
+        <v>481931252.3148</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>3259704390.1028</v>
+        <v>1558601007.6312</v>
       </c>
       <c r="AJ8" s="3" t="n">
-        <v>56338921.6228</v>
+        <v>1457206863.7986</v>
       </c>
       <c r="AK8" s="3" t="n">
-        <v>7968213.2844</v>
+        <v>487738998.5735</v>
       </c>
       <c r="AL8" s="3" t="n">
-        <v>-3760244.3907</v>
+        <v>330776992.5109</v>
       </c>
       <c r="AM8" s="3" t="n">
-        <v>-1923733.15</v>
+        <v>428289894.953</v>
       </c>
       <c r="AN8" s="3" t="n">
-        <v>-453257.22</v>
+        <v>342009239.1519</v>
       </c>
       <c r="AO8" s="3" t="n">
-        <v>-627.73</v>
-      </c>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
+        <v>221834279.0135</v>
+      </c>
+      <c r="AP8" s="3" t="n">
+        <v>561574772.9069</v>
+      </c>
+      <c r="AQ8" s="3" t="n">
+        <v>492547013.9469</v>
+      </c>
+      <c r="AR8" s="3" t="n">
+        <v>929266940.303</v>
+      </c>
+      <c r="AS8" s="3" t="n">
+        <v>3216336813.3757</v>
+      </c>
+      <c r="AT8" s="3" t="n">
+        <v>2838201642.9466</v>
+      </c>
+      <c r="AU8" s="3" t="n">
+        <v>889375753.4224</v>
+      </c>
+      <c r="AV8" s="3" t="n">
+        <v>1550412172.409</v>
+      </c>
+      <c r="AW8" s="3" t="n">
+        <v>1147527906.5791</v>
+      </c>
+      <c r="AX8" s="3" t="n">
+        <v>999758699.5344</v>
+      </c>
+      <c r="AY8" s="3" t="n">
+        <v>383964486.56</v>
+      </c>
+      <c r="AZ8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5974,9 +6236,7 @@
       <c r="M9" t="s">
         <v>57</v>
       </c>
-      <c r="N9" t="s">
-        <v>57</v>
-      </c>
+      <c r="N9"/>
       <c r="O9"/>
       <c r="P9" s="3" t="n">
         <v>12183236305</v>
@@ -5988,28 +6248,28 @@
         <v>17657715911</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>17178015869</v>
+        <v>17178206869</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>20332444544</v>
+        <v>20332518544</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>20137905407</v>
+        <v>20138032407</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>20282796585</v>
+        <v>20283520585</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>20228512717</v>
+        <v>20323560226</v>
       </c>
       <c r="X9" s="3" t="n">
-        <v>19564618261</v>
+        <v>19693593597</v>
       </c>
       <c r="Y9" s="3" t="n">
-        <v>20604829391</v>
+        <v>20831965741</v>
       </c>
       <c r="Z9" s="3" t="n">
-        <v>1529947758.8696</v>
+        <v>1526961524.8696</v>
       </c>
       <c r="AA9" s="3" t="n">
         <v>975167745.3599</v>
@@ -6033,10 +6293,10 @@
         <v>30602316.1805</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>206782356.8326</v>
+        <v>206782356.8619</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>-91849558.0251</v>
+        <v>-91815520.0685</v>
       </c>
       <c r="AJ9" s="3" t="n">
         <v>31037044.388</v>
@@ -6045,22 +6305,22 @@
         <v>2239410.2757</v>
       </c>
       <c r="AL9" s="3" t="n">
-        <v>74795267.768</v>
+        <v>74699365.5414</v>
       </c>
       <c r="AM9" s="3" t="n">
         <v>53238528.2305</v>
       </c>
       <c r="AN9" s="3" t="n">
-        <v>38848514.4392</v>
+        <v>38834286.1592</v>
       </c>
       <c r="AO9" s="3" t="n">
-        <v>23735212.7223</v>
+        <v>11157219.8612</v>
       </c>
       <c r="AP9" s="3" t="n">
-        <v>32043354.8229</v>
+        <v>26826606.5648</v>
       </c>
       <c r="AQ9" s="3" t="n">
-        <v>29615682.1826</v>
+        <v>15260684.2725</v>
       </c>
       <c r="AR9" s="3" t="n">
         <v>0</v>
@@ -6080,7 +6340,13 @@
       <c r="AW9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="3"/>
+      <c r="AX9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6194,8 +6460,16 @@
       <c r="AV10" s="3" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AW10" s="3" t="str">
+        <f>Sum(AW2:AW9)</f>
+      </c>
+      <c r="AX10" s="3" t="str">
+        <f>Sum(AX2:AX9)</f>
+      </c>
+      <c r="AY10" s="3" t="str">
+        <f>Sum(AY2:AY9)</f>
+      </c>
+      <c r="AZ10" s="3"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6315,6 +6589,12 @@
       <c r="AW13" t="s">
         <v>34</v>
       </c>
+      <c r="AX13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6327,94 +6607,108 @@
         <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="O14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3" t="n">
+        <v>446122.406707496</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="W14" s="3" t="n">
+        <v>50248344.8973064</v>
+      </c>
+      <c r="X14" s="3" t="n">
+        <v>24239175.4866107</v>
+      </c>
+      <c r="Y14" s="3" t="n">
+        <v>42510085.4738499</v>
+      </c>
       <c r="Z14" s="3" t="n">
-        <v>24794802109.6217</v>
+        <v>538881104.766551</v>
       </c>
       <c r="AA14" s="3" t="n">
-        <v>27657848718.9243</v>
+        <v>710373594.602855</v>
       </c>
       <c r="AB14" s="3" t="n">
-        <v>29416595047.0161</v>
+        <v>1260934403.28577</v>
       </c>
       <c r="AC14" s="3" t="n">
-        <v>38823914830.5708</v>
+        <v>1054751302.8285</v>
       </c>
       <c r="AD14" s="3" t="n">
-        <v>37306079916.9493</v>
+        <v>1171997933.96022</v>
       </c>
       <c r="AE14" s="3" t="n">
-        <v>42705434439.8327</v>
+        <v>1207329137.2072</v>
       </c>
       <c r="AF14" s="3" t="n">
-        <v>49644422427.1915</v>
+        <v>1001463134.32088</v>
       </c>
       <c r="AG14" s="3" t="n">
-        <v>50314477871.6742</v>
+        <v>994305590.674049</v>
       </c>
       <c r="AH14" s="3" t="n">
-        <v>62775158014.8838</v>
+        <v>654149850.350724</v>
       </c>
       <c r="AI14" s="3" t="n">
-        <v>53403973578.6134</v>
+        <v>660167392.010011</v>
       </c>
       <c r="AJ14" s="3" t="n">
-        <v>66413879259.6234</v>
+        <v>3004247515.42325</v>
       </c>
       <c r="AK14" s="3" t="n">
-        <v>59477803295.7213</v>
+        <v>952367656.333313</v>
       </c>
       <c r="AL14" s="3" t="n">
-        <v>53387335400.8345</v>
+        <v>732979237.816309</v>
       </c>
       <c r="AM14" s="3" t="n">
-        <v>41345247425.6617</v>
+        <v>577492836.449941</v>
       </c>
       <c r="AN14" s="3" t="n">
-        <v>44632911474.2604</v>
+        <v>801280308.315496</v>
       </c>
       <c r="AO14" s="3" t="n">
-        <v>40554914853.76</v>
+        <v>634360260.64027</v>
       </c>
       <c r="AP14" s="3" t="n">
-        <v>39534777975.1933</v>
+        <v>1401520644.43397</v>
       </c>
       <c r="AQ14" s="3" t="n">
-        <v>39812624968.9859</v>
+        <v>390456364.922122</v>
       </c>
       <c r="AR14" s="3" t="n">
-        <v>46325006853.3443</v>
+        <v>466490872.81643</v>
       </c>
       <c r="AS14" s="3" t="n">
-        <v>49553058816.6067</v>
+        <v>284013243.484521</v>
       </c>
       <c r="AT14" s="3" t="n">
-        <v>57723128151.3675</v>
+        <v>364247790.052567</v>
       </c>
       <c r="AU14" s="3" t="n">
-        <v>48301607285.4277</v>
+        <v>424297826.110307</v>
       </c>
       <c r="AV14" s="3" t="n">
-        <v>49575158994.9686</v>
+        <v>473438245.603204</v>
       </c>
       <c r="AW14" s="3" t="n">
-        <v>54191459505.5168</v>
-      </c>
-      <c r="AX14" s="3"/>
+        <v>477462206.6811</v>
+      </c>
+      <c r="AX14" s="3" t="n">
+        <v>401036500.431904</v>
+      </c>
+      <c r="AY14" s="3" t="n">
+        <v>75507161.6309332</v>
+      </c>
+      <c r="AZ14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6426,95 +6720,81 @@
       <c r="M15" t="s">
         <v>49</v>
       </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
+      <c r="N15"/>
       <c r="O15" t="s">
-        <v>50</v>
-      </c>
-      <c r="P15" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="n">
+        <v>16769.1200068</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3" t="n">
-        <v>994323602.647581</v>
+        <v>4865327.56285809</v>
       </c>
       <c r="AA15" s="3" t="n">
-        <v>1176732768.09088</v>
+        <v>15946634.3838543</v>
       </c>
       <c r="AB15" s="3" t="n">
-        <v>1185230634.22595</v>
+        <v>36253441.8924435</v>
       </c>
       <c r="AC15" s="3" t="n">
-        <v>1660907002.84052</v>
+        <v>58477955.9758247</v>
       </c>
       <c r="AD15" s="3" t="n">
-        <v>1419540924.50812</v>
+        <v>93998587.1701468</v>
       </c>
       <c r="AE15" s="3" t="n">
-        <v>2114278333.1708</v>
+        <v>164128638.08404</v>
       </c>
       <c r="AF15" s="3" t="n">
-        <v>2447229456.02232</v>
+        <v>603488610.181624</v>
       </c>
       <c r="AG15" s="3" t="n">
-        <v>1686900686.22311</v>
+        <v>1651083515.75002</v>
       </c>
       <c r="AH15" s="3" t="n">
-        <v>938397385.017095</v>
+        <v>3206519118.91047</v>
       </c>
       <c r="AI15" s="3" t="n">
-        <v>901489583.242602</v>
+        <v>4475448365.5035</v>
       </c>
       <c r="AJ15" s="3" t="n">
-        <v>1913999879.73855</v>
+        <v>76961052.6678678</v>
       </c>
       <c r="AK15" s="3" t="n">
-        <v>2044281069.28704</v>
+        <v>10632704.375264</v>
       </c>
       <c r="AL15" s="3" t="n">
-        <v>1507812969.73168</v>
+        <v>-4978925.72418345</v>
       </c>
       <c r="AM15" s="3" t="n">
-        <v>1303214529.43264</v>
+        <v>-2481386.37495338</v>
       </c>
       <c r="AN15" s="3" t="n">
-        <v>1101107070.02697</v>
-      </c>
-      <c r="AO15" s="3" t="n">
-        <v>995180115.182206</v>
-      </c>
-      <c r="AP15" s="3" t="n">
-        <v>1049486366.83366</v>
-      </c>
-      <c r="AQ15" s="3" t="n">
-        <v>988515948.41859</v>
-      </c>
-      <c r="AR15" s="3" t="n">
-        <v>1054566892.20161</v>
-      </c>
-      <c r="AS15" s="3" t="n">
-        <v>1302188087.74886</v>
-      </c>
-      <c r="AT15" s="3" t="n">
-        <v>1670858995.38703</v>
-      </c>
-      <c r="AU15" s="3" t="n">
-        <v>1744025222.40594</v>
-      </c>
-      <c r="AV15" s="3" t="n">
-        <v>2554564359.9781</v>
-      </c>
-      <c r="AW15" s="3" t="n">
-        <v>2220306334.98233</v>
-      </c>
+        <v>-573002.369992337</v>
+      </c>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
       <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6526,95 +6806,119 @@
       <c r="M16" t="s">
         <v>49</v>
       </c>
-      <c r="N16" t="s">
-        <v>49</v>
-      </c>
+      <c r="N16"/>
       <c r="O16" t="s">
-        <v>51</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>159820452.610492</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>94253296.2524358</v>
+      </c>
+      <c r="R16" s="3" t="n">
+        <v>107710350.309068</v>
+      </c>
+      <c r="S16" s="3" t="n">
+        <v>136448867.588512</v>
+      </c>
+      <c r="T16" s="3" t="n">
+        <v>106189536.906209</v>
+      </c>
+      <c r="U16" s="3" t="n">
+        <v>131084792.98691</v>
+      </c>
+      <c r="V16" s="3" t="n">
+        <v>273674566.07096</v>
+      </c>
+      <c r="W16" s="3" t="n">
+        <v>2004206292.24847</v>
+      </c>
+      <c r="X16" s="3" t="n">
+        <v>3338964732.07799</v>
+      </c>
+      <c r="Y16" s="3" t="n">
+        <v>6751719776.30378</v>
+      </c>
       <c r="Z16" s="3" t="n">
-        <v>571331613.776471</v>
+        <v>25802475833.579</v>
       </c>
       <c r="AA16" s="3" t="n">
-        <v>791322758.24629</v>
+        <v>28778389438.2917</v>
       </c>
       <c r="AB16" s="3" t="n">
-        <v>817553235.634068</v>
+        <v>30609938948.1371</v>
       </c>
       <c r="AC16" s="3" t="n">
-        <v>1216326903.13785</v>
+        <v>40395692278.9522</v>
       </c>
       <c r="AD16" s="3" t="n">
-        <v>1355626655.52679</v>
+        <v>38817340828.5484</v>
       </c>
       <c r="AE16" s="3" t="n">
-        <v>975972635.210329</v>
+        <v>44432438676.9314</v>
       </c>
       <c r="AF16" s="3" t="n">
-        <v>970931926.948576</v>
+        <v>51655509022.2725</v>
       </c>
       <c r="AG16" s="3" t="n">
-        <v>925036357.16892</v>
+        <v>52347288161.9748</v>
       </c>
       <c r="AH16" s="3" t="n">
-        <v>745812980.216416</v>
+        <v>65315679825.0095</v>
       </c>
       <c r="AI16" s="3" t="n">
-        <v>1503235527.46294</v>
+        <v>74650242067.9417</v>
       </c>
       <c r="AJ16" s="3" t="n">
-        <v>1268779177.85468</v>
+        <v>69102648710.4673</v>
       </c>
       <c r="AK16" s="3" t="n">
-        <v>836335631.598407</v>
+        <v>61899257694.728</v>
       </c>
       <c r="AL16" s="3" t="n">
-        <v>684767578.61378</v>
+        <v>55565130367.1808</v>
       </c>
       <c r="AM16" s="3" t="n">
-        <v>102108238.008056</v>
+        <v>43337231541.3408</v>
       </c>
       <c r="AN16" s="3" t="n">
-        <v>204276063.490922</v>
+        <v>46507217976.8355</v>
       </c>
       <c r="AO16" s="3" t="n">
-        <v>198339087.581003</v>
+        <v>42107532595.3512</v>
       </c>
       <c r="AP16" s="3" t="n">
-        <v>76933887.1399113</v>
+        <v>41283184047.9226</v>
       </c>
       <c r="AQ16" s="3" t="n">
-        <v>57728509.1851916</v>
+        <v>41780569136.9906</v>
       </c>
       <c r="AR16" s="3" t="n">
-        <v>958952266.682504</v>
+        <v>48662072685.9917</v>
       </c>
       <c r="AS16" s="3" t="n">
-        <v>185538044.773681</v>
+        <v>52194224138.1233</v>
       </c>
       <c r="AT16" s="3" t="n">
-        <v>75762788.3632599</v>
+        <v>60270636277.9547</v>
       </c>
       <c r="AU16" s="3" t="n">
-        <v>155550439.077716</v>
+        <v>50636978698.9184</v>
       </c>
       <c r="AV16" s="3" t="n">
-        <v>103414079.8977</v>
+        <v>51942841537.8832</v>
       </c>
       <c r="AW16" s="3" t="n">
-        <v>115184000.626687</v>
-      </c>
-      <c r="AX16" s="3"/>
+        <v>56718871419.3924</v>
+      </c>
+      <c r="AX16" s="3" t="n">
+        <v>55615097546.1963</v>
+      </c>
+      <c r="AY16" s="3" t="n">
+        <v>18309090614.9933</v>
+      </c>
+      <c r="AZ16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6626,95 +6930,119 @@
       <c r="M17" t="s">
         <v>52</v>
       </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="P17" s="3" t="n">
+        <v>19934101.3109602</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>13632780.7948174</v>
+      </c>
+      <c r="R17" s="3" t="n">
+        <v>624717479.349023</v>
+      </c>
+      <c r="S17" s="3" t="n">
+        <v>26052893.9607719</v>
+      </c>
+      <c r="T17" s="3" t="n">
+        <v>7643113.23438606</v>
+      </c>
+      <c r="U17" s="3" t="n">
+        <v>-6178504.1030341</v>
+      </c>
+      <c r="V17" s="3" t="n">
+        <v>24979768.8400981</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>850242595.873526</v>
+      </c>
+      <c r="X17" s="3" t="n">
+        <v>830125184.835237</v>
+      </c>
+      <c r="Y17" s="3" t="n">
+        <v>945552755.647273</v>
+      </c>
       <c r="Z17" s="3" t="n">
-        <v>517903982.236535</v>
+        <v>4265597029.28407</v>
       </c>
       <c r="AA17" s="3" t="n">
-        <v>682713862.582635</v>
+        <v>4549393890.2299</v>
       </c>
       <c r="AB17" s="3" t="n">
-        <v>1211776235.63059</v>
+        <v>5752425394.5133</v>
       </c>
       <c r="AC17" s="3" t="n">
-        <v>1013711424.20015</v>
+        <v>7433005086.48518</v>
       </c>
       <c r="AD17" s="3" t="n">
-        <v>1126368976.67</v>
+        <v>9846176144.87769</v>
       </c>
       <c r="AE17" s="3" t="n">
-        <v>1158127957.66473</v>
+        <v>8621453063.25525</v>
       </c>
       <c r="AF17" s="3" t="n">
-        <v>962473506.697433</v>
+        <v>8070447781.14637</v>
       </c>
       <c r="AG17" s="3" t="n">
-        <v>955693561.623131</v>
+        <v>6923967847.3378</v>
       </c>
       <c r="AH17" s="3" t="n">
-        <v>628688636.80983</v>
+        <v>7577037915.05295</v>
       </c>
       <c r="AI17" s="3" t="n">
-        <v>634512254.870106</v>
+        <v>6813800742.1635</v>
       </c>
       <c r="AJ17" s="3" t="n">
-        <v>3229170244.59621</v>
+        <v>5833655267.47002</v>
       </c>
       <c r="AK17" s="3" t="n">
-        <v>1216200921.96354</v>
+        <v>6330675508.46538</v>
       </c>
       <c r="AL17" s="3" t="n">
-        <v>1118216310.71591</v>
+        <v>5123777445.0278</v>
       </c>
       <c r="AM17" s="3" t="n">
-        <v>1282904076.21571</v>
+        <v>4874988962.07931</v>
       </c>
       <c r="AN17" s="3" t="n">
-        <v>1488432091.75832</v>
+        <v>4196090709.58339</v>
       </c>
       <c r="AO17" s="3" t="n">
-        <v>1108159538.56744</v>
+        <v>3385514322.8252</v>
       </c>
       <c r="AP17" s="3" t="n">
-        <v>1852797649.65906</v>
+        <v>3255270193.34597</v>
       </c>
       <c r="AQ17" s="3" t="n">
-        <v>829885228.638894</v>
+        <v>3092553207.77774</v>
       </c>
       <c r="AR17" s="3" t="n">
-        <v>446113885.704336</v>
+        <v>3732641208.40133</v>
       </c>
       <c r="AS17" s="3" t="n">
-        <v>271292185.197917</v>
+        <v>3254716638.3496</v>
       </c>
       <c r="AT17" s="3" t="n">
-        <v>347832306.151626</v>
+        <v>3910227270.35223</v>
       </c>
       <c r="AU17" s="3" t="n">
-        <v>405490926.900895</v>
+        <v>3364044674.31158</v>
       </c>
       <c r="AV17" s="3" t="n">
-        <v>452727503.4116</v>
+        <v>3179827472.70003</v>
       </c>
       <c r="AW17" s="3" t="n">
-        <v>455402681.110839</v>
-      </c>
-      <c r="AX17" s="3"/>
+        <v>4239566885.4717</v>
+      </c>
+      <c r="AX17" s="3" t="n">
+        <v>4261287398.97833</v>
+      </c>
+      <c r="AY17" s="3" t="n">
+        <v>1049158407.80866</v>
+      </c>
+      <c r="AZ17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6726,95 +7054,117 @@
       <c r="M18" t="s">
         <v>53</v>
       </c>
-      <c r="N18" t="s">
-        <v>53</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="Q18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="n">
+        <v>2123464.73061647</v>
+      </c>
+      <c r="S18" s="3" t="n">
+        <v>2710551.69139615</v>
+      </c>
+      <c r="T18" s="3" t="n">
+        <v>11753243.7787974</v>
+      </c>
+      <c r="U18" s="3" t="n">
+        <v>65992953.7263147</v>
+      </c>
+      <c r="V18" s="3" t="n">
+        <v>83372126.99312</v>
+      </c>
+      <c r="W18" s="3" t="n">
+        <v>76209472.6478363</v>
+      </c>
+      <c r="X18" s="3" t="n">
+        <v>103458644.269348</v>
+      </c>
+      <c r="Y18" s="3" t="n">
+        <v>239523783.735743</v>
+      </c>
       <c r="Z18" s="3" t="n">
-        <v>4097980477.89595</v>
+        <v>1034597569.95162</v>
       </c>
       <c r="AA18" s="3" t="n">
-        <v>4372254682.3339</v>
+        <v>1224407368.78008</v>
       </c>
       <c r="AB18" s="3" t="n">
-        <v>5528164192.32024</v>
+        <v>1233311919.21085</v>
       </c>
       <c r="AC18" s="3" t="n">
-        <v>7143790343.84851</v>
+        <v>1728148451.83363</v>
       </c>
       <c r="AD18" s="3" t="n">
-        <v>9462838674.54629</v>
+        <v>1477188662.13917</v>
       </c>
       <c r="AE18" s="3" t="n">
-        <v>8286385126.0911</v>
+        <v>2199771210.58055</v>
       </c>
       <c r="AF18" s="3" t="n">
-        <v>7756243751.11775</v>
+        <v>2546232379.77102</v>
       </c>
       <c r="AG18" s="3" t="n">
-        <v>6655088336.79015</v>
+        <v>1755055012.24559</v>
       </c>
       <c r="AH18" s="3" t="n">
-        <v>7282119924.97385</v>
+        <v>976401470.015734</v>
       </c>
       <c r="AI18" s="3" t="n">
-        <v>6566490575.58473</v>
+        <v>937926417.784046</v>
       </c>
       <c r="AJ18" s="3" t="n">
-        <v>5300358785.11182</v>
+        <v>1989429894.23708</v>
       </c>
       <c r="AK18" s="3" t="n">
-        <v>5789427944.23952</v>
+        <v>2127187050.16401</v>
       </c>
       <c r="AL18" s="3" t="n">
-        <v>4516269650.07753</v>
+        <v>1569245825.87067</v>
       </c>
       <c r="AM18" s="3" t="n">
-        <v>3910378950.54229</v>
+        <v>1358130365.07108</v>
       </c>
       <c r="AN18" s="3" t="n">
-        <v>3329231102.56774</v>
+        <v>1147385582.58916</v>
       </c>
       <c r="AO18" s="3" t="n">
-        <v>2775982860.18345</v>
+        <v>1039931325.37605</v>
       </c>
       <c r="AP18" s="3" t="n">
-        <v>2619342486.79232</v>
+        <v>1096162288.06831</v>
       </c>
       <c r="AQ18" s="3" t="n">
-        <v>2520759393.41603</v>
+        <v>1028465640.92511</v>
       </c>
       <c r="AR18" s="3" t="n">
-        <v>3552196011.43834</v>
+        <v>1102788803.76874</v>
       </c>
       <c r="AS18" s="3" t="n">
-        <v>3100295652.19406</v>
+        <v>1363589646.46534</v>
       </c>
       <c r="AT18" s="3" t="n">
-        <v>3543584025.86272</v>
+        <v>1765543269.58091</v>
       </c>
       <c r="AU18" s="3" t="n">
-        <v>3142847366.74639</v>
+        <v>1831686922.13024</v>
       </c>
       <c r="AV18" s="3" t="n">
-        <v>3028984285.4342</v>
+        <v>2668258128.80088</v>
       </c>
       <c r="AW18" s="3" t="n">
-        <v>3956413092.70489</v>
-      </c>
-      <c r="AX18" s="3"/>
+        <v>2327551742.2086</v>
+      </c>
+      <c r="AX18" s="3" t="n">
+        <v>3142881136.70766</v>
+      </c>
+      <c r="AY18" s="3" t="n">
+        <v>1177853432.79835</v>
+      </c>
+      <c r="AZ18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6826,95 +7176,111 @@
       <c r="M19" t="s">
         <v>55</v>
       </c>
-      <c r="N19" t="s">
-        <v>55</v>
-      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="S19" s="3" t="n">
+        <v>8849266.02057634</v>
+      </c>
+      <c r="T19" s="3" t="n">
+        <v>24730677.8697805</v>
+      </c>
+      <c r="U19" s="3" t="n">
+        <v>19625689.3454978</v>
+      </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="n">
+        <v>118135569.070277</v>
+      </c>
+      <c r="X19" s="3" t="n">
+        <v>153871187.96573</v>
+      </c>
+      <c r="Y19" s="3" t="n">
+        <v>257433029.871856</v>
+      </c>
       <c r="Z19" s="3" t="n">
-        <v>154071336.776034</v>
+        <v>594472762.866897</v>
       </c>
       <c r="AA19" s="3" t="n">
-        <v>152028761.484459</v>
+        <v>823382712.839558</v>
       </c>
       <c r="AB19" s="3" t="n">
-        <v>273761997.490013</v>
+        <v>850718942.205307</v>
       </c>
       <c r="AC19" s="3" t="n">
-        <v>269387938.385584</v>
+        <v>1265569623.78348</v>
       </c>
       <c r="AD19" s="3" t="n">
-        <v>98941441.4628169</v>
+        <v>1410542786.78697</v>
       </c>
       <c r="AE19" s="3" t="n">
-        <v>9901458.82939385</v>
+        <v>1015437025.78576</v>
       </c>
       <c r="AF19" s="3" t="n">
-        <v>317300838.130351</v>
+        <v>1010264203.64709</v>
       </c>
       <c r="AG19" s="3" t="n">
-        <v>699893746.9747</v>
+        <v>962409763.860271</v>
       </c>
       <c r="AH19" s="3" t="n">
-        <v>642421960.202731</v>
+        <v>776017603.693333</v>
       </c>
       <c r="AI19" s="3" t="n">
-        <v>2039254449.80293</v>
+        <v>1564015618.17633</v>
       </c>
       <c r="AJ19" s="3" t="n">
-        <v>1875586459.86917</v>
+        <v>1320127997.45958</v>
       </c>
       <c r="AK19" s="3" t="n">
-        <v>616123605.608112</v>
+        <v>858663637.468657</v>
       </c>
       <c r="AL19" s="3" t="n">
-        <v>416529184.64118</v>
+        <v>712667079.38061</v>
       </c>
       <c r="AM19" s="3" t="n">
-        <v>520498181.96468</v>
+        <v>106113947.611225</v>
       </c>
       <c r="AN19" s="3" t="n">
-        <v>410638554.515164</v>
+        <v>212861597.783282</v>
       </c>
       <c r="AO19" s="3" t="n">
-        <v>71238980.4515043</v>
+        <v>206916634.287462</v>
       </c>
       <c r="AP19" s="3" t="n">
-        <v>700888158.43796</v>
+        <v>80273242.7285536</v>
       </c>
       <c r="AQ19" s="3" t="n">
-        <v>682617905.833606</v>
+        <v>60855133.3792545</v>
       </c>
       <c r="AR19" s="3" t="n">
-        <v>1278592006.11605</v>
+        <v>1002853771.19358</v>
       </c>
       <c r="AS19" s="3" t="n">
-        <v>3874670323.16249</v>
+        <v>194241090.51234</v>
       </c>
       <c r="AT19" s="3" t="n">
-        <v>3136959286.60595</v>
+        <v>79365172.7191774</v>
       </c>
       <c r="AU19" s="3" t="n">
-        <v>952888193.83602</v>
+        <v>162761047.520622</v>
       </c>
       <c r="AV19" s="3" t="n">
-        <v>1563749032.6892</v>
+        <v>107854736.047871</v>
       </c>
       <c r="AW19" s="3" t="n">
-        <v>1107588739.1473</v>
-      </c>
-      <c r="AX19" s="3"/>
+        <v>120913469.8797</v>
+      </c>
+      <c r="AX19" s="3" t="n">
+        <v>150551578.676485</v>
+      </c>
+      <c r="AY19" s="3" t="n">
+        <v>37042517.6805595</v>
+      </c>
+      <c r="AZ19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6926,79 +7292,109 @@
       <c r="M20" t="s">
         <v>57</v>
       </c>
-      <c r="N20" t="s">
-        <v>57</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3" t="n">
+        <v>5990.67560926499</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3" t="n">
+        <v>387464.672861881</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="W20" s="3" t="n">
+        <v>21417764.6787526</v>
+      </c>
+      <c r="X20" s="3" t="n">
+        <v>2028523.33211772</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>19252718.0422302</v>
+      </c>
       <c r="Z20" s="3" t="n">
-        <v>4675934.07414233</v>
+        <v>160311824.242373</v>
       </c>
       <c r="AA20" s="3" t="n">
-        <v>15325722.1807079</v>
+        <v>158188113.201911</v>
       </c>
       <c r="AB20" s="3" t="n">
-        <v>34840083.1950512</v>
+        <v>284867708.633176</v>
       </c>
       <c r="AC20" s="3" t="n">
-        <v>56202606.1289704</v>
+        <v>280294048.380357</v>
       </c>
       <c r="AD20" s="3" t="n">
-        <v>90338975.5655489</v>
+        <v>102949537.028282</v>
       </c>
       <c r="AE20" s="3" t="n">
-        <v>157749870.604146</v>
+        <v>10301833.8239505</v>
       </c>
       <c r="AF20" s="3" t="n">
-        <v>579993190.950083</v>
+        <v>330154637.676135</v>
       </c>
       <c r="AG20" s="3" t="n">
-        <v>1586966735.0836</v>
+        <v>728170920.559064</v>
       </c>
       <c r="AH20" s="3" t="n">
-        <v>3081713058.97805</v>
+        <v>668439358.553094</v>
       </c>
       <c r="AI20" s="3" t="n">
-        <v>4301525454.24068</v>
+        <v>2139899054.01544</v>
       </c>
       <c r="AJ20" s="3" t="n">
-        <v>73704138.7614009</v>
+        <v>1983510724.78476</v>
       </c>
       <c r="AK20" s="3" t="n">
-        <v>10218300.3915009</v>
+        <v>650834057.651585</v>
       </c>
       <c r="AL20" s="3" t="n">
-        <v>-4735275.76030502</v>
+        <v>433518869.350202</v>
       </c>
       <c r="AM20" s="3" t="n">
-        <v>-2379021.06915253</v>
+        <v>551316539.692434</v>
       </c>
       <c r="AN20" s="3" t="n">
-        <v>-549890.960755517</v>
+        <v>432363999.835049</v>
       </c>
       <c r="AO20" s="3" t="n">
-        <v>-752.929221280353</v>
-      </c>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
+        <v>277565707.654041</v>
+      </c>
+      <c r="AP20" s="3" t="n">
+        <v>697085952.390327</v>
+      </c>
+      <c r="AQ20" s="3" t="n">
+        <v>601252140.040481</v>
+      </c>
+      <c r="AR20" s="3" t="n">
+        <v>1109720361.61299</v>
+      </c>
+      <c r="AS20" s="3" t="n">
+        <v>3771186581.21353</v>
+      </c>
+      <c r="AT20" s="3" t="n">
+        <v>3284908263.04272</v>
+      </c>
+      <c r="AU20" s="3" t="n">
+        <v>995106308.158691</v>
+      </c>
+      <c r="AV20" s="3" t="n">
+        <v>1621338249.70703</v>
+      </c>
+      <c r="AW20" s="3" t="n">
+        <v>1147527906.5791</v>
+      </c>
+      <c r="AX20" s="3" t="n">
+        <v>973753646.34028</v>
+      </c>
+      <c r="AY20" s="3" t="n">
+        <v>365947414.710559</v>
+      </c>
+      <c r="AZ20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -7010,93 +7406,91 @@
       <c r="M21" t="s">
         <v>57</v>
       </c>
-      <c r="N21" t="s">
-        <v>57</v>
-      </c>
+      <c r="N21"/>
       <c r="O21"/>
       <c r="P21" s="3" t="n">
-        <v>24214566738.8981</v>
+        <v>25198367586.5573</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>35489211630.4335</v>
+        <v>36928181612.1716</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>33060305718.1975</v>
+        <v>34399575192.8933</v>
       </c>
       <c r="S21" s="3" t="n">
-        <v>31423990993.4659</v>
+        <v>32698327025.2254</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>36401261590.1566</v>
+        <v>37875637721.6784</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>35305115235.9255</v>
+        <v>36734154479.9098</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>34903150795.6185</v>
+        <v>36315772324.8761</v>
       </c>
       <c r="W21" s="3" t="n">
-        <v>34202156353.7648</v>
+        <v>35752947077.9228</v>
       </c>
       <c r="X21" s="3" t="n">
-        <v>32671693107.2574</v>
+        <v>34215726904.6205</v>
       </c>
       <c r="Y21" s="3" t="n">
-        <v>33985149527.8471</v>
+        <v>35750851352.8709</v>
       </c>
       <c r="Z21" s="3" t="n">
-        <v>2471982568.58261</v>
+        <v>2567087085.26686</v>
       </c>
       <c r="AA21" s="3" t="n">
-        <v>1538304825.77626</v>
+        <v>1600628299.1644</v>
       </c>
       <c r="AB21" s="3" t="n">
-        <v>2006662245.98908</v>
+        <v>2088066573.36165</v>
       </c>
       <c r="AC21" s="3" t="n">
-        <v>2307226014.09597</v>
+        <v>2400633539.47863</v>
       </c>
       <c r="AD21" s="3" t="n">
-        <v>2247800163.68371</v>
+        <v>2338858043.32355</v>
       </c>
       <c r="AE21" s="3" t="n">
-        <v>1700931859.03937</v>
+        <v>1769710671.89293</v>
       </c>
       <c r="AF21" s="3" t="n">
-        <v>1005690211.59183</v>
+        <v>1046430540.11138</v>
       </c>
       <c r="AG21" s="3" t="n">
-        <v>41644150.3815344</v>
+        <v>43326661.2972384</v>
       </c>
       <c r="AH21" s="3" t="n">
-        <v>275644142.957245</v>
+        <v>286807434.290604</v>
       </c>
       <c r="AI21" s="3" t="n">
-        <v>-121205227.383598</v>
+        <v>-126059166.891678</v>
       </c>
       <c r="AJ21" s="3" t="n">
-        <v>40603521.6938045</v>
+        <v>42246788.6602867</v>
       </c>
       <c r="AK21" s="3" t="n">
-        <v>2871781.42454045</v>
+        <v>2988246.74824695</v>
       </c>
       <c r="AL21" s="3" t="n">
-        <v>94189680.682271</v>
+        <v>97901562.7564183</v>
       </c>
       <c r="AM21" s="3" t="n">
-        <v>65838435.2065831</v>
+        <v>68531341.7576154</v>
       </c>
       <c r="AN21" s="3" t="n">
-        <v>47130957.8452964</v>
+        <v>49093841.254602</v>
       </c>
       <c r="AO21" s="3" t="n">
-        <v>28469143.1537841</v>
+        <v>13960248.3439326</v>
       </c>
       <c r="AP21" s="3" t="n">
-        <v>38118455.2716958</v>
+        <v>33300018.9624338</v>
       </c>
       <c r="AQ21" s="3" t="n">
-        <v>34612555.5370292</v>
+        <v>18628717.2950193</v>
       </c>
       <c r="AR21" s="3" t="n">
         <v>0</v>
@@ -7116,7 +7510,13 @@
       <c r="AW21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="3"/>
+      <c r="AX21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -7160,6 +7560,8 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
       <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7313,115 +7715,115 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="4" t="n">
         <v>51292082.56</v>
       </c>
-      <c r="Q2" s="12" t="n">
+      <c r="Q2" s="4" t="n">
         <v>15799000</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="4" t="n">
         <v>26625019</v>
       </c>
-      <c r="S2" s="12" t="n">
+      <c r="S2" s="4" t="n">
         <v>21914000</v>
       </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="4" t="n">
         <v>8941413.16</v>
       </c>
-      <c r="U2" s="12" t="n">
+      <c r="U2" s="4" t="n">
         <v>29288193</v>
       </c>
-      <c r="V2" s="12" t="n">
+      <c r="V2" s="4" t="n">
         <v>71392000</v>
       </c>
-      <c r="W2" s="12" t="n">
+      <c r="W2" s="4" t="n">
         <v>993226594</v>
       </c>
-      <c r="X2" s="12" t="n">
+      <c r="X2" s="4" t="n">
         <v>1152837931.02</v>
       </c>
-      <c r="Y2" s="12" t="n">
+      <c r="Y2" s="4" t="n">
         <v>1678560718</v>
       </c>
-      <c r="Z2" s="12" t="n">
+      <c r="Z2" s="4" t="n">
         <v>10966677089.5315</v>
       </c>
-      <c r="AA2" s="12" t="n">
+      <c r="AA2" s="4" t="n">
         <v>12061548554.27</v>
       </c>
-      <c r="AB2" s="12" t="n">
+      <c r="AB2" s="4" t="n">
         <v>13452725841.96</v>
       </c>
-      <c r="AC2" s="12" t="n">
+      <c r="AC2" s="4" t="n">
         <v>14199015747.39</v>
       </c>
-      <c r="AD2" s="12" t="n">
+      <c r="AD2" s="4" t="n">
         <v>13367195159.5</v>
       </c>
-      <c r="AE2" s="12" t="n">
+      <c r="AE2" s="4" t="n">
         <v>15011090117.94</v>
       </c>
-      <c r="AF2" s="12" t="n">
+      <c r="AF2" s="4" t="n">
         <v>18206533999.4</v>
       </c>
-      <c r="AG2" s="12" t="n">
+      <c r="AG2" s="4" t="n">
         <v>18851856729.58</v>
       </c>
-      <c r="AH2" s="12" t="n">
+      <c r="AH2" s="4" t="n">
         <v>24329050043.86</v>
       </c>
-      <c r="AI2" s="12" t="n">
+      <c r="AI2" s="4" t="n">
         <v>30884988487.93</v>
       </c>
-      <c r="AJ2" s="12" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>28775128170.0151</v>
       </c>
-      <c r="AK2" s="12" t="n">
+      <c r="AK2" s="4" t="n">
         <v>23663111182.9942</v>
       </c>
-      <c r="AL2" s="12" t="n">
+      <c r="AL2" s="4" t="n">
         <v>21703668101.1561</v>
       </c>
-      <c r="AM2" s="12" t="n">
+      <c r="AM2" s="4" t="n">
         <v>18509880873.3216</v>
       </c>
-      <c r="AN2" s="12" t="n">
+      <c r="AN2" s="4" t="n">
         <v>19018646371.9148</v>
       </c>
-      <c r="AO2" s="12" t="n">
+      <c r="AO2" s="4" t="n">
         <v>17305489468.3361</v>
       </c>
-      <c r="AP2" s="12" t="n">
+      <c r="AP2" s="4" t="n">
         <v>17593731047.1012</v>
       </c>
-      <c r="AQ2" s="12" t="n">
+      <c r="AQ2" s="4" t="n">
         <v>17900279968.55</v>
       </c>
-      <c r="AR2" s="12" t="n">
+      <c r="AR2" s="4" t="n">
         <v>20751718237.84</v>
       </c>
-      <c r="AS2" s="12" t="n">
+      <c r="AS2" s="4" t="n">
         <v>26167824755.09</v>
       </c>
-      <c r="AT2" s="12" t="n">
+      <c r="AT2" s="4" t="n">
         <v>28005714288.53</v>
       </c>
-      <c r="AU2" s="12" t="n">
+      <c r="AU2" s="4" t="n">
         <v>23154038451.13</v>
       </c>
-      <c r="AV2" s="12" t="n">
+      <c r="AV2" s="4" t="n">
         <v>25906020010.7</v>
       </c>
-      <c r="AW2" s="12" t="n">
+      <c r="AW2" s="4" t="n">
         <v>28481125060.9</v>
       </c>
-      <c r="AX2" s="12" t="n">
+      <c r="AX2" s="4" t="n">
         <v>27879118784.34</v>
       </c>
-      <c r="AY2" s="12" t="n">
+      <c r="AY2" s="4" t="n">
         <v>8018023970.57</v>
       </c>
-      <c r="AZ2" s="12"/>
+      <c r="AZ2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -7436,115 +7838,115 @@
       <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="12" t="n">
+      <c r="P3" s="4" t="n">
         <v>2736000</v>
       </c>
-      <c r="Q3" s="12" t="n">
+      <c r="Q3" s="4" t="n">
         <v>7226000</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="4" t="n">
         <v>5439000</v>
       </c>
-      <c r="S3" s="12" t="n">
+      <c r="S3" s="4" t="n">
         <v>7364000</v>
       </c>
-      <c r="T3" s="12" t="n">
+      <c r="T3" s="4" t="n">
         <v>13727000</v>
       </c>
-      <c r="U3" s="12" t="n">
+      <c r="U3" s="4" t="n">
         <v>5184000</v>
       </c>
-      <c r="V3" s="12" t="n">
+      <c r="V3" s="4" t="n">
         <v>4562000</v>
       </c>
-      <c r="W3" s="12" t="n">
+      <c r="W3" s="4" t="n">
         <v>8470406</v>
       </c>
-      <c r="X3" s="12" t="n">
+      <c r="X3" s="4" t="n">
         <v>77590839</v>
       </c>
-      <c r="Y3" s="12" t="n">
+      <c r="Y3" s="4" t="n">
         <v>192428587</v>
       </c>
-      <c r="Z3" s="12" t="n">
+      <c r="Z3" s="4" t="n">
         <v>602980370</v>
       </c>
-      <c r="AA3" s="12" t="n">
+      <c r="AA3" s="4" t="n">
         <v>672942744.9</v>
       </c>
-      <c r="AB3" s="12" t="n">
+      <c r="AB3" s="4" t="n">
         <v>845521603.29</v>
       </c>
-      <c r="AC3" s="12" t="n">
+      <c r="AC3" s="4" t="n">
         <v>1151094189.82</v>
       </c>
-      <c r="AD3" s="12" t="n">
+      <c r="AD3" s="4" t="n">
         <v>1463430559.51</v>
       </c>
-      <c r="AE3" s="12" t="n">
+      <c r="AE3" s="4" t="n">
         <v>1822118252.2</v>
       </c>
-      <c r="AF3" s="12" t="n">
+      <c r="AF3" s="4" t="n">
         <v>1672208289.96</v>
       </c>
-      <c r="AG3" s="12" t="n">
+      <c r="AG3" s="4" t="n">
         <v>1868527801.25</v>
       </c>
-      <c r="AH3" s="12" t="n">
+      <c r="AH3" s="4" t="n">
         <v>1986204178.25</v>
       </c>
-      <c r="AI3" s="12" t="n">
+      <c r="AI3" s="4" t="n">
         <v>2396353315.17</v>
       </c>
-      <c r="AJ3" s="12" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>2469656603.9355</v>
       </c>
-      <c r="AK3" s="12" t="n">
+      <c r="AK3" s="4" t="n">
         <v>2321475390.2972</v>
       </c>
-      <c r="AL3" s="12" t="n">
+      <c r="AL3" s="4" t="n">
         <v>1683029323.8831</v>
       </c>
-      <c r="AM3" s="12" t="n">
+      <c r="AM3" s="4" t="n">
         <v>1235414929.3634</v>
       </c>
-      <c r="AN3" s="12" t="n">
+      <c r="AN3" s="4" t="n">
         <v>1496583256.0877</v>
       </c>
-      <c r="AO3" s="12" t="n">
+      <c r="AO3" s="4" t="n">
         <v>1510783955.8129</v>
       </c>
-      <c r="AP3" s="12" t="n">
+      <c r="AP3" s="4" t="n">
         <v>1463057069.172</v>
       </c>
-      <c r="AQ3" s="12" t="n">
+      <c r="AQ3" s="4" t="n">
         <v>1536342327.1533</v>
       </c>
-      <c r="AR3" s="12" t="n">
+      <c r="AR3" s="4" t="n">
         <v>1838561335.12</v>
       </c>
-      <c r="AS3" s="12" t="n">
+      <c r="AS3" s="4" t="n">
         <v>1839358514.88</v>
       </c>
-      <c r="AT3" s="12" t="n">
+      <c r="AT3" s="4" t="n">
         <v>1926635473.28</v>
       </c>
-      <c r="AU3" s="12" t="n">
+      <c r="AU3" s="4" t="n">
         <v>1850917537.75</v>
       </c>
-      <c r="AV3" s="12" t="n">
+      <c r="AV3" s="4" t="n">
         <v>1853834730.85</v>
       </c>
-      <c r="AW3" s="12" t="n">
+      <c r="AW3" s="4" t="n">
         <v>2312237183.93</v>
       </c>
-      <c r="AX3" s="12" t="n">
+      <c r="AX3" s="4" t="n">
         <v>2339640217.02</v>
       </c>
-      <c r="AY3" s="12" t="n">
+      <c r="AY3" s="4" t="n">
         <v>885696287.36</v>
       </c>
-      <c r="AZ3" s="12"/>
+      <c r="AZ3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -7559,109 +7961,109 @@
       <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="12" t="n">
+      <c r="P4" s="4" t="n">
         <v>682000</v>
       </c>
-      <c r="Q4" s="12" t="n">
+      <c r="Q4" s="4" t="n">
         <v>661000</v>
       </c>
-      <c r="R4" s="12" t="n">
+      <c r="R4" s="4" t="n">
         <v>479000</v>
       </c>
-      <c r="S4" s="12" t="n">
+      <c r="S4" s="4" t="n">
         <v>26000</v>
       </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12" t="n">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>134638</v>
       </c>
-      <c r="X4" s="12" t="n">
+      <c r="X4" s="4" t="n">
         <v>457852</v>
       </c>
-      <c r="Y4" s="12" t="n">
+      <c r="Y4" s="4" t="n">
         <v>634697</v>
       </c>
-      <c r="Z4" s="12" t="n">
+      <c r="Z4" s="4" t="n">
         <v>3899658</v>
       </c>
-      <c r="AA4" s="12" t="n">
+      <c r="AA4" s="4" t="n">
         <v>6131674</v>
       </c>
-      <c r="AB4" s="12" t="n">
+      <c r="AB4" s="4" t="n">
         <v>6584364</v>
       </c>
-      <c r="AC4" s="12" t="n">
+      <c r="AC4" s="4" t="n">
         <v>5445288</v>
       </c>
-      <c r="AD4" s="12" t="n">
+      <c r="AD4" s="4" t="n">
         <v>20229111</v>
       </c>
-      <c r="AE4" s="12" t="n">
+      <c r="AE4" s="4" t="n">
         <v>13291376</v>
       </c>
-      <c r="AF4" s="12" t="n">
+      <c r="AF4" s="4" t="n">
         <v>24467017</v>
       </c>
-      <c r="AG4" s="12" t="n">
+      <c r="AG4" s="4" t="n">
         <v>10613082.49</v>
       </c>
-      <c r="AH4" s="12" t="n">
+      <c r="AH4" s="4" t="n">
         <v>15800318.0413</v>
       </c>
-      <c r="AI4" s="12" t="n">
+      <c r="AI4" s="4" t="n">
         <v>14181477.1564</v>
       </c>
-      <c r="AJ4" s="12" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>297354740.3828</v>
       </c>
-      <c r="AK4" s="12" t="n">
+      <c r="AK4" s="4" t="n">
         <v>383027360.5023</v>
       </c>
-      <c r="AL4" s="12" t="n">
+      <c r="AL4" s="4" t="n">
         <v>464904529.6339</v>
       </c>
-      <c r="AM4" s="12" t="n">
+      <c r="AM4" s="4" t="n">
         <v>432212675.8587</v>
       </c>
-      <c r="AN4" s="12" t="n">
+      <c r="AN4" s="4" t="n">
         <v>503614293.8332</v>
       </c>
-      <c r="AO4" s="12" t="n">
+      <c r="AO4" s="4" t="n">
         <v>470878509.5135</v>
       </c>
-      <c r="AP4" s="12" t="n">
+      <c r="AP4" s="4" t="n">
         <v>660329919.6383</v>
       </c>
-      <c r="AQ4" s="12" t="n">
+      <c r="AQ4" s="4" t="n">
         <v>536962597.6498</v>
       </c>
-      <c r="AR4" s="12" t="n">
+      <c r="AR4" s="4" t="n">
         <v>1348144447.5701</v>
       </c>
-      <c r="AS4" s="12" t="n">
+      <c r="AS4" s="4" t="n">
         <v>484656126.2158</v>
       </c>
-      <c r="AT4" s="12" t="n">
+      <c r="AT4" s="4" t="n">
         <v>520847682.4598</v>
       </c>
-      <c r="AU4" s="12" t="n">
+      <c r="AU4" s="4" t="n">
         <v>426574743.5733</v>
       </c>
-      <c r="AV4" s="12" t="n">
+      <c r="AV4" s="4" t="n">
         <v>420918462.3498</v>
       </c>
-      <c r="AW4" s="12" t="n">
+      <c r="AW4" s="4" t="n">
         <v>674679825.3825</v>
       </c>
-      <c r="AX4" s="12" t="n">
+      <c r="AX4" s="4" t="n">
         <v>669082813.42</v>
       </c>
-      <c r="AY4" s="12" t="n">
+      <c r="AY4" s="4" t="n">
         <v>226296495.09</v>
       </c>
-      <c r="AZ4" s="12"/>
+      <c r="AZ4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -7676,115 +8078,115 @@
       <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="4" t="n">
         <v>647000</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="4" t="n">
         <v>120000</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="4" t="n">
         <v>1049000</v>
       </c>
-      <c r="S5" s="12" t="n">
+      <c r="S5" s="4" t="n">
         <v>2064000</v>
       </c>
-      <c r="T5" s="12" t="n">
+      <c r="T5" s="4" t="n">
         <v>6311000</v>
       </c>
-      <c r="U5" s="12" t="n">
+      <c r="U5" s="4" t="n">
         <v>36567000</v>
       </c>
-      <c r="V5" s="12" t="n">
+      <c r="V5" s="4" t="n">
         <v>49846000</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="4" t="n">
         <v>84522659</v>
       </c>
-      <c r="X5" s="12" t="n">
+      <c r="X5" s="4" t="n">
         <v>118434244</v>
       </c>
-      <c r="Y5" s="12" t="n">
+      <c r="Y5" s="4" t="n">
         <v>192687057</v>
       </c>
-      <c r="Z5" s="12" t="n">
+      <c r="Z5" s="4" t="n">
         <v>648831254</v>
       </c>
-      <c r="AA5" s="12" t="n">
+      <c r="AA5" s="4" t="n">
         <v>795746043.3198</v>
       </c>
-      <c r="AB5" s="12" t="n">
+      <c r="AB5" s="4" t="n">
         <v>1143346589.4518</v>
       </c>
-      <c r="AC5" s="12" t="n">
+      <c r="AC5" s="4" t="n">
         <v>1532457513.1538</v>
       </c>
-      <c r="AD5" s="12" t="n">
+      <c r="AD5" s="4" t="n">
         <v>1610665203.2631</v>
       </c>
-      <c r="AE5" s="12" t="n">
+      <c r="AE5" s="4" t="n">
         <v>1412387296.6507</v>
       </c>
-      <c r="AF5" s="12" t="n">
+      <c r="AF5" s="4" t="n">
         <v>1482230302.3479</v>
       </c>
-      <c r="AG5" s="12" t="n">
+      <c r="AG5" s="4" t="n">
         <v>1701912545.3883</v>
       </c>
-      <c r="AH5" s="12" t="n">
+      <c r="AH5" s="4" t="n">
         <v>1600896075.6622</v>
       </c>
-      <c r="AI5" s="12" t="n">
+      <c r="AI5" s="4" t="n">
         <v>1639091332.395</v>
       </c>
-      <c r="AJ5" s="12" t="n">
+      <c r="AJ5" s="4" t="n">
         <v>1506554445.842</v>
       </c>
-      <c r="AK5" s="12" t="n">
+      <c r="AK5" s="4" t="n">
         <v>1365108458.9599</v>
       </c>
-      <c r="AL5" s="12" t="n">
+      <c r="AL5" s="4" t="n">
         <v>1089169263.6071</v>
       </c>
-      <c r="AM5" s="12" t="n">
+      <c r="AM5" s="4" t="n">
         <v>741573455.9405</v>
       </c>
-      <c r="AN5" s="12" t="n">
+      <c r="AN5" s="4" t="n">
         <v>779186163.7465</v>
       </c>
-      <c r="AO5" s="12" t="n">
+      <c r="AO5" s="4" t="n">
         <v>626853620.1244</v>
       </c>
-      <c r="AP5" s="12" t="n">
+      <c r="AP5" s="4" t="n">
         <v>667230064.0101</v>
       </c>
-      <c r="AQ5" s="12" t="n">
+      <c r="AQ5" s="4" t="n">
         <v>608154107.7818</v>
       </c>
-      <c r="AR5" s="12" t="n">
+      <c r="AR5" s="4" t="n">
         <v>666310812.4929</v>
       </c>
-      <c r="AS5" s="12" t="n">
+      <c r="AS5" s="4" t="n">
         <v>624460035.228</v>
       </c>
-      <c r="AT5" s="12" t="n">
+      <c r="AT5" s="4" t="n">
         <v>719169143.0866</v>
       </c>
-      <c r="AU5" s="12" t="n">
+      <c r="AU5" s="4" t="n">
         <v>774405169.3669</v>
       </c>
-      <c r="AV5" s="12" t="n">
+      <c r="AV5" s="4" t="n">
         <v>866114362.8638</v>
       </c>
-      <c r="AW5" s="12" t="n">
+      <c r="AW5" s="4" t="n">
         <v>991730587.7387</v>
       </c>
-      <c r="AX5" s="12" t="n">
+      <c r="AX5" s="4" t="n">
         <v>1192050869.64</v>
       </c>
-      <c r="AY5" s="12" t="n">
+      <c r="AY5" s="4" t="n">
         <v>250027397.8</v>
       </c>
-      <c r="AZ5" s="12"/>
+      <c r="AZ5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -7799,103 +8201,103 @@
       <c r="O6" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12" t="n">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="n">
         <v>117882</v>
       </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12" t="n">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>240963211</v>
       </c>
-      <c r="X6" s="12" t="n">
+      <c r="X6" s="4" t="n">
         <v>343007515</v>
       </c>
-      <c r="Y6" s="12" t="n">
+      <c r="Y6" s="4" t="n">
         <v>547076377</v>
       </c>
-      <c r="Z6" s="12" t="n">
+      <c r="Z6" s="4" t="n">
         <v>1632534420.2197</v>
       </c>
-      <c r="AA6" s="12" t="n">
+      <c r="AA6" s="4" t="n">
         <v>1938592579.5201</v>
       </c>
-      <c r="AB6" s="12" t="n">
+      <c r="AB6" s="4" t="n">
         <v>2709926492.0601</v>
       </c>
-      <c r="AC6" s="12" t="n">
+      <c r="AC6" s="4" t="n">
         <v>4409544026.3213</v>
       </c>
-      <c r="AD6" s="12" t="n">
+      <c r="AD6" s="4" t="n">
         <v>6107044321.3398</v>
       </c>
-      <c r="AE6" s="12" t="n">
+      <c r="AE6" s="4" t="n">
         <v>6535074757.8474</v>
       </c>
-      <c r="AF6" s="12" t="n">
+      <c r="AF6" s="4" t="n">
         <v>8705817872.4977</v>
       </c>
-      <c r="AG6" s="12" t="n">
+      <c r="AG6" s="4" t="n">
         <v>7889330717.6959</v>
       </c>
-      <c r="AH6" s="12" t="n">
+      <c r="AH6" s="4" t="n">
         <v>11339736858.8419</v>
       </c>
-      <c r="AI6" s="12" t="n">
+      <c r="AI6" s="4" t="n">
         <v>12744949983.055</v>
       </c>
-      <c r="AJ6" s="12" t="n">
+      <c r="AJ6" s="4" t="n">
         <v>12273843080.9538</v>
       </c>
-      <c r="AK6" s="12" t="n">
+      <c r="AK6" s="4" t="n">
         <v>11396839554.0924</v>
       </c>
-      <c r="AL6" s="12" t="n">
+      <c r="AL6" s="4" t="n">
         <v>9555758340.9579</v>
       </c>
-      <c r="AM6" s="12" t="n">
+      <c r="AM6" s="4" t="n">
         <v>7777441494.8956</v>
       </c>
-      <c r="AN6" s="12" t="n">
+      <c r="AN6" s="4" t="n">
         <v>9215751394.5244</v>
       </c>
-      <c r="AO6" s="12" t="n">
+      <c r="AO6" s="4" t="n">
         <v>7640894717.4768</v>
       </c>
-      <c r="AP6" s="12" t="n">
+      <c r="AP6" s="4" t="n">
         <v>7413004000.0862</v>
       </c>
-      <c r="AQ6" s="12" t="n">
+      <c r="AQ6" s="4" t="n">
         <v>7468652269.3829</v>
       </c>
-      <c r="AR6" s="12" t="n">
+      <c r="AR6" s="4" t="n">
         <v>9554577873.649</v>
       </c>
-      <c r="AS6" s="12" t="n">
+      <c r="AS6" s="4" t="n">
         <v>10690427360.011</v>
       </c>
-      <c r="AT6" s="12" t="n">
+      <c r="AT6" s="4" t="n">
         <v>15927642830.5231</v>
       </c>
-      <c r="AU6" s="12" t="n">
+      <c r="AU6" s="4" t="n">
         <v>11180203450.3117</v>
       </c>
-      <c r="AV6" s="12" t="n">
+      <c r="AV6" s="4" t="n">
         <v>13299140416.6856</v>
       </c>
-      <c r="AW6" s="12" t="n">
+      <c r="AW6" s="4" t="n">
         <v>16104449494.7756</v>
       </c>
-      <c r="AX6" s="12" t="n">
+      <c r="AX6" s="4" t="n">
         <v>17612292924.2717</v>
       </c>
-      <c r="AY6" s="12" t="n">
+      <c r="AY6" s="4" t="n">
         <v>4567490183.28</v>
       </c>
-      <c r="AZ6" s="12"/>
+      <c r="AZ6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -7910,115 +8312,115 @@
       <c r="O7" t="s">
         <v>68</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="4" t="n">
         <v>31553000</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="4" t="n">
         <v>30220000</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="4" t="n">
         <v>343691000</v>
       </c>
-      <c r="S7" s="12" t="n">
+      <c r="S7" s="4" t="n">
         <v>60267000</v>
       </c>
-      <c r="T7" s="12" t="n">
+      <c r="T7" s="4" t="n">
         <v>51996000</v>
       </c>
-      <c r="U7" s="12" t="n">
+      <c r="U7" s="4" t="n">
         <v>43925000</v>
       </c>
-      <c r="V7" s="12" t="n">
+      <c r="V7" s="4" t="n">
         <v>86759000</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="4" t="n">
         <v>530392950</v>
       </c>
-      <c r="X7" s="12" t="n">
+      <c r="X7" s="4" t="n">
         <v>981749826</v>
       </c>
-      <c r="Y7" s="12" t="n">
+      <c r="Y7" s="4" t="n">
         <v>2385996445.99</v>
       </c>
-      <c r="Z7" s="12" t="n">
+      <c r="Z7" s="4" t="n">
         <v>6817417160.3232</v>
       </c>
-      <c r="AA7" s="12" t="n">
+      <c r="AA7" s="4" t="n">
         <v>7508782351.1885</v>
       </c>
-      <c r="AB7" s="12" t="n">
+      <c r="AB7" s="4" t="n">
         <v>7861920791.503</v>
       </c>
-      <c r="AC7" s="12" t="n">
+      <c r="AC7" s="4" t="n">
         <v>13107462376.4131</v>
       </c>
-      <c r="AD7" s="12" t="n">
+      <c r="AD7" s="4" t="n">
         <v>13069958915.0291</v>
       </c>
-      <c r="AE7" s="12" t="n">
+      <c r="AE7" s="4" t="n">
         <v>14688207053.6773</v>
       </c>
-      <c r="AF7" s="12" t="n">
+      <c r="AF7" s="4" t="n">
         <v>15435306684.591</v>
       </c>
-      <c r="AG7" s="12" t="n">
+      <c r="AG7" s="4" t="n">
         <v>15858656918.138</v>
       </c>
-      <c r="AH7" s="12" t="n">
+      <c r="AH7" s="4" t="n">
         <v>18014754542.0148</v>
       </c>
-      <c r="AI7" s="12" t="n">
+      <c r="AI7" s="4" t="n">
         <v>18684525908.2708</v>
       </c>
-      <c r="AJ7" s="12" t="n">
+      <c r="AJ7" s="4" t="n">
         <v>15913240755.2894</v>
       </c>
-      <c r="AK7" s="12" t="n">
+      <c r="AK7" s="4" t="n">
         <v>15451587261.2432</v>
       </c>
-      <c r="AL7" s="12" t="n">
+      <c r="AL7" s="4" t="n">
         <v>14511229333.9844</v>
       </c>
-      <c r="AM7" s="12" t="n">
+      <c r="AM7" s="4" t="n">
         <v>10822775050.9626</v>
       </c>
-      <c r="AN7" s="12" t="n">
+      <c r="AN7" s="4" t="n">
         <v>11183772858.6994</v>
       </c>
-      <c r="AO7" s="12" t="n">
+      <c r="AO7" s="4" t="n">
         <v>10540231636.6298</v>
       </c>
-      <c r="AP7" s="12" t="n">
+      <c r="AP7" s="4" t="n">
         <v>10748108320.9994</v>
       </c>
-      <c r="AQ7" s="12" t="n">
+      <c r="AQ7" s="4" t="n">
         <v>10429648511.1803</v>
       </c>
-      <c r="AR7" s="12" t="n">
+      <c r="AR7" s="4" t="n">
         <v>12796350351.1652</v>
       </c>
-      <c r="AS7" s="12" t="n">
+      <c r="AS7" s="4" t="n">
         <v>12270124351.9907</v>
       </c>
-      <c r="AT7" s="12" t="n">
+      <c r="AT7" s="4" t="n">
         <v>13098514464.9583</v>
       </c>
-      <c r="AU7" s="12" t="n">
+      <c r="AU7" s="4" t="n">
         <v>13926445640.0295</v>
       </c>
-      <c r="AV7" s="12" t="n">
+      <c r="AV7" s="4" t="n">
         <v>15021781810.765</v>
       </c>
-      <c r="AW7" s="12" t="n">
+      <c r="AW7" s="4" t="n">
         <v>16467671477.4858</v>
       </c>
-      <c r="AX7" s="12" t="n">
+      <c r="AX7" s="4" t="n">
         <v>16576128536.9465</v>
       </c>
-      <c r="AY7" s="12" t="n">
+      <c r="AY7" s="4" t="n">
         <v>8101698976.42</v>
       </c>
-      <c r="AZ7" s="12"/>
+      <c r="AZ7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -8033,103 +8435,103 @@
       <c r="O8" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12" t="n">
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4" t="n">
         <v>4000</v>
       </c>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12" t="n">
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="n">
         <v>466000</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="4" t="n">
         <v>1539000</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="4" t="n">
         <v>11144883</v>
       </c>
-      <c r="X8" s="12" t="n">
+      <c r="X8" s="4" t="n">
         <v>17736646</v>
       </c>
-      <c r="Y8" s="12" t="n">
+      <c r="Y8" s="4" t="n">
         <v>40506313</v>
       </c>
-      <c r="Z8" s="12" t="n">
+      <c r="Z8" s="4" t="n">
         <v>127589857</v>
       </c>
-      <c r="AA8" s="12" t="n">
+      <c r="AA8" s="4" t="n">
         <v>82537761</v>
       </c>
-      <c r="AB8" s="12" t="n">
+      <c r="AB8" s="4" t="n">
         <v>42739274</v>
       </c>
-      <c r="AC8" s="12" t="n">
+      <c r="AC8" s="4" t="n">
         <v>41854809</v>
       </c>
-      <c r="AD8" s="12" t="n">
+      <c r="AD8" s="4" t="n">
         <v>64609952</v>
       </c>
-      <c r="AE8" s="12" t="n">
+      <c r="AE8" s="4" t="n">
         <v>77999428</v>
       </c>
-      <c r="AF8" s="12" t="n">
+      <c r="AF8" s="4" t="n">
         <v>22804467.4902</v>
       </c>
-      <c r="AG8" s="12" t="n">
+      <c r="AG8" s="4" t="n">
         <v>16132393.32</v>
       </c>
-      <c r="AH8" s="12" t="n">
+      <c r="AH8" s="4" t="n">
         <v>3369075.5989</v>
       </c>
-      <c r="AI8" s="12" t="n">
+      <c r="AI8" s="4" t="n">
         <v>76110.8399</v>
       </c>
-      <c r="AJ8" s="12" t="n">
+      <c r="AJ8" s="4" t="n">
         <v>247544.7852</v>
       </c>
-      <c r="AK8" s="12" t="n">
+      <c r="AK8" s="4" t="n">
         <v>48821.5107</v>
       </c>
-      <c r="AL8" s="12" t="n">
+      <c r="AL8" s="4" t="n">
         <v>225766.78</v>
       </c>
-      <c r="AM8" s="12" t="n">
+      <c r="AM8" s="4" t="n">
         <v>56566.51</v>
       </c>
-      <c r="AN8" s="12" t="n">
+      <c r="AN8" s="4" t="n">
         <v>60316.69</v>
       </c>
-      <c r="AO8" s="12" t="n">
+      <c r="AO8" s="4" t="n">
         <v>6976.7998</v>
       </c>
-      <c r="AP8" s="12" t="n">
+      <c r="AP8" s="4" t="n">
         <v>78653.04</v>
       </c>
-      <c r="AQ8" s="12" t="n">
+      <c r="AQ8" s="4" t="n">
         <v>160375.8401</v>
       </c>
-      <c r="AR8" s="12" t="n">
+      <c r="AR8" s="4" t="n">
         <v>2203351.9017</v>
       </c>
-      <c r="AS8" s="12" t="n">
+      <c r="AS8" s="4" t="n">
         <v>1151915.5</v>
       </c>
-      <c r="AT8" s="12" t="n">
+      <c r="AT8" s="4" t="n">
         <v>1481539.125</v>
       </c>
-      <c r="AU8" s="12" t="n">
+      <c r="AU8" s="4" t="n">
         <v>1930569.125</v>
       </c>
-      <c r="AV8" s="12" t="n">
+      <c r="AV8" s="4" t="n">
         <v>1306848.125</v>
       </c>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12" t="n">
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4" t="n">
         <v>21183.26</v>
       </c>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -8140,89 +8542,89 @@
       </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="4" t="n">
         <v>12183236305</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="4" t="n">
         <v>18492829868</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="4" t="n">
         <v>17657715911</v>
       </c>
-      <c r="S9" s="12" t="n">
+      <c r="S9" s="4" t="n">
         <v>17178015869</v>
       </c>
-      <c r="T9" s="12" t="n">
+      <c r="T9" s="4" t="n">
         <v>20332444544</v>
       </c>
-      <c r="U9" s="12" t="n">
+      <c r="U9" s="4" t="n">
         <v>20137905407</v>
       </c>
-      <c r="V9" s="12" t="n">
+      <c r="V9" s="4" t="n">
         <v>20282796585</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="4" t="n">
         <v>20228512717</v>
       </c>
-      <c r="X9" s="12" t="n">
+      <c r="X9" s="4" t="n">
         <v>19564618261</v>
       </c>
-      <c r="Y9" s="12" t="n">
+      <c r="Y9" s="4" t="n">
         <v>20604829391</v>
       </c>
-      <c r="Z9" s="12" t="n">
+      <c r="Z9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA9" s="12" t="n">
+      <c r="AA9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AB9" s="12" t="n">
+      <c r="AB9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" s="12" t="n">
+      <c r="AC9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AD9" s="12" t="n">
+      <c r="AD9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AE9" s="12" t="n">
+      <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AF9" s="12" t="n">
+      <c r="AF9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG9" s="12" t="n">
+      <c r="AG9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="12"/>
-      <c r="AQ9" s="12"/>
-      <c r="AR9" s="12"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="12" t="n">
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU9" s="12"/>
-      <c r="AV9" s="12" t="n">
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW9" s="12" t="n">
+      <c r="AW9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX9" s="12" t="n">
+      <c r="AX9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY9" s="12" t="n">
+      <c r="AY9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ9" s="12"/>
+      <c r="AZ9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -8237,115 +8639,115 @@
       <c r="O10" t="s">
         <v>194</v>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="4" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="4" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="4" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="4" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="4" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="12" t="str">
+      <c r="U10" s="4" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="12" t="str">
+      <c r="V10" s="4" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="12" t="str">
+      <c r="W10" s="4" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="12" t="str">
+      <c r="X10" s="4" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="12" t="str">
+      <c r="Y10" s="4" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="12" t="str">
+      <c r="Z10" s="4" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="12" t="str">
+      <c r="AA10" s="4" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="12" t="str">
+      <c r="AB10" s="4" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="12" t="str">
+      <c r="AC10" s="4" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="12" t="str">
+      <c r="AD10" s="4" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="12" t="str">
+      <c r="AE10" s="4" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="12" t="str">
+      <c r="AF10" s="4" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="12" t="str">
+      <c r="AG10" s="4" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="12" t="str">
+      <c r="AH10" s="4" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="12" t="str">
+      <c r="AI10" s="4" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="12" t="str">
+      <c r="AJ10" s="4" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="12" t="str">
+      <c r="AK10" s="4" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="12" t="str">
+      <c r="AL10" s="4" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="12" t="str">
+      <c r="AM10" s="4" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="12" t="str">
+      <c r="AN10" s="4" t="str">
         <f>Sum(AN2:AN9)</f>
       </c>
-      <c r="AO10" s="12" t="str">
+      <c r="AO10" s="4" t="str">
         <f>Sum(AO2:AO9)</f>
       </c>
-      <c r="AP10" s="12" t="str">
+      <c r="AP10" s="4" t="str">
         <f>Sum(AP2:AP9)</f>
       </c>
-      <c r="AQ10" s="12" t="str">
+      <c r="AQ10" s="4" t="str">
         <f>Sum(AQ2:AQ9)</f>
       </c>
-      <c r="AR10" s="12" t="str">
+      <c r="AR10" s="4" t="str">
         <f>Sum(AR2:AR9)</f>
       </c>
-      <c r="AS10" s="12" t="str">
+      <c r="AS10" s="4" t="str">
         <f>Sum(AS2:AS9)</f>
       </c>
-      <c r="AT10" s="12" t="str">
+      <c r="AT10" s="4" t="str">
         <f>Sum(AT2:AT9)</f>
       </c>
-      <c r="AU10" s="12" t="str">
+      <c r="AU10" s="4" t="str">
         <f>Sum(AU2:AU9)</f>
       </c>
-      <c r="AV10" s="12" t="str">
+      <c r="AV10" s="4" t="str">
         <f>Sum(AV2:AV9)</f>
       </c>
-      <c r="AW10" s="12" t="str">
+      <c r="AW10" s="4" t="str">
         <f>Sum(AW2:AW9)</f>
       </c>
-      <c r="AX10" s="12" t="str">
+      <c r="AX10" s="4" t="str">
         <f>Sum(AX2:AX9)</f>
       </c>
-      <c r="AY10" s="12" t="str">
+      <c r="AY10" s="4" t="str">
         <f>Sum(AY2:AY9)</f>
       </c>
-      <c r="AZ10" s="12"/>
+      <c r="AZ10" s="4"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -8482,115 +8884,115 @@
       <c r="O14" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="4" t="n">
         <v>106086487.881425</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="4" t="n">
         <v>31548894.6502592</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="4" t="n">
         <v>51869072.2921957</v>
       </c>
-      <c r="S14" s="12" t="n">
+      <c r="S14" s="4" t="n">
         <v>41712801.8014433</v>
       </c>
-      <c r="T14" s="12" t="n">
+      <c r="T14" s="4" t="n">
         <v>16656162.1392419</v>
       </c>
-      <c r="U14" s="12" t="n">
+      <c r="U14" s="4" t="n">
         <v>53425130.338227</v>
       </c>
-      <c r="V14" s="12" t="n">
+      <c r="V14" s="4" t="n">
         <v>127820789.638209</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="4" t="n">
         <v>1747271514.28117</v>
       </c>
-      <c r="X14" s="12" t="n">
+      <c r="X14" s="4" t="n">
         <v>2002945151.6191</v>
       </c>
-      <c r="Y14" s="12" t="n">
+      <c r="Y14" s="4" t="n">
         <v>2880667886.17451</v>
       </c>
-      <c r="Z14" s="12" t="n">
+      <c r="Z14" s="4" t="n">
         <v>18436885714.7415</v>
       </c>
-      <c r="AA14" s="12" t="n">
+      <c r="AA14" s="4" t="n">
         <v>19797676901.8184</v>
       </c>
-      <c r="AB14" s="12" t="n">
+      <c r="AB14" s="4" t="n">
         <v>21739134816.5126</v>
       </c>
-      <c r="AC14" s="12" t="n">
+      <c r="AC14" s="4" t="n">
         <v>22512973778.2652</v>
       </c>
-      <c r="AD14" s="12" t="n">
+      <c r="AD14" s="4" t="n">
         <v>20688899622.0479</v>
       </c>
-      <c r="AE14" s="12" t="n">
+      <c r="AE14" s="4" t="n">
         <v>22547111747.1048</v>
       </c>
-      <c r="AF14" s="12" t="n">
+      <c r="AF14" s="4" t="n">
         <v>26486373548.0493</v>
       </c>
-      <c r="AG14" s="12" t="n">
+      <c r="AG14" s="4" t="n">
         <v>26690398417.1969</v>
       </c>
-      <c r="AH14" s="12" t="n">
+      <c r="AH14" s="4" t="n">
         <v>33744428333.735</v>
       </c>
-      <c r="AI14" s="12" t="n">
+      <c r="AI14" s="4" t="n">
         <v>42403897678.1142</v>
       </c>
-      <c r="AJ14" s="12" t="n">
+      <c r="AJ14" s="4" t="n">
         <v>39167929242.0416</v>
       </c>
-      <c r="AK14" s="12" t="n">
+      <c r="AK14" s="4" t="n">
         <v>31575819675.957</v>
       </c>
-      <c r="AL14" s="12" t="n">
+      <c r="AL14" s="4" t="n">
         <v>28444994268.0194</v>
       </c>
-      <c r="AM14" s="12" t="n">
+      <c r="AM14" s="4" t="n">
         <v>23826860249.2214</v>
       </c>
-      <c r="AN14" s="12" t="n">
+      <c r="AN14" s="4" t="n">
         <v>24043145843.6632</v>
       </c>
-      <c r="AO14" s="12" t="n">
+      <c r="AO14" s="4" t="n">
         <v>21653147799.9663</v>
       </c>
-      <c r="AP14" s="12" t="n">
+      <c r="AP14" s="4" t="n">
         <v>21839198188.3079</v>
       </c>
-      <c r="AQ14" s="12" t="n">
+      <c r="AQ14" s="4" t="n">
         <v>21850871761.8065</v>
       </c>
-      <c r="AR14" s="12" t="n">
+      <c r="AR14" s="4" t="n">
         <v>24781473727.5362</v>
       </c>
-      <c r="AS14" s="12" t="n">
+      <c r="AS14" s="4" t="n">
         <v>30682032169.5007</v>
       </c>
-      <c r="AT14" s="12" t="n">
+      <c r="AT14" s="4" t="n">
         <v>32413554021.939</v>
       </c>
-      <c r="AU14" s="12" t="n">
+      <c r="AU14" s="4" t="n">
         <v>25906631289.8744</v>
       </c>
-      <c r="AV14" s="12" t="n">
+      <c r="AV14" s="4" t="n">
         <v>27091132208.9023</v>
       </c>
-      <c r="AW14" s="12" t="n">
+      <c r="AW14" s="4" t="n">
         <v>28481125060.9</v>
       </c>
-      <c r="AX14" s="12" t="n">
+      <c r="AX14" s="4" t="n">
         <v>27153945832.7772</v>
       </c>
-      <c r="AY14" s="12" t="n">
+      <c r="AY14" s="4" t="n">
         <v>7641787836.69587</v>
       </c>
-      <c r="AZ14" s="12"/>
+      <c r="AZ14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -8605,115 +9007,115 @@
       <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="4" t="n">
         <v>5658819.38024354</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="4" t="n">
         <v>14429540.6508496</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="4" t="n">
         <v>10595894.1924981</v>
       </c>
-      <c r="S15" s="12" t="n">
+      <c r="S15" s="4" t="n">
         <v>14017206.9209559</v>
       </c>
-      <c r="T15" s="12" t="n">
+      <c r="T15" s="4" t="n">
         <v>25570805.597957</v>
       </c>
-      <c r="U15" s="12" t="n">
+      <c r="U15" s="4" t="n">
         <v>9456229.5349996</v>
       </c>
-      <c r="V15" s="12" t="n">
+      <c r="V15" s="4" t="n">
         <v>8167840.126758</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="4" t="n">
         <v>14901029.843142</v>
       </c>
-      <c r="X15" s="12" t="n">
+      <c r="X15" s="4" t="n">
         <v>134806628.584475</v>
       </c>
-      <c r="Y15" s="12" t="n">
+      <c r="Y15" s="4" t="n">
         <v>330236997.094339</v>
       </c>
-      <c r="Z15" s="12" t="n">
+      <c r="Z15" s="4" t="n">
         <v>1013714553.56652</v>
       </c>
-      <c r="AA15" s="12" t="n">
+      <c r="AA15" s="4" t="n">
         <v>1104559914.26047</v>
       </c>
-      <c r="AB15" s="12" t="n">
+      <c r="AB15" s="4" t="n">
         <v>1366333361.73877</v>
       </c>
-      <c r="AC15" s="12" t="n">
+      <c r="AC15" s="4" t="n">
         <v>1825095046.92215</v>
       </c>
-      <c r="AD15" s="12" t="n">
+      <c r="AD15" s="4" t="n">
         <v>2265005305.02259</v>
       </c>
-      <c r="AE15" s="12" t="n">
+      <c r="AE15" s="4" t="n">
         <v>2736876770.84112</v>
       </c>
-      <c r="AF15" s="12" t="n">
+      <c r="AF15" s="4" t="n">
         <v>2432683421.20938</v>
       </c>
-      <c r="AG15" s="12" t="n">
+      <c r="AG15" s="4" t="n">
         <v>2645455680.2736</v>
       </c>
-      <c r="AH15" s="12" t="n">
+      <c r="AH15" s="4" t="n">
         <v>2754868127.94965</v>
       </c>
-      <c r="AI15" s="12" t="n">
+      <c r="AI15" s="4" t="n">
         <v>3290100652.5157</v>
       </c>
-      <c r="AJ15" s="12" t="n">
+      <c r="AJ15" s="4" t="n">
         <v>3361630034.92317</v>
       </c>
-      <c r="AK15" s="12" t="n">
+      <c r="AK15" s="4" t="n">
         <v>3097753619.09621</v>
       </c>
-      <c r="AL15" s="12" t="n">
+      <c r="AL15" s="4" t="n">
         <v>2205791170.76589</v>
       </c>
-      <c r="AM15" s="12" t="n">
+      <c r="AM15" s="4" t="n">
         <v>1590288942.06282</v>
       </c>
-      <c r="AN15" s="12" t="n">
+      <c r="AN15" s="4" t="n">
         <v>1891962697.53651</v>
       </c>
-      <c r="AO15" s="12" t="n">
+      <c r="AO15" s="4" t="n">
         <v>1890338227.58321</v>
       </c>
-      <c r="AP15" s="12" t="n">
+      <c r="AP15" s="4" t="n">
         <v>1816101042.40605</v>
       </c>
-      <c r="AQ15" s="12" t="n">
+      <c r="AQ15" s="4" t="n">
         <v>1875413079.1163</v>
       </c>
-      <c r="AR15" s="12" t="n">
+      <c r="AR15" s="4" t="n">
         <v>2195589729.03068</v>
       </c>
-      <c r="AS15" s="12" t="n">
+      <c r="AS15" s="4" t="n">
         <v>2156665968.72236</v>
       </c>
-      <c r="AT15" s="12" t="n">
+      <c r="AT15" s="4" t="n">
         <v>2229870031.17867</v>
       </c>
-      <c r="AU15" s="12" t="n">
+      <c r="AU15" s="4" t="n">
         <v>2070957871.9781</v>
       </c>
-      <c r="AV15" s="12" t="n">
+      <c r="AV15" s="4" t="n">
         <v>1938641356.95752</v>
       </c>
-      <c r="AW15" s="12" t="n">
+      <c r="AW15" s="4" t="n">
         <v>2312237183.93</v>
       </c>
-      <c r="AX15" s="12" t="n">
+      <c r="AX15" s="4" t="n">
         <v>2278783063.8619</v>
       </c>
-      <c r="AY15" s="12" t="n">
+      <c r="AY15" s="4" t="n">
         <v>844136054.044895</v>
       </c>
-      <c r="AZ15" s="12"/>
+      <c r="AZ15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -8728,109 +9130,109 @@
       <c r="O16" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="4" t="n">
         <v>1410568.28118644</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="4" t="n">
         <v>1319945.52590805</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="4" t="n">
         <v>933155.601803016</v>
       </c>
-      <c r="S16" s="12" t="n">
+      <c r="S16" s="4" t="n">
         <v>49490.4100957163</v>
       </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12" t="n">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="n">
         <v>236853.446696764</v>
       </c>
-      <c r="X16" s="12" t="n">
+      <c r="X16" s="4" t="n">
         <v>795473.864004217</v>
       </c>
-      <c r="Y16" s="12" t="n">
+      <c r="Y16" s="4" t="n">
         <v>1089237.49122985</v>
       </c>
-      <c r="Z16" s="12" t="n">
+      <c r="Z16" s="4" t="n">
         <v>6556001.26506953</v>
       </c>
-      <c r="AA16" s="12" t="n">
+      <c r="AA16" s="4" t="n">
         <v>10064454.0104517</v>
       </c>
-      <c r="AB16" s="12" t="n">
+      <c r="AB16" s="4" t="n">
         <v>10640102.1145122</v>
       </c>
-      <c r="AC16" s="12" t="n">
+      <c r="AC16" s="4" t="n">
         <v>8633670.68112705</v>
       </c>
-      <c r="AD16" s="12" t="n">
+      <c r="AD16" s="4" t="n">
         <v>31309339.1641572</v>
       </c>
-      <c r="AE16" s="12" t="n">
+      <c r="AE16" s="4" t="n">
         <v>19964049.0857244</v>
       </c>
-      <c r="AF16" s="12" t="n">
+      <c r="AF16" s="4" t="n">
         <v>35593954.9993331</v>
       </c>
-      <c r="AG16" s="12" t="n">
+      <c r="AG16" s="4" t="n">
         <v>15025968.2192581</v>
       </c>
-      <c r="AH16" s="12" t="n">
+      <c r="AH16" s="4" t="n">
         <v>21915064.4531403</v>
       </c>
-      <c r="AI16" s="12" t="n">
+      <c r="AI16" s="4" t="n">
         <v>19470621.0267655</v>
       </c>
-      <c r="AJ16" s="12" t="n">
+      <c r="AJ16" s="4" t="n">
         <v>404751261.655043</v>
       </c>
-      <c r="AK16" s="12" t="n">
+      <c r="AK16" s="4" t="n">
         <v>511107891.631351</v>
       </c>
-      <c r="AL16" s="12" t="n">
+      <c r="AL16" s="4" t="n">
         <v>609307450.656607</v>
       </c>
-      <c r="AM16" s="12" t="n">
+      <c r="AM16" s="4" t="n">
         <v>556366142.824302</v>
       </c>
-      <c r="AN16" s="12" t="n">
+      <c r="AN16" s="4" t="n">
         <v>636663181.953154</v>
       </c>
-      <c r="AO16" s="12" t="n">
+      <c r="AO16" s="4" t="n">
         <v>589177323.240657</v>
       </c>
-      <c r="AP16" s="12" t="n">
+      <c r="AP16" s="4" t="n">
         <v>819671276.436065</v>
       </c>
-      <c r="AQ16" s="12" t="n">
+      <c r="AQ16" s="4" t="n">
         <v>655470243.077027</v>
       </c>
-      <c r="AR16" s="12" t="n">
+      <c r="AR16" s="4" t="n">
         <v>1609939274.68917</v>
       </c>
-      <c r="AS16" s="12" t="n">
+      <c r="AS16" s="4" t="n">
         <v>568264079.833625</v>
       </c>
-      <c r="AT16" s="12" t="n">
+      <c r="AT16" s="4" t="n">
         <v>602824277.884134</v>
       </c>
-      <c r="AU16" s="12" t="n">
+      <c r="AU16" s="4" t="n">
         <v>477286699.797584</v>
       </c>
-      <c r="AV16" s="12" t="n">
+      <c r="AV16" s="4" t="n">
         <v>440174048.656506</v>
       </c>
-      <c r="AW16" s="12" t="n">
+      <c r="AW16" s="4" t="n">
         <v>674679825.3825</v>
       </c>
-      <c r="AX16" s="12" t="n">
+      <c r="AX16" s="4" t="n">
         <v>651679079.736701</v>
       </c>
-      <c r="AY16" s="12" t="n">
+      <c r="AY16" s="4" t="n">
         <v>215677804.158864</v>
       </c>
-      <c r="AZ16" s="12"/>
+      <c r="AZ16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -8845,115 +9247,115 @@
       <c r="O17" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="12" t="n">
+      <c r="P17" s="4" t="n">
         <v>1338178.41338361</v>
       </c>
-      <c r="Q17" s="12" t="n">
+      <c r="Q17" s="4" t="n">
         <v>239627.0243706</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="4" t="n">
         <v>2043591.2866208</v>
       </c>
-      <c r="S17" s="12" t="n">
+      <c r="S17" s="4" t="n">
         <v>3928777.17067532</v>
       </c>
-      <c r="T17" s="12" t="n">
+      <c r="T17" s="4" t="n">
         <v>11756199.7616891</v>
       </c>
-      <c r="U17" s="12" t="n">
+      <c r="U17" s="4" t="n">
         <v>66702535.76511</v>
       </c>
-      <c r="V17" s="12" t="n">
+      <c r="V17" s="4" t="n">
         <v>89244664.392455</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="4" t="n">
         <v>148691180.113529</v>
       </c>
-      <c r="X17" s="12" t="n">
+      <c r="X17" s="4" t="n">
         <v>205768120.932306</v>
       </c>
-      <c r="Y17" s="12" t="n">
+      <c r="Y17" s="4" t="n">
         <v>330680571.294876</v>
       </c>
-      <c r="Z17" s="12" t="n">
+      <c r="Z17" s="4" t="n">
         <v>1090797839.71842</v>
       </c>
-      <c r="AA17" s="12" t="n">
+      <c r="AA17" s="4" t="n">
         <v>1306127732.32743</v>
       </c>
-      <c r="AB17" s="12" t="n">
+      <c r="AB17" s="4" t="n">
         <v>1847608131.02776</v>
       </c>
-      <c r="AC17" s="12" t="n">
+      <c r="AC17" s="4" t="n">
         <v>2429758260.97515</v>
       </c>
-      <c r="AD17" s="12" t="n">
+      <c r="AD17" s="4" t="n">
         <v>2492885778.76065</v>
       </c>
-      <c r="AE17" s="12" t="n">
+      <c r="AE17" s="4" t="n">
         <v>2121448472.93374</v>
       </c>
-      <c r="AF17" s="12" t="n">
+      <c r="AF17" s="4" t="n">
         <v>2156308579.84932</v>
       </c>
-      <c r="AG17" s="12" t="n">
+      <c r="AG17" s="4" t="n">
         <v>2409562334.32247</v>
       </c>
-      <c r="AH17" s="12" t="n">
+      <c r="AH17" s="4" t="n">
         <v>2220445220.73619</v>
       </c>
-      <c r="AI17" s="12" t="n">
+      <c r="AI17" s="4" t="n">
         <v>2250409164.66988</v>
       </c>
-      <c r="AJ17" s="12" t="n">
+      <c r="AJ17" s="4" t="n">
         <v>2050681324.00231</v>
       </c>
-      <c r="AK17" s="12" t="n">
+      <c r="AK17" s="4" t="n">
         <v>1821587119.50012</v>
       </c>
-      <c r="AL17" s="12" t="n">
+      <c r="AL17" s="4" t="n">
         <v>1427473610.25838</v>
       </c>
-      <c r="AM17" s="12" t="n">
+      <c r="AM17" s="4" t="n">
         <v>954591075.985442</v>
       </c>
-      <c r="AN17" s="12" t="n">
+      <c r="AN17" s="4" t="n">
         <v>985037852.219942</v>
       </c>
-      <c r="AO17" s="12" t="n">
+      <c r="AO17" s="4" t="n">
         <v>784338062.805606</v>
       </c>
-      <c r="AP17" s="12" t="n">
+      <c r="AP17" s="4" t="n">
         <v>828236464.801185</v>
       </c>
-      <c r="AQ17" s="12" t="n">
+      <c r="AQ17" s="4" t="n">
         <v>742373719.511853</v>
       </c>
-      <c r="AR17" s="12" t="n">
+      <c r="AR17" s="4" t="n">
         <v>795701045.326299</v>
       </c>
-      <c r="AS17" s="12" t="n">
+      <c r="AS17" s="4" t="n">
         <v>732185539.637039</v>
       </c>
-      <c r="AT17" s="12" t="n">
+      <c r="AT17" s="4" t="n">
         <v>832359697.388482</v>
       </c>
-      <c r="AU17" s="12" t="n">
+      <c r="AU17" s="4" t="n">
         <v>866467818.739494</v>
       </c>
-      <c r="AV17" s="12" t="n">
+      <c r="AV17" s="4" t="n">
         <v>905736145.601716</v>
       </c>
-      <c r="AW17" s="12" t="n">
+      <c r="AW17" s="4" t="n">
         <v>991730587.7387</v>
       </c>
-      <c r="AX17" s="12" t="n">
+      <c r="AX17" s="4" t="n">
         <v>1161044041.40282</v>
       </c>
-      <c r="AY17" s="12" t="n">
+      <c r="AY17" s="4" t="n">
         <v>238295162.79345</v>
       </c>
-      <c r="AZ17" s="12"/>
+      <c r="AZ17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -8968,103 +9370,103 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12" t="n">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4" t="n">
         <v>215030.719530251</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12" t="n">
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="n">
         <v>423899397.291029</v>
       </c>
-      <c r="X18" s="12" t="n">
+      <c r="X18" s="4" t="n">
         <v>595942604.465055</v>
       </c>
-      <c r="Y18" s="12" t="n">
+      <c r="Y18" s="4" t="n">
         <v>938867050.568379</v>
       </c>
-      <c r="Z18" s="12" t="n">
+      <c r="Z18" s="4" t="n">
         <v>2744573427.78005</v>
       </c>
-      <c r="AA18" s="12" t="n">
+      <c r="AA18" s="4" t="n">
         <v>3181981928.84732</v>
       </c>
-      <c r="AB18" s="12" t="n">
+      <c r="AB18" s="4" t="n">
         <v>4379146505.01422</v>
       </c>
-      <c r="AC18" s="12" t="n">
+      <c r="AC18" s="4" t="n">
         <v>6991466930.15854</v>
       </c>
-      <c r="AD18" s="12" t="n">
+      <c r="AD18" s="4" t="n">
         <v>9452097126.1351</v>
       </c>
-      <c r="AE18" s="12" t="n">
+      <c r="AE18" s="4" t="n">
         <v>9815880104.85475</v>
       </c>
-      <c r="AF18" s="12" t="n">
+      <c r="AF18" s="4" t="n">
         <v>12664988526.6387</v>
       </c>
-      <c r="AG18" s="12" t="n">
+      <c r="AG18" s="4" t="n">
         <v>11169689178.1452</v>
       </c>
-      <c r="AH18" s="12" t="n">
+      <c r="AH18" s="4" t="n">
         <v>15728231766.8287</v>
       </c>
-      <c r="AI18" s="12" t="n">
+      <c r="AI18" s="4" t="n">
         <v>17498324637.7234</v>
       </c>
-      <c r="AJ18" s="12" t="n">
+      <c r="AJ18" s="4" t="n">
         <v>16706824535.4915</v>
       </c>
-      <c r="AK18" s="12" t="n">
+      <c r="AK18" s="4" t="n">
         <v>15207829091.1492</v>
       </c>
-      <c r="AL18" s="12" t="n">
+      <c r="AL18" s="4" t="n">
         <v>12523850344.94</v>
       </c>
-      <c r="AM18" s="12" t="n">
+      <c r="AM18" s="4" t="n">
         <v>10011518327.0825</v>
       </c>
-      <c r="AN18" s="12" t="n">
+      <c r="AN18" s="4" t="n">
         <v>11650442965.5255</v>
       </c>
-      <c r="AO18" s="12" t="n">
+      <c r="AO18" s="4" t="n">
         <v>9560516791.17369</v>
       </c>
-      <c r="AP18" s="12" t="n">
+      <c r="AP18" s="4" t="n">
         <v>9201803932.04749</v>
       </c>
-      <c r="AQ18" s="12" t="n">
+      <c r="AQ18" s="4" t="n">
         <v>9116983826.98708</v>
       </c>
-      <c r="AR18" s="12" t="n">
+      <c r="AR18" s="4" t="n">
         <v>11409971831.7194</v>
       </c>
-      <c r="AS18" s="12" t="n">
+      <c r="AS18" s="4" t="n">
         <v>12534631335.8265</v>
       </c>
-      <c r="AT18" s="12" t="n">
+      <c r="AT18" s="4" t="n">
         <v>18434506115.802</v>
       </c>
-      <c r="AU18" s="12" t="n">
+      <c r="AU18" s="4" t="n">
         <v>12509325711.9849</v>
       </c>
-      <c r="AV18" s="12" t="n">
+      <c r="AV18" s="4" t="n">
         <v>13907530803.4339</v>
       </c>
-      <c r="AW18" s="12" t="n">
+      <c r="AW18" s="4" t="n">
         <v>16104449494.7756</v>
       </c>
-      <c r="AX18" s="12" t="n">
+      <c r="AX18" s="4" t="n">
         <v>17154173765.5393</v>
       </c>
-      <c r="AY18" s="12" t="n">
+      <c r="AY18" s="4" t="n">
         <v>4353166198.42128</v>
       </c>
-      <c r="AZ18" s="12"/>
+      <c r="AZ18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -9079,115 +9481,115 @@
       <c r="O19" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="12" t="n">
+      <c r="P19" s="4" t="n">
         <v>65260499.9652136</v>
       </c>
-      <c r="Q19" s="12" t="n">
+      <c r="Q19" s="4" t="n">
         <v>60346072.303996</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="4" t="n">
         <v>669555703.422297</v>
       </c>
-      <c r="S19" s="12" t="n">
+      <c r="S19" s="4" t="n">
         <v>114716867.124559</v>
       </c>
-      <c r="T19" s="12" t="n">
+      <c r="T19" s="4" t="n">
         <v>96858716.9717615</v>
       </c>
-      <c r="U19" s="12" t="n">
+      <c r="U19" s="4" t="n">
         <v>80124398.596616</v>
       </c>
-      <c r="V19" s="12" t="n">
+      <c r="V19" s="4" t="n">
         <v>155333985.435642</v>
       </c>
-      <c r="W19" s="12" t="n">
+      <c r="W19" s="4" t="n">
         <v>933060490.434829</v>
       </c>
-      <c r="X19" s="12" t="n">
+      <c r="X19" s="4" t="n">
         <v>1705696005.6387</v>
       </c>
-      <c r="Y19" s="12" t="n">
+      <c r="Y19" s="4" t="n">
         <v>4094736201.54735</v>
       </c>
-      <c r="Z19" s="12" t="n">
+      <c r="Z19" s="4" t="n">
         <v>11461260327.8507</v>
       </c>
-      <c r="AA19" s="12" t="n">
+      <c r="AA19" s="4" t="n">
         <v>12324822658.2216</v>
       </c>
-      <c r="AB19" s="12" t="n">
+      <c r="AB19" s="4" t="n">
         <v>12704589241.6942</v>
       </c>
-      <c r="AC19" s="12" t="n">
+      <c r="AC19" s="4" t="n">
         <v>20782282520.8168</v>
       </c>
-      <c r="AD19" s="12" t="n">
+      <c r="AD19" s="4" t="n">
         <v>20228856153.503</v>
       </c>
-      <c r="AE19" s="12" t="n">
+      <c r="AE19" s="4" t="n">
         <v>22062131610.8202</v>
       </c>
-      <c r="AF19" s="12" t="n">
+      <c r="AF19" s="4" t="n">
         <v>22454866955.4706</v>
       </c>
-      <c r="AG19" s="12" t="n">
+      <c r="AG19" s="4" t="n">
         <v>22452635704.715</v>
       </c>
-      <c r="AH19" s="12" t="n">
+      <c r="AH19" s="4" t="n">
         <v>24986491149.3436</v>
       </c>
-      <c r="AI19" s="12" t="n">
+      <c r="AI19" s="4" t="n">
         <v>25653133239.406</v>
       </c>
-      <c r="AJ19" s="12" t="n">
+      <c r="AJ19" s="4" t="n">
         <v>21660674601.7639</v>
       </c>
-      <c r="AK19" s="12" t="n">
+      <c r="AK19" s="4" t="n">
         <v>20618444011.6633</v>
       </c>
-      <c r="AL19" s="12" t="n">
+      <c r="AL19" s="4" t="n">
         <v>19018528725.3409</v>
       </c>
-      <c r="AM19" s="12" t="n">
+      <c r="AM19" s="4" t="n">
         <v>13931626595.1619</v>
       </c>
-      <c r="AN19" s="12" t="n">
+      <c r="AN19" s="4" t="n">
         <v>14138392221.2882</v>
       </c>
-      <c r="AO19" s="12" t="n">
+      <c r="AO19" s="4" t="n">
         <v>13188254160.1275</v>
       </c>
-      <c r="AP19" s="12" t="n">
+      <c r="AP19" s="4" t="n">
         <v>13341687851.3885</v>
       </c>
-      <c r="AQ19" s="12" t="n">
+      <c r="AQ19" s="4" t="n">
         <v>12731471940.0435</v>
       </c>
-      <c r="AR19" s="12" t="n">
+      <c r="AR19" s="4" t="n">
         <v>15281260876.8707</v>
       </c>
-      <c r="AS19" s="12" t="n">
+      <c r="AS19" s="4" t="n">
         <v>14386841612.3631</v>
       </c>
-      <c r="AT19" s="12" t="n">
+      <c r="AT19" s="4" t="n">
         <v>15160099179.8649</v>
       </c>
-      <c r="AU19" s="12" t="n">
+      <c r="AU19" s="4" t="n">
         <v>15582046006.1953</v>
       </c>
-      <c r="AV19" s="12" t="n">
+      <c r="AV19" s="4" t="n">
         <v>15708977175.2138</v>
       </c>
-      <c r="AW19" s="12" t="n">
+      <c r="AW19" s="4" t="n">
         <v>16467671477.4858</v>
       </c>
-      <c r="AX19" s="12" t="n">
+      <c r="AX19" s="4" t="n">
         <v>16144961391.7578</v>
       </c>
-      <c r="AY19" s="12" t="n">
+      <c r="AY19" s="4" t="n">
         <v>7721536493.50795</v>
       </c>
-      <c r="AZ19" s="12"/>
+      <c r="AZ19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -9202,103 +9604,103 @@
       <c r="O20" t="s">
         <v>69</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12" t="n">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4" t="n">
         <v>7987.56747901999</v>
       </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12" t="n">
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="n">
         <v>850039.151873035</v>
       </c>
-      <c r="V20" s="12" t="n">
+      <c r="V20" s="4" t="n">
         <v>2755437.51755383</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="4" t="n">
         <v>19605935.5574368</v>
       </c>
-      <c r="X20" s="12" t="n">
+      <c r="X20" s="4" t="n">
         <v>30815718.4594475</v>
       </c>
-      <c r="Y20" s="12" t="n">
+      <c r="Y20" s="4" t="n">
         <v>69515051.6720439</v>
       </c>
-      <c r="Z20" s="12" t="n">
+      <c r="Z20" s="4" t="n">
         <v>214500672.597966</v>
       </c>
-      <c r="AA20" s="12" t="n">
+      <c r="AA20" s="4" t="n">
         <v>135476462.008605</v>
       </c>
-      <c r="AB20" s="12" t="n">
+      <c r="AB20" s="4" t="n">
         <v>69065173.1374691</v>
       </c>
-      <c r="AC20" s="12" t="n">
+      <c r="AC20" s="4" t="n">
         <v>66362079.8987074</v>
       </c>
-      <c r="AD20" s="12" t="n">
+      <c r="AD20" s="4" t="n">
         <v>99999199.2009889</v>
       </c>
-      <c r="AE20" s="12" t="n">
+      <c r="AE20" s="4" t="n">
         <v>117157501.920826</v>
       </c>
-      <c r="AF20" s="12" t="n">
+      <c r="AF20" s="4" t="n">
         <v>33175322.9104281</v>
       </c>
-      <c r="AG20" s="12" t="n">
+      <c r="AG20" s="4" t="n">
         <v>22840190.8263027</v>
       </c>
-      <c r="AH20" s="12" t="n">
+      <c r="AH20" s="4" t="n">
         <v>4672912.83026104</v>
       </c>
-      <c r="AI20" s="12" t="n">
+      <c r="AI20" s="4" t="n">
         <v>104497.246893138</v>
       </c>
-      <c r="AJ20" s="12" t="n">
+      <c r="AJ20" s="4" t="n">
         <v>336951.292576811</v>
       </c>
-      <c r="AK20" s="12" t="n">
+      <c r="AK20" s="4" t="n">
         <v>65146.9371989801</v>
       </c>
-      <c r="AL20" s="12" t="n">
+      <c r="AL20" s="4" t="n">
         <v>295891.677530174</v>
       </c>
-      <c r="AM20" s="12" t="n">
+      <c r="AM20" s="4" t="n">
         <v>72815.2891842096</v>
       </c>
-      <c r="AN20" s="12" t="n">
+      <c r="AN20" s="4" t="n">
         <v>76251.6398968627</v>
       </c>
-      <c r="AO20" s="12" t="n">
+      <c r="AO20" s="4" t="n">
         <v>8729.58129942454</v>
       </c>
-      <c r="AP20" s="12" t="n">
+      <c r="AP20" s="4" t="n">
         <v>97632.4648861747</v>
       </c>
-      <c r="AQ20" s="12" t="n">
+      <c r="AQ20" s="4" t="n">
         <v>195770.788047678</v>
       </c>
-      <c r="AR20" s="12" t="n">
+      <c r="AR20" s="4" t="n">
         <v>2631218.61229448</v>
       </c>
-      <c r="AS20" s="12" t="n">
+      <c r="AS20" s="4" t="n">
         <v>1350632.26532315</v>
       </c>
-      <c r="AT20" s="12" t="n">
+      <c r="AT20" s="4" t="n">
         <v>1714719.64503586</v>
       </c>
-      <c r="AU20" s="12" t="n">
+      <c r="AU20" s="4" t="n">
         <v>2160078.58009537</v>
       </c>
-      <c r="AV20" s="12" t="n">
+      <c r="AV20" s="4" t="n">
         <v>1366631.97653318</v>
       </c>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12" t="n">
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4" t="n">
         <v>20632.2552391698</v>
       </c>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -9309,89 +9711,89 @@
       </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="4" t="n">
         <v>25198367586.5573</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="4" t="n">
         <v>36928181612.1716</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="4" t="n">
         <v>34399575192.8933</v>
       </c>
-      <c r="S21" s="12" t="n">
+      <c r="S21" s="4" t="n">
         <v>32697963461.0589</v>
       </c>
-      <c r="T21" s="12" t="n">
+      <c r="T21" s="4" t="n">
         <v>37875499873.6697</v>
       </c>
-      <c r="U21" s="12" t="n">
+      <c r="U21" s="4" t="n">
         <v>36733922816.8792</v>
       </c>
-      <c r="V21" s="12" t="n">
+      <c r="V21" s="4" t="n">
         <v>36314476069.6697</v>
       </c>
-      <c r="W21" s="12" t="n">
+      <c r="W21" s="4" t="n">
         <v>35585740716.3711</v>
       </c>
-      <c r="X21" s="12" t="n">
+      <c r="X21" s="4" t="n">
         <v>33991644649.0244</v>
       </c>
-      <c r="Y21" s="12" t="n">
+      <c r="Y21" s="4" t="n">
         <v>35361050506.1029</v>
       </c>
-      <c r="Z21" s="12" t="n">
+      <c r="Z21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AA21" s="12" t="n">
+      <c r="AA21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AB21" s="12" t="n">
+      <c r="AB21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" s="12" t="n">
+      <c r="AC21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AD21" s="12" t="n">
+      <c r="AD21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="12" t="n">
+      <c r="AE21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AF21" s="12" t="n">
+      <c r="AF21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AG21" s="12" t="n">
+      <c r="AG21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12" t="n">
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12" t="n">
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AW21" s="12" t="n">
+      <c r="AW21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AX21" s="12" t="n">
+      <c r="AX21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AY21" s="12" t="n">
+      <c r="AY21" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="AZ21" s="12"/>
+      <c r="AZ21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -9400,43 +9802,43 @@
       <c r="B22" t="str">
         <f>O22</f>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
+++ b/Output/AcqTrends/Platform/Facilities_and_Construction/DoD_Facilities_and_Construction_Contracts.xlsx
@@ -656,17 +656,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
-    <numFmt numFmtId="206" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="191" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="205" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="204" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="203" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="211" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="210" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="209" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="208" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="184" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="186" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="187" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="195" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="207" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="212" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -704,18 +704,18 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="211" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="210" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="209" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="186" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
